--- a/doc/crypto.xlsx
+++ b/doc/crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="p:\crypto-rtd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3934CE89-FCF9-4831-A2A2-D8E23C9915B0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBFF042-2AF1-4E0B-B493-05FDDDE2A6C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13620" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>crypto-debug</t>
   </si>
@@ -68,19 +68,10 @@
     <t>OPEN</t>
   </si>
   <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
     <t>ethusdt</t>
   </si>
   <si>
     <t>btcusdt</t>
-  </si>
-  <si>
-    <t>24H</t>
   </si>
   <si>
     <t>VWAP</t>
@@ -98,10 +89,61 @@
     <t>ltcusdt</t>
   </si>
   <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>VOL</t>
+  </si>
+  <si>
+    <t>BID_DEPTH</t>
+  </si>
+  <si>
+    <t>ASK_DEPTH</t>
+  </si>
+  <si>
+    <t>BID_DEPTH_SIZE</t>
+  </si>
+  <si>
+    <t>ASK_DEPTH_SIZE</t>
+  </si>
+  <si>
+    <t>ASK_SIZE</t>
+  </si>
+  <si>
+    <t>BID_SIZE</t>
+  </si>
+  <si>
     <t>CLOSE</t>
   </si>
   <si>
-    <t>Spread</t>
+    <t>xrpusdt</t>
+  </si>
+  <si>
+    <t>neobtc</t>
+  </si>
+  <si>
+    <t>xrpbtc</t>
+  </si>
+  <si>
+    <t>trxbtc</t>
+  </si>
+  <si>
+    <t>Quote Depth</t>
+  </si>
+  <si>
+    <t>Trade Depth</t>
+  </si>
+  <si>
+    <t>ApiKey</t>
+  </si>
+  <si>
+    <t>ApiSecret</t>
+  </si>
+  <si>
+    <t>************</t>
+  </si>
+  <si>
+    <t>***********</t>
   </si>
 </sst>
 </file>
@@ -109,11 +151,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +170,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF5A3C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +203,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,48 +233,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="32">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -226,7 +313,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -245,7 +350,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -264,6 +390,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -282,7 +427,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="#,##0.0000"/>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -301,7 +464,187 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -393,7 +736,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -412,7 +754,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -431,7 +773,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -450,7 +792,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -469,7 +810,98 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -491,7 +923,58 @@
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -529,247 +1012,479 @@
   <volType type="realTimeData">
     <main first="crypto-debug">
       <tp>
-        <v>17728</v>
+        <v>16157</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>TRADES</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-      <tp>
-        <v>94536</v>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>91101</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>TRADES</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-      <tp>
-        <v>157655</v>
+        <tr r="M10" s="1"/>
+      </tp>
+      <tp>
+        <v>180114</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>TRADES</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp>
-        <v>4.1209999999999997E-2</v>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>15511</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>TRADES</stp>
+        <tr r="M13" s="1"/>
+      </tp>
+      <tp>
+        <v>1815881779</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>VOL</stp>
+        <tr r="K16" s="1"/>
+      </tp>
+      <tp>
+        <v>26959600</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>VOL</stp>
+        <tr r="K15" s="1"/>
+      </tp>
+      <tp>
+        <v>353793.76</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>VOL</stp>
+        <tr r="K14" s="1"/>
+      </tp>
+      <tp>
+        <v>-4.1439999999999998E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>PRICE%</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>3.823E-2</v>
+        <tr r="N12" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.8740000000000002E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>PRICE%</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp>
-        <v>4.1849999999999998E-2</v>
+        <tr r="N11" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.9469999999999998E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>PRICE%</stp>
-        <tr r="M10" s="1"/>
-      </tp>
-      <tp>
-        <v>134.55000000000001</v>
+        <tr r="N10" s="1"/>
+      </tp>
+      <tp>
+        <v>-4.548E-2</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>PRICE%</stp>
+        <tr r="N13" s="1"/>
+      </tp>
+      <tp>
+        <v>9.2399999999999996E-6</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>LOW</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+      <tp>
+        <v>8.0000000000000007E-5</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>LOW</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp>
+        <v>7.2110000000000004E-3</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>LOW</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+      <tp>
+        <v>7.26E-3</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>ASK</stp>
+        <tr r="I14" s="1"/>
+      </tp>
+      <tp>
+        <v>8.051E-5</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>ASK</stp>
+        <tr r="I15" s="1"/>
+      </tp>
+      <tp>
+        <v>9.4800000000000007E-6</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>ASK</stp>
+        <tr r="I16" s="1"/>
+      </tp>
+      <tp>
+        <v>9.4700000000000008E-6</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>BID</stp>
+        <tr r="G16" s="1"/>
+      </tp>
+      <tp>
+        <v>8.0500000000000005E-5</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>BID</stp>
+        <tr r="G15" s="1"/>
+      </tp>
+      <tp>
+        <v>7.2509999999999996E-3</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>BID</stp>
+        <tr r="G14" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.1780000000000003E-2</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>PRICE_CHANGE</stp>
+        <tr r="O13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>CLOSE</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>8237.15</v>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>5.54</v>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp>
+        <v>583</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>BID_SIZE</stp>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp>
+        <v>-5.76</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="N12" s="1"/>
-      </tp>
-      <tp>
-        <v>318.85000000000002</v>
+        <tr r="O12" s="1"/>
+      </tp>
+      <tp>
+        <v>-245</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="N11" s="1"/>
-      </tp>
-      <tp>
-        <v>28.87</v>
+        <tr r="O11" s="1"/>
+      </tp>
+      <tp>
+        <v>-28.22</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="N10" s="1"/>
-      </tp>
-      <tp>
-        <v>139.96</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ltcusdt</stp>
-        <stp>PRICE</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp>
-        <v>8556</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>btcusdt</stp>
-        <stp>PRICE</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16</v>
+        <tr r="O10" s="1"/>
+      </tp>
+      <tp>
+        <v>0.15</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>Spread</stp>
-        <tr r="J12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.01</v>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.94</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>Spread</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>0.01</v>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>3.96</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>Spread</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp>
-        <v>692.11</v>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>4.8999999999999998E-4</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>Spread</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>720.99</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ethusdt</stp>
-        <stp>PRICE</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp>
-        <v>729.88</v>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp>
+        <v>0.70499999999999996</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>HIGH</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>CLOSE</stp>
+        <tr r="D16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>CLOSE</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+      <tp>
+        <v>720.46</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>HIGH</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>8609</v>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp>
+        <v>8595.31</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>HIGH</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>141</v>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp>
+        <v>139.53</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>HIGH</stp>
-        <tr r="E12" s="1"/>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>ASK_SIZE</stp>
+        <tr r="J14" s="1"/>
+      </tp>
+      <tp>
+        <v>4178</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>BID_SIZE</stp>
+        <tr r="F16" s="1"/>
       </tp>
       <tp t="s">
-        <v>BTCUSDT</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>btcusdt</stp>
-        <stp>Symbol</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ETHUSDT</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ethusdt</stp>
-        <stp>Symbol</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>LTCUSDT</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ltcusdt</stp>
-        <stp>Symbol</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp>
-        <v>709.48227315999998</v>
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>CLOSE</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp>
+        <v>701.40768762000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>VWAP</stp>
-        <tr r="K10" s="1"/>
-      </tp>
-      <tp>
-        <v>137.19840431</v>
+        <tr r="L10" s="1"/>
+      </tp>
+      <tp>
+        <v>135.48956107999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>VWAP</stp>
-        <tr r="K12" s="1"/>
-      </tp>
-      <tp>
-        <v>8365.4065077699997</v>
+        <tr r="L12" s="1"/>
+      </tp>
+      <tp>
+        <v>8414.1575548700002</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>VWAP</stp>
-        <tr r="K11" s="1"/>
-      </tp>
-      <tp>
-        <v>692.12</v>
+        <tr r="L11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>OPEN</stp>
+        <tr r="E13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.68132548000000004</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>VWAP</stp>
+        <tr r="L13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>OPEN</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
-        <v>8237.15</v>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>134.41999999999999</v>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>OPEN</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>719.51</v>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.59</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>BID_SIZE</stp>
+        <tr r="F14" s="1"/>
+      </tp>
+      <tp>
+        <v>720829</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>ASK_SIZE</stp>
+        <tr r="J16" s="1"/>
+      </tp>
+      <tp>
+        <v>191</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>ASK_SIZE</stp>
+        <tr r="J15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>CLOSE</stp>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp>
+        <v>176884</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>TRADES</stp>
+        <tr r="M16" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.8630000000000001E-2</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>PRICE%</stp>
+        <tr r="N16" s="1"/>
+      </tp>
+      <tp>
+        <v>43888</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>TRADES</stp>
+        <tr r="M15" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.685E-2</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>PRICE%</stp>
+        <tr r="N15" s="1"/>
+      </tp>
+      <tp>
+        <v>-4.6620000000000002E-2</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>PRICE%</stp>
+        <tr r="N14" s="1"/>
+      </tp>
+      <tp>
+        <v>61305</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>TRADES</stp>
+        <tr r="M14" s="1"/>
+      </tp>
+      <tp>
+        <v>685.95</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -777,7 +1492,7 @@
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>8530.2000000000007</v>
+        <v>8283.64</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -785,7 +1500,171 @@
         <tr r="D6" s="1"/>
       </tp>
       <tp>
-        <v>719.51</v>
+        <v>7.4530100000000004E-3</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>VWAP</stp>
+        <tr r="L14" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.3799999999999999E-6</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>PRICE_CHANGE</stp>
+        <tr r="O15" s="1"/>
+      </tp>
+      <tp>
+        <v>1E-8</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>Spread</stp>
+        <tr r="H16" s="1"/>
+      </tp>
+      <tp>
+        <v>722.39</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>BID_SIZE</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>9.8600000000000005E-6</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>HIGH</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+      <tp>
+        <v>42312.503799999999</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
+        <stp>VOL</stp>
+        <tr r="K12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66654999999999998</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>BID</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>11.94641</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
+        <stp>BID_SIZE</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.105168</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>BID_SIZE</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>9.0627200000000006</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_SIZE</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66703999999999997</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>ASK</stp>
+        <tr r="I13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>OPEN</stp>
+        <tr r="E14" s="1"/>
+      </tp>
+      <tp>
+        <v>8.2369999999999999E-5</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>HIGH</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH_SIZE</stp>
+        <stp>5</stp>
+        <tr r="K26" s="1"/>
+        <tr r="E26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH_SIZE</stp>
+        <stp>4</stp>
+        <tr r="K25" s="1"/>
+        <tr r="E25" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH_SIZE</stp>
+        <stp>3</stp>
+        <tr r="K24" s="1"/>
+        <tr r="E24" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH_SIZE</stp>
+        <stp>2</stp>
+        <tr r="K23" s="1"/>
+        <tr r="E23" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH_SIZE</stp>
+        <stp>1</stp>
+        <tr r="E22" s="1"/>
+        <tr r="K22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH_SIZE</stp>
+        <stp>0</stp>
+        <tr r="E21" s="1"/>
+        <tr r="K21" s="1"/>
+      </tp>
+      <tp>
+        <v>685.95</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -793,7 +1672,23 @@
         <tr r="B5" s="1"/>
       </tp>
       <tp>
-        <v>719.57</v>
+        <v>21907.509212000001</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>VOL</stp>
+        <tr r="K11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66315999999999997</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>LOW</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp>
+        <v>685.96</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -801,7 +1696,23 @@
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>8535.77</v>
+        <v>1E-8</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>Spread</stp>
+        <tr r="H15" s="1"/>
+      </tp>
+      <tp>
+        <v>96341.859070000006</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>VOL</stp>
+        <tr r="K10" s="1"/>
+      </tp>
+      <tp>
+        <v>8283.65</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -809,7 +1720,15 @@
         <tr r="C6" s="1"/>
       </tp>
       <tp>
-        <v>8530.2000000000007</v>
+        <v>-1.8E-7</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>PRICE_CHANGE</stp>
+        <tr r="O16" s="1"/>
+      </tp>
+      <tp>
+        <v>8283.64</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -817,23 +1736,99 @@
         <tr r="B6" s="1"/>
       </tp>
       <tp>
-        <v>8163.9</v>
+        <v>8251.23</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>LOW</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp>
-        <v>139.94999999999999</v>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp>
+        <v>133.08000000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>BID</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>140.1</v>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>7531885.2999999998</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>VOL</stp>
+        <tr r="K13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>OPEN</stp>
+        <tr r="E15" s="1"/>
+      </tp>
+      <tp>
+        <v>1.45556</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH_SIZE</stp>
+        <stp>5</stp>
+        <tr r="G26" s="1"/>
+        <tr r="A26" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH_SIZE</stp>
+        <stp>4</stp>
+        <tr r="G25" s="1"/>
+        <tr r="A25" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH_SIZE</stp>
+        <stp>3</stp>
+        <tr r="G24" s="1"/>
+        <tr r="A24" s="1"/>
+      </tp>
+      <tp>
+        <v>0.23723</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH_SIZE</stp>
+        <stp>2</stp>
+        <tr r="A23" s="1"/>
+        <tr r="G23" s="1"/>
+      </tp>
+      <tp>
+        <v>0.84128999999999998</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH_SIZE</stp>
+        <stp>1</stp>
+        <tr r="A22" s="1"/>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>3.1796500000000001</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH_SIZE</stp>
+        <stp>0</stp>
+        <tr r="A21" s="1"/>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>133.22999999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -841,31 +1836,199 @@
         <tr r="I12" s="1"/>
       </tp>
       <tp>
-        <v>684</v>
+        <v>-3.5500000000000001E-4</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>PRICE_CHANGE</stp>
+        <tr r="O14" s="1"/>
+      </tp>
+      <tp>
+        <v>687.13</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH</stp>
+        <stp>1</stp>
+        <tr r="B22" s="1"/>
+        <tr r="H22" s="1"/>
+      </tp>
+      <tp>
+        <v>688</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH</stp>
+        <stp>0</stp>
+        <tr r="B21" s="1"/>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>685.86</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH</stp>
+        <stp>3</stp>
+        <tr r="H24" s="1"/>
+        <tr r="B24" s="1"/>
+      </tp>
+      <tp>
+        <v>686.27</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH</stp>
+        <stp>2</stp>
+        <tr r="B23" s="1"/>
+        <tr r="H23" s="1"/>
+      </tp>
+      <tp>
+        <v>683.31</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH</stp>
+        <stp>5</stp>
+        <tr r="H26" s="1"/>
+        <tr r="B26" s="1"/>
+      </tp>
+      <tp>
+        <v>683.88</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH</stp>
+        <stp>4</stp>
+        <tr r="B25" s="1"/>
+        <tr r="H25" s="1"/>
+      </tp>
+      <tp>
+        <v>9.0000000000000002E-6</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>Spread</stp>
+        <tr r="H14" s="1"/>
+      </tp>
+      <tp>
+        <v>8.0939999999999994E-5</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>VWAP</stp>
+        <tr r="L15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH</stp>
+        <stp>4</stp>
+        <tr r="J25" s="1"/>
+        <tr r="D25" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH</stp>
+        <stp>5</stp>
+        <tr r="J26" s="1"/>
+        <tr r="D26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH</stp>
+        <stp>2</stp>
+        <tr r="D23" s="1"/>
+        <tr r="J23" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH</stp>
+        <stp>3</stp>
+        <tr r="J24" s="1"/>
+        <tr r="D24" s="1"/>
+      </tp>
+      <tp>
+        <v>689.02</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH</stp>
+        <stp>0</stp>
+        <tr r="D21" s="1"/>
+        <tr r="J21" s="1"/>
+      </tp>
+      <tp>
+        <v>689.11</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH</stp>
+        <stp>1</stp>
+        <tr r="D22" s="1"/>
+        <tr r="J22" s="1"/>
+      </tp>
+      <tp>
+        <v>682.2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>LOW</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp>
-        <v>720.99</v>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp>
+        <v>685.8</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>721</v>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>6845.71</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>ASK_SIZE</stp>
+        <tr r="J13" s="1"/>
+      </tp>
+      <tp>
+        <v>9.55E-6</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>VWAP</stp>
+        <tr r="L16" s="1"/>
+      </tp>
+      <tp>
+        <v>686.74</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK</stp>
         <tr r="I10" s="1"/>
       </tp>
-      <tp>
-        <v>8552.08</v>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>OPEN</stp>
+        <tr r="E16" s="1"/>
+      </tp>
+      <tp>
+        <v>8280</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -873,20 +2036,52 @@
         <tr r="I11" s="1"/>
       </tp>
       <tp>
-        <v>132.5</v>
+        <v>132.01</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>LOW</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp>
-        <v>8552.07</v>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp>
+        <v>8276.0400000000009</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>BID</stp>
-        <tr r="H11" s="1"/>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>7.7429999999999999E-3</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>HIGH</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+      <tp>
+        <v>0.50599000000000005</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_SIZE</stp>
+        <tr r="J10" s="1"/>
+      </tp>
+      <tp>
+        <v>4.0000000000000003E-5</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
+        <stp>ASK_SIZE</stp>
+        <tr r="J12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.6244310000000004</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>ASK_SIZE</stp>
+        <tr r="J11" s="1"/>
       </tp>
     </main>
   </volType>
@@ -894,48 +2089,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A9:N12" totalsRowShown="0" dataDxfId="17" dataCellStyle="Comma">
-  <autoFilter ref="A9:N12" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A9:O17" totalsRowShown="0" dataDxfId="31" dataCellStyle="Comma">
+  <autoFilter ref="A9:O17" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3DCAC593-21E4-456C-93D1-EEDC8340EA91}" name="Ticker"/>
-    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="Symbol" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="30" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,B$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="PRICE" dataDxfId="15" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="29" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,C$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="14" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="28" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,D$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="13" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="27" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,E$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="OPEN" dataDxfId="12" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="26" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,F$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="CLOSE" dataDxfId="11" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="25" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,G$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="10" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="24" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,H$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="23" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,I$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="22" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,J$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="VWAP" dataDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="21" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,K$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="VWAP" dataDxfId="20" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,L$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="19" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,M$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,N$9)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="17" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,O$9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -943,18 +2141,62 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E0BE176-951A-4CA3-A803-9256000D1161}" name="Table2" displayName="Table2" ref="A4:D6" totalsRowShown="0" dataDxfId="9" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E0BE176-951A-4CA3-A803-9256000D1161}" name="Table2" displayName="Table2" ref="A4:D6" totalsRowShown="0" dataDxfId="16" dataCellStyle="Comma">
   <autoFilter ref="A4:D6" xr:uid="{580FE727-A11C-4ED9-9482-452D0F24BAD3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C68E037-DF9F-4856-B04D-2DCDFFB4E15E}" name="Ticker"/>
-    <tableColumn id="2" xr3:uid="{8FAA28E5-F641-4937-ADD4-FAC56E0C4147}" name="BID" dataDxfId="8" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{8FAA28E5-F641-4937-ADD4-FAC56E0C4147}" name="BID" dataDxfId="15" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,GDAX,$A5,B$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{041CD0D7-D375-4B88-8B1B-CD344CCDEB4E}" name="ASK" dataDxfId="7" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{041CD0D7-D375-4B88-8B1B-CD344CCDEB4E}" name="ASK" dataDxfId="14" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,GDAX,$A5,C$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5B81F177-A71A-4810-A2A9-102CFDC4A15D}" name="LAST_PRICE" dataDxfId="6" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{5B81F177-A71A-4810-A2A9-102CFDC4A15D}" name="LAST_PRICE" dataDxfId="13" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,GDAX,$A5,D$4)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A20:E26" totalsRowShown="0" dataDxfId="12" dataCellStyle="Comma">
+  <autoFilter ref="A20:E26" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="11" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,A$20,$C21)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="10" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,B$20,$C21)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="8" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,D$20,$C21)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="7" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,E$20,$C21)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8B0290AD-C5DD-4B76-B4F7-AEF1FACAA07B}" name="Table35" displayName="Table35" ref="G20:K26" totalsRowShown="0" dataDxfId="6" dataCellStyle="Comma">
+  <autoFilter ref="G20:K26" xr:uid="{735B8BFE-9144-400D-A1CE-731051967131}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3FD9FA90-1358-4E48-A238-E9689DE6AD18}" name="BID_DEPTH_SIZE" dataDxfId="5" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,G$20,$C21)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{94DA87B2-BB20-4557-97B9-4C6BAC416595}" name="BID_DEPTH" dataDxfId="4" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,H$20,$C21)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{AB47819E-501C-468F-A828-30A628901BF9}" name="ethusdt" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7112BC43-BDBC-4A7D-88C8-EF8A10F0D375}" name="ASK_DEPTH" dataDxfId="2" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,J$20,$C21)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{844C175C-2C85-44FD-A14B-C37B6C8AD486}" name="ASK_DEPTH_SIZE" dataDxfId="1" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,K$20,$C21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1258,27 +2500,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F314B32C-A36F-425C-B63D-E2C30E3C057B}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" customWidth="1"/>
-    <col min="6" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1287,14 +2535,14 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1303,7 +2551,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1318,281 +2566,1358 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
         <f>RTD(progId,,GDAX,$A5,B$4)</f>
-        <v>719.51</v>
+        <v>685.95</v>
       </c>
       <c r="C5" s="2">
         <f>RTD(progId,,GDAX,$A5,C$4)</f>
-        <v>719.57</v>
+        <v>685.96</v>
       </c>
       <c r="D5" s="2">
         <f>RTD(progId,,GDAX,$A5,D$4)</f>
-        <v>719.51</v>
+        <v>685.95</v>
       </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G5" s="13">
+        <f>G10-C5</f>
+        <v>-0.16000000000008185</v>
+      </c>
+      <c r="H5" s="14">
+        <f>G5*G10* F10</f>
+        <v>-994.43414016050872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
         <f>RTD(progId,,GDAX,$A6,B$4)</f>
-        <v>8530.2000000000007</v>
+        <v>8283.64</v>
       </c>
       <c r="C6" s="2">
         <f>RTD(progId,,GDAX,$A6,C$4)</f>
-        <v>8535.77</v>
+        <v>8283.65</v>
       </c>
       <c r="D6" s="2">
         <f>RTD(progId,,GDAX,$A6,D$4)</f>
-        <v>8530.2000000000007</v>
+        <v>8283.64</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
         <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I9" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" t="s">
         <v>17</v>
       </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="str">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
         <f>RTD(progId,,BINANCE,$A10,B$9)</f>
-        <v>ETHUSDT</v>
+        <v>682.2</v>
       </c>
       <c r="C10" s="2">
         <f>RTD(progId,,BINANCE,$A10,C$9)</f>
-        <v>720.99</v>
-      </c>
-      <c r="D10" s="5">
+        <v>720.46</v>
+      </c>
+      <c r="D10" s="2" t="str">
         <f>RTD(progId,,BINANCE,$A10,D$9)</f>
-        <v>684</v>
-      </c>
-      <c r="E10" s="5">
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="E10" s="2" t="str">
         <f>RTD(progId,,BINANCE,$A10,E$9)</f>
-        <v>729.88</v>
-      </c>
-      <c r="F10" s="5">
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="F10" s="2">
         <f>RTD(progId,,BINANCE,$A10,F$9)</f>
-        <v>692.12</v>
-      </c>
-      <c r="G10" s="5">
+        <v>9.0627200000000006</v>
+      </c>
+      <c r="G10" s="2">
         <f>RTD(progId,,BINANCE,$A10,G$9)</f>
-        <v>692.11</v>
-      </c>
-      <c r="H10" s="5">
+        <v>685.8</v>
+      </c>
+      <c r="H10" s="2">
         <f>RTD(progId,,BINANCE,$A10,H$9)</f>
-        <v>720.99</v>
-      </c>
-      <c r="I10" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="I10" s="2">
         <f>RTD(progId,,BINANCE,$A10,I$9)</f>
-        <v>721</v>
-      </c>
-      <c r="J10" s="8">
+        <v>686.74</v>
+      </c>
+      <c r="J10" s="2">
         <f>RTD(progId,,BINANCE,$A10,J$9)</f>
-        <v>0.01</v>
-      </c>
-      <c r="K10" s="2">
+        <v>0.50599000000000005</v>
+      </c>
+      <c r="K10" s="10">
         <f>RTD(progId,,BINANCE,$A10,K$9)</f>
-        <v>709.48227315999998</v>
-      </c>
-      <c r="L10" s="9">
+        <v>96341.859070000006</v>
+      </c>
+      <c r="L10" s="2">
         <f>RTD(progId,,BINANCE,$A10,L$9)</f>
-        <v>94536</v>
-      </c>
-      <c r="M10" s="7">
+        <v>701.40768762000005</v>
+      </c>
+      <c r="M10" s="10">
         <f>RTD(progId,,BINANCE,$A10,M$9)</f>
-        <v>4.1849999999999998E-2</v>
-      </c>
-      <c r="N10" s="5">
+        <v>91101</v>
+      </c>
+      <c r="N10" s="11">
         <f>RTD(progId,,BINANCE,$A10,N$9)</f>
-        <v>28.87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-3.9469999999999998E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <f>RTD(progId,,BINANCE,$A10,O$9)</f>
+        <v>-28.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="str">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
         <f>RTD(progId,,BINANCE,$A11,B$9)</f>
-        <v>BTCUSDT</v>
+        <v>8251.23</v>
       </c>
       <c r="C11" s="2">
         <f>RTD(progId,,BINANCE,$A11,C$9)</f>
-        <v>8556</v>
-      </c>
-      <c r="D11" s="5">
+        <v>8595.31</v>
+      </c>
+      <c r="D11" s="2" t="str">
         <f>RTD(progId,,BINANCE,$A11,D$9)</f>
-        <v>8163.9</v>
-      </c>
-      <c r="E11" s="5">
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="E11" s="2" t="str">
         <f>RTD(progId,,BINANCE,$A11,E$9)</f>
-        <v>8609</v>
-      </c>
-      <c r="F11" s="5">
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="F11" s="2">
         <f>RTD(progId,,BINANCE,$A11,F$9)</f>
-        <v>8237.15</v>
-      </c>
-      <c r="G11" s="5">
+        <v>0.105168</v>
+      </c>
+      <c r="G11" s="2">
         <f>RTD(progId,,BINANCE,$A11,G$9)</f>
-        <v>8237.15</v>
-      </c>
-      <c r="H11" s="5">
+        <v>8276.0400000000009</v>
+      </c>
+      <c r="H11" s="2">
         <f>RTD(progId,,BINANCE,$A11,H$9)</f>
-        <v>8552.07</v>
-      </c>
-      <c r="I11" s="5">
+        <v>3.96</v>
+      </c>
+      <c r="I11" s="2">
         <f>RTD(progId,,BINANCE,$A11,I$9)</f>
-        <v>8552.08</v>
-      </c>
-      <c r="J11" s="8">
+        <v>8280</v>
+      </c>
+      <c r="J11" s="2">
         <f>RTD(progId,,BINANCE,$A11,J$9)</f>
-        <v>0.01</v>
-      </c>
-      <c r="K11" s="2">
+        <v>7.6244310000000004</v>
+      </c>
+      <c r="K11" s="10">
         <f>RTD(progId,,BINANCE,$A11,K$9)</f>
-        <v>8365.4065077699997</v>
-      </c>
-      <c r="L11" s="9">
+        <v>21907.509212000001</v>
+      </c>
+      <c r="L11" s="2">
         <f>RTD(progId,,BINANCE,$A11,L$9)</f>
-        <v>157655</v>
-      </c>
-      <c r="M11" s="7">
+        <v>8414.1575548700002</v>
+      </c>
+      <c r="M11" s="10">
         <f>RTD(progId,,BINANCE,$A11,M$9)</f>
-        <v>3.823E-2</v>
-      </c>
-      <c r="N11" s="5">
+        <v>180114</v>
+      </c>
+      <c r="N11" s="11">
         <f>RTD(progId,,BINANCE,$A11,N$9)</f>
-        <v>318.85000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-2.8740000000000002E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <f>RTD(progId,,BINANCE,$A11,O$9)</f>
+        <v>-245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,B$9)</f>
+        <v>132.01</v>
+      </c>
+      <c r="C12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,C$9)</f>
+        <v>139.53</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>RTD(progId,,BINANCE,$A12,D$9)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>RTD(progId,,BINANCE,$A12,E$9)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="F12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,F$9)</f>
+        <v>11.94641</v>
+      </c>
+      <c r="G12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,G$9)</f>
+        <v>133.08000000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,H$9)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,I$9)</f>
+        <v>133.22999999999999</v>
+      </c>
+      <c r="J12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,J$9)</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K12" s="10">
+        <f>RTD(progId,,BINANCE,$A12,K$9)</f>
+        <v>42312.503799999999</v>
+      </c>
+      <c r="L12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,L$9)</f>
+        <v>135.48956107999999</v>
+      </c>
+      <c r="M12" s="10">
+        <f>RTD(progId,,BINANCE,$A12,M$9)</f>
+        <v>16157</v>
+      </c>
+      <c r="N12" s="11">
+        <f>RTD(progId,,BINANCE,$A12,N$9)</f>
+        <v>-4.1439999999999998E-2</v>
+      </c>
+      <c r="O12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,O$9)</f>
+        <v>-5.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2">
+        <f>RTD(progId,,BINANCE,$A13,B$9)</f>
+        <v>0.66315999999999997</v>
+      </c>
+      <c r="C13" s="2">
+        <f>RTD(progId,,BINANCE,$A13,C$9)</f>
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>RTD(progId,,BINANCE,$A13,D$9)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="E13" s="12" t="str">
+        <f>RTD(progId,,BINANCE,$A13,E$9)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="F13" s="10">
+        <f>RTD(progId,,BINANCE,$A13,F$9)</f>
+        <v>722.39</v>
+      </c>
+      <c r="G13" s="2">
+        <f>RTD(progId,,BINANCE,$A13,G$9)</f>
+        <v>0.66654999999999998</v>
+      </c>
+      <c r="H13" s="2">
+        <f>RTD(progId,,BINANCE,$A13,H$9)</f>
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="I13" s="2">
+        <f>RTD(progId,,BINANCE,$A13,I$9)</f>
+        <v>0.66703999999999997</v>
+      </c>
+      <c r="J13" s="2">
+        <f>RTD(progId,,BINANCE,$A13,J$9)</f>
+        <v>6845.71</v>
+      </c>
+      <c r="K13" s="10">
+        <f>RTD(progId,,BINANCE,$A13,K$9)</f>
+        <v>7531885.2999999998</v>
+      </c>
+      <c r="L13" s="2">
+        <f>RTD(progId,,BINANCE,$A13,L$9)</f>
+        <v>0.68132548000000004</v>
+      </c>
+      <c r="M13" s="10">
+        <f>RTD(progId,,BINANCE,$A13,M$9)</f>
+        <v>15511</v>
+      </c>
+      <c r="N13" s="11">
+        <f>RTD(progId,,BINANCE,$A13,N$9)</f>
+        <v>-4.548E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <f>RTD(progId,,BINANCE,$A13,O$9)</f>
+        <v>-3.1780000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2">
+        <f>RTD(progId,,BINANCE,$A14,B$9)</f>
+        <v>7.2110000000000004E-3</v>
+      </c>
+      <c r="C14" s="2">
+        <f>RTD(progId,,BINANCE,$A14,C$9)</f>
+        <v>7.7429999999999999E-3</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>RTD(progId,,BINANCE,$A14,D$9)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="E14" s="12" t="str">
+        <f>RTD(progId,,BINANCE,$A14,E$9)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="F14" s="10">
+        <f>RTD(progId,,BINANCE,$A14,F$9)</f>
+        <v>1.59</v>
+      </c>
+      <c r="G14" s="2">
+        <f>RTD(progId,,BINANCE,$A14,G$9)</f>
+        <v>7.2509999999999996E-3</v>
+      </c>
+      <c r="H14" s="2">
+        <f>RTD(progId,,BINANCE,$A14,H$9)</f>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="I14" s="2">
+        <f>RTD(progId,,BINANCE,$A14,I$9)</f>
+        <v>7.26E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <f>RTD(progId,,BINANCE,$A14,J$9)</f>
+        <v>3</v>
+      </c>
+      <c r="K14" s="10">
+        <f>RTD(progId,,BINANCE,$A14,K$9)</f>
+        <v>353793.76</v>
+      </c>
+      <c r="L14" s="2">
+        <f>RTD(progId,,BINANCE,$A14,L$9)</f>
+        <v>7.4530100000000004E-3</v>
+      </c>
+      <c r="M14" s="10">
+        <f>RTD(progId,,BINANCE,$A14,M$9)</f>
+        <v>61305</v>
+      </c>
+      <c r="N14" s="11">
+        <f>RTD(progId,,BINANCE,$A14,N$9)</f>
+        <v>-4.6620000000000002E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <f>RTD(progId,,BINANCE,$A14,O$9)</f>
+        <v>-3.5500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2">
+        <f>RTD(progId,,BINANCE,$A15,B$9)</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="C15" s="2">
+        <f>RTD(progId,,BINANCE,$A15,C$9)</f>
+        <v>8.2369999999999999E-5</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>RTD(progId,,BINANCE,$A15,D$9)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="E15" s="12" t="str">
+        <f>RTD(progId,,BINANCE,$A15,E$9)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="F15" s="10">
+        <f>RTD(progId,,BINANCE,$A15,F$9)</f>
+        <v>583</v>
+      </c>
+      <c r="G15" s="2">
+        <f>RTD(progId,,BINANCE,$A15,G$9)</f>
+        <v>8.0500000000000005E-5</v>
+      </c>
+      <c r="H15" s="2">
+        <f>RTD(progId,,BINANCE,$A15,H$9)</f>
+        <v>1E-8</v>
+      </c>
+      <c r="I15" s="2">
+        <f>RTD(progId,,BINANCE,$A15,I$9)</f>
+        <v>8.051E-5</v>
+      </c>
+      <c r="J15" s="2">
+        <f>RTD(progId,,BINANCE,$A15,J$9)</f>
+        <v>191</v>
+      </c>
+      <c r="K15" s="10">
+        <f>RTD(progId,,BINANCE,$A15,K$9)</f>
+        <v>26959600</v>
+      </c>
+      <c r="L15" s="2">
+        <f>RTD(progId,,BINANCE,$A15,L$9)</f>
+        <v>8.0939999999999994E-5</v>
+      </c>
+      <c r="M15" s="10">
+        <f>RTD(progId,,BINANCE,$A15,M$9)</f>
+        <v>43888</v>
+      </c>
+      <c r="N15" s="11">
+        <f>RTD(progId,,BINANCE,$A15,N$9)</f>
+        <v>-1.685E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <f>RTD(progId,,BINANCE,$A15,O$9)</f>
+        <v>-1.3799999999999999E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2">
+        <f>RTD(progId,,BINANCE,$A16,B$9)</f>
+        <v>9.2399999999999996E-6</v>
+      </c>
+      <c r="C16" s="2">
+        <f>RTD(progId,,BINANCE,$A16,C$9)</f>
+        <v>9.8600000000000005E-6</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>RTD(progId,,BINANCE,$A16,D$9)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="E16" s="12" t="str">
+        <f>RTD(progId,,BINANCE,$A16,E$9)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="F16" s="10">
+        <f>RTD(progId,,BINANCE,$A16,F$9)</f>
+        <v>4178</v>
+      </c>
+      <c r="G16" s="2">
+        <f>RTD(progId,,BINANCE,$A16,G$9)</f>
+        <v>9.4700000000000008E-6</v>
+      </c>
+      <c r="H16" s="2">
+        <f>RTD(progId,,BINANCE,$A16,H$9)</f>
+        <v>1E-8</v>
+      </c>
+      <c r="I16" s="2">
+        <f>RTD(progId,,BINANCE,$A16,I$9)</f>
+        <v>9.4800000000000007E-6</v>
+      </c>
+      <c r="J16" s="2">
+        <f>RTD(progId,,BINANCE,$A16,J$9)</f>
+        <v>720829</v>
+      </c>
+      <c r="K16" s="10">
+        <f>RTD(progId,,BINANCE,$A16,K$9)</f>
+        <v>1815881779</v>
+      </c>
+      <c r="L16" s="2">
+        <f>RTD(progId,,BINANCE,$A16,L$9)</f>
+        <v>9.55E-6</v>
+      </c>
+      <c r="M16" s="10">
+        <f>RTD(progId,,BINANCE,$A16,M$9)</f>
+        <v>176884</v>
+      </c>
+      <c r="N16" s="11">
+        <f>RTD(progId,,BINANCE,$A16,N$9)</f>
+        <v>-1.8630000000000001E-2</v>
+      </c>
+      <c r="O16" s="2">
+        <f>RTD(progId,,BINANCE,$A16,O$9)</f>
+        <v>-1.8E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="str">
-        <f>RTD(progId,,BINANCE,$A12,B$9)</f>
-        <v>LTCUSDT</v>
-      </c>
-      <c r="C12" s="6">
-        <f>RTD(progId,,BINANCE,$A12,C$9)</f>
-        <v>139.96</v>
-      </c>
-      <c r="D12" s="5">
-        <f>RTD(progId,,BINANCE,$A12,D$9)</f>
-        <v>132.5</v>
-      </c>
-      <c r="E12" s="5">
-        <f>RTD(progId,,BINANCE,$A12,E$9)</f>
-        <v>141</v>
-      </c>
-      <c r="F12" s="5">
-        <f>RTD(progId,,BINANCE,$A12,F$9)</f>
-        <v>134.41999999999999</v>
-      </c>
-      <c r="G12" s="5">
-        <f>RTD(progId,,BINANCE,$A12,G$9)</f>
-        <v>134.55000000000001</v>
-      </c>
-      <c r="H12" s="5">
-        <f>RTD(progId,,BINANCE,$A12,H$9)</f>
-        <v>139.94999999999999</v>
-      </c>
-      <c r="I12" s="5">
-        <f>RTD(progId,,BINANCE,$A12,I$9)</f>
-        <v>140.1</v>
-      </c>
-      <c r="J12" s="8">
-        <f>RTD(progId,,BINANCE,$A12,J$9)</f>
-        <v>0.16</v>
-      </c>
-      <c r="K12" s="2">
-        <f>RTD(progId,,BINANCE,$A12,K$9)</f>
-        <v>137.19840431</v>
-      </c>
-      <c r="L12" s="9">
-        <f>RTD(progId,,BINANCE,$A12,L$9)</f>
-        <v>17728</v>
-      </c>
-      <c r="M12" s="7">
-        <f>RTD(progId,,BINANCE,$A12,M$9)</f>
-        <v>4.1209999999999997E-2</v>
-      </c>
-      <c r="N12" s="5">
-        <f>RTD(progId,,BINANCE,$A12,N$9)</f>
-        <v>5.54</v>
-      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,A$20,$C21)</f>
+        <v>3.1796500000000001</v>
+      </c>
+      <c r="B21" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,B$20,$C21)</f>
+        <v>688</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,D$20,$C21)</f>
+        <v>689.02</v>
+      </c>
+      <c r="E21" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,E$20,$C21)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="G21" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,G$20,$C21)</f>
+        <v>3.1796500000000001</v>
+      </c>
+      <c r="H21" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,H$20,$C21)</f>
+        <v>688</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,J$20,$C21)</f>
+        <v>689.02</v>
+      </c>
+      <c r="K21" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,K$20,$C21)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,A$20,$C22)</f>
+        <v>0.84128999999999998</v>
+      </c>
+      <c r="B22" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,B$20,$C22)</f>
+        <v>687.13</v>
+      </c>
+      <c r="C22" s="9">
+        <f>C21+1</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,D$20,$C22)</f>
+        <v>689.11</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,E$20,$C22)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="G22" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,G$20,$C22)</f>
+        <v>0.84128999999999998</v>
+      </c>
+      <c r="H22" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,H$20,$C22)</f>
+        <v>687.13</v>
+      </c>
+      <c r="I22" s="9">
+        <f>I21+1</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,J$20,$C22)</f>
+        <v>689.11</v>
+      </c>
+      <c r="K22" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,K$20,$C22)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,A$20,$C23)</f>
+        <v>0.23723</v>
+      </c>
+      <c r="B23" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,B$20,$C23)</f>
+        <v>686.27</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" ref="C23:C26" si="0">C22+1</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,D$20,$C23)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,E$20,$C23)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="G23" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,G$20,$C23)</f>
+        <v>0.23723</v>
+      </c>
+      <c r="H23" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,H$20,$C23)</f>
+        <v>686.27</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" ref="I23:I26" si="1">I22+1</f>
+        <v>2</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,J$20,$C23)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="K23" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,K$20,$C23)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,A$20,$C24)</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,B$20,$C24)</f>
+        <v>685.86</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,D$20,$C24)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="E24" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,E$20,$C24)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="G24" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,G$20,$C24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,H$20,$C24)</f>
+        <v>685.86</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J24" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,J$20,$C24)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="K24" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,K$20,$C24)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,A$20,$C25)</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,B$20,$C25)</f>
+        <v>683.88</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,D$20,$C25)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="E25" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,E$20,$C25)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="G25" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,G$20,$C25)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,H$20,$C25)</f>
+        <v>683.88</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,J$20,$C25)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="K25" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,K$20,$C25)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,A$20,$C26)</f>
+        <v>1.45556</v>
+      </c>
+      <c r="B26" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,B$20,$C26)</f>
+        <v>683.31</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,D$20,$C26)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="E26" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,E$20,$C26)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="G26" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,G$20,$C26)</f>
+        <v>1.45556</v>
+      </c>
+      <c r="H26" s="8">
+        <f>RTD(progId,,BINANCE,$C$20,H$20,$C26)</f>
+        <v>683.31</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,J$20,$C26)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+      <c r="K26" s="8" t="str">
+        <f>RTD(progId,,BINANCE,$C$20,K$20,$C26)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H29" s="1"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H31" s="1"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="1"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I42" s="4"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I43" s="4"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I47" s="4"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I50" s="4"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I51" s="4"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I52" s="4"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I53" s="4"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I55" s="4"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I56" s="4"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I57" s="4"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I58" s="4"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I59" s="4"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I60" s="4"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I62" s="4"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I63" s="4"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I64" s="4"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I65" s="4"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I66" s="4"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I67" s="4"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I68" s="4"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I69" s="4"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I70" s="4"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I71" s="4"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I72" s="4"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I73" s="4"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I74" s="4"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I75" s="4"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I76" s="4"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I77" s="4"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I78" s="4"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I79" s="4"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I80" s="4"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I81" s="4"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I82" s="4"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I83" s="4"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I84" s="4"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I85" s="4"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I86" s="4"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I87" s="4"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+    </row>
+    <row r="88" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I88" s="4"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+    </row>
+    <row r="89" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I89" s="4"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+    </row>
+    <row r="90" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I90" s="4"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+    </row>
+    <row r="92" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I92" s="4"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+    </row>
+    <row r="93" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I93" s="4"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+    </row>
+    <row r="94" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I94" s="4"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+    </row>
+    <row r="95" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I95" s="4"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+    </row>
+    <row r="96" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I96" s="4"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+    </row>
+    <row r="97" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I97" s="4"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+    </row>
+    <row r="98" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I98" s="4"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I99" s="4"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+    </row>
+    <row r="100" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I100" s="4"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+    </row>
+    <row r="101" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I101" s="4"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+    </row>
+    <row r="102" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I102" s="4"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+    </row>
+    <row r="103" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I103" s="4"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+    </row>
+    <row r="104" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I104" s="4"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+    </row>
+    <row r="105" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I105" s="4"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I106" s="4"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+    </row>
+    <row r="107" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I107" s="4"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+    </row>
+    <row r="108" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I108" s="4"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+    </row>
+    <row r="109" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I109" s="4"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+    </row>
+    <row r="110" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I110" s="4"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+    </row>
+    <row r="111" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I111" s="4"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+    </row>
+    <row r="112" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I112" s="4"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+    </row>
+    <row r="113" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I113" s="4"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+    </row>
+    <row r="114" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I114" s="4"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+    </row>
+    <row r="115" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I115" s="4"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="7"/>
+    </row>
+    <row r="116" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I116" s="4"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+    </row>
+    <row r="117" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I117" s="4"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+    </row>
+    <row r="118" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I118" s="4"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+    </row>
+    <row r="119" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I119" s="4"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+    </row>
+    <row r="120" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I120" s="4"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+    </row>
+    <row r="121" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <ignoredErrors>
+    <ignoredError sqref="C23:C26" formula="1"/>
+  </ignoredErrors>
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/doc/crypto.xlsx
+++ b/doc/crypto.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="p:\crypto-rtd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBFF042-2AF1-4E0B-B493-05FDDDE2A6C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E72A4B9-80B0-4615-AFF1-1E5DFC8A7D41}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13620" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="BINANCE">Sheet1!$A$8</definedName>
-    <definedName name="GDAX">Sheet1!$A$3</definedName>
-    <definedName name="progId">Sheet1!$A$1</definedName>
+    <definedName name="BINANCE">Sheet1!$A$6</definedName>
+    <definedName name="GDAX">Sheet1!$A$1</definedName>
+    <definedName name="progId">Sheet1!$H$1</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>crypto-debug</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>btcusdt</t>
-  </si>
-  <si>
-    <t>VWAP</t>
   </si>
   <si>
     <t>PRICE%</t>
@@ -131,9 +128,6 @@
     <t>Quote Depth</t>
   </si>
   <si>
-    <t>Trade Depth</t>
-  </si>
-  <si>
     <t>ApiKey</t>
   </si>
   <si>
@@ -145,17 +139,45 @@
   <si>
     <t>***********</t>
   </si>
+  <si>
+    <t>Application.RTD.ThrottleInterval=0</t>
+  </si>
+  <si>
+    <t>QUOTE_VOL</t>
+  </si>
+  <si>
+    <t>TRADE_ID</t>
+  </si>
+  <si>
+    <t>BUYER_ORDER_ID</t>
+  </si>
+  <si>
+    <t>SELLER_ORDER_ID</t>
+  </si>
+  <si>
+    <t>BUYER_IS_MAKER</t>
+  </si>
+  <si>
+    <t>IGNORE</t>
+  </si>
+  <si>
+    <t>TRADE_PRICE</t>
+  </si>
+  <si>
+    <t>TRADE_QUANTITY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +211,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC7254E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +245,20 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -244,14 +292,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -277,15 +384,34 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="5" builtinId="50"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="48">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -297,29 +423,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -334,29 +438,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -371,32 +453,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -411,29 +468,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -546,7 +581,78 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -621,6 +727,53 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -736,6 +889,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -774,115 +965,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -957,6 +1039,324 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1011,101 +1411,149 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="crypto-debug">
-      <tp>
-        <v>16157</v>
+      <tp t="b">
+        <v>1</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>IGNORE</stp>
+        <tr r="N19" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>1</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>IGNORE</stp>
+        <tr r="N20" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>1</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
+        <stp>IGNORE</stp>
+        <tr r="N21" s="1"/>
+      </tp>
+      <tp>
+        <v>15084</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>TRADES</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>91101</v>
+        <tr r="M10" s="1"/>
+      </tp>
+      <tp>
+        <v>88454</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>TRADES</stp>
-        <tr r="M10" s="1"/>
-      </tp>
-      <tp>
-        <v>180114</v>
+        <tr r="M8" s="1"/>
+      </tp>
+      <tp>
+        <v>150235</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>TRADES</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp>
-        <v>15511</v>
+        <tr r="M9" s="1"/>
+      </tp>
+      <tp>
+        <v>11266</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>TRADES</stp>
-        <tr r="M13" s="1"/>
-      </tp>
-      <tp>
-        <v>1815881779</v>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp>
+        <v>1032875901</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>VOL</stp>
-        <tr r="K16" s="1"/>
-      </tp>
-      <tp>
-        <v>26959600</v>
+        <tr r="K14" s="1"/>
+      </tp>
+      <tp>
+        <v>25078749</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>VOL</stp>
-        <tr r="K15" s="1"/>
-      </tp>
-      <tp>
-        <v>353793.76</v>
+        <tr r="K13" s="1"/>
+      </tp>
+      <tp>
+        <v>294896.38</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>VOL</stp>
-        <tr r="K14" s="1"/>
-      </tp>
-      <tp>
-        <v>-4.1439999999999998E-2</v>
+        <tr r="K12" s="1"/>
+      </tp>
+      <tp>
+        <v>106358459</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>BUYER_ORDER_ID</stp>
+        <tr r="K20" s="1"/>
+      </tp>
+      <tp>
+        <v>71923586</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BUYER_ORDER_ID</stp>
+        <tr r="K19" s="1"/>
+      </tp>
+      <tp>
+        <v>28905302</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
+        <stp>BUYER_ORDER_ID</stp>
+        <tr r="K21" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.753E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>PRICE%</stp>
-        <tr r="N12" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.8740000000000002E-2</v>
+        <tr r="N10" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.728E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>PRICE%</stp>
-        <tr r="N11" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.9469999999999998E-2</v>
+        <tr r="N9" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.9080000000000002E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>PRICE%</stp>
-        <tr r="N10" s="1"/>
-      </tp>
-      <tp>
-        <v>-4.548E-2</v>
+        <tr r="N8" s="1"/>
+      </tp>
+      <tp>
+        <v>-9.2899999999999996E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>PRICE%</stp>
-        <tr r="N13" s="1"/>
-      </tp>
-      <tp>
-        <v>9.2399999999999996E-6</v>
+        <tr r="N11" s="1"/>
+      </tp>
+      <tp>
+        <v>9.3100000000000006E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>LOW</stp>
-        <tr r="B16" s="1"/>
+        <tr r="B14" s="1"/>
       </tp>
       <tp>
         <v>8.0000000000000007E-5</v>
@@ -1113,975 +1561,1215 @@
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>LOW</stp>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp>
-        <v>7.2110000000000004E-3</v>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1500000000000001E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>LOW</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-      <tp>
-        <v>7.26E-3</v>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>0</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BUYER_IS_MAKER</stp>
+        <tr r="M19" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>0</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>BUYER_IS_MAKER</stp>
+        <tr r="M20" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>1</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
+        <stp>BUYER_IS_MAKER</stp>
+        <tr r="M21" s="1"/>
+      </tp>
+      <tp>
+        <v>7.2009999999999999E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>ASK</stp>
-        <tr r="I14" s="1"/>
-      </tp>
-      <tp>
-        <v>8.051E-5</v>
+        <tr r="I12" s="1"/>
+      </tp>
+      <tp>
+        <v>8.0980000000000001E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>ASK</stp>
-        <tr r="I15" s="1"/>
-      </tp>
-      <tp>
-        <v>9.4800000000000007E-6</v>
+        <tr r="I13" s="1"/>
+      </tp>
+      <tp>
+        <v>9.5000000000000005E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>ASK</stp>
-        <tr r="I16" s="1"/>
-      </tp>
-      <tp>
-        <v>9.4700000000000008E-6</v>
+        <tr r="I14" s="1"/>
+      </tp>
+      <tp>
+        <v>131.69</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
+        <stp>TRADE_QUANTITY</stp>
+        <tr r="J21" s="1"/>
+      </tp>
+      <tp>
+        <v>8189.99</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>TRADE_QUANTITY</stp>
+        <tr r="J20" s="1"/>
+      </tp>
+      <tp>
+        <v>671.87</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>TRADE_QUANTITY</stp>
+        <tr r="J19" s="1"/>
+      </tp>
+      <tp>
+        <v>9.4800000000000007E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>BID</stp>
-        <tr r="G16" s="1"/>
-      </tp>
-      <tp>
-        <v>8.0500000000000005E-5</v>
+        <tr r="G14" s="1"/>
+      </tp>
+      <tp>
+        <v>8.0950000000000003E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>BID</stp>
-        <tr r="G15" s="1"/>
-      </tp>
-      <tp>
-        <v>7.2509999999999996E-3</v>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1970000000000003E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>BID</stp>
-        <tr r="G14" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.1780000000000003E-2</v>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>-6.2199999999999998E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="O11" s="1"/>
+      </tp>
+      <tp>
+        <v>71923583</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>SELLER_ORDER_ID</stp>
+        <tr r="L19" s="1"/>
+      </tp>
+      <tp>
+        <v>134.66999999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>CLOSE</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp>
+        <v>8372</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp>
-        <v>583</v>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp>
+        <v>1265</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F15" s="1"/>
-      </tp>
-      <tp>
-        <v>-5.76</v>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.35</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O12" s="1"/>
-      </tp>
-      <tp>
-        <v>-245</v>
+        <tr r="O10" s="1"/>
+      </tp>
+      <tp>
+        <v>-144.01</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O11" s="1"/>
-      </tp>
-      <tp>
-        <v>-28.22</v>
+        <tr r="O9" s="1"/>
+      </tp>
+      <tp>
+        <v>-20.12</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O10" s="1"/>
-      </tp>
-      <tp>
-        <v>0.15</v>
+        <tr r="O8" s="1"/>
+      </tp>
+      <tp>
+        <v>106358050</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>SELLER_ORDER_ID</stp>
+        <tr r="L20" s="1"/>
+      </tp>
+      <tp>
+        <v>0.35</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>Spread</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.94</v>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>0.64</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>Spread</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>3.96</v>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>0.02</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>Spread</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>4.8999999999999998E-4</v>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1199999999999999E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>Spread</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>28905389</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
+        <stp>SELLER_ORDER_ID</stp>
+        <tr r="L21" s="1"/>
+      </tp>
+      <tp>
+        <v>694.56</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp>
-        <v>0.70499999999999996</v>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp>
+        <v>0.68200000000000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>HIGH</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp>
+        <v>9.4099999999999997E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>CLOSE</stp>
-        <tr r="D16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp>
+        <v>8.0350000000000001E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>CLOSE</stp>
-        <tr r="D15" s="1"/>
-      </tp>
-      <tp>
-        <v>720.46</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ethusdt</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp>
+        <v>701.09</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>HIGH</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp>
+        <v>8449.11</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>HIGH</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp>
+        <v>136.25</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
         <stp>HIGH</stp>
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>8595.31</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>btcusdt</stp>
-        <stp>HIGH</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp>
-        <v>139.53</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ltcusdt</stp>
-        <stp>HIGH</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
+        <v>2.67</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>ASK_SIZE</stp>
-        <tr r="J14" s="1"/>
-      </tp>
-      <tp>
-        <v>4178</v>
+        <tr r="J12" s="1"/>
+      </tp>
+      <tp>
+        <v>236208</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="F14" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67276999999999998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>CLOSE</stp>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp>
-        <v>701.40768762000005</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ethusdt</stp>
-        <stp>VWAP</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-      <tp>
-        <v>135.48956107999999</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ltcusdt</stp>
-        <stp>VWAP</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-      <tp>
-        <v>8414.1575548700002</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>btcusdt</stp>
-        <stp>VWAP</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67283999999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>OPEN</stp>
-        <tr r="E13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.68132548000000004</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>xrpusdt</stp>
-        <stp>VWAP</stp>
-        <tr r="L13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ethusdt</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>694.41</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>OPEN</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>8372.01</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>OPEN</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>134.36000000000001</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
         <stp>OPEN</stp>
         <tr r="E10" s="1"/>
       </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>btcusdt</stp>
-        <stp>OPEN</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ltcusdt</stp>
-        <stp>OPEN</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.59</v>
+      <tp>
+        <v>1.33</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F14" s="1"/>
-      </tp>
-      <tp>
-        <v>720829</v>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>483334</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>ASK_SIZE</stp>
-        <tr r="J16" s="1"/>
-      </tp>
-      <tp>
-        <v>191</v>
+        <tr r="J14" s="1"/>
+      </tp>
+      <tp>
+        <v>1942</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>ASK_SIZE</stp>
-        <tr r="J15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="J13" s="1"/>
+      </tp>
+      <tp>
+        <v>7.3119999999999999E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>CLOSE</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-      <tp>
-        <v>176884</v>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp>
+        <v>111878</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>TRADES</stp>
-        <tr r="M16" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.8630000000000001E-2</v>
+        <tr r="M14" s="1"/>
+      </tp>
+      <tp>
+        <v>1.4959999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>PRICE%</stp>
-        <tr r="N16" s="1"/>
-      </tp>
-      <tp>
-        <v>43888</v>
+        <tr r="N14" s="1"/>
+      </tp>
+      <tp>
+        <v>37542</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>TRADES</stp>
-        <tr r="M15" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.685E-2</v>
+        <tr r="M13" s="1"/>
+      </tp>
+      <tp>
+        <v>5.5900000000000004E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>PRICE%</stp>
-        <tr r="N15" s="1"/>
-      </tp>
-      <tp>
-        <v>-4.6620000000000002E-2</v>
+        <tr r="N13" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.3429999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>PRICE%</stp>
-        <tr r="N14" s="1"/>
-      </tp>
-      <tp>
-        <v>61305</v>
+        <tr r="N12" s="1"/>
+      </tp>
+      <tp>
+        <v>43808</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>TRADES</stp>
-        <tr r="M14" s="1"/>
-      </tp>
-      <tp>
-        <v>685.95</v>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>671.72</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
         <stp>LAST_PRICE</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp>
-        <v>8283.64</v>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>8193.01</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
         <stp>LAST_PRICE</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp>
-        <v>7.4530100000000004E-3</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>neobtc</stp>
-        <stp>VWAP</stp>
-        <tr r="L14" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.3799999999999999E-6</v>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp>
+        <v>4.4999999999999998E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O15" s="1"/>
-      </tp>
-      <tp>
-        <v>1E-8</v>
+        <tr r="O13" s="1"/>
+      </tp>
+      <tp>
+        <v>2E-8</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>Spread</stp>
-        <tr r="H16" s="1"/>
-      </tp>
-      <tp>
-        <v>722.39</v>
+        <tr r="H14" s="1"/>
+      </tp>
+      <tp>
+        <v>671.87</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>TRADE_PRICE</stp>
+        <tr r="I19" s="1"/>
+      </tp>
+      <tp>
+        <v>123.82</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F13" s="1"/>
-      </tp>
-      <tp>
-        <v>9.8600000000000005E-6</v>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>9.7999999999999993E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>HIGH</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-      <tp>
-        <v>42312.503799999999</v>
+        <tr r="C14" s="1"/>
+      </tp>
+      <tp>
+        <v>31860.334920000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>VOL</stp>
-        <tr r="K12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66654999999999998</v>
+        <tr r="K10" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66141000000000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>BID</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>11.94641</v>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>8189.99</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>TRADE_PRICE</stp>
+        <tr r="I20" s="1"/>
+      </tp>
+      <tp>
+        <v>3580650.3488675002</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>QUOTE_VOL</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.62678999999999996</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.105168</v>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>1</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>9.0627200000000006</v>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66703999999999997</v>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66352999999999995</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>ASK</stp>
-        <tr r="I13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="I11" s="1"/>
+      </tp>
+      <tp>
+        <v>7.3289999999999996E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>OPEN</stp>
-        <tr r="E14" s="1"/>
-      </tp>
-      <tp>
-        <v>8.2369999999999999E-5</v>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>8.1440000000000006E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>HIGH</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp>
+        <v>7452677</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
+        <stp>TRADE_ID</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>44982941</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>TRADE_ID</stp>
+        <tr r="H20" s="1"/>
+      </tp>
+      <tp>
+        <v>25805009</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>TRADE_ID</stp>
+        <tr r="H19" s="1"/>
+      </tp>
+      <tp>
+        <v>12</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH_SIZE</stp>
+        <stp>7</stp>
+        <tr r="E26" s="1"/>
+      </tp>
+      <tp>
+        <v>0.20499999999999999</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH_SIZE</stp>
+        <stp>6</stp>
+        <tr r="E25" s="1"/>
+      </tp>
+      <tp>
+        <v>1.9</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>5</stp>
-        <tr r="K26" s="1"/>
-        <tr r="E26" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="E24" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>4</stp>
-        <tr r="K25" s="1"/>
-        <tr r="E25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="E23" s="1"/>
+      </tp>
+      <tp>
+        <v>12</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>3</stp>
-        <tr r="K24" s="1"/>
-        <tr r="E24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>1</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>2</stp>
-        <tr r="K23" s="1"/>
-        <tr r="E23" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>3.4367899999999998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>1</stp>
-        <tr r="E22" s="1"/>
-        <tr r="K22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="E20" s="1"/>
+      </tp>
+      <tp>
+        <v>0.35848999999999998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>0</stp>
-        <tr r="E21" s="1"/>
-        <tr r="K21" s="1"/>
-      </tp>
-      <tp>
-        <v>685.95</v>
+        <tr r="E19" s="1"/>
+      </tp>
+      <tp>
+        <v>1.849</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH_SIZE</stp>
+        <stp>9</stp>
+        <tr r="E28" s="1"/>
+      </tp>
+      <tp>
+        <v>0.93</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH_SIZE</stp>
+        <stp>8</stp>
+        <tr r="E27" s="1"/>
+      </tp>
+      <tp>
+        <v>671.72</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
         <stp>BID</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp>
-        <v>21907.509212000001</v>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp>
+        <v>2151.5911232600001</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>neobtc</stp>
+        <stp>QUOTE_VOL</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+      <tp>
+        <v>19321.809300000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>VOL</stp>
-        <tr r="K11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66315999999999997</v>
+        <tr r="K9" s="1"/>
+      </tp>
+      <tp>
+        <v>131.69</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
+        <stp>TRADE_PRICE</stp>
+        <tr r="I21" s="1"/>
+      </tp>
+      <tp>
+        <v>0.65658000000000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>LOW</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-      <tp>
-        <v>685.96</v>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp>
+        <v>671.73</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
         <stp>ASK</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-      <tp>
-        <v>1E-8</v>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>2.9999999999999997E-8</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>Spread</stp>
-        <tr r="H15" s="1"/>
-      </tp>
-      <tp>
-        <v>96341.859070000006</v>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>84773.686230000007</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>VOL</stp>
-        <tr r="K10" s="1"/>
-      </tp>
-      <tp>
-        <v>8283.65</v>
+        <tr r="K8" s="1"/>
+      </tp>
+      <tp>
+        <v>8193.02</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
         <stp>ASK</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.8E-7</v>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp>
+        <v>1.4000000000000001E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O16" s="1"/>
-      </tp>
-      <tp>
-        <v>8283.64</v>
+        <tr r="O14" s="1"/>
+      </tp>
+      <tp>
+        <v>8193.01</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
         <stp>BID</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp>
-        <v>8251.23</v>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp>
+        <v>8145</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>LOW</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp>
-        <v>133.08000000000001</v>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp>
+        <v>131.59</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>BID</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>7531885.2999999998</v>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>5350063.34</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>VOL</stp>
-        <tr r="K13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="K11" s="1"/>
+      </tp>
+      <tp>
+        <v>8.0359999999999996E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>OPEN</stp>
-        <tr r="E15" s="1"/>
-      </tp>
-      <tp>
-        <v>1.45556</v>
+        <tr r="E13" s="1"/>
+      </tp>
+      <tp>
+        <v>1.8270900000000001</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH_SIZE</stp>
+        <stp>7</stp>
+        <tr r="A26" s="1"/>
+      </tp>
+      <tp>
+        <v>10</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH_SIZE</stp>
+        <stp>6</stp>
+        <tr r="A25" s="1"/>
+      </tp>
+      <tp>
+        <v>9.0848499999999994</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>5</stp>
-        <tr r="G26" s="1"/>
-        <tr r="A26" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
+        <tr r="A24" s="1"/>
+      </tp>
+      <tp>
+        <v>5.9589999999999997E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>4</stp>
-        <tr r="G25" s="1"/>
-        <tr r="A25" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
+        <tr r="A23" s="1"/>
+      </tp>
+      <tp>
+        <v>1.6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>3</stp>
-        <tr r="G24" s="1"/>
-        <tr r="A24" s="1"/>
-      </tp>
-      <tp>
-        <v>0.23723</v>
+        <tr r="A22" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17673</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>2</stp>
-        <tr r="A23" s="1"/>
-        <tr r="G23" s="1"/>
-      </tp>
-      <tp>
-        <v>0.84128999999999998</v>
+        <tr r="A21" s="1"/>
+      </tp>
+      <tp>
+        <v>1.9644600000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>1</stp>
-        <tr r="A22" s="1"/>
-        <tr r="G22" s="1"/>
-      </tp>
-      <tp>
-        <v>3.1796500000000001</v>
+        <tr r="A20" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>0</stp>
-        <tr r="A21" s="1"/>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>133.22999999999999</v>
+        <tr r="A19" s="1"/>
+      </tp>
+      <tp>
+        <v>0.57584000000000002</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH_SIZE</stp>
+        <stp>9</stp>
+        <tr r="A28" s="1"/>
+      </tp>
+      <tp>
+        <v>0.13749</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH_SIZE</stp>
+        <stp>8</stp>
+        <tr r="A27" s="1"/>
+      </tp>
+      <tp>
+        <v>131.94</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>ASK</stp>
-        <tr r="I12" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.5500000000000001E-4</v>
+        <tr r="I10" s="1"/>
+      </tp>
+      <tp>
+        <v>-9.7999999999999997E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O14" s="1"/>
-      </tp>
-      <tp>
-        <v>687.13</v>
+        <tr r="O12" s="1"/>
+      </tp>
+      <tp>
+        <v>671.23</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>1</stp>
-        <tr r="B22" s="1"/>
-        <tr r="H22" s="1"/>
-      </tp>
-      <tp>
-        <v>688</v>
+        <tr r="B20" s="1"/>
+      </tp>
+      <tp>
+        <v>671.24</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>0</stp>
-        <tr r="B21" s="1"/>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>685.86</v>
+        <tr r="B19" s="1"/>
+      </tp>
+      <tp>
+        <v>671.18</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>3</stp>
-        <tr r="H24" s="1"/>
-        <tr r="B24" s="1"/>
-      </tp>
-      <tp>
-        <v>686.27</v>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp>
+        <v>671.2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>2</stp>
-        <tr r="B23" s="1"/>
-        <tr r="H23" s="1"/>
-      </tp>
-      <tp>
-        <v>683.31</v>
+        <tr r="B21" s="1"/>
+      </tp>
+      <tp>
+        <v>671.1</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>5</stp>
-        <tr r="H26" s="1"/>
-        <tr r="B26" s="1"/>
-      </tp>
-      <tp>
-        <v>683.88</v>
+        <tr r="B24" s="1"/>
+      </tp>
+      <tp>
+        <v>671.17</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>4</stp>
+        <tr r="B23" s="1"/>
+      </tp>
+      <tp>
+        <v>671.05</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH</stp>
+        <stp>7</stp>
+        <tr r="B26" s="1"/>
+      </tp>
+      <tp>
+        <v>671.07</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH</stp>
+        <stp>6</stp>
         <tr r="B25" s="1"/>
-        <tr r="H25" s="1"/>
-      </tp>
-      <tp>
-        <v>9.0000000000000002E-6</v>
+      </tp>
+      <tp>
+        <v>671.02</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH</stp>
+        <stp>9</stp>
+        <tr r="B28" s="1"/>
+      </tp>
+      <tp>
+        <v>671.03</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH</stp>
+        <stp>8</stp>
+        <tr r="B27" s="1"/>
+      </tp>
+      <tp>
+        <v>3.9999999999999998E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>Spread</stp>
-        <tr r="H14" s="1"/>
-      </tp>
-      <tp>
-        <v>8.0939999999999994E-5</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>xrpbtc</stp>
-        <stp>VWAP</stp>
-        <tr r="L15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>672.92</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH</stp>
+        <stp>8</stp>
+        <tr r="D27" s="1"/>
+      </tp>
+      <tp>
+        <v>673</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH</stp>
+        <stp>9</stp>
+        <tr r="D28" s="1"/>
+      </tp>
+      <tp>
+        <v>672.78</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH</stp>
+        <stp>6</stp>
+        <tr r="D25" s="1"/>
+      </tp>
+      <tp>
+        <v>672.82</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH</stp>
+        <stp>7</stp>
+        <tr r="D26" s="1"/>
+      </tp>
+      <tp>
+        <v>672.61</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>4</stp>
-        <tr r="J25" s="1"/>
-        <tr r="D25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="D23" s="1"/>
+      </tp>
+      <tp>
+        <v>672.77</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>5</stp>
-        <tr r="J26" s="1"/>
-        <tr r="D26" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="D24" s="1"/>
+      </tp>
+      <tp>
+        <v>672.24</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>2</stp>
-        <tr r="D23" s="1"/>
-        <tr r="J23" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
+        <tr r="D21" s="1"/>
+      </tp>
+      <tp>
+        <v>672.56</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>3</stp>
-        <tr r="J24" s="1"/>
-        <tr r="D24" s="1"/>
-      </tp>
-      <tp>
-        <v>689.02</v>
+        <tr r="D22" s="1"/>
+      </tp>
+      <tp>
+        <v>671.88</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>0</stp>
-        <tr r="D21" s="1"/>
-        <tr r="J21" s="1"/>
-      </tp>
-      <tp>
-        <v>689.11</v>
+        <tr r="D19" s="1"/>
+      </tp>
+      <tp>
+        <v>671.89</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>1</stp>
-        <tr r="D22" s="1"/>
-        <tr r="J22" s="1"/>
-      </tp>
-      <tp>
-        <v>682.2</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ethusdt</stp>
+        <tr r="D20" s="1"/>
+      </tp>
+      <tp>
+        <v>671.01</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>LOW</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp>
+        <v>160075894.31673351</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>QUOTE_VOL</stp>
+        <tr r="L9" s="1"/>
+      </tp>
+      <tp>
+        <v>4249807.6746656997</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
+        <stp>QUOTE_VOL</stp>
+        <tr r="L10" s="1"/>
+      </tp>
+      <tp>
+        <v>671.24</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>BID</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>110</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpusdt</stp>
+        <stp>ASK_SIZE</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp>
+        <v>671.88</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK</stp>
+        <tr r="I8" s="1"/>
+      </tp>
+      <tp>
+        <v>58331769.552274197</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>QUOTE_VOL</stp>
+        <tr r="L8" s="1"/>
+      </tp>
+      <tp>
+        <v>9856.0401564500007</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>QUOTE_VOL</stp>
+        <tr r="L14" s="1"/>
+      </tp>
+      <tp>
+        <v>2025.4251503099999</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>xrpbtc</stp>
+        <stp>QUOTE_VOL</stp>
+        <tr r="L13" s="1"/>
+      </tp>
+      <tp>
+        <v>9.4099999999999997E-6</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>trxbtc</stp>
+        <stp>OPEN</stp>
+        <tr r="E14" s="1"/>
+      </tp>
+      <tp>
+        <v>8189.99</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>btcusdt</stp>
+        <stp>ASK</stp>
+        <tr r="I9" s="1"/>
+      </tp>
+      <tp>
+        <v>131.13</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
         <stp>LOW</stp>
         <tr r="B10" s="1"/>
       </tp>
       <tp>
-        <v>685.8</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ethusdt</stp>
-        <stp>BID</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>6845.71</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>xrpusdt</stp>
-        <stp>ASK_SIZE</stp>
-        <tr r="J13" s="1"/>
-      </tp>
-      <tp>
-        <v>9.55E-6</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>trxbtc</stp>
-        <stp>VWAP</stp>
-        <tr r="L16" s="1"/>
-      </tp>
-      <tp>
-        <v>686.74</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ethusdt</stp>
-        <stp>ASK</stp>
-        <tr r="I10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>trxbtc</stp>
-        <stp>OPEN</stp>
-        <tr r="E16" s="1"/>
-      </tp>
-      <tp>
-        <v>8280</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>btcusdt</stp>
-        <stp>ASK</stp>
-        <tr r="I11" s="1"/>
-      </tp>
-      <tp>
-        <v>132.01</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ltcusdt</stp>
-        <stp>LOW</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp>
-        <v>8276.0400000000009</v>
+        <v>8189.97</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>BID</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>7.7429999999999999E-3</v>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>7.5209999999999999E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>HIGH</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-      <tp>
-        <v>0.50599000000000005</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ethusdt</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.35848999999999998</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_SIZE</stp>
+        <tr r="J8" s="1"/>
+      </tp>
+      <tp>
+        <v>40.973509999999997</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ltcusdt</stp>
         <stp>ASK_SIZE</stp>
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>4.0000000000000003E-5</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ltcusdt</stp>
-        <stp>ASK_SIZE</stp>
-        <tr r="J12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.6244310000000004</v>
+        <v>1.522778</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>ASK_SIZE</stp>
-        <tr r="J11" s="1"/>
+        <tr r="J9" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2089,51 +2777,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A9:O17" totalsRowShown="0" dataDxfId="31" dataCellStyle="Comma">
-  <autoFilter ref="A9:O17" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A7:O16" totalsRowCount="1" dataDxfId="47" dataCellStyle="Comma">
+  <autoFilter ref="A7:O15" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3DCAC593-21E4-456C-93D1-EEDC8340EA91}" name="Ticker"/>
-    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="30" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,B$9)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,B$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="29" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,C$9)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,C$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="28" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,D$9)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,D$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="27" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,E$9)</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="40" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,E$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="26" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,F$9)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,F$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="25" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,G$9)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,G$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="24" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,H$9)</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,H$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="23" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,I$9)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,I$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="22" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,J$9)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,J$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="21" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,K$9)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,K$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="VWAP" dataDxfId="20" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,L$9)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,L$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="19" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,M$9)</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,M$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="18" dataCellStyle="Percent">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,N$9)</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Percent">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,N$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="17" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A10,O$9)</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,O$7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2141,18 +2829,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E0BE176-951A-4CA3-A803-9256000D1161}" name="Table2" displayName="Table2" ref="A4:D6" totalsRowShown="0" dataDxfId="16" dataCellStyle="Comma">
-  <autoFilter ref="A4:D6" xr:uid="{580FE727-A11C-4ED9-9482-452D0F24BAD3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E0BE176-951A-4CA3-A803-9256000D1161}" name="Table2" displayName="Table2" ref="A2:D4" totalsRowShown="0" dataDxfId="19" dataCellStyle="Comma">
+  <autoFilter ref="A2:D4" xr:uid="{580FE727-A11C-4ED9-9482-452D0F24BAD3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C68E037-DF9F-4856-B04D-2DCDFFB4E15E}" name="Ticker"/>
-    <tableColumn id="2" xr3:uid="{8FAA28E5-F641-4937-ADD4-FAC56E0C4147}" name="BID" dataDxfId="15" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,GDAX,$A5,B$4)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{8FAA28E5-F641-4937-ADD4-FAC56E0C4147}" name="BID" dataDxfId="18" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,B$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{041CD0D7-D375-4B88-8B1B-CD344CCDEB4E}" name="ASK" dataDxfId="14" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,GDAX,$A5,C$4)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{041CD0D7-D375-4B88-8B1B-CD344CCDEB4E}" name="ASK" dataDxfId="17" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5B81F177-A71A-4810-A2A9-102CFDC4A15D}" name="LAST_PRICE" dataDxfId="13" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,GDAX,$A5,D$4)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{5B81F177-A71A-4810-A2A9-102CFDC4A15D}" name="LAST_PRICE" dataDxfId="16" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,D$2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2160,21 +2848,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A20:E26" totalsRowShown="0" dataDxfId="12" dataCellStyle="Comma">
-  <autoFilter ref="A20:E26" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A18:E28" totalsRowShown="0" dataDxfId="15" dataCellStyle="Comma">
+  <autoFilter ref="A18:E28" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="11" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,A$20,$C21)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="4" dataCellStyle="20% - Accent6">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$18,A$18,$C19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="10" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,B$20,$C21)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="3" dataCellStyle="20% - Accent6">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$18,B$18,$C19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="8" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,D$20,$C21)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="2" dataCellStyle="20% - Accent2">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$18,D$18,$C19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="7" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,E$20,$C21)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="1" dataCellStyle="20% - Accent2">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$18,E$18,$C19)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2182,21 +2870,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8B0290AD-C5DD-4B76-B4F7-AEF1FACAA07B}" name="Table35" displayName="Table35" ref="G20:K26" totalsRowShown="0" dataDxfId="6" dataCellStyle="Comma">
-  <autoFilter ref="G20:K26" xr:uid="{735B8BFE-9144-400D-A1CE-731051967131}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3FD9FA90-1358-4E48-A238-E9689DE6AD18}" name="BID_DEPTH_SIZE" dataDxfId="5" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,G$20,$C21)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G18:N21" totalsRowShown="0" dataDxfId="5" tableBorderDxfId="13" dataCellStyle="Comma">
+  <autoFilter ref="G18:N21" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{4DF9B9E1-1E83-4EF7-84C1-2078EE821C9B}" name="TRADES"/>
+    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="12" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,H$18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{94DA87B2-BB20-4557-97B9-4C6BAC416595}" name="BID_DEPTH" dataDxfId="4" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,H$20,$C21)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="TRADE_PRICE" dataDxfId="11" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,I$18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AB47819E-501C-468F-A828-30A628901BF9}" name="ethusdt" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{7112BC43-BDBC-4A7D-88C8-EF8A10F0D375}" name="ASK_DEPTH" dataDxfId="2" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,J$20,$C21)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="TRADE_QUANTITY" dataDxfId="10" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,J$18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{844C175C-2C85-44FD-A14B-C37B6C8AD486}" name="ASK_DEPTH_SIZE" dataDxfId="1" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$C$20,K$20,$C21)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{8227CD56-9AE6-4305-AA2B-98B006AB7F2F}" name="BUYER_ORDER_ID" dataDxfId="9" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,K$18)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9643A72C-39DD-45DA-9D10-05370B105513}" name="SELLER_ORDER_ID" dataDxfId="8" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,L$18)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="7" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,M$18)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="6" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,N$18)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2500,10 +3197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F314B32C-A36F-425C-B63D-E2C30E3C057B}">
-  <dimension ref="A1:O121"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,1027 +3210,1137 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <f>RTD(progId,,GDAX,$A3,B$2)</f>
+        <v>671.72</v>
+      </c>
+      <c r="C3" s="2">
+        <f>RTD(progId,,GDAX,$A3,C$2)</f>
+        <v>671.73</v>
+      </c>
+      <c r="D3" s="2">
+        <f>RTD(progId,,GDAX,$A3,D$2)</f>
+        <v>671.72</v>
+      </c>
       <c r="E3" s="1"/>
+      <c r="G3" s="13">
+        <f>G8-C3</f>
+        <v>-0.49000000000000909</v>
+      </c>
+      <c r="H3" s="14">
+        <f>G3*G8* F8</f>
+        <v>-986.7228000000182</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <f>RTD(progId,,GDAX,$A4,B$2)</f>
+        <v>8193.01</v>
+      </c>
+      <c r="C4" s="2">
+        <f>RTD(progId,,GDAX,$A4,C$2)</f>
+        <v>8193.02</v>
+      </c>
+      <c r="D4" s="2">
+        <f>RTD(progId,,GDAX,$A4,D$2)</f>
+        <v>8193.01</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <f>RTD(progId,,GDAX,$A5,B$4)</f>
-        <v>685.95</v>
-      </c>
-      <c r="C5" s="2">
-        <f>RTD(progId,,GDAX,$A5,C$4)</f>
-        <v>685.96</v>
-      </c>
-      <c r="D5" s="2">
-        <f>RTD(progId,,GDAX,$A5,D$4)</f>
-        <v>685.95</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="G5" s="13">
-        <f>G10-C5</f>
-        <v>-0.16000000000008185</v>
-      </c>
-      <c r="H5" s="14">
-        <f>G5*G10* F10</f>
-        <v>-994.43414016050872</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <f>RTD(progId,,GDAX,$A6,B$4)</f>
-        <v>8283.64</v>
-      </c>
-      <c r="C6" s="2">
-        <f>RTD(progId,,GDAX,$A6,C$4)</f>
-        <v>8283.65</v>
-      </c>
-      <c r="D6" s="2">
-        <f>RTD(progId,,GDAX,$A6,D$4)</f>
-        <v>8283.64</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="15"/>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,B$7)</f>
+        <v>671.01</v>
+      </c>
+      <c r="C8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,C$7)</f>
+        <v>701.09</v>
+      </c>
+      <c r="D8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,D$7)</f>
+        <v>694.56</v>
+      </c>
+      <c r="E8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,E$7)</f>
+        <v>694.41</v>
+      </c>
+      <c r="F8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,F$7)</f>
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,G$7)</f>
+        <v>671.24</v>
+      </c>
+      <c r="H8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,H$7)</f>
+        <v>0.64</v>
+      </c>
+      <c r="I8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,I$7)</f>
+        <v>671.88</v>
+      </c>
+      <c r="J8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,J$7)</f>
+        <v>0.35848999999999998</v>
+      </c>
+      <c r="K8" s="10">
+        <f>RTD(progId,,BINANCE,$A8,K$7)</f>
+        <v>84773.686230000007</v>
+      </c>
+      <c r="L8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,L$7)</f>
+        <v>58331769.552274197</v>
+      </c>
+      <c r="M8" s="10">
+        <f>RTD(progId,,BINANCE,$A8,M$7)</f>
+        <v>88454</v>
+      </c>
+      <c r="N8" s="11">
+        <f>RTD(progId,,BINANCE,$A8,N$7)</f>
+        <v>-2.9080000000000002E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,O$7)</f>
+        <v>-20.12</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,B$7)</f>
+        <v>8145</v>
+      </c>
+      <c r="C9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,C$7)</f>
+        <v>8449.11</v>
+      </c>
+      <c r="D9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,D$7)</f>
+        <v>8372</v>
+      </c>
+      <c r="E9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,E$7)</f>
+        <v>8372.01</v>
+      </c>
+      <c r="F9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,F$7)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,G$7)</f>
+        <v>8189.97</v>
+      </c>
+      <c r="H9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,H$7)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,I$7)</f>
+        <v>8189.99</v>
+      </c>
+      <c r="J9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,J$7)</f>
+        <v>1.522778</v>
+      </c>
+      <c r="K9" s="10">
+        <f>RTD(progId,,BINANCE,$A9,K$7)</f>
+        <v>19321.809300000001</v>
+      </c>
+      <c r="L9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,L$7)</f>
+        <v>160075894.31673351</v>
+      </c>
+      <c r="M9" s="10">
+        <f>RTD(progId,,BINANCE,$A9,M$7)</f>
+        <v>150235</v>
+      </c>
+      <c r="N9" s="11">
+        <f>RTD(progId,,BINANCE,$A9,N$7)</f>
+        <v>-1.728E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,O$7)</f>
+        <v>-144.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <f>RTD(progId,,BINANCE,$A10,B$7)</f>
+        <v>131.13</v>
+      </c>
+      <c r="C10" s="2">
+        <f>RTD(progId,,BINANCE,$A10,C$7)</f>
+        <v>136.25</v>
+      </c>
+      <c r="D10" s="2">
+        <f>RTD(progId,,BINANCE,$A10,D$7)</f>
+        <v>134.66999999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <f>RTD(progId,,BINANCE,$A10,E$7)</f>
+        <v>134.36000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <f>RTD(progId,,BINANCE,$A10,F$7)</f>
+        <v>0.62678999999999996</v>
+      </c>
+      <c r="G10" s="2">
+        <f>RTD(progId,,BINANCE,$A10,G$7)</f>
+        <v>131.59</v>
+      </c>
+      <c r="H10" s="2">
+        <f>RTD(progId,,BINANCE,$A10,H$7)</f>
+        <v>0.35</v>
+      </c>
+      <c r="I10" s="2">
+        <f>RTD(progId,,BINANCE,$A10,I$7)</f>
+        <v>131.94</v>
+      </c>
+      <c r="J10" s="2">
+        <f>RTD(progId,,BINANCE,$A10,J$7)</f>
+        <v>40.973509999999997</v>
+      </c>
+      <c r="K10" s="10">
+        <f>RTD(progId,,BINANCE,$A10,K$7)</f>
+        <v>31860.334920000001</v>
+      </c>
+      <c r="L10" s="2">
+        <f>RTD(progId,,BINANCE,$A10,L$7)</f>
+        <v>4249807.6746656997</v>
+      </c>
+      <c r="M10" s="10">
+        <f>RTD(progId,,BINANCE,$A10,M$7)</f>
+        <v>15084</v>
+      </c>
+      <c r="N10" s="11">
+        <f>RTD(progId,,BINANCE,$A10,N$7)</f>
+        <v>-1.753E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <f>RTD(progId,,BINANCE,$A10,O$7)</f>
+        <v>-2.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,B$9)</f>
-        <v>682.2</v>
-      </c>
-      <c r="C10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,C$9)</f>
-        <v>720.46</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f>RTD(progId,,BINANCE,$A10,D$9)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f>RTD(progId,,BINANCE,$A10,E$9)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="F10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,F$9)</f>
-        <v>9.0627200000000006</v>
-      </c>
-      <c r="G10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,G$9)</f>
-        <v>685.8</v>
-      </c>
-      <c r="H10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,H$9)</f>
-        <v>0.94</v>
-      </c>
-      <c r="I10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,I$9)</f>
-        <v>686.74</v>
-      </c>
-      <c r="J10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,J$9)</f>
-        <v>0.50599000000000005</v>
-      </c>
-      <c r="K10" s="10">
-        <f>RTD(progId,,BINANCE,$A10,K$9)</f>
-        <v>96341.859070000006</v>
-      </c>
-      <c r="L10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,L$9)</f>
-        <v>701.40768762000005</v>
-      </c>
-      <c r="M10" s="10">
-        <f>RTD(progId,,BINANCE,$A10,M$9)</f>
-        <v>91101</v>
-      </c>
-      <c r="N10" s="11">
-        <f>RTD(progId,,BINANCE,$A10,N$9)</f>
-        <v>-3.9469999999999998E-2</v>
-      </c>
-      <c r="O10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,O$9)</f>
-        <v>-28.22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,B$9)</f>
-        <v>8251.23</v>
+        <f>RTD(progId,,BINANCE,$A11,B$7)</f>
+        <v>0.65658000000000005</v>
       </c>
       <c r="C11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,C$9)</f>
-        <v>8595.31</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f>RTD(progId,,BINANCE,$A11,D$9)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f>RTD(progId,,BINANCE,$A11,E$9)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="F11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,F$9)</f>
-        <v>0.105168</v>
+        <f>RTD(progId,,BINANCE,$A11,C$7)</f>
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="D11" s="2">
+        <f>RTD(progId,,BINANCE,$A11,D$7)</f>
+        <v>0.67276999999999998</v>
+      </c>
+      <c r="E11" s="12">
+        <f>RTD(progId,,BINANCE,$A11,E$7)</f>
+        <v>0.67283999999999999</v>
+      </c>
+      <c r="F11" s="10">
+        <f>RTD(progId,,BINANCE,$A11,F$7)</f>
+        <v>123.82</v>
       </c>
       <c r="G11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,G$9)</f>
-        <v>8276.0400000000009</v>
+        <f>RTD(progId,,BINANCE,$A11,G$7)</f>
+        <v>0.66141000000000005</v>
       </c>
       <c r="H11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,H$9)</f>
-        <v>3.96</v>
+        <f>RTD(progId,,BINANCE,$A11,H$7)</f>
+        <v>2.1199999999999999E-3</v>
       </c>
       <c r="I11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,I$9)</f>
-        <v>8280</v>
+        <f>RTD(progId,,BINANCE,$A11,I$7)</f>
+        <v>0.66352999999999995</v>
       </c>
       <c r="J11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,J$9)</f>
-        <v>7.6244310000000004</v>
+        <f>RTD(progId,,BINANCE,$A11,J$7)</f>
+        <v>110</v>
       </c>
       <c r="K11" s="10">
-        <f>RTD(progId,,BINANCE,$A11,K$9)</f>
-        <v>21907.509212000001</v>
+        <f>RTD(progId,,BINANCE,$A11,K$7)</f>
+        <v>5350063.34</v>
       </c>
       <c r="L11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,L$9)</f>
-        <v>8414.1575548700002</v>
+        <f>RTD(progId,,BINANCE,$A11,L$7)</f>
+        <v>3580650.3488675002</v>
       </c>
       <c r="M11" s="10">
-        <f>RTD(progId,,BINANCE,$A11,M$9)</f>
-        <v>180114</v>
+        <f>RTD(progId,,BINANCE,$A11,M$7)</f>
+        <v>11266</v>
       </c>
       <c r="N11" s="11">
-        <f>RTD(progId,,BINANCE,$A11,N$9)</f>
-        <v>-2.8740000000000002E-2</v>
+        <f>RTD(progId,,BINANCE,$A11,N$7)</f>
+        <v>-9.2899999999999996E-3</v>
       </c>
       <c r="O11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,O$9)</f>
-        <v>-245</v>
+        <f>RTD(progId,,BINANCE,$A11,O$7)</f>
+        <v>-6.2199999999999998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B12" s="2">
-        <f>RTD(progId,,BINANCE,$A12,B$9)</f>
-        <v>132.01</v>
+        <f>RTD(progId,,BINANCE,$A12,B$7)</f>
+        <v>7.1500000000000001E-3</v>
       </c>
       <c r="C12" s="2">
-        <f>RTD(progId,,BINANCE,$A12,C$9)</f>
-        <v>139.53</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f>RTD(progId,,BINANCE,$A12,D$9)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="E12" s="2" t="str">
-        <f>RTD(progId,,BINANCE,$A12,E$9)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="F12" s="2">
-        <f>RTD(progId,,BINANCE,$A12,F$9)</f>
-        <v>11.94641</v>
+        <f>RTD(progId,,BINANCE,$A12,C$7)</f>
+        <v>7.5209999999999999E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,D$7)</f>
+        <v>7.3119999999999999E-3</v>
+      </c>
+      <c r="E12" s="12">
+        <f>RTD(progId,,BINANCE,$A12,E$7)</f>
+        <v>7.3289999999999996E-3</v>
+      </c>
+      <c r="F12" s="10">
+        <f>RTD(progId,,BINANCE,$A12,F$7)</f>
+        <v>1.33</v>
       </c>
       <c r="G12" s="2">
-        <f>RTD(progId,,BINANCE,$A12,G$9)</f>
-        <v>133.08000000000001</v>
+        <f>RTD(progId,,BINANCE,$A12,G$7)</f>
+        <v>7.1970000000000003E-3</v>
       </c>
       <c r="H12" s="2">
-        <f>RTD(progId,,BINANCE,$A12,H$9)</f>
-        <v>0.15</v>
+        <f>RTD(progId,,BINANCE,$A12,H$7)</f>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="I12" s="2">
-        <f>RTD(progId,,BINANCE,$A12,I$9)</f>
-        <v>133.22999999999999</v>
+        <f>RTD(progId,,BINANCE,$A12,I$7)</f>
+        <v>7.2009999999999999E-3</v>
       </c>
       <c r="J12" s="2">
-        <f>RTD(progId,,BINANCE,$A12,J$9)</f>
-        <v>4.0000000000000003E-5</v>
+        <f>RTD(progId,,BINANCE,$A12,J$7)</f>
+        <v>2.67</v>
       </c>
       <c r="K12" s="10">
-        <f>RTD(progId,,BINANCE,$A12,K$9)</f>
-        <v>42312.503799999999</v>
+        <f>RTD(progId,,BINANCE,$A12,K$7)</f>
+        <v>294896.38</v>
       </c>
       <c r="L12" s="2">
-        <f>RTD(progId,,BINANCE,$A12,L$9)</f>
-        <v>135.48956107999999</v>
+        <f>RTD(progId,,BINANCE,$A12,L$7)</f>
+        <v>2151.5911232600001</v>
       </c>
       <c r="M12" s="10">
-        <f>RTD(progId,,BINANCE,$A12,M$9)</f>
-        <v>16157</v>
+        <f>RTD(progId,,BINANCE,$A12,M$7)</f>
+        <v>43808</v>
       </c>
       <c r="N12" s="11">
-        <f>RTD(progId,,BINANCE,$A12,N$9)</f>
-        <v>-4.1439999999999998E-2</v>
+        <f>RTD(progId,,BINANCE,$A12,N$7)</f>
+        <v>-1.3429999999999999E-2</v>
       </c>
       <c r="O12" s="2">
-        <f>RTD(progId,,BINANCE,$A12,O$9)</f>
-        <v>-5.76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
+        <f>RTD(progId,,BINANCE,$A12,O$7)</f>
+        <v>-9.7999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B13" s="2">
-        <f>RTD(progId,,BINANCE,$A13,B$9)</f>
-        <v>0.66315999999999997</v>
+        <f>RTD(progId,,BINANCE,$A13,B$7)</f>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="C13" s="2">
-        <f>RTD(progId,,BINANCE,$A13,C$9)</f>
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f>RTD(progId,,BINANCE,$A13,D$9)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="E13" s="12" t="str">
-        <f>RTD(progId,,BINANCE,$A13,E$9)</f>
-        <v>&lt;?&gt;</v>
+        <f>RTD(progId,,BINANCE,$A13,C$7)</f>
+        <v>8.1440000000000006E-5</v>
+      </c>
+      <c r="D13" s="2">
+        <f>RTD(progId,,BINANCE,$A13,D$7)</f>
+        <v>8.0350000000000001E-5</v>
+      </c>
+      <c r="E13" s="12">
+        <f>RTD(progId,,BINANCE,$A13,E$7)</f>
+        <v>8.0359999999999996E-5</v>
       </c>
       <c r="F13" s="10">
-        <f>RTD(progId,,BINANCE,$A13,F$9)</f>
-        <v>722.39</v>
+        <f>RTD(progId,,BINANCE,$A13,F$7)</f>
+        <v>1265</v>
       </c>
       <c r="G13" s="2">
-        <f>RTD(progId,,BINANCE,$A13,G$9)</f>
-        <v>0.66654999999999998</v>
+        <f>RTD(progId,,BINANCE,$A13,G$7)</f>
+        <v>8.0950000000000003E-5</v>
       </c>
       <c r="H13" s="2">
-        <f>RTD(progId,,BINANCE,$A13,H$9)</f>
-        <v>4.8999999999999998E-4</v>
+        <f>RTD(progId,,BINANCE,$A13,H$7)</f>
+        <v>2.9999999999999997E-8</v>
       </c>
       <c r="I13" s="2">
-        <f>RTD(progId,,BINANCE,$A13,I$9)</f>
-        <v>0.66703999999999997</v>
+        <f>RTD(progId,,BINANCE,$A13,I$7)</f>
+        <v>8.0980000000000001E-5</v>
       </c>
       <c r="J13" s="2">
-        <f>RTD(progId,,BINANCE,$A13,J$9)</f>
-        <v>6845.71</v>
+        <f>RTD(progId,,BINANCE,$A13,J$7)</f>
+        <v>1942</v>
       </c>
       <c r="K13" s="10">
-        <f>RTD(progId,,BINANCE,$A13,K$9)</f>
-        <v>7531885.2999999998</v>
+        <f>RTD(progId,,BINANCE,$A13,K$7)</f>
+        <v>25078749</v>
       </c>
       <c r="L13" s="2">
-        <f>RTD(progId,,BINANCE,$A13,L$9)</f>
-        <v>0.68132548000000004</v>
+        <f>RTD(progId,,BINANCE,$A13,L$7)</f>
+        <v>2025.4251503099999</v>
       </c>
       <c r="M13" s="10">
-        <f>RTD(progId,,BINANCE,$A13,M$9)</f>
-        <v>15511</v>
+        <f>RTD(progId,,BINANCE,$A13,M$7)</f>
+        <v>37542</v>
       </c>
       <c r="N13" s="11">
-        <f>RTD(progId,,BINANCE,$A13,N$9)</f>
-        <v>-4.548E-2</v>
+        <f>RTD(progId,,BINANCE,$A13,N$7)</f>
+        <v>5.5900000000000004E-3</v>
       </c>
       <c r="O13" s="2">
-        <f>RTD(progId,,BINANCE,$A13,O$9)</f>
-        <v>-3.1780000000000003E-2</v>
+        <f>RTD(progId,,BINANCE,$A13,O$7)</f>
+        <v>4.4999999999999998E-7</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
-        <f>RTD(progId,,BINANCE,$A14,B$9)</f>
-        <v>7.2110000000000004E-3</v>
+        <f>RTD(progId,,BINANCE,$A14,B$7)</f>
+        <v>9.3100000000000006E-6</v>
       </c>
       <c r="C14" s="2">
-        <f>RTD(progId,,BINANCE,$A14,C$9)</f>
-        <v>7.7429999999999999E-3</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f>RTD(progId,,BINANCE,$A14,D$9)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="E14" s="12" t="str">
-        <f>RTD(progId,,BINANCE,$A14,E$9)</f>
-        <v>&lt;?&gt;</v>
+        <f>RTD(progId,,BINANCE,$A14,C$7)</f>
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="D14" s="2">
+        <f>RTD(progId,,BINANCE,$A14,D$7)</f>
+        <v>9.4099999999999997E-6</v>
+      </c>
+      <c r="E14" s="12">
+        <f>RTD(progId,,BINANCE,$A14,E$7)</f>
+        <v>9.4099999999999997E-6</v>
       </c>
       <c r="F14" s="10">
-        <f>RTD(progId,,BINANCE,$A14,F$9)</f>
-        <v>1.59</v>
+        <f>RTD(progId,,BINANCE,$A14,F$7)</f>
+        <v>236208</v>
       </c>
       <c r="G14" s="2">
-        <f>RTD(progId,,BINANCE,$A14,G$9)</f>
-        <v>7.2509999999999996E-3</v>
+        <f>RTD(progId,,BINANCE,$A14,G$7)</f>
+        <v>9.4800000000000007E-6</v>
       </c>
       <c r="H14" s="2">
-        <f>RTD(progId,,BINANCE,$A14,H$9)</f>
-        <v>9.0000000000000002E-6</v>
+        <f>RTD(progId,,BINANCE,$A14,H$7)</f>
+        <v>2E-8</v>
       </c>
       <c r="I14" s="2">
-        <f>RTD(progId,,BINANCE,$A14,I$9)</f>
-        <v>7.26E-3</v>
+        <f>RTD(progId,,BINANCE,$A14,I$7)</f>
+        <v>9.5000000000000005E-6</v>
       </c>
       <c r="J14" s="2">
-        <f>RTD(progId,,BINANCE,$A14,J$9)</f>
+        <f>RTD(progId,,BINANCE,$A14,J$7)</f>
+        <v>483334</v>
+      </c>
+      <c r="K14" s="10">
+        <f>RTD(progId,,BINANCE,$A14,K$7)</f>
+        <v>1032875901</v>
+      </c>
+      <c r="L14" s="2">
+        <f>RTD(progId,,BINANCE,$A14,L$7)</f>
+        <v>9856.0401564500007</v>
+      </c>
+      <c r="M14" s="10">
+        <f>RTD(progId,,BINANCE,$A14,M$7)</f>
+        <v>111878</v>
+      </c>
+      <c r="N14" s="11">
+        <f>RTD(progId,,BINANCE,$A14,N$7)</f>
+        <v>1.4959999999999999E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <f>RTD(progId,,BINANCE,$A14,O$7)</f>
+        <v>1.4000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,A$18,$C19)</f>
         <v>3</v>
       </c>
-      <c r="K14" s="10">
-        <f>RTD(progId,,BINANCE,$A14,K$9)</f>
-        <v>353793.76</v>
-      </c>
-      <c r="L14" s="2">
-        <f>RTD(progId,,BINANCE,$A14,L$9)</f>
-        <v>7.4530100000000004E-3</v>
-      </c>
-      <c r="M14" s="10">
-        <f>RTD(progId,,BINANCE,$A14,M$9)</f>
-        <v>61305</v>
-      </c>
-      <c r="N14" s="11">
-        <f>RTD(progId,,BINANCE,$A14,N$9)</f>
-        <v>-4.6620000000000002E-2</v>
-      </c>
-      <c r="O14" s="2">
-        <f>RTD(progId,,BINANCE,$A14,O$9)</f>
-        <v>-3.5500000000000001E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2">
-        <f>RTD(progId,,BINANCE,$A15,B$9)</f>
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="C15" s="2">
-        <f>RTD(progId,,BINANCE,$A15,C$9)</f>
-        <v>8.2369999999999999E-5</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f>RTD(progId,,BINANCE,$A15,D$9)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="E15" s="12" t="str">
-        <f>RTD(progId,,BINANCE,$A15,E$9)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="F15" s="10">
-        <f>RTD(progId,,BINANCE,$A15,F$9)</f>
-        <v>583</v>
-      </c>
-      <c r="G15" s="2">
-        <f>RTD(progId,,BINANCE,$A15,G$9)</f>
-        <v>8.0500000000000005E-5</v>
-      </c>
-      <c r="H15" s="2">
-        <f>RTD(progId,,BINANCE,$A15,H$9)</f>
-        <v>1E-8</v>
-      </c>
-      <c r="I15" s="2">
-        <f>RTD(progId,,BINANCE,$A15,I$9)</f>
-        <v>8.051E-5</v>
-      </c>
-      <c r="J15" s="2">
-        <f>RTD(progId,,BINANCE,$A15,J$9)</f>
-        <v>191</v>
-      </c>
-      <c r="K15" s="10">
-        <f>RTD(progId,,BINANCE,$A15,K$9)</f>
-        <v>26959600</v>
-      </c>
-      <c r="L15" s="2">
-        <f>RTD(progId,,BINANCE,$A15,L$9)</f>
-        <v>8.0939999999999994E-5</v>
-      </c>
-      <c r="M15" s="10">
-        <f>RTD(progId,,BINANCE,$A15,M$9)</f>
-        <v>43888</v>
-      </c>
-      <c r="N15" s="11">
-        <f>RTD(progId,,BINANCE,$A15,N$9)</f>
-        <v>-1.685E-2</v>
-      </c>
-      <c r="O15" s="2">
-        <f>RTD(progId,,BINANCE,$A15,O$9)</f>
-        <v>-1.3799999999999999E-6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2">
-        <f>RTD(progId,,BINANCE,$A16,B$9)</f>
-        <v>9.2399999999999996E-6</v>
-      </c>
-      <c r="C16" s="2">
-        <f>RTD(progId,,BINANCE,$A16,C$9)</f>
-        <v>9.8600000000000005E-6</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f>RTD(progId,,BINANCE,$A16,D$9)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="E16" s="12" t="str">
-        <f>RTD(progId,,BINANCE,$A16,E$9)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="F16" s="10">
-        <f>RTD(progId,,BINANCE,$A16,F$9)</f>
-        <v>4178</v>
-      </c>
-      <c r="G16" s="2">
-        <f>RTD(progId,,BINANCE,$A16,G$9)</f>
-        <v>9.4700000000000008E-6</v>
-      </c>
-      <c r="H16" s="2">
-        <f>RTD(progId,,BINANCE,$A16,H$9)</f>
-        <v>1E-8</v>
-      </c>
-      <c r="I16" s="2">
-        <f>RTD(progId,,BINANCE,$A16,I$9)</f>
-        <v>9.4800000000000007E-6</v>
-      </c>
-      <c r="J16" s="2">
-        <f>RTD(progId,,BINANCE,$A16,J$9)</f>
-        <v>720829</v>
-      </c>
-      <c r="K16" s="10">
-        <f>RTD(progId,,BINANCE,$A16,K$9)</f>
-        <v>1815881779</v>
-      </c>
-      <c r="L16" s="2">
-        <f>RTD(progId,,BINANCE,$A16,L$9)</f>
-        <v>9.55E-6</v>
-      </c>
-      <c r="M16" s="10">
-        <f>RTD(progId,,BINANCE,$A16,M$9)</f>
-        <v>176884</v>
-      </c>
-      <c r="N16" s="11">
-        <f>RTD(progId,,BINANCE,$A16,N$9)</f>
-        <v>-1.8630000000000001E-2</v>
-      </c>
-      <c r="O16" s="2">
-        <f>RTD(progId,,BINANCE,$A16,O$9)</f>
-        <v>-1.8E-7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B19" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,B$18,$C19)</f>
+        <v>671.24</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,D$18,$C19)</f>
+        <v>671.88</v>
+      </c>
+      <c r="E19" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,E$18,$C19)</f>
+        <v>0.35848999999999998</v>
+      </c>
+      <c r="G19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="H19" s="23">
+        <f>RTD(progId,,BINANCE,$G19,H$18)</f>
+        <v>25805009</v>
+      </c>
+      <c r="I19" s="8">
+        <f>RTD(progId,,BINANCE,$G19,I$18)</f>
+        <v>671.87</v>
+      </c>
+      <c r="J19" s="8">
+        <f>RTD(progId,,BINANCE,$G19,J$18)</f>
+        <v>671.87</v>
+      </c>
+      <c r="K19" s="23">
+        <f>RTD(progId,,BINANCE,$G19,K$18)</f>
+        <v>71923586</v>
+      </c>
+      <c r="L19" s="23">
+        <f>RTD(progId,,BINANCE,$G19,L$18)</f>
+        <v>71923583</v>
+      </c>
+      <c r="M19" s="8" t="b">
+        <f>RTD(progId,,BINANCE,$G19,M$18)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="8" t="b">
+        <f>RTD(progId,,BINANCE,$G19,N$18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,A$18,$C20)</f>
+        <v>1.9644600000000001</v>
+      </c>
+      <c r="B20" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,B$18,$C20)</f>
+        <v>671.23</v>
+      </c>
+      <c r="C20" s="9">
+        <f>C19+1</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,D$18,$C20)</f>
+        <v>671.89</v>
+      </c>
+      <c r="E20" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,E$18,$C20)</f>
+        <v>3.4367899999999998</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="23">
+        <f>RTD(progId,,BINANCE,$G20,H$18)</f>
+        <v>44982941</v>
+      </c>
+      <c r="I20" s="8">
+        <f>RTD(progId,,BINANCE,$G20,I$18)</f>
+        <v>8189.99</v>
+      </c>
+      <c r="J20" s="8">
+        <f>RTD(progId,,BINANCE,$G20,J$18)</f>
+        <v>8189.99</v>
+      </c>
+      <c r="K20" s="23">
+        <f>RTD(progId,,BINANCE,$G20,K$18)</f>
+        <v>106358459</v>
+      </c>
+      <c r="L20" s="23">
+        <f>RTD(progId,,BINANCE,$G20,L$18)</f>
+        <v>106358050</v>
+      </c>
+      <c r="M20" s="8" t="b">
+        <f>RTD(progId,,BINANCE,$G20,M$18)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="8" t="b">
+        <f>RTD(progId,,BINANCE,$G20,N$18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,A$18,$C21)</f>
+        <v>0.17673</v>
+      </c>
+      <c r="B21" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,B$18,$C21)</f>
+        <v>671.2</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" ref="C21:C28" si="0">C20+1</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,D$18,$C21)</f>
+        <v>672.24</v>
+      </c>
+      <c r="E21" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,E$18,$C21)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="25">
+        <f>RTD(progId,,BINANCE,$G21,H$18)</f>
+        <v>7452677</v>
+      </c>
+      <c r="I21" s="26">
+        <f>RTD(progId,,BINANCE,$G21,I$18)</f>
+        <v>131.69</v>
+      </c>
+      <c r="J21" s="26">
+        <f>RTD(progId,,BINANCE,$G21,J$18)</f>
+        <v>131.69</v>
+      </c>
+      <c r="K21" s="25">
+        <f>RTD(progId,,BINANCE,$G21,K$18)</f>
+        <v>28905302</v>
+      </c>
+      <c r="L21" s="25">
+        <f>RTD(progId,,BINANCE,$G21,L$18)</f>
+        <v>28905389</v>
+      </c>
+      <c r="M21" s="26" t="b">
+        <f>RTD(progId,,BINANCE,$G21,M$18)</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="26" t="b">
+        <f>RTD(progId,,BINANCE,$G21,N$18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,A$18,$C22)</f>
+        <v>1.6</v>
+      </c>
+      <c r="B22" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,B$18,$C22)</f>
+        <v>671.18</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D22" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,D$18,$C22)</f>
+        <v>672.56</v>
+      </c>
+      <c r="E22" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,E$18,$C22)</f>
         <v>12</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,A$20,$C21)</f>
-        <v>3.1796500000000001</v>
-      </c>
-      <c r="B21" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,B$20,$C21)</f>
-        <v>688</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,D$20,$C21)</f>
-        <v>689.02</v>
-      </c>
-      <c r="E21" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,E$20,$C21)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="G21" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,G$20,$C21)</f>
-        <v>3.1796500000000001</v>
-      </c>
-      <c r="H21" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,H$20,$C21)</f>
-        <v>688</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,J$20,$C21)</f>
-        <v>689.02</v>
-      </c>
-      <c r="K21" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,K$20,$C21)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,A$20,$C22)</f>
-        <v>0.84128999999999998</v>
-      </c>
-      <c r="B22" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,B$20,$C22)</f>
-        <v>687.13</v>
-      </c>
-      <c r="C22" s="9">
-        <f>C21+1</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,D$20,$C22)</f>
-        <v>689.11</v>
-      </c>
-      <c r="E22" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,E$20,$C22)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="G22" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,G$20,$C22)</f>
-        <v>0.84128999999999998</v>
-      </c>
-      <c r="H22" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,H$20,$C22)</f>
-        <v>687.13</v>
-      </c>
-      <c r="I22" s="9">
-        <f>I21+1</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,J$20,$C22)</f>
-        <v>689.11</v>
-      </c>
-      <c r="K22" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,K$20,$C22)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,A$20,$C23)</f>
-        <v>0.23723</v>
-      </c>
-      <c r="B23" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,B$20,$C23)</f>
-        <v>686.27</v>
+      <c r="G22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,A$18,$C23)</f>
+        <v>5.9589999999999997E-2</v>
+      </c>
+      <c r="B23" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,B$18,$C23)</f>
+        <v>671.17</v>
       </c>
       <c r="C23" s="9">
-        <f t="shared" ref="C23:C26" si="0">C22+1</f>
-        <v>2</v>
-      </c>
-      <c r="D23" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,D$20,$C23)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="E23" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,E$20,$C23)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="G23" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,G$20,$C23)</f>
-        <v>0.23723</v>
-      </c>
-      <c r="H23" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,H$20,$C23)</f>
-        <v>686.27</v>
-      </c>
-      <c r="I23" s="9">
-        <f t="shared" ref="I23:I26" si="1">I22+1</f>
-        <v>2</v>
-      </c>
-      <c r="J23" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,J$20,$C23)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="K23" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,K$20,$C23)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,A$20,$C24)</f>
-        <v>0</v>
-      </c>
-      <c r="B24" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,B$20,$C24)</f>
-        <v>685.86</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D23" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,D$18,$C23)</f>
+        <v>672.61</v>
+      </c>
+      <c r="E23" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,E$18,$C23)</f>
+        <v>0.19</v>
+      </c>
+      <c r="G23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,A$18,$C24)</f>
+        <v>9.0848499999999994</v>
+      </c>
+      <c r="B24" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,B$18,$C24)</f>
+        <v>671.1</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D24" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,D$20,$C24)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="E24" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,E$20,$C24)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="G24" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,G$20,$C24)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,H$20,$C24)</f>
-        <v>685.86</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J24" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,J$20,$C24)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="K24" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,K$20,$C24)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,A$20,$C25)</f>
-        <v>0</v>
-      </c>
-      <c r="B25" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,B$20,$C25)</f>
-        <v>683.88</v>
+        <v>5</v>
+      </c>
+      <c r="D24" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,D$18,$C24)</f>
+        <v>672.77</v>
+      </c>
+      <c r="E24" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,E$18,$C24)</f>
+        <v>1.9</v>
+      </c>
+      <c r="G24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,A$18,$C25)</f>
+        <v>10</v>
+      </c>
+      <c r="B25" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,B$18,$C25)</f>
+        <v>671.07</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D25" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,D$20,$C25)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="E25" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,E$20,$C25)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="G25" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,G$20,$C25)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,H$20,$C25)</f>
-        <v>683.88</v>
-      </c>
-      <c r="I25" s="9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J25" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,J$20,$C25)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="K25" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,K$20,$C25)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,A$20,$C26)</f>
-        <v>1.45556</v>
-      </c>
-      <c r="B26" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,B$20,$C26)</f>
-        <v>683.31</v>
+        <v>6</v>
+      </c>
+      <c r="D25" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,D$18,$C25)</f>
+        <v>672.78</v>
+      </c>
+      <c r="E25" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,E$18,$C25)</f>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,A$18,$C26)</f>
+        <v>1.8270900000000001</v>
+      </c>
+      <c r="B26" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,B$18,$C26)</f>
+        <v>671.05</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D26" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,D$20,$C26)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="E26" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,E$20,$C26)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="G26" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,G$20,$C26)</f>
-        <v>1.45556</v>
-      </c>
-      <c r="H26" s="8">
-        <f>RTD(progId,,BINANCE,$C$20,H$20,$C26)</f>
-        <v>683.31</v>
-      </c>
-      <c r="I26" s="9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J26" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,J$20,$C26)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-      <c r="K26" s="8" t="str">
-        <f>RTD(progId,,BINANCE,$C$20,K$20,$C26)</f>
-        <v>&lt;?&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D26" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,D$18,$C26)</f>
+        <v>672.82</v>
+      </c>
+      <c r="E26" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,E$18,$C26)</f>
+        <v>12</v>
+      </c>
+      <c r="G26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,A$18,$C27)</f>
+        <v>0.13749</v>
+      </c>
+      <c r="B27" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,B$18,$C27)</f>
+        <v>671.03</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D27" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,D$18,$C27)</f>
+        <v>672.92</v>
+      </c>
+      <c r="E27" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,E$18,$C27)</f>
+        <v>0.93</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="4"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,A$18,$C28)</f>
+        <v>0.57584000000000002</v>
+      </c>
+      <c r="B28" s="29">
+        <f>RTD(progId,,BINANCE,$C$18,B$18,$C28)</f>
+        <v>671.02</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D28" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,D$18,$C28)</f>
+        <v>673</v>
+      </c>
+      <c r="E28" s="30">
+        <f>RTD(progId,,BINANCE,$C$18,E$18,$C28)</f>
+        <v>1.849</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="4"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H29" s="1"/>
       <c r="I29" s="4"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <f>SUM(Table3[BID_DEPTH_SIZE])</f>
+        <v>28.426049999999996</v>
+      </c>
+      <c r="B30" s="27">
+        <f>SUMPRODUCT(Table3[[BID_DEPTH_SIZE]:[BID_DEPTH]])</f>
+        <v>6739.7160499999991</v>
+      </c>
+      <c r="C30" s="28">
+        <f>D30-B30</f>
+        <v>19.623230000001058</v>
+      </c>
+      <c r="D30" s="27">
+        <f>SUMPRODUCT(Table3[[ASK_DEPTH]:[ASK_DEPTH_SIZE]])</f>
+        <v>6759.3392800000001</v>
+      </c>
+      <c r="E30" s="17">
+        <f>SUM(Table3[ASK_DEPTH_SIZE])</f>
+        <v>33.869279999999996</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="4"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H31" s="1"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I31" s="4"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H32" s="1"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="1"/>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I33" s="4"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H34" s="1"/>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I34" s="4"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I35" s="4"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I36" s="4"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I37" s="4"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I39" s="4"/>
-      <c r="J39" s="5"/>
+      <c r="J39" s="6"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I40" s="4"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I41" s="4"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I42" s="4"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I43" s="4"/>
-      <c r="J43" s="6"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I45" s="4"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I46" s="4"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I47" s="4"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I48" s="4"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -3562,11 +4370,6 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I54" s="4"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-    </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I55" s="4"/>
       <c r="J55" s="5"/>
@@ -3583,7 +4386,7 @@
       <c r="K57" s="5"/>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I58" s="4"/>
+      <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
     </row>
@@ -3598,13 +4401,13 @@
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I61" s="5"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I62" s="4"/>
-      <c r="J62" s="5"/>
+      <c r="J62" s="6"/>
       <c r="K62" s="5"/>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.25">
@@ -3619,7 +4422,7 @@
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I65" s="4"/>
-      <c r="J65" s="6"/>
+      <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="9:11" x14ac:dyDescent="0.25">
@@ -3669,7 +4472,7 @@
     </row>
     <row r="75" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I75" s="4"/>
-      <c r="J75" s="5"/>
+      <c r="J75" s="6"/>
       <c r="K75" s="5"/>
     </row>
     <row r="76" spans="9:11" x14ac:dyDescent="0.25">
@@ -3684,7 +4487,7 @@
     </row>
     <row r="78" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I78" s="4"/>
-      <c r="J78" s="6"/>
+      <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
     <row r="79" spans="9:11" x14ac:dyDescent="0.25">
@@ -3733,7 +4536,7 @@
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I88" s="4"/>
+      <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
     </row>
@@ -3748,7 +4551,7 @@
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I91" s="5"/>
+      <c r="I91" s="4"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
     </row>
@@ -3855,7 +4658,7 @@
     <row r="112" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I112" s="4"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
+      <c r="K112" s="7"/>
     </row>
     <row r="113" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I113" s="4"/>
@@ -3870,7 +4673,7 @@
     <row r="115" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I115" s="4"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="7"/>
+      <c r="K115" s="5"/>
     </row>
     <row r="116" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I116" s="4"/>
@@ -3883,36 +4686,18 @@
       <c r="K117" s="5"/>
     </row>
     <row r="118" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I118" s="4"/>
+      <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I119" s="4"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-    </row>
-    <row r="120" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I120" s="4"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-    </row>
-    <row r="121" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C23:C26" formula="1"/>
-  </ignoredErrors>
   <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/doc/crypto.xlsx
+++ b/doc/crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="p:\crypto-rtd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E72A4B9-80B0-4615-AFF1-1E5DFC8A7D41}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E148EF-D88B-4B8C-B06C-2273B78E91D7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13620" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
   </bookViews>
@@ -175,7 +175,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -396,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,100 +412,6 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="48">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -773,7 +679,91 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1394,6 +1384,16 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1436,7 +1436,7 @@
         <tr r="N21" s="1"/>
       </tp>
       <tp>
-        <v>15084</v>
+        <v>14957</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -1444,7 +1444,7 @@
         <tr r="M10" s="1"/>
       </tp>
       <tp>
-        <v>88454</v>
+        <v>88067</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -1452,7 +1452,7 @@
         <tr r="M8" s="1"/>
       </tp>
       <tp>
-        <v>150235</v>
+        <v>151072</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -1460,7 +1460,7 @@
         <tr r="M9" s="1"/>
       </tp>
       <tp>
-        <v>11266</v>
+        <v>11193</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -1468,7 +1468,7 @@
         <tr r="M11" s="1"/>
       </tp>
       <tp>
-        <v>1032875901</v>
+        <v>1029822770</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -1476,7 +1476,7 @@
         <tr r="K14" s="1"/>
       </tp>
       <tp>
-        <v>25078749</v>
+        <v>25419897</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -1484,7 +1484,7 @@
         <tr r="K13" s="1"/>
       </tp>
       <tp>
-        <v>294896.38</v>
+        <v>295998.12</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -1492,7 +1492,7 @@
         <tr r="K12" s="1"/>
       </tp>
       <tp>
-        <v>106358459</v>
+        <v>106368505</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -1500,7 +1500,7 @@
         <tr r="K20" s="1"/>
       </tp>
       <tp>
-        <v>71923586</v>
+        <v>71930263</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -1508,7 +1508,7 @@
         <tr r="K19" s="1"/>
       </tp>
       <tp>
-        <v>28905302</v>
+        <v>28907186</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -1516,7 +1516,7 @@
         <tr r="K21" s="1"/>
       </tp>
       <tp>
-        <v>-1.753E-2</v>
+        <v>-1.5630000000000002E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -1524,7 +1524,7 @@
         <tr r="N10" s="1"/>
       </tp>
       <tp>
-        <v>-1.728E-2</v>
+        <v>-1.511E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -1532,7 +1532,7 @@
         <tr r="N9" s="1"/>
       </tp>
       <tp>
-        <v>-2.9080000000000002E-2</v>
+        <v>-2.3910000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -1540,7 +1540,7 @@
         <tr r="N8" s="1"/>
       </tp>
       <tp>
-        <v>-9.2899999999999996E-3</v>
+        <v>-5.5199999999999997E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -1572,7 +1572,7 @@
         <tr r="B12" s="1"/>
       </tp>
       <tp t="b">
-        <v>0</v>
+        <v>1</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -1596,7 +1596,7 @@
         <tr r="M21" s="1"/>
       </tp>
       <tp>
-        <v>7.2009999999999999E-3</v>
+        <v>7.1929999999999997E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -1604,7 +1604,7 @@
         <tr r="I12" s="1"/>
       </tp>
       <tp>
-        <v>8.0980000000000001E-5</v>
+        <v>8.1130000000000004E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -1612,7 +1612,7 @@
         <tr r="I13" s="1"/>
       </tp>
       <tp>
-        <v>9.5000000000000005E-6</v>
+        <v>9.5300000000000002E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -1620,7 +1620,7 @@
         <tr r="I14" s="1"/>
       </tp>
       <tp>
-        <v>131.69</v>
+        <v>131.59</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -1628,7 +1628,7 @@
         <tr r="J21" s="1"/>
       </tp>
       <tp>
-        <v>8189.99</v>
+        <v>8213.99</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -1636,7 +1636,7 @@
         <tr r="J20" s="1"/>
       </tp>
       <tp>
-        <v>671.87</v>
+        <v>673.51</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -1644,7 +1644,7 @@
         <tr r="J19" s="1"/>
       </tp>
       <tp>
-        <v>9.4800000000000007E-6</v>
+        <v>9.5100000000000004E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -1652,7 +1652,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>8.0950000000000003E-5</v>
+        <v>8.1110000000000001E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -1660,7 +1660,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>7.1970000000000003E-3</v>
+        <v>7.1919999999999996E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -1668,7 +1668,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>-6.2199999999999998E-3</v>
+        <v>-3.7000000000000002E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -1676,7 +1676,7 @@
         <tr r="O11" s="1"/>
       </tp>
       <tp>
-        <v>71923583</v>
+        <v>71930271</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -1684,7 +1684,7 @@
         <tr r="L19" s="1"/>
       </tp>
       <tp>
-        <v>134.66999999999999</v>
+        <v>133.93</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -1692,7 +1692,7 @@
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>8372</v>
+        <v>8340.2900000000009</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -1700,7 +1700,7 @@
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>1265</v>
+        <v>2691</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -1708,7 +1708,7 @@
         <tr r="F13" s="1"/>
       </tp>
       <tp>
-        <v>-2.35</v>
+        <v>-2.09</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -1716,7 +1716,7 @@
         <tr r="O10" s="1"/>
       </tp>
       <tp>
-        <v>-144.01</v>
+        <v>-126.01</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -1724,7 +1724,7 @@
         <tr r="O9" s="1"/>
       </tp>
       <tp>
-        <v>-20.12</v>
+        <v>-16.5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -1732,7 +1732,7 @@
         <tr r="O8" s="1"/>
       </tp>
       <tp>
-        <v>106358050</v>
+        <v>106368498</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -1740,7 +1740,7 @@
         <tr r="L20" s="1"/>
       </tp>
       <tp>
-        <v>0.35</v>
+        <v>0.41</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -1748,7 +1748,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>0.64</v>
+        <v>0.41</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -1756,7 +1756,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>0.02</v>
+        <v>0.47</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -1764,7 +1764,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>2.1199999999999999E-3</v>
+        <v>6.6E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -1772,7 +1772,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>28905389</v>
+        <v>28907306</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -1780,7 +1780,7 @@
         <tr r="L21" s="1"/>
       </tp>
       <tp>
-        <v>694.56</v>
+        <v>689</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -1796,7 +1796,7 @@
         <tr r="C11" s="1"/>
       </tp>
       <tp>
-        <v>9.4099999999999997E-6</v>
+        <v>9.38E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -1804,7 +1804,7 @@
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>8.0350000000000001E-5</v>
+        <v>8.0439999999999996E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -1836,7 +1836,7 @@
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>2.67</v>
+        <v>638.12</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -1844,7 +1844,7 @@
         <tr r="J12" s="1"/>
       </tp>
       <tp>
-        <v>236208</v>
+        <v>64155</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -1852,7 +1852,7 @@
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>0.67276999999999998</v>
+        <v>0.67100000000000004</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -1860,7 +1860,7 @@
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>0.67283999999999999</v>
+        <v>0.67100000000000004</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -1868,7 +1868,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>694.41</v>
+        <v>689.61</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -1876,7 +1876,7 @@
         <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>8372.01</v>
+        <v>8344.86</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -1884,7 +1884,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>134.36000000000001</v>
+        <v>134.12</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -1892,7 +1892,7 @@
         <tr r="E10" s="1"/>
       </tp>
       <tp>
-        <v>1.33</v>
+        <v>4.59</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -1900,7 +1900,7 @@
         <tr r="F12" s="1"/>
       </tp>
       <tp>
-        <v>483334</v>
+        <v>574505</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -1908,7 +1908,7 @@
         <tr r="J14" s="1"/>
       </tp>
       <tp>
-        <v>1942</v>
+        <v>94</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -1916,7 +1916,7 @@
         <tr r="J13" s="1"/>
       </tp>
       <tp>
-        <v>7.3119999999999999E-3</v>
+        <v>7.2969999999999997E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -1924,7 +1924,7 @@
         <tr r="D12" s="1"/>
       </tp>
       <tp>
-        <v>111878</v>
+        <v>111265</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -1932,7 +1932,7 @@
         <tr r="M14" s="1"/>
       </tp>
       <tp>
-        <v>1.4959999999999999E-2</v>
+        <v>1.491E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -1940,7 +1940,7 @@
         <tr r="N14" s="1"/>
       </tp>
       <tp>
-        <v>37542</v>
+        <v>37427</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -1948,7 +1948,7 @@
         <tr r="M13" s="1"/>
       </tp>
       <tp>
-        <v>5.5900000000000004E-3</v>
+        <v>8.0800000000000004E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -1956,7 +1956,7 @@
         <tr r="N13" s="1"/>
       </tp>
       <tp>
-        <v>-1.3429999999999999E-2</v>
+        <v>-1.533E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -1964,7 +1964,7 @@
         <tr r="N12" s="1"/>
       </tp>
       <tp>
-        <v>43808</v>
+        <v>43697</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -1972,7 +1972,7 @@
         <tr r="M12" s="1"/>
       </tp>
       <tp>
-        <v>671.72</v>
+        <v>673.51</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -1980,7 +1980,7 @@
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>8193.01</v>
+        <v>8215.67</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -1988,7 +1988,7 @@
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>4.4999999999999998E-7</v>
+        <v>6.5000000000000002E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -2004,7 +2004,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>671.87</v>
+        <v>673.51</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2012,7 +2012,7 @@
         <tr r="I19" s="1"/>
       </tp>
       <tp>
-        <v>123.82</v>
+        <v>4757.99</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -2028,7 +2028,7 @@
         <tr r="C14" s="1"/>
       </tp>
       <tp>
-        <v>31860.334920000001</v>
+        <v>31717.628860000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2036,7 +2036,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>0.66141000000000005</v>
+        <v>0.66608999999999996</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -2044,7 +2044,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>8189.99</v>
+        <v>8213.99</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2052,7 +2052,7 @@
         <tr r="I20" s="1"/>
       </tp>
       <tp>
-        <v>3580650.3488675002</v>
+        <v>3537053.9374054</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -2060,7 +2060,7 @@
         <tr r="L11" s="1"/>
       </tp>
       <tp>
-        <v>0.62678999999999996</v>
+        <v>8.8539999999999992</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2068,7 +2068,7 @@
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>1</v>
+        <v>1.273261</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2076,7 +2076,7 @@
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>9.3820000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2084,7 +2084,7 @@
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>0.66352999999999995</v>
+        <v>0.66674999999999995</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -2092,7 +2092,7 @@
         <tr r="I11" s="1"/>
       </tp>
       <tp>
-        <v>7.3289999999999996E-3</v>
+        <v>7.2969999999999997E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -2108,7 +2108,7 @@
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>7452677</v>
+        <v>7452919</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2116,7 +2116,7 @@
         <tr r="H21" s="1"/>
       </tp>
       <tp>
-        <v>44982941</v>
+        <v>44987562</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2124,7 +2124,7 @@
         <tr r="H20" s="1"/>
       </tp>
       <tp>
-        <v>25805009</v>
+        <v>25806845</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2132,7 +2132,7 @@
         <tr r="H19" s="1"/>
       </tp>
       <tp>
-        <v>12</v>
+        <v>1.6490000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2141,7 +2141,7 @@
         <tr r="E26" s="1"/>
       </tp>
       <tp>
-        <v>0.20499999999999999</v>
+        <v>14</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2150,7 +2150,7 @@
         <tr r="E25" s="1"/>
       </tp>
       <tp>
-        <v>1.9</v>
+        <v>0.20300000000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2159,7 +2159,7 @@
         <tr r="E24" s="1"/>
       </tp>
       <tp>
-        <v>0.19</v>
+        <v>0.19732</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2168,7 +2168,7 @@
         <tr r="E23" s="1"/>
       </tp>
       <tp>
-        <v>12</v>
+        <v>15</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2177,7 +2177,7 @@
         <tr r="E22" s="1"/>
       </tp>
       <tp>
-        <v>1</v>
+        <v>17</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2186,7 +2186,7 @@
         <tr r="E21" s="1"/>
       </tp>
       <tp>
-        <v>3.4367899999999998</v>
+        <v>7.3999999999999996E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2195,7 +2195,7 @@
         <tr r="E20" s="1"/>
       </tp>
       <tp>
-        <v>0.35848999999999998</v>
+        <v>7.6090000000000005E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2204,7 +2204,7 @@
         <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>1.849</v>
+        <v>0.308</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2213,7 +2213,7 @@
         <tr r="E28" s="1"/>
       </tp>
       <tp>
-        <v>0.93</v>
+        <v>0.4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2222,7 +2222,7 @@
         <tr r="E27" s="1"/>
       </tp>
       <tp>
-        <v>671.72</v>
+        <v>673.5</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -2230,7 +2230,7 @@
         <tr r="B3" s="1"/>
       </tp>
       <tp>
-        <v>2151.5911232600001</v>
+        <v>2159.0548084699999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -2238,7 +2238,7 @@
         <tr r="L12" s="1"/>
       </tp>
       <tp>
-        <v>19321.809300000001</v>
+        <v>19352.223916999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2246,7 +2246,7 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>131.69</v>
+        <v>131.59</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2262,7 +2262,7 @@
         <tr r="B11" s="1"/>
       </tp>
       <tp>
-        <v>671.73</v>
+        <v>673.51</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -2270,7 +2270,7 @@
         <tr r="C3" s="1"/>
       </tp>
       <tp>
-        <v>2.9999999999999997E-8</v>
+        <v>2E-8</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -2278,7 +2278,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>84773.686230000007</v>
+        <v>84046.351089999996</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2286,7 +2286,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>8193.02</v>
+        <v>8215.67</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -2302,7 +2302,7 @@
         <tr r="O14" s="1"/>
       </tp>
       <tp>
-        <v>8193.01</v>
+        <v>8215.66</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -2318,7 +2318,7 @@
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>131.59</v>
+        <v>131.61000000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2326,7 +2326,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>5350063.34</v>
+        <v>5286469.2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -2334,7 +2334,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>8.0359999999999996E-5</v>
+        <v>8.0450000000000004E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -2342,7 +2342,7 @@
         <tr r="E13" s="1"/>
       </tp>
       <tp>
-        <v>1.8270900000000001</v>
+        <v>2.2068400000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2351,7 +2351,7 @@
         <tr r="A26" s="1"/>
       </tp>
       <tp>
-        <v>10</v>
+        <v>0.73</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2360,7 +2360,7 @@
         <tr r="A25" s="1"/>
       </tp>
       <tp>
-        <v>9.0848499999999994</v>
+        <v>1.6650000000000002E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2369,7 +2369,7 @@
         <tr r="A24" s="1"/>
       </tp>
       <tp>
-        <v>5.9589999999999997E-2</v>
+        <v>1.45465</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2378,7 +2378,7 @@
         <tr r="A23" s="1"/>
       </tp>
       <tp>
-        <v>1.6</v>
+        <v>1.5971299999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2387,7 +2387,7 @@
         <tr r="A22" s="1"/>
       </tp>
       <tp>
-        <v>0.17673</v>
+        <v>0.33856000000000003</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2396,7 +2396,7 @@
         <tr r="A21" s="1"/>
       </tp>
       <tp>
-        <v>1.9644600000000001</v>
+        <v>0.72760999999999998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2405,7 +2405,7 @@
         <tr r="A20" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>9.3820000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2414,7 +2414,7 @@
         <tr r="A19" s="1"/>
       </tp>
       <tp>
-        <v>0.57584000000000002</v>
+        <v>0.4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2423,7 +2423,7 @@
         <tr r="A28" s="1"/>
       </tp>
       <tp>
-        <v>0.13749</v>
+        <v>0.50541999999999998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2432,7 +2432,7 @@
         <tr r="A27" s="1"/>
       </tp>
       <tp>
-        <v>131.94</v>
+        <v>132.02000000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2440,7 +2440,7 @@
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>-9.7999999999999997E-5</v>
+        <v>-1.12E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -2448,7 +2448,7 @@
         <tr r="O12" s="1"/>
       </tp>
       <tp>
-        <v>671.23</v>
+        <v>673.44</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2457,7 +2457,7 @@
         <tr r="B20" s="1"/>
       </tp>
       <tp>
-        <v>671.24</v>
+        <v>673.5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2466,7 +2466,7 @@
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>671.18</v>
+        <v>673.22</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2475,7 +2475,7 @@
         <tr r="B22" s="1"/>
       </tp>
       <tp>
-        <v>671.2</v>
+        <v>673.23</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2484,7 +2484,7 @@
         <tr r="B21" s="1"/>
       </tp>
       <tp>
-        <v>671.1</v>
+        <v>672.96</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2493,7 +2493,7 @@
         <tr r="B24" s="1"/>
       </tp>
       <tp>
-        <v>671.17</v>
+        <v>673.01</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2502,7 +2502,7 @@
         <tr r="B23" s="1"/>
       </tp>
       <tp>
-        <v>671.05</v>
+        <v>672.89</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2511,7 +2511,7 @@
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>671.07</v>
+        <v>672.9</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2520,7 +2520,7 @@
         <tr r="B25" s="1"/>
       </tp>
       <tp>
-        <v>671.02</v>
+        <v>672.64</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2529,7 +2529,7 @@
         <tr r="B28" s="1"/>
       </tp>
       <tp>
-        <v>671.03</v>
+        <v>672.88</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2538,7 +2538,7 @@
         <tr r="B27" s="1"/>
       </tp>
       <tp>
-        <v>3.9999999999999998E-6</v>
+        <v>9.9999999999999995E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -2546,7 +2546,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>672.92</v>
+        <v>674.94</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2555,7 +2555,7 @@
         <tr r="D27" s="1"/>
       </tp>
       <tp>
-        <v>673</v>
+        <v>674.98</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2564,7 +2564,7 @@
         <tr r="D28" s="1"/>
       </tp>
       <tp>
-        <v>672.78</v>
+        <v>674.8</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2573,7 +2573,7 @@
         <tr r="D25" s="1"/>
       </tp>
       <tp>
-        <v>672.82</v>
+        <v>674.85</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2582,7 +2582,7 @@
         <tr r="D26" s="1"/>
       </tp>
       <tp>
-        <v>672.61</v>
+        <v>674.71</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2591,7 +2591,7 @@
         <tr r="D23" s="1"/>
       </tp>
       <tp>
-        <v>672.77</v>
+        <v>674.74</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2600,7 +2600,7 @@
         <tr r="D24" s="1"/>
       </tp>
       <tp>
-        <v>672.24</v>
+        <v>674.32</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2609,7 +2609,7 @@
         <tr r="D21" s="1"/>
       </tp>
       <tp>
-        <v>672.56</v>
+        <v>674.53</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2618,7 +2618,7 @@
         <tr r="D22" s="1"/>
       </tp>
       <tp>
-        <v>671.88</v>
+        <v>673.91</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2627,7 +2627,7 @@
         <tr r="D19" s="1"/>
       </tp>
       <tp>
-        <v>671.89</v>
+        <v>674.24</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2644,7 +2644,7 @@
         <tr r="B8" s="1"/>
       </tp>
       <tp>
-        <v>160075894.31673351</v>
+        <v>160273611.327411</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2652,7 +2652,7 @@
         <tr r="L9" s="1"/>
       </tp>
       <tp>
-        <v>4249807.6746656997</v>
+        <v>4229546.5754418001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2660,7 +2660,7 @@
         <tr r="L10" s="1"/>
       </tp>
       <tp>
-        <v>671.24</v>
+        <v>673.5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2668,7 +2668,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>110</v>
+        <v>2508</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -2676,7 +2676,7 @@
         <tr r="J11" s="1"/>
       </tp>
       <tp>
-        <v>671.88</v>
+        <v>673.91</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2684,7 +2684,7 @@
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>58331769.552274197</v>
+        <v>57799975.522825003</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2692,7 +2692,7 @@
         <tr r="L8" s="1"/>
       </tp>
       <tp>
-        <v>9856.0401564500007</v>
+        <v>9828.7215098399993</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -2700,7 +2700,7 @@
         <tr r="L14" s="1"/>
       </tp>
       <tp>
-        <v>2025.4251503099999</v>
+        <v>2053.1941406699998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -2708,7 +2708,7 @@
         <tr r="L13" s="1"/>
       </tp>
       <tp>
-        <v>9.4099999999999997E-6</v>
+        <v>9.38E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -2716,7 +2716,7 @@
         <tr r="E14" s="1"/>
       </tp>
       <tp>
-        <v>8189.99</v>
+        <v>8214</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2732,7 +2732,7 @@
         <tr r="B10" s="1"/>
       </tp>
       <tp>
-        <v>8189.97</v>
+        <v>8213.5300000000007</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2748,7 +2748,7 @@
         <tr r="C12" s="1"/>
       </tp>
       <tp>
-        <v>0.35848999999999998</v>
+        <v>7.6090000000000005E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2756,7 +2756,7 @@
         <tr r="J8" s="1"/>
       </tp>
       <tp>
-        <v>40.973509999999997</v>
+        <v>1.59</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2764,7 +2764,7 @@
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>1.522778</v>
+        <v>0.41308699999999998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2777,50 +2777,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A7:O16" totalsRowCount="1" dataDxfId="47" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A7:O16" totalsRowCount="1" dataDxfId="46" dataCellStyle="Comma">
   <autoFilter ref="A7:O15" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3DCAC593-21E4-456C-93D1-EEDC8340EA91}" name="Ticker"/>
-    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,B$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,C$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,D$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="40" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="39" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,E$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,F$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,G$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,H$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,I$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,J$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,K$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,L$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,M$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Percent">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,N$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A8,O$7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2829,17 +2829,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E0BE176-951A-4CA3-A803-9256000D1161}" name="Table2" displayName="Table2" ref="A2:D4" totalsRowShown="0" dataDxfId="19" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E0BE176-951A-4CA3-A803-9256000D1161}" name="Table2" displayName="Table2" ref="A2:D4" totalsRowShown="0" dataDxfId="18" dataCellStyle="Comma">
   <autoFilter ref="A2:D4" xr:uid="{580FE727-A11C-4ED9-9482-452D0F24BAD3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C68E037-DF9F-4856-B04D-2DCDFFB4E15E}" name="Ticker"/>
-    <tableColumn id="2" xr3:uid="{8FAA28E5-F641-4937-ADD4-FAC56E0C4147}" name="BID" dataDxfId="18" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{8FAA28E5-F641-4937-ADD4-FAC56E0C4147}" name="BID" dataDxfId="17" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,GDAX,$A3,B$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{041CD0D7-D375-4B88-8B1B-CD344CCDEB4E}" name="ASK" dataDxfId="17" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{041CD0D7-D375-4B88-8B1B-CD344CCDEB4E}" name="ASK" dataDxfId="16" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,GDAX,$A3,C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5B81F177-A71A-4810-A2A9-102CFDC4A15D}" name="LAST_PRICE" dataDxfId="16" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{5B81F177-A71A-4810-A2A9-102CFDC4A15D}" name="LAST_PRICE" dataDxfId="15" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,GDAX,$A3,D$2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2848,20 +2848,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A18:E28" totalsRowShown="0" dataDxfId="15" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A18:E28" totalsRowShown="0" dataDxfId="14" dataCellStyle="Comma">
   <autoFilter ref="A18:E28" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="4" dataCellStyle="20% - Accent6">
+    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="13" dataCellStyle="20% - Accent6">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$C$18,A$18,$C19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="3" dataCellStyle="20% - Accent6">
+    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="12" dataCellStyle="20% - Accent6">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$C$18,B$18,$C19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="2" dataCellStyle="20% - Accent2">
+    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="10" dataCellStyle="20% - Accent2">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$C$18,D$18,$C19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="1" dataCellStyle="20% - Accent2">
+    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="9" dataCellStyle="20% - Accent2">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$C$18,E$18,$C19)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2870,29 +2870,29 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G18:N21" totalsRowShown="0" dataDxfId="5" tableBorderDxfId="13" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G18:N21" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7" dataCellStyle="Comma">
   <autoFilter ref="G18:N21" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4DF9B9E1-1E83-4EF7-84C1-2078EE821C9B}" name="TRADES"/>
-    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="12" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="6" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,H$18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="TRADE_PRICE" dataDxfId="11" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="TRADE_PRICE" dataDxfId="5" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,I$18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="TRADE_QUANTITY" dataDxfId="10" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="TRADE_QUANTITY" dataDxfId="4" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,J$18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8227CD56-9AE6-4305-AA2B-98B006AB7F2F}" name="BUYER_ORDER_ID" dataDxfId="9" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{8227CD56-9AE6-4305-AA2B-98B006AB7F2F}" name="BUYER_ORDER_ID" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,K$18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9643A72C-39DD-45DA-9D10-05370B105513}" name="SELLER_ORDER_ID" dataDxfId="8" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{9643A72C-39DD-45DA-9D10-05370B105513}" name="SELLER_ORDER_ID" dataDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,L$18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="7" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="1" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,M$18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="6" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$G19,N$18)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3260,24 +3260,24 @@
       </c>
       <c r="B3" s="2">
         <f>RTD(progId,,GDAX,$A3,B$2)</f>
-        <v>671.72</v>
+        <v>673.5</v>
       </c>
       <c r="C3" s="2">
         <f>RTD(progId,,GDAX,$A3,C$2)</f>
-        <v>671.73</v>
+        <v>673.51</v>
       </c>
       <c r="D3" s="2">
         <f>RTD(progId,,GDAX,$A3,D$2)</f>
-        <v>671.72</v>
+        <v>673.51</v>
       </c>
       <c r="E3" s="1"/>
       <c r="G3" s="13">
         <f>G8-C3</f>
-        <v>-0.49000000000000909</v>
+        <v>-9.9999999999909051E-3</v>
       </c>
       <c r="H3" s="14">
         <f>G3*G8* F8</f>
-        <v>-986.7228000000182</v>
+        <v>-0.63187769999942534</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>32</v>
@@ -3298,15 +3298,15 @@
       </c>
       <c r="B4" s="2">
         <f>RTD(progId,,GDAX,$A4,B$2)</f>
-        <v>8193.01</v>
+        <v>8215.66</v>
       </c>
       <c r="C4" s="2">
         <f>RTD(progId,,GDAX,$A4,C$2)</f>
-        <v>8193.02</v>
+        <v>8215.67</v>
       </c>
       <c r="D4" s="2">
         <f>RTD(progId,,GDAX,$A4,D$2)</f>
-        <v>8193.01</v>
+        <v>8215.67</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -3398,51 +3398,51 @@
       </c>
       <c r="D8" s="2">
         <f>RTD(progId,,BINANCE,$A8,D$7)</f>
-        <v>694.56</v>
+        <v>689</v>
       </c>
       <c r="E8" s="2">
         <f>RTD(progId,,BINANCE,$A8,E$7)</f>
-        <v>694.41</v>
+        <v>689.61</v>
       </c>
       <c r="F8" s="2">
         <f>RTD(progId,,BINANCE,$A8,F$7)</f>
-        <v>3</v>
+        <v>9.3820000000000001E-2</v>
       </c>
       <c r="G8" s="2">
         <f>RTD(progId,,BINANCE,$A8,G$7)</f>
-        <v>671.24</v>
+        <v>673.5</v>
       </c>
       <c r="H8" s="2">
         <f>RTD(progId,,BINANCE,$A8,H$7)</f>
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
       <c r="I8" s="2">
         <f>RTD(progId,,BINANCE,$A8,I$7)</f>
-        <v>671.88</v>
+        <v>673.91</v>
       </c>
       <c r="J8" s="2">
         <f>RTD(progId,,BINANCE,$A8,J$7)</f>
-        <v>0.35848999999999998</v>
+        <v>7.6090000000000005E-2</v>
       </c>
       <c r="K8" s="10">
         <f>RTD(progId,,BINANCE,$A8,K$7)</f>
-        <v>84773.686230000007</v>
+        <v>84046.351089999996</v>
       </c>
       <c r="L8" s="2">
         <f>RTD(progId,,BINANCE,$A8,L$7)</f>
-        <v>58331769.552274197</v>
+        <v>57799975.522825003</v>
       </c>
       <c r="M8" s="10">
         <f>RTD(progId,,BINANCE,$A8,M$7)</f>
-        <v>88454</v>
+        <v>88067</v>
       </c>
       <c r="N8" s="11">
         <f>RTD(progId,,BINANCE,$A8,N$7)</f>
-        <v>-2.9080000000000002E-2</v>
+        <v>-2.3910000000000001E-2</v>
       </c>
       <c r="O8" s="2">
         <f>RTD(progId,,BINANCE,$A8,O$7)</f>
-        <v>-20.12</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3459,51 +3459,51 @@
       </c>
       <c r="D9" s="2">
         <f>RTD(progId,,BINANCE,$A9,D$7)</f>
-        <v>8372</v>
+        <v>8340.2900000000009</v>
       </c>
       <c r="E9" s="2">
         <f>RTD(progId,,BINANCE,$A9,E$7)</f>
-        <v>8372.01</v>
+        <v>8344.86</v>
       </c>
       <c r="F9" s="2">
         <f>RTD(progId,,BINANCE,$A9,F$7)</f>
-        <v>1</v>
+        <v>1.273261</v>
       </c>
       <c r="G9" s="2">
         <f>RTD(progId,,BINANCE,$A9,G$7)</f>
-        <v>8189.97</v>
+        <v>8213.5300000000007</v>
       </c>
       <c r="H9" s="2">
         <f>RTD(progId,,BINANCE,$A9,H$7)</f>
-        <v>0.02</v>
+        <v>0.47</v>
       </c>
       <c r="I9" s="2">
         <f>RTD(progId,,BINANCE,$A9,I$7)</f>
-        <v>8189.99</v>
+        <v>8214</v>
       </c>
       <c r="J9" s="2">
         <f>RTD(progId,,BINANCE,$A9,J$7)</f>
-        <v>1.522778</v>
+        <v>0.41308699999999998</v>
       </c>
       <c r="K9" s="10">
         <f>RTD(progId,,BINANCE,$A9,K$7)</f>
-        <v>19321.809300000001</v>
+        <v>19352.223916999999</v>
       </c>
       <c r="L9" s="2">
         <f>RTD(progId,,BINANCE,$A9,L$7)</f>
-        <v>160075894.31673351</v>
+        <v>160273611.327411</v>
       </c>
       <c r="M9" s="10">
         <f>RTD(progId,,BINANCE,$A9,M$7)</f>
-        <v>150235</v>
+        <v>151072</v>
       </c>
       <c r="N9" s="11">
         <f>RTD(progId,,BINANCE,$A9,N$7)</f>
-        <v>-1.728E-2</v>
+        <v>-1.511E-2</v>
       </c>
       <c r="O9" s="2">
         <f>RTD(progId,,BINANCE,$A9,O$7)</f>
-        <v>-144.01</v>
+        <v>-126.01</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -3520,51 +3520,51 @@
       </c>
       <c r="D10" s="2">
         <f>RTD(progId,,BINANCE,$A10,D$7)</f>
-        <v>134.66999999999999</v>
+        <v>133.93</v>
       </c>
       <c r="E10" s="2">
         <f>RTD(progId,,BINANCE,$A10,E$7)</f>
-        <v>134.36000000000001</v>
+        <v>134.12</v>
       </c>
       <c r="F10" s="2">
         <f>RTD(progId,,BINANCE,$A10,F$7)</f>
-        <v>0.62678999999999996</v>
+        <v>8.8539999999999992</v>
       </c>
       <c r="G10" s="2">
         <f>RTD(progId,,BINANCE,$A10,G$7)</f>
-        <v>131.59</v>
+        <v>131.61000000000001</v>
       </c>
       <c r="H10" s="2">
         <f>RTD(progId,,BINANCE,$A10,H$7)</f>
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="I10" s="2">
         <f>RTD(progId,,BINANCE,$A10,I$7)</f>
-        <v>131.94</v>
+        <v>132.02000000000001</v>
       </c>
       <c r="J10" s="2">
         <f>RTD(progId,,BINANCE,$A10,J$7)</f>
-        <v>40.973509999999997</v>
+        <v>1.59</v>
       </c>
       <c r="K10" s="10">
         <f>RTD(progId,,BINANCE,$A10,K$7)</f>
-        <v>31860.334920000001</v>
+        <v>31717.628860000001</v>
       </c>
       <c r="L10" s="2">
         <f>RTD(progId,,BINANCE,$A10,L$7)</f>
-        <v>4249807.6746656997</v>
+        <v>4229546.5754418001</v>
       </c>
       <c r="M10" s="10">
         <f>RTD(progId,,BINANCE,$A10,M$7)</f>
-        <v>15084</v>
+        <v>14957</v>
       </c>
       <c r="N10" s="11">
         <f>RTD(progId,,BINANCE,$A10,N$7)</f>
-        <v>-1.753E-2</v>
+        <v>-1.5630000000000002E-2</v>
       </c>
       <c r="O10" s="2">
         <f>RTD(progId,,BINANCE,$A10,O$7)</f>
-        <v>-2.35</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3581,51 +3581,51 @@
       </c>
       <c r="D11" s="2">
         <f>RTD(progId,,BINANCE,$A11,D$7)</f>
-        <v>0.67276999999999998</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="E11" s="12">
         <f>RTD(progId,,BINANCE,$A11,E$7)</f>
-        <v>0.67283999999999999</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="F11" s="10">
         <f>RTD(progId,,BINANCE,$A11,F$7)</f>
-        <v>123.82</v>
+        <v>4757.99</v>
       </c>
       <c r="G11" s="2">
         <f>RTD(progId,,BINANCE,$A11,G$7)</f>
-        <v>0.66141000000000005</v>
+        <v>0.66608999999999996</v>
       </c>
       <c r="H11" s="2">
         <f>RTD(progId,,BINANCE,$A11,H$7)</f>
-        <v>2.1199999999999999E-3</v>
+        <v>6.6E-4</v>
       </c>
       <c r="I11" s="2">
         <f>RTD(progId,,BINANCE,$A11,I$7)</f>
-        <v>0.66352999999999995</v>
+        <v>0.66674999999999995</v>
       </c>
       <c r="J11" s="2">
         <f>RTD(progId,,BINANCE,$A11,J$7)</f>
-        <v>110</v>
+        <v>2508</v>
       </c>
       <c r="K11" s="10">
         <f>RTD(progId,,BINANCE,$A11,K$7)</f>
-        <v>5350063.34</v>
+        <v>5286469.2</v>
       </c>
       <c r="L11" s="2">
         <f>RTD(progId,,BINANCE,$A11,L$7)</f>
-        <v>3580650.3488675002</v>
+        <v>3537053.9374054</v>
       </c>
       <c r="M11" s="10">
         <f>RTD(progId,,BINANCE,$A11,M$7)</f>
-        <v>11266</v>
+        <v>11193</v>
       </c>
       <c r="N11" s="11">
         <f>RTD(progId,,BINANCE,$A11,N$7)</f>
-        <v>-9.2899999999999996E-3</v>
+        <v>-5.5199999999999997E-3</v>
       </c>
       <c r="O11" s="2">
         <f>RTD(progId,,BINANCE,$A11,O$7)</f>
-        <v>-6.2199999999999998E-3</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3642,51 +3642,51 @@
       </c>
       <c r="D12" s="2">
         <f>RTD(progId,,BINANCE,$A12,D$7)</f>
-        <v>7.3119999999999999E-3</v>
+        <v>7.2969999999999997E-3</v>
       </c>
       <c r="E12" s="12">
         <f>RTD(progId,,BINANCE,$A12,E$7)</f>
-        <v>7.3289999999999996E-3</v>
+        <v>7.2969999999999997E-3</v>
       </c>
       <c r="F12" s="10">
         <f>RTD(progId,,BINANCE,$A12,F$7)</f>
-        <v>1.33</v>
+        <v>4.59</v>
       </c>
       <c r="G12" s="2">
         <f>RTD(progId,,BINANCE,$A12,G$7)</f>
-        <v>7.1970000000000003E-3</v>
+        <v>7.1919999999999996E-3</v>
       </c>
       <c r="H12" s="2">
         <f>RTD(progId,,BINANCE,$A12,H$7)</f>
-        <v>3.9999999999999998E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="I12" s="2">
         <f>RTD(progId,,BINANCE,$A12,I$7)</f>
-        <v>7.2009999999999999E-3</v>
+        <v>7.1929999999999997E-3</v>
       </c>
       <c r="J12" s="2">
         <f>RTD(progId,,BINANCE,$A12,J$7)</f>
-        <v>2.67</v>
+        <v>638.12</v>
       </c>
       <c r="K12" s="10">
         <f>RTD(progId,,BINANCE,$A12,K$7)</f>
-        <v>294896.38</v>
+        <v>295998.12</v>
       </c>
       <c r="L12" s="2">
         <f>RTD(progId,,BINANCE,$A12,L$7)</f>
-        <v>2151.5911232600001</v>
+        <v>2159.0548084699999</v>
       </c>
       <c r="M12" s="10">
         <f>RTD(progId,,BINANCE,$A12,M$7)</f>
-        <v>43808</v>
+        <v>43697</v>
       </c>
       <c r="N12" s="11">
         <f>RTD(progId,,BINANCE,$A12,N$7)</f>
-        <v>-1.3429999999999999E-2</v>
+        <v>-1.533E-2</v>
       </c>
       <c r="O12" s="2">
         <f>RTD(progId,,BINANCE,$A12,O$7)</f>
-        <v>-9.7999999999999997E-5</v>
+        <v>-1.12E-4</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3703,51 +3703,51 @@
       </c>
       <c r="D13" s="2">
         <f>RTD(progId,,BINANCE,$A13,D$7)</f>
-        <v>8.0350000000000001E-5</v>
+        <v>8.0439999999999996E-5</v>
       </c>
       <c r="E13" s="12">
         <f>RTD(progId,,BINANCE,$A13,E$7)</f>
-        <v>8.0359999999999996E-5</v>
+        <v>8.0450000000000004E-5</v>
       </c>
       <c r="F13" s="10">
         <f>RTD(progId,,BINANCE,$A13,F$7)</f>
-        <v>1265</v>
+        <v>2691</v>
       </c>
       <c r="G13" s="2">
         <f>RTD(progId,,BINANCE,$A13,G$7)</f>
-        <v>8.0950000000000003E-5</v>
+        <v>8.1110000000000001E-5</v>
       </c>
       <c r="H13" s="2">
         <f>RTD(progId,,BINANCE,$A13,H$7)</f>
-        <v>2.9999999999999997E-8</v>
+        <v>2E-8</v>
       </c>
       <c r="I13" s="2">
         <f>RTD(progId,,BINANCE,$A13,I$7)</f>
-        <v>8.0980000000000001E-5</v>
+        <v>8.1130000000000004E-5</v>
       </c>
       <c r="J13" s="2">
         <f>RTD(progId,,BINANCE,$A13,J$7)</f>
-        <v>1942</v>
+        <v>94</v>
       </c>
       <c r="K13" s="10">
         <f>RTD(progId,,BINANCE,$A13,K$7)</f>
-        <v>25078749</v>
+        <v>25419897</v>
       </c>
       <c r="L13" s="2">
         <f>RTD(progId,,BINANCE,$A13,L$7)</f>
-        <v>2025.4251503099999</v>
+        <v>2053.1941406699998</v>
       </c>
       <c r="M13" s="10">
         <f>RTD(progId,,BINANCE,$A13,M$7)</f>
-        <v>37542</v>
+        <v>37427</v>
       </c>
       <c r="N13" s="11">
         <f>RTD(progId,,BINANCE,$A13,N$7)</f>
-        <v>5.5900000000000004E-3</v>
+        <v>8.0800000000000004E-3</v>
       </c>
       <c r="O13" s="2">
         <f>RTD(progId,,BINANCE,$A13,O$7)</f>
-        <v>4.4999999999999998E-7</v>
+        <v>6.5000000000000002E-7</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3764,19 +3764,19 @@
       </c>
       <c r="D14" s="2">
         <f>RTD(progId,,BINANCE,$A14,D$7)</f>
-        <v>9.4099999999999997E-6</v>
+        <v>9.38E-6</v>
       </c>
       <c r="E14" s="12">
         <f>RTD(progId,,BINANCE,$A14,E$7)</f>
-        <v>9.4099999999999997E-6</v>
+        <v>9.38E-6</v>
       </c>
       <c r="F14" s="10">
         <f>RTD(progId,,BINANCE,$A14,F$7)</f>
-        <v>236208</v>
+        <v>64155</v>
       </c>
       <c r="G14" s="2">
         <f>RTD(progId,,BINANCE,$A14,G$7)</f>
-        <v>9.4800000000000007E-6</v>
+        <v>9.5100000000000004E-6</v>
       </c>
       <c r="H14" s="2">
         <f>RTD(progId,,BINANCE,$A14,H$7)</f>
@@ -3784,27 +3784,27 @@
       </c>
       <c r="I14" s="2">
         <f>RTD(progId,,BINANCE,$A14,I$7)</f>
-        <v>9.5000000000000005E-6</v>
+        <v>9.5300000000000002E-6</v>
       </c>
       <c r="J14" s="2">
         <f>RTD(progId,,BINANCE,$A14,J$7)</f>
-        <v>483334</v>
+        <v>574505</v>
       </c>
       <c r="K14" s="10">
         <f>RTD(progId,,BINANCE,$A14,K$7)</f>
-        <v>1032875901</v>
+        <v>1029822770</v>
       </c>
       <c r="L14" s="2">
         <f>RTD(progId,,BINANCE,$A14,L$7)</f>
-        <v>9856.0401564500007</v>
+        <v>9828.7215098399993</v>
       </c>
       <c r="M14" s="10">
         <f>RTD(progId,,BINANCE,$A14,M$7)</f>
-        <v>111878</v>
+        <v>111265</v>
       </c>
       <c r="N14" s="11">
         <f>RTD(progId,,BINANCE,$A14,N$7)</f>
-        <v>1.4959999999999999E-2</v>
+        <v>1.491E-2</v>
       </c>
       <c r="O14" s="2">
         <f>RTD(progId,,BINANCE,$A14,O$7)</f>
@@ -3896,49 +3896,49 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <f>RTD(progId,,BINANCE,$C$18,A$18,$C19)</f>
-        <v>3</v>
+        <v>9.3820000000000001E-2</v>
       </c>
       <c r="B19" s="29">
         <f>RTD(progId,,BINANCE,$C$18,B$18,$C19)</f>
-        <v>671.24</v>
+        <v>673.5</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
       </c>
       <c r="D19" s="30">
         <f>RTD(progId,,BINANCE,$C$18,D$18,$C19)</f>
-        <v>671.88</v>
+        <v>673.91</v>
       </c>
       <c r="E19" s="30">
         <f>RTD(progId,,BINANCE,$C$18,E$18,$C19)</f>
-        <v>0.35848999999999998</v>
+        <v>7.6090000000000005E-2</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="23">
         <f>RTD(progId,,BINANCE,$G19,H$18)</f>
-        <v>25805009</v>
+        <v>25806845</v>
       </c>
       <c r="I19" s="8">
         <f>RTD(progId,,BINANCE,$G19,I$18)</f>
-        <v>671.87</v>
+        <v>673.51</v>
       </c>
       <c r="J19" s="8">
         <f>RTD(progId,,BINANCE,$G19,J$18)</f>
-        <v>671.87</v>
+        <v>673.51</v>
       </c>
       <c r="K19" s="23">
         <f>RTD(progId,,BINANCE,$G19,K$18)</f>
-        <v>71923586</v>
+        <v>71930263</v>
       </c>
       <c r="L19" s="23">
         <f>RTD(progId,,BINANCE,$G19,L$18)</f>
-        <v>71923583</v>
+        <v>71930271</v>
       </c>
       <c r="M19" s="8" t="b">
         <f>RTD(progId,,BINANCE,$G19,M$18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="8" t="b">
         <f>RTD(progId,,BINANCE,$G19,N$18)</f>
@@ -3948,11 +3948,11 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <f>RTD(progId,,BINANCE,$C$18,A$18,$C20)</f>
-        <v>1.9644600000000001</v>
+        <v>0.72760999999999998</v>
       </c>
       <c r="B20" s="29">
         <f>RTD(progId,,BINANCE,$C$18,B$18,$C20)</f>
-        <v>671.23</v>
+        <v>673.44</v>
       </c>
       <c r="C20" s="9">
         <f>C19+1</f>
@@ -3960,34 +3960,34 @@
       </c>
       <c r="D20" s="30">
         <f>RTD(progId,,BINANCE,$C$18,D$18,$C20)</f>
-        <v>671.89</v>
+        <v>674.24</v>
       </c>
       <c r="E20" s="30">
         <f>RTD(progId,,BINANCE,$C$18,E$18,$C20)</f>
-        <v>3.4367899999999998</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="23">
         <f>RTD(progId,,BINANCE,$G20,H$18)</f>
-        <v>44982941</v>
+        <v>44987562</v>
       </c>
       <c r="I20" s="8">
         <f>RTD(progId,,BINANCE,$G20,I$18)</f>
-        <v>8189.99</v>
+        <v>8213.99</v>
       </c>
       <c r="J20" s="8">
         <f>RTD(progId,,BINANCE,$G20,J$18)</f>
-        <v>8189.99</v>
+        <v>8213.99</v>
       </c>
       <c r="K20" s="23">
         <f>RTD(progId,,BINANCE,$G20,K$18)</f>
-        <v>106358459</v>
+        <v>106368505</v>
       </c>
       <c r="L20" s="23">
         <f>RTD(progId,,BINANCE,$G20,L$18)</f>
-        <v>106358050</v>
+        <v>106368498</v>
       </c>
       <c r="M20" s="8" t="b">
         <f>RTD(progId,,BINANCE,$G20,M$18)</f>
@@ -4001,11 +4001,11 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <f>RTD(progId,,BINANCE,$C$18,A$18,$C21)</f>
-        <v>0.17673</v>
+        <v>0.33856000000000003</v>
       </c>
       <c r="B21" s="29">
         <f>RTD(progId,,BINANCE,$C$18,B$18,$C21)</f>
-        <v>671.2</v>
+        <v>673.23</v>
       </c>
       <c r="C21" s="9">
         <f t="shared" ref="C21:C28" si="0">C20+1</f>
@@ -4013,34 +4013,34 @@
       </c>
       <c r="D21" s="30">
         <f>RTD(progId,,BINANCE,$C$18,D$18,$C21)</f>
-        <v>672.24</v>
+        <v>674.32</v>
       </c>
       <c r="E21" s="30">
         <f>RTD(progId,,BINANCE,$C$18,E$18,$C21)</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="25">
         <f>RTD(progId,,BINANCE,$G21,H$18)</f>
-        <v>7452677</v>
+        <v>7452919</v>
       </c>
       <c r="I21" s="26">
         <f>RTD(progId,,BINANCE,$G21,I$18)</f>
-        <v>131.69</v>
+        <v>131.59</v>
       </c>
       <c r="J21" s="26">
         <f>RTD(progId,,BINANCE,$G21,J$18)</f>
-        <v>131.69</v>
+        <v>131.59</v>
       </c>
       <c r="K21" s="25">
         <f>RTD(progId,,BINANCE,$G21,K$18)</f>
-        <v>28905302</v>
+        <v>28907186</v>
       </c>
       <c r="L21" s="25">
         <f>RTD(progId,,BINANCE,$G21,L$18)</f>
-        <v>28905389</v>
+        <v>28907306</v>
       </c>
       <c r="M21" s="26" t="b">
         <f>RTD(progId,,BINANCE,$G21,M$18)</f>
@@ -4054,11 +4054,11 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <f>RTD(progId,,BINANCE,$C$18,A$18,$C22)</f>
-        <v>1.6</v>
+        <v>1.5971299999999999</v>
       </c>
       <c r="B22" s="29">
         <f>RTD(progId,,BINANCE,$C$18,B$18,$C22)</f>
-        <v>671.18</v>
+        <v>673.22</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="0"/>
@@ -4066,11 +4066,11 @@
       </c>
       <c r="D22" s="30">
         <f>RTD(progId,,BINANCE,$C$18,D$18,$C22)</f>
-        <v>672.56</v>
+        <v>674.53</v>
       </c>
       <c r="E22" s="30">
         <f>RTD(progId,,BINANCE,$C$18,E$18,$C22)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G22"/>
       <c r="K22"/>
@@ -4078,11 +4078,11 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <f>RTD(progId,,BINANCE,$C$18,A$18,$C23)</f>
-        <v>5.9589999999999997E-2</v>
+        <v>1.45465</v>
       </c>
       <c r="B23" s="29">
         <f>RTD(progId,,BINANCE,$C$18,B$18,$C23)</f>
-        <v>671.17</v>
+        <v>673.01</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="0"/>
@@ -4090,11 +4090,11 @@
       </c>
       <c r="D23" s="30">
         <f>RTD(progId,,BINANCE,$C$18,D$18,$C23)</f>
-        <v>672.61</v>
+        <v>674.71</v>
       </c>
       <c r="E23" s="30">
         <f>RTD(progId,,BINANCE,$C$18,E$18,$C23)</f>
-        <v>0.19</v>
+        <v>0.19732</v>
       </c>
       <c r="G23"/>
       <c r="K23"/>
@@ -4102,11 +4102,11 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <f>RTD(progId,,BINANCE,$C$18,A$18,$C24)</f>
-        <v>9.0848499999999994</v>
+        <v>1.6650000000000002E-2</v>
       </c>
       <c r="B24" s="29">
         <f>RTD(progId,,BINANCE,$C$18,B$18,$C24)</f>
-        <v>671.1</v>
+        <v>672.96</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" si="0"/>
@@ -4114,11 +4114,11 @@
       </c>
       <c r="D24" s="30">
         <f>RTD(progId,,BINANCE,$C$18,D$18,$C24)</f>
-        <v>672.77</v>
+        <v>674.74</v>
       </c>
       <c r="E24" s="30">
         <f>RTD(progId,,BINANCE,$C$18,E$18,$C24)</f>
-        <v>1.9</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="G24"/>
       <c r="K24"/>
@@ -4126,11 +4126,11 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <f>RTD(progId,,BINANCE,$C$18,A$18,$C25)</f>
-        <v>10</v>
+        <v>0.73</v>
       </c>
       <c r="B25" s="29">
         <f>RTD(progId,,BINANCE,$C$18,B$18,$C25)</f>
-        <v>671.07</v>
+        <v>672.9</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="0"/>
@@ -4138,11 +4138,11 @@
       </c>
       <c r="D25" s="30">
         <f>RTD(progId,,BINANCE,$C$18,D$18,$C25)</f>
-        <v>672.78</v>
+        <v>674.8</v>
       </c>
       <c r="E25" s="30">
         <f>RTD(progId,,BINANCE,$C$18,E$18,$C25)</f>
-        <v>0.20499999999999999</v>
+        <v>14</v>
       </c>
       <c r="G25"/>
       <c r="K25"/>
@@ -4150,11 +4150,11 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <f>RTD(progId,,BINANCE,$C$18,A$18,$C26)</f>
-        <v>1.8270900000000001</v>
+        <v>2.2068400000000001</v>
       </c>
       <c r="B26" s="29">
         <f>RTD(progId,,BINANCE,$C$18,B$18,$C26)</f>
-        <v>671.05</v>
+        <v>672.89</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="0"/>
@@ -4162,11 +4162,11 @@
       </c>
       <c r="D26" s="30">
         <f>RTD(progId,,BINANCE,$C$18,D$18,$C26)</f>
-        <v>672.82</v>
+        <v>674.85</v>
       </c>
       <c r="E26" s="30">
         <f>RTD(progId,,BINANCE,$C$18,E$18,$C26)</f>
-        <v>12</v>
+        <v>1.6490000000000001E-2</v>
       </c>
       <c r="G26"/>
       <c r="K26"/>
@@ -4174,11 +4174,11 @@
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <f>RTD(progId,,BINANCE,$C$18,A$18,$C27)</f>
-        <v>0.13749</v>
+        <v>0.50541999999999998</v>
       </c>
       <c r="B27" s="29">
         <f>RTD(progId,,BINANCE,$C$18,B$18,$C27)</f>
-        <v>671.03</v>
+        <v>672.88</v>
       </c>
       <c r="C27" s="9">
         <f t="shared" si="0"/>
@@ -4186,11 +4186,11 @@
       </c>
       <c r="D27" s="30">
         <f>RTD(progId,,BINANCE,$C$18,D$18,$C27)</f>
-        <v>672.92</v>
+        <v>674.94</v>
       </c>
       <c r="E27" s="30">
         <f>RTD(progId,,BINANCE,$C$18,E$18,$C27)</f>
-        <v>0.93</v>
+        <v>0.4</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="4"/>
@@ -4200,11 +4200,11 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <f>RTD(progId,,BINANCE,$C$18,A$18,$C28)</f>
-        <v>0.57584000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="B28" s="29">
         <f>RTD(progId,,BINANCE,$C$18,B$18,$C28)</f>
-        <v>671.02</v>
+        <v>672.64</v>
       </c>
       <c r="C28" s="9">
         <f t="shared" si="0"/>
@@ -4212,11 +4212,11 @@
       </c>
       <c r="D28" s="30">
         <f>RTD(progId,,BINANCE,$C$18,D$18,$C28)</f>
-        <v>673</v>
+        <v>674.98</v>
       </c>
       <c r="E28" s="30">
         <f>RTD(progId,,BINANCE,$C$18,E$18,$C28)</f>
-        <v>1.849</v>
+        <v>0.308</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="4"/>
@@ -4232,23 +4232,23 @@
     <row r="30" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <f>SUM(Table3[BID_DEPTH_SIZE])</f>
-        <v>28.426049999999996</v>
+        <v>8.0706799999999994</v>
       </c>
       <c r="B30" s="27">
         <f>SUMPRODUCT(Table3[[BID_DEPTH_SIZE]:[BID_DEPTH]])</f>
-        <v>6739.7160499999991</v>
+        <v>6738.7406800000008</v>
       </c>
       <c r="C30" s="28">
         <f>D30-B30</f>
-        <v>19.623230000001058</v>
+        <v>54.554219999999077</v>
       </c>
       <c r="D30" s="27">
         <f>SUMPRODUCT(Table3[[ASK_DEPTH]:[ASK_DEPTH_SIZE]])</f>
-        <v>6759.3392800000001</v>
+        <v>6793.2948999999999</v>
       </c>
       <c r="E30" s="17">
         <f>SUM(Table3[ASK_DEPTH_SIZE])</f>
-        <v>33.869279999999996</v>
+        <v>47.274899999999995</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="4"/>
@@ -4692,7 +4692,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/crypto.xlsx
+++ b/doc/crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="p:\crypto-rtd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCAFF05-924B-40B5-80B8-DE1D63487AD9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E50A666-AF42-40CD-827E-F79160BFD15F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13620" activeTab="1" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
   </bookViews>
@@ -230,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +286,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,8 +331,13 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -416,16 +428,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -470,16 +498,830 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
     <cellStyle name="20% - Accent6" xfId="5" builtinId="50"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Input" xfId="6" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="85">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1739,903 +2581,91 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2728,7 +2758,7 @@
   <volType type="realTimeData">
     <main first="crypto-debug">
       <tp>
-        <v>8384.6299999999992</v>
+        <v>8384</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -2736,7 +2766,7 @@
         <tr r="E6" s="1"/>
       </tp>
       <tp>
-        <v>134.47</v>
+        <v>134.46</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -2744,7 +2774,7 @@
         <tr r="E7" s="1"/>
       </tp>
       <tp>
-        <v>697.98</v>
+        <v>698.12</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -2770,7 +2800,7 @@
         <tr r="O28" s="1"/>
       </tp>
       <tp t="b">
-        <v>1</v>
+        <v>0</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -2786,7 +2816,7 @@
         <tr r="M15" s="1"/>
       </tp>
       <tp t="b">
-        <v>1</v>
+        <v>0</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -2794,7 +2824,7 @@
         <tr r="M17" s="1"/>
       </tp>
       <tp>
-        <v>0.67688999999999999</v>
+        <v>0.67649999999999999</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -2802,7 +2832,7 @@
         <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>7.4260000000000003E-3</v>
+        <v>7.4180000000000001E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -2810,7 +2840,7 @@
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>17660</v>
+        <v>17684</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2818,7 +2848,7 @@
         <tr r="M7" s="1"/>
       </tp>
       <tp>
-        <v>113700</v>
+        <v>113958</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2826,7 +2856,7 @@
         <tr r="M5" s="1"/>
       </tp>
       <tp>
-        <v>194036</v>
+        <v>194143</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2834,7 +2864,7 @@
         <tr r="M6" s="1"/>
       </tp>
       <tp>
-        <v>14916</v>
+        <v>14919</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -2842,7 +2872,7 @@
         <tr r="M8" s="1"/>
       </tp>
       <tp>
-        <v>8031.9</v>
+        <v>8019.03</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -2851,7 +2881,7 @@
         <tr r="C33" s="1"/>
       </tp>
       <tp>
-        <v>8018.99</v>
+        <v>8014</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -2860,7 +2890,7 @@
         <tr r="C27" s="1"/>
       </tp>
       <tp>
-        <v>650.35</v>
+        <v>648.74</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -2869,7 +2899,7 @@
         <tr r="C32" s="1"/>
       </tp>
       <tp>
-        <v>648.12</v>
+        <v>648.71</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -2887,7 +2917,7 @@
         <tr r="C34" s="1"/>
       </tp>
       <tp>
-        <v>129.12</v>
+        <v>129.01</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -2914,7 +2944,7 @@
         <tr r="O27" s="1"/>
       </tp>
       <tp>
-        <v>1118639849</v>
+        <v>1117892376</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -2922,7 +2952,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>26456712</v>
+        <v>26450844</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -2930,7 +2960,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>292349.06</v>
+        <v>291883.59000000003</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -2956,7 +2986,7 @@
         <tr r="O32" s="1"/>
       </tp>
       <tp>
-        <v>-4.1570000000000003E-2</v>
+        <v>-4.0099999999999997E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2964,7 +2994,7 @@
         <tr r="N7" s="1"/>
       </tp>
       <tp>
-        <v>-4.3610000000000003E-2</v>
+        <v>-4.3799999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2972,7 +3002,7 @@
         <tr r="N6" s="1"/>
       </tp>
       <tp>
-        <v>-7.1410000000000001E-2</v>
+        <v>-7.2090000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2980,7 +3010,7 @@
         <tr r="N5" s="1"/>
       </tp>
       <tp>
-        <v>-4.9520000000000002E-2</v>
+        <v>-4.931E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -2988,7 +3018,7 @@
         <tr r="N8" s="1"/>
       </tp>
       <tp>
-        <v>650.1</v>
+        <v>647.54</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -2997,7 +3027,7 @@
         <tr r="B32" s="1"/>
       </tp>
       <tp>
-        <v>647.95000000000005</v>
+        <v>648.23</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3006,7 +3036,7 @@
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>8026</v>
+        <v>8019.03</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3015,7 +3045,7 @@
         <tr r="B33" s="1"/>
       </tp>
       <tp>
-        <v>8018.99</v>
+        <v>8010</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3024,7 +3054,7 @@
         <tr r="B27" s="1"/>
       </tp>
       <tp>
-        <v>128.83000000000001</v>
+        <v>129.13</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3033,7 +3063,7 @@
         <tr r="B34" s="1"/>
       </tp>
       <tp>
-        <v>129.12</v>
+        <v>129.01</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3066,7 +3096,7 @@
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>72041519</v>
+        <v>72042631</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3074,7 +3104,7 @@
         <tr r="K15" s="1"/>
       </tp>
       <tp>
-        <v>106513411</v>
+        <v>106514502</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3082,7 +3112,7 @@
         <tr r="K16" s="1"/>
       </tp>
       <tp>
-        <v>28937010</v>
+        <v>28937265</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3090,7 +3120,7 @@
         <tr r="K17" s="1"/>
       </tp>
       <tp>
-        <v>79.998760000000004</v>
+        <v>30.489180000000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3099,7 +3129,7 @@
         <tr r="K34" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2.0299900000000002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3108,7 +3138,7 @@
         <tr r="K28" s="1"/>
       </tp>
       <tp>
-        <v>687.48353999999995</v>
+        <v>115.78400000000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3117,7 +3147,7 @@
         <tr r="K32" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>20.171530000000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3126,7 +3156,7 @@
         <tr r="K26" s="1"/>
       </tp>
       <tp>
-        <v>120.90196</v>
+        <v>5.3585729999999998</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3135,7 +3165,7 @@
         <tr r="K33" s="1"/>
       </tp>
       <tp>
-        <v>7.0401000000000005E-2</v>
+        <v>1.1292070000000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3168,7 +3198,7 @@
         <tr r="N17" s="1"/>
       </tp>
       <tp>
-        <v>7.1789999999999996E-3</v>
+        <v>7.175E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3176,7 +3206,7 @@
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>8.0129999999999993E-5</v>
+        <v>8.0329999999999998E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3184,7 +3214,7 @@
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>9.3000000000000007E-6</v>
+        <v>9.3200000000000006E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3192,7 +3222,7 @@
         <tr r="I11" s="1"/>
       </tp>
       <tp>
-        <v>8.0729999999999994E-5</v>
+        <v>8.0710000000000005E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -3208,7 +3238,7 @@
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>9.2900000000000008E-6</v>
+        <v>9.3100000000000006E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3216,7 +3246,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>8.0099999999999995E-5</v>
+        <v>8.0270000000000002E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3224,7 +3254,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>7.1669999999999998E-3</v>
+        <v>7.1739999999999998E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3232,7 +3262,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>-3.3509999999999998E-2</v>
+        <v>-3.3360000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3240,7 +3270,7 @@
         <tr r="O8" s="1"/>
       </tp>
       <tp>
-        <v>1468.9665500000001</v>
+        <v>254.19544999999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3249,7 +3279,7 @@
         <tr r="J32" s="1"/>
       </tp>
       <tp>
-        <v>6.0035600000000002</v>
+        <v>55.376710000000003</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3258,7 +3288,7 @@
         <tr r="J26" s="1"/>
       </tp>
       <tp>
-        <v>5041</v>
+        <v>423</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3266,7 +3296,7 @@
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>4.1775599999999997</v>
+        <v>0.37</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3274,7 +3304,7 @@
         <tr r="J15" s="1"/>
       </tp>
       <tp>
-        <v>0.1767</v>
+        <v>1.4799899999999999</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3282,7 +3312,7 @@
         <tr r="J17" s="1"/>
       </tp>
       <tp>
-        <v>2.2658999999999999E-2</v>
+        <v>1.2481000000000001E-2</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3290,7 +3320,7 @@
         <tr r="J16" s="1"/>
       </tp>
       <tp>
-        <v>6.1289999999999997E-2</v>
+        <v>17</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3299,7 +3329,7 @@
         <tr r="E21" s="1"/>
       </tp>
       <tp>
-        <v>1.21488</v>
+        <v>6.1289999999999997E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3308,7 +3338,7 @@
         <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>16</v>
+        <v>57.715760000000003</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3317,7 +3347,7 @@
         <tr r="E20" s="1"/>
       </tp>
       <tp>
-        <v>8.1660000000000004</v>
+        <v>1.21488</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3326,7 +3356,7 @@
         <tr r="E17" s="1"/>
       </tp>
       <tp>
-        <v>0.19188</v>
+        <v>16</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3335,7 +3365,7 @@
         <tr r="E18" s="1"/>
       </tp>
       <tp>
-        <v>1.8499000000000001</v>
+        <v>0.34499999999999997</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3344,7 +3374,7 @@
         <tr r="E15" s="1"/>
       </tp>
       <tp>
-        <v>7.5609999999999999</v>
+        <v>6.9997999999999996</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3353,7 +3383,7 @@
         <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>-5.59</v>
+        <v>-5.39</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3361,7 +3391,7 @@
         <tr r="O7" s="1"/>
       </tp>
       <tp>
-        <v>-365.62</v>
+        <v>-367</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3369,7 +3399,7 @@
         <tr r="O6" s="1"/>
       </tp>
       <tp>
-        <v>-49.84</v>
+        <v>-50.33</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3377,7 +3407,7 @@
         <tr r="O5" s="1"/>
       </tp>
       <tp>
-        <v>0.25</v>
+        <v>0.01</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3385,7 +3415,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>0.52</v>
+        <v>0.56000000000000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3393,7 +3423,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>4</v>
+        <v>2.57</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3401,7 +3431,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>2.3700000000000001E-3</v>
+        <v>9.3999999999999997E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3417,7 +3447,7 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>173.05838</v>
+        <v>36.126399999999997</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3426,7 +3456,7 @@
         <tr r="J34" s="1"/>
       </tp>
       <tp>
-        <v>43.805660000000003</v>
+        <v>7.0299899999999997</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3435,7 +3465,7 @@
         <tr r="J28" s="1"/>
       </tp>
       <tp>
-        <v>0.108193</v>
+        <v>1.6486810000000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3444,7 +3474,7 @@
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>216.334678</v>
+        <v>14.964282000000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3477,7 +3507,7 @@
         <tr r="C7" s="1"/>
       </tp>
       <tp>
-        <v>7.88</v>
+        <v>1.24</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3485,7 +3515,7 @@
         <tr r="J9" s="1"/>
       </tp>
       <tp>
-        <v>174321</v>
+        <v>137812</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3511,7 +3541,7 @@
         <tr r="H33" s="1"/>
       </tp>
       <tp>
-        <v>8000</v>
+        <v>8007.06</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3520,7 +3550,7 @@
         <tr r="D33" s="1"/>
       </tp>
       <tp>
-        <v>8018.99</v>
+        <v>8008.65</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3529,7 +3559,7 @@
         <tr r="D27" s="1"/>
       </tp>
       <tp>
-        <v>128.88</v>
+        <v>129.01</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3538,7 +3568,7 @@
         <tr r="D28" s="1"/>
       </tp>
       <tp>
-        <v>128.55000000000001</v>
+        <v>129</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3547,7 +3577,7 @@
         <tr r="D34" s="1"/>
       </tp>
       <tp>
-        <v>106513418</v>
+        <v>106514447</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3555,7 +3585,7 @@
         <tr r="L16" s="1"/>
       </tp>
       <tp>
-        <v>128.88</v>
+        <v>129.01</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3564,7 +3594,7 @@
         <tr r="E28" s="1"/>
       </tp>
       <tp>
-        <v>128.88</v>
+        <v>129.01</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3573,7 +3603,7 @@
         <tr r="E34" s="1"/>
       </tp>
       <tp>
-        <v>91</v>
+        <v>17</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3582,7 +3612,7 @@
         <tr r="N34" s="1"/>
       </tp>
       <tp>
-        <v>1428</v>
+        <v>206</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3591,7 +3621,7 @@
         <tr r="N33" s="1"/>
       </tp>
       <tp>
-        <v>20</v>
+        <v>3</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3600,7 +3630,7 @@
         <tr r="N28" s="1"/>
       </tp>
       <tp>
-        <v>4</v>
+        <v>40</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3609,7 +3639,7 @@
         <tr r="N27" s="1"/>
       </tp>
       <tp>
-        <v>1558</v>
+        <v>226</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3618,7 +3648,7 @@
         <tr r="N32" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>50</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3627,7 +3657,7 @@
         <tr r="N26" s="1"/>
       </tp>
       <tp>
-        <v>72041520</v>
+        <v>72042633</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3635,7 +3665,7 @@
         <tr r="L15" s="1"/>
       </tp>
       <tp>
-        <v>7458716</v>
+        <v>7458771</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3643,7 +3673,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>45059369</v>
+        <v>45059740</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3651,7 +3681,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>25849424</v>
+        <v>25849823</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3659,7 +3689,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>3.39</v>
+        <v>0.69</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3667,7 +3697,7 @@
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>73990</v>
+        <v>97998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3693,7 +3723,7 @@
         <tr r="H26" s="1"/>
       </tp>
       <tp>
-        <v>647.95000000000005</v>
+        <v>647.70000000000005</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3702,7 +3732,7 @@
         <tr r="D26" s="1"/>
       </tp>
       <tp>
-        <v>646.4</v>
+        <v>647.54</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3711,7 +3741,7 @@
         <tr r="D32" s="1"/>
       </tp>
       <tp>
-        <v>124</v>
+        <v>100</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3719,7 +3749,7 @@
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>648.12</v>
+        <v>647.78</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3728,7 +3758,7 @@
         <tr r="E32" s="1"/>
       </tp>
       <tp>
-        <v>648.12</v>
+        <v>647.78</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3737,7 +3767,7 @@
         <tr r="E26" s="1"/>
       </tp>
       <tp>
-        <v>28937022</v>
+        <v>28937262</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3745,7 +3775,7 @@
         <tr r="L17" s="1"/>
       </tp>
       <tp>
-        <v>8018.99</v>
+        <v>8010.33</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3754,7 +3784,7 @@
         <tr r="E27" s="1"/>
       </tp>
       <tp>
-        <v>8018.99</v>
+        <v>8010.33</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3781,7 +3811,7 @@
         <tr r="H34" s="1"/>
       </tp>
       <tp>
-        <v>1.49946</v>
+        <v>0.81662000000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3790,7 +3820,7 @@
         <tr r="A21" s="1"/>
       </tp>
       <tp>
-        <v>7.4069999999999997E-2</v>
+        <v>2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3799,7 +3829,7 @@
         <tr r="A19" s="1"/>
       </tp>
       <tp>
-        <v>0.21199999999999999</v>
+        <v>5.7385200000000003</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3808,7 +3838,7 @@
         <tr r="A20" s="1"/>
       </tp>
       <tp>
-        <v>8.8023299999999995</v>
+        <v>10</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3817,7 +3847,7 @@
         <tr r="A17" s="1"/>
       </tp>
       <tp>
-        <v>1</v>
+        <v>6.6934100000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3826,7 +3856,7 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>5.8224400000000003</v>
+        <v>3.5554399999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3835,7 +3865,7 @@
         <tr r="A15" s="1"/>
       </tp>
       <tp>
-        <v>25.491510000000002</v>
+        <v>0.49413000000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3844,7 +3874,7 @@
         <tr r="A16" s="1"/>
       </tp>
       <tp>
-        <v>8.0729999999999994E-5</v>
+        <v>8.0669999999999998E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -3852,7 +3882,7 @@
         <tr r="E10" s="1"/>
       </tp>
       <tp>
-        <v>111011</v>
+        <v>110939</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3914,7 +3944,7 @@
         <tr r="M28" s="1"/>
       </tp>
       <tp>
-        <v>-3.6269999999999997E-2</v>
+        <v>-3.5200000000000002E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3922,7 +3952,7 @@
         <tr r="N11" s="1"/>
       </tp>
       <tp>
-        <v>42793</v>
+        <v>42819</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3930,7 +3960,7 @@
         <tr r="M10" s="1"/>
       </tp>
       <tp>
-        <v>-7.43E-3</v>
+        <v>-5.3299999999999997E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3938,7 +3968,7 @@
         <tr r="N10" s="1"/>
       </tp>
       <tp>
-        <v>9.6600000000000007E-6</v>
+        <v>9.6500000000000008E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
@@ -3946,7 +3976,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>-3.1820000000000001E-2</v>
+        <v>-3.2890000000000003E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3954,7 +3984,7 @@
         <tr r="N9" s="1"/>
       </tp>
       <tp>
-        <v>42575</v>
+        <v>42551</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3962,7 +3992,7 @@
         <tr r="M9" s="1"/>
       </tp>
       <tp>
-        <v>7.4279999999999997E-3</v>
+        <v>7.4260000000000003E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -3970,7 +4000,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>7458697</v>
+        <v>7458769</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3979,7 +4009,7 @@
         <tr r="Q28" s="1"/>
       </tp>
       <tp>
-        <v>7458626</v>
+        <v>7458755</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3988,7 +4018,7 @@
         <tr r="Q34" s="1"/>
       </tp>
       <tp>
-        <v>45059366</v>
+        <v>45059699</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3997,7 +4027,7 @@
         <tr r="Q27" s="1"/>
       </tp>
       <tp>
-        <v>45057942</v>
+        <v>45059533</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4006,7 +4036,7 @@
         <tr r="Q33" s="1"/>
       </tp>
       <tp>
-        <v>25849423</v>
+        <v>25849774</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4015,7 +4045,7 @@
         <tr r="Q26" s="1"/>
       </tp>
       <tp>
-        <v>25847867</v>
+        <v>25849598</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4024,7 +4054,7 @@
         <tr r="Q32" s="1"/>
       </tp>
       <tp>
-        <v>646.66999999999996</v>
+        <v>646.99</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4032,7 +4062,7 @@
         <tr r="D3" s="2"/>
       </tp>
       <tp>
-        <v>8017.72</v>
+        <v>8016.03</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4040,7 +4070,7 @@
         <tr r="D4" s="2"/>
       </tp>
       <tp>
-        <v>43242.84375</v>
+        <v>43242.854166666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4049,7 +4079,7 @@
         <tr r="F34" s="1"/>
       </tp>
       <tp>
-        <v>43242.852083333331</v>
+        <v>43242.855555555558</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4058,7 +4088,7 @@
         <tr r="F28" s="1"/>
       </tp>
       <tp>
-        <v>128.88</v>
+        <v>129.01</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4066,7 +4096,7 @@
         <tr r="I17" s="1"/>
       </tp>
       <tp>
-        <v>8018.99</v>
+        <v>8012</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4074,7 +4104,7 @@
         <tr r="I16" s="1"/>
       </tp>
       <tp>
-        <v>-5.9999999999999997E-7</v>
+        <v>-4.3000000000000001E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4082,7 +4112,7 @@
         <tr r="O10" s="1"/>
       </tp>
       <tp>
-        <v>1733729.39127135</v>
+        <v>119886.51986741</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4091,7 +4121,7 @@
         <tr r="I33" s="1"/>
       </tp>
       <tp>
-        <v>867.59858507000001</v>
+        <v>13208.135038259999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4100,7 +4130,7 @@
         <tr r="I27" s="1"/>
       </tp>
       <tp>
-        <v>697.46</v>
+        <v>697.55</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -4116,7 +4146,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>234</v>
+        <v>1772.67</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4132,7 +4162,7 @@
         <tr r="C11" s="1"/>
       </tp>
       <tp>
-        <v>44510.399219999999</v>
+        <v>44620.774720000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4140,7 +4170,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>0.64080999999999999</v>
+        <v>0.64227999999999996</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4148,7 +4178,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>5123204.4842582997</v>
+        <v>5132388.0993793001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4156,7 +4186,7 @@
         <tr r="L8" s="1"/>
       </tp>
       <tp>
-        <v>43242.853472210649</v>
+        <v>43242.856249988428</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4165,7 +4195,7 @@
         <tr r="G26" s="1"/>
       </tp>
       <tp>
-        <v>43242.854166655095</v>
+        <v>43242.86458332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4174,7 +4204,7 @@
         <tr r="G32" s="1"/>
       </tp>
       <tp>
-        <v>43242.853472210649</v>
+        <v>43242.856249988428</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4183,7 +4213,7 @@
         <tr r="G27" s="1"/>
       </tp>
       <tp>
-        <v>43242.852777766202</v>
+        <v>43242.856249988428</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4192,7 +4222,7 @@
         <tr r="G28" s="1"/>
       </tp>
       <tp>
-        <v>43242.854166655095</v>
+        <v>43242.86458332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4201,7 +4231,7 @@
         <tr r="G33" s="1"/>
       </tp>
       <tp>
-        <v>43242.854166655095</v>
+        <v>43242.86458332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4210,7 +4240,7 @@
         <tr r="G34" s="1"/>
       </tp>
       <tp>
-        <v>3890.7168872000002</v>
+        <v>35897.339890800002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4219,7 +4249,7 @@
         <tr r="I26" s="1"/>
       </tp>
       <tp>
-        <v>951674.02725170006</v>
+        <v>164757.77615779999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4228,7 +4258,7 @@
         <tr r="I32" s="1"/>
       </tp>
       <tp>
-        <v>0.78</v>
+        <v>9.3306299999999993</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4236,7 +4266,7 @@
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>1.4500000000000001E-2</v>
+        <v>2.6501E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4244,7 +4274,7 @@
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>5.8224400000000003</v>
+        <v>3.5554399999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4252,7 +4282,7 @@
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>0.64317999999999997</v>
+        <v>0.64322000000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4268,7 +4298,7 @@
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>43242.852777777778</v>
+        <v>43242.855555555558</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4277,7 +4307,7 @@
         <tr r="F26" s="1"/>
       </tp>
       <tp>
-        <v>43242.84375</v>
+        <v>43242.854166666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4286,7 +4316,7 @@
         <tr r="F32" s="1"/>
       </tp>
       <tp>
-        <v>648.12</v>
+        <v>647.78</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4294,7 +4324,7 @@
         <tr r="I15" s="1"/>
       </tp>
       <tp>
-        <v>134.47</v>
+        <v>134.44</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -4302,7 +4332,7 @@
         <tr r="D7" s="1"/>
       </tp>
       <tp>
-        <v>8384.6</v>
+        <v>8383.86</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -4310,7 +4340,7 @@
         <tr r="D6" s="1"/>
       </tp>
       <tp>
-        <v>968820.94580450002</v>
+        <v>42935.8247538</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4319,7 +4349,7 @@
         <tr r="L33" s="1"/>
       </tp>
       <tp>
-        <v>10319.179161800001</v>
+        <v>3936.8511146000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4328,7 +4358,7 @@
         <tr r="L34" s="1"/>
       </tp>
       <tp>
-        <v>564.54491499000005</v>
+        <v>9047.6366906399999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4337,7 +4367,7 @@
         <tr r="L27" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>261.88900990000002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4346,7 +4376,7 @@
         <tr r="L28" s="1"/>
       </tp>
       <tp>
-        <v>445480.33447980002</v>
+        <v>75060.987934000004</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4355,7 +4385,7 @@
         <tr r="L32" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>13083.1018291</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4364,7 +4394,7 @@
         <tr r="L26" s="1"/>
       </tp>
       <tp>
-        <v>646.66999999999996</v>
+        <v>646.99</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4372,7 +4402,7 @@
         <tr r="B3" s="2"/>
       </tp>
       <tp>
-        <v>2113.1398538799999</v>
+        <v>2109.6343906100001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4380,7 +4410,7 @@
         <tr r="L9" s="1"/>
       </tp>
       <tp>
-        <v>23946.662323</v>
+        <v>23958.967668000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4396,7 +4426,7 @@
         <tr r="B8" s="1"/>
       </tp>
       <tp>
-        <v>646.67999999999995</v>
+        <v>647</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4404,7 +4434,7 @@
         <tr r="C3" s="2"/>
       </tp>
       <tp>
-        <v>2.9999999999999997E-8</v>
+        <v>5.9999999999999995E-8</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4412,7 +4442,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>22319.627294499998</v>
+        <v>4664.1792998999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4421,7 +4451,7 @@
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>5656.1444111999999</v>
+        <v>906.93900989999997</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4430,7 +4460,7 @@
         <tr r="I28" s="1"/>
       </tp>
       <tp>
-        <v>110630.82157</v>
+        <v>110929.15621</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4438,7 +4468,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>8017.72</v>
+        <v>8016.03</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4446,7 +4476,7 @@
         <tr r="C4" s="2"/>
       </tp>
       <tp>
-        <v>-3.4999999999999998E-7</v>
+        <v>-3.3999999999999997E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4454,7 +4484,7 @@
         <tr r="O11" s="1"/>
       </tp>
       <tp>
-        <v>8017.71</v>
+        <v>8016.02</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4462,7 +4492,7 @@
         <tr r="B4" s="2"/>
       </tp>
       <tp>
-        <v>43242.84375</v>
+        <v>43242.854166666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4471,7 +4501,7 @@
         <tr r="F33" s="1"/>
       </tp>
       <tp>
-        <v>43242.852777777778</v>
+        <v>43242.855555555558</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4488,7 +4518,7 @@
         <tr r="B6" s="1"/>
       </tp>
       <tp>
-        <v>128.88999999999999</v>
+        <v>129</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4496,7 +4526,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>7790750.8099999996</v>
+        <v>7805312.1399999997</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4504,7 +4534,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>7458716</v>
+        <v>7458771</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4513,7 +4543,7 @@
         <tr r="R34" s="1"/>
       </tp>
       <tp>
-        <v>7458716</v>
+        <v>7458771</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4522,7 +4552,7 @@
         <tr r="R28" s="1"/>
       </tp>
       <tp>
-        <v>45059369</v>
+        <v>45059738</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4531,7 +4561,7 @@
         <tr r="R27" s="1"/>
       </tp>
       <tp>
-        <v>45059369</v>
+        <v>45059738</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4540,7 +4570,7 @@
         <tr r="R33" s="1"/>
       </tp>
       <tp>
-        <v>647.99</v>
+        <v>647.77</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4549,7 +4579,7 @@
         <tr r="B16" s="1"/>
       </tp>
       <tp>
-        <v>648.12</v>
+        <v>647.78</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4558,7 +4588,7 @@
         <tr r="B15" s="1"/>
       </tp>
       <tp>
-        <v>647.79999999999995</v>
+        <v>647.70000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4567,7 +4597,7 @@
         <tr r="B18" s="1"/>
       </tp>
       <tp>
-        <v>647.92999999999995</v>
+        <v>647.74</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4576,7 +4606,7 @@
         <tr r="B17" s="1"/>
       </tp>
       <tp>
-        <v>647.75</v>
+        <v>647.5</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4585,7 +4615,7 @@
         <tr r="B20" s="1"/>
       </tp>
       <tp>
-        <v>647.79</v>
+        <v>647.53</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4594,7 +4624,7 @@
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>647.5</v>
+        <v>647.44000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4603,7 +4633,7 @@
         <tr r="B21" s="1"/>
       </tp>
       <tp>
-        <v>649</v>
+        <v>649.07000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4612,7 +4642,7 @@
         <tr r="D21" s="1"/>
       </tp>
       <tp>
-        <v>648.75</v>
+        <v>649</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4621,7 +4651,7 @@
         <tr r="D19" s="1"/>
       </tp>
       <tp>
-        <v>648.85</v>
+        <v>649.04</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4630,7 +4660,7 @@
         <tr r="D20" s="1"/>
       </tp>
       <tp>
-        <v>648.66999999999996</v>
+        <v>648.75</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4639,7 +4669,7 @@
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>648.70000000000005</v>
+        <v>648.85</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4648,7 +4678,7 @@
         <tr r="D18" s="1"/>
       </tp>
       <tp>
-        <v>648.64</v>
+        <v>648.34</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4657,7 +4687,7 @@
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>648.65</v>
+        <v>648.71</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4666,7 +4696,7 @@
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>129.13999999999999</v>
+        <v>129.01</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4674,7 +4704,7 @@
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>-2.3599999999999999E-4</v>
+        <v>-2.4399999999999999E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4682,7 +4712,7 @@
         <tr r="O9" s="1"/>
       </tp>
       <tp>
-        <v>1.2E-5</v>
+        <v>9.9999999999999995E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4698,7 +4728,7 @@
         <tr r="B5" s="1"/>
       </tp>
       <tp>
-        <v>196136715.34623295</v>
+        <v>196229351.96140575</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4706,7 +4736,7 @@
         <tr r="L6" s="1"/>
       </tp>
       <tp>
-        <v>5841871.4306843001</v>
+        <v>5856068.5891698003</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4714,7 +4744,7 @@
         <tr r="L7" s="1"/>
       </tp>
       <tp>
-        <v>648.12</v>
+        <v>647.78</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4722,7 +4752,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>2601</v>
+        <v>303.31</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4730,7 +4760,7 @@
         <tr r="J8" s="1"/>
       </tp>
       <tp>
-        <v>25849424</v>
+        <v>25849823</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4739,7 +4769,7 @@
         <tr r="R32" s="1"/>
       </tp>
       <tp>
-        <v>25849424</v>
+        <v>25849823</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4748,7 +4778,7 @@
         <tr r="R26" s="1"/>
       </tp>
       <tp>
-        <v>648.64</v>
+        <v>648.34</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4756,7 +4786,7 @@
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>0.67688999999999999</v>
+        <v>0.67608999999999997</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -4764,7 +4794,7 @@
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>74394008.107733205</v>
+        <v>74582761.968980193</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4772,7 +4802,7 @@
         <tr r="L5" s="1"/>
       </tp>
       <tp>
-        <v>10565.227320980001</v>
+        <v>10557.52370096</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4780,7 +4810,7 @@
         <tr r="L11" s="1"/>
       </tp>
       <tp>
-        <v>2136.2168352600002</v>
+        <v>2135.7226717200001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4788,7 +4818,7 @@
         <tr r="L10" s="1"/>
       </tp>
       <tp>
-        <v>8019</v>
+        <v>8012</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4804,7 +4834,7 @@
         <tr r="B7" s="1"/>
       </tp>
       <tp>
-        <v>8015</v>
+        <v>8009.43</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4812,7 +4842,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>7.4320000000000002E-3</v>
+        <v>7.4229999999999999E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4820,7 +4850,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>43242.852811331017</v>
+        <v>43242.855850752312</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4829,7 +4859,7 @@
         <tr r="P27" s="1"/>
       </tp>
       <tp>
-        <v>43242.852421087962</v>
+        <v>43242.855832175926</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4838,7 +4868,7 @@
         <tr r="P28" s="1"/>
       </tp>
       <tp>
-        <v>43242.852811307872</v>
+        <v>43242.855850763888</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4847,7 +4877,7 @@
         <tr r="P33" s="1"/>
       </tp>
       <tp>
-        <v>43242.852421087962</v>
+        <v>43242.855832175926</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4856,7 +4886,7 @@
         <tr r="P34" s="1"/>
       </tp>
       <tp>
-        <v>43242.852801724533</v>
+        <v>43242.855868067127</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4865,7 +4895,7 @@
         <tr r="P26" s="1"/>
       </tp>
       <tp>
-        <v>43242.852801724533</v>
+        <v>43242.855868078703</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4874,7 +4904,7 @@
         <tr r="P32" s="1"/>
       </tp>
       <tp>
-        <v>1.8499000000000001</v>
+        <v>0.34499999999999997</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4882,7 +4912,7 @@
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>5.0195400000000001</v>
+        <v>1.6719999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4890,7 +4920,7 @@
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>7.0943999999999993E-2</v>
+        <v>0.61505600000000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4922,50 +4952,50 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A4:O11" totalsRowShown="0" dataDxfId="80" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A4:O11" totalsRowShown="0" dataDxfId="36" dataCellStyle="Comma">
   <autoFilter ref="A4:O11" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3DCAC593-21E4-456C-93D1-EEDC8340EA91}" name="Ticker"/>
-    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="34" totalsRowDxfId="35" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,B$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="32" totalsRowDxfId="33" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,C$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="30" totalsRowDxfId="31" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,D$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="73" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="29" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,E$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="27" totalsRowDxfId="28" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,F$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="25" totalsRowDxfId="26" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,G$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="23" totalsRowDxfId="24" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,H$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="21" totalsRowDxfId="22" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,I$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="19" totalsRowDxfId="20" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,J$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="17" totalsRowDxfId="18" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,K$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="15" totalsRowDxfId="16" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,L$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="13" totalsRowDxfId="14" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,M$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="11" totalsRowDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,N$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="9" totalsRowDxfId="10" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,O$4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4974,20 +5004,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E21" totalsRowShown="0" dataDxfId="52" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E21" totalsRowShown="0" dataDxfId="80" dataCellStyle="Comma">
   <autoFilter ref="A14:E21" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="51" dataCellStyle="20% - Accent6">
+    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="79" dataCellStyle="20% - Accent6">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="50" dataCellStyle="20% - Accent6">
+    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="78" dataCellStyle="20% - Accent6">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="48" dataCellStyle="20% - Accent2">
+    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="76" dataCellStyle="20% - Accent2">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="47" dataCellStyle="20% - Accent2">
+    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="75" dataCellStyle="20% - Accent2">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4996,29 +5026,29 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:N17" totalsRowShown="0" dataDxfId="46" tableBorderDxfId="45" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:N17" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7" dataCellStyle="Comma">
   <autoFilter ref="G14:N17" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4DF9B9E1-1E83-4EF7-84C1-2078EE821C9B}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="44" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="6" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,H$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="PRICE" dataDxfId="43" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="PRICE" dataDxfId="5" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,I$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="QUANTITY" dataDxfId="42" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="QUANTITY" dataDxfId="4" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,J$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8227CD56-9AE6-4305-AA2B-98B006AB7F2F}" name="BUYER_ORDER_ID" dataDxfId="41" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{8227CD56-9AE6-4305-AA2B-98B006AB7F2F}" name="BUYER_ORDER_ID" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,K$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9643A72C-39DD-45DA-9D10-05370B105513}" name="SELLER_ORDER_ID" dataDxfId="40" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{9643A72C-39DD-45DA-9D10-05370B105513}" name="SELLER_ORDER_ID" dataDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,L$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="39" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="1" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,M$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="38" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,N$14)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5027,59 +5057,59 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A25:R28" totalsRowShown="0" dataDxfId="37" tableBorderDxfId="36" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A25:R28" totalsRowShown="0" dataDxfId="74" tableBorderDxfId="73" dataCellStyle="Comma">
   <autoFilter ref="A25:R28" xr:uid="{BD9601BD-F222-4DBD-B404-C68EB6A96569}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{A75C3BB9-BD50-4A86-92A6-228C26DADEC8}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="35" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="72" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,B$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="34" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="71" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,C$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="33" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="70" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,D$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="32" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="69" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,E$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="31" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="68" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,F$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="30" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="67" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,G$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="29" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="66" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,H$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="28" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="65" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,I$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="27" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="64" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,J$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="26" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="63" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,K$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="25" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="62" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,L$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="24" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="61" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,M$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="23" dataCellStyle="Comma">
+    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="60" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,N$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{11BF3445-5968-4B64-972D-05C6CECCD6DE}" name="Event" dataDxfId="22" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{11BF3445-5968-4B64-972D-05C6CECCD6DE}" name="Event" dataDxfId="59" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,O$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="21" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="58" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,P$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="20" dataCellStyle="Comma">
+    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="57" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,Q$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="19" dataCellStyle="Comma">
+    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="56" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,R$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5088,59 +5118,59 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A31:R34" totalsRowShown="0" dataDxfId="18" tableBorderDxfId="17" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A31:R34" totalsRowShown="0" dataDxfId="55" tableBorderDxfId="54" dataCellStyle="Comma">
   <autoFilter ref="A31:R34" xr:uid="{04787891-A2B4-4F14-ADE0-2BC3B779F519}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{CD2685D4-7653-442A-A4D2-04D1D79D1D51}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="16" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="53" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,B$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="15" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="52" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,C$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="14" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="51" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,D$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="13" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="50" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,E$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="12" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="49" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,F$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="11" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="48" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,G$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="10" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="47" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,H$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="9" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="46" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,I$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="8" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="45" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,J$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="7" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="44" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,K$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="6" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="43" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,L$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="42" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,M$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="4" dataCellStyle="Comma">
+    <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="41" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,N$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{528B6C8B-64D5-45B1-8F49-30BB75CB0054}" name="Event" dataDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{528B6C8B-64D5-45B1-8F49-30BB75CB0054}" name="Event" dataDxfId="40" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,O$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="39" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,P$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="38" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,Q$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="37" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,R$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5485,15 +5515,15 @@
       </c>
       <c r="B3" s="2">
         <f>RTD(progId,,GDAX,$A3,B$2)</f>
-        <v>646.66999999999996</v>
+        <v>646.99</v>
       </c>
       <c r="C3" s="2">
         <f>RTD(progId,,GDAX,$A3,C$2)</f>
-        <v>646.67999999999995</v>
+        <v>647</v>
       </c>
       <c r="D3" s="2">
         <f>RTD(progId,,GDAX,$A3,D$2)</f>
-        <v>646.66999999999996</v>
+        <v>646.99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5502,15 +5532,15 @@
       </c>
       <c r="B4" s="2">
         <f>RTD(progId,,GDAX,$A4,B$2)</f>
-        <v>8017.71</v>
+        <v>8016.02</v>
       </c>
       <c r="C4" s="2">
         <f>RTD(progId,,GDAX,$A4,C$2)</f>
-        <v>8017.72</v>
+        <v>8016.03</v>
       </c>
       <c r="D4" s="2">
         <f>RTD(progId,,GDAX,$A4,D$2)</f>
-        <v>8017.72</v>
+        <v>8016.03</v>
       </c>
     </row>
   </sheetData>
@@ -5527,7 +5557,7 @@
   <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5577,10 +5607,10 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="32" t="s">
         <v>44</v>
       </c>
       <c r="H3"/>
@@ -5652,51 +5682,51 @@
       </c>
       <c r="D5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,D$4)</f>
-        <v>697.46</v>
+        <v>697.55</v>
       </c>
       <c r="E5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,E$4)</f>
-        <v>697.98</v>
+        <v>698.12</v>
       </c>
       <c r="F5" s="2">
         <f>RTD(progId,,BINANCE,$A5,F$4)</f>
-        <v>5.8224400000000003</v>
+        <v>3.5554399999999999</v>
       </c>
       <c r="G5" s="2">
         <f>RTD(progId,,BINANCE,$A5,G$4)</f>
-        <v>648.12</v>
+        <v>647.78</v>
       </c>
       <c r="H5" s="2">
         <f>RTD(progId,,BINANCE,$A5,H$4)</f>
-        <v>0.52</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I5" s="2">
         <f>RTD(progId,,BINANCE,$A5,I$4)</f>
-        <v>648.64</v>
+        <v>648.34</v>
       </c>
       <c r="J5" s="2">
         <f>RTD(progId,,BINANCE,$A5,J$4)</f>
-        <v>1.8499000000000001</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="K5" s="9">
         <f>RTD(progId,,BINANCE,$A5,K$4)</f>
-        <v>110630.82157</v>
+        <v>110929.15621</v>
       </c>
       <c r="L5" s="2">
         <f>RTD(progId,,BINANCE,$A5,L$4)</f>
-        <v>74394008.107733205</v>
+        <v>74582761.968980193</v>
       </c>
       <c r="M5" s="9">
         <f>RTD(progId,,BINANCE,$A5,M$4)</f>
-        <v>113700</v>
+        <v>113958</v>
       </c>
       <c r="N5" s="10">
         <f>RTD(progId,,BINANCE,$A5,N$4)</f>
-        <v>-7.1410000000000001E-2</v>
+        <v>-7.2090000000000001E-2</v>
       </c>
       <c r="O5" s="2">
         <f>RTD(progId,,BINANCE,$A5,O$4)</f>
-        <v>-49.84</v>
+        <v>-50.33</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -5713,51 +5743,51 @@
       </c>
       <c r="D6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,D$4)</f>
-        <v>8384.6</v>
+        <v>8383.86</v>
       </c>
       <c r="E6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,E$4)</f>
-        <v>8384.6299999999992</v>
+        <v>8384</v>
       </c>
       <c r="F6" s="2">
         <f>RTD(progId,,BINANCE,$A6,F$4)</f>
-        <v>1.4500000000000001E-2</v>
+        <v>2.6501E-2</v>
       </c>
       <c r="G6" s="2">
         <f>RTD(progId,,BINANCE,$A6,G$4)</f>
-        <v>8015</v>
+        <v>8009.43</v>
       </c>
       <c r="H6" s="2">
         <f>RTD(progId,,BINANCE,$A6,H$4)</f>
-        <v>4</v>
+        <v>2.57</v>
       </c>
       <c r="I6" s="2">
         <f>RTD(progId,,BINANCE,$A6,I$4)</f>
-        <v>8019</v>
+        <v>8012</v>
       </c>
       <c r="J6" s="2">
         <f>RTD(progId,,BINANCE,$A6,J$4)</f>
-        <v>7.0943999999999993E-2</v>
+        <v>0.61505600000000005</v>
       </c>
       <c r="K6" s="9">
         <f>RTD(progId,,BINANCE,$A6,K$4)</f>
-        <v>23946.662323</v>
+        <v>23958.967668000001</v>
       </c>
       <c r="L6" s="2">
         <f>RTD(progId,,BINANCE,$A6,L$4)</f>
-        <v>196136715.34623295</v>
+        <v>196229351.96140575</v>
       </c>
       <c r="M6" s="9">
         <f>RTD(progId,,BINANCE,$A6,M$4)</f>
-        <v>194036</v>
+        <v>194143</v>
       </c>
       <c r="N6" s="10">
         <f>RTD(progId,,BINANCE,$A6,N$4)</f>
-        <v>-4.3610000000000003E-2</v>
+        <v>-4.3799999999999999E-2</v>
       </c>
       <c r="O6" s="2">
         <f>RTD(progId,,BINANCE,$A6,O$4)</f>
-        <v>-365.62</v>
+        <v>-367</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -5774,51 +5804,51 @@
       </c>
       <c r="D7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,D$4)</f>
-        <v>134.47</v>
+        <v>134.44</v>
       </c>
       <c r="E7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,E$4)</f>
-        <v>134.47</v>
+        <v>134.46</v>
       </c>
       <c r="F7" s="2">
         <f>RTD(progId,,BINANCE,$A7,F$4)</f>
-        <v>0.78</v>
+        <v>9.3306299999999993</v>
       </c>
       <c r="G7" s="2">
         <f>RTD(progId,,BINANCE,$A7,G$4)</f>
-        <v>128.88999999999999</v>
+        <v>129</v>
       </c>
       <c r="H7" s="2">
         <f>RTD(progId,,BINANCE,$A7,H$4)</f>
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="I7" s="2">
         <f>RTD(progId,,BINANCE,$A7,I$4)</f>
-        <v>129.13999999999999</v>
+        <v>129.01</v>
       </c>
       <c r="J7" s="2">
         <f>RTD(progId,,BINANCE,$A7,J$4)</f>
-        <v>5.0195400000000001</v>
+        <v>1.6719999999999999E-2</v>
       </c>
       <c r="K7" s="9">
         <f>RTD(progId,,BINANCE,$A7,K$4)</f>
-        <v>44510.399219999999</v>
+        <v>44620.774720000001</v>
       </c>
       <c r="L7" s="2">
         <f>RTD(progId,,BINANCE,$A7,L$4)</f>
-        <v>5841871.4306843001</v>
+        <v>5856068.5891698003</v>
       </c>
       <c r="M7" s="9">
         <f>RTD(progId,,BINANCE,$A7,M$4)</f>
-        <v>17660</v>
+        <v>17684</v>
       </c>
       <c r="N7" s="10">
         <f>RTD(progId,,BINANCE,$A7,N$4)</f>
-        <v>-4.1570000000000003E-2</v>
+        <v>-4.0099999999999997E-2</v>
       </c>
       <c r="O7" s="2">
         <f>RTD(progId,,BINANCE,$A7,O$4)</f>
-        <v>-5.59</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -5835,51 +5865,51 @@
       </c>
       <c r="D8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,D$4)</f>
-        <v>0.67688999999999999</v>
+        <v>0.67608999999999997</v>
       </c>
       <c r="E8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,E$4)</f>
-        <v>0.67688999999999999</v>
+        <v>0.67649999999999999</v>
       </c>
       <c r="F8" s="9">
         <f>RTD(progId,,BINANCE,$A8,F$4)</f>
-        <v>234</v>
+        <v>1772.67</v>
       </c>
       <c r="G8" s="2">
         <f>RTD(progId,,BINANCE,$A8,G$4)</f>
-        <v>0.64080999999999999</v>
+        <v>0.64227999999999996</v>
       </c>
       <c r="H8" s="2">
         <f>RTD(progId,,BINANCE,$A8,H$4)</f>
-        <v>2.3700000000000001E-3</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="I8" s="2">
         <f>RTD(progId,,BINANCE,$A8,I$4)</f>
-        <v>0.64317999999999997</v>
+        <v>0.64322000000000001</v>
       </c>
       <c r="J8" s="2">
         <f>RTD(progId,,BINANCE,$A8,J$4)</f>
-        <v>2601</v>
+        <v>303.31</v>
       </c>
       <c r="K8" s="9">
         <f>RTD(progId,,BINANCE,$A8,K$4)</f>
-        <v>7790750.8099999996</v>
+        <v>7805312.1399999997</v>
       </c>
       <c r="L8" s="2">
         <f>RTD(progId,,BINANCE,$A8,L$4)</f>
-        <v>5123204.4842582997</v>
+        <v>5132388.0993793001</v>
       </c>
       <c r="M8" s="9">
         <f>RTD(progId,,BINANCE,$A8,M$4)</f>
-        <v>14916</v>
+        <v>14919</v>
       </c>
       <c r="N8" s="10">
         <f>RTD(progId,,BINANCE,$A8,N$4)</f>
-        <v>-4.9520000000000002E-2</v>
+        <v>-4.931E-2</v>
       </c>
       <c r="O8" s="2">
         <f>RTD(progId,,BINANCE,$A8,O$4)</f>
-        <v>-3.3509999999999998E-2</v>
+        <v>-3.3360000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -5892,55 +5922,55 @@
       </c>
       <c r="C9" s="2">
         <f>RTD(progId,,BINANCE,$A9,C$4)</f>
-        <v>7.4320000000000002E-3</v>
+        <v>7.4229999999999999E-3</v>
       </c>
       <c r="D9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,D$4)</f>
-        <v>7.4260000000000003E-3</v>
+        <v>7.4180000000000001E-3</v>
       </c>
       <c r="E9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,E$4)</f>
-        <v>7.4279999999999997E-3</v>
+        <v>7.4260000000000003E-3</v>
       </c>
       <c r="F9" s="9">
         <f>RTD(progId,,BINANCE,$A9,F$4)</f>
-        <v>3.39</v>
+        <v>0.69</v>
       </c>
       <c r="G9" s="2">
         <f>RTD(progId,,BINANCE,$A9,G$4)</f>
-        <v>7.1669999999999998E-3</v>
+        <v>7.1739999999999998E-3</v>
       </c>
       <c r="H9" s="2">
         <f>RTD(progId,,BINANCE,$A9,H$4)</f>
-        <v>1.2E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="I9" s="2">
         <f>RTD(progId,,BINANCE,$A9,I$4)</f>
-        <v>7.1789999999999996E-3</v>
+        <v>7.175E-3</v>
       </c>
       <c r="J9" s="2">
         <f>RTD(progId,,BINANCE,$A9,J$4)</f>
-        <v>7.88</v>
+        <v>1.24</v>
       </c>
       <c r="K9" s="9">
         <f>RTD(progId,,BINANCE,$A9,K$4)</f>
-        <v>292349.06</v>
+        <v>291883.59000000003</v>
       </c>
       <c r="L9" s="2">
         <f>RTD(progId,,BINANCE,$A9,L$4)</f>
-        <v>2113.1398538799999</v>
+        <v>2109.6343906100001</v>
       </c>
       <c r="M9" s="9">
         <f>RTD(progId,,BINANCE,$A9,M$4)</f>
-        <v>42575</v>
+        <v>42551</v>
       </c>
       <c r="N9" s="10">
         <f>RTD(progId,,BINANCE,$A9,N$4)</f>
-        <v>-3.1820000000000001E-2</v>
+        <v>-3.2890000000000003E-2</v>
       </c>
       <c r="O9" s="2">
         <f>RTD(progId,,BINANCE,$A9,O$4)</f>
-        <v>-2.3599999999999999E-4</v>
+        <v>-2.4399999999999999E-4</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5957,51 +5987,51 @@
       </c>
       <c r="D10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,D$4)</f>
-        <v>8.0729999999999994E-5</v>
+        <v>8.0710000000000005E-5</v>
       </c>
       <c r="E10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,E$4)</f>
-        <v>8.0729999999999994E-5</v>
+        <v>8.0669999999999998E-5</v>
       </c>
       <c r="F10" s="9">
         <f>RTD(progId,,BINANCE,$A10,F$4)</f>
-        <v>5041</v>
+        <v>423</v>
       </c>
       <c r="G10" s="2">
         <f>RTD(progId,,BINANCE,$A10,G$4)</f>
-        <v>8.0099999999999995E-5</v>
+        <v>8.0270000000000002E-5</v>
       </c>
       <c r="H10" s="2">
         <f>RTD(progId,,BINANCE,$A10,H$4)</f>
-        <v>2.9999999999999997E-8</v>
+        <v>5.9999999999999995E-8</v>
       </c>
       <c r="I10" s="2">
         <f>RTD(progId,,BINANCE,$A10,I$4)</f>
-        <v>8.0129999999999993E-5</v>
+        <v>8.0329999999999998E-5</v>
       </c>
       <c r="J10" s="2">
         <f>RTD(progId,,BINANCE,$A10,J$4)</f>
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="K10" s="9">
         <f>RTD(progId,,BINANCE,$A10,K$4)</f>
-        <v>26456712</v>
+        <v>26450844</v>
       </c>
       <c r="L10" s="2">
         <f>RTD(progId,,BINANCE,$A10,L$4)</f>
-        <v>2136.2168352600002</v>
+        <v>2135.7226717200001</v>
       </c>
       <c r="M10" s="9">
         <f>RTD(progId,,BINANCE,$A10,M$4)</f>
-        <v>42793</v>
+        <v>42819</v>
       </c>
       <c r="N10" s="10">
         <f>RTD(progId,,BINANCE,$A10,N$4)</f>
-        <v>-7.43E-3</v>
+        <v>-5.3299999999999997E-3</v>
       </c>
       <c r="O10" s="2">
         <f>RTD(progId,,BINANCE,$A10,O$4)</f>
-        <v>-5.9999999999999997E-7</v>
+        <v>-4.3000000000000001E-7</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6022,15 +6052,15 @@
       </c>
       <c r="E11" s="2">
         <f>RTD(progId,,BINANCE_24H,$A11,E$4)</f>
-        <v>9.6600000000000007E-6</v>
+        <v>9.6500000000000008E-6</v>
       </c>
       <c r="F11" s="9">
         <f>RTD(progId,,BINANCE,$A11,F$4)</f>
-        <v>174321</v>
+        <v>137812</v>
       </c>
       <c r="G11" s="2">
         <f>RTD(progId,,BINANCE,$A11,G$4)</f>
-        <v>9.2900000000000008E-6</v>
+        <v>9.3100000000000006E-6</v>
       </c>
       <c r="H11" s="2">
         <f>RTD(progId,,BINANCE,$A11,H$4)</f>
@@ -6038,31 +6068,31 @@
       </c>
       <c r="I11" s="2">
         <f>RTD(progId,,BINANCE,$A11,I$4)</f>
-        <v>9.3000000000000007E-6</v>
+        <v>9.3200000000000006E-6</v>
       </c>
       <c r="J11" s="2">
         <f>RTD(progId,,BINANCE,$A11,J$4)</f>
-        <v>73990</v>
+        <v>97998</v>
       </c>
       <c r="K11" s="9">
         <f>RTD(progId,,BINANCE,$A11,K$4)</f>
-        <v>1118639849</v>
+        <v>1117892376</v>
       </c>
       <c r="L11" s="2">
         <f>RTD(progId,,BINANCE,$A11,L$4)</f>
-        <v>10565.227320980001</v>
+        <v>10557.52370096</v>
       </c>
       <c r="M11" s="9">
         <f>RTD(progId,,BINANCE,$A11,M$4)</f>
-        <v>111011</v>
+        <v>110939</v>
       </c>
       <c r="N11" s="10">
         <f>RTD(progId,,BINANCE,$A11,N$4)</f>
-        <v>-3.6269999999999997E-2</v>
+        <v>-3.5200000000000002E-2</v>
       </c>
       <c r="O11" s="2">
         <f>RTD(progId,,BINANCE,$A11,O$4)</f>
-        <v>-3.4999999999999998E-7</v>
+        <v>-3.3999999999999997E-7</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6082,10 +6112,10 @@
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="32" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6133,45 +6163,45 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</f>
-        <v>5.8224400000000003</v>
+        <v>3.5554399999999999</v>
       </c>
       <c r="B15" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</f>
-        <v>648.12</v>
+        <v>647.78</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</f>
-        <v>648.64</v>
+        <v>648.34</v>
       </c>
       <c r="E15" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</f>
-        <v>1.8499000000000001</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,H$14)</f>
-        <v>25849424</v>
+        <v>25849823</v>
       </c>
       <c r="I15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,I$14)</f>
-        <v>648.12</v>
+        <v>647.78</v>
       </c>
       <c r="J15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,J$14)</f>
-        <v>4.1775599999999997</v>
+        <v>0.37</v>
       </c>
       <c r="K15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,K$14)</f>
-        <v>72041519</v>
+        <v>72042631</v>
       </c>
       <c r="L15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,L$14)</f>
-        <v>72041520</v>
+        <v>72042633</v>
       </c>
       <c r="M15" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G15,M$14)</f>
@@ -6185,11 +6215,11 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C16)</f>
-        <v>25.491510000000002</v>
+        <v>0.49413000000000001</v>
       </c>
       <c r="B16" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C16)</f>
-        <v>647.99</v>
+        <v>647.77</v>
       </c>
       <c r="C16" s="8">
         <f>C15+1</f>
@@ -6197,38 +6227,38 @@
       </c>
       <c r="D16" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C16)</f>
-        <v>648.65</v>
+        <v>648.71</v>
       </c>
       <c r="E16" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C16)</f>
-        <v>7.5609999999999999</v>
+        <v>6.9997999999999996</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,H$14)</f>
-        <v>45059369</v>
+        <v>45059740</v>
       </c>
       <c r="I16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,I$14)</f>
-        <v>8018.99</v>
+        <v>8012</v>
       </c>
       <c r="J16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,J$14)</f>
-        <v>2.2658999999999999E-2</v>
+        <v>1.2481000000000001E-2</v>
       </c>
       <c r="K16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,K$14)</f>
-        <v>106513411</v>
+        <v>106514502</v>
       </c>
       <c r="L16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,L$14)</f>
-        <v>106513418</v>
+        <v>106514447</v>
       </c>
       <c r="M16" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G16,M$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G16,N$14)</f>
@@ -6238,11 +6268,11 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C17)</f>
-        <v>8.8023299999999995</v>
+        <v>10</v>
       </c>
       <c r="B17" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C17)</f>
-        <v>647.92999999999995</v>
+        <v>647.74</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" ref="C17:C21" si="0">C16+1</f>
@@ -6250,38 +6280,38 @@
       </c>
       <c r="D17" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C17)</f>
-        <v>648.66999999999996</v>
+        <v>648.75</v>
       </c>
       <c r="E17" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C17)</f>
-        <v>8.1660000000000004</v>
+        <v>1.21488</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,H$14)</f>
-        <v>7458716</v>
+        <v>7458771</v>
       </c>
       <c r="I17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,I$14)</f>
-        <v>128.88</v>
+        <v>129.01</v>
       </c>
       <c r="J17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,J$14)</f>
-        <v>0.1767</v>
+        <v>1.4799899999999999</v>
       </c>
       <c r="K17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,K$14)</f>
-        <v>28937010</v>
+        <v>28937265</v>
       </c>
       <c r="L17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,L$14)</f>
-        <v>28937022</v>
+        <v>28937262</v>
       </c>
       <c r="M17" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G17,M$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G17,N$14)</f>
@@ -6291,11 +6321,11 @@
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C18)</f>
-        <v>1</v>
+        <v>6.6934100000000001</v>
       </c>
       <c r="B18" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C18)</f>
-        <v>647.79999999999995</v>
+        <v>647.70000000000005</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
@@ -6303,11 +6333,11 @@
       </c>
       <c r="D18" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C18)</f>
-        <v>648.70000000000005</v>
+        <v>648.85</v>
       </c>
       <c r="E18" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C18)</f>
-        <v>0.19188</v>
+        <v>16</v>
       </c>
       <c r="G18"/>
       <c r="K18"/>
@@ -6315,11 +6345,11 @@
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C19)</f>
-        <v>7.4069999999999997E-2</v>
+        <v>2</v>
       </c>
       <c r="B19" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C19)</f>
-        <v>647.79</v>
+        <v>647.53</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
@@ -6327,11 +6357,11 @@
       </c>
       <c r="D19" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C19)</f>
-        <v>648.75</v>
+        <v>649</v>
       </c>
       <c r="E19" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C19)</f>
-        <v>1.21488</v>
+        <v>6.1289999999999997E-2</v>
       </c>
       <c r="G19"/>
       <c r="K19"/>
@@ -6339,11 +6369,11 @@
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C20)</f>
-        <v>0.21199999999999999</v>
+        <v>5.7385200000000003</v>
       </c>
       <c r="B20" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C20)</f>
-        <v>647.75</v>
+        <v>647.5</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
@@ -6351,21 +6381,21 @@
       </c>
       <c r="D20" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C20)</f>
-        <v>648.85</v>
+        <v>649.04</v>
       </c>
       <c r="E20" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C20)</f>
-        <v>16</v>
+        <v>57.715760000000003</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C21)</f>
-        <v>1.49946</v>
+        <v>0.81662000000000001</v>
       </c>
       <c r="B21" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C21)</f>
-        <v>647.5</v>
+        <v>647.44000000000005</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
@@ -6373,33 +6403,33 @@
       </c>
       <c r="D21" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C21)</f>
-        <v>649</v>
+        <v>649.07000000000005</v>
       </c>
       <c r="E21" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C21)</f>
-        <v>6.1289999999999997E-2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <f>SUM(Table3[BID_DEPTH_SIZE])</f>
-        <v>42.901810000000005</v>
+        <v>29.298120000000001</v>
       </c>
       <c r="B22" s="18">
         <f>SUMPRODUCT(Table3[[BID_DEPTH_SIZE]:[BID_DEPTH]])</f>
-        <v>4577.7818099999995</v>
+        <v>4562.7581199999995</v>
       </c>
       <c r="C22" s="19">
         <f>D22-B22</f>
-        <v>-1.4768599999997605</v>
+        <v>78.338610000000699</v>
       </c>
       <c r="D22" s="18">
         <f>SUMPRODUCT(Table3[[ASK_DEPTH]:[ASK_DEPTH_SIZE]])</f>
-        <v>4576.3049499999997</v>
+        <v>4641.0967300000002</v>
       </c>
       <c r="E22" s="13">
         <f>SUM(Table3[ASK_DEPTH_SIZE])</f>
-        <v>35.04495</v>
+        <v>99.336730000000003</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="4"/>
@@ -6412,13 +6442,13 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="32">
         <v>0</v>
       </c>
       <c r="F24" s="1"/>
@@ -6487,27 +6517,27 @@
       </c>
       <c r="B26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,B$25,$D$24)</f>
-        <v>647.95000000000005</v>
+        <v>648.23</v>
       </c>
       <c r="C26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,C$25,$D$24)</f>
-        <v>648.12</v>
+        <v>648.71</v>
       </c>
       <c r="D26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,D$25,$D$24)</f>
-        <v>647.95000000000005</v>
+        <v>647.70000000000005</v>
       </c>
       <c r="E26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,E$25,$D$24)</f>
-        <v>648.12</v>
+        <v>647.78</v>
       </c>
       <c r="F26" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,F$25,$D$24)</f>
-        <v>43242.852777777778</v>
+        <v>43242.855555555558</v>
       </c>
       <c r="G26" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,G$25,$D$24)</f>
-        <v>43242.853472210649</v>
+        <v>43242.856249988428</v>
       </c>
       <c r="H26" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,H$25,$D$24)</f>
@@ -6515,19 +6545,19 @@
       </c>
       <c r="I26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,I$25,$D$24)</f>
-        <v>3890.7168872000002</v>
+        <v>35897.339890800002</v>
       </c>
       <c r="J26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,J$25,$D$24)</f>
-        <v>6.0035600000000002</v>
+        <v>55.376710000000003</v>
       </c>
       <c r="K26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,K$25,$D$24)</f>
-        <v>0</v>
+        <v>20.171530000000001</v>
       </c>
       <c r="L26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,L$25,$D$24)</f>
-        <v>0</v>
+        <v>13083.1018291</v>
       </c>
       <c r="M26" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,M$25,$D$24)</f>
@@ -6535,7 +6565,7 @@
       </c>
       <c r="N26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,N$25,$D$24)</f>
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="O26" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,O$25,$D$24)</f>
@@ -6543,15 +6573,15 @@
       </c>
       <c r="P26" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,P$25,$D$24)</f>
-        <v>43242.852801724533</v>
+        <v>43242.855868067127</v>
       </c>
       <c r="Q26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,Q$25,$D$24)</f>
-        <v>25849423</v>
+        <v>25849774</v>
       </c>
       <c r="R26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,R$25,$D$24)</f>
-        <v>25849424</v>
+        <v>25849823</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -6560,27 +6590,27 @@
       </c>
       <c r="B27" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,B$25,$D$24)</f>
-        <v>8018.99</v>
+        <v>8010</v>
       </c>
       <c r="C27" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,C$25,$D$24)</f>
-        <v>8018.99</v>
+        <v>8014</v>
       </c>
       <c r="D27" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,D$25,$D$24)</f>
-        <v>8018.99</v>
+        <v>8008.65</v>
       </c>
       <c r="E27" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,E$25,$D$24)</f>
-        <v>8018.99</v>
+        <v>8010.33</v>
       </c>
       <c r="F27" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,F$25,$D$24)</f>
-        <v>43242.852777777778</v>
+        <v>43242.855555555558</v>
       </c>
       <c r="G27" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,G$25,$D$24)</f>
-        <v>43242.853472210649</v>
+        <v>43242.856249988428</v>
       </c>
       <c r="H27" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,H$25,$D$24)</f>
@@ -6588,19 +6618,19 @@
       </c>
       <c r="I27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,I$25,$D$24)</f>
-        <v>867.59858507000001</v>
+        <v>13208.135038259999</v>
       </c>
       <c r="J27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,J$25,$D$24)</f>
-        <v>0.108193</v>
+        <v>1.6486810000000001</v>
       </c>
       <c r="K27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,K$25,$D$24)</f>
-        <v>7.0401000000000005E-2</v>
+        <v>1.1292070000000001</v>
       </c>
       <c r="L27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,L$25,$D$24)</f>
-        <v>564.54491499000005</v>
+        <v>9047.6366906399999</v>
       </c>
       <c r="M27" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,M$25,$D$24)</f>
@@ -6608,7 +6638,7 @@
       </c>
       <c r="N27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,N$25,$D$24)</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="O27" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,O$25,$D$24)</f>
@@ -6616,15 +6646,15 @@
       </c>
       <c r="P27" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,P$25,$D$24)</f>
-        <v>43242.852811331017</v>
+        <v>43242.855850752312</v>
       </c>
       <c r="Q27" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,Q$25,$D$24)</f>
-        <v>45059366</v>
+        <v>45059699</v>
       </c>
       <c r="R27" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,R$25,$D$24)</f>
-        <v>45059369</v>
+        <v>45059738</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -6633,27 +6663,27 @@
       </c>
       <c r="B28" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,B$25,$D$24)</f>
-        <v>129.12</v>
+        <v>129.01</v>
       </c>
       <c r="C28" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,C$25,$D$24)</f>
-        <v>129.12</v>
+        <v>129.01</v>
       </c>
       <c r="D28" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,D$25,$D$24)</f>
-        <v>128.88</v>
+        <v>129.01</v>
       </c>
       <c r="E28" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,E$25,$D$24)</f>
-        <v>128.88</v>
+        <v>129.01</v>
       </c>
       <c r="F28" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,F$25,$D$24)</f>
-        <v>43242.852083333331</v>
+        <v>43242.855555555558</v>
       </c>
       <c r="G28" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,G$25,$D$24)</f>
-        <v>43242.852777766202</v>
+        <v>43242.856249988428</v>
       </c>
       <c r="H28" s="23" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,H$25,$D$24)</f>
@@ -6661,19 +6691,19 @@
       </c>
       <c r="I28" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,I$25,$D$24)</f>
-        <v>5656.1444111999999</v>
+        <v>906.93900989999997</v>
       </c>
       <c r="J28" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,J$25,$D$24)</f>
-        <v>43.805660000000003</v>
+        <v>7.0299899999999997</v>
       </c>
       <c r="K28" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,K$25,$D$24)</f>
-        <v>0</v>
+        <v>2.0299900000000002</v>
       </c>
       <c r="L28" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,L$25,$D$24)</f>
-        <v>0</v>
+        <v>261.88900990000002</v>
       </c>
       <c r="M28" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,M$25,$D$24)</f>
@@ -6681,7 +6711,7 @@
       </c>
       <c r="N28" s="30">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,N$25,$D$24)</f>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="O28" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,O$25,$D$24)</f>
@@ -6689,15 +6719,15 @@
       </c>
       <c r="P28" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,P$25,$D$24)</f>
-        <v>43242.852421087962</v>
+        <v>43242.855832175926</v>
       </c>
       <c r="Q28" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,Q$25,$D$24)</f>
-        <v>7458697</v>
+        <v>7458769</v>
       </c>
       <c r="R28" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,R$25,$D$24)</f>
-        <v>7458716</v>
+        <v>7458771</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -6706,13 +6736,13 @@
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="32" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="32">
         <v>3</v>
       </c>
     </row>
@@ -6778,27 +6808,27 @@
       </c>
       <c r="B32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,B$25,$D$30)</f>
-        <v>650.1</v>
+        <v>647.54</v>
       </c>
       <c r="C32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,C$25,$D$30)</f>
-        <v>650.35</v>
+        <v>648.74</v>
       </c>
       <c r="D32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,D$25,$D$30)</f>
-        <v>646.4</v>
+        <v>647.54</v>
       </c>
       <c r="E32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,E$25,$D$30)</f>
-        <v>648.12</v>
+        <v>647.78</v>
       </c>
       <c r="F32" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,F$25,$D$30)</f>
-        <v>43242.84375</v>
+        <v>43242.854166666664</v>
       </c>
       <c r="G32" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,G$25,$D$30)</f>
-        <v>43242.854166655095</v>
+        <v>43242.86458332176</v>
       </c>
       <c r="H32" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,H$25,$D$30)</f>
@@ -6806,19 +6836,19 @@
       </c>
       <c r="I32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,I$25,$D$30)</f>
-        <v>951674.02725170006</v>
+        <v>164757.77615779999</v>
       </c>
       <c r="J32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,J$25,$D$30)</f>
-        <v>1468.9665500000001</v>
+        <v>254.19544999999999</v>
       </c>
       <c r="K32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,K$25,$D$30)</f>
-        <v>687.48353999999995</v>
+        <v>115.78400000000001</v>
       </c>
       <c r="L32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,L$25,$D$30)</f>
-        <v>445480.33447980002</v>
+        <v>75060.987934000004</v>
       </c>
       <c r="M32" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,M$25,$D$30)</f>
@@ -6826,7 +6856,7 @@
       </c>
       <c r="N32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,N$25,$D$30)</f>
-        <v>1558</v>
+        <v>226</v>
       </c>
       <c r="O32" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,O$25,$D$30)</f>
@@ -6834,15 +6864,15 @@
       </c>
       <c r="P32" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,P$25,$D$30)</f>
-        <v>43242.852801724533</v>
+        <v>43242.855868078703</v>
       </c>
       <c r="Q32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,Q$25,$D$30)</f>
-        <v>25847867</v>
+        <v>25849598</v>
       </c>
       <c r="R32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,R$25,$D$30)</f>
-        <v>25849424</v>
+        <v>25849823</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6851,27 +6881,27 @@
       </c>
       <c r="B33" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,B$25,$D$30)</f>
-        <v>8026</v>
+        <v>8019.03</v>
       </c>
       <c r="C33" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,C$25,$D$30)</f>
-        <v>8031.9</v>
+        <v>8019.03</v>
       </c>
       <c r="D33" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,D$25,$D$30)</f>
-        <v>8000</v>
+        <v>8007.06</v>
       </c>
       <c r="E33" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,E$25,$D$30)</f>
-        <v>8018.99</v>
+        <v>8010.33</v>
       </c>
       <c r="F33" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,F$25,$D$30)</f>
-        <v>43242.84375</v>
+        <v>43242.854166666664</v>
       </c>
       <c r="G33" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,G$25,$D$30)</f>
-        <v>43242.854166655095</v>
+        <v>43242.86458332176</v>
       </c>
       <c r="H33" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,H$25,$D$30)</f>
@@ -6879,19 +6909,19 @@
       </c>
       <c r="I33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,I$25,$D$30)</f>
-        <v>1733729.39127135</v>
+        <v>119886.51986741</v>
       </c>
       <c r="J33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,J$25,$D$30)</f>
-        <v>216.334678</v>
+        <v>14.964282000000001</v>
       </c>
       <c r="K33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,K$25,$D$30)</f>
-        <v>120.90196</v>
+        <v>5.3585729999999998</v>
       </c>
       <c r="L33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,L$25,$D$30)</f>
-        <v>968820.94580450002</v>
+        <v>42935.8247538</v>
       </c>
       <c r="M33" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,M$25,$D$30)</f>
@@ -6899,7 +6929,7 @@
       </c>
       <c r="N33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,N$25,$D$30)</f>
-        <v>1428</v>
+        <v>206</v>
       </c>
       <c r="O33" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,O$25,$D$30)</f>
@@ -6907,15 +6937,15 @@
       </c>
       <c r="P33" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,P$25,$D$30)</f>
-        <v>43242.852811307872</v>
+        <v>43242.855850763888</v>
       </c>
       <c r="Q33" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,Q$25,$D$30)</f>
-        <v>45057942</v>
+        <v>45059533</v>
       </c>
       <c r="R33" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,R$25,$D$30)</f>
-        <v>45059369</v>
+        <v>45059738</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6924,7 +6954,7 @@
       </c>
       <c r="B34" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,B$25,$D$30)</f>
-        <v>128.83000000000001</v>
+        <v>129.13</v>
       </c>
       <c r="C34" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,C$25,$D$30)</f>
@@ -6932,19 +6962,19 @@
       </c>
       <c r="D34" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,D$25,$D$30)</f>
-        <v>128.55000000000001</v>
+        <v>129</v>
       </c>
       <c r="E34" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,E$25,$D$30)</f>
-        <v>128.88</v>
+        <v>129.01</v>
       </c>
       <c r="F34" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,F$25,$D$30)</f>
-        <v>43242.84375</v>
+        <v>43242.854166666664</v>
       </c>
       <c r="G34" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,G$25,$D$30)</f>
-        <v>43242.854166655095</v>
+        <v>43242.86458332176</v>
       </c>
       <c r="H34" s="23" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,H$25,$D$30)</f>
@@ -6952,19 +6982,19 @@
       </c>
       <c r="I34" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,I$25,$D$30)</f>
-        <v>22319.627294499998</v>
+        <v>4664.1792998999999</v>
       </c>
       <c r="J34" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,J$25,$D$30)</f>
-        <v>173.05838</v>
+        <v>36.126399999999997</v>
       </c>
       <c r="K34" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,K$25,$D$30)</f>
-        <v>79.998760000000004</v>
+        <v>30.489180000000001</v>
       </c>
       <c r="L34" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,L$25,$D$30)</f>
-        <v>10319.179161800001</v>
+        <v>3936.8511146000001</v>
       </c>
       <c r="M34" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,M$25,$D$30)</f>
@@ -6972,7 +7002,7 @@
       </c>
       <c r="N34" s="30">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,N$25,$D$30)</f>
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="O34" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,O$25,$D$30)</f>
@@ -6980,15 +7010,15 @@
       </c>
       <c r="P34" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,P$25,$D$30)</f>
-        <v>43242.852421087962</v>
+        <v>43242.855832175926</v>
       </c>
       <c r="Q34" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,Q$25,$D$30)</f>
-        <v>7458626</v>
+        <v>7458755</v>
       </c>
       <c r="R34" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,R$25,$D$30)</f>
-        <v>7458716</v>
+        <v>7458771</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">

--- a/doc/crypto.xlsx
+++ b/doc/crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="p:\crypto-rtd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E50A666-AF42-40CD-827E-F79160BFD15F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98D4FB6-DC11-43C8-92BC-3FADAB7037D9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13620" activeTab="1" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>crypto-debug</t>
   </si>
@@ -151,12 +151,6 @@
     <t>TRADE_ID</t>
   </si>
   <si>
-    <t>BUYER_ORDER_ID</t>
-  </si>
-  <si>
-    <t>SELLER_ORDER_ID</t>
-  </si>
-  <si>
     <t>BUYER_IS_MAKER</t>
   </si>
   <si>
@@ -219,16 +213,20 @@
   <si>
     <t>15 Mins</t>
   </si>
+  <si>
+    <t>TRADE_TIME</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -453,7 +451,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -499,6 +497,8 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="6"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
@@ -509,7 +509,1376 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="86">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="h:mm:ss;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -601,6 +1970,80 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -622,29 +2065,38 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -659,41 +2111,76 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -713,110 +2200,100 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -854,26 +2331,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -930,24 +2387,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -967,6 +2406,135 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -1005,24 +2573,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -1042,24 +2592,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -1153,1519 +2685,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2758,7 +2795,7 @@
   <volType type="realTimeData">
     <main first="crypto-debug">
       <tp>
-        <v>8384</v>
+        <v>8349.99</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -2766,7 +2803,7 @@
         <tr r="E6" s="1"/>
       </tp>
       <tp>
-        <v>134.46</v>
+        <v>133.41999999999999</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -2774,7 +2811,7 @@
         <tr r="E7" s="1"/>
       </tp>
       <tp>
-        <v>698.12</v>
+        <v>694.85</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -2805,7 +2842,7 @@
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>BUYER_IS_MAKER</stp>
-        <tr r="M16" s="1"/>
+        <tr r="K16" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -2813,7 +2850,7 @@
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>BUYER_IS_MAKER</stp>
-        <tr r="M15" s="1"/>
+        <tr r="K15" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -2821,10 +2858,10 @@
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>BUYER_IS_MAKER</stp>
-        <tr r="M17" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67649999999999999</v>
+        <tr r="K17" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67410999999999999</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -2832,7 +2869,7 @@
         <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>7.4180000000000001E-3</v>
+        <v>7.3899999999999999E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -2840,7 +2877,7 @@
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>17684</v>
+        <v>17730</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2848,7 +2885,7 @@
         <tr r="M7" s="1"/>
       </tp>
       <tp>
-        <v>113958</v>
+        <v>117507</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2856,7 +2893,7 @@
         <tr r="M5" s="1"/>
       </tp>
       <tp>
-        <v>194143</v>
+        <v>198605</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2864,7 +2901,7 @@
         <tr r="M6" s="1"/>
       </tp>
       <tp>
-        <v>14919</v>
+        <v>15430</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -2872,7 +2909,7 @@
         <tr r="M8" s="1"/>
       </tp>
       <tp>
-        <v>8019.03</v>
+        <v>7953.94</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -2881,7 +2918,7 @@
         <tr r="C33" s="1"/>
       </tp>
       <tp>
-        <v>8014</v>
+        <v>7904.88</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -2890,7 +2927,7 @@
         <tr r="C27" s="1"/>
       </tp>
       <tp>
-        <v>648.74</v>
+        <v>639.25</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -2899,7 +2936,7 @@
         <tr r="C32" s="1"/>
       </tp>
       <tp>
-        <v>648.71</v>
+        <v>633</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -2908,7 +2945,7 @@
         <tr r="C26" s="1"/>
       </tp>
       <tp>
-        <v>129.13999999999999</v>
+        <v>127.99</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -2917,7 +2954,7 @@
         <tr r="C34" s="1"/>
       </tp>
       <tp>
-        <v>129.01</v>
+        <v>126.88</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -2944,7 +2981,7 @@
         <tr r="O27" s="1"/>
       </tp>
       <tp>
-        <v>1117892376</v>
+        <v>1111209566</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -2952,7 +2989,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>26450844</v>
+        <v>26378741</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -2960,7 +2997,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>291883.59000000003</v>
+        <v>292290.86</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -2986,7 +3023,7 @@
         <tr r="O32" s="1"/>
       </tp>
       <tp>
-        <v>-4.0099999999999997E-2</v>
+        <v>-4.7600000000000003E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2994,7 +3031,7 @@
         <tr r="N7" s="1"/>
       </tp>
       <tp>
-        <v>-4.3799999999999999E-2</v>
+        <v>-5.3350000000000002E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3002,7 +3039,7 @@
         <tr r="N6" s="1"/>
       </tp>
       <tp>
-        <v>-7.2090000000000001E-2</v>
+        <v>-8.4860000000000005E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3010,7 +3047,7 @@
         <tr r="N5" s="1"/>
       </tp>
       <tp>
-        <v>-4.931E-2</v>
+        <v>-6.2740000000000004E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3018,7 +3055,7 @@
         <tr r="N8" s="1"/>
       </tp>
       <tp>
-        <v>647.54</v>
+        <v>638.54999999999995</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3027,7 +3064,7 @@
         <tr r="B32" s="1"/>
       </tp>
       <tp>
-        <v>648.23</v>
+        <v>631.99</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3036,7 +3073,7 @@
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>8019.03</v>
+        <v>7949.99</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3045,7 +3082,7 @@
         <tr r="B33" s="1"/>
       </tp>
       <tp>
-        <v>8010</v>
+        <v>7895.79</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3054,7 +3091,7 @@
         <tr r="B27" s="1"/>
       </tp>
       <tp>
-        <v>129.13</v>
+        <v>127.99</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3063,7 +3100,7 @@
         <tr r="B34" s="1"/>
       </tp>
       <tp>
-        <v>129.01</v>
+        <v>126.6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3096,31 +3133,7 @@
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>72042631</v>
-        <stp/>
-        <stp>BINANCE_TRADE</stp>
-        <stp>ethusdt</stp>
-        <stp>BUYER_ORDER_ID</stp>
-        <tr r="K15" s="1"/>
-      </tp>
-      <tp>
-        <v>106514502</v>
-        <stp/>
-        <stp>BINANCE_TRADE</stp>
-        <stp>btcusdt</stp>
-        <stp>BUYER_ORDER_ID</stp>
-        <tr r="K16" s="1"/>
-      </tp>
-      <tp>
-        <v>28937265</v>
-        <stp/>
-        <stp>BINANCE_TRADE</stp>
-        <stp>ltcusdt</stp>
-        <stp>BUYER_ORDER_ID</stp>
-        <tr r="K17" s="1"/>
-      </tp>
-      <tp>
-        <v>30.489180000000001</v>
+        <v>154.00041999999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3129,7 +3142,7 @@
         <tr r="K34" s="1"/>
       </tp>
       <tp>
-        <v>2.0299900000000002</v>
+        <v>1.91229</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3138,7 +3151,7 @@
         <tr r="K28" s="1"/>
       </tp>
       <tp>
-        <v>115.78400000000001</v>
+        <v>834.26562999999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3147,7 +3160,7 @@
         <tr r="K32" s="1"/>
       </tp>
       <tp>
-        <v>20.171530000000001</v>
+        <v>104.21605</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3156,7 +3169,7 @@
         <tr r="K26" s="1"/>
       </tp>
       <tp>
-        <v>5.3585729999999998</v>
+        <v>173.91591299999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3165,7 +3178,7 @@
         <tr r="K33" s="1"/>
       </tp>
       <tp>
-        <v>1.1292070000000001</v>
+        <v>26.197265000000002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3179,7 +3192,7 @@
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>IGNORE</stp>
-        <tr r="N16" s="1"/>
+        <tr r="L16" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -3187,7 +3200,7 @@
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>IGNORE</stp>
-        <tr r="N15" s="1"/>
+        <tr r="L15" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -3195,10 +3208,10 @@
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>IGNORE</stp>
-        <tr r="N17" s="1"/>
-      </tp>
-      <tp>
-        <v>7.175E-3</v>
+        <tr r="L17" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1199999999999996E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3206,7 +3219,7 @@
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>8.0329999999999998E-5</v>
+        <v>7.9670000000000001E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3214,7 +3227,7 @@
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>9.3200000000000006E-6</v>
+        <v>9.1700000000000003E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3222,7 +3235,7 @@
         <tr r="I11" s="1"/>
       </tp>
       <tp>
-        <v>8.0710000000000005E-5</v>
+        <v>8.0779999999999996E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -3230,7 +3243,7 @@
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>9.6500000000000008E-6</v>
+        <v>9.7200000000000001E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
@@ -3238,7 +3251,7 @@
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>9.3100000000000006E-6</v>
+        <v>9.1600000000000004E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3246,7 +3259,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>8.0270000000000002E-5</v>
+        <v>7.9610000000000005E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3254,7 +3267,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>7.1739999999999998E-3</v>
+        <v>7.1120000000000003E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3262,7 +3275,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>-3.3360000000000001E-2</v>
+        <v>-4.2169999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3270,7 +3283,7 @@
         <tr r="O8" s="1"/>
       </tp>
       <tp>
-        <v>254.19544999999999</v>
+        <v>1873.82339</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3279,7 +3292,7 @@
         <tr r="J32" s="1"/>
       </tp>
       <tp>
-        <v>55.376710000000003</v>
+        <v>200.85151999999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3296,7 +3309,7 @@
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>0.37</v>
+        <v>0.17999000000000001</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3304,7 +3317,7 @@
         <tr r="J15" s="1"/>
       </tp>
       <tp>
-        <v>1.4799899999999999</v>
+        <v>1.0999000000000001</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3312,7 +3325,7 @@
         <tr r="J17" s="1"/>
       </tp>
       <tp>
-        <v>1.2481000000000001E-2</v>
+        <v>1.4399E-2</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3320,7 +3333,7 @@
         <tr r="J16" s="1"/>
       </tp>
       <tp>
-        <v>17</v>
+        <v>0.4</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3329,7 +3342,7 @@
         <tr r="E21" s="1"/>
       </tp>
       <tp>
-        <v>6.1289999999999997E-2</v>
+        <v>1.9652799999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3338,7 +3351,7 @@
         <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>57.715760000000003</v>
+        <v>76.700329999999994</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3347,7 +3360,7 @@
         <tr r="E20" s="1"/>
       </tp>
       <tp>
-        <v>1.21488</v>
+        <v>0.56000000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3356,7 +3369,7 @@
         <tr r="E17" s="1"/>
       </tp>
       <tp>
-        <v>16</v>
+        <v>2.22519</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3365,7 +3378,7 @@
         <tr r="E18" s="1"/>
       </tp>
       <tp>
-        <v>0.34499999999999997</v>
+        <v>0.61600999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3374,7 +3387,7 @@
         <tr r="E15" s="1"/>
       </tp>
       <tp>
-        <v>6.9997999999999996</v>
+        <v>1.9954700000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3383,7 +3396,7 @@
         <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>-5.39</v>
+        <v>-6.34</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3391,7 +3404,7 @@
         <tr r="O7" s="1"/>
       </tp>
       <tp>
-        <v>-367</v>
+        <v>-444.89</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3399,7 +3412,7 @@
         <tr r="O6" s="1"/>
       </tp>
       <tp>
-        <v>-50.33</v>
+        <v>-58.65</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3407,7 +3420,7 @@
         <tr r="O5" s="1"/>
       </tp>
       <tp>
-        <v>0.01</v>
+        <v>0.22</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3415,7 +3428,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3423,7 +3436,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>2.57</v>
+        <v>9.7799999999999994</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3431,7 +3444,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>9.3999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3439,7 +3452,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>0.67749000000000004</v>
+        <v>0.67601</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3447,7 +3460,7 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>36.126399999999997</v>
+        <v>1025.45604</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3456,7 +3469,7 @@
         <tr r="J34" s="1"/>
       </tp>
       <tp>
-        <v>7.0299899999999997</v>
+        <v>18.09226</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3465,7 +3478,7 @@
         <tr r="J28" s="1"/>
       </tp>
       <tp>
-        <v>1.6486810000000001</v>
+        <v>54.730727999999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3474,7 +3487,7 @@
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>14.964282000000001</v>
+        <v>575.74172899999996</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3483,7 +3496,7 @@
         <tr r="J33" s="1"/>
       </tp>
       <tp>
-        <v>699.6</v>
+        <v>699</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3491,7 +3504,7 @@
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>8394.02</v>
+        <v>8368.34</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3507,7 +3520,7 @@
         <tr r="C7" s="1"/>
       </tp>
       <tp>
-        <v>1.24</v>
+        <v>2.02</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3515,12 +3528,36 @@
         <tr r="J9" s="1"/>
       </tp>
       <tp>
-        <v>137812</v>
+        <v>424781</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>BID_SIZE</stp>
         <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>7459347</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>ltcusdt</stp>
+        <stp>FIRST_ID</stp>
+        <tr r="M17" s="1"/>
+      </tp>
+      <tp>
+        <v>45067787</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>btcusdt</stp>
+        <stp>FIRST_ID</stp>
+        <tr r="M16" s="1"/>
+      </tp>
+      <tp>
+        <v>25855511</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>ethusdt</stp>
+        <stp>FIRST_ID</stp>
+        <tr r="M15" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -3541,7 +3578,7 @@
         <tr r="H33" s="1"/>
       </tp>
       <tp>
-        <v>8007.06</v>
+        <v>7885</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3550,7 +3587,7 @@
         <tr r="D33" s="1"/>
       </tp>
       <tp>
-        <v>8008.65</v>
+        <v>7885</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3559,7 +3596,7 @@
         <tr r="D27" s="1"/>
       </tp>
       <tp>
-        <v>129.01</v>
+        <v>126.57</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3568,7 +3605,7 @@
         <tr r="D28" s="1"/>
       </tp>
       <tp>
-        <v>129</v>
+        <v>126.41</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3577,15 +3614,7 @@
         <tr r="D34" s="1"/>
       </tp>
       <tp>
-        <v>106514447</v>
-        <stp/>
-        <stp>BINANCE_TRADE</stp>
-        <stp>btcusdt</stp>
-        <stp>SELLER_ORDER_ID</stp>
-        <tr r="L16" s="1"/>
-      </tp>
-      <tp>
-        <v>129.01</v>
+        <v>126.84</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3594,7 +3623,7 @@
         <tr r="E28" s="1"/>
       </tp>
       <tp>
-        <v>129.01</v>
+        <v>126.84</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3603,7 +3632,7 @@
         <tr r="E34" s="1"/>
       </tp>
       <tp>
-        <v>17</v>
+        <v>288</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3612,7 +3641,7 @@
         <tr r="N34" s="1"/>
       </tp>
       <tp>
-        <v>206</v>
+        <v>3175</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3621,7 +3650,7 @@
         <tr r="N33" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>20</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3630,7 +3659,7 @@
         <tr r="N28" s="1"/>
       </tp>
       <tp>
-        <v>40</v>
+        <v>332</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3639,7 +3668,7 @@
         <tr r="N27" s="1"/>
       </tp>
       <tp>
-        <v>226</v>
+        <v>1915</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3648,7 +3677,7 @@
         <tr r="N32" s="1"/>
       </tp>
       <tp>
-        <v>50</v>
+        <v>198</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3657,15 +3686,15 @@
         <tr r="N26" s="1"/>
       </tp>
       <tp>
-        <v>72042633</v>
+        <v>7459348</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
-        <stp>ethusdt</stp>
-        <stp>SELLER_ORDER_ID</stp>
-        <tr r="L15" s="1"/>
-      </tp>
-      <tp>
-        <v>7458771</v>
+        <stp>ltcusdt</stp>
+        <stp>LAST_ID</stp>
+        <tr r="N17" s="1"/>
+      </tp>
+      <tp>
+        <v>6567499</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3673,7 +3702,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>45059740</v>
+        <v>39187710</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3681,7 +3710,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>25849823</v>
+        <v>22952771</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3689,7 +3718,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>0.69</v>
+        <v>0.15</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3697,7 +3726,7 @@
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>97998</v>
+        <v>46051</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3723,7 +3752,15 @@
         <tr r="H26" s="1"/>
       </tp>
       <tp>
-        <v>647.70000000000005</v>
+        <v>45067787</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>btcusdt</stp>
+        <stp>LAST_ID</stp>
+        <tr r="N16" s="1"/>
+      </tp>
+      <tp>
+        <v>630.70000000000005</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3732,7 +3769,7 @@
         <tr r="D26" s="1"/>
       </tp>
       <tp>
-        <v>647.54</v>
+        <v>630.70000000000005</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3741,7 +3778,7 @@
         <tr r="D32" s="1"/>
       </tp>
       <tp>
-        <v>100</v>
+        <v>847</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3749,7 +3786,7 @@
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>647.78</v>
+        <v>632.41</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3758,7 +3795,7 @@
         <tr r="E32" s="1"/>
       </tp>
       <tp>
-        <v>647.78</v>
+        <v>632.41</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3767,15 +3804,7 @@
         <tr r="E26" s="1"/>
       </tp>
       <tp>
-        <v>28937262</v>
-        <stp/>
-        <stp>BINANCE_TRADE</stp>
-        <stp>ltcusdt</stp>
-        <stp>SELLER_ORDER_ID</stp>
-        <tr r="L17" s="1"/>
-      </tp>
-      <tp>
-        <v>8010.33</v>
+        <v>7894.92</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3784,7 +3813,7 @@
         <tr r="E27" s="1"/>
       </tp>
       <tp>
-        <v>8010.33</v>
+        <v>7894.92</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3792,6 +3821,14 @@
         <stp>3</stp>
         <tr r="E33" s="1"/>
       </tp>
+      <tp>
+        <v>25855511</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>ethusdt</stp>
+        <stp>LAST_ID</stp>
+        <tr r="N15" s="1"/>
+      </tp>
       <tp t="b">
         <v>0</v>
         <stp/>
@@ -3811,7 +3848,7 @@
         <tr r="H34" s="1"/>
       </tp>
       <tp>
-        <v>0.81662000000000001</v>
+        <v>30.128710000000002</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3820,7 +3857,7 @@
         <tr r="A21" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3.4192499999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3829,7 +3866,7 @@
         <tr r="A19" s="1"/>
       </tp>
       <tp>
-        <v>5.7385200000000003</v>
+        <v>1.4</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3838,7 +3875,7 @@
         <tr r="A20" s="1"/>
       </tp>
       <tp>
-        <v>10</v>
+        <v>5.5179600000000004</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3847,7 +3884,7 @@
         <tr r="A17" s="1"/>
       </tp>
       <tp>
-        <v>6.6934100000000001</v>
+        <v>3.0369999999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3856,7 +3893,7 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>3.5554399999999999</v>
+        <v>0.33184999999999998</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3865,7 +3902,7 @@
         <tr r="A15" s="1"/>
       </tp>
       <tp>
-        <v>0.49413000000000001</v>
+        <v>47.668230000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3874,7 +3911,7 @@
         <tr r="A16" s="1"/>
       </tp>
       <tp>
-        <v>8.0669999999999998E-5</v>
+        <v>8.0809999999999994E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -3882,7 +3919,7 @@
         <tr r="E10" s="1"/>
       </tp>
       <tp>
-        <v>110939</v>
+        <v>107845</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3944,7 +3981,7 @@
         <tr r="M28" s="1"/>
       </tp>
       <tp>
-        <v>-3.5200000000000002E-2</v>
+        <v>-5.2690000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3952,7 +3989,7 @@
         <tr r="N11" s="1"/>
       </tp>
       <tp>
-        <v>42819</v>
+        <v>42959</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3960,7 +3997,7 @@
         <tr r="M10" s="1"/>
       </tp>
       <tp>
-        <v>-5.3299999999999997E-3</v>
+        <v>-1.337E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3968,7 +4005,7 @@
         <tr r="N10" s="1"/>
       </tp>
       <tp>
-        <v>9.6500000000000008E-6</v>
+        <v>9.7200000000000001E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
@@ -3976,7 +4013,31 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>-3.2890000000000003E-2</v>
+        <v>43242.877559733795</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>ethusdt</stp>
+        <stp>TRADE_TIME</stp>
+        <tr r="O15" s="1"/>
+      </tp>
+      <tp>
+        <v>43242.877560046298</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>btcusdt</stp>
+        <stp>TRADE_TIME</stp>
+        <tr r="O16" s="1"/>
+      </tp>
+      <tp>
+        <v>43242.877562708331</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>ltcusdt</stp>
+        <stp>TRADE_TIME</stp>
+        <tr r="O17" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.4200000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3984,7 +4045,7 @@
         <tr r="N9" s="1"/>
       </tp>
       <tp>
-        <v>42551</v>
+        <v>42348</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3992,7 +4053,7 @@
         <tr r="M9" s="1"/>
       </tp>
       <tp>
-        <v>7.4260000000000003E-3</v>
+        <v>7.3899999999999999E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -4000,7 +4061,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>7458769</v>
+        <v>7459328</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4009,7 +4070,7 @@
         <tr r="Q28" s="1"/>
       </tp>
       <tp>
-        <v>7458755</v>
+        <v>7459060</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4018,7 +4079,7 @@
         <tr r="Q34" s="1"/>
       </tp>
       <tp>
-        <v>45059699</v>
+        <v>45067449</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4027,7 +4088,7 @@
         <tr r="Q27" s="1"/>
       </tp>
       <tp>
-        <v>45059533</v>
+        <v>45064606</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4036,7 +4097,7 @@
         <tr r="Q33" s="1"/>
       </tp>
       <tp>
-        <v>25849774</v>
+        <v>25855299</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4045,7 +4106,7 @@
         <tr r="Q26" s="1"/>
       </tp>
       <tp>
-        <v>25849598</v>
+        <v>25853582</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4054,7 +4115,7 @@
         <tr r="Q32" s="1"/>
       </tp>
       <tp>
-        <v>646.99</v>
+        <v>631</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4062,7 +4123,7 @@
         <tr r="D3" s="2"/>
       </tp>
       <tp>
-        <v>8016.03</v>
+        <v>7906.73</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4070,7 +4131,7 @@
         <tr r="D4" s="2"/>
       </tp>
       <tp>
-        <v>43242.854166666664</v>
+        <v>43242.875</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4079,7 +4140,7 @@
         <tr r="F34" s="1"/>
       </tp>
       <tp>
-        <v>43242.855555555558</v>
+        <v>43242.877083333333</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4088,7 +4149,7 @@
         <tr r="F28" s="1"/>
       </tp>
       <tp>
-        <v>129.01</v>
+        <v>126.84</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4096,7 +4157,7 @@
         <tr r="I17" s="1"/>
       </tp>
       <tp>
-        <v>8012</v>
+        <v>7904.88</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4104,7 +4165,7 @@
         <tr r="I16" s="1"/>
       </tp>
       <tp>
-        <v>-4.3000000000000001E-7</v>
+        <v>-1.08E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4112,7 +4173,7 @@
         <tr r="O10" s="1"/>
       </tp>
       <tp>
-        <v>119886.51986741</v>
+        <v>4553073.03553004</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4121,7 +4182,7 @@
         <tr r="I33" s="1"/>
       </tp>
       <tp>
-        <v>13208.135038259999</v>
+        <v>432151.56664603</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4130,7 +4191,7 @@
         <tr r="I27" s="1"/>
       </tp>
       <tp>
-        <v>697.55</v>
+        <v>694.89</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -4146,7 +4207,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>1772.67</v>
+        <v>697.4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4154,7 +4215,7 @@
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>9.7999999999999993E-6</v>
+        <v>9.6900000000000004E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4162,7 +4223,7 @@
         <tr r="C11" s="1"/>
       </tp>
       <tp>
-        <v>44620.774720000001</v>
+        <v>46217.508029999997</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4170,7 +4231,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>0.64227999999999996</v>
+        <v>0.62909999999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4178,7 +4239,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>5132388.0993793001</v>
+        <v>5268533.5193525003</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4186,7 +4247,7 @@
         <tr r="L8" s="1"/>
       </tp>
       <tp>
-        <v>43242.856249988428</v>
+        <v>43242.877777766204</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4195,7 +4256,7 @@
         <tr r="G26" s="1"/>
       </tp>
       <tp>
-        <v>43242.86458332176</v>
+        <v>43242.885416655095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4204,7 +4265,7 @@
         <tr r="G32" s="1"/>
       </tp>
       <tp>
-        <v>43242.856249988428</v>
+        <v>43242.877777766204</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4213,7 +4274,7 @@
         <tr r="G27" s="1"/>
       </tp>
       <tp>
-        <v>43242.856249988428</v>
+        <v>43242.877777766204</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4222,7 +4283,7 @@
         <tr r="G28" s="1"/>
       </tp>
       <tp>
-        <v>43242.86458332176</v>
+        <v>43242.885416655095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4231,7 +4292,7 @@
         <tr r="G33" s="1"/>
       </tp>
       <tp>
-        <v>43242.86458332176</v>
+        <v>43242.885416655095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4240,7 +4301,7 @@
         <tr r="G34" s="1"/>
       </tp>
       <tp>
-        <v>35897.339890800002</v>
+        <v>126805.39914920001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4249,7 +4310,7 @@
         <tr r="I26" s="1"/>
       </tp>
       <tp>
-        <v>164757.77615779999</v>
+        <v>1188467.5749425001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4258,7 +4319,7 @@
         <tr r="I32" s="1"/>
       </tp>
       <tp>
-        <v>9.3306299999999993</v>
+        <v>1.4950000000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4266,7 +4327,7 @@
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>2.6501E-2</v>
+        <v>8.8403999999999996E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4274,7 +4335,7 @@
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>3.5554399999999999</v>
+        <v>0.33184999999999998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4282,7 +4343,7 @@
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>0.64322000000000001</v>
+        <v>0.63</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4298,7 +4359,7 @@
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>43242.855555555558</v>
+        <v>43242.877083333333</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4307,7 +4368,7 @@
         <tr r="F26" s="1"/>
       </tp>
       <tp>
-        <v>43242.854166666664</v>
+        <v>43242.875</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4316,7 +4377,7 @@
         <tr r="F32" s="1"/>
       </tp>
       <tp>
-        <v>647.78</v>
+        <v>632.46</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4324,7 +4385,7 @@
         <tr r="I15" s="1"/>
       </tp>
       <tp>
-        <v>134.44</v>
+        <v>133.5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -4332,7 +4393,7 @@
         <tr r="D7" s="1"/>
       </tp>
       <tp>
-        <v>8383.86</v>
+        <v>8348</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -4340,7 +4401,7 @@
         <tr r="D6" s="1"/>
       </tp>
       <tp>
-        <v>42935.8247538</v>
+        <v>1375682.68134701</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4349,7 +4410,7 @@
         <tr r="L33" s="1"/>
       </tp>
       <tp>
-        <v>3936.8511146000001</v>
+        <v>19530.568294000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4358,7 +4419,7 @@
         <tr r="L34" s="1"/>
       </tp>
       <tp>
-        <v>9047.6366906399999</v>
+        <v>206878.85267831001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4367,7 +4428,7 @@
         <tr r="L27" s="1"/>
       </tp>
       <tp>
-        <v>261.88900990000002</v>
+        <v>242.5468688</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4376,7 +4437,7 @@
         <tr r="L28" s="1"/>
       </tp>
       <tp>
-        <v>75060.987934000004</v>
+        <v>529099.95591859997</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4385,7 +4446,7 @@
         <tr r="L32" s="1"/>
       </tp>
       <tp>
-        <v>13083.1018291</v>
+        <v>65817.282629099995</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4394,7 +4455,7 @@
         <tr r="L26" s="1"/>
       </tp>
       <tp>
-        <v>646.99</v>
+        <v>629.83000000000004</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4402,7 +4463,7 @@
         <tr r="B3" s="2"/>
       </tp>
       <tp>
-        <v>2109.6343906100001</v>
+        <v>2111.7884368700002</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4410,7 +4471,7 @@
         <tr r="L9" s="1"/>
       </tp>
       <tp>
-        <v>23958.967668000001</v>
+        <v>24617.546077999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4418,7 +4479,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>0.63500000000000001</v>
+        <v>0.62829000000000002</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4426,7 +4487,7 @@
         <tr r="B8" s="1"/>
       </tp>
       <tp>
-        <v>647</v>
+        <v>631</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4442,7 +4503,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>4664.1792998999999</v>
+        <v>130116.69737160001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4451,7 +4512,7 @@
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>906.93900989999997</v>
+        <v>2290.6948185000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4460,7 +4521,7 @@
         <tr r="I28" s="1"/>
       </tp>
       <tp>
-        <v>110929.15621</v>
+        <v>115813.86029</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4468,7 +4529,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>8016.03</v>
+        <v>7905.87</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4476,7 +4537,7 @@
         <tr r="C4" s="2"/>
       </tp>
       <tp>
-        <v>-3.3999999999999997E-7</v>
+        <v>-5.0999999999999999E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4484,7 +4545,7 @@
         <tr r="O11" s="1"/>
       </tp>
       <tp>
-        <v>8016.02</v>
+        <v>7905.86</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4492,7 +4553,7 @@
         <tr r="B4" s="2"/>
       </tp>
       <tp>
-        <v>43242.854166666664</v>
+        <v>43242.875</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4501,7 +4562,7 @@
         <tr r="F33" s="1"/>
       </tp>
       <tp>
-        <v>43242.855555555558</v>
+        <v>43242.877083333333</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4510,7 +4571,7 @@
         <tr r="F27" s="1"/>
       </tp>
       <tp>
-        <v>7935.11</v>
+        <v>7885</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4518,7 +4579,7 @@
         <tr r="B6" s="1"/>
       </tp>
       <tp>
-        <v>129</v>
+        <v>126.63</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4526,7 +4587,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>7805312.1399999997</v>
+        <v>8023174.5499999998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4534,7 +4595,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>7458771</v>
+        <v>7459347</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4543,7 +4604,7 @@
         <tr r="R34" s="1"/>
       </tp>
       <tp>
-        <v>7458771</v>
+        <v>7459347</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4552,7 +4613,7 @@
         <tr r="R28" s="1"/>
       </tp>
       <tp>
-        <v>45059738</v>
+        <v>45067780</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4561,7 +4622,7 @@
         <tr r="R27" s="1"/>
       </tp>
       <tp>
-        <v>45059738</v>
+        <v>45067780</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4570,7 +4631,7 @@
         <tr r="R33" s="1"/>
       </tp>
       <tp>
-        <v>647.77</v>
+        <v>632.44000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4579,7 +4640,7 @@
         <tr r="B16" s="1"/>
       </tp>
       <tp>
-        <v>647.78</v>
+        <v>632.45000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4588,7 +4649,7 @@
         <tr r="B15" s="1"/>
       </tp>
       <tp>
-        <v>647.70000000000005</v>
+        <v>632.4</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4597,7 +4658,7 @@
         <tr r="B18" s="1"/>
       </tp>
       <tp>
-        <v>647.74</v>
+        <v>632.41</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4606,7 +4667,7 @@
         <tr r="B17" s="1"/>
       </tp>
       <tp>
-        <v>647.5</v>
+        <v>631.51</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4615,7 +4676,7 @@
         <tr r="B20" s="1"/>
       </tp>
       <tp>
-        <v>647.53</v>
+        <v>632.21</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4624,7 +4685,7 @@
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>647.44000000000005</v>
+        <v>631.5</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4633,7 +4694,7 @@
         <tr r="B21" s="1"/>
       </tp>
       <tp>
-        <v>649.07000000000005</v>
+        <v>633.32000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4642,7 +4703,7 @@
         <tr r="D21" s="1"/>
       </tp>
       <tp>
-        <v>649</v>
+        <v>633.24</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4651,7 +4712,7 @@
         <tr r="D19" s="1"/>
       </tp>
       <tp>
-        <v>649.04</v>
+        <v>633.28</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4660,7 +4721,7 @@
         <tr r="D20" s="1"/>
       </tp>
       <tp>
-        <v>648.75</v>
+        <v>633.12</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4669,7 +4730,7 @@
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>648.85</v>
+        <v>633.22</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4678,7 +4739,7 @@
         <tr r="D18" s="1"/>
       </tp>
       <tp>
-        <v>648.34</v>
+        <v>632.99</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4687,7 +4748,7 @@
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>648.71</v>
+        <v>633</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4696,7 +4757,7 @@
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>129.01</v>
+        <v>126.85</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4704,7 +4765,7 @@
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>-2.4399999999999999E-4</v>
+        <v>-2.52E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4712,7 +4773,7 @@
         <tr r="O9" s="1"/>
       </tp>
       <tp>
-        <v>9.9999999999999995E-7</v>
+        <v>7.9999999999999996E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4720,7 +4781,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>637.32000000000005</v>
+        <v>630.70000000000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4728,7 +4789,7 @@
         <tr r="B5" s="1"/>
       </tp>
       <tp>
-        <v>196229351.96140575</v>
+        <v>201241252.55893987</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4736,7 +4797,7 @@
         <tr r="L6" s="1"/>
       </tp>
       <tp>
-        <v>5856068.5891698003</v>
+        <v>6056248.0018558996</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4744,7 +4805,7 @@
         <tr r="L7" s="1"/>
       </tp>
       <tp>
-        <v>647.78</v>
+        <v>632.45000000000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4752,7 +4813,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>303.31</v>
+        <v>39413.620000000003</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4760,7 +4821,7 @@
         <tr r="J8" s="1"/>
       </tp>
       <tp>
-        <v>25849823</v>
+        <v>25855496</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4769,7 +4830,7 @@
         <tr r="R32" s="1"/>
       </tp>
       <tp>
-        <v>25849823</v>
+        <v>25855496</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4778,7 +4839,7 @@
         <tr r="R26" s="1"/>
       </tp>
       <tp>
-        <v>648.34</v>
+        <v>632.99</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4786,7 +4847,7 @@
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>0.67608999999999997</v>
+        <v>0.67459000000000002</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -4794,7 +4855,7 @@
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>74582761.968980193</v>
+        <v>77602656.836393699</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4802,7 +4863,7 @@
         <tr r="L5" s="1"/>
       </tp>
       <tp>
-        <v>10557.52370096</v>
+        <v>10468.815988869999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4810,7 +4871,7 @@
         <tr r="L11" s="1"/>
       </tp>
       <tp>
-        <v>2135.7226717200001</v>
+        <v>2129.4463487100002</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4818,7 +4879,7 @@
         <tr r="L10" s="1"/>
       </tp>
       <tp>
-        <v>8012</v>
+        <v>7904.7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4826,7 +4887,7 @@
         <tr r="I6" s="1"/>
       </tp>
       <tp>
-        <v>127.31</v>
+        <v>126.41</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4834,7 +4895,7 @@
         <tr r="B7" s="1"/>
       </tp>
       <tp>
-        <v>8009.43</v>
+        <v>7894.92</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4842,7 +4903,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>7.4229999999999999E-3</v>
+        <v>7.3680000000000004E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4850,7 +4911,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>43242.855850752312</v>
+        <v>43242.877556319443</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4859,7 +4920,7 @@
         <tr r="P27" s="1"/>
       </tp>
       <tp>
-        <v>43242.855832175926</v>
+        <v>43242.877562800924</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4868,7 +4929,7 @@
         <tr r="P28" s="1"/>
       </tp>
       <tp>
-        <v>43242.855850763888</v>
+        <v>43242.877556296298</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4877,7 +4938,7 @@
         <tr r="P33" s="1"/>
       </tp>
       <tp>
-        <v>43242.855832175926</v>
+        <v>43242.877562800924</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4886,7 +4947,7 @@
         <tr r="P34" s="1"/>
       </tp>
       <tp>
-        <v>43242.855868067127</v>
+        <v>43242.877543472219</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4895,7 +4956,7 @@
         <tr r="P26" s="1"/>
       </tp>
       <tp>
-        <v>43242.855868078703</v>
+        <v>43242.877543472219</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4904,7 +4965,7 @@
         <tr r="P32" s="1"/>
       </tp>
       <tp>
-        <v>0.34499999999999997</v>
+        <v>0.61600999999999995</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4912,7 +4973,7 @@
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>1.6719999999999999E-2</v>
+        <v>1.29</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4920,7 +4981,7 @@
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>0.61505600000000005</v>
+        <v>2E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4933,17 +4994,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E0BE176-951A-4CA3-A803-9256000D1161}" name="Table2" displayName="Table2" ref="A2:D4" totalsRowShown="0" dataDxfId="84" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E0BE176-951A-4CA3-A803-9256000D1161}" name="Table2" displayName="Table2" ref="A2:D4" totalsRowShown="0" dataDxfId="85" dataCellStyle="Comma">
   <autoFilter ref="A2:D4" xr:uid="{580FE727-A11C-4ED9-9482-452D0F24BAD3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C68E037-DF9F-4856-B04D-2DCDFFB4E15E}" name="Ticker"/>
-    <tableColumn id="2" xr3:uid="{8FAA28E5-F641-4937-ADD4-FAC56E0C4147}" name="BID" dataDxfId="83" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{8FAA28E5-F641-4937-ADD4-FAC56E0C4147}" name="BID" dataDxfId="84" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,GDAX,$A3,B$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{041CD0D7-D375-4B88-8B1B-CD344CCDEB4E}" name="ASK" dataDxfId="82" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{041CD0D7-D375-4B88-8B1B-CD344CCDEB4E}" name="ASK" dataDxfId="83" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,GDAX,$A3,C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5B81F177-A71A-4810-A2A9-102CFDC4A15D}" name="LAST_PRICE" dataDxfId="81" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{5B81F177-A71A-4810-A2A9-102CFDC4A15D}" name="LAST_PRICE" dataDxfId="82" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,GDAX,$A3,D$2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4952,50 +5013,50 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A4:O11" totalsRowShown="0" dataDxfId="36" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A4:O11" totalsRowShown="0" dataDxfId="81" dataCellStyle="Comma">
   <autoFilter ref="A4:O11" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3DCAC593-21E4-456C-93D1-EEDC8340EA91}" name="Ticker"/>
-    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="34" totalsRowDxfId="35" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,B$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="32" totalsRowDxfId="33" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,C$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="30" totalsRowDxfId="31" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,D$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="29" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="74" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,E$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="27" totalsRowDxfId="28" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,F$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="25" totalsRowDxfId="26" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,G$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="23" totalsRowDxfId="24" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,H$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="21" totalsRowDxfId="22" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,I$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="19" totalsRowDxfId="20" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,J$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="17" totalsRowDxfId="18" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,K$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="15" totalsRowDxfId="16" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,L$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="13" totalsRowDxfId="14" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,M$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="11" totalsRowDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Percent">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,N$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="9" totalsRowDxfId="10" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,O$4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5004,20 +5065,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E21" totalsRowShown="0" dataDxfId="80" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E21" totalsRowShown="0" dataDxfId="53" dataCellStyle="Comma">
   <autoFilter ref="A14:E21" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="79" dataCellStyle="20% - Accent6">
+    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="52" dataCellStyle="20% - Accent6">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="78" dataCellStyle="20% - Accent6">
+    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="51" dataCellStyle="20% - Accent6">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="76" dataCellStyle="20% - Accent2">
+    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="49" dataCellStyle="20% - Accent2">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="75" dataCellStyle="20% - Accent2">
+    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="48" dataCellStyle="20% - Accent2">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5026,30 +5087,33 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:N17" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7" dataCellStyle="Comma">
-  <autoFilter ref="G14:N17" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:O17" totalsRowShown="0" dataDxfId="47" tableBorderDxfId="46" dataCellStyle="Comma">
+  <autoFilter ref="G14:O17" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4DF9B9E1-1E83-4EF7-84C1-2078EE821C9B}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="6" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="45" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,H$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="PRICE" dataDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="PRICE" dataDxfId="44" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,I$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="QUANTITY" dataDxfId="4" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="QUANTITY" dataDxfId="43" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,J$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8227CD56-9AE6-4305-AA2B-98B006AB7F2F}" name="BUYER_ORDER_ID" dataDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="42" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,K$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9643A72C-39DD-45DA-9D10-05370B105513}" name="SELLER_ORDER_ID" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="41" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,L$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{596DAC26-1FB0-4FA0-9F2B-2F85949317B9}" name="FIRST_ID" dataDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,M$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{625DA386-D82A-4BD8-99A5-41F6984223F9}" name="LAST_ID" dataDxfId="1" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,N$14)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{B43DE4EC-1073-4EE5-AFA6-29717F6887CA}" name="TRADE_TIME" dataDxfId="0" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,O$14)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5057,59 +5121,59 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A25:R28" totalsRowShown="0" dataDxfId="74" tableBorderDxfId="73" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A25:R28" totalsRowShown="0" dataDxfId="40" tableBorderDxfId="39" dataCellStyle="Comma">
   <autoFilter ref="A25:R28" xr:uid="{BD9601BD-F222-4DBD-B404-C68EB6A96569}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{A75C3BB9-BD50-4A86-92A6-228C26DADEC8}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="72" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="38" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,B$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="71" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="37" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,C$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="70" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="36" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,D$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="69" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="35" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,E$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="68" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="34" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,F$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="67" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="33" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,G$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="66" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="32" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,H$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="65" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="31" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,I$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="64" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="30" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,J$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="63" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="29" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,K$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="62" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="28" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,L$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="61" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="27" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,M$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="60" dataCellStyle="Comma">
+    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="26" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,N$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{11BF3445-5968-4B64-972D-05C6CECCD6DE}" name="Event" dataDxfId="59" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{11BF3445-5968-4B64-972D-05C6CECCD6DE}" name="Event" dataDxfId="25" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,O$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="58" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="24" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,P$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="57" dataCellStyle="Comma">
+    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="23" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,Q$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="56" dataCellStyle="Comma">
+    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="22" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,R$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5118,59 +5182,59 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A31:R34" totalsRowShown="0" dataDxfId="55" tableBorderDxfId="54" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A31:R34" totalsRowShown="0" dataDxfId="21" tableBorderDxfId="20" dataCellStyle="Comma">
   <autoFilter ref="A31:R34" xr:uid="{04787891-A2B4-4F14-ADE0-2BC3B779F519}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{CD2685D4-7653-442A-A4D2-04D1D79D1D51}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="53" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="19" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,B$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="52" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="18" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,C$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="51" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="17" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,D$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="50" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="16" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,E$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="49" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="15" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,F$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="48" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="14" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,G$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="47" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="13" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,H$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="46" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="12" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,I$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="45" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="11" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,J$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="44" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="10" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,K$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="43" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="9" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,L$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="42" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="8" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,M$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="41" dataCellStyle="Comma">
+    <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="7" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,N$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{528B6C8B-64D5-45B1-8F49-30BB75CB0054}" name="Event" dataDxfId="40" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{528B6C8B-64D5-45B1-8F49-30BB75CB0054}" name="Event" dataDxfId="6" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,O$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="39" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="5" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,P$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="38" dataCellStyle="Comma">
+    <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="4" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,Q$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="37" dataCellStyle="Comma">
+    <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,R$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5515,15 +5579,15 @@
       </c>
       <c r="B3" s="2">
         <f>RTD(progId,,GDAX,$A3,B$2)</f>
-        <v>646.99</v>
+        <v>629.83000000000004</v>
       </c>
       <c r="C3" s="2">
         <f>RTD(progId,,GDAX,$A3,C$2)</f>
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="D3" s="2">
         <f>RTD(progId,,GDAX,$A3,D$2)</f>
-        <v>646.99</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5532,15 +5596,15 @@
       </c>
       <c r="B4" s="2">
         <f>RTD(progId,,GDAX,$A4,B$2)</f>
-        <v>8016.02</v>
+        <v>7905.86</v>
       </c>
       <c r="C4" s="2">
         <f>RTD(progId,,GDAX,$A4,C$2)</f>
-        <v>8016.03</v>
+        <v>7905.87</v>
       </c>
       <c r="D4" s="2">
         <f>RTD(progId,,GDAX,$A4,D$2)</f>
-        <v>8016.03</v>
+        <v>7906.73</v>
       </c>
     </row>
   </sheetData>
@@ -5557,7 +5621,7 @@
   <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="Q15" sqref="Q15:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5582,7 +5646,7 @@
     <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -5603,16 +5667,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E3" s="32"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -5621,7 +5686,7 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5668,135 +5733,135 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2">
         <f>RTD(progId,,BINANCE,$A5,B$4)</f>
-        <v>637.32000000000005</v>
+        <v>630.70000000000005</v>
       </c>
       <c r="C5" s="2">
         <f>RTD(progId,,BINANCE,$A5,C$4)</f>
-        <v>699.6</v>
+        <v>699</v>
       </c>
       <c r="D5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,D$4)</f>
-        <v>697.55</v>
+        <v>694.89</v>
       </c>
       <c r="E5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,E$4)</f>
-        <v>698.12</v>
+        <v>694.85</v>
       </c>
       <c r="F5" s="2">
         <f>RTD(progId,,BINANCE,$A5,F$4)</f>
-        <v>3.5554399999999999</v>
+        <v>0.33184999999999998</v>
       </c>
       <c r="G5" s="2">
         <f>RTD(progId,,BINANCE,$A5,G$4)</f>
-        <v>647.78</v>
+        <v>632.45000000000005</v>
       </c>
       <c r="H5" s="2">
         <f>RTD(progId,,BINANCE,$A5,H$4)</f>
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="I5" s="2">
         <f>RTD(progId,,BINANCE,$A5,I$4)</f>
-        <v>648.34</v>
+        <v>632.99</v>
       </c>
       <c r="J5" s="2">
         <f>RTD(progId,,BINANCE,$A5,J$4)</f>
-        <v>0.34499999999999997</v>
+        <v>0.61600999999999995</v>
       </c>
       <c r="K5" s="9">
         <f>RTD(progId,,BINANCE,$A5,K$4)</f>
-        <v>110929.15621</v>
+        <v>115813.86029</v>
       </c>
       <c r="L5" s="2">
         <f>RTD(progId,,BINANCE,$A5,L$4)</f>
-        <v>74582761.968980193</v>
+        <v>77602656.836393699</v>
       </c>
       <c r="M5" s="9">
         <f>RTD(progId,,BINANCE,$A5,M$4)</f>
-        <v>113958</v>
+        <v>117507</v>
       </c>
       <c r="N5" s="10">
         <f>RTD(progId,,BINANCE,$A5,N$4)</f>
-        <v>-7.2090000000000001E-2</v>
+        <v>-8.4860000000000005E-2</v>
       </c>
       <c r="O5" s="2">
         <f>RTD(progId,,BINANCE,$A5,O$4)</f>
-        <v>-50.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-58.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2">
         <f>RTD(progId,,BINANCE,$A6,B$4)</f>
-        <v>7935.11</v>
+        <v>7885</v>
       </c>
       <c r="C6" s="2">
         <f>RTD(progId,,BINANCE,$A6,C$4)</f>
-        <v>8394.02</v>
+        <v>8368.34</v>
       </c>
       <c r="D6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,D$4)</f>
-        <v>8383.86</v>
+        <v>8348</v>
       </c>
       <c r="E6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,E$4)</f>
-        <v>8384</v>
+        <v>8349.99</v>
       </c>
       <c r="F6" s="2">
         <f>RTD(progId,,BINANCE,$A6,F$4)</f>
-        <v>2.6501E-2</v>
+        <v>8.8403999999999996E-2</v>
       </c>
       <c r="G6" s="2">
         <f>RTD(progId,,BINANCE,$A6,G$4)</f>
-        <v>8009.43</v>
+        <v>7894.92</v>
       </c>
       <c r="H6" s="2">
         <f>RTD(progId,,BINANCE,$A6,H$4)</f>
-        <v>2.57</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="I6" s="2">
         <f>RTD(progId,,BINANCE,$A6,I$4)</f>
-        <v>8012</v>
+        <v>7904.7</v>
       </c>
       <c r="J6" s="2">
         <f>RTD(progId,,BINANCE,$A6,J$4)</f>
-        <v>0.61505600000000005</v>
+        <v>2E-3</v>
       </c>
       <c r="K6" s="9">
         <f>RTD(progId,,BINANCE,$A6,K$4)</f>
-        <v>23958.967668000001</v>
+        <v>24617.546077999999</v>
       </c>
       <c r="L6" s="2">
         <f>RTD(progId,,BINANCE,$A6,L$4)</f>
-        <v>196229351.96140575</v>
+        <v>201241252.55893987</v>
       </c>
       <c r="M6" s="9">
         <f>RTD(progId,,BINANCE,$A6,M$4)</f>
-        <v>194143</v>
+        <v>198605</v>
       </c>
       <c r="N6" s="10">
         <f>RTD(progId,,BINANCE,$A6,N$4)</f>
-        <v>-4.3799999999999999E-2</v>
+        <v>-5.3350000000000002E-2</v>
       </c>
       <c r="O6" s="2">
         <f>RTD(progId,,BINANCE,$A6,O$4)</f>
-        <v>-367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-444.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2">
         <f>RTD(progId,,BINANCE,$A7,B$4)</f>
-        <v>127.31</v>
+        <v>126.41</v>
       </c>
       <c r="C7" s="2">
         <f>RTD(progId,,BINANCE,$A7,C$4)</f>
@@ -5804,115 +5869,115 @@
       </c>
       <c r="D7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,D$4)</f>
-        <v>134.44</v>
+        <v>133.5</v>
       </c>
       <c r="E7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,E$4)</f>
-        <v>134.46</v>
+        <v>133.41999999999999</v>
       </c>
       <c r="F7" s="2">
         <f>RTD(progId,,BINANCE,$A7,F$4)</f>
-        <v>9.3306299999999993</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="G7" s="2">
         <f>RTD(progId,,BINANCE,$A7,G$4)</f>
-        <v>129</v>
+        <v>126.63</v>
       </c>
       <c r="H7" s="2">
         <f>RTD(progId,,BINANCE,$A7,H$4)</f>
-        <v>0.01</v>
+        <v>0.22</v>
       </c>
       <c r="I7" s="2">
         <f>RTD(progId,,BINANCE,$A7,I$4)</f>
-        <v>129.01</v>
+        <v>126.85</v>
       </c>
       <c r="J7" s="2">
         <f>RTD(progId,,BINANCE,$A7,J$4)</f>
-        <v>1.6719999999999999E-2</v>
+        <v>1.29</v>
       </c>
       <c r="K7" s="9">
         <f>RTD(progId,,BINANCE,$A7,K$4)</f>
-        <v>44620.774720000001</v>
+        <v>46217.508029999997</v>
       </c>
       <c r="L7" s="2">
         <f>RTD(progId,,BINANCE,$A7,L$4)</f>
-        <v>5856068.5891698003</v>
+        <v>6056248.0018558996</v>
       </c>
       <c r="M7" s="9">
         <f>RTD(progId,,BINANCE,$A7,M$4)</f>
-        <v>17684</v>
+        <v>17730</v>
       </c>
       <c r="N7" s="10">
         <f>RTD(progId,,BINANCE,$A7,N$4)</f>
-        <v>-4.0099999999999997E-2</v>
+        <v>-4.7600000000000003E-2</v>
       </c>
       <c r="O7" s="2">
         <f>RTD(progId,,BINANCE,$A7,O$4)</f>
-        <v>-5.39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-6.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="2">
         <f>RTD(progId,,BINANCE,$A8,B$4)</f>
-        <v>0.63500000000000001</v>
+        <v>0.62829000000000002</v>
       </c>
       <c r="C8" s="2">
         <f>RTD(progId,,BINANCE,$A8,C$4)</f>
-        <v>0.67749000000000004</v>
+        <v>0.67601</v>
       </c>
       <c r="D8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,D$4)</f>
-        <v>0.67608999999999997</v>
+        <v>0.67459000000000002</v>
       </c>
       <c r="E8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,E$4)</f>
-        <v>0.67649999999999999</v>
+        <v>0.67410999999999999</v>
       </c>
       <c r="F8" s="9">
         <f>RTD(progId,,BINANCE,$A8,F$4)</f>
-        <v>1772.67</v>
+        <v>697.4</v>
       </c>
       <c r="G8" s="2">
         <f>RTD(progId,,BINANCE,$A8,G$4)</f>
-        <v>0.64227999999999996</v>
+        <v>0.62909999999999999</v>
       </c>
       <c r="H8" s="2">
         <f>RTD(progId,,BINANCE,$A8,H$4)</f>
-        <v>9.3999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="I8" s="2">
         <f>RTD(progId,,BINANCE,$A8,I$4)</f>
-        <v>0.64322000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="J8" s="2">
         <f>RTD(progId,,BINANCE,$A8,J$4)</f>
-        <v>303.31</v>
+        <v>39413.620000000003</v>
       </c>
       <c r="K8" s="9">
         <f>RTD(progId,,BINANCE,$A8,K$4)</f>
-        <v>7805312.1399999997</v>
+        <v>8023174.5499999998</v>
       </c>
       <c r="L8" s="2">
         <f>RTD(progId,,BINANCE,$A8,L$4)</f>
-        <v>5132388.0993793001</v>
+        <v>5268533.5193525003</v>
       </c>
       <c r="M8" s="9">
         <f>RTD(progId,,BINANCE,$A8,M$4)</f>
-        <v>14919</v>
+        <v>15430</v>
       </c>
       <c r="N8" s="10">
         <f>RTD(progId,,BINANCE,$A8,N$4)</f>
-        <v>-4.931E-2</v>
+        <v>-6.2740000000000004E-2</v>
       </c>
       <c r="O8" s="2">
         <f>RTD(progId,,BINANCE,$A8,O$4)</f>
-        <v>-3.3360000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-4.2169999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -5922,58 +5987,58 @@
       </c>
       <c r="C9" s="2">
         <f>RTD(progId,,BINANCE,$A9,C$4)</f>
-        <v>7.4229999999999999E-3</v>
+        <v>7.3680000000000004E-3</v>
       </c>
       <c r="D9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,D$4)</f>
-        <v>7.4180000000000001E-3</v>
+        <v>7.3899999999999999E-3</v>
       </c>
       <c r="E9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,E$4)</f>
-        <v>7.4260000000000003E-3</v>
+        <v>7.3899999999999999E-3</v>
       </c>
       <c r="F9" s="9">
         <f>RTD(progId,,BINANCE,$A9,F$4)</f>
-        <v>0.69</v>
+        <v>0.15</v>
       </c>
       <c r="G9" s="2">
         <f>RTD(progId,,BINANCE,$A9,G$4)</f>
-        <v>7.1739999999999998E-3</v>
+        <v>7.1120000000000003E-3</v>
       </c>
       <c r="H9" s="2">
         <f>RTD(progId,,BINANCE,$A9,H$4)</f>
-        <v>9.9999999999999995E-7</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="I9" s="2">
         <f>RTD(progId,,BINANCE,$A9,I$4)</f>
-        <v>7.175E-3</v>
+        <v>7.1199999999999996E-3</v>
       </c>
       <c r="J9" s="2">
         <f>RTD(progId,,BINANCE,$A9,J$4)</f>
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="K9" s="9">
         <f>RTD(progId,,BINANCE,$A9,K$4)</f>
-        <v>291883.59000000003</v>
+        <v>292290.86</v>
       </c>
       <c r="L9" s="2">
         <f>RTD(progId,,BINANCE,$A9,L$4)</f>
-        <v>2109.6343906100001</v>
+        <v>2111.7884368700002</v>
       </c>
       <c r="M9" s="9">
         <f>RTD(progId,,BINANCE,$A9,M$4)</f>
-        <v>42551</v>
+        <v>42348</v>
       </c>
       <c r="N9" s="10">
         <f>RTD(progId,,BINANCE,$A9,N$4)</f>
-        <v>-3.2890000000000003E-2</v>
+        <v>-3.4200000000000001E-2</v>
       </c>
       <c r="O9" s="2">
         <f>RTD(progId,,BINANCE,$A9,O$4)</f>
-        <v>-2.4399999999999999E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-2.52E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -5987,11 +6052,11 @@
       </c>
       <c r="D10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,D$4)</f>
-        <v>8.0710000000000005E-5</v>
+        <v>8.0779999999999996E-5</v>
       </c>
       <c r="E10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,E$4)</f>
-        <v>8.0669999999999998E-5</v>
+        <v>8.0809999999999994E-5</v>
       </c>
       <c r="F10" s="9">
         <f>RTD(progId,,BINANCE,$A10,F$4)</f>
@@ -5999,7 +6064,7 @@
       </c>
       <c r="G10" s="2">
         <f>RTD(progId,,BINANCE,$A10,G$4)</f>
-        <v>8.0270000000000002E-5</v>
+        <v>7.9610000000000005E-5</v>
       </c>
       <c r="H10" s="2">
         <f>RTD(progId,,BINANCE,$A10,H$4)</f>
@@ -6007,34 +6072,34 @@
       </c>
       <c r="I10" s="2">
         <f>RTD(progId,,BINANCE,$A10,I$4)</f>
-        <v>8.0329999999999998E-5</v>
+        <v>7.9670000000000001E-5</v>
       </c>
       <c r="J10" s="2">
         <f>RTD(progId,,BINANCE,$A10,J$4)</f>
-        <v>100</v>
+        <v>847</v>
       </c>
       <c r="K10" s="9">
         <f>RTD(progId,,BINANCE,$A10,K$4)</f>
-        <v>26450844</v>
+        <v>26378741</v>
       </c>
       <c r="L10" s="2">
         <f>RTD(progId,,BINANCE,$A10,L$4)</f>
-        <v>2135.7226717200001</v>
+        <v>2129.4463487100002</v>
       </c>
       <c r="M10" s="9">
         <f>RTD(progId,,BINANCE,$A10,M$4)</f>
-        <v>42819</v>
+        <v>42959</v>
       </c>
       <c r="N10" s="10">
         <f>RTD(progId,,BINANCE,$A10,N$4)</f>
-        <v>-5.3299999999999997E-3</v>
+        <v>-1.337E-2</v>
       </c>
       <c r="O10" s="2">
         <f>RTD(progId,,BINANCE,$A10,O$4)</f>
-        <v>-4.3000000000000001E-7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-1.08E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -6044,23 +6109,23 @@
       </c>
       <c r="C11" s="2">
         <f>RTD(progId,,BINANCE,$A11,C$4)</f>
-        <v>9.7999999999999993E-6</v>
+        <v>9.6900000000000004E-6</v>
       </c>
       <c r="D11" s="2">
         <f>RTD(progId,,BINANCE_24H,$A11,D$4)</f>
-        <v>9.6500000000000008E-6</v>
+        <v>9.7200000000000001E-6</v>
       </c>
       <c r="E11" s="2">
         <f>RTD(progId,,BINANCE_24H,$A11,E$4)</f>
-        <v>9.6500000000000008E-6</v>
+        <v>9.7200000000000001E-6</v>
       </c>
       <c r="F11" s="9">
         <f>RTD(progId,,BINANCE,$A11,F$4)</f>
-        <v>137812</v>
+        <v>424781</v>
       </c>
       <c r="G11" s="2">
         <f>RTD(progId,,BINANCE,$A11,G$4)</f>
-        <v>9.3100000000000006E-6</v>
+        <v>9.1600000000000004E-6</v>
       </c>
       <c r="H11" s="2">
         <f>RTD(progId,,BINANCE,$A11,H$4)</f>
@@ -6068,34 +6133,34 @@
       </c>
       <c r="I11" s="2">
         <f>RTD(progId,,BINANCE,$A11,I$4)</f>
-        <v>9.3200000000000006E-6</v>
+        <v>9.1700000000000003E-6</v>
       </c>
       <c r="J11" s="2">
         <f>RTD(progId,,BINANCE,$A11,J$4)</f>
-        <v>97998</v>
+        <v>46051</v>
       </c>
       <c r="K11" s="9">
         <f>RTD(progId,,BINANCE,$A11,K$4)</f>
-        <v>1117892376</v>
+        <v>1111209566</v>
       </c>
       <c r="L11" s="2">
         <f>RTD(progId,,BINANCE,$A11,L$4)</f>
-        <v>10557.52370096</v>
+        <v>10468.815988869999</v>
       </c>
       <c r="M11" s="9">
         <f>RTD(progId,,BINANCE,$A11,M$4)</f>
-        <v>110939</v>
+        <v>107845</v>
       </c>
       <c r="N11" s="10">
         <f>RTD(progId,,BINANCE,$A11,N$4)</f>
-        <v>-3.5200000000000002E-2</v>
+        <v>-5.2690000000000001E-2</v>
       </c>
       <c r="O11" s="2">
         <f>RTD(progId,,BINANCE,$A11,O$4)</f>
-        <v>-3.3999999999999997E-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-5.0999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6111,15 +6176,17 @@
       <c r="N12" s="10"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B13" s="32"/>
       <c r="G13" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -6136,16 +6203,16 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
         <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K14" t="s">
         <v>38</v>
@@ -6154,72 +6221,79 @@
         <v>39</v>
       </c>
       <c r="M14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</f>
-        <v>3.5554399999999999</v>
+        <v>0.33184999999999998</v>
       </c>
       <c r="B15" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</f>
-        <v>647.78</v>
+        <v>632.45000000000005</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</f>
-        <v>648.34</v>
+        <v>632.99</v>
       </c>
       <c r="E15" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</f>
-        <v>0.34499999999999997</v>
+        <v>0.61600999999999995</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,H$14)</f>
-        <v>25849823</v>
+        <v>22952771</v>
       </c>
       <c r="I15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,I$14)</f>
-        <v>647.78</v>
+        <v>632.46</v>
       </c>
       <c r="J15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,J$14)</f>
-        <v>0.37</v>
-      </c>
-      <c r="K15" s="16">
+        <v>0.17999000000000001</v>
+      </c>
+      <c r="K15" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G15,K$14)</f>
-        <v>72042631</v>
-      </c>
-      <c r="L15" s="16">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G15,L$14)</f>
-        <v>72042633</v>
-      </c>
-      <c r="M15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,M$14)</f>
-        <v>1</v>
-      </c>
-      <c r="N15" s="16" t="b">
+        <v>25855511</v>
+      </c>
+      <c r="N15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,N$14)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25855511</v>
+      </c>
+      <c r="O15" s="33">
+        <f>RTD(progId,,BINACE_TRADE,$G15,O$14)</f>
+        <v>43242.877559733795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C16)</f>
-        <v>0.49413000000000001</v>
+        <v>47.668230000000001</v>
       </c>
       <c r="B16" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C16)</f>
-        <v>647.77</v>
+        <v>632.44000000000005</v>
       </c>
       <c r="C16" s="8">
         <f>C15+1</f>
@@ -6227,52 +6301,57 @@
       </c>
       <c r="D16" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C16)</f>
-        <v>648.71</v>
+        <v>633</v>
       </c>
       <c r="E16" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C16)</f>
-        <v>6.9997999999999996</v>
+        <v>1.9954700000000001</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,H$14)</f>
-        <v>45059740</v>
+        <v>39187710</v>
       </c>
       <c r="I16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,I$14)</f>
-        <v>8012</v>
+        <v>7904.88</v>
       </c>
       <c r="J16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,J$14)</f>
-        <v>1.2481000000000001E-2</v>
-      </c>
-      <c r="K16" s="16">
+        <v>1.4399E-2</v>
+      </c>
+      <c r="K16" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G16,K$14)</f>
-        <v>106514502</v>
-      </c>
-      <c r="L16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G16,L$14)</f>
-        <v>106514447</v>
-      </c>
-      <c r="M16" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,M$14)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="16" t="b">
+        <v>45067787</v>
+      </c>
+      <c r="N16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,N$14)</f>
-        <v>1</v>
-      </c>
+        <v>45067787</v>
+      </c>
+      <c r="O16" s="33">
+        <f>RTD(progId,,BINACE_TRADE,$G16,O$14)</f>
+        <v>43242.877560046298</v>
+      </c>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C17)</f>
-        <v>10</v>
+        <v>5.5179600000000004</v>
       </c>
       <c r="B17" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C17)</f>
-        <v>647.74</v>
+        <v>632.41</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" ref="C17:C21" si="0">C16+1</f>
@@ -6280,52 +6359,57 @@
       </c>
       <c r="D17" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C17)</f>
-        <v>648.75</v>
+        <v>633.12</v>
       </c>
       <c r="E17" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C17)</f>
-        <v>1.21488</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,H$14)</f>
-        <v>7458771</v>
+        <v>6567499</v>
       </c>
       <c r="I17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,I$14)</f>
-        <v>129.01</v>
+        <v>126.84</v>
       </c>
       <c r="J17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,J$14)</f>
-        <v>1.4799899999999999</v>
-      </c>
-      <c r="K17" s="16">
+        <v>1.0999000000000001</v>
+      </c>
+      <c r="K17" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G17,K$14)</f>
-        <v>28937265</v>
-      </c>
-      <c r="L17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G17,L$14)</f>
-        <v>28937262</v>
-      </c>
-      <c r="M17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="23">
         <f>RTD(progId,,BINACE_TRADE,$G17,M$14)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="16" t="b">
+        <v>7459347</v>
+      </c>
+      <c r="N17" s="23">
         <f>RTD(progId,,BINACE_TRADE,$G17,N$14)</f>
-        <v>1</v>
-      </c>
+        <v>7459348</v>
+      </c>
+      <c r="O17" s="34">
+        <f>RTD(progId,,BINACE_TRADE,$G17,O$14)</f>
+        <v>43242.877562708331</v>
+      </c>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C18)</f>
-        <v>6.6934100000000001</v>
+        <v>3.0369999999999999</v>
       </c>
       <c r="B18" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C18)</f>
-        <v>647.70000000000005</v>
+        <v>632.4</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
@@ -6333,11 +6417,11 @@
       </c>
       <c r="D18" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C18)</f>
-        <v>648.85</v>
+        <v>633.22</v>
       </c>
       <c r="E18" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C18)</f>
-        <v>16</v>
+        <v>2.22519</v>
       </c>
       <c r="G18"/>
       <c r="K18"/>
@@ -6345,11 +6429,11 @@
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C19)</f>
-        <v>2</v>
+        <v>3.4192499999999999</v>
       </c>
       <c r="B19" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C19)</f>
-        <v>647.53</v>
+        <v>632.21</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
@@ -6357,11 +6441,11 @@
       </c>
       <c r="D19" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C19)</f>
-        <v>649</v>
+        <v>633.24</v>
       </c>
       <c r="E19" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C19)</f>
-        <v>6.1289999999999997E-2</v>
+        <v>1.9652799999999999</v>
       </c>
       <c r="G19"/>
       <c r="K19"/>
@@ -6369,11 +6453,11 @@
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C20)</f>
-        <v>5.7385200000000003</v>
+        <v>1.4</v>
       </c>
       <c r="B20" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C20)</f>
-        <v>647.5</v>
+        <v>631.51</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
@@ -6381,21 +6465,21 @@
       </c>
       <c r="D20" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C20)</f>
-        <v>649.04</v>
+        <v>633.28</v>
       </c>
       <c r="E20" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C20)</f>
-        <v>57.715760000000003</v>
+        <v>76.700329999999994</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C21)</f>
-        <v>0.81662000000000001</v>
+        <v>30.128710000000002</v>
       </c>
       <c r="B21" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C21)</f>
-        <v>647.44000000000005</v>
+        <v>631.5</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
@@ -6403,33 +6487,33 @@
       </c>
       <c r="D21" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C21)</f>
-        <v>649.07000000000005</v>
+        <v>633.32000000000005</v>
       </c>
       <c r="E21" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C21)</f>
-        <v>17</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <f>SUM(Table3[BID_DEPTH_SIZE])</f>
-        <v>29.298120000000001</v>
+        <v>91.503</v>
       </c>
       <c r="B22" s="18">
         <f>SUMPRODUCT(Table3[[BID_DEPTH_SIZE]:[BID_DEPTH]])</f>
-        <v>4562.7581199999995</v>
+        <v>4516.4229999999998</v>
       </c>
       <c r="C22" s="19">
         <f>D22-B22</f>
-        <v>78.338610000000699</v>
+        <v>0.20928000000003522</v>
       </c>
       <c r="D22" s="18">
         <f>SUMPRODUCT(Table3[[ASK_DEPTH]:[ASK_DEPTH_SIZE]])</f>
-        <v>4641.0967300000002</v>
+        <v>4516.6322799999998</v>
       </c>
       <c r="E22" s="13">
         <f>SUM(Table3[ASK_DEPTH_SIZE])</f>
-        <v>99.336730000000003</v>
+        <v>84.462279999999993</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="4"/>
@@ -6443,10 +6527,11 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B24" s="32"/>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="32">
         <v>0</v>
@@ -6457,7 +6542,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -6472,13 +6557,13 @@
         <v>26</v>
       </c>
       <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
-      </c>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" t="s">
-        <v>49</v>
       </c>
       <c r="I25" t="s">
         <v>36</v>
@@ -6487,28 +6572,28 @@
         <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N25" t="s">
         <v>15</v>
       </c>
       <c r="O25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -6517,27 +6602,27 @@
       </c>
       <c r="B26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,B$25,$D$24)</f>
-        <v>648.23</v>
+        <v>631.99</v>
       </c>
       <c r="C26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,C$25,$D$24)</f>
-        <v>648.71</v>
+        <v>633</v>
       </c>
       <c r="D26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,D$25,$D$24)</f>
-        <v>647.70000000000005</v>
+        <v>630.70000000000005</v>
       </c>
       <c r="E26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,E$25,$D$24)</f>
-        <v>647.78</v>
+        <v>632.41</v>
       </c>
       <c r="F26" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,F$25,$D$24)</f>
-        <v>43242.855555555558</v>
+        <v>43242.877083333333</v>
       </c>
       <c r="G26" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,G$25,$D$24)</f>
-        <v>43242.856249988428</v>
+        <v>43242.877777766204</v>
       </c>
       <c r="H26" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,H$25,$D$24)</f>
@@ -6545,19 +6630,19 @@
       </c>
       <c r="I26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,I$25,$D$24)</f>
-        <v>35897.339890800002</v>
+        <v>126805.39914920001</v>
       </c>
       <c r="J26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,J$25,$D$24)</f>
-        <v>55.376710000000003</v>
+        <v>200.85151999999999</v>
       </c>
       <c r="K26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,K$25,$D$24)</f>
-        <v>20.171530000000001</v>
+        <v>104.21605</v>
       </c>
       <c r="L26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,L$25,$D$24)</f>
-        <v>13083.1018291</v>
+        <v>65817.282629099995</v>
       </c>
       <c r="M26" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,M$25,$D$24)</f>
@@ -6565,7 +6650,7 @@
       </c>
       <c r="N26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,N$25,$D$24)</f>
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="O26" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,O$25,$D$24)</f>
@@ -6573,15 +6658,15 @@
       </c>
       <c r="P26" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,P$25,$D$24)</f>
-        <v>43242.855868067127</v>
+        <v>43242.877543472219</v>
       </c>
       <c r="Q26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,Q$25,$D$24)</f>
-        <v>25849774</v>
+        <v>25855299</v>
       </c>
       <c r="R26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,R$25,$D$24)</f>
-        <v>25849823</v>
+        <v>25855496</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -6590,27 +6675,27 @@
       </c>
       <c r="B27" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,B$25,$D$24)</f>
-        <v>8010</v>
+        <v>7895.79</v>
       </c>
       <c r="C27" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,C$25,$D$24)</f>
-        <v>8014</v>
+        <v>7904.88</v>
       </c>
       <c r="D27" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,D$25,$D$24)</f>
-        <v>8008.65</v>
+        <v>7885</v>
       </c>
       <c r="E27" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,E$25,$D$24)</f>
-        <v>8010.33</v>
+        <v>7894.92</v>
       </c>
       <c r="F27" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,F$25,$D$24)</f>
-        <v>43242.855555555558</v>
+        <v>43242.877083333333</v>
       </c>
       <c r="G27" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,G$25,$D$24)</f>
-        <v>43242.856249988428</v>
+        <v>43242.877777766204</v>
       </c>
       <c r="H27" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,H$25,$D$24)</f>
@@ -6618,19 +6703,19 @@
       </c>
       <c r="I27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,I$25,$D$24)</f>
-        <v>13208.135038259999</v>
+        <v>432151.56664603</v>
       </c>
       <c r="J27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,J$25,$D$24)</f>
-        <v>1.6486810000000001</v>
+        <v>54.730727999999999</v>
       </c>
       <c r="K27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,K$25,$D$24)</f>
-        <v>1.1292070000000001</v>
+        <v>26.197265000000002</v>
       </c>
       <c r="L27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,L$25,$D$24)</f>
-        <v>9047.6366906399999</v>
+        <v>206878.85267831001</v>
       </c>
       <c r="M27" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,M$25,$D$24)</f>
@@ -6638,7 +6723,7 @@
       </c>
       <c r="N27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,N$25,$D$24)</f>
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="O27" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,O$25,$D$24)</f>
@@ -6646,15 +6731,15 @@
       </c>
       <c r="P27" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,P$25,$D$24)</f>
-        <v>43242.855850752312</v>
+        <v>43242.877556319443</v>
       </c>
       <c r="Q27" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,Q$25,$D$24)</f>
-        <v>45059699</v>
+        <v>45067449</v>
       </c>
       <c r="R27" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,R$25,$D$24)</f>
-        <v>45059738</v>
+        <v>45067780</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -6663,27 +6748,27 @@
       </c>
       <c r="B28" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,B$25,$D$24)</f>
-        <v>129.01</v>
+        <v>126.6</v>
       </c>
       <c r="C28" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,C$25,$D$24)</f>
-        <v>129.01</v>
+        <v>126.88</v>
       </c>
       <c r="D28" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,D$25,$D$24)</f>
-        <v>129.01</v>
+        <v>126.57</v>
       </c>
       <c r="E28" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,E$25,$D$24)</f>
-        <v>129.01</v>
+        <v>126.84</v>
       </c>
       <c r="F28" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,F$25,$D$24)</f>
-        <v>43242.855555555558</v>
+        <v>43242.877083333333</v>
       </c>
       <c r="G28" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,G$25,$D$24)</f>
-        <v>43242.856249988428</v>
+        <v>43242.877777766204</v>
       </c>
       <c r="H28" s="23" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,H$25,$D$24)</f>
@@ -6691,19 +6776,19 @@
       </c>
       <c r="I28" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,I$25,$D$24)</f>
-        <v>906.93900989999997</v>
+        <v>2290.6948185000001</v>
       </c>
       <c r="J28" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,J$25,$D$24)</f>
-        <v>7.0299899999999997</v>
+        <v>18.09226</v>
       </c>
       <c r="K28" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,K$25,$D$24)</f>
-        <v>2.0299900000000002</v>
+        <v>1.91229</v>
       </c>
       <c r="L28" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,L$25,$D$24)</f>
-        <v>261.88900990000002</v>
+        <v>242.5468688</v>
       </c>
       <c r="M28" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,M$25,$D$24)</f>
@@ -6711,7 +6796,7 @@
       </c>
       <c r="N28" s="30">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,N$25,$D$24)</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O28" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,O$25,$D$24)</f>
@@ -6719,15 +6804,15 @@
       </c>
       <c r="P28" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,P$25,$D$24)</f>
-        <v>43242.855832175926</v>
+        <v>43242.877562800924</v>
       </c>
       <c r="Q28" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,Q$25,$D$24)</f>
-        <v>7458769</v>
+        <v>7459328</v>
       </c>
       <c r="R28" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,R$25,$D$24)</f>
-        <v>7458771</v>
+        <v>7459347</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -6737,10 +6822,11 @@
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B30" s="32"/>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="32">
         <v>3</v>
@@ -6748,7 +6834,7 @@
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
@@ -6763,13 +6849,13 @@
         <v>26</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>36</v>
@@ -6778,28 +6864,28 @@
         <v>19</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6808,27 +6894,27 @@
       </c>
       <c r="B32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,B$25,$D$30)</f>
-        <v>647.54</v>
+        <v>638.54999999999995</v>
       </c>
       <c r="C32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,C$25,$D$30)</f>
-        <v>648.74</v>
+        <v>639.25</v>
       </c>
       <c r="D32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,D$25,$D$30)</f>
-        <v>647.54</v>
+        <v>630.70000000000005</v>
       </c>
       <c r="E32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,E$25,$D$30)</f>
-        <v>647.78</v>
+        <v>632.41</v>
       </c>
       <c r="F32" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,F$25,$D$30)</f>
-        <v>43242.854166666664</v>
+        <v>43242.875</v>
       </c>
       <c r="G32" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,G$25,$D$30)</f>
-        <v>43242.86458332176</v>
+        <v>43242.885416655095</v>
       </c>
       <c r="H32" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,H$25,$D$30)</f>
@@ -6836,19 +6922,19 @@
       </c>
       <c r="I32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,I$25,$D$30)</f>
-        <v>164757.77615779999</v>
+        <v>1188467.5749425001</v>
       </c>
       <c r="J32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,J$25,$D$30)</f>
-        <v>254.19544999999999</v>
+        <v>1873.82339</v>
       </c>
       <c r="K32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,K$25,$D$30)</f>
-        <v>115.78400000000001</v>
+        <v>834.26562999999999</v>
       </c>
       <c r="L32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,L$25,$D$30)</f>
-        <v>75060.987934000004</v>
+        <v>529099.95591859997</v>
       </c>
       <c r="M32" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,M$25,$D$30)</f>
@@ -6856,7 +6942,7 @@
       </c>
       <c r="N32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,N$25,$D$30)</f>
-        <v>226</v>
+        <v>1915</v>
       </c>
       <c r="O32" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,O$25,$D$30)</f>
@@ -6864,15 +6950,15 @@
       </c>
       <c r="P32" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,P$25,$D$30)</f>
-        <v>43242.855868078703</v>
+        <v>43242.877543472219</v>
       </c>
       <c r="Q32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,Q$25,$D$30)</f>
-        <v>25849598</v>
+        <v>25853582</v>
       </c>
       <c r="R32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,R$25,$D$30)</f>
-        <v>25849823</v>
+        <v>25855496</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6881,27 +6967,27 @@
       </c>
       <c r="B33" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,B$25,$D$30)</f>
-        <v>8019.03</v>
+        <v>7949.99</v>
       </c>
       <c r="C33" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,C$25,$D$30)</f>
-        <v>8019.03</v>
+        <v>7953.94</v>
       </c>
       <c r="D33" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,D$25,$D$30)</f>
-        <v>8007.06</v>
+        <v>7885</v>
       </c>
       <c r="E33" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,E$25,$D$30)</f>
-        <v>8010.33</v>
+        <v>7894.92</v>
       </c>
       <c r="F33" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,F$25,$D$30)</f>
-        <v>43242.854166666664</v>
+        <v>43242.875</v>
       </c>
       <c r="G33" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,G$25,$D$30)</f>
-        <v>43242.86458332176</v>
+        <v>43242.885416655095</v>
       </c>
       <c r="H33" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,H$25,$D$30)</f>
@@ -6909,19 +6995,19 @@
       </c>
       <c r="I33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,I$25,$D$30)</f>
-        <v>119886.51986741</v>
+        <v>4553073.03553004</v>
       </c>
       <c r="J33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,J$25,$D$30)</f>
-        <v>14.964282000000001</v>
+        <v>575.74172899999996</v>
       </c>
       <c r="K33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,K$25,$D$30)</f>
-        <v>5.3585729999999998</v>
+        <v>173.91591299999999</v>
       </c>
       <c r="L33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,L$25,$D$30)</f>
-        <v>42935.8247538</v>
+        <v>1375682.68134701</v>
       </c>
       <c r="M33" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,M$25,$D$30)</f>
@@ -6929,7 +7015,7 @@
       </c>
       <c r="N33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,N$25,$D$30)</f>
-        <v>206</v>
+        <v>3175</v>
       </c>
       <c r="O33" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,O$25,$D$30)</f>
@@ -6937,15 +7023,15 @@
       </c>
       <c r="P33" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,P$25,$D$30)</f>
-        <v>43242.855850763888</v>
+        <v>43242.877556296298</v>
       </c>
       <c r="Q33" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,Q$25,$D$30)</f>
-        <v>45059533</v>
+        <v>45064606</v>
       </c>
       <c r="R33" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,R$25,$D$30)</f>
-        <v>45059738</v>
+        <v>45067780</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6954,27 +7040,27 @@
       </c>
       <c r="B34" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,B$25,$D$30)</f>
-        <v>129.13</v>
+        <v>127.99</v>
       </c>
       <c r="C34" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,C$25,$D$30)</f>
-        <v>129.13999999999999</v>
+        <v>127.99</v>
       </c>
       <c r="D34" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,D$25,$D$30)</f>
-        <v>129</v>
+        <v>126.41</v>
       </c>
       <c r="E34" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,E$25,$D$30)</f>
-        <v>129.01</v>
+        <v>126.84</v>
       </c>
       <c r="F34" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,F$25,$D$30)</f>
-        <v>43242.854166666664</v>
+        <v>43242.875</v>
       </c>
       <c r="G34" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,G$25,$D$30)</f>
-        <v>43242.86458332176</v>
+        <v>43242.885416655095</v>
       </c>
       <c r="H34" s="23" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,H$25,$D$30)</f>
@@ -6982,19 +7068,19 @@
       </c>
       <c r="I34" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,I$25,$D$30)</f>
-        <v>4664.1792998999999</v>
+        <v>130116.69737160001</v>
       </c>
       <c r="J34" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,J$25,$D$30)</f>
-        <v>36.126399999999997</v>
+        <v>1025.45604</v>
       </c>
       <c r="K34" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,K$25,$D$30)</f>
-        <v>30.489180000000001</v>
+        <v>154.00041999999999</v>
       </c>
       <c r="L34" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,L$25,$D$30)</f>
-        <v>3936.8511146000001</v>
+        <v>19530.568294000001</v>
       </c>
       <c r="M34" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,M$25,$D$30)</f>
@@ -7002,7 +7088,7 @@
       </c>
       <c r="N34" s="30">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,N$25,$D$30)</f>
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="O34" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,O$25,$D$30)</f>
@@ -7010,15 +7096,15 @@
       </c>
       <c r="P34" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,P$25,$D$30)</f>
-        <v>43242.855832175926</v>
+        <v>43242.877562800924</v>
       </c>
       <c r="Q34" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,Q$25,$D$30)</f>
-        <v>7458755</v>
+        <v>7459060</v>
       </c>
       <c r="R34" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,R$25,$D$30)</f>
-        <v>7458771</v>
+        <v>7459347</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">

--- a/doc/crypto.xlsx
+++ b/doc/crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="p:\crypto-rtd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98D4FB6-DC11-43C8-92BC-3FADAB7037D9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EC7F5C-D567-40A7-9CBF-1166113CB32B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13620" activeTab="1" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
   </bookViews>
@@ -226,7 +226,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -497,8 +497,8 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="6"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
@@ -527,7 +527,57 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="h:mm:ss;@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -601,6 +651,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -638,6 +723,439 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -1267,57 +1785,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1391,41 +1859,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -1445,439 +1878,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2795,7 +2795,7 @@
   <volType type="realTimeData">
     <main first="crypto-debug">
       <tp>
-        <v>8349.99</v>
+        <v>8329.82</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -2803,7 +2803,7 @@
         <tr r="E6" s="1"/>
       </tp>
       <tp>
-        <v>133.41999999999999</v>
+        <v>133.25</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -2811,7 +2811,7 @@
         <tr r="E7" s="1"/>
       </tp>
       <tp>
-        <v>694.85</v>
+        <v>691.22</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -2845,7 +2845,7 @@
         <tr r="K16" s="1"/>
       </tp>
       <tp t="b">
-        <v>1</v>
+        <v>0</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -2861,7 +2861,7 @@
         <tr r="K17" s="1"/>
       </tp>
       <tp>
-        <v>0.67410999999999999</v>
+        <v>0.67052999999999996</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -2869,7 +2869,7 @@
         <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>7.3899999999999999E-3</v>
+        <v>7.3590000000000001E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -2877,7 +2877,7 @@
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>17730</v>
+        <v>17708</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2885,7 +2885,7 @@
         <tr r="M7" s="1"/>
       </tp>
       <tp>
-        <v>117507</v>
+        <v>118969</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2893,7 +2893,7 @@
         <tr r="M5" s="1"/>
       </tp>
       <tp>
-        <v>198605</v>
+        <v>200358</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2901,7 +2901,7 @@
         <tr r="M6" s="1"/>
       </tp>
       <tp>
-        <v>15430</v>
+        <v>15528</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -2909,7 +2909,7 @@
         <tr r="M8" s="1"/>
       </tp>
       <tp>
-        <v>7953.94</v>
+        <v>7875.13</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -2918,7 +2918,7 @@
         <tr r="C33" s="1"/>
       </tp>
       <tp>
-        <v>7904.88</v>
+        <v>7873.84</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -2927,7 +2927,7 @@
         <tr r="C27" s="1"/>
       </tp>
       <tp>
-        <v>639.25</v>
+        <v>628</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -2936,7 +2936,7 @@
         <tr r="C32" s="1"/>
       </tp>
       <tp>
-        <v>633</v>
+        <v>628</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -2945,7 +2945,7 @@
         <tr r="C26" s="1"/>
       </tp>
       <tp>
-        <v>127.99</v>
+        <v>125.99</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -2954,7 +2954,7 @@
         <tr r="C34" s="1"/>
       </tp>
       <tp>
-        <v>126.88</v>
+        <v>125.99</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -2981,7 +2981,7 @@
         <tr r="O27" s="1"/>
       </tp>
       <tp>
-        <v>1111209566</v>
+        <v>1101711123</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -2989,7 +2989,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>26378741</v>
+        <v>26536926</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -2997,7 +2997,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>292290.86</v>
+        <v>292767.62</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3023,7 +3023,7 @@
         <tr r="O32" s="1"/>
       </tp>
       <tp>
-        <v>-4.7600000000000003E-2</v>
+        <v>-5.1209999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3031,7 +3031,7 @@
         <tr r="N7" s="1"/>
       </tp>
       <tp>
-        <v>-5.3350000000000002E-2</v>
+        <v>-5.5539999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3039,7 +3039,7 @@
         <tr r="N6" s="1"/>
       </tp>
       <tp>
-        <v>-8.4860000000000005E-2</v>
+        <v>-8.9639999999999997E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3047,7 +3047,7 @@
         <tr r="N5" s="1"/>
       </tp>
       <tp>
-        <v>-6.2740000000000004E-2</v>
+        <v>-6.3200000000000006E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3055,7 +3055,7 @@
         <tr r="N8" s="1"/>
       </tp>
       <tp>
-        <v>638.54999999999995</v>
+        <v>627.58000000000004</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3064,7 +3064,7 @@
         <tr r="B32" s="1"/>
       </tp>
       <tp>
-        <v>631.99</v>
+        <v>626.78</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3073,7 +3073,7 @@
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>7949.99</v>
+        <v>7874</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3082,7 +3082,7 @@
         <tr r="B33" s="1"/>
       </tp>
       <tp>
-        <v>7895.79</v>
+        <v>7867.67</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3091,7 +3091,7 @@
         <tr r="B27" s="1"/>
       </tp>
       <tp>
-        <v>127.99</v>
+        <v>125.96</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3100,7 +3100,7 @@
         <tr r="B34" s="1"/>
       </tp>
       <tp>
-        <v>126.6</v>
+        <v>125.96</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3125,7 +3125,7 @@
         <tr r="B10" s="1"/>
       </tp>
       <tp>
-        <v>7.0959999999999999E-3</v>
+        <v>7.0879999999999997E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3133,7 +3133,7 @@
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>154.00041999999999</v>
+        <v>73.565010000000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3142,7 +3142,7 @@
         <tr r="K34" s="1"/>
       </tp>
       <tp>
-        <v>1.91229</v>
+        <v>72.569550000000007</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3151,7 +3151,7 @@
         <tr r="K28" s="1"/>
       </tp>
       <tp>
-        <v>834.26562999999999</v>
+        <v>233.66502</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3160,7 +3160,7 @@
         <tr r="K32" s="1"/>
       </tp>
       <tp>
-        <v>104.21605</v>
+        <v>70.608239999999995</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3169,7 +3169,7 @@
         <tr r="K26" s="1"/>
       </tp>
       <tp>
-        <v>173.91591299999999</v>
+        <v>19.421014</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3178,7 +3178,7 @@
         <tr r="K33" s="1"/>
       </tp>
       <tp>
-        <v>26.197265000000002</v>
+        <v>3.8982540000000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3211,7 +3211,7 @@
         <tr r="L17" s="1"/>
       </tp>
       <tp>
-        <v>7.1199999999999996E-3</v>
+        <v>7.1219999999999999E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3219,7 +3219,7 @@
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>7.9670000000000001E-5</v>
+        <v>7.9660000000000006E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3227,7 +3227,7 @@
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>9.1700000000000003E-6</v>
+        <v>9.1900000000000001E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3235,7 +3235,7 @@
         <tr r="I11" s="1"/>
       </tp>
       <tp>
-        <v>8.0779999999999996E-5</v>
+        <v>8.0690000000000002E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -3243,7 +3243,7 @@
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>9.7200000000000001E-6</v>
+        <v>9.6600000000000007E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
@@ -3251,7 +3251,7 @@
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>9.1600000000000004E-6</v>
+        <v>9.1800000000000002E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3259,7 +3259,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>7.9610000000000005E-5</v>
+        <v>7.9640000000000003E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3275,7 +3275,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>-4.2169999999999999E-2</v>
+        <v>-4.2229999999999997E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3283,7 +3283,7 @@
         <tr r="O8" s="1"/>
       </tp>
       <tp>
-        <v>1873.82339</v>
+        <v>309.8476</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3292,7 +3292,7 @@
         <tr r="J32" s="1"/>
       </tp>
       <tp>
-        <v>200.85151999999999</v>
+        <v>89.439109999999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3301,7 +3301,7 @@
         <tr r="J26" s="1"/>
       </tp>
       <tp>
-        <v>423</v>
+        <v>896</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3309,7 +3309,7 @@
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>0.17999000000000001</v>
+        <v>7.3600000000000002E-3</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3317,7 +3317,7 @@
         <tr r="J15" s="1"/>
       </tp>
       <tp>
-        <v>1.0999000000000001</v>
+        <v>0.9</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3325,7 +3325,7 @@
         <tr r="J17" s="1"/>
       </tp>
       <tp>
-        <v>1.4399E-2</v>
+        <v>1.4E-5</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3333,7 +3333,7 @@
         <tr r="J16" s="1"/>
       </tp>
       <tp>
-        <v>0.4</v>
+        <v>2.3238799999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3342,7 +3342,7 @@
         <tr r="E21" s="1"/>
       </tp>
       <tp>
-        <v>1.9652799999999999</v>
+        <v>0.5</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3351,7 +3351,7 @@
         <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>76.700329999999994</v>
+        <v>0.9</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3360,7 +3360,7 @@
         <tr r="E20" s="1"/>
       </tp>
       <tp>
-        <v>0.56000000000000005</v>
+        <v>8.7048900000000007</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3369,7 +3369,7 @@
         <tr r="E17" s="1"/>
       </tp>
       <tp>
-        <v>2.22519</v>
+        <v>0.254</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3378,7 +3378,7 @@
         <tr r="E18" s="1"/>
       </tp>
       <tp>
-        <v>0.61600999999999995</v>
+        <v>0.14535000000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3387,7 +3387,7 @@
         <tr r="E15" s="1"/>
       </tp>
       <tp>
-        <v>1.9954700000000001</v>
+        <v>0.69264000000000003</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3396,7 +3396,7 @@
         <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>-6.34</v>
+        <v>-6.8</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3404,7 +3404,7 @@
         <tr r="O7" s="1"/>
       </tp>
       <tp>
-        <v>-444.89</v>
+        <v>-462.94</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3412,7 +3412,7 @@
         <tr r="O6" s="1"/>
       </tp>
       <tp>
-        <v>-58.65</v>
+        <v>-61.82</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3420,7 +3420,7 @@
         <tr r="O5" s="1"/>
       </tp>
       <tp>
-        <v>0.22</v>
+        <v>0.21</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3428,7 +3428,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>0.54</v>
+        <v>0.76</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3436,7 +3436,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>9.7799999999999994</v>
+        <v>2.89</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3460,7 +3460,7 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>1025.45604</v>
+        <v>118.16673</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3469,7 +3469,7 @@
         <tr r="J34" s="1"/>
       </tp>
       <tp>
-        <v>18.09226</v>
+        <v>75.430670000000006</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3478,7 +3478,7 @@
         <tr r="J28" s="1"/>
       </tp>
       <tp>
-        <v>54.730727999999999</v>
+        <v>9.9152109999999993</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3487,7 +3487,7 @@
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>575.74172899999996</v>
+        <v>34.377370999999997</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3520,7 +3520,7 @@
         <tr r="C7" s="1"/>
       </tp>
       <tp>
-        <v>2.02</v>
+        <v>0.55000000000000004</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3528,7 +3528,7 @@
         <tr r="J9" s="1"/>
       </tp>
       <tp>
-        <v>424781</v>
+        <v>13035</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3536,7 +3536,7 @@
         <tr r="F11" s="1"/>
       </tp>
       <tp>
-        <v>7459347</v>
+        <v>7459782</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3544,7 +3544,7 @@
         <tr r="M17" s="1"/>
       </tp>
       <tp>
-        <v>45067787</v>
+        <v>45072169</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3552,7 +3552,7 @@
         <tr r="M16" s="1"/>
       </tp>
       <tp>
-        <v>25855511</v>
+        <v>25858665</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3578,7 +3578,7 @@
         <tr r="H33" s="1"/>
       </tp>
       <tp>
-        <v>7885</v>
+        <v>7866.65</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3587,7 +3587,7 @@
         <tr r="D33" s="1"/>
       </tp>
       <tp>
-        <v>7885</v>
+        <v>7866.65</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3596,7 +3596,7 @@
         <tr r="D27" s="1"/>
       </tp>
       <tp>
-        <v>126.57</v>
+        <v>125.69</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3605,7 +3605,7 @@
         <tr r="D28" s="1"/>
       </tp>
       <tp>
-        <v>126.41</v>
+        <v>125.62</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3614,7 +3614,7 @@
         <tr r="D34" s="1"/>
       </tp>
       <tp>
-        <v>126.84</v>
+        <v>125.99</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3623,7 +3623,7 @@
         <tr r="E28" s="1"/>
       </tp>
       <tp>
-        <v>126.84</v>
+        <v>125.99</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3632,7 +3632,7 @@
         <tr r="E34" s="1"/>
       </tp>
       <tp>
-        <v>288</v>
+        <v>38</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3641,7 +3641,7 @@
         <tr r="N34" s="1"/>
       </tp>
       <tp>
-        <v>3175</v>
+        <v>392</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3650,7 +3650,7 @@
         <tr r="N33" s="1"/>
       </tp>
       <tp>
-        <v>20</v>
+        <v>13</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3659,7 +3659,7 @@
         <tr r="N28" s="1"/>
       </tp>
       <tp>
-        <v>332</v>
+        <v>116</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3668,7 +3668,7 @@
         <tr r="N27" s="1"/>
       </tp>
       <tp>
-        <v>1915</v>
+        <v>260</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3677,7 +3677,7 @@
         <tr r="N32" s="1"/>
       </tp>
       <tp>
-        <v>198</v>
+        <v>93</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3686,7 +3686,7 @@
         <tr r="N26" s="1"/>
       </tp>
       <tp>
-        <v>7459348</v>
+        <v>7459782</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3694,7 +3694,7 @@
         <tr r="N17" s="1"/>
       </tp>
       <tp>
-        <v>6567499</v>
+        <v>6567886</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3702,7 +3702,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>39187710</v>
+        <v>39191688</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3710,7 +3710,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>22952771</v>
+        <v>22955468</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3718,7 +3718,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>0.15</v>
+        <v>8.26</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3726,7 +3726,7 @@
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>46051</v>
+        <v>159363</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3752,7 +3752,7 @@
         <tr r="H26" s="1"/>
       </tp>
       <tp>
-        <v>45067787</v>
+        <v>45072169</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3760,7 +3760,7 @@
         <tr r="N16" s="1"/>
       </tp>
       <tp>
-        <v>630.70000000000005</v>
+        <v>626.39</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3769,7 +3769,7 @@
         <tr r="D26" s="1"/>
       </tp>
       <tp>
-        <v>630.70000000000005</v>
+        <v>626</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3778,7 +3778,7 @@
         <tr r="D32" s="1"/>
       </tp>
       <tp>
-        <v>847</v>
+        <v>2145</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3786,7 +3786,7 @@
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>632.41</v>
+        <v>627.86</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3795,7 +3795,7 @@
         <tr r="E32" s="1"/>
       </tp>
       <tp>
-        <v>632.41</v>
+        <v>627.86</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3804,7 +3804,7 @@
         <tr r="E26" s="1"/>
       </tp>
       <tp>
-        <v>7894.92</v>
+        <v>7872</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3813,7 +3813,7 @@
         <tr r="E27" s="1"/>
       </tp>
       <tp>
-        <v>7894.92</v>
+        <v>7872</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3822,7 +3822,7 @@
         <tr r="E33" s="1"/>
       </tp>
       <tp>
-        <v>25855511</v>
+        <v>25858665</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3848,7 +3848,7 @@
         <tr r="H34" s="1"/>
       </tp>
       <tp>
-        <v>30.128710000000002</v>
+        <v>0.81967999999999996</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3857,7 +3857,7 @@
         <tr r="A21" s="1"/>
       </tp>
       <tp>
-        <v>3.4192499999999999</v>
+        <v>0.4</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3866,7 +3866,7 @@
         <tr r="A19" s="1"/>
       </tp>
       <tp>
-        <v>1.4</v>
+        <v>1.272</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3875,7 +3875,7 @@
         <tr r="A20" s="1"/>
       </tp>
       <tp>
-        <v>5.5179600000000004</v>
+        <v>0.70735999999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3884,7 +3884,7 @@
         <tr r="A17" s="1"/>
       </tp>
       <tp>
-        <v>3.0369999999999999</v>
+        <v>0.9</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3893,7 +3893,7 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>0.33184999999999998</v>
+        <v>0.95562000000000002</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3902,7 +3902,7 @@
         <tr r="A15" s="1"/>
       </tp>
       <tp>
-        <v>47.668230000000001</v>
+        <v>3</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3911,7 +3911,7 @@
         <tr r="A16" s="1"/>
       </tp>
       <tp>
-        <v>8.0809999999999994E-5</v>
+        <v>8.072E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -3919,7 +3919,7 @@
         <tr r="E10" s="1"/>
       </tp>
       <tp>
-        <v>107845</v>
+        <v>107136</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3981,7 +3981,7 @@
         <tr r="M28" s="1"/>
       </tp>
       <tp>
-        <v>-5.2690000000000001E-2</v>
+        <v>-5.1650000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3989,7 +3989,7 @@
         <tr r="N11" s="1"/>
       </tp>
       <tp>
-        <v>42959</v>
+        <v>43182</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3997,7 +3997,7 @@
         <tr r="M10" s="1"/>
       </tp>
       <tp>
-        <v>-1.337E-2</v>
+        <v>-1.068E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4005,7 +4005,7 @@
         <tr r="N10" s="1"/>
       </tp>
       <tp>
-        <v>9.7200000000000001E-6</v>
+        <v>9.6600000000000007E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
@@ -4013,7 +4013,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>43242.877559733795</v>
+        <v>43242.88648375</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4021,7 +4021,7 @@
         <tr r="O15" s="1"/>
       </tp>
       <tp>
-        <v>43242.877560046298</v>
+        <v>43242.886493530095</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4029,7 +4029,7 @@
         <tr r="O16" s="1"/>
       </tp>
       <tp>
-        <v>43242.877562708331</v>
+        <v>43242.886462858798</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4037,7 +4037,7 @@
         <tr r="O17" s="1"/>
       </tp>
       <tp>
-        <v>-3.4200000000000001E-2</v>
+        <v>-3.3309999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4045,7 +4045,7 @@
         <tr r="N9" s="1"/>
       </tp>
       <tp>
-        <v>42348</v>
+        <v>42166</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4053,7 +4053,7 @@
         <tr r="M9" s="1"/>
       </tp>
       <tp>
-        <v>7.3899999999999999E-3</v>
+        <v>7.3629999999999998E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -4061,7 +4061,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>7459328</v>
+        <v>7459770</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4070,7 +4070,7 @@
         <tr r="Q28" s="1"/>
       </tp>
       <tp>
-        <v>7459060</v>
+        <v>7459745</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4079,7 +4079,7 @@
         <tr r="Q34" s="1"/>
       </tp>
       <tp>
-        <v>45067449</v>
+        <v>45072053</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4088,7 +4088,7 @@
         <tr r="Q27" s="1"/>
       </tp>
       <tp>
-        <v>45064606</v>
+        <v>45071777</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4097,7 +4097,7 @@
         <tr r="Q33" s="1"/>
       </tp>
       <tp>
-        <v>25855299</v>
+        <v>25858573</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4106,7 +4106,7 @@
         <tr r="Q26" s="1"/>
       </tp>
       <tp>
-        <v>25853582</v>
+        <v>25858406</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4115,7 +4115,7 @@
         <tr r="Q32" s="1"/>
       </tp>
       <tp>
-        <v>631</v>
+        <v>626.4</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4123,7 +4123,7 @@
         <tr r="D3" s="2"/>
       </tp>
       <tp>
-        <v>7906.73</v>
+        <v>7877.15</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4131,7 +4131,7 @@
         <tr r="D4" s="2"/>
       </tp>
       <tp>
-        <v>43242.875</v>
+        <v>43242.885416666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4140,7 +4140,7 @@
         <tr r="F34" s="1"/>
       </tp>
       <tp>
-        <v>43242.877083333333</v>
+        <v>43242.886111111111</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4149,7 +4149,7 @@
         <tr r="F28" s="1"/>
       </tp>
       <tp>
-        <v>126.84</v>
+        <v>125.99</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4157,7 +4157,7 @@
         <tr r="I17" s="1"/>
       </tp>
       <tp>
-        <v>7904.88</v>
+        <v>7872</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4165,7 +4165,7 @@
         <tr r="I16" s="1"/>
       </tp>
       <tp>
-        <v>-1.08E-6</v>
+        <v>-8.6000000000000002E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4173,7 +4173,7 @@
         <tr r="O10" s="1"/>
       </tp>
       <tp>
-        <v>4553073.03553004</v>
+        <v>270517.96639274003</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4182,7 +4182,7 @@
         <tr r="I33" s="1"/>
       </tp>
       <tp>
-        <v>432151.56664603</v>
+        <v>78021.96712899</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4191,7 +4191,7 @@
         <tr r="I27" s="1"/>
       </tp>
       <tp>
-        <v>694.89</v>
+        <v>690.81</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -4207,7 +4207,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>697.4</v>
+        <v>3345.64</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4215,7 +4215,7 @@
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>9.6900000000000004E-6</v>
+        <v>9.6800000000000005E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4223,7 +4223,7 @@
         <tr r="C11" s="1"/>
       </tp>
       <tp>
-        <v>46217.508029999997</v>
+        <v>46504.196129999997</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4231,7 +4231,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>0.62909999999999999</v>
+        <v>0.626</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4239,7 +4239,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>5268533.5193525003</v>
+        <v>5400620.9120832998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4247,7 +4247,7 @@
         <tr r="L8" s="1"/>
       </tp>
       <tp>
-        <v>43242.877777766204</v>
+        <v>43242.886805543982</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4256,7 +4256,7 @@
         <tr r="G26" s="1"/>
       </tp>
       <tp>
-        <v>43242.885416655095</v>
+        <v>43242.89583332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4265,7 +4265,7 @@
         <tr r="G32" s="1"/>
       </tp>
       <tp>
-        <v>43242.877777766204</v>
+        <v>43242.886805543982</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4274,7 +4274,7 @@
         <tr r="G27" s="1"/>
       </tp>
       <tp>
-        <v>43242.877777766204</v>
+        <v>43242.886805543982</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4283,7 +4283,7 @@
         <tr r="G28" s="1"/>
       </tp>
       <tp>
-        <v>43242.885416655095</v>
+        <v>43242.89583332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4292,7 +4292,7 @@
         <tr r="G33" s="1"/>
       </tp>
       <tp>
-        <v>43242.885416655095</v>
+        <v>43242.89583332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4301,7 +4301,7 @@
         <tr r="G34" s="1"/>
       </tp>
       <tp>
-        <v>126805.39914920001</v>
+        <v>56089.4772113</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4310,7 +4310,7 @@
         <tr r="I26" s="1"/>
       </tp>
       <tp>
-        <v>1188467.5749425001</v>
+        <v>194331.6813198</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4319,7 +4319,7 @@
         <tr r="I32" s="1"/>
       </tp>
       <tp>
-        <v>1.4950000000000001</v>
+        <v>0.69</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4327,7 +4327,7 @@
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>8.8403999999999996E-2</v>
+        <v>1</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4335,7 +4335,7 @@
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>0.33184999999999998</v>
+        <v>0.95562000000000002</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4343,7 +4343,7 @@
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>0.63</v>
+        <v>0.62690000000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4359,7 +4359,7 @@
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>43242.877083333333</v>
+        <v>43242.886111111111</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4368,7 +4368,7 @@
         <tr r="F26" s="1"/>
       </tp>
       <tp>
-        <v>43242.875</v>
+        <v>43242.885416666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4377,7 +4377,7 @@
         <tr r="F32" s="1"/>
       </tp>
       <tp>
-        <v>632.46</v>
+        <v>627.86</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4385,7 +4385,7 @@
         <tr r="I15" s="1"/>
       </tp>
       <tp>
-        <v>133.5</v>
+        <v>133.26</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -4393,7 +4393,7 @@
         <tr r="D7" s="1"/>
       </tp>
       <tp>
-        <v>8348</v>
+        <v>8332</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -4401,7 +4401,7 @@
         <tr r="D6" s="1"/>
       </tp>
       <tp>
-        <v>1375682.68134701</v>
+        <v>152843.98940701</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4410,7 +4410,7 @@
         <tr r="L33" s="1"/>
       </tp>
       <tp>
-        <v>19530.568294000001</v>
+        <v>9267.6257091000007</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4419,7 +4419,7 @@
         <tr r="L34" s="1"/>
       </tp>
       <tp>
-        <v>206878.85267831001</v>
+        <v>30683.260372140001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4428,7 +4428,7 @@
         <tr r="L27" s="1"/>
       </tp>
       <tp>
-        <v>242.5468688</v>
+        <v>9142.2339343999993</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4437,7 +4437,7 @@
         <tr r="L28" s="1"/>
       </tp>
       <tp>
-        <v>529099.95591859997</v>
+        <v>146585.28732870001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4446,7 +4446,7 @@
         <tr r="L32" s="1"/>
       </tp>
       <tp>
-        <v>65817.282629099995</v>
+        <v>44292.423157800004</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4455,7 +4455,7 @@
         <tr r="L26" s="1"/>
       </tp>
       <tp>
-        <v>629.83000000000004</v>
+        <v>626.4</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4463,7 +4463,7 @@
         <tr r="B3" s="2"/>
       </tp>
       <tp>
-        <v>2111.7884368700002</v>
+        <v>2114.8736696000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4471,7 +4471,7 @@
         <tr r="L9" s="1"/>
       </tp>
       <tp>
-        <v>24617.546077999999</v>
+        <v>24822.945764</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4479,7 +4479,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>0.62829000000000002</v>
+        <v>0.626</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4487,7 +4487,7 @@
         <tr r="B8" s="1"/>
       </tp>
       <tp>
-        <v>631</v>
+        <v>626.41</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4495,7 +4495,7 @@
         <tr r="C3" s="2"/>
       </tp>
       <tp>
-        <v>5.9999999999999995E-8</v>
+        <v>2E-8</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4503,7 +4503,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>130116.69737160001</v>
+        <v>14873.715829299999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4512,7 +4512,7 @@
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>2290.6948185000001</v>
+        <v>9502.4805570000008</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4521,7 +4521,7 @@
         <tr r="I28" s="1"/>
       </tp>
       <tp>
-        <v>115813.86029</v>
+        <v>117654.35584</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4529,7 +4529,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>7905.87</v>
+        <v>7877.15</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4537,7 +4537,7 @@
         <tr r="C4" s="2"/>
       </tp>
       <tp>
-        <v>-5.0999999999999999E-7</v>
+        <v>-4.9999999999999998E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4545,7 +4545,7 @@
         <tr r="O11" s="1"/>
       </tp>
       <tp>
-        <v>7905.86</v>
+        <v>7875.49</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4553,7 +4553,7 @@
         <tr r="B4" s="2"/>
       </tp>
       <tp>
-        <v>43242.875</v>
+        <v>43242.885416666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4562,7 +4562,7 @@
         <tr r="F33" s="1"/>
       </tp>
       <tp>
-        <v>43242.877083333333</v>
+        <v>43242.886111111111</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4571,7 +4571,7 @@
         <tr r="F27" s="1"/>
       </tp>
       <tp>
-        <v>7885</v>
+        <v>7866.65</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4579,7 +4579,7 @@
         <tr r="B6" s="1"/>
       </tp>
       <tp>
-        <v>126.63</v>
+        <v>125.76</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4587,7 +4587,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>8023174.5499999998</v>
+        <v>8241490.5700000003</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4595,7 +4595,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>7459347</v>
+        <v>7459782</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4604,7 +4604,7 @@
         <tr r="R34" s="1"/>
       </tp>
       <tp>
-        <v>7459347</v>
+        <v>7459782</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4613,7 +4613,7 @@
         <tr r="R28" s="1"/>
       </tp>
       <tp>
-        <v>45067780</v>
+        <v>45072168</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4622,7 +4622,7 @@
         <tr r="R27" s="1"/>
       </tp>
       <tp>
-        <v>45067780</v>
+        <v>45072168</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4631,7 +4631,7 @@
         <tr r="R33" s="1"/>
       </tp>
       <tp>
-        <v>632.44000000000005</v>
+        <v>627.08000000000004</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4640,7 +4640,7 @@
         <tr r="B16" s="1"/>
       </tp>
       <tp>
-        <v>632.45000000000005</v>
+        <v>627.09</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4649,7 +4649,7 @@
         <tr r="B15" s="1"/>
       </tp>
       <tp>
-        <v>632.4</v>
+        <v>626.65</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4658,7 +4658,7 @@
         <tr r="B18" s="1"/>
       </tp>
       <tp>
-        <v>632.41</v>
+        <v>627.05999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4667,7 +4667,7 @@
         <tr r="B17" s="1"/>
       </tp>
       <tp>
-        <v>631.51</v>
+        <v>626.51</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4676,7 +4676,7 @@
         <tr r="B20" s="1"/>
       </tp>
       <tp>
-        <v>632.21</v>
+        <v>626.63</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4685,7 +4685,7 @@
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>631.5</v>
+        <v>626.49</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4694,7 +4694,7 @@
         <tr r="B21" s="1"/>
       </tp>
       <tp>
-        <v>633.32000000000005</v>
+        <v>628.30999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4703,7 +4703,7 @@
         <tr r="D21" s="1"/>
       </tp>
       <tp>
-        <v>633.24</v>
+        <v>628.04999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4712,7 +4712,7 @@
         <tr r="D19" s="1"/>
       </tp>
       <tp>
-        <v>633.28</v>
+        <v>628.08000000000004</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4721,7 +4721,7 @@
         <tr r="D20" s="1"/>
       </tp>
       <tp>
-        <v>633.12</v>
+        <v>628</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4730,7 +4730,7 @@
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>633.22</v>
+        <v>628.02</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4739,7 +4739,7 @@
         <tr r="D18" s="1"/>
       </tp>
       <tp>
-        <v>632.99</v>
+        <v>627.85</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4748,7 +4748,7 @@
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>633</v>
+        <v>627.86</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4757,7 +4757,7 @@
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>126.85</v>
+        <v>125.97</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4765,7 +4765,7 @@
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>-2.52E-4</v>
+        <v>-2.4499999999999999E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4773,7 +4773,7 @@
         <tr r="O9" s="1"/>
       </tp>
       <tp>
-        <v>7.9999999999999996E-6</v>
+        <v>1.0000000000000001E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4781,7 +4781,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>630.70000000000005</v>
+        <v>626</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4789,7 +4789,7 @@
         <tr r="B5" s="1"/>
       </tp>
       <tp>
-        <v>201241252.55893987</v>
+        <v>202728008.557116</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4797,7 +4797,7 @@
         <tr r="L6" s="1"/>
       </tp>
       <tp>
-        <v>6056248.0018558996</v>
+        <v>6084927.5137790004</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4805,7 +4805,7 @@
         <tr r="L7" s="1"/>
       </tp>
       <tp>
-        <v>632.45000000000005</v>
+        <v>627.09</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4813,7 +4813,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>39413.620000000003</v>
+        <v>319.02999999999997</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4821,7 +4821,7 @@
         <tr r="J8" s="1"/>
       </tp>
       <tp>
-        <v>25855496</v>
+        <v>25858665</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4830,7 +4830,7 @@
         <tr r="R32" s="1"/>
       </tp>
       <tp>
-        <v>25855496</v>
+        <v>25858665</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4839,7 +4839,7 @@
         <tr r="R26" s="1"/>
       </tp>
       <tp>
-        <v>632.99</v>
+        <v>627.85</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4847,7 +4847,7 @@
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>0.67459000000000002</v>
+        <v>0.67059999999999997</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -4855,7 +4855,7 @@
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>77602656.836393699</v>
+        <v>78680925.369091794</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4863,7 +4863,7 @@
         <tr r="L5" s="1"/>
       </tp>
       <tp>
-        <v>10468.815988869999</v>
+        <v>10372.48197879</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4871,7 +4871,7 @@
         <tr r="L11" s="1"/>
       </tp>
       <tp>
-        <v>2129.4463487100002</v>
+        <v>2141.8032580099998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4879,7 +4879,7 @@
         <tr r="L10" s="1"/>
       </tp>
       <tp>
-        <v>7904.7</v>
+        <v>7871.99</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4887,7 +4887,7 @@
         <tr r="I6" s="1"/>
       </tp>
       <tp>
-        <v>126.41</v>
+        <v>125.62</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4895,7 +4895,7 @@
         <tr r="B7" s="1"/>
       </tp>
       <tp>
-        <v>7894.92</v>
+        <v>7869.1</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4903,7 +4903,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>7.3680000000000004E-3</v>
+        <v>7.3600000000000002E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4911,7 +4911,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>43242.877556319443</v>
+        <v>43242.886491053243</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4920,7 +4920,7 @@
         <tr r="P27" s="1"/>
       </tp>
       <tp>
-        <v>43242.877562800924</v>
+        <v>43242.886462905095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4929,7 +4929,7 @@
         <tr r="P28" s="1"/>
       </tp>
       <tp>
-        <v>43242.877556296298</v>
+        <v>43242.886491030091</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4938,7 +4938,7 @@
         <tr r="P33" s="1"/>
       </tp>
       <tp>
-        <v>43242.877562800924</v>
+        <v>43242.88646292824</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4947,7 +4947,7 @@
         <tr r="P34" s="1"/>
       </tp>
       <tp>
-        <v>43242.877543472219</v>
+        <v>43242.886483796297</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4956,7 +4956,7 @@
         <tr r="P26" s="1"/>
       </tp>
       <tp>
-        <v>43242.877543472219</v>
+        <v>43242.886483773145</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4965,7 +4965,7 @@
         <tr r="P32" s="1"/>
       </tp>
       <tp>
-        <v>0.61600999999999995</v>
+        <v>0.14535000000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4973,7 +4973,7 @@
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>1.29</v>
+        <v>11.57254</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4981,7 +4981,7 @@
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>2E-3</v>
+        <v>0.14455899999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -5106,13 +5106,13 @@
     <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="41" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,L$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{596DAC26-1FB0-4FA0-9F2B-2F85949317B9}" name="FIRST_ID" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{596DAC26-1FB0-4FA0-9F2B-2F85949317B9}" name="FIRST_ID" dataDxfId="40" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,M$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{625DA386-D82A-4BD8-99A5-41F6984223F9}" name="LAST_ID" dataDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{625DA386-D82A-4BD8-99A5-41F6984223F9}" name="LAST_ID" dataDxfId="39" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,N$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B43DE4EC-1073-4EE5-AFA6-29717F6887CA}" name="TRADE_TIME" dataDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{B43DE4EC-1073-4EE5-AFA6-29717F6887CA}" name="TRADE_TIME" dataDxfId="38" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,O$14)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5121,59 +5121,59 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A25:R28" totalsRowShown="0" dataDxfId="40" tableBorderDxfId="39" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A25:R28" totalsRowShown="0" dataDxfId="37" tableBorderDxfId="36" dataCellStyle="Comma">
   <autoFilter ref="A25:R28" xr:uid="{BD9601BD-F222-4DBD-B404-C68EB6A96569}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{A75C3BB9-BD50-4A86-92A6-228C26DADEC8}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="38" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="35" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,B$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="37" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="34" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,C$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="36" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="33" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,D$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="35" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="32" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,E$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="34" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="31" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,F$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="33" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="30" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,G$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="32" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="29" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,H$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="31" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="28" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,I$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="30" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="27" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,J$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="29" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="26" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,K$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="28" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="25" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,L$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="27" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="24" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,M$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="26" dataCellStyle="Comma">
+    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="23" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,N$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{11BF3445-5968-4B64-972D-05C6CECCD6DE}" name="Event" dataDxfId="25" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{11BF3445-5968-4B64-972D-05C6CECCD6DE}" name="Event" dataDxfId="22" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,O$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="24" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="21" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,P$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="23" dataCellStyle="Comma">
+    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="20" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,Q$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="22" dataCellStyle="Comma">
+    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="19" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,R$25,$D$24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5182,59 +5182,59 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A31:R34" totalsRowShown="0" dataDxfId="21" tableBorderDxfId="20" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A31:R34" totalsRowShown="0" dataDxfId="18" tableBorderDxfId="17" dataCellStyle="Comma">
   <autoFilter ref="A31:R34" xr:uid="{04787891-A2B4-4F14-ADE0-2BC3B779F519}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{CD2685D4-7653-442A-A4D2-04D1D79D1D51}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="19" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="16" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,B$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="18" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="15" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,C$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="17" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="14" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,D$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="16" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="13" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,E$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="15" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="12" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,F$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="14" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="11" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,G$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="13" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="10" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,H$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="12" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="9" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,I$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="11" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="8" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,J$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="10" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="7" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,K$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="9" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="6" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,L$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="8" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="5" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,M$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="7" dataCellStyle="Comma">
+    <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="4" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,N$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{528B6C8B-64D5-45B1-8F49-30BB75CB0054}" name="Event" dataDxfId="6" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{528B6C8B-64D5-45B1-8F49-30BB75CB0054}" name="Event" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,O$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,P$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="4" dataCellStyle="Comma">
+    <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="1" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,Q$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,R$25,$D$30)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5579,15 +5579,15 @@
       </c>
       <c r="B3" s="2">
         <f>RTD(progId,,GDAX,$A3,B$2)</f>
-        <v>629.83000000000004</v>
+        <v>626.4</v>
       </c>
       <c r="C3" s="2">
         <f>RTD(progId,,GDAX,$A3,C$2)</f>
-        <v>631</v>
+        <v>626.41</v>
       </c>
       <c r="D3" s="2">
         <f>RTD(progId,,GDAX,$A3,D$2)</f>
-        <v>631</v>
+        <v>626.4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5596,15 +5596,15 @@
       </c>
       <c r="B4" s="2">
         <f>RTD(progId,,GDAX,$A4,B$2)</f>
-        <v>7905.86</v>
+        <v>7875.49</v>
       </c>
       <c r="C4" s="2">
         <f>RTD(progId,,GDAX,$A4,C$2)</f>
-        <v>7905.87</v>
+        <v>7877.15</v>
       </c>
       <c r="D4" s="2">
         <f>RTD(progId,,GDAX,$A4,D$2)</f>
-        <v>7906.73</v>
+        <v>7877.15</v>
       </c>
     </row>
   </sheetData>
@@ -5627,7 +5627,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
@@ -5640,7 +5640,7 @@
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="B5" s="2">
         <f>RTD(progId,,BINANCE,$A5,B$4)</f>
-        <v>630.70000000000005</v>
+        <v>626</v>
       </c>
       <c r="C5" s="2">
         <f>RTD(progId,,BINANCE,$A5,C$4)</f>
@@ -5747,51 +5747,51 @@
       </c>
       <c r="D5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,D$4)</f>
-        <v>694.89</v>
+        <v>690.81</v>
       </c>
       <c r="E5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,E$4)</f>
-        <v>694.85</v>
+        <v>691.22</v>
       </c>
       <c r="F5" s="2">
         <f>RTD(progId,,BINANCE,$A5,F$4)</f>
-        <v>0.33184999999999998</v>
+        <v>0.95562000000000002</v>
       </c>
       <c r="G5" s="2">
         <f>RTD(progId,,BINANCE,$A5,G$4)</f>
-        <v>632.45000000000005</v>
+        <v>627.09</v>
       </c>
       <c r="H5" s="2">
         <f>RTD(progId,,BINANCE,$A5,H$4)</f>
-        <v>0.54</v>
+        <v>0.76</v>
       </c>
       <c r="I5" s="2">
         <f>RTD(progId,,BINANCE,$A5,I$4)</f>
-        <v>632.99</v>
+        <v>627.85</v>
       </c>
       <c r="J5" s="2">
         <f>RTD(progId,,BINANCE,$A5,J$4)</f>
-        <v>0.61600999999999995</v>
+        <v>0.14535000000000001</v>
       </c>
       <c r="K5" s="9">
         <f>RTD(progId,,BINANCE,$A5,K$4)</f>
-        <v>115813.86029</v>
+        <v>117654.35584</v>
       </c>
       <c r="L5" s="2">
         <f>RTD(progId,,BINANCE,$A5,L$4)</f>
-        <v>77602656.836393699</v>
+        <v>78680925.369091794</v>
       </c>
       <c r="M5" s="9">
         <f>RTD(progId,,BINANCE,$A5,M$4)</f>
-        <v>117507</v>
+        <v>118969</v>
       </c>
       <c r="N5" s="10">
         <f>RTD(progId,,BINANCE,$A5,N$4)</f>
-        <v>-8.4860000000000005E-2</v>
+        <v>-8.9639999999999997E-2</v>
       </c>
       <c r="O5" s="2">
         <f>RTD(progId,,BINANCE,$A5,O$4)</f>
-        <v>-58.65</v>
+        <v>-61.82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B6" s="2">
         <f>RTD(progId,,BINANCE,$A6,B$4)</f>
-        <v>7885</v>
+        <v>7866.65</v>
       </c>
       <c r="C6" s="2">
         <f>RTD(progId,,BINANCE,$A6,C$4)</f>
@@ -5808,51 +5808,51 @@
       </c>
       <c r="D6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,D$4)</f>
-        <v>8348</v>
+        <v>8332</v>
       </c>
       <c r="E6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,E$4)</f>
-        <v>8349.99</v>
+        <v>8329.82</v>
       </c>
       <c r="F6" s="2">
         <f>RTD(progId,,BINANCE,$A6,F$4)</f>
-        <v>8.8403999999999996E-2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <f>RTD(progId,,BINANCE,$A6,G$4)</f>
-        <v>7894.92</v>
+        <v>7869.1</v>
       </c>
       <c r="H6" s="2">
         <f>RTD(progId,,BINANCE,$A6,H$4)</f>
-        <v>9.7799999999999994</v>
+        <v>2.89</v>
       </c>
       <c r="I6" s="2">
         <f>RTD(progId,,BINANCE,$A6,I$4)</f>
-        <v>7904.7</v>
+        <v>7871.99</v>
       </c>
       <c r="J6" s="2">
         <f>RTD(progId,,BINANCE,$A6,J$4)</f>
-        <v>2E-3</v>
+        <v>0.14455899999999999</v>
       </c>
       <c r="K6" s="9">
         <f>RTD(progId,,BINANCE,$A6,K$4)</f>
-        <v>24617.546077999999</v>
+        <v>24822.945764</v>
       </c>
       <c r="L6" s="2">
         <f>RTD(progId,,BINANCE,$A6,L$4)</f>
-        <v>201241252.55893987</v>
+        <v>202728008.557116</v>
       </c>
       <c r="M6" s="9">
         <f>RTD(progId,,BINANCE,$A6,M$4)</f>
-        <v>198605</v>
+        <v>200358</v>
       </c>
       <c r="N6" s="10">
         <f>RTD(progId,,BINANCE,$A6,N$4)</f>
-        <v>-5.3350000000000002E-2</v>
+        <v>-5.5539999999999999E-2</v>
       </c>
       <c r="O6" s="2">
         <f>RTD(progId,,BINANCE,$A6,O$4)</f>
-        <v>-444.89</v>
+        <v>-462.94</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B7" s="2">
         <f>RTD(progId,,BINANCE,$A7,B$4)</f>
-        <v>126.41</v>
+        <v>125.62</v>
       </c>
       <c r="C7" s="2">
         <f>RTD(progId,,BINANCE,$A7,C$4)</f>
@@ -5869,51 +5869,51 @@
       </c>
       <c r="D7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,D$4)</f>
-        <v>133.5</v>
+        <v>133.26</v>
       </c>
       <c r="E7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,E$4)</f>
-        <v>133.41999999999999</v>
+        <v>133.25</v>
       </c>
       <c r="F7" s="2">
         <f>RTD(progId,,BINANCE,$A7,F$4)</f>
-        <v>1.4950000000000001</v>
+        <v>0.69</v>
       </c>
       <c r="G7" s="2">
         <f>RTD(progId,,BINANCE,$A7,G$4)</f>
-        <v>126.63</v>
+        <v>125.76</v>
       </c>
       <c r="H7" s="2">
         <f>RTD(progId,,BINANCE,$A7,H$4)</f>
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I7" s="2">
         <f>RTD(progId,,BINANCE,$A7,I$4)</f>
-        <v>126.85</v>
+        <v>125.97</v>
       </c>
       <c r="J7" s="2">
         <f>RTD(progId,,BINANCE,$A7,J$4)</f>
-        <v>1.29</v>
+        <v>11.57254</v>
       </c>
       <c r="K7" s="9">
         <f>RTD(progId,,BINANCE,$A7,K$4)</f>
-        <v>46217.508029999997</v>
+        <v>46504.196129999997</v>
       </c>
       <c r="L7" s="2">
         <f>RTD(progId,,BINANCE,$A7,L$4)</f>
-        <v>6056248.0018558996</v>
+        <v>6084927.5137790004</v>
       </c>
       <c r="M7" s="9">
         <f>RTD(progId,,BINANCE,$A7,M$4)</f>
-        <v>17730</v>
+        <v>17708</v>
       </c>
       <c r="N7" s="10">
         <f>RTD(progId,,BINANCE,$A7,N$4)</f>
-        <v>-4.7600000000000003E-2</v>
+        <v>-5.1209999999999999E-2</v>
       </c>
       <c r="O7" s="2">
         <f>RTD(progId,,BINANCE,$A7,O$4)</f>
-        <v>-6.34</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="B8" s="2">
         <f>RTD(progId,,BINANCE,$A8,B$4)</f>
-        <v>0.62829000000000002</v>
+        <v>0.626</v>
       </c>
       <c r="C8" s="2">
         <f>RTD(progId,,BINANCE,$A8,C$4)</f>
@@ -5930,19 +5930,19 @@
       </c>
       <c r="D8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,D$4)</f>
-        <v>0.67459000000000002</v>
+        <v>0.67059999999999997</v>
       </c>
       <c r="E8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,E$4)</f>
-        <v>0.67410999999999999</v>
+        <v>0.67052999999999996</v>
       </c>
       <c r="F8" s="9">
         <f>RTD(progId,,BINANCE,$A8,F$4)</f>
-        <v>697.4</v>
+        <v>3345.64</v>
       </c>
       <c r="G8" s="2">
         <f>RTD(progId,,BINANCE,$A8,G$4)</f>
-        <v>0.62909999999999999</v>
+        <v>0.626</v>
       </c>
       <c r="H8" s="2">
         <f>RTD(progId,,BINANCE,$A8,H$4)</f>
@@ -5950,31 +5950,31 @@
       </c>
       <c r="I8" s="2">
         <f>RTD(progId,,BINANCE,$A8,I$4)</f>
-        <v>0.63</v>
+        <v>0.62690000000000001</v>
       </c>
       <c r="J8" s="2">
         <f>RTD(progId,,BINANCE,$A8,J$4)</f>
-        <v>39413.620000000003</v>
+        <v>319.02999999999997</v>
       </c>
       <c r="K8" s="9">
         <f>RTD(progId,,BINANCE,$A8,K$4)</f>
-        <v>8023174.5499999998</v>
+        <v>8241490.5700000003</v>
       </c>
       <c r="L8" s="2">
         <f>RTD(progId,,BINANCE,$A8,L$4)</f>
-        <v>5268533.5193525003</v>
+        <v>5400620.9120832998</v>
       </c>
       <c r="M8" s="9">
         <f>RTD(progId,,BINANCE,$A8,M$4)</f>
-        <v>15430</v>
+        <v>15528</v>
       </c>
       <c r="N8" s="10">
         <f>RTD(progId,,BINANCE,$A8,N$4)</f>
-        <v>-6.2740000000000004E-2</v>
+        <v>-6.3200000000000006E-2</v>
       </c>
       <c r="O8" s="2">
         <f>RTD(progId,,BINANCE,$A8,O$4)</f>
-        <v>-4.2169999999999999E-2</v>
+        <v>-4.2229999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -5983,23 +5983,23 @@
       </c>
       <c r="B9" s="2">
         <f>RTD(progId,,BINANCE,$A9,B$4)</f>
-        <v>7.0959999999999999E-3</v>
+        <v>7.0879999999999997E-3</v>
       </c>
       <c r="C9" s="2">
         <f>RTD(progId,,BINANCE,$A9,C$4)</f>
-        <v>7.3680000000000004E-3</v>
+        <v>7.3600000000000002E-3</v>
       </c>
       <c r="D9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,D$4)</f>
-        <v>7.3899999999999999E-3</v>
+        <v>7.3590000000000001E-3</v>
       </c>
       <c r="E9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,E$4)</f>
-        <v>7.3899999999999999E-3</v>
+        <v>7.3629999999999998E-3</v>
       </c>
       <c r="F9" s="9">
         <f>RTD(progId,,BINANCE,$A9,F$4)</f>
-        <v>0.15</v>
+        <v>8.26</v>
       </c>
       <c r="G9" s="2">
         <f>RTD(progId,,BINANCE,$A9,G$4)</f>
@@ -6007,35 +6007,35 @@
       </c>
       <c r="H9" s="2">
         <f>RTD(progId,,BINANCE,$A9,H$4)</f>
-        <v>7.9999999999999996E-6</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I9" s="2">
         <f>RTD(progId,,BINANCE,$A9,I$4)</f>
-        <v>7.1199999999999996E-3</v>
+        <v>7.1219999999999999E-3</v>
       </c>
       <c r="J9" s="2">
         <f>RTD(progId,,BINANCE,$A9,J$4)</f>
-        <v>2.02</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K9" s="9">
         <f>RTD(progId,,BINANCE,$A9,K$4)</f>
-        <v>292290.86</v>
+        <v>292767.62</v>
       </c>
       <c r="L9" s="2">
         <f>RTD(progId,,BINANCE,$A9,L$4)</f>
-        <v>2111.7884368700002</v>
+        <v>2114.8736696000001</v>
       </c>
       <c r="M9" s="9">
         <f>RTD(progId,,BINANCE,$A9,M$4)</f>
-        <v>42348</v>
+        <v>42166</v>
       </c>
       <c r="N9" s="10">
         <f>RTD(progId,,BINANCE,$A9,N$4)</f>
-        <v>-3.4200000000000001E-2</v>
+        <v>-3.3309999999999999E-2</v>
       </c>
       <c r="O9" s="2">
         <f>RTD(progId,,BINANCE,$A9,O$4)</f>
-        <v>-2.52E-4</v>
+        <v>-2.4499999999999999E-4</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6052,51 +6052,51 @@
       </c>
       <c r="D10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,D$4)</f>
-        <v>8.0779999999999996E-5</v>
+        <v>8.0690000000000002E-5</v>
       </c>
       <c r="E10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,E$4)</f>
-        <v>8.0809999999999994E-5</v>
+        <v>8.072E-5</v>
       </c>
       <c r="F10" s="9">
         <f>RTD(progId,,BINANCE,$A10,F$4)</f>
-        <v>423</v>
+        <v>896</v>
       </c>
       <c r="G10" s="2">
         <f>RTD(progId,,BINANCE,$A10,G$4)</f>
-        <v>7.9610000000000005E-5</v>
+        <v>7.9640000000000003E-5</v>
       </c>
       <c r="H10" s="2">
         <f>RTD(progId,,BINANCE,$A10,H$4)</f>
-        <v>5.9999999999999995E-8</v>
+        <v>2E-8</v>
       </c>
       <c r="I10" s="2">
         <f>RTD(progId,,BINANCE,$A10,I$4)</f>
-        <v>7.9670000000000001E-5</v>
+        <v>7.9660000000000006E-5</v>
       </c>
       <c r="J10" s="2">
         <f>RTD(progId,,BINANCE,$A10,J$4)</f>
-        <v>847</v>
+        <v>2145</v>
       </c>
       <c r="K10" s="9">
         <f>RTD(progId,,BINANCE,$A10,K$4)</f>
-        <v>26378741</v>
+        <v>26536926</v>
       </c>
       <c r="L10" s="2">
         <f>RTD(progId,,BINANCE,$A10,L$4)</f>
-        <v>2129.4463487100002</v>
+        <v>2141.8032580099998</v>
       </c>
       <c r="M10" s="9">
         <f>RTD(progId,,BINANCE,$A10,M$4)</f>
-        <v>42959</v>
+        <v>43182</v>
       </c>
       <c r="N10" s="10">
         <f>RTD(progId,,BINANCE,$A10,N$4)</f>
-        <v>-1.337E-2</v>
+        <v>-1.068E-2</v>
       </c>
       <c r="O10" s="2">
         <f>RTD(progId,,BINANCE,$A10,O$4)</f>
-        <v>-1.08E-6</v>
+        <v>-8.6000000000000002E-7</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6109,23 +6109,23 @@
       </c>
       <c r="C11" s="2">
         <f>RTD(progId,,BINANCE,$A11,C$4)</f>
-        <v>9.6900000000000004E-6</v>
+        <v>9.6800000000000005E-6</v>
       </c>
       <c r="D11" s="2">
         <f>RTD(progId,,BINANCE_24H,$A11,D$4)</f>
-        <v>9.7200000000000001E-6</v>
+        <v>9.6600000000000007E-6</v>
       </c>
       <c r="E11" s="2">
         <f>RTD(progId,,BINANCE_24H,$A11,E$4)</f>
-        <v>9.7200000000000001E-6</v>
+        <v>9.6600000000000007E-6</v>
       </c>
       <c r="F11" s="9">
         <f>RTD(progId,,BINANCE,$A11,F$4)</f>
-        <v>424781</v>
+        <v>13035</v>
       </c>
       <c r="G11" s="2">
         <f>RTD(progId,,BINANCE,$A11,G$4)</f>
-        <v>9.1600000000000004E-6</v>
+        <v>9.1800000000000002E-6</v>
       </c>
       <c r="H11" s="2">
         <f>RTD(progId,,BINANCE,$A11,H$4)</f>
@@ -6133,31 +6133,31 @@
       </c>
       <c r="I11" s="2">
         <f>RTD(progId,,BINANCE,$A11,I$4)</f>
-        <v>9.1700000000000003E-6</v>
+        <v>9.1900000000000001E-6</v>
       </c>
       <c r="J11" s="2">
         <f>RTD(progId,,BINANCE,$A11,J$4)</f>
-        <v>46051</v>
+        <v>159363</v>
       </c>
       <c r="K11" s="9">
         <f>RTD(progId,,BINANCE,$A11,K$4)</f>
-        <v>1111209566</v>
+        <v>1101711123</v>
       </c>
       <c r="L11" s="2">
         <f>RTD(progId,,BINANCE,$A11,L$4)</f>
-        <v>10468.815988869999</v>
+        <v>10372.48197879</v>
       </c>
       <c r="M11" s="9">
         <f>RTD(progId,,BINANCE,$A11,M$4)</f>
-        <v>107845</v>
+        <v>107136</v>
       </c>
       <c r="N11" s="10">
         <f>RTD(progId,,BINANCE,$A11,N$4)</f>
-        <v>-5.2690000000000001E-2</v>
+        <v>-5.1650000000000001E-2</v>
       </c>
       <c r="O11" s="2">
         <f>RTD(progId,,BINANCE,$A11,O$4)</f>
-        <v>-5.0999999999999999E-7</v>
+        <v>-4.9999999999999998E-7</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6233,41 +6233,41 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</f>
-        <v>0.33184999999999998</v>
+        <v>0.95562000000000002</v>
       </c>
       <c r="B15" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</f>
-        <v>632.45000000000005</v>
+        <v>627.09</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</f>
-        <v>632.99</v>
+        <v>627.85</v>
       </c>
       <c r="E15" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</f>
-        <v>0.61600999999999995</v>
+        <v>0.14535000000000001</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,H$14)</f>
-        <v>22952771</v>
+        <v>22955468</v>
       </c>
       <c r="I15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,I$14)</f>
-        <v>632.46</v>
+        <v>627.86</v>
       </c>
       <c r="J15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,J$14)</f>
-        <v>0.17999000000000001</v>
+        <v>7.3600000000000002E-3</v>
       </c>
       <c r="K15" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G15,K$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G15,L$14)</f>
@@ -6275,25 +6275,25 @@
       </c>
       <c r="M15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,M$14)</f>
-        <v>25855511</v>
+        <v>25858665</v>
       </c>
       <c r="N15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,N$14)</f>
-        <v>25855511</v>
+        <v>25858665</v>
       </c>
       <c r="O15" s="33">
         <f>RTD(progId,,BINACE_TRADE,$G15,O$14)</f>
-        <v>43242.877559733795</v>
+        <v>43242.88648375</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C16)</f>
-        <v>47.668230000000001</v>
+        <v>3</v>
       </c>
       <c r="B16" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C16)</f>
-        <v>632.44000000000005</v>
+        <v>627.08000000000004</v>
       </c>
       <c r="C16" s="8">
         <f>C15+1</f>
@@ -6301,26 +6301,26 @@
       </c>
       <c r="D16" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C16)</f>
-        <v>633</v>
+        <v>627.86</v>
       </c>
       <c r="E16" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C16)</f>
-        <v>1.9954700000000001</v>
+        <v>0.69264000000000003</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,H$14)</f>
-        <v>39187710</v>
+        <v>39191688</v>
       </c>
       <c r="I16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,I$14)</f>
-        <v>7904.88</v>
+        <v>7872</v>
       </c>
       <c r="J16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,J$14)</f>
-        <v>1.4399E-2</v>
+        <v>1.4E-5</v>
       </c>
       <c r="K16" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G16,K$14)</f>
@@ -6332,26 +6332,26 @@
       </c>
       <c r="M16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,M$14)</f>
-        <v>45067787</v>
+        <v>45072169</v>
       </c>
       <c r="N16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,N$14)</f>
-        <v>45067787</v>
+        <v>45072169</v>
       </c>
       <c r="O16" s="33">
         <f>RTD(progId,,BINACE_TRADE,$G16,O$14)</f>
-        <v>43242.877560046298</v>
+        <v>43242.886493530095</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C17)</f>
-        <v>5.5179600000000004</v>
+        <v>0.70735999999999999</v>
       </c>
       <c r="B17" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C17)</f>
-        <v>632.41</v>
+        <v>627.05999999999995</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" ref="C17:C21" si="0">C16+1</f>
@@ -6359,26 +6359,26 @@
       </c>
       <c r="D17" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C17)</f>
-        <v>633.12</v>
+        <v>628</v>
       </c>
       <c r="E17" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C17)</f>
-        <v>0.56000000000000005</v>
+        <v>8.7048900000000007</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,H$14)</f>
-        <v>6567499</v>
+        <v>6567886</v>
       </c>
       <c r="I17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,I$14)</f>
-        <v>126.84</v>
+        <v>125.99</v>
       </c>
       <c r="J17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,J$14)</f>
-        <v>1.0999000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="K17" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G17,K$14)</f>
@@ -6390,26 +6390,26 @@
       </c>
       <c r="M17" s="23">
         <f>RTD(progId,,BINACE_TRADE,$G17,M$14)</f>
-        <v>7459347</v>
+        <v>7459782</v>
       </c>
       <c r="N17" s="23">
         <f>RTD(progId,,BINACE_TRADE,$G17,N$14)</f>
-        <v>7459348</v>
+        <v>7459782</v>
       </c>
       <c r="O17" s="34">
         <f>RTD(progId,,BINACE_TRADE,$G17,O$14)</f>
-        <v>43242.877562708331</v>
+        <v>43242.886462858798</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C18)</f>
-        <v>3.0369999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="B18" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C18)</f>
-        <v>632.4</v>
+        <v>626.65</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
@@ -6417,11 +6417,11 @@
       </c>
       <c r="D18" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C18)</f>
-        <v>633.22</v>
+        <v>628.02</v>
       </c>
       <c r="E18" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C18)</f>
-        <v>2.22519</v>
+        <v>0.254</v>
       </c>
       <c r="G18"/>
       <c r="K18"/>
@@ -6429,11 +6429,11 @@
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C19)</f>
-        <v>3.4192499999999999</v>
+        <v>0.4</v>
       </c>
       <c r="B19" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C19)</f>
-        <v>632.21</v>
+        <v>626.63</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
@@ -6441,11 +6441,11 @@
       </c>
       <c r="D19" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C19)</f>
-        <v>633.24</v>
+        <v>628.04999999999995</v>
       </c>
       <c r="E19" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C19)</f>
-        <v>1.9652799999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G19"/>
       <c r="K19"/>
@@ -6453,11 +6453,11 @@
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C20)</f>
-        <v>1.4</v>
+        <v>1.272</v>
       </c>
       <c r="B20" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C20)</f>
-        <v>631.51</v>
+        <v>626.51</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
@@ -6465,21 +6465,21 @@
       </c>
       <c r="D20" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C20)</f>
-        <v>633.28</v>
+        <v>628.08000000000004</v>
       </c>
       <c r="E20" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C20)</f>
-        <v>76.700329999999994</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C21)</f>
-        <v>30.128710000000002</v>
+        <v>0.81967999999999996</v>
       </c>
       <c r="B21" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C21)</f>
-        <v>631.5</v>
+        <v>626.49</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
@@ -6487,33 +6487,33 @@
       </c>
       <c r="D21" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C21)</f>
-        <v>633.32000000000005</v>
+        <v>628.30999999999995</v>
       </c>
       <c r="E21" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C21)</f>
-        <v>0.4</v>
+        <v>2.3238799999999999</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <f>SUM(Table3[BID_DEPTH_SIZE])</f>
-        <v>91.503</v>
+        <v>8.0546600000000019</v>
       </c>
       <c r="B22" s="18">
         <f>SUMPRODUCT(Table3[[BID_DEPTH_SIZE]:[BID_DEPTH]])</f>
-        <v>4516.4229999999998</v>
+        <v>4395.5646600000009</v>
       </c>
       <c r="C22" s="19">
         <f>D22-B22</f>
-        <v>0.20928000000003522</v>
+        <v>14.126099999998587</v>
       </c>
       <c r="D22" s="18">
         <f>SUMPRODUCT(Table3[[ASK_DEPTH]:[ASK_DEPTH_SIZE]])</f>
-        <v>4516.6322799999998</v>
+        <v>4409.6907599999995</v>
       </c>
       <c r="E22" s="13">
         <f>SUM(Table3[ASK_DEPTH_SIZE])</f>
-        <v>84.462279999999993</v>
+        <v>13.520759999999999</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="4"/>
@@ -6602,27 +6602,27 @@
       </c>
       <c r="B26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,B$25,$D$24)</f>
-        <v>631.99</v>
+        <v>626.78</v>
       </c>
       <c r="C26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,C$25,$D$24)</f>
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,D$25,$D$24)</f>
-        <v>630.70000000000005</v>
+        <v>626.39</v>
       </c>
       <c r="E26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,E$25,$D$24)</f>
-        <v>632.41</v>
+        <v>627.86</v>
       </c>
       <c r="F26" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,F$25,$D$24)</f>
-        <v>43242.877083333333</v>
+        <v>43242.886111111111</v>
       </c>
       <c r="G26" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,G$25,$D$24)</f>
-        <v>43242.877777766204</v>
+        <v>43242.886805543982</v>
       </c>
       <c r="H26" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,H$25,$D$24)</f>
@@ -6630,19 +6630,19 @@
       </c>
       <c r="I26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,I$25,$D$24)</f>
-        <v>126805.39914920001</v>
+        <v>56089.4772113</v>
       </c>
       <c r="J26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,J$25,$D$24)</f>
-        <v>200.85151999999999</v>
+        <v>89.439109999999999</v>
       </c>
       <c r="K26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,K$25,$D$24)</f>
-        <v>104.21605</v>
+        <v>70.608239999999995</v>
       </c>
       <c r="L26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,L$25,$D$24)</f>
-        <v>65817.282629099995</v>
+        <v>44292.423157800004</v>
       </c>
       <c r="M26" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,M$25,$D$24)</f>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="N26" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,N$25,$D$24)</f>
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="O26" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,O$25,$D$24)</f>
@@ -6658,15 +6658,15 @@
       </c>
       <c r="P26" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,P$25,$D$24)</f>
-        <v>43242.877543472219</v>
+        <v>43242.886483796297</v>
       </c>
       <c r="Q26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,Q$25,$D$24)</f>
-        <v>25855299</v>
+        <v>25858573</v>
       </c>
       <c r="R26" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A26,R$25,$D$24)</f>
-        <v>25855496</v>
+        <v>25858665</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -6675,27 +6675,27 @@
       </c>
       <c r="B27" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,B$25,$D$24)</f>
-        <v>7895.79</v>
+        <v>7867.67</v>
       </c>
       <c r="C27" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,C$25,$D$24)</f>
-        <v>7904.88</v>
+        <v>7873.84</v>
       </c>
       <c r="D27" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,D$25,$D$24)</f>
-        <v>7885</v>
+        <v>7866.65</v>
       </c>
       <c r="E27" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,E$25,$D$24)</f>
-        <v>7894.92</v>
+        <v>7872</v>
       </c>
       <c r="F27" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,F$25,$D$24)</f>
-        <v>43242.877083333333</v>
+        <v>43242.886111111111</v>
       </c>
       <c r="G27" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,G$25,$D$24)</f>
-        <v>43242.877777766204</v>
+        <v>43242.886805543982</v>
       </c>
       <c r="H27" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,H$25,$D$24)</f>
@@ -6703,19 +6703,19 @@
       </c>
       <c r="I27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,I$25,$D$24)</f>
-        <v>432151.56664603</v>
+        <v>78021.96712899</v>
       </c>
       <c r="J27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,J$25,$D$24)</f>
-        <v>54.730727999999999</v>
+        <v>9.9152109999999993</v>
       </c>
       <c r="K27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,K$25,$D$24)</f>
-        <v>26.197265000000002</v>
+        <v>3.8982540000000001</v>
       </c>
       <c r="L27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,L$25,$D$24)</f>
-        <v>206878.85267831001</v>
+        <v>30683.260372140001</v>
       </c>
       <c r="M27" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,M$25,$D$24)</f>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="N27" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,N$25,$D$24)</f>
-        <v>332</v>
+        <v>116</v>
       </c>
       <c r="O27" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,O$25,$D$24)</f>
@@ -6731,15 +6731,15 @@
       </c>
       <c r="P27" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,P$25,$D$24)</f>
-        <v>43242.877556319443</v>
+        <v>43242.886491053243</v>
       </c>
       <c r="Q27" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,Q$25,$D$24)</f>
-        <v>45067449</v>
+        <v>45072053</v>
       </c>
       <c r="R27" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A27,R$25,$D$24)</f>
-        <v>45067780</v>
+        <v>45072168</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -6748,27 +6748,27 @@
       </c>
       <c r="B28" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,B$25,$D$24)</f>
-        <v>126.6</v>
+        <v>125.96</v>
       </c>
       <c r="C28" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,C$25,$D$24)</f>
-        <v>126.88</v>
+        <v>125.99</v>
       </c>
       <c r="D28" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,D$25,$D$24)</f>
-        <v>126.57</v>
+        <v>125.69</v>
       </c>
       <c r="E28" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,E$25,$D$24)</f>
-        <v>126.84</v>
+        <v>125.99</v>
       </c>
       <c r="F28" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,F$25,$D$24)</f>
-        <v>43242.877083333333</v>
+        <v>43242.886111111111</v>
       </c>
       <c r="G28" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,G$25,$D$24)</f>
-        <v>43242.877777766204</v>
+        <v>43242.886805543982</v>
       </c>
       <c r="H28" s="23" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,H$25,$D$24)</f>
@@ -6776,19 +6776,19 @@
       </c>
       <c r="I28" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,I$25,$D$24)</f>
-        <v>2290.6948185000001</v>
+        <v>9502.4805570000008</v>
       </c>
       <c r="J28" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,J$25,$D$24)</f>
-        <v>18.09226</v>
+        <v>75.430670000000006</v>
       </c>
       <c r="K28" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,K$25,$D$24)</f>
-        <v>1.91229</v>
+        <v>72.569550000000007</v>
       </c>
       <c r="L28" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,L$25,$D$24)</f>
-        <v>242.5468688</v>
+        <v>9142.2339343999993</v>
       </c>
       <c r="M28" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,M$25,$D$24)</f>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="N28" s="30">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,N$25,$D$24)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O28" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,O$25,$D$24)</f>
@@ -6804,15 +6804,15 @@
       </c>
       <c r="P28" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,P$25,$D$24)</f>
-        <v>43242.877562800924</v>
+        <v>43242.886462905095</v>
       </c>
       <c r="Q28" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,Q$25,$D$24)</f>
-        <v>7459328</v>
+        <v>7459770</v>
       </c>
       <c r="R28" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A28,R$25,$D$24)</f>
-        <v>7459347</v>
+        <v>7459782</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -6894,27 +6894,27 @@
       </c>
       <c r="B32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,B$25,$D$30)</f>
-        <v>638.54999999999995</v>
+        <v>627.58000000000004</v>
       </c>
       <c r="C32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,C$25,$D$30)</f>
-        <v>639.25</v>
+        <v>628</v>
       </c>
       <c r="D32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,D$25,$D$30)</f>
-        <v>630.70000000000005</v>
+        <v>626</v>
       </c>
       <c r="E32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,E$25,$D$30)</f>
-        <v>632.41</v>
+        <v>627.86</v>
       </c>
       <c r="F32" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,F$25,$D$30)</f>
-        <v>43242.875</v>
+        <v>43242.885416666664</v>
       </c>
       <c r="G32" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,G$25,$D$30)</f>
-        <v>43242.885416655095</v>
+        <v>43242.89583332176</v>
       </c>
       <c r="H32" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,H$25,$D$30)</f>
@@ -6922,19 +6922,19 @@
       </c>
       <c r="I32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,I$25,$D$30)</f>
-        <v>1188467.5749425001</v>
+        <v>194331.6813198</v>
       </c>
       <c r="J32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,J$25,$D$30)</f>
-        <v>1873.82339</v>
+        <v>309.8476</v>
       </c>
       <c r="K32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,K$25,$D$30)</f>
-        <v>834.26562999999999</v>
+        <v>233.66502</v>
       </c>
       <c r="L32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,L$25,$D$30)</f>
-        <v>529099.95591859997</v>
+        <v>146585.28732870001</v>
       </c>
       <c r="M32" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,M$25,$D$30)</f>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="N32" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,N$25,$D$30)</f>
-        <v>1915</v>
+        <v>260</v>
       </c>
       <c r="O32" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,O$25,$D$30)</f>
@@ -6950,15 +6950,15 @@
       </c>
       <c r="P32" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,P$25,$D$30)</f>
-        <v>43242.877543472219</v>
+        <v>43242.886483773145</v>
       </c>
       <c r="Q32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,Q$25,$D$30)</f>
-        <v>25853582</v>
+        <v>25858406</v>
       </c>
       <c r="R32" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,R$25,$D$30)</f>
-        <v>25855496</v>
+        <v>25858665</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6967,27 +6967,27 @@
       </c>
       <c r="B33" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,B$25,$D$30)</f>
-        <v>7949.99</v>
+        <v>7874</v>
       </c>
       <c r="C33" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,C$25,$D$30)</f>
-        <v>7953.94</v>
+        <v>7875.13</v>
       </c>
       <c r="D33" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,D$25,$D$30)</f>
-        <v>7885</v>
+        <v>7866.65</v>
       </c>
       <c r="E33" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,E$25,$D$30)</f>
-        <v>7894.92</v>
+        <v>7872</v>
       </c>
       <c r="F33" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,F$25,$D$30)</f>
-        <v>43242.875</v>
+        <v>43242.885416666664</v>
       </c>
       <c r="G33" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,G$25,$D$30)</f>
-        <v>43242.885416655095</v>
+        <v>43242.89583332176</v>
       </c>
       <c r="H33" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,H$25,$D$30)</f>
@@ -6995,19 +6995,19 @@
       </c>
       <c r="I33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,I$25,$D$30)</f>
-        <v>4553073.03553004</v>
+        <v>270517.96639274003</v>
       </c>
       <c r="J33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,J$25,$D$30)</f>
-        <v>575.74172899999996</v>
+        <v>34.377370999999997</v>
       </c>
       <c r="K33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,K$25,$D$30)</f>
-        <v>173.91591299999999</v>
+        <v>19.421014</v>
       </c>
       <c r="L33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,L$25,$D$30)</f>
-        <v>1375682.68134701</v>
+        <v>152843.98940701</v>
       </c>
       <c r="M33" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,M$25,$D$30)</f>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="N33" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,N$25,$D$30)</f>
-        <v>3175</v>
+        <v>392</v>
       </c>
       <c r="O33" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,O$25,$D$30)</f>
@@ -7023,15 +7023,15 @@
       </c>
       <c r="P33" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,P$25,$D$30)</f>
-        <v>43242.877556296298</v>
+        <v>43242.886491030091</v>
       </c>
       <c r="Q33" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,Q$25,$D$30)</f>
-        <v>45064606</v>
+        <v>45071777</v>
       </c>
       <c r="R33" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A33,R$25,$D$30)</f>
-        <v>45067780</v>
+        <v>45072168</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7040,27 +7040,27 @@
       </c>
       <c r="B34" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,B$25,$D$30)</f>
-        <v>127.99</v>
+        <v>125.96</v>
       </c>
       <c r="C34" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,C$25,$D$30)</f>
-        <v>127.99</v>
+        <v>125.99</v>
       </c>
       <c r="D34" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,D$25,$D$30)</f>
-        <v>126.41</v>
+        <v>125.62</v>
       </c>
       <c r="E34" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,E$25,$D$30)</f>
-        <v>126.84</v>
+        <v>125.99</v>
       </c>
       <c r="F34" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,F$25,$D$30)</f>
-        <v>43242.875</v>
+        <v>43242.885416666664</v>
       </c>
       <c r="G34" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,G$25,$D$30)</f>
-        <v>43242.885416655095</v>
+        <v>43242.89583332176</v>
       </c>
       <c r="H34" s="23" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,H$25,$D$30)</f>
@@ -7068,19 +7068,19 @@
       </c>
       <c r="I34" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,I$25,$D$30)</f>
-        <v>130116.69737160001</v>
+        <v>14873.715829299999</v>
       </c>
       <c r="J34" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,J$25,$D$30)</f>
-        <v>1025.45604</v>
+        <v>118.16673</v>
       </c>
       <c r="K34" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,K$25,$D$30)</f>
-        <v>154.00041999999999</v>
+        <v>73.565010000000001</v>
       </c>
       <c r="L34" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,L$25,$D$30)</f>
-        <v>19530.568294000001</v>
+        <v>9267.6257091000007</v>
       </c>
       <c r="M34" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,M$25,$D$30)</f>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="N34" s="30">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,N$25,$D$30)</f>
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="O34" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,O$25,$D$30)</f>
@@ -7096,15 +7096,15 @@
       </c>
       <c r="P34" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,P$25,$D$30)</f>
-        <v>43242.877562800924</v>
+        <v>43242.88646292824</v>
       </c>
       <c r="Q34" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,Q$25,$D$30)</f>
-        <v>7459060</v>
+        <v>7459745</v>
       </c>
       <c r="R34" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A34,R$25,$D$30)</f>
-        <v>7459347</v>
+        <v>7459782</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">

--- a/doc/crypto.xlsx
+++ b/doc/crypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="p:\crypto-rtd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EC7F5C-D567-40A7-9CBF-1166113CB32B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F36085-27E5-4721-9D09-775F38F40AC5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13620" activeTab="1" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="12225" activeTab="1" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GDAX" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="BINACE_TRADE">BINANCE!$G$13</definedName>
     <definedName name="BINANCE">BINANCE!$A$3</definedName>
     <definedName name="BINANCE_24H">BINANCE!$D$3</definedName>
-    <definedName name="BINANCE_CANDLE">BINANCE!$A$24</definedName>
+    <definedName name="BINANCE_CANDLE">BINANCE!$A$27</definedName>
     <definedName name="BINANCE_DEPTH">BINANCE!$A$13</definedName>
     <definedName name="GDAX">GDAX!$A$1</definedName>
     <definedName name="progId">BINANCE!$H$1</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>crypto-debug</t>
   </si>
@@ -202,9 +202,6 @@
     <t>LAST_ID</t>
   </si>
   <si>
-    <t>OneMinute</t>
-  </si>
-  <si>
     <t>PRICE</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>TRADE_TIME</t>
+  </si>
+  <si>
+    <t>1 Min</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -499,6 +499,15 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="6"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
@@ -2794,8 +2803,16 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="crypto-debug">
-      <tp>
-        <v>8329.82</v>
+      <tp t="b">
+        <v>1</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>neobtc</stp>
+        <stp>BUYER_IS_MAKER</stp>
+        <tr r="K19" s="1"/>
+      </tp>
+      <tp>
+        <v>8009.9</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -2803,7 +2820,7 @@
         <tr r="E6" s="1"/>
       </tp>
       <tp>
-        <v>133.25</v>
+        <v>128.51</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -2811,7 +2828,7 @@
         <tr r="E7" s="1"/>
       </tp>
       <tp>
-        <v>691.22</v>
+        <v>644.25</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -2825,7 +2842,7 @@
         <stp>ltcusdt</stp>
         <stp>Event</stp>
         <stp>3</stp>
-        <tr r="O34" s="1"/>
+        <tr r="O37" s="1"/>
       </tp>
       <tp t="s">
         <v>kline</v>
@@ -2834,10 +2851,18 @@
         <stp>ltcusdt</stp>
         <stp>Event</stp>
         <stp>0</stp>
-        <tr r="O28" s="1"/>
+        <tr r="O31" s="1"/>
       </tp>
       <tp t="b">
-        <v>0</v>
+        <v>1</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpbtc</stp>
+        <stp>IGNORE</stp>
+        <tr r="L20" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>1</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -2845,7 +2870,7 @@
         <tr r="K16" s="1"/>
       </tp>
       <tp t="b">
-        <v>0</v>
+        <v>1</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -2860,8 +2885,16 @@
         <stp>BUYER_IS_MAKER</stp>
         <tr r="K17" s="1"/>
       </tp>
-      <tp>
-        <v>0.67052999999999996</v>
+      <tp t="b">
+        <v>0</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpusdt</stp>
+        <stp>BUYER_IS_MAKER</stp>
+        <tr r="K18" s="1"/>
+      </tp>
+      <tp>
+        <v>0.64571999999999996</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -2869,7 +2902,7 @@
         <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>7.3590000000000001E-3</v>
+        <v>7.1669999999999998E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -2877,7 +2910,7 @@
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>17708</v>
+        <v>29571</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2885,7 +2918,7 @@
         <tr r="M7" s="1"/>
       </tp>
       <tp>
-        <v>118969</v>
+        <v>199919</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2893,7 +2926,7 @@
         <tr r="M5" s="1"/>
       </tp>
       <tp>
-        <v>200358</v>
+        <v>304507</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2901,7 +2934,7 @@
         <tr r="M6" s="1"/>
       </tp>
       <tp>
-        <v>15528</v>
+        <v>30998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -2909,58 +2942,58 @@
         <tr r="M8" s="1"/>
       </tp>
       <tp>
-        <v>7875.13</v>
+        <v>7565.86</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>HIGH</stp>
         <stp>3</stp>
-        <tr r="C33" s="1"/>
-      </tp>
-      <tp>
-        <v>7873.84</v>
+        <tr r="C36" s="1"/>
+      </tp>
+      <tp>
+        <v>7515</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>HIGH</stp>
         <stp>0</stp>
-        <tr r="C27" s="1"/>
-      </tp>
-      <tp>
-        <v>628</v>
+        <tr r="C30" s="1"/>
+      </tp>
+      <tp>
+        <v>584</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>HIGH</stp>
         <stp>3</stp>
-        <tr r="C32" s="1"/>
-      </tp>
-      <tp>
-        <v>628</v>
+        <tr r="C35" s="1"/>
+      </tp>
+      <tp>
+        <v>578.6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>HIGH</stp>
         <stp>0</stp>
-        <tr r="C26" s="1"/>
-      </tp>
-      <tp>
-        <v>125.99</v>
+        <tr r="C29" s="1"/>
+      </tp>
+      <tp>
+        <v>119.68</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>HIGH</stp>
         <stp>3</stp>
-        <tr r="C34" s="1"/>
-      </tp>
-      <tp>
-        <v>125.99</v>
+        <tr r="C37" s="1"/>
+      </tp>
+      <tp>
+        <v>118.71</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>HIGH</stp>
         <stp>0</stp>
-        <tr r="C28" s="1"/>
+        <tr r="C31" s="1"/>
       </tp>
       <tp t="s">
         <v>kline</v>
@@ -2969,7 +3002,7 @@
         <stp>btcusdt</stp>
         <stp>Event</stp>
         <stp>3</stp>
-        <tr r="O33" s="1"/>
+        <tr r="O36" s="1"/>
       </tp>
       <tp t="s">
         <v>kline</v>
@@ -2978,10 +3011,10 @@
         <stp>btcusdt</stp>
         <stp>Event</stp>
         <stp>0</stp>
-        <tr r="O27" s="1"/>
-      </tp>
-      <tp>
-        <v>1101711123</v>
+        <tr r="O30" s="1"/>
+      </tp>
+      <tp>
+        <v>1518580274</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -2989,7 +3022,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>26536926</v>
+        <v>41883660</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -2997,7 +3030,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>292767.62</v>
+        <v>372632.11</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3011,7 +3044,7 @@
         <stp>ethusdt</stp>
         <stp>Event</stp>
         <stp>0</stp>
-        <tr r="O26" s="1"/>
+        <tr r="O29" s="1"/>
       </tp>
       <tp t="s">
         <v>kline</v>
@@ -3020,10 +3053,18 @@
         <stp>ethusdt</stp>
         <stp>Event</stp>
         <stp>3</stp>
-        <tr r="O32" s="1"/>
-      </tp>
-      <tp>
-        <v>-5.1209999999999999E-2</v>
+        <tr r="O35" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>1</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>trxbtc</stp>
+        <stp>IGNORE</stp>
+        <tr r="L21" s="1"/>
+      </tp>
+      <tp>
+        <v>-7.7700000000000005E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3031,7 +3072,7 @@
         <tr r="N7" s="1"/>
       </tp>
       <tp>
-        <v>-5.5539999999999999E-2</v>
+        <v>-6.2440000000000002E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3039,7 +3080,7 @@
         <tr r="N6" s="1"/>
       </tp>
       <tp>
-        <v>-8.9639999999999997E-2</v>
+        <v>-0.1024</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3047,7 +3088,7 @@
         <tr r="N5" s="1"/>
       </tp>
       <tp>
-        <v>-6.3200000000000006E-2</v>
+        <v>-7.5969999999999996E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3055,61 +3096,61 @@
         <tr r="N8" s="1"/>
       </tp>
       <tp>
-        <v>627.58000000000004</v>
+        <v>580.64</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>OPEN</stp>
         <stp>3</stp>
-        <tr r="B32" s="1"/>
-      </tp>
-      <tp>
-        <v>626.78</v>
+        <tr r="B35" s="1"/>
+      </tp>
+      <tp>
+        <v>577.82000000000005</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>OPEN</stp>
         <stp>0</stp>
-        <tr r="B26" s="1"/>
-      </tp>
-      <tp>
-        <v>7874</v>
+        <tr r="B29" s="1"/>
+      </tp>
+      <tp>
+        <v>7539.98</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN</stp>
         <stp>3</stp>
-        <tr r="B33" s="1"/>
-      </tp>
-      <tp>
-        <v>7867.67</v>
+        <tr r="B36" s="1"/>
+      </tp>
+      <tp>
+        <v>7513.79</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN</stp>
         <stp>0</stp>
-        <tr r="B27" s="1"/>
-      </tp>
-      <tp>
-        <v>125.96</v>
+        <tr r="B30" s="1"/>
+      </tp>
+      <tp>
+        <v>119.39</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>OPEN</stp>
         <stp>3</stp>
-        <tr r="B34" s="1"/>
-      </tp>
-      <tp>
-        <v>125.96</v>
+        <tr r="B37" s="1"/>
+      </tp>
+      <tp>
+        <v>118.71</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>OPEN</stp>
         <stp>0</stp>
-        <tr r="B28" s="1"/>
-      </tp>
-      <tp>
-        <v>9.0399999999999998E-6</v>
+        <tr r="B31" s="1"/>
+      </tp>
+      <tp>
+        <v>8.6999999999999997E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3117,7 +3158,7 @@
         <tr r="B11" s="1"/>
       </tp>
       <tp>
-        <v>7.9309999999999998E-5</v>
+        <v>7.6600000000000005E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3125,66 +3166,90 @@
         <tr r="B10" s="1"/>
       </tp>
       <tp>
-        <v>7.0879999999999997E-3</v>
+        <v>6.8659999999999997E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>LOW</stp>
         <tr r="B9" s="1"/>
       </tp>
-      <tp>
-        <v>73.565010000000001</v>
+      <tp t="b">
+        <v>0</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>trxbtc</stp>
+        <stp>BUYER_IS_MAKER</stp>
+        <tr r="K21" s="1"/>
+      </tp>
+      <tp>
+        <v>1643.60223</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>3</stp>
-        <tr r="K34" s="1"/>
-      </tp>
-      <tp>
-        <v>72.569550000000007</v>
+        <tr r="K37" s="1"/>
+      </tp>
+      <tp>
+        <v>16.262640000000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>0</stp>
-        <tr r="K28" s="1"/>
-      </tp>
-      <tp>
-        <v>233.66502</v>
+        <tr r="K31" s="1"/>
+      </tp>
+      <tp>
+        <v>931.01201000000003</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>3</stp>
-        <tr r="K32" s="1"/>
-      </tp>
-      <tp>
-        <v>70.608239999999995</v>
+        <tr r="K35" s="1"/>
+      </tp>
+      <tp>
+        <v>3.9699999999999996E-3</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>0</stp>
-        <tr r="K26" s="1"/>
-      </tp>
-      <tp>
-        <v>19.421014</v>
+        <tr r="K29" s="1"/>
+      </tp>
+      <tp>
+        <v>89.971158000000003</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>3</stp>
-        <tr r="K33" s="1"/>
-      </tp>
-      <tp>
-        <v>3.8982540000000001</v>
+        <tr r="K36" s="1"/>
+      </tp>
+      <tp>
+        <v>0.91675099999999998</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>0</stp>
-        <tr r="K27" s="1"/>
+        <tr r="K30" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>1</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>neobtc</stp>
+        <stp>IGNORE</stp>
+        <tr r="L19" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>1</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpusdt</stp>
+        <stp>IGNORE</stp>
+        <tr r="L18" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -3211,7 +3276,7 @@
         <tr r="L17" s="1"/>
       </tp>
       <tp>
-        <v>7.1219999999999999E-3</v>
+        <v>6.9280000000000001E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3219,7 +3284,7 @@
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>7.9660000000000006E-5</v>
+        <v>7.9350000000000004E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3227,7 +3292,7 @@
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>9.1900000000000001E-6</v>
+        <v>9.0699999999999996E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3235,7 +3300,7 @@
         <tr r="I11" s="1"/>
       </tp>
       <tp>
-        <v>8.0690000000000002E-5</v>
+        <v>8.0550000000000006E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -3243,15 +3308,23 @@
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>9.6600000000000007E-6</v>
+        <v>9.2199999999999998E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
         <stp>CLOSE</stp>
         <tr r="D11" s="1"/>
       </tp>
-      <tp>
-        <v>9.1800000000000002E-6</v>
+      <tp t="b">
+        <v>1</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpbtc</stp>
+        <stp>BUYER_IS_MAKER</stp>
+        <tr r="K20" s="1"/>
+      </tp>
+      <tp>
+        <v>9.0499999999999997E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3259,7 +3332,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>7.9640000000000003E-5</v>
+        <v>7.9309999999999998E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3267,7 +3340,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>7.1120000000000003E-3</v>
+        <v>6.9259999999999999E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3275,7 +3348,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>-4.2229999999999997E-2</v>
+        <v>-4.9000000000000002E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3283,25 +3356,33 @@
         <tr r="O8" s="1"/>
       </tp>
       <tp>
-        <v>309.8476</v>
+        <v>505569</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpusdt</stp>
+        <stp>LAST_ID</stp>
+        <tr r="N18" s="1"/>
+      </tp>
+      <tp>
+        <v>1775.06377</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>VOL</stp>
         <stp>3</stp>
-        <tr r="J32" s="1"/>
-      </tp>
-      <tp>
-        <v>89.439109999999999</v>
+        <tr r="J35" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2907299999999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>VOL</stp>
         <stp>0</stp>
-        <tr r="J26" s="1"/>
-      </tp>
-      <tp>
-        <v>896</v>
+        <tr r="J29" s="1"/>
+      </tp>
+      <tp>
+        <v>900</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3309,7 +3390,31 @@
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>7.3600000000000002E-3</v>
+        <v>20826818</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpbtc</stp>
+        <stp>FIRST_ID</stp>
+        <tr r="M20" s="1"/>
+      </tp>
+      <tp>
+        <v>0.34</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpusdt</stp>
+        <stp>QUANTITY</stp>
+        <tr r="J18" s="1"/>
+      </tp>
+      <tp>
+        <v>191</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>trxbtc</stp>
+        <stp>QUANTITY</stp>
+        <tr r="J21" s="1"/>
+      </tp>
+      <tp>
+        <v>0.49347000000000002</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3317,7 +3422,7 @@
         <tr r="J15" s="1"/>
       </tp>
       <tp>
-        <v>0.9</v>
+        <v>9.264E-2</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3325,7 +3430,7 @@
         <tr r="J17" s="1"/>
       </tp>
       <tp>
-        <v>1.4E-5</v>
+        <v>9.9999999999999995E-7</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3333,7 +3438,25 @@
         <tr r="J16" s="1"/>
       </tp>
       <tp>
-        <v>2.3238799999999999</v>
+        <v>17</v>
+        <stp/>
+        <stp>BINANCE_DEPTH</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH_SIZE</stp>
+        <stp>8</stp>
+        <tr r="E23" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4</v>
+        <stp/>
+        <stp>BINANCE_DEPTH</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH_SIZE</stp>
+        <stp>9</stp>
+        <tr r="E24" s="1"/>
+      </tp>
+      <tp>
+        <v>5.8026999999999997</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3342,7 +3465,16 @@
         <tr r="E21" s="1"/>
       </tp>
       <tp>
-        <v>0.5</v>
+        <v>1.4219999999999999</v>
+        <stp/>
+        <stp>BINANCE_DEPTH</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH_SIZE</stp>
+        <stp>7</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>0.219</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3351,7 +3483,7 @@
         <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>0.9</v>
+        <v>1.8</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3360,7 +3492,7 @@
         <tr r="E20" s="1"/>
       </tp>
       <tp>
-        <v>8.7048900000000007</v>
+        <v>0.06</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3369,7 +3501,7 @@
         <tr r="E17" s="1"/>
       </tp>
       <tp>
-        <v>0.254</v>
+        <v>0.5</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3378,7 +3510,7 @@
         <tr r="E18" s="1"/>
       </tp>
       <tp>
-        <v>0.14535000000000001</v>
+        <v>0.39602999999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3387,7 +3519,7 @@
         <tr r="E15" s="1"/>
       </tp>
       <tp>
-        <v>0.69264000000000003</v>
+        <v>9</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3396,7 +3528,7 @@
         <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>-6.8</v>
+        <v>-10</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3404,7 +3536,7 @@
         <tr r="O7" s="1"/>
       </tp>
       <tp>
-        <v>-462.94</v>
+        <v>-500.47</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3412,7 +3544,7 @@
         <tr r="O6" s="1"/>
       </tp>
       <tp>
-        <v>-61.82</v>
+        <v>-66.010000000000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3420,7 +3552,7 @@
         <tr r="O5" s="1"/>
       </tp>
       <tp>
-        <v>0.21</v>
+        <v>0.17</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3428,7 +3560,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>0.76</v>
+        <v>0.6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3436,7 +3568,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>2.89</v>
+        <v>2.42</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3444,7 +3576,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>8.9999999999999998E-4</v>
+        <v>7.5000000000000002E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3452,7 +3584,23 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>0.67601</v>
+        <v>505569</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpusdt</stp>
+        <stp>FIRST_ID</stp>
+        <tr r="M18" s="1"/>
+      </tp>
+      <tp>
+        <v>2000</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpbtc</stp>
+        <stp>QUANTITY</stp>
+        <tr r="J20" s="1"/>
+      </tp>
+      <tp>
+        <v>0.64600000000000002</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3460,43 +3608,43 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>118.16673</v>
+        <v>3528.9031100000002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>VOL</stp>
         <stp>3</stp>
-        <tr r="J34" s="1"/>
-      </tp>
-      <tp>
-        <v>75.430670000000006</v>
+        <tr r="J37" s="1"/>
+      </tp>
+      <tp>
+        <v>16.262640000000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>VOL</stp>
         <stp>0</stp>
-        <tr r="J28" s="1"/>
-      </tp>
-      <tp>
-        <v>9.9152109999999993</v>
+        <tr r="J31" s="1"/>
+      </tp>
+      <tp>
+        <v>0.94858600000000004</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>VOL</stp>
         <stp>0</stp>
-        <tr r="J27" s="1"/>
-      </tp>
-      <tp>
-        <v>34.377370999999997</v>
+        <tr r="J30" s="1"/>
+      </tp>
+      <tp>
+        <v>238.42579499999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>VOL</stp>
         <stp>3</stp>
-        <tr r="J33" s="1"/>
-      </tp>
-      <tp>
-        <v>699</v>
+        <tr r="J36" s="1"/>
+      </tp>
+      <tp>
+        <v>669</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3504,7 +3652,7 @@
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>8368.34</v>
+        <v>8031.9</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3512,7 +3660,7 @@
         <tr r="C6" s="1"/>
       </tp>
       <tp>
-        <v>136.25</v>
+        <v>129.35</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3520,7 +3668,7 @@
         <tr r="C7" s="1"/>
       </tp>
       <tp>
-        <v>0.55000000000000004</v>
+        <v>3.89</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3528,7 +3676,7 @@
         <tr r="J9" s="1"/>
       </tp>
       <tp>
-        <v>13035</v>
+        <v>92528</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3536,7 +3684,15 @@
         <tr r="F11" s="1"/>
       </tp>
       <tp>
-        <v>7459782</v>
+        <v>28269780</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>trxbtc</stp>
+        <stp>FIRST_ID</stp>
+        <tr r="M21" s="1"/>
+      </tp>
+      <tp>
+        <v>7487351</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3544,7 +3700,7 @@
         <tr r="M17" s="1"/>
       </tp>
       <tp>
-        <v>45072169</v>
+        <v>45352162</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3552,12 +3708,20 @@
         <tr r="M16" s="1"/>
       </tp>
       <tp>
-        <v>25858665</v>
+        <v>26040847</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>FIRST_ID</stp>
         <tr r="M15" s="1"/>
+      </tp>
+      <tp>
+        <v>13330496</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>neobtc</stp>
+        <stp>TRADE_ID</stp>
+        <tr r="H19" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -3566,7 +3730,7 @@
         <stp>btcusdt</stp>
         <stp>FINAL</stp>
         <stp>0</stp>
-        <tr r="H27" s="1"/>
+        <tr r="H30" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -3575,118 +3739,126 @@
         <stp>btcusdt</stp>
         <stp>FINAL</stp>
         <stp>3</stp>
-        <tr r="H33" s="1"/>
-      </tp>
-      <tp>
-        <v>7866.65</v>
+        <tr r="H36" s="1"/>
+      </tp>
+      <tp>
+        <v>7500</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LOW</stp>
         <stp>3</stp>
-        <tr r="D33" s="1"/>
-      </tp>
-      <tp>
-        <v>7866.65</v>
+        <tr r="D36" s="1"/>
+      </tp>
+      <tp>
+        <v>7512.57</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LOW</stp>
         <stp>0</stp>
-        <tr r="D27" s="1"/>
-      </tp>
-      <tp>
-        <v>125.69</v>
+        <tr r="D30" s="1"/>
+      </tp>
+      <tp>
+        <v>118.7</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>LOW</stp>
         <stp>0</stp>
-        <tr r="D28" s="1"/>
-      </tp>
-      <tp>
-        <v>125.62</v>
+        <tr r="D31" s="1"/>
+      </tp>
+      <tp>
+        <v>118.38</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>LOW</stp>
         <stp>3</stp>
-        <tr r="D34" s="1"/>
-      </tp>
-      <tp>
-        <v>125.99</v>
+        <tr r="D37" s="1"/>
+      </tp>
+      <tp>
+        <v>118.7</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>CLOSE</stp>
         <stp>0</stp>
-        <tr r="E28" s="1"/>
-      </tp>
-      <tp>
-        <v>125.99</v>
+        <tr r="E31" s="1"/>
+      </tp>
+      <tp>
+        <v>118.7</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>CLOSE</stp>
         <stp>3</stp>
-        <tr r="E34" s="1"/>
-      </tp>
-      <tp>
-        <v>38</v>
+        <tr r="E37" s="1"/>
+      </tp>
+      <tp>
+        <v>261</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>TRADES</stp>
         <stp>3</stp>
-        <tr r="N34" s="1"/>
-      </tp>
-      <tp>
-        <v>392</v>
+        <tr r="N37" s="1"/>
+      </tp>
+      <tp>
+        <v>1966</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TRADES</stp>
         <stp>3</stp>
-        <tr r="N33" s="1"/>
-      </tp>
-      <tp>
-        <v>13</v>
+        <tr r="N36" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>TRADES</stp>
         <stp>0</stp>
-        <tr r="N28" s="1"/>
-      </tp>
-      <tp>
-        <v>116</v>
+        <tr r="N31" s="1"/>
+      </tp>
+      <tp>
+        <v>11</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TRADES</stp>
         <stp>0</stp>
-        <tr r="N27" s="1"/>
-      </tp>
-      <tp>
-        <v>260</v>
+        <tr r="N30" s="1"/>
+      </tp>
+      <tp>
+        <v>1594</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TRADES</stp>
         <stp>3</stp>
-        <tr r="N32" s="1"/>
-      </tp>
-      <tp>
-        <v>93</v>
+        <tr r="N35" s="1"/>
+      </tp>
+      <tp>
+        <v>4</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TRADES</stp>
         <stp>0</stp>
-        <tr r="N26" s="1"/>
-      </tp>
-      <tp>
-        <v>7459782</v>
+        <tr r="N29" s="1"/>
+      </tp>
+      <tp>
+        <v>458525</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpusdt</stp>
+        <stp>TRADE_ID</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp>
+        <v>7487351</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3694,7 +3866,15 @@
         <tr r="N17" s="1"/>
       </tp>
       <tp>
-        <v>6567886</v>
+        <v>15050999</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>neobtc</stp>
+        <stp>FIRST_ID</stp>
+        <tr r="M19" s="1"/>
+      </tp>
+      <tp>
+        <v>6593265</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3702,7 +3882,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>39191688</v>
+        <v>39447096</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3710,7 +3890,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>22955468</v>
+        <v>23115870</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3718,7 +3898,15 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>8.26</v>
+        <v>17543575</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>trxbtc</stp>
+        <stp>TRADE_ID</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>4.5599999999999996</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3726,7 +3914,7 @@
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>159363</v>
+        <v>235468</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3740,7 +3928,7 @@
         <stp>ethusdt</stp>
         <stp>FINAL</stp>
         <stp>3</stp>
-        <tr r="H32" s="1"/>
+        <tr r="H35" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -3749,10 +3937,18 @@
         <stp>ethusdt</stp>
         <stp>FINAL</stp>
         <stp>0</stp>
-        <tr r="H26" s="1"/>
-      </tp>
-      <tp>
-        <v>45072169</v>
+        <tr r="H29" s="1"/>
+      </tp>
+      <tp>
+        <v>17203563</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpbtc</stp>
+        <stp>TRADE_ID</stp>
+        <tr r="H20" s="1"/>
+      </tp>
+      <tp>
+        <v>45352162</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3760,25 +3956,25 @@
         <tr r="N16" s="1"/>
       </tp>
       <tp>
-        <v>626.39</v>
+        <v>577.64</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LOW</stp>
         <stp>0</stp>
-        <tr r="D26" s="1"/>
-      </tp>
-      <tp>
-        <v>626</v>
+        <tr r="D29" s="1"/>
+      </tp>
+      <tp>
+        <v>576.29999999999995</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LOW</stp>
         <stp>3</stp>
-        <tr r="D32" s="1"/>
-      </tp>
-      <tp>
-        <v>2145</v>
+        <tr r="D35" s="1"/>
+      </tp>
+      <tp>
+        <v>173</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3786,48 +3982,56 @@
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>627.86</v>
+        <v>578</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE</stp>
         <stp>3</stp>
-        <tr r="E32" s="1"/>
-      </tp>
-      <tp>
-        <v>627.86</v>
+        <tr r="E35" s="1"/>
+      </tp>
+      <tp>
+        <v>578</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE</stp>
         <stp>0</stp>
-        <tr r="E26" s="1"/>
-      </tp>
-      <tp>
-        <v>7872</v>
+        <tr r="E29" s="1"/>
+      </tp>
+      <tp>
+        <v>7515</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE</stp>
         <stp>0</stp>
-        <tr r="E27" s="1"/>
-      </tp>
-      <tp>
-        <v>7872</v>
+        <tr r="E30" s="1"/>
+      </tp>
+      <tp>
+        <v>7515</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE</stp>
         <stp>3</stp>
-        <tr r="E33" s="1"/>
-      </tp>
-      <tp>
-        <v>25858665</v>
+        <tr r="E36" s="1"/>
+      </tp>
+      <tp>
+        <v>26040847</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>LAST_ID</stp>
         <tr r="N15" s="1"/>
+      </tp>
+      <tp>
+        <v>2.66</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>neobtc</stp>
+        <stp>QUANTITY</stp>
+        <tr r="J19" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -3836,7 +4040,7 @@
         <stp>ltcusdt</stp>
         <stp>FINAL</stp>
         <stp>0</stp>
-        <tr r="H28" s="1"/>
+        <tr r="H31" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -3845,10 +4049,28 @@
         <stp>ltcusdt</stp>
         <stp>FINAL</stp>
         <stp>3</stp>
-        <tr r="H34" s="1"/>
-      </tp>
-      <tp>
-        <v>0.81967999999999996</v>
+        <tr r="H37" s="1"/>
+      </tp>
+      <tp>
+        <v>0.40028999999999998</v>
+        <stp/>
+        <stp>BINANCE_DEPTH</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH_SIZE</stp>
+        <stp>8</stp>
+        <tr r="A23" s="1"/>
+      </tp>
+      <tp>
+        <v>12.9</v>
+        <stp/>
+        <stp>BINANCE_DEPTH</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH_SIZE</stp>
+        <stp>9</stp>
+        <tr r="A24" s="1"/>
+      </tp>
+      <tp>
+        <v>10</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3857,7 +4079,16 @@
         <tr r="A21" s="1"/>
       </tp>
       <tp>
-        <v>0.4</v>
+        <v>0.5</v>
+        <stp/>
+        <stp>BINANCE_DEPTH</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH_SIZE</stp>
+        <stp>7</stp>
+        <tr r="A22" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7999999999999999E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3866,7 +4097,7 @@
         <tr r="A19" s="1"/>
       </tp>
       <tp>
-        <v>1.272</v>
+        <v>1.52519</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3875,7 +4106,7 @@
         <tr r="A20" s="1"/>
       </tp>
       <tp>
-        <v>0.70735999999999999</v>
+        <v>1.7999999999999999E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3884,7 +4115,7 @@
         <tr r="A17" s="1"/>
       </tp>
       <tp>
-        <v>0.9</v>
+        <v>1.7999999999999999E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3893,7 +4124,7 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>0.95562000000000002</v>
+        <v>0.49347000000000002</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3902,7 +4133,7 @@
         <tr r="A15" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>1.7999999999999999E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3911,7 +4142,7 @@
         <tr r="A16" s="1"/>
       </tp>
       <tp>
-        <v>8.072E-5</v>
+        <v>8.0500000000000005E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -3919,7 +4150,15 @@
         <tr r="E10" s="1"/>
       </tp>
       <tp>
-        <v>107136</v>
+        <v>43243.799421041665</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>trxbtc</stp>
+        <stp>TRADE_TIME</stp>
+        <tr r="O21" s="1"/>
+      </tp>
+      <tp>
+        <v>127521</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3933,7 +4172,7 @@
         <stp>btcusdt</stp>
         <stp>INTERVAL</stp>
         <stp>3</stp>
-        <tr r="M33" s="1"/>
+        <tr r="M36" s="1"/>
       </tp>
       <tp t="s">
         <v>OneMinute</v>
@@ -3942,7 +4181,7 @@
         <stp>btcusdt</stp>
         <stp>INTERVAL</stp>
         <stp>0</stp>
-        <tr r="M27" s="1"/>
+        <tr r="M30" s="1"/>
       </tp>
       <tp t="s">
         <v>FiveteenMinutes</v>
@@ -3951,7 +4190,7 @@
         <stp>ethusdt</stp>
         <stp>INTERVAL</stp>
         <stp>3</stp>
-        <tr r="M32" s="1"/>
+        <tr r="M35" s="1"/>
       </tp>
       <tp t="s">
         <v>OneMinute</v>
@@ -3960,7 +4199,7 @@
         <stp>ethusdt</stp>
         <stp>INTERVAL</stp>
         <stp>0</stp>
-        <tr r="M26" s="1"/>
+        <tr r="M29" s="1"/>
       </tp>
       <tp t="s">
         <v>FiveteenMinutes</v>
@@ -3969,7 +4208,7 @@
         <stp>ltcusdt</stp>
         <stp>INTERVAL</stp>
         <stp>3</stp>
-        <tr r="M34" s="1"/>
+        <tr r="M37" s="1"/>
       </tp>
       <tp t="s">
         <v>OneMinute</v>
@@ -3978,10 +4217,10 @@
         <stp>ltcusdt</stp>
         <stp>INTERVAL</stp>
         <stp>0</stp>
-        <tr r="M28" s="1"/>
-      </tp>
-      <tp>
-        <v>-5.1650000000000001E-2</v>
+        <tr r="M31" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.8440000000000002E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3989,7 +4228,15 @@
         <tr r="N11" s="1"/>
       </tp>
       <tp>
-        <v>43182</v>
+        <v>43243.799358796299</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpbtc</stp>
+        <stp>TRADE_TIME</stp>
+        <tr r="O20" s="1"/>
+      </tp>
+      <tp>
+        <v>66180</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3997,7 +4244,7 @@
         <tr r="M10" s="1"/>
       </tp>
       <tp>
-        <v>-1.068E-2</v>
+        <v>-1.576E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4005,7 +4252,7 @@
         <tr r="N10" s="1"/>
       </tp>
       <tp>
-        <v>9.6600000000000007E-6</v>
+        <v>9.2199999999999998E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
@@ -4013,7 +4260,39 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>43242.88648375</v>
+        <v>15051000</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>neobtc</stp>
+        <stp>LAST_ID</stp>
+        <tr r="N19" s="1"/>
+      </tp>
+      <tp>
+        <v>28269780</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>trxbtc</stp>
+        <stp>LAST_ID</stp>
+        <tr r="N21" s="1"/>
+      </tp>
+      <tp>
+        <v>20826818</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpbtc</stp>
+        <stp>LAST_ID</stp>
+        <tr r="N20" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.799348125001</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpusdt</stp>
+        <stp>TRADE_TIME</stp>
+        <tr r="O18" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.799419756942</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4021,7 +4300,7 @@
         <tr r="O15" s="1"/>
       </tp>
       <tp>
-        <v>43242.886493530095</v>
+        <v>43243.799415833331</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4029,7 +4308,7 @@
         <tr r="O16" s="1"/>
       </tp>
       <tp>
-        <v>43242.886462858798</v>
+        <v>43243.799404479163</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4037,7 +4316,7 @@
         <tr r="O17" s="1"/>
       </tp>
       <tp>
-        <v>-3.3309999999999999E-2</v>
+        <v>-3.1300000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4045,7 +4324,15 @@
         <tr r="N9" s="1"/>
       </tp>
       <tp>
-        <v>42166</v>
+        <v>43243.799420706018</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>neobtc</stp>
+        <stp>TRADE_TIME</stp>
+        <tr r="O19" s="1"/>
+      </tp>
+      <tp>
+        <v>52009</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4053,7 +4340,7 @@
         <tr r="M9" s="1"/>
       </tp>
       <tp>
-        <v>7.3629999999999998E-3</v>
+        <v>7.1669999999999998E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -4061,61 +4348,61 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>7459770</v>
+        <v>7487350</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>FIRST_ID</stp>
         <stp>0</stp>
-        <tr r="Q28" s="1"/>
-      </tp>
-      <tp>
-        <v>7459745</v>
+        <tr r="Q31" s="1"/>
+      </tp>
+      <tp>
+        <v>7487091</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>FIRST_ID</stp>
         <stp>3</stp>
-        <tr r="Q34" s="1"/>
-      </tp>
-      <tp>
-        <v>45072053</v>
+        <tr r="Q37" s="1"/>
+      </tp>
+      <tp>
+        <v>45352149</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>FIRST_ID</stp>
         <stp>0</stp>
-        <tr r="Q27" s="1"/>
-      </tp>
-      <tp>
-        <v>45071777</v>
+        <tr r="Q30" s="1"/>
+      </tp>
+      <tp>
+        <v>45350194</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>FIRST_ID</stp>
         <stp>3</stp>
-        <tr r="Q33" s="1"/>
-      </tp>
-      <tp>
-        <v>25858573</v>
+        <tr r="Q36" s="1"/>
+      </tp>
+      <tp>
+        <v>26040844</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>FIRST_ID</stp>
         <stp>0</stp>
-        <tr r="Q26" s="1"/>
-      </tp>
-      <tp>
-        <v>25858406</v>
+        <tr r="Q29" s="1"/>
+      </tp>
+      <tp>
+        <v>26039254</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>FIRST_ID</stp>
         <stp>3</stp>
-        <tr r="Q32" s="1"/>
-      </tp>
-      <tp>
-        <v>626.4</v>
+        <tr r="Q35" s="1"/>
+      </tp>
+      <tp>
+        <v>579.55999999999995</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4123,7 +4410,7 @@
         <tr r="D3" s="2"/>
       </tp>
       <tp>
-        <v>7877.15</v>
+        <v>7533.15</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4131,25 +4418,25 @@
         <tr r="D4" s="2"/>
       </tp>
       <tp>
-        <v>43242.885416666664</v>
+        <v>43243.791666666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>OPEN_TIME</stp>
         <stp>3</stp>
-        <tr r="F34" s="1"/>
-      </tp>
-      <tp>
-        <v>43242.886111111111</v>
+        <tr r="F37" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.799305555556</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>OPEN_TIME</stp>
         <stp>0</stp>
-        <tr r="F28" s="1"/>
-      </tp>
-      <tp>
-        <v>125.99</v>
+        <tr r="F31" s="1"/>
+      </tp>
+      <tp>
+        <v>118.7</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4157,7 +4444,7 @@
         <tr r="I17" s="1"/>
       </tp>
       <tp>
-        <v>7872</v>
+        <v>7512.58</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4165,7 +4452,7 @@
         <tr r="I16" s="1"/>
       </tp>
       <tp>
-        <v>-8.6000000000000002E-7</v>
+        <v>-1.2699999999999999E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4173,25 +4460,25 @@
         <tr r="O10" s="1"/>
       </tp>
       <tp>
-        <v>270517.96639274003</v>
+        <v>1794793.14691304</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>QUOTE_VOL</stp>
         <stp>3</stp>
-        <tr r="I33" s="1"/>
-      </tp>
-      <tp>
-        <v>78021.96712899</v>
+        <tr r="I36" s="1"/>
+      </tp>
+      <tp>
+        <v>7128.5009294299998</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>QUOTE_VOL</stp>
         <stp>0</stp>
-        <tr r="I27" s="1"/>
-      </tp>
-      <tp>
-        <v>690.81</v>
+        <tr r="I30" s="1"/>
+      </tp>
+      <tp>
+        <v>644.25</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -4199,7 +4486,7 @@
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>1E-8</v>
+        <v>2E-8</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4207,7 +4494,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>3345.64</v>
+        <v>185</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4215,7 +4502,7 @@
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>9.6800000000000005E-6</v>
+        <v>9.4599999999999992E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4223,7 +4510,7 @@
         <tr r="C11" s="1"/>
       </tp>
       <tp>
-        <v>46504.196129999997</v>
+        <v>106280.56263</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4231,7 +4518,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>0.626</v>
+        <v>0.59524999999999995</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4239,7 +4526,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>5400620.9120832998</v>
+        <v>12182594.599355601</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4247,79 +4534,79 @@
         <tr r="L8" s="1"/>
       </tp>
       <tp>
-        <v>43242.886805543982</v>
+        <v>43243.799999988427</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE_TIME</stp>
         <stp>0</stp>
-        <tr r="G26" s="1"/>
-      </tp>
-      <tp>
-        <v>43242.89583332176</v>
+        <tr r="G29" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.80208332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE_TIME</stp>
         <stp>3</stp>
-        <tr r="G32" s="1"/>
-      </tp>
-      <tp>
-        <v>43242.886805543982</v>
+        <tr r="G35" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.799999988427</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE_TIME</stp>
         <stp>0</stp>
-        <tr r="G27" s="1"/>
-      </tp>
-      <tp>
-        <v>43242.886805543982</v>
+        <tr r="G30" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.799999988427</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>CLOSE_TIME</stp>
         <stp>0</stp>
-        <tr r="G28" s="1"/>
-      </tp>
-      <tp>
-        <v>43242.89583332176</v>
+        <tr r="G31" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.80208332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE_TIME</stp>
         <stp>3</stp>
-        <tr r="G33" s="1"/>
-      </tp>
-      <tp>
-        <v>43242.89583332176</v>
+        <tr r="G36" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.80208332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>CLOSE_TIME</stp>
         <stp>3</stp>
-        <tr r="G34" s="1"/>
-      </tp>
-      <tp>
-        <v>56089.4772113</v>
+        <tr r="G37" s="1"/>
+      </tp>
+      <tp>
+        <v>745.85206400000004</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>QUOTE_VOL</stp>
         <stp>0</stp>
-        <tr r="I26" s="1"/>
-      </tp>
-      <tp>
-        <v>194331.6813198</v>
+        <tr r="I29" s="1"/>
+      </tp>
+      <tp>
+        <v>1029820.926874</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>QUOTE_VOL</stp>
         <stp>3</stp>
-        <tr r="I32" s="1"/>
-      </tp>
-      <tp>
-        <v>0.69</v>
+        <tr r="I35" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7439100000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4327,7 +4614,7 @@
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>1</v>
+        <v>2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4335,7 +4622,7 @@
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>0.95562000000000002</v>
+        <v>0.49347000000000002</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4343,7 +4630,15 @@
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>0.62690000000000001</v>
+        <v>6.9259999999999999E-3</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>neobtc</stp>
+        <stp>PRICE</stp>
+        <tr r="I19" s="1"/>
+      </tp>
+      <tp>
+        <v>0.59599999999999997</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4351,7 +4646,7 @@
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>8.1440000000000006E-5</v>
+        <v>8.0749999999999998E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4359,25 +4654,25 @@
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>43242.886111111111</v>
+        <v>43243.799305555556</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>OPEN_TIME</stp>
         <stp>0</stp>
-        <tr r="F26" s="1"/>
-      </tp>
-      <tp>
-        <v>43242.885416666664</v>
+        <tr r="F29" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.791666666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>OPEN_TIME</stp>
         <stp>3</stp>
-        <tr r="F32" s="1"/>
-      </tp>
-      <tp>
-        <v>627.86</v>
+        <tr r="F35" s="1"/>
+      </tp>
+      <tp>
+        <v>578</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4385,7 +4680,7 @@
         <tr r="I15" s="1"/>
       </tp>
       <tp>
-        <v>133.26</v>
+        <v>128.44999999999999</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -4393,7 +4688,7 @@
         <tr r="D7" s="1"/>
       </tp>
       <tp>
-        <v>8332</v>
+        <v>8000</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -4401,61 +4696,61 @@
         <tr r="D6" s="1"/>
       </tp>
       <tp>
-        <v>152843.98940701</v>
+        <v>677632.36464485002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>3</stp>
-        <tr r="L33" s="1"/>
-      </tp>
-      <tp>
-        <v>9267.6257091000007</v>
+        <tr r="L36" s="1"/>
+      </tp>
+      <tp>
+        <v>196062.29350989999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>3</stp>
-        <tr r="L34" s="1"/>
-      </tp>
-      <tp>
-        <v>30683.260372140001</v>
+        <tr r="L37" s="1"/>
+      </tp>
+      <tp>
+        <v>6889.3380536200002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>0</stp>
-        <tr r="L27" s="1"/>
-      </tp>
-      <tp>
-        <v>9142.2339343999993</v>
+        <tr r="L30" s="1"/>
+      </tp>
+      <tp>
+        <v>1930.5370680000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>0</stp>
-        <tr r="L28" s="1"/>
-      </tp>
-      <tp>
-        <v>146585.28732870001</v>
+        <tr r="L31" s="1"/>
+      </tp>
+      <tp>
+        <v>540465.4464899</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>3</stp>
-        <tr r="L32" s="1"/>
-      </tp>
-      <tp>
-        <v>44292.423157800004</v>
+        <tr r="L35" s="1"/>
+      </tp>
+      <tp>
+        <v>2.2970419999999998</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>0</stp>
-        <tr r="L26" s="1"/>
-      </tp>
-      <tp>
-        <v>626.4</v>
+        <tr r="L29" s="1"/>
+      </tp>
+      <tp>
+        <v>579.11</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4463,7 +4758,7 @@
         <tr r="B3" s="2"/>
       </tp>
       <tp>
-        <v>2114.8736696000001</v>
+        <v>2624.7235926899998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4471,7 +4766,7 @@
         <tr r="L9" s="1"/>
       </tp>
       <tp>
-        <v>24822.945764</v>
+        <v>42435.118895</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4479,7 +4774,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>0.626</v>
+        <v>0.57310000000000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4487,7 +4782,7 @@
         <tr r="B8" s="1"/>
       </tp>
       <tp>
-        <v>626.41</v>
+        <v>579.25</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4495,7 +4790,7 @@
         <tr r="C3" s="2"/>
       </tp>
       <tp>
-        <v>2E-8</v>
+        <v>4.0000000000000001E-8</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4503,25 +4798,25 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>14873.715829299999</v>
+        <v>419829.58477409999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>QUOTE_VOL</stp>
         <stp>3</stp>
-        <tr r="I34" s="1"/>
-      </tp>
-      <tp>
-        <v>9502.4805570000008</v>
+        <tr r="I37" s="1"/>
+      </tp>
+      <tp>
+        <v>1930.5370680000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>QUOTE_VOL</stp>
         <stp>0</stp>
-        <tr r="I28" s="1"/>
-      </tp>
-      <tp>
-        <v>117654.35584</v>
+        <tr r="I31" s="1"/>
+      </tp>
+      <tp>
+        <v>254706.29717999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4529,7 +4824,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>7877.15</v>
+        <v>7533.15</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4537,7 +4832,7 @@
         <tr r="C4" s="2"/>
       </tp>
       <tp>
-        <v>-4.9999999999999998E-7</v>
+        <v>-1.6999999999999999E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4545,7 +4840,7 @@
         <tr r="O11" s="1"/>
       </tp>
       <tp>
-        <v>7875.49</v>
+        <v>7533.14</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4553,25 +4848,41 @@
         <tr r="B4" s="2"/>
       </tp>
       <tp>
-        <v>43242.885416666664</v>
+        <v>43243.791666666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN_TIME</stp>
         <stp>3</stp>
-        <tr r="F33" s="1"/>
-      </tp>
-      <tp>
-        <v>43242.886111111111</v>
+        <tr r="F36" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.799305555556</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN_TIME</stp>
         <stp>0</stp>
-        <tr r="F27" s="1"/>
-      </tp>
-      <tp>
-        <v>7866.65</v>
+        <tr r="F30" s="1"/>
+      </tp>
+      <tp>
+        <v>9.0699999999999996E-6</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>trxbtc</stp>
+        <stp>PRICE</stp>
+        <tr r="I21" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9300000000000003E-5</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpbtc</stp>
+        <stp>PRICE</stp>
+        <tr r="I20" s="1"/>
+      </tp>
+      <tp>
+        <v>7425</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4579,7 +4890,7 @@
         <tr r="B6" s="1"/>
       </tp>
       <tp>
-        <v>125.76</v>
+        <v>118.54</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4587,7 +4898,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>8241490.5700000003</v>
+        <v>20037666.02</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4595,43 +4906,69 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>7459782</v>
+        <v>0.59599999999999997</v>
+        <stp/>
+        <stp>BINANCE_TRADE</stp>
+        <stp>xrpusdt</stp>
+        <stp>PRICE</stp>
+        <tr r="I18" s="1"/>
+      </tp>
+      <tp>
+        <v>7487351</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>LAST_ID</stp>
         <stp>3</stp>
-        <tr r="R34" s="1"/>
-      </tp>
-      <tp>
-        <v>7459782</v>
+        <tr r="R37" s="1"/>
+      </tp>
+      <tp>
+        <v>7487351</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>LAST_ID</stp>
         <stp>0</stp>
-        <tr r="R28" s="1"/>
-      </tp>
-      <tp>
-        <v>45072168</v>
+        <tr r="R31" s="1"/>
+      </tp>
+      <tp>
+        <v>45352159</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LAST_ID</stp>
         <stp>0</stp>
-        <tr r="R27" s="1"/>
-      </tp>
-      <tp>
-        <v>45072168</v>
+        <tr r="R30" s="1"/>
+      </tp>
+      <tp>
+        <v>45352159</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LAST_ID</stp>
         <stp>3</stp>
-        <tr r="R33" s="1"/>
-      </tp>
-      <tp>
-        <v>627.08000000000004</v>
+        <tr r="R36" s="1"/>
+      </tp>
+      <tp>
+        <v>577.44000000000005</v>
+        <stp/>
+        <stp>BINANCE_DEPTH</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH</stp>
+        <stp>9</stp>
+        <tr r="B24" s="1"/>
+      </tp>
+      <tp>
+        <v>577.5</v>
+        <stp/>
+        <stp>BINANCE_DEPTH</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH</stp>
+        <stp>8</stp>
+        <tr r="B23" s="1"/>
+      </tp>
+      <tp>
+        <v>577.99</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4640,7 +4977,7 @@
         <tr r="B16" s="1"/>
       </tp>
       <tp>
-        <v>627.09</v>
+        <v>578</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4649,7 +4986,7 @@
         <tr r="B15" s="1"/>
       </tp>
       <tp>
-        <v>626.65</v>
+        <v>577.74</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4658,7 +4995,7 @@
         <tr r="B18" s="1"/>
       </tp>
       <tp>
-        <v>627.05999999999995</v>
+        <v>577.83000000000004</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4667,7 +5004,7 @@
         <tr r="B17" s="1"/>
       </tp>
       <tp>
-        <v>626.51</v>
+        <v>577.64</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4676,7 +5013,7 @@
         <tr r="B20" s="1"/>
       </tp>
       <tp>
-        <v>626.63</v>
+        <v>577.65</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4685,7 +5022,16 @@
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>626.49</v>
+        <v>577.55999999999995</v>
+        <stp/>
+        <stp>BINANCE_DEPTH</stp>
+        <stp>ethusdt</stp>
+        <stp>BID_DEPTH</stp>
+        <stp>7</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp>
+        <v>577.63</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4694,7 +5040,7 @@
         <tr r="B21" s="1"/>
       </tp>
       <tp>
-        <v>628.30999999999995</v>
+        <v>579.02</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4703,7 +5049,16 @@
         <tr r="D21" s="1"/>
       </tp>
       <tp>
-        <v>628.04999999999995</v>
+        <v>579.26</v>
+        <stp/>
+        <stp>BINANCE_DEPTH</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH</stp>
+        <stp>7</stp>
+        <tr r="D22" s="1"/>
+      </tp>
+      <tp>
+        <v>578.96</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4712,7 +5067,7 @@
         <tr r="D19" s="1"/>
       </tp>
       <tp>
-        <v>628.08000000000004</v>
+        <v>579.01</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4721,7 +5076,7 @@
         <tr r="D20" s="1"/>
       </tp>
       <tp>
-        <v>628</v>
+        <v>578.87</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4730,7 +5085,7 @@
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>628.02</v>
+        <v>578.95000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4739,7 +5094,7 @@
         <tr r="D18" s="1"/>
       </tp>
       <tp>
-        <v>627.85</v>
+        <v>578.6</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4748,7 +5103,7 @@
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>627.86</v>
+        <v>578.82000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4757,7 +5112,25 @@
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>125.97</v>
+        <v>579.27</v>
+        <stp/>
+        <stp>BINANCE_DEPTH</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH</stp>
+        <stp>8</stp>
+        <tr r="D23" s="1"/>
+      </tp>
+      <tp>
+        <v>579.29</v>
+        <stp/>
+        <stp>BINANCE_DEPTH</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_DEPTH</stp>
+        <stp>9</stp>
+        <tr r="D24" s="1"/>
+      </tp>
+      <tp>
+        <v>118.71</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4765,7 +5138,7 @@
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>-2.4499999999999999E-4</v>
+        <v>-2.24E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4773,7 +5146,7 @@
         <tr r="O9" s="1"/>
       </tp>
       <tp>
-        <v>1.0000000000000001E-5</v>
+        <v>1.9999999999999999E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4781,7 +5154,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>626</v>
+        <v>560</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4789,7 +5162,7 @@
         <tr r="B5" s="1"/>
       </tp>
       <tp>
-        <v>202728008.557116</v>
+        <v>328149121.66622531</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4797,7 +5170,7 @@
         <tr r="L6" s="1"/>
       </tp>
       <tp>
-        <v>6084927.5137790004</v>
+        <v>12995945.213345701</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4805,7 +5178,7 @@
         <tr r="L7" s="1"/>
       </tp>
       <tp>
-        <v>627.09</v>
+        <v>578</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4813,7 +5186,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>319.02999999999997</v>
+        <v>13250</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4821,25 +5194,25 @@
         <tr r="J8" s="1"/>
       </tp>
       <tp>
-        <v>25858665</v>
+        <v>26040847</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LAST_ID</stp>
         <stp>3</stp>
-        <tr r="R32" s="1"/>
-      </tp>
-      <tp>
-        <v>25858665</v>
+        <tr r="R35" s="1"/>
+      </tp>
+      <tp>
+        <v>26040847</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LAST_ID</stp>
         <stp>0</stp>
-        <tr r="R26" s="1"/>
-      </tp>
-      <tp>
-        <v>627.85</v>
+        <tr r="R29" s="1"/>
+      </tp>
+      <tp>
+        <v>578.6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4847,7 +5220,7 @@
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>0.67059999999999997</v>
+        <v>0.64510000000000001</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -4855,7 +5228,7 @@
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>78680925.369091794</v>
+        <v>154657317.2878904</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4863,7 +5236,7 @@
         <tr r="L5" s="1"/>
       </tp>
       <tp>
-        <v>10372.48197879</v>
+        <v>13743.119085259999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4871,7 +5244,7 @@
         <tr r="L11" s="1"/>
       </tp>
       <tp>
-        <v>2141.8032580099998</v>
+        <v>3304.1174867200002</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4879,7 +5252,7 @@
         <tr r="L10" s="1"/>
       </tp>
       <tp>
-        <v>7871.99</v>
+        <v>7515</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4887,7 +5260,7 @@
         <tr r="I6" s="1"/>
       </tp>
       <tp>
-        <v>125.62</v>
+        <v>115.83</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4895,7 +5268,7 @@
         <tr r="B7" s="1"/>
       </tp>
       <tp>
-        <v>7869.1</v>
+        <v>7512.58</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4903,7 +5276,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>7.3600000000000002E-3</v>
+        <v>7.241E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4911,61 +5284,61 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>43242.886491053243</v>
+        <v>43243.799413310182</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>Event_Time</stp>
         <stp>0</stp>
-        <tr r="P27" s="1"/>
-      </tp>
-      <tp>
-        <v>43242.886462905095</v>
+        <tr r="P30" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.799404513891</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>Event_Time</stp>
         <stp>0</stp>
-        <tr r="P28" s="1"/>
-      </tp>
-      <tp>
-        <v>43242.886491030091</v>
+        <tr r="P31" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.799413310182</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>Event_Time</stp>
         <stp>3</stp>
-        <tr r="P33" s="1"/>
-      </tp>
-      <tp>
-        <v>43242.88646292824</v>
+        <tr r="P36" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.799404513891</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
         <stp>Event_Time</stp>
         <stp>3</stp>
-        <tr r="P34" s="1"/>
-      </tp>
-      <tp>
-        <v>43242.886483796297</v>
+        <tr r="P37" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.799419791663</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>Event_Time</stp>
         <stp>0</stp>
-        <tr r="P26" s="1"/>
-      </tp>
-      <tp>
-        <v>43242.886483773145</v>
+        <tr r="P29" s="1"/>
+      </tp>
+      <tp>
+        <v>43243.799419791663</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>Event_Time</stp>
         <stp>3</stp>
-        <tr r="P32" s="1"/>
-      </tp>
-      <tp>
-        <v>0.14535000000000001</v>
+        <tr r="P35" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39602999999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4973,7 +5346,7 @@
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>11.57254</v>
+        <v>0.2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4981,7 +5354,7 @@
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>0.14455899999999999</v>
+        <v>2.0441069999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -5065,8 +5438,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E21" totalsRowShown="0" dataDxfId="53" dataCellStyle="Comma">
-  <autoFilter ref="A14:E21" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E24" totalsRowShown="0" dataDxfId="53" dataCellStyle="Comma">
+  <autoFilter ref="A14:E24" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="52" dataCellStyle="20% - Accent6">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</calculatedColumnFormula>
@@ -5087,8 +5460,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:O17" totalsRowShown="0" dataDxfId="47" tableBorderDxfId="46" dataCellStyle="Comma">
-  <autoFilter ref="G14:O17" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:O21" totalsRowShown="0" dataDxfId="47" tableBorderDxfId="46" dataCellStyle="Comma">
+  <autoFilter ref="G14:O21" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4DF9B9E1-1E83-4EF7-84C1-2078EE821C9B}" name="SYMBOL"/>
     <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="45" dataCellStyle="Comma">
@@ -5121,60 +5494,60 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A25:R28" totalsRowShown="0" dataDxfId="37" tableBorderDxfId="36" dataCellStyle="Comma">
-  <autoFilter ref="A25:R28" xr:uid="{BD9601BD-F222-4DBD-B404-C68EB6A96569}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A28:R31" totalsRowShown="0" dataDxfId="37" tableBorderDxfId="36" dataCellStyle="Comma">
+  <autoFilter ref="A28:R31" xr:uid="{BD9601BD-F222-4DBD-B404-C68EB6A96569}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{A75C3BB9-BD50-4A86-92A6-228C26DADEC8}" name="SYMBOL"/>
     <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="35" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,B$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,B$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="34" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,C$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,C$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="33" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,D$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,D$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="32" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,E$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,E$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="31" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,F$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,F$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="30" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,G$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,G$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="29" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,H$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,H$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="28" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,I$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,I$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="27" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,J$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,J$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="26" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,K$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,K$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="25" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,L$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,L$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="24" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,M$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,M$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="23" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,N$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,N$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{11BF3445-5968-4B64-972D-05C6CECCD6DE}" name="Event" dataDxfId="22" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,O$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,O$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="21" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,P$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,P$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="20" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,Q$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,Q$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="19" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A26,R$25,$D$24)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,R$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5182,60 +5555,60 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A31:R34" totalsRowShown="0" dataDxfId="18" tableBorderDxfId="17" dataCellStyle="Comma">
-  <autoFilter ref="A31:R34" xr:uid="{04787891-A2B4-4F14-ADE0-2BC3B779F519}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A34:R37" totalsRowShown="0" dataDxfId="18" tableBorderDxfId="17" dataCellStyle="Comma">
+  <autoFilter ref="A34:R37" xr:uid="{04787891-A2B4-4F14-ADE0-2BC3B779F519}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{CD2685D4-7653-442A-A4D2-04D1D79D1D51}" name="SYMBOL"/>
     <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="16" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,B$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,B$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="15" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,C$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,C$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="14" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,D$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,D$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="13" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,E$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,E$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="12" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,F$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,F$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="11" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,G$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,G$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="10" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,H$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,H$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="9" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,I$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,I$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="8" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,J$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,J$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="7" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,K$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,K$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="6" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,L$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,L$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="5" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,M$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,M$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="4" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,N$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,N$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{528B6C8B-64D5-45B1-8F49-30BB75CB0054}" name="Event" dataDxfId="3" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,O$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,O$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="2" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,P$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,P$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="1" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,Q$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,Q$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="0" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A32,R$25,$D$30)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,R$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5579,15 +5952,15 @@
       </c>
       <c r="B3" s="2">
         <f>RTD(progId,,GDAX,$A3,B$2)</f>
-        <v>626.4</v>
+        <v>579.11</v>
       </c>
       <c r="C3" s="2">
         <f>RTD(progId,,GDAX,$A3,C$2)</f>
-        <v>626.41</v>
+        <v>579.25</v>
       </c>
       <c r="D3" s="2">
         <f>RTD(progId,,GDAX,$A3,D$2)</f>
-        <v>626.4</v>
+        <v>579.55999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5596,15 +5969,15 @@
       </c>
       <c r="B4" s="2">
         <f>RTD(progId,,GDAX,$A4,B$2)</f>
-        <v>7875.49</v>
+        <v>7533.14</v>
       </c>
       <c r="C4" s="2">
         <f>RTD(progId,,GDAX,$A4,C$2)</f>
-        <v>7877.15</v>
+        <v>7533.15</v>
       </c>
       <c r="D4" s="2">
         <f>RTD(progId,,GDAX,$A4,D$2)</f>
-        <v>7877.15</v>
+        <v>7533.15</v>
       </c>
     </row>
   </sheetData>
@@ -5618,10 +5991,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F314B32C-A36F-425C-B63D-E2C30E3C057B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15:Q18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5635,7 +6008,7 @@
     <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
@@ -5646,7 +6019,7 @@
     <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -5667,10 +6040,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
@@ -5686,7 +6059,7 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5733,434 +6106,434 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2">
         <f>RTD(progId,,BINANCE,$A5,B$4)</f>
-        <v>626</v>
+        <v>560</v>
       </c>
       <c r="C5" s="2">
         <f>RTD(progId,,BINANCE,$A5,C$4)</f>
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="D5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,D$4)</f>
-        <v>690.81</v>
+        <v>644.25</v>
       </c>
       <c r="E5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,E$4)</f>
-        <v>691.22</v>
+        <v>644.25</v>
       </c>
       <c r="F5" s="2">
         <f>RTD(progId,,BINANCE,$A5,F$4)</f>
-        <v>0.95562000000000002</v>
+        <v>0.49347000000000002</v>
       </c>
       <c r="G5" s="2">
         <f>RTD(progId,,BINANCE,$A5,G$4)</f>
-        <v>627.09</v>
+        <v>578</v>
       </c>
       <c r="H5" s="2">
         <f>RTD(progId,,BINANCE,$A5,H$4)</f>
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="I5" s="2">
         <f>RTD(progId,,BINANCE,$A5,I$4)</f>
-        <v>627.85</v>
+        <v>578.6</v>
       </c>
       <c r="J5" s="2">
         <f>RTD(progId,,BINANCE,$A5,J$4)</f>
-        <v>0.14535000000000001</v>
+        <v>0.39602999999999999</v>
       </c>
       <c r="K5" s="9">
         <f>RTD(progId,,BINANCE,$A5,K$4)</f>
-        <v>117654.35584</v>
+        <v>254706.29717999999</v>
       </c>
       <c r="L5" s="2">
         <f>RTD(progId,,BINANCE,$A5,L$4)</f>
-        <v>78680925.369091794</v>
+        <v>154657317.2878904</v>
       </c>
       <c r="M5" s="9">
         <f>RTD(progId,,BINANCE,$A5,M$4)</f>
-        <v>118969</v>
+        <v>199919</v>
       </c>
       <c r="N5" s="10">
         <f>RTD(progId,,BINANCE,$A5,N$4)</f>
-        <v>-8.9639999999999997E-2</v>
+        <v>-0.1024</v>
       </c>
       <c r="O5" s="2">
         <f>RTD(progId,,BINANCE,$A5,O$4)</f>
-        <v>-61.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-66.010000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2">
         <f>RTD(progId,,BINANCE,$A6,B$4)</f>
-        <v>7866.65</v>
+        <v>7425</v>
       </c>
       <c r="C6" s="2">
         <f>RTD(progId,,BINANCE,$A6,C$4)</f>
-        <v>8368.34</v>
+        <v>8031.9</v>
       </c>
       <c r="D6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,D$4)</f>
-        <v>8332</v>
+        <v>8000</v>
       </c>
       <c r="E6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,E$4)</f>
-        <v>8329.82</v>
+        <v>8009.9</v>
       </c>
       <c r="F6" s="2">
         <f>RTD(progId,,BINANCE,$A6,F$4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
         <f>RTD(progId,,BINANCE,$A6,G$4)</f>
-        <v>7869.1</v>
+        <v>7512.58</v>
       </c>
       <c r="H6" s="2">
         <f>RTD(progId,,BINANCE,$A6,H$4)</f>
-        <v>2.89</v>
+        <v>2.42</v>
       </c>
       <c r="I6" s="2">
         <f>RTD(progId,,BINANCE,$A6,I$4)</f>
-        <v>7871.99</v>
+        <v>7515</v>
       </c>
       <c r="J6" s="2">
         <f>RTD(progId,,BINANCE,$A6,J$4)</f>
-        <v>0.14455899999999999</v>
+        <v>2.0441069999999999</v>
       </c>
       <c r="K6" s="9">
         <f>RTD(progId,,BINANCE,$A6,K$4)</f>
-        <v>24822.945764</v>
+        <v>42435.118895</v>
       </c>
       <c r="L6" s="2">
         <f>RTD(progId,,BINANCE,$A6,L$4)</f>
-        <v>202728008.557116</v>
+        <v>328149121.66622531</v>
       </c>
       <c r="M6" s="9">
         <f>RTD(progId,,BINANCE,$A6,M$4)</f>
-        <v>200358</v>
+        <v>304507</v>
       </c>
       <c r="N6" s="10">
         <f>RTD(progId,,BINANCE,$A6,N$4)</f>
-        <v>-5.5539999999999999E-2</v>
+        <v>-6.2440000000000002E-2</v>
       </c>
       <c r="O6" s="2">
         <f>RTD(progId,,BINANCE,$A6,O$4)</f>
-        <v>-462.94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-500.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2">
         <f>RTD(progId,,BINANCE,$A7,B$4)</f>
-        <v>125.62</v>
+        <v>115.83</v>
       </c>
       <c r="C7" s="2">
         <f>RTD(progId,,BINANCE,$A7,C$4)</f>
-        <v>136.25</v>
+        <v>129.35</v>
       </c>
       <c r="D7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,D$4)</f>
-        <v>133.26</v>
+        <v>128.44999999999999</v>
       </c>
       <c r="E7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,E$4)</f>
-        <v>133.25</v>
+        <v>128.51</v>
       </c>
       <c r="F7" s="2">
         <f>RTD(progId,,BINANCE,$A7,F$4)</f>
-        <v>0.69</v>
+        <v>1.7439100000000001</v>
       </c>
       <c r="G7" s="2">
         <f>RTD(progId,,BINANCE,$A7,G$4)</f>
-        <v>125.76</v>
+        <v>118.54</v>
       </c>
       <c r="H7" s="2">
         <f>RTD(progId,,BINANCE,$A7,H$4)</f>
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="I7" s="2">
         <f>RTD(progId,,BINANCE,$A7,I$4)</f>
-        <v>125.97</v>
+        <v>118.71</v>
       </c>
       <c r="J7" s="2">
         <f>RTD(progId,,BINANCE,$A7,J$4)</f>
-        <v>11.57254</v>
+        <v>0.2</v>
       </c>
       <c r="K7" s="9">
         <f>RTD(progId,,BINANCE,$A7,K$4)</f>
-        <v>46504.196129999997</v>
+        <v>106280.56263</v>
       </c>
       <c r="L7" s="2">
         <f>RTD(progId,,BINANCE,$A7,L$4)</f>
-        <v>6084927.5137790004</v>
+        <v>12995945.213345701</v>
       </c>
       <c r="M7" s="9">
         <f>RTD(progId,,BINANCE,$A7,M$4)</f>
-        <v>17708</v>
+        <v>29571</v>
       </c>
       <c r="N7" s="10">
         <f>RTD(progId,,BINANCE,$A7,N$4)</f>
-        <v>-5.1209999999999999E-2</v>
+        <v>-7.7700000000000005E-2</v>
       </c>
       <c r="O7" s="2">
         <f>RTD(progId,,BINANCE,$A7,O$4)</f>
-        <v>-6.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="2">
         <f>RTD(progId,,BINANCE,$A8,B$4)</f>
-        <v>0.626</v>
+        <v>0.57310000000000005</v>
       </c>
       <c r="C8" s="2">
         <f>RTD(progId,,BINANCE,$A8,C$4)</f>
-        <v>0.67601</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="D8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,D$4)</f>
-        <v>0.67059999999999997</v>
+        <v>0.64510000000000001</v>
       </c>
       <c r="E8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,E$4)</f>
-        <v>0.67052999999999996</v>
+        <v>0.64571999999999996</v>
       </c>
       <c r="F8" s="9">
         <f>RTD(progId,,BINANCE,$A8,F$4)</f>
-        <v>3345.64</v>
+        <v>185</v>
       </c>
       <c r="G8" s="2">
         <f>RTD(progId,,BINANCE,$A8,G$4)</f>
-        <v>0.626</v>
+        <v>0.59524999999999995</v>
       </c>
       <c r="H8" s="2">
         <f>RTD(progId,,BINANCE,$A8,H$4)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="I8" s="2">
         <f>RTD(progId,,BINANCE,$A8,I$4)</f>
-        <v>0.62690000000000001</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="J8" s="2">
         <f>RTD(progId,,BINANCE,$A8,J$4)</f>
-        <v>319.02999999999997</v>
+        <v>13250</v>
       </c>
       <c r="K8" s="9">
         <f>RTD(progId,,BINANCE,$A8,K$4)</f>
-        <v>8241490.5700000003</v>
+        <v>20037666.02</v>
       </c>
       <c r="L8" s="2">
         <f>RTD(progId,,BINANCE,$A8,L$4)</f>
-        <v>5400620.9120832998</v>
+        <v>12182594.599355601</v>
       </c>
       <c r="M8" s="9">
         <f>RTD(progId,,BINANCE,$A8,M$4)</f>
-        <v>15528</v>
+        <v>30998</v>
       </c>
       <c r="N8" s="10">
         <f>RTD(progId,,BINANCE,$A8,N$4)</f>
-        <v>-6.3200000000000006E-2</v>
+        <v>-7.5969999999999996E-2</v>
       </c>
       <c r="O8" s="2">
         <f>RTD(progId,,BINANCE,$A8,O$4)</f>
-        <v>-4.2229999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2">
         <f>RTD(progId,,BINANCE,$A9,B$4)</f>
-        <v>7.0879999999999997E-3</v>
+        <v>6.8659999999999997E-3</v>
       </c>
       <c r="C9" s="2">
         <f>RTD(progId,,BINANCE,$A9,C$4)</f>
-        <v>7.3600000000000002E-3</v>
+        <v>7.241E-3</v>
       </c>
       <c r="D9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,D$4)</f>
-        <v>7.3590000000000001E-3</v>
+        <v>7.1669999999999998E-3</v>
       </c>
       <c r="E9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,E$4)</f>
-        <v>7.3629999999999998E-3</v>
+        <v>7.1669999999999998E-3</v>
       </c>
       <c r="F9" s="9">
         <f>RTD(progId,,BINANCE,$A9,F$4)</f>
-        <v>8.26</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="G9" s="2">
         <f>RTD(progId,,BINANCE,$A9,G$4)</f>
-        <v>7.1120000000000003E-3</v>
+        <v>6.9259999999999999E-3</v>
       </c>
       <c r="H9" s="2">
         <f>RTD(progId,,BINANCE,$A9,H$4)</f>
-        <v>1.0000000000000001E-5</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="I9" s="2">
         <f>RTD(progId,,BINANCE,$A9,I$4)</f>
-        <v>7.1219999999999999E-3</v>
+        <v>6.9280000000000001E-3</v>
       </c>
       <c r="J9" s="2">
         <f>RTD(progId,,BINANCE,$A9,J$4)</f>
-        <v>0.55000000000000004</v>
+        <v>3.89</v>
       </c>
       <c r="K9" s="9">
         <f>RTD(progId,,BINANCE,$A9,K$4)</f>
-        <v>292767.62</v>
+        <v>372632.11</v>
       </c>
       <c r="L9" s="2">
         <f>RTD(progId,,BINANCE,$A9,L$4)</f>
-        <v>2114.8736696000001</v>
+        <v>2624.7235926899998</v>
       </c>
       <c r="M9" s="9">
         <f>RTD(progId,,BINANCE,$A9,M$4)</f>
-        <v>42166</v>
+        <v>52009</v>
       </c>
       <c r="N9" s="10">
         <f>RTD(progId,,BINANCE,$A9,N$4)</f>
-        <v>-3.3309999999999999E-2</v>
+        <v>-3.1300000000000001E-2</v>
       </c>
       <c r="O9" s="2">
         <f>RTD(progId,,BINANCE,$A9,O$4)</f>
-        <v>-2.4499999999999999E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-2.24E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="2">
         <f>RTD(progId,,BINANCE,$A10,B$4)</f>
-        <v>7.9309999999999998E-5</v>
+        <v>7.6600000000000005E-5</v>
       </c>
       <c r="C10" s="2">
         <f>RTD(progId,,BINANCE,$A10,C$4)</f>
-        <v>8.1440000000000006E-5</v>
+        <v>8.0749999999999998E-5</v>
       </c>
       <c r="D10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,D$4)</f>
-        <v>8.0690000000000002E-5</v>
+        <v>8.0550000000000006E-5</v>
       </c>
       <c r="E10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,E$4)</f>
-        <v>8.072E-5</v>
+        <v>8.0500000000000005E-5</v>
       </c>
       <c r="F10" s="9">
         <f>RTD(progId,,BINANCE,$A10,F$4)</f>
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G10" s="2">
         <f>RTD(progId,,BINANCE,$A10,G$4)</f>
-        <v>7.9640000000000003E-5</v>
+        <v>7.9309999999999998E-5</v>
       </c>
       <c r="H10" s="2">
         <f>RTD(progId,,BINANCE,$A10,H$4)</f>
-        <v>2E-8</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="I10" s="2">
         <f>RTD(progId,,BINANCE,$A10,I$4)</f>
-        <v>7.9660000000000006E-5</v>
+        <v>7.9350000000000004E-5</v>
       </c>
       <c r="J10" s="2">
         <f>RTD(progId,,BINANCE,$A10,J$4)</f>
-        <v>2145</v>
+        <v>173</v>
       </c>
       <c r="K10" s="9">
         <f>RTD(progId,,BINANCE,$A10,K$4)</f>
-        <v>26536926</v>
+        <v>41883660</v>
       </c>
       <c r="L10" s="2">
         <f>RTD(progId,,BINANCE,$A10,L$4)</f>
-        <v>2141.8032580099998</v>
+        <v>3304.1174867200002</v>
       </c>
       <c r="M10" s="9">
         <f>RTD(progId,,BINANCE,$A10,M$4)</f>
-        <v>43182</v>
+        <v>66180</v>
       </c>
       <c r="N10" s="10">
         <f>RTD(progId,,BINANCE,$A10,N$4)</f>
-        <v>-1.068E-2</v>
+        <v>-1.576E-2</v>
       </c>
       <c r="O10" s="2">
         <f>RTD(progId,,BINANCE,$A10,O$4)</f>
-        <v>-8.6000000000000002E-7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-1.2699999999999999E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2">
         <f>RTD(progId,,BINANCE,$A11,B$4)</f>
-        <v>9.0399999999999998E-6</v>
+        <v>8.6999999999999997E-6</v>
       </c>
       <c r="C11" s="2">
         <f>RTD(progId,,BINANCE,$A11,C$4)</f>
-        <v>9.6800000000000005E-6</v>
+        <v>9.4599999999999992E-6</v>
       </c>
       <c r="D11" s="2">
         <f>RTD(progId,,BINANCE_24H,$A11,D$4)</f>
-        <v>9.6600000000000007E-6</v>
+        <v>9.2199999999999998E-6</v>
       </c>
       <c r="E11" s="2">
         <f>RTD(progId,,BINANCE_24H,$A11,E$4)</f>
-        <v>9.6600000000000007E-6</v>
+        <v>9.2199999999999998E-6</v>
       </c>
       <c r="F11" s="9">
         <f>RTD(progId,,BINANCE,$A11,F$4)</f>
-        <v>13035</v>
+        <v>92528</v>
       </c>
       <c r="G11" s="2">
         <f>RTD(progId,,BINANCE,$A11,G$4)</f>
-        <v>9.1800000000000002E-6</v>
+        <v>9.0499999999999997E-6</v>
       </c>
       <c r="H11" s="2">
         <f>RTD(progId,,BINANCE,$A11,H$4)</f>
-        <v>1E-8</v>
+        <v>2E-8</v>
       </c>
       <c r="I11" s="2">
         <f>RTD(progId,,BINANCE,$A11,I$4)</f>
-        <v>9.1900000000000001E-6</v>
+        <v>9.0699999999999996E-6</v>
       </c>
       <c r="J11" s="2">
         <f>RTD(progId,,BINANCE,$A11,J$4)</f>
-        <v>159363</v>
+        <v>235468</v>
       </c>
       <c r="K11" s="9">
         <f>RTD(progId,,BINANCE,$A11,K$4)</f>
-        <v>1101711123</v>
+        <v>1518580274</v>
       </c>
       <c r="L11" s="2">
         <f>RTD(progId,,BINANCE,$A11,L$4)</f>
-        <v>10372.48197879</v>
+        <v>13743.119085259999</v>
       </c>
       <c r="M11" s="9">
         <f>RTD(progId,,BINANCE,$A11,M$4)</f>
-        <v>107136</v>
+        <v>127521</v>
       </c>
       <c r="N11" s="10">
         <f>RTD(progId,,BINANCE,$A11,N$4)</f>
-        <v>-5.1650000000000001E-2</v>
+        <v>-1.8440000000000002E-2</v>
       </c>
       <c r="O11" s="2">
         <f>RTD(progId,,BINANCE,$A11,O$4)</f>
-        <v>-4.9999999999999998E-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-1.6999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6176,7 +6549,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
@@ -6186,7 +6559,7 @@
       </c>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -6209,10 +6582,10 @@
         <v>37</v>
       </c>
       <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
         <v>56</v>
-      </c>
-      <c r="J14" t="s">
-        <v>57</v>
       </c>
       <c r="K14" t="s">
         <v>38</v>
@@ -6227,47 +6600,47 @@
         <v>54</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</f>
-        <v>0.95562000000000002</v>
+        <v>0.49347000000000002</v>
       </c>
       <c r="B15" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</f>
-        <v>627.09</v>
+        <v>578</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</f>
-        <v>627.85</v>
+        <v>578.6</v>
       </c>
       <c r="E15" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</f>
-        <v>0.14535000000000001</v>
+        <v>0.39602999999999999</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,H$14)</f>
-        <v>22955468</v>
+        <v>23115870</v>
       </c>
       <c r="I15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,I$14)</f>
-        <v>627.86</v>
+        <v>578</v>
       </c>
       <c r="J15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,J$14)</f>
-        <v>7.3600000000000002E-3</v>
+        <v>0.49347000000000002</v>
       </c>
       <c r="K15" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G15,K$14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G15,L$14)</f>
@@ -6275,25 +6648,25 @@
       </c>
       <c r="M15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,M$14)</f>
-        <v>25858665</v>
+        <v>26040847</v>
       </c>
       <c r="N15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,N$14)</f>
-        <v>25858665</v>
+        <v>26040847</v>
       </c>
       <c r="O15" s="33">
         <f>RTD(progId,,BINACE_TRADE,$G15,O$14)</f>
-        <v>43242.88648375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43243.799419756942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C16)</f>
-        <v>3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="B16" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C16)</f>
-        <v>627.08000000000004</v>
+        <v>577.99</v>
       </c>
       <c r="C16" s="8">
         <f>C15+1</f>
@@ -6301,30 +6674,30 @@
       </c>
       <c r="D16" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C16)</f>
-        <v>627.86</v>
+        <v>578.82000000000005</v>
       </c>
       <c r="E16" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C16)</f>
-        <v>0.69264000000000003</v>
+        <v>9</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,H$14)</f>
-        <v>39191688</v>
+        <v>39447096</v>
       </c>
       <c r="I16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,I$14)</f>
-        <v>7872</v>
+        <v>7512.58</v>
       </c>
       <c r="J16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,J$14)</f>
-        <v>1.4E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K16" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G16,K$14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G16,L$14)</f>
@@ -6332,53 +6705,60 @@
       </c>
       <c r="M16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,M$14)</f>
-        <v>45072169</v>
+        <v>45352162</v>
       </c>
       <c r="N16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,N$14)</f>
-        <v>45072169</v>
+        <v>45352162</v>
       </c>
       <c r="O16" s="33">
         <f>RTD(progId,,BINACE_TRADE,$G16,O$14)</f>
-        <v>43242.886493530095</v>
-      </c>
-      <c r="Q16" s="1"/>
+        <v>43243.799415833331</v>
+      </c>
+      <c r="Q16" s="38">
+        <f>Table4[[#This Row],[PRICE]]-G6</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="38">
+        <f>Table4[[#This Row],[PRICE]]-I6</f>
+        <v>-2.4200000000000728</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C17)</f>
-        <v>0.70735999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="B17" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C17)</f>
-        <v>627.05999999999995</v>
+        <v>577.83000000000004</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" ref="C17:C21" si="0">C16+1</f>
+        <f t="shared" ref="C17:C24" si="0">C16+1</f>
         <v>2</v>
       </c>
       <c r="D17" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C17)</f>
-        <v>628</v>
+        <v>578.87</v>
       </c>
       <c r="E17" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C17)</f>
-        <v>8.7048900000000007</v>
+        <v>0.06</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,H$14)</f>
-        <v>6567886</v>
+        <v>6593265</v>
       </c>
       <c r="I17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,I$14)</f>
-        <v>125.99</v>
+        <v>118.7</v>
       </c>
       <c r="J17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,J$14)</f>
-        <v>0.9</v>
+        <v>9.264E-2</v>
       </c>
       <c r="K17" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G17,K$14)</f>
@@ -6390,26 +6770,26 @@
       </c>
       <c r="M17" s="23">
         <f>RTD(progId,,BINACE_TRADE,$G17,M$14)</f>
-        <v>7459782</v>
+        <v>7487351</v>
       </c>
       <c r="N17" s="23">
         <f>RTD(progId,,BINACE_TRADE,$G17,N$14)</f>
-        <v>7459782</v>
+        <v>7487351</v>
       </c>
       <c r="O17" s="34">
         <f>RTD(progId,,BINACE_TRADE,$G17,O$14)</f>
-        <v>43242.886462858798</v>
+        <v>43243.799404479163</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C18)</f>
-        <v>0.9</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="B18" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C18)</f>
-        <v>626.65</v>
+        <v>577.74</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
@@ -6417,23 +6797,56 @@
       </c>
       <c r="D18" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C18)</f>
-        <v>628.02</v>
+        <v>578.95000000000005</v>
       </c>
       <c r="E18" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C18)</f>
-        <v>0.254</v>
-      </c>
-      <c r="G18"/>
-      <c r="K18"/>
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="16">
+        <f>RTD(progId,,BINACE_TRADE,$G18,H$14)</f>
+        <v>458525</v>
+      </c>
+      <c r="I18" s="35">
+        <f>RTD(progId,,BINACE_TRADE,$G18,I$14)</f>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="J18" s="35">
+        <f>RTD(progId,,BINACE_TRADE,$G18,J$14)</f>
+        <v>0.34</v>
+      </c>
+      <c r="K18" s="35" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G18,K$14)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="35" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G18,L$14)</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="16">
+        <f>RTD(progId,,BINACE_TRADE,$G18,M$14)</f>
+        <v>505569</v>
+      </c>
+      <c r="N18" s="16">
+        <f>RTD(progId,,BINACE_TRADE,$G18,N$14)</f>
+        <v>505569</v>
+      </c>
+      <c r="O18" s="33">
+        <f>RTD(progId,,BINACE_TRADE,$G18,O$14)</f>
+        <v>43243.799348125001</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C19)</f>
-        <v>0.4</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="B19" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C19)</f>
-        <v>626.63</v>
+        <v>577.65</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
@@ -6441,23 +6854,56 @@
       </c>
       <c r="D19" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C19)</f>
-        <v>628.04999999999995</v>
+        <v>578.96</v>
       </c>
       <c r="E19" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C19)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G19"/>
-      <c r="K19"/>
+        <v>0.219</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="16">
+        <f>RTD(progId,,BINACE_TRADE,$G19,H$14)</f>
+        <v>13330496</v>
+      </c>
+      <c r="I19" s="35">
+        <f>RTD(progId,,BINACE_TRADE,$G19,I$14)</f>
+        <v>6.9259999999999999E-3</v>
+      </c>
+      <c r="J19" s="35">
+        <f>RTD(progId,,BINACE_TRADE,$G19,J$14)</f>
+        <v>2.66</v>
+      </c>
+      <c r="K19" s="35" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G19,K$14)</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="35" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G19,L$14)</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="16">
+        <f>RTD(progId,,BINACE_TRADE,$G19,M$14)</f>
+        <v>15050999</v>
+      </c>
+      <c r="N19" s="16">
+        <f>RTD(progId,,BINACE_TRADE,$G19,N$14)</f>
+        <v>15051000</v>
+      </c>
+      <c r="O19" s="33">
+        <f>RTD(progId,,BINACE_TRADE,$G19,O$14)</f>
+        <v>43243.799420706018</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C20)</f>
-        <v>1.272</v>
+        <v>1.52519</v>
       </c>
       <c r="B20" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C20)</f>
-        <v>626.51</v>
+        <v>577.64</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
@@ -6465,21 +6911,56 @@
       </c>
       <c r="D20" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C20)</f>
-        <v>628.08000000000004</v>
+        <v>579.01</v>
       </c>
       <c r="E20" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C20)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.8</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="16">
+        <f>RTD(progId,,BINACE_TRADE,$G20,H$14)</f>
+        <v>17203563</v>
+      </c>
+      <c r="I20" s="35">
+        <f>RTD(progId,,BINACE_TRADE,$G20,I$14)</f>
+        <v>7.9300000000000003E-5</v>
+      </c>
+      <c r="J20" s="35">
+        <f>RTD(progId,,BINACE_TRADE,$G20,J$14)</f>
+        <v>2000</v>
+      </c>
+      <c r="K20" s="35" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G20,K$14)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="35" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G20,L$14)</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="16">
+        <f>RTD(progId,,BINACE_TRADE,$G20,M$14)</f>
+        <v>20826818</v>
+      </c>
+      <c r="N20" s="16">
+        <f>RTD(progId,,BINACE_TRADE,$G20,N$14)</f>
+        <v>20826818</v>
+      </c>
+      <c r="O20" s="33">
+        <f>RTD(progId,,BINACE_TRADE,$G20,O$14)</f>
+        <v>43243.799358796299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C21)</f>
-        <v>0.81967999999999996</v>
+        <v>10</v>
       </c>
       <c r="B21" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C21)</f>
-        <v>626.49</v>
+        <v>577.63</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
@@ -6487,640 +6968,726 @@
       </c>
       <c r="D21" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C21)</f>
-        <v>628.30999999999995</v>
+        <v>579.02</v>
       </c>
       <c r="E21" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C21)</f>
-        <v>2.3238799999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+        <v>5.8026999999999997</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="23">
+        <f>RTD(progId,,BINACE_TRADE,$G21,H$14)</f>
+        <v>17543575</v>
+      </c>
+      <c r="I21" s="37">
+        <f>RTD(progId,,BINACE_TRADE,$G21,I$14)</f>
+        <v>9.0699999999999996E-6</v>
+      </c>
+      <c r="J21" s="37">
+        <f>RTD(progId,,BINACE_TRADE,$G21,J$14)</f>
+        <v>191</v>
+      </c>
+      <c r="K21" s="37" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G21,K$14)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="37" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G21,L$14)</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="23">
+        <f>RTD(progId,,BINACE_TRADE,$G21,M$14)</f>
+        <v>28269780</v>
+      </c>
+      <c r="N21" s="23">
+        <f>RTD(progId,,BINACE_TRADE,$G21,N$14)</f>
+        <v>28269780</v>
+      </c>
+      <c r="O21" s="34">
+        <f>RTD(progId,,BINACE_TRADE,$G21,O$14)</f>
+        <v>43243.799421041665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C22)</f>
+        <v>0.5</v>
+      </c>
+      <c r="B22" s="20">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C22)</f>
+        <v>577.55999999999995</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D22" s="21">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C22)</f>
+        <v>579.26</v>
+      </c>
+      <c r="E22" s="21">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C22)</f>
+        <v>1.4219999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C23)</f>
+        <v>0.40028999999999998</v>
+      </c>
+      <c r="B23" s="20">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C23)</f>
+        <v>577.5</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D23" s="21">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C23)</f>
+        <v>579.27</v>
+      </c>
+      <c r="E23" s="21">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C23)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C24)</f>
+        <v>12.9</v>
+      </c>
+      <c r="B24" s="39">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C24)</f>
+        <v>577.44000000000005</v>
+      </c>
+      <c r="C24" s="40">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D24" s="41">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C24)</f>
+        <v>579.29</v>
+      </c>
+      <c r="E24" s="41">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C24)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <f>SUM(Table3[BID_DEPTH_SIZE])</f>
-        <v>8.0546600000000019</v>
-      </c>
-      <c r="B22" s="18">
+        <v>25.89095</v>
+      </c>
+      <c r="B25" s="18">
         <f>SUMPRODUCT(Table3[[BID_DEPTH_SIZE]:[BID_DEPTH]])</f>
-        <v>4395.5646600000009</v>
-      </c>
-      <c r="C22" s="19">
-        <f>D22-B22</f>
-        <v>14.126099999998587</v>
-      </c>
-      <c r="D22" s="18">
+        <v>5802.8709499999986</v>
+      </c>
+      <c r="C25" s="19">
+        <f>D25-B25</f>
+        <v>23.778780000001461</v>
+      </c>
+      <c r="D25" s="18">
         <f>SUMPRODUCT(Table3[[ASK_DEPTH]:[ASK_DEPTH_SIZE]])</f>
-        <v>4409.6907599999995</v>
-      </c>
-      <c r="E22" s="13">
+        <v>5826.6497300000001</v>
+      </c>
+      <c r="E25" s="13">
         <f>SUM(Table3[ASK_DEPTH_SIZE])</f>
-        <v>13.520759999999999</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+        <v>36.599730000000001</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="32">
+      <c r="B27" s="32"/>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="32">
         <v>0</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24"/>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27"/>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F28" t="s">
         <v>45</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G28" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I28" t="s">
         <v>36</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J28" t="s">
         <v>19</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K28" t="s">
         <v>51</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L28" t="s">
         <v>52</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M28" t="s">
         <v>48</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N28" t="s">
         <v>15</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O28" t="s">
         <v>49</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P28" t="s">
         <v>50</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q28" t="s">
         <v>53</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,B$25,$D$24)</f>
-        <v>626.78</v>
-      </c>
-      <c r="C26" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,C$25,$D$24)</f>
-        <v>628</v>
-      </c>
-      <c r="D26" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,D$25,$D$24)</f>
-        <v>626.39</v>
-      </c>
-      <c r="E26" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,E$25,$D$24)</f>
-        <v>627.86</v>
-      </c>
-      <c r="F26" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,F$25,$D$24)</f>
-        <v>43242.886111111111</v>
-      </c>
-      <c r="G26" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,G$25,$D$24)</f>
-        <v>43242.886805543982</v>
-      </c>
-      <c r="H26" s="16" t="b">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,H$25,$D$24)</f>
+      <c r="B29" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,B$28,$D$27)</f>
+        <v>577.82000000000005</v>
+      </c>
+      <c r="C29" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,C$28,$D$27)</f>
+        <v>578.6</v>
+      </c>
+      <c r="D29" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,D$28,$D$27)</f>
+        <v>577.64</v>
+      </c>
+      <c r="E29" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,E$28,$D$27)</f>
+        <v>578</v>
+      </c>
+      <c r="F29" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,F$28,$D$27)</f>
+        <v>43243.799305555556</v>
+      </c>
+      <c r="G29" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,G$28,$D$27)</f>
+        <v>43243.799999988427</v>
+      </c>
+      <c r="H29" s="16" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,H$28,$D$27)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,I$25,$D$24)</f>
-        <v>56089.4772113</v>
-      </c>
-      <c r="J26" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,J$25,$D$24)</f>
-        <v>89.439109999999999</v>
-      </c>
-      <c r="K26" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,K$25,$D$24)</f>
-        <v>70.608239999999995</v>
-      </c>
-      <c r="L26" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,L$25,$D$24)</f>
-        <v>44292.423157800004</v>
-      </c>
-      <c r="M26" s="16" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,M$25,$D$24)</f>
+      <c r="I29" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,I$28,$D$27)</f>
+        <v>745.85206400000004</v>
+      </c>
+      <c r="J29" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,J$28,$D$27)</f>
+        <v>1.2907299999999999</v>
+      </c>
+      <c r="K29" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,K$28,$D$27)</f>
+        <v>3.9699999999999996E-3</v>
+      </c>
+      <c r="L29" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,L$28,$D$27)</f>
+        <v>2.2970419999999998</v>
+      </c>
+      <c r="M29" s="16" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,M$28,$D$27)</f>
         <v>OneMinute</v>
       </c>
-      <c r="N26" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,N$25,$D$24)</f>
-        <v>93</v>
-      </c>
-      <c r="O26" s="16" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,O$25,$D$24)</f>
+      <c r="N29" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,N$28,$D$27)</f>
+        <v>4</v>
+      </c>
+      <c r="O29" s="16" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,O$28,$D$27)</f>
         <v>kline</v>
       </c>
-      <c r="P26" s="28">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,P$25,$D$24)</f>
-        <v>43242.886483796297</v>
-      </c>
-      <c r="Q26" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,Q$25,$D$24)</f>
-        <v>25858573</v>
-      </c>
-      <c r="R26" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A26,R$25,$D$24)</f>
-        <v>25858665</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="P29" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,P$28,$D$27)</f>
+        <v>43243.799419791663</v>
+      </c>
+      <c r="Q29" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,Q$28,$D$27)</f>
+        <v>26040844</v>
+      </c>
+      <c r="R29" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A29,R$28,$D$27)</f>
+        <v>26040847</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,B$25,$D$24)</f>
-        <v>7867.67</v>
-      </c>
-      <c r="C27" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,C$25,$D$24)</f>
-        <v>7873.84</v>
-      </c>
-      <c r="D27" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,D$25,$D$24)</f>
-        <v>7866.65</v>
-      </c>
-      <c r="E27" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,E$25,$D$24)</f>
-        <v>7872</v>
-      </c>
-      <c r="F27" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,F$25,$D$24)</f>
-        <v>43242.886111111111</v>
-      </c>
-      <c r="G27" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,G$25,$D$24)</f>
-        <v>43242.886805543982</v>
-      </c>
-      <c r="H27" s="16" t="b">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,H$25,$D$24)</f>
+      <c r="B30" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,B$28,$D$27)</f>
+        <v>7513.79</v>
+      </c>
+      <c r="C30" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,C$28,$D$27)</f>
+        <v>7515</v>
+      </c>
+      <c r="D30" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,D$28,$D$27)</f>
+        <v>7512.57</v>
+      </c>
+      <c r="E30" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,E$28,$D$27)</f>
+        <v>7515</v>
+      </c>
+      <c r="F30" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,F$28,$D$27)</f>
+        <v>43243.799305555556</v>
+      </c>
+      <c r="G30" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,G$28,$D$27)</f>
+        <v>43243.799999988427</v>
+      </c>
+      <c r="H30" s="16" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,H$28,$D$27)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,I$25,$D$24)</f>
-        <v>78021.96712899</v>
-      </c>
-      <c r="J27" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,J$25,$D$24)</f>
-        <v>9.9152109999999993</v>
-      </c>
-      <c r="K27" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,K$25,$D$24)</f>
-        <v>3.8982540000000001</v>
-      </c>
-      <c r="L27" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,L$25,$D$24)</f>
-        <v>30683.260372140001</v>
-      </c>
-      <c r="M27" s="16" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,M$25,$D$24)</f>
+      <c r="I30" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,I$28,$D$27)</f>
+        <v>7128.5009294299998</v>
+      </c>
+      <c r="J30" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,J$28,$D$27)</f>
+        <v>0.94858600000000004</v>
+      </c>
+      <c r="K30" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,K$28,$D$27)</f>
+        <v>0.91675099999999998</v>
+      </c>
+      <c r="L30" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,L$28,$D$27)</f>
+        <v>6889.3380536200002</v>
+      </c>
+      <c r="M30" s="16" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,M$28,$D$27)</f>
         <v>OneMinute</v>
       </c>
-      <c r="N27" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,N$25,$D$24)</f>
-        <v>116</v>
-      </c>
-      <c r="O27" s="16" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,O$25,$D$24)</f>
+      <c r="N30" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,N$28,$D$27)</f>
+        <v>11</v>
+      </c>
+      <c r="O30" s="16" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,O$28,$D$27)</f>
         <v>kline</v>
       </c>
-      <c r="P27" s="28">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,P$25,$D$24)</f>
-        <v>43242.886491053243</v>
-      </c>
-      <c r="Q27" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,Q$25,$D$24)</f>
-        <v>45072053</v>
-      </c>
-      <c r="R27" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A27,R$25,$D$24)</f>
-        <v>45072168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="P30" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,P$28,$D$27)</f>
+        <v>43243.799413310182</v>
+      </c>
+      <c r="Q30" s="31">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,Q$28,$D$27)</f>
+        <v>45352149</v>
+      </c>
+      <c r="R30" s="31">
+        <f>RTD(progId,,BINANCE_CANDLE,$A30,R$28,$D$27)</f>
+        <v>45352159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="23">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,B$25,$D$24)</f>
-        <v>125.96</v>
-      </c>
-      <c r="C28" s="23">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,C$25,$D$24)</f>
-        <v>125.99</v>
-      </c>
-      <c r="D28" s="23">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,D$25,$D$24)</f>
-        <v>125.69</v>
-      </c>
-      <c r="E28" s="23">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,E$25,$D$24)</f>
-        <v>125.99</v>
-      </c>
-      <c r="F28" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,F$25,$D$24)</f>
-        <v>43242.886111111111</v>
-      </c>
-      <c r="G28" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,G$25,$D$24)</f>
-        <v>43242.886805543982</v>
-      </c>
-      <c r="H28" s="23" t="b">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,H$25,$D$24)</f>
+      <c r="B31" s="23">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,B$28,$D$27)</f>
+        <v>118.71</v>
+      </c>
+      <c r="C31" s="23">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,C$28,$D$27)</f>
+        <v>118.71</v>
+      </c>
+      <c r="D31" s="23">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,D$28,$D$27)</f>
+        <v>118.7</v>
+      </c>
+      <c r="E31" s="23">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,E$28,$D$27)</f>
+        <v>118.7</v>
+      </c>
+      <c r="F31" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,F$28,$D$27)</f>
+        <v>43243.799305555556</v>
+      </c>
+      <c r="G31" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,G$28,$D$27)</f>
+        <v>43243.799999988427</v>
+      </c>
+      <c r="H31" s="23" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,H$28,$D$27)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,I$25,$D$24)</f>
-        <v>9502.4805570000008</v>
-      </c>
-      <c r="J28" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,J$25,$D$24)</f>
-        <v>75.430670000000006</v>
-      </c>
-      <c r="K28" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,K$25,$D$24)</f>
-        <v>72.569550000000007</v>
-      </c>
-      <c r="L28" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,L$25,$D$24)</f>
-        <v>9142.2339343999993</v>
-      </c>
-      <c r="M28" s="23" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,M$25,$D$24)</f>
+      <c r="I31" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,I$28,$D$27)</f>
+        <v>1930.5370680000001</v>
+      </c>
+      <c r="J31" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,J$28,$D$27)</f>
+        <v>16.262640000000001</v>
+      </c>
+      <c r="K31" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,K$28,$D$27)</f>
+        <v>16.262640000000001</v>
+      </c>
+      <c r="L31" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,L$28,$D$27)</f>
+        <v>1930.5370680000001</v>
+      </c>
+      <c r="M31" s="23" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,M$28,$D$27)</f>
         <v>OneMinute</v>
       </c>
-      <c r="N28" s="30">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,N$25,$D$24)</f>
+      <c r="N31" s="30">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,N$28,$D$27)</f>
+        <v>2</v>
+      </c>
+      <c r="O31" s="23" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,O$28,$D$27)</f>
+        <v>kline</v>
+      </c>
+      <c r="P31" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,P$28,$D$27)</f>
+        <v>43243.799404513891</v>
+      </c>
+      <c r="Q31" s="31">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,Q$28,$D$27)</f>
+        <v>7487350</v>
+      </c>
+      <c r="R31" s="31">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,R$28,$D$27)</f>
+        <v>7487351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,B$28,$D$33)</f>
+        <v>580.64</v>
+      </c>
+      <c r="C35" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,C$28,$D$33)</f>
+        <v>584</v>
+      </c>
+      <c r="D35" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,D$28,$D$33)</f>
+        <v>576.29999999999995</v>
+      </c>
+      <c r="E35" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,E$28,$D$33)</f>
+        <v>578</v>
+      </c>
+      <c r="F35" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,F$28,$D$33)</f>
+        <v>43243.791666666664</v>
+      </c>
+      <c r="G35" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,G$28,$D$33)</f>
+        <v>43243.80208332176</v>
+      </c>
+      <c r="H35" s="16" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,H$28,$D$33)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,I$28,$D$33)</f>
+        <v>1029820.926874</v>
+      </c>
+      <c r="J35" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,J$28,$D$33)</f>
+        <v>1775.06377</v>
+      </c>
+      <c r="K35" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,K$28,$D$33)</f>
+        <v>931.01201000000003</v>
+      </c>
+      <c r="L35" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,L$28,$D$33)</f>
+        <v>540465.4464899</v>
+      </c>
+      <c r="M35" s="16" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,M$28,$D$33)</f>
+        <v>FiveteenMinutes</v>
+      </c>
+      <c r="N35" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,N$28,$D$33)</f>
+        <v>1594</v>
+      </c>
+      <c r="O35" s="16" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,O$28,$D$33)</f>
+        <v>kline</v>
+      </c>
+      <c r="P35" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,P$28,$D$33)</f>
+        <v>43243.799419791663</v>
+      </c>
+      <c r="Q35" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,Q$28,$D$33)</f>
+        <v>26039254</v>
+      </c>
+      <c r="R35" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A35,R$28,$D$33)</f>
+        <v>26040847</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="23" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,O$25,$D$24)</f>
+      <c r="B36" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,B$28,$D$33)</f>
+        <v>7539.98</v>
+      </c>
+      <c r="C36" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,C$28,$D$33)</f>
+        <v>7565.86</v>
+      </c>
+      <c r="D36" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,D$28,$D$33)</f>
+        <v>7500</v>
+      </c>
+      <c r="E36" s="16">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,E$28,$D$33)</f>
+        <v>7515</v>
+      </c>
+      <c r="F36" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,F$28,$D$33)</f>
+        <v>43243.791666666664</v>
+      </c>
+      <c r="G36" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,G$28,$D$33)</f>
+        <v>43243.80208332176</v>
+      </c>
+      <c r="H36" s="16" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,H$28,$D$33)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,I$28,$D$33)</f>
+        <v>1794793.14691304</v>
+      </c>
+      <c r="J36" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,J$28,$D$33)</f>
+        <v>238.42579499999999</v>
+      </c>
+      <c r="K36" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,K$28,$D$33)</f>
+        <v>89.971158000000003</v>
+      </c>
+      <c r="L36" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,L$28,$D$33)</f>
+        <v>677632.36464485002</v>
+      </c>
+      <c r="M36" s="16" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,M$28,$D$33)</f>
+        <v>FiveteenMinutes</v>
+      </c>
+      <c r="N36" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,N$28,$D$33)</f>
+        <v>1966</v>
+      </c>
+      <c r="O36" s="16" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,O$28,$D$33)</f>
         <v>kline</v>
       </c>
-      <c r="P28" s="28">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,P$25,$D$24)</f>
-        <v>43242.886462905095</v>
-      </c>
-      <c r="Q28" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,Q$25,$D$24)</f>
-        <v>7459770</v>
-      </c>
-      <c r="R28" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A28,R$25,$D$24)</f>
-        <v>7459782</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,B$25,$D$30)</f>
-        <v>627.58000000000004</v>
-      </c>
-      <c r="C32" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,C$25,$D$30)</f>
-        <v>628</v>
-      </c>
-      <c r="D32" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,D$25,$D$30)</f>
-        <v>626</v>
-      </c>
-      <c r="E32" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,E$25,$D$30)</f>
-        <v>627.86</v>
-      </c>
-      <c r="F32" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,F$25,$D$30)</f>
-        <v>43242.885416666664</v>
-      </c>
-      <c r="G32" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,G$25,$D$30)</f>
-        <v>43242.89583332176</v>
-      </c>
-      <c r="H32" s="16" t="b">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,H$25,$D$30)</f>
+      <c r="P36" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,P$28,$D$33)</f>
+        <v>43243.799413310182</v>
+      </c>
+      <c r="Q36" s="31">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,Q$28,$D$33)</f>
+        <v>45350194</v>
+      </c>
+      <c r="R36" s="31">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,R$28,$D$33)</f>
+        <v>45352159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="23">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,B$28,$D$33)</f>
+        <v>119.39</v>
+      </c>
+      <c r="C37" s="23">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,C$28,$D$33)</f>
+        <v>119.68</v>
+      </c>
+      <c r="D37" s="23">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,D$28,$D$33)</f>
+        <v>118.38</v>
+      </c>
+      <c r="E37" s="23">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,E$28,$D$33)</f>
+        <v>118.7</v>
+      </c>
+      <c r="F37" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,F$28,$D$33)</f>
+        <v>43243.791666666664</v>
+      </c>
+      <c r="G37" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,G$28,$D$33)</f>
+        <v>43243.80208332176</v>
+      </c>
+      <c r="H37" s="23" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,H$28,$D$33)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,I$25,$D$30)</f>
-        <v>194331.6813198</v>
-      </c>
-      <c r="J32" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,J$25,$D$30)</f>
-        <v>309.8476</v>
-      </c>
-      <c r="K32" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,K$25,$D$30)</f>
-        <v>233.66502</v>
-      </c>
-      <c r="L32" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,L$25,$D$30)</f>
-        <v>146585.28732870001</v>
-      </c>
-      <c r="M32" s="16" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,M$25,$D$30)</f>
+      <c r="I37" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,I$28,$D$33)</f>
+        <v>419829.58477409999</v>
+      </c>
+      <c r="J37" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,J$28,$D$33)</f>
+        <v>3528.9031100000002</v>
+      </c>
+      <c r="K37" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,K$28,$D$33)</f>
+        <v>1643.60223</v>
+      </c>
+      <c r="L37" s="29">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,L$28,$D$33)</f>
+        <v>196062.29350989999</v>
+      </c>
+      <c r="M37" s="23" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,M$28,$D$33)</f>
         <v>FiveteenMinutes</v>
       </c>
-      <c r="N32" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,N$25,$D$30)</f>
-        <v>260</v>
-      </c>
-      <c r="O32" s="16" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,O$25,$D$30)</f>
+      <c r="N37" s="30">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,N$28,$D$33)</f>
+        <v>261</v>
+      </c>
+      <c r="O37" s="23" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,O$28,$D$33)</f>
         <v>kline</v>
       </c>
-      <c r="P32" s="28">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,P$25,$D$30)</f>
-        <v>43242.886483773145</v>
-      </c>
-      <c r="Q32" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,Q$25,$D$30)</f>
-        <v>25858406</v>
-      </c>
-      <c r="R32" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,R$25,$D$30)</f>
-        <v>25858665</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,B$25,$D$30)</f>
-        <v>7874</v>
-      </c>
-      <c r="C33" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,C$25,$D$30)</f>
-        <v>7875.13</v>
-      </c>
-      <c r="D33" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,D$25,$D$30)</f>
-        <v>7866.65</v>
-      </c>
-      <c r="E33" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,E$25,$D$30)</f>
-        <v>7872</v>
-      </c>
-      <c r="F33" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,F$25,$D$30)</f>
-        <v>43242.885416666664</v>
-      </c>
-      <c r="G33" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,G$25,$D$30)</f>
-        <v>43242.89583332176</v>
-      </c>
-      <c r="H33" s="16" t="b">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,H$25,$D$30)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,I$25,$D$30)</f>
-        <v>270517.96639274003</v>
-      </c>
-      <c r="J33" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,J$25,$D$30)</f>
-        <v>34.377370999999997</v>
-      </c>
-      <c r="K33" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,K$25,$D$30)</f>
-        <v>19.421014</v>
-      </c>
-      <c r="L33" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,L$25,$D$30)</f>
-        <v>152843.98940701</v>
-      </c>
-      <c r="M33" s="16" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,M$25,$D$30)</f>
-        <v>FiveteenMinutes</v>
-      </c>
-      <c r="N33" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,N$25,$D$30)</f>
-        <v>392</v>
-      </c>
-      <c r="O33" s="16" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,O$25,$D$30)</f>
-        <v>kline</v>
-      </c>
-      <c r="P33" s="28">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,P$25,$D$30)</f>
-        <v>43242.886491030091</v>
-      </c>
-      <c r="Q33" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,Q$25,$D$30)</f>
-        <v>45071777</v>
-      </c>
-      <c r="R33" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A33,R$25,$D$30)</f>
-        <v>45072168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="23">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,B$25,$D$30)</f>
-        <v>125.96</v>
-      </c>
-      <c r="C34" s="23">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,C$25,$D$30)</f>
-        <v>125.99</v>
-      </c>
-      <c r="D34" s="23">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,D$25,$D$30)</f>
-        <v>125.62</v>
-      </c>
-      <c r="E34" s="23">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,E$25,$D$30)</f>
-        <v>125.99</v>
-      </c>
-      <c r="F34" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,F$25,$D$30)</f>
-        <v>43242.885416666664</v>
-      </c>
-      <c r="G34" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,G$25,$D$30)</f>
-        <v>43242.89583332176</v>
-      </c>
-      <c r="H34" s="23" t="b">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,H$25,$D$30)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,I$25,$D$30)</f>
-        <v>14873.715829299999</v>
-      </c>
-      <c r="J34" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,J$25,$D$30)</f>
-        <v>118.16673</v>
-      </c>
-      <c r="K34" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,K$25,$D$30)</f>
-        <v>73.565010000000001</v>
-      </c>
-      <c r="L34" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,L$25,$D$30)</f>
-        <v>9267.6257091000007</v>
-      </c>
-      <c r="M34" s="23" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,M$25,$D$30)</f>
-        <v>FiveteenMinutes</v>
-      </c>
-      <c r="N34" s="30">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,N$25,$D$30)</f>
-        <v>38</v>
-      </c>
-      <c r="O34" s="23" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,O$25,$D$30)</f>
-        <v>kline</v>
-      </c>
-      <c r="P34" s="28">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,P$25,$D$30)</f>
-        <v>43242.88646292824</v>
-      </c>
-      <c r="Q34" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,Q$25,$D$30)</f>
-        <v>7459745</v>
-      </c>
-      <c r="R34" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A34,R$25,$D$30)</f>
-        <v>7459782</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I35" s="4"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I36" s="4"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="P37" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,P$28,$D$33)</f>
+        <v>43243.799404513891</v>
+      </c>
+      <c r="Q37" s="31">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,Q$28,$D$33)</f>
+        <v>7487091</v>
+      </c>
+      <c r="R37" s="31">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,R$28,$D$33)</f>
+        <v>7487351</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I38" s="4"/>
@@ -7157,6 +7724,11 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I46" s="4"/>
       <c r="J46" s="5"/>
@@ -7167,13 +7739,8 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I48" s="4"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-    </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I49" s="5"/>
+      <c r="I49" s="4"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
     </row>
@@ -7188,13 +7755,13 @@
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I52" s="4"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I53" s="4"/>
-      <c r="J53" s="6"/>
+      <c r="J53" s="5"/>
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.25">
@@ -7209,7 +7776,7 @@
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I56" s="4"/>
-      <c r="J56" s="5"/>
+      <c r="J56" s="6"/>
       <c r="K56" s="5"/>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.25">
@@ -7259,7 +7826,7 @@
     </row>
     <row r="66" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I66" s="4"/>
-      <c r="J66" s="6"/>
+      <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
     <row r="67" spans="9:11" x14ac:dyDescent="0.25">
@@ -7274,7 +7841,7 @@
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I69" s="4"/>
-      <c r="J69" s="5"/>
+      <c r="J69" s="6"/>
       <c r="K69" s="5"/>
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.25">
@@ -7323,7 +7890,7 @@
       <c r="K78" s="5"/>
     </row>
     <row r="79" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I79" s="5"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
@@ -7338,7 +7905,7 @@
       <c r="K81" s="5"/>
     </row>
     <row r="82" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I82" s="4"/>
+      <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
     </row>
@@ -7445,7 +8012,7 @@
     <row r="103" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I103" s="4"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="7"/>
+      <c r="K103" s="5"/>
     </row>
     <row r="104" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I104" s="4"/>
@@ -7460,7 +8027,7 @@
     <row r="106" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I106" s="4"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+      <c r="K106" s="7"/>
     </row>
     <row r="107" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I107" s="4"/>
@@ -7473,9 +8040,24 @@
       <c r="K108" s="5"/>
     </row>
     <row r="109" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I109" s="5"/>
+      <c r="I109" s="4"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
+    </row>
+    <row r="110" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I110" s="4"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+    </row>
+    <row r="111" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I111" s="4"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+    </row>
+    <row r="112" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/crypto.xlsx
+++ b/doc/crypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="p:\crypto-rtd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F36085-27E5-4721-9D09-775F38F40AC5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7172A9A-CFD9-4C12-A336-08FBE2024CFD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="12225" activeTab="1" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="12225" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GDAX" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>crypto-debug</t>
   </si>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>1 Min</t>
+  </si>
+  <si>
+    <t>open_24h</t>
+  </si>
+  <si>
+    <t>high_24h</t>
+  </si>
+  <si>
+    <t>low_24h</t>
+  </si>
+  <si>
+    <t>volume_24h</t>
   </si>
 </sst>
 </file>
@@ -518,7 +530,79 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2804,7 +2888,7 @@
   <volType type="realTimeData">
     <main first="crypto-debug">
       <tp t="b">
-        <v>1</v>
+        <v>0</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -2812,7 +2896,23 @@
         <tr r="K19" s="1"/>
       </tp>
       <tp>
-        <v>8009.9</v>
+        <v>15905.412344120001</v>
+        <stp/>
+        <stp>GDAX</stp>
+        <stp>BTC-USD</stp>
+        <stp>volume_24h</stp>
+        <tr r="H4" s="2"/>
+      </tp>
+      <tp>
+        <v>215319.31700712</v>
+        <stp/>
+        <stp>GDAX</stp>
+        <stp>ETH-USD</stp>
+        <stp>volume_24h</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+      <tp>
+        <v>8005.48</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -2820,7 +2920,7 @@
         <tr r="E6" s="1"/>
       </tp>
       <tp>
-        <v>128.51</v>
+        <v>128.25</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -2828,7 +2928,7 @@
         <tr r="E7" s="1"/>
       </tp>
       <tp>
-        <v>644.25</v>
+        <v>644.99</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -2870,7 +2970,7 @@
         <tr r="K16" s="1"/>
       </tp>
       <tp t="b">
-        <v>1</v>
+        <v>0</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -2878,7 +2978,7 @@
         <tr r="K15" s="1"/>
       </tp>
       <tp t="b">
-        <v>0</v>
+        <v>1</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -2894,7 +2994,7 @@
         <tr r="K18" s="1"/>
       </tp>
       <tp>
-        <v>0.64571999999999996</v>
+        <v>0.63848000000000005</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -2902,7 +3002,7 @@
         <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>7.1669999999999998E-3</v>
+        <v>7.1599999999999997E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -2910,7 +3010,7 @@
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>29571</v>
+        <v>29990</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2918,7 +3018,7 @@
         <tr r="M7" s="1"/>
       </tp>
       <tp>
-        <v>199919</v>
+        <v>202926</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2926,7 +3026,7 @@
         <tr r="M5" s="1"/>
       </tp>
       <tp>
-        <v>304507</v>
+        <v>306779</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2934,7 +3034,7 @@
         <tr r="M6" s="1"/>
       </tp>
       <tp>
-        <v>30998</v>
+        <v>31473</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -2942,7 +3042,7 @@
         <tr r="M8" s="1"/>
       </tp>
       <tp>
-        <v>7565.86</v>
+        <v>7554</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -2951,7 +3051,7 @@
         <tr r="C36" s="1"/>
       </tp>
       <tp>
-        <v>7515</v>
+        <v>7540.07</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -2960,7 +3060,7 @@
         <tr r="C30" s="1"/>
       </tp>
       <tp>
-        <v>584</v>
+        <v>583</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -2969,7 +3069,7 @@
         <tr r="C35" s="1"/>
       </tp>
       <tp>
-        <v>578.6</v>
+        <v>582.22</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -2978,7 +3078,7 @@
         <tr r="C29" s="1"/>
       </tp>
       <tp>
-        <v>119.68</v>
+        <v>119.23</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -2987,7 +3087,7 @@
         <tr r="C37" s="1"/>
       </tp>
       <tp>
-        <v>118.71</v>
+        <v>118.74</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3014,7 +3114,7 @@
         <tr r="O30" s="1"/>
       </tp>
       <tp>
-        <v>1518580274</v>
+        <v>1521798589</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3022,7 +3122,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>41883660</v>
+        <v>41524771</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3030,7 +3130,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>372632.11</v>
+        <v>372005.87</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3064,7 +3164,7 @@
         <tr r="L21" s="1"/>
       </tp>
       <tp>
-        <v>-7.7700000000000005E-2</v>
+        <v>-7.4730000000000005E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3072,7 +3172,7 @@
         <tr r="N7" s="1"/>
       </tp>
       <tp>
-        <v>-6.2440000000000002E-2</v>
+        <v>-5.772E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3080,7 +3180,7 @@
         <tr r="N6" s="1"/>
       </tp>
       <tp>
-        <v>-0.1024</v>
+        <v>-9.5460000000000003E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3088,7 +3188,7 @@
         <tr r="N5" s="1"/>
       </tp>
       <tp>
-        <v>-7.5969999999999996E-2</v>
+        <v>-6.5369999999999998E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3096,7 +3196,7 @@
         <tr r="N8" s="1"/>
       </tp>
       <tp>
-        <v>580.64</v>
+        <v>582.16</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3105,7 +3205,7 @@
         <tr r="B35" s="1"/>
       </tp>
       <tp>
-        <v>577.82000000000005</v>
+        <v>581.96</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3114,7 +3214,7 @@
         <tr r="B29" s="1"/>
       </tp>
       <tp>
-        <v>7539.98</v>
+        <v>7543.55</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3123,7 +3223,7 @@
         <tr r="B36" s="1"/>
       </tp>
       <tp>
-        <v>7513.79</v>
+        <v>7532.15</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3132,7 +3232,7 @@
         <tr r="B30" s="1"/>
       </tp>
       <tp>
-        <v>119.39</v>
+        <v>118.93</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3141,7 +3241,7 @@
         <tr r="B37" s="1"/>
       </tp>
       <tp>
-        <v>118.71</v>
+        <v>118.74</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3182,7 +3282,7 @@
         <tr r="K21" s="1"/>
       </tp>
       <tp>
-        <v>1643.60223</v>
+        <v>160.12298999999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3191,7 +3291,7 @@
         <tr r="K37" s="1"/>
       </tp>
       <tp>
-        <v>16.262640000000001</v>
+        <v>0</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3200,7 +3300,7 @@
         <tr r="K31" s="1"/>
       </tp>
       <tp>
-        <v>931.01201000000003</v>
+        <v>666.99198999999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3209,7 +3309,7 @@
         <tr r="K35" s="1"/>
       </tp>
       <tp>
-        <v>3.9699999999999996E-3</v>
+        <v>11.4954</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3218,7 +3318,7 @@
         <tr r="K29" s="1"/>
       </tp>
       <tp>
-        <v>89.971158000000003</v>
+        <v>60.616477000000003</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3227,7 +3327,7 @@
         <tr r="K36" s="1"/>
       </tp>
       <tp>
-        <v>0.91675099999999998</v>
+        <v>2.9341360000000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3276,7 +3376,7 @@
         <tr r="L17" s="1"/>
       </tp>
       <tp>
-        <v>6.9280000000000001E-3</v>
+        <v>6.9340000000000001E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3284,7 +3384,7 @@
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>7.9350000000000004E-5</v>
+        <v>7.9049999999999997E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3300,7 +3400,7 @@
         <tr r="I11" s="1"/>
       </tp>
       <tp>
-        <v>8.0550000000000006E-5</v>
+        <v>8.0010000000000001E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -3308,7 +3408,7 @@
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>9.2199999999999998E-6</v>
+        <v>9.1900000000000001E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
@@ -3316,7 +3416,7 @@
         <tr r="D11" s="1"/>
       </tp>
       <tp t="b">
-        <v>1</v>
+        <v>0</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -3324,7 +3424,7 @@
         <tr r="K20" s="1"/>
       </tp>
       <tp>
-        <v>9.0499999999999997E-6</v>
+        <v>9.0599999999999997E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3332,7 +3432,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>7.9309999999999998E-5</v>
+        <v>7.894E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3340,7 +3440,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>6.9259999999999999E-3</v>
+        <v>6.9319999999999998E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3348,7 +3448,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>-4.9000000000000002E-2</v>
+        <v>-4.1759999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3356,7 +3456,7 @@
         <tr r="O8" s="1"/>
       </tp>
       <tp>
-        <v>505569</v>
+        <v>506654</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -3364,7 +3464,7 @@
         <tr r="N18" s="1"/>
       </tp>
       <tp>
-        <v>1775.06377</v>
+        <v>1168.8069</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3373,7 +3473,7 @@
         <tr r="J35" s="1"/>
       </tp>
       <tp>
-        <v>1.2907299999999999</v>
+        <v>15.68529</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3382,7 +3482,7 @@
         <tr r="J29" s="1"/>
       </tp>
       <tp>
-        <v>900</v>
+        <v>6386</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3390,7 +3490,7 @@
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>20826818</v>
+        <v>20828597</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -3398,7 +3498,7 @@
         <tr r="M20" s="1"/>
       </tp>
       <tp>
-        <v>0.34</v>
+        <v>64.209999999999994</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -3406,7 +3506,7 @@
         <tr r="J18" s="1"/>
       </tp>
       <tp>
-        <v>191</v>
+        <v>428</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -3414,7 +3514,7 @@
         <tr r="J21" s="1"/>
       </tp>
       <tp>
-        <v>0.49347000000000002</v>
+        <v>0.51500000000000001</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3422,7 +3522,7 @@
         <tr r="J15" s="1"/>
       </tp>
       <tp>
-        <v>9.264E-2</v>
+        <v>3.7019899999999999</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3430,7 +3530,7 @@
         <tr r="J17" s="1"/>
       </tp>
       <tp>
-        <v>9.9999999999999995E-7</v>
+        <v>2.758E-3</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3438,7 +3538,7 @@
         <tr r="J16" s="1"/>
       </tp>
       <tp>
-        <v>17</v>
+        <v>0.23400000000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3447,7 +3547,7 @@
         <tr r="E23" s="1"/>
       </tp>
       <tp>
-        <v>0.4</v>
+        <v>3.5999999999999997E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3456,7 +3556,7 @@
         <tr r="E24" s="1"/>
       </tp>
       <tp>
-        <v>5.8026999999999997</v>
+        <v>2.2280600000000002</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3465,7 +3565,7 @@
         <tr r="E21" s="1"/>
       </tp>
       <tp>
-        <v>1.4219999999999999</v>
+        <v>18</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3474,7 +3574,7 @@
         <tr r="E22" s="1"/>
       </tp>
       <tp>
-        <v>0.219</v>
+        <v>1.4</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3483,7 +3583,7 @@
         <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>1.8</v>
+        <v>1</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3492,7 +3592,7 @@
         <tr r="E20" s="1"/>
       </tp>
       <tp>
-        <v>0.06</v>
+        <v>9.8913600000000006</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3501,7 +3601,7 @@
         <tr r="E17" s="1"/>
       </tp>
       <tp>
-        <v>0.5</v>
+        <v>0.24571999999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3510,7 +3610,7 @@
         <tr r="E18" s="1"/>
       </tp>
       <tp>
-        <v>0.39602999999999999</v>
+        <v>0.51549</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3519,7 +3619,7 @@
         <tr r="E15" s="1"/>
       </tp>
       <tp>
-        <v>9</v>
+        <v>1.2547900000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3528,7 +3628,7 @@
         <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>-10</v>
+        <v>-9.59</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3536,7 +3636,7 @@
         <tr r="O7" s="1"/>
       </tp>
       <tp>
-        <v>-500.47</v>
+        <v>-461.59</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3544,7 +3644,7 @@
         <tr r="O6" s="1"/>
       </tp>
       <tp>
-        <v>-66.010000000000005</v>
+        <v>-61.44</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3560,7 +3660,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>0.6</v>
+        <v>0.54</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3568,7 +3668,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>2.42</v>
+        <v>5.08</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3576,7 +3676,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>7.5000000000000002E-4</v>
+        <v>2.8400000000000001E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3584,7 +3684,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>505569</v>
+        <v>506654</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -3592,7 +3692,7 @@
         <tr r="M18" s="1"/>
       </tp>
       <tp>
-        <v>2000</v>
+        <v>2484</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -3600,7 +3700,7 @@
         <tr r="J20" s="1"/>
       </tp>
       <tp>
-        <v>0.64600000000000002</v>
+        <v>0.64488000000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3608,7 +3708,7 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>3528.9031100000002</v>
+        <v>655.63270999999997</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3617,7 +3717,7 @@
         <tr r="J37" s="1"/>
       </tp>
       <tp>
-        <v>16.262640000000001</v>
+        <v>3.7135099999999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3626,7 +3726,7 @@
         <tr r="J31" s="1"/>
       </tp>
       <tp>
-        <v>0.94858600000000004</v>
+        <v>5.0390579999999998</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3635,7 +3735,7 @@
         <tr r="J30" s="1"/>
       </tp>
       <tp>
-        <v>238.42579499999999</v>
+        <v>158.199477</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3668,7 +3768,7 @@
         <tr r="C7" s="1"/>
       </tp>
       <tp>
-        <v>3.89</v>
+        <v>9.5399999999999991</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3676,7 +3776,7 @@
         <tr r="J9" s="1"/>
       </tp>
       <tp>
-        <v>92528</v>
+        <v>356491</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3684,7 +3784,7 @@
         <tr r="F11" s="1"/>
       </tp>
       <tp>
-        <v>28269780</v>
+        <v>28273403</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -3692,7 +3792,7 @@
         <tr r="M21" s="1"/>
       </tp>
       <tp>
-        <v>7487351</v>
+        <v>7488320</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3700,7 +3800,7 @@
         <tr r="M17" s="1"/>
       </tp>
       <tp>
-        <v>45352162</v>
+        <v>45361382</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3708,7 +3808,7 @@
         <tr r="M16" s="1"/>
       </tp>
       <tp>
-        <v>26040847</v>
+        <v>26047743</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3716,7 +3816,7 @@
         <tr r="M15" s="1"/>
       </tp>
       <tp>
-        <v>13330496</v>
+        <v>13331554</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -3742,7 +3842,7 @@
         <tr r="H36" s="1"/>
       </tp>
       <tp>
-        <v>7500</v>
+        <v>7509.7</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3751,7 +3851,7 @@
         <tr r="D36" s="1"/>
       </tp>
       <tp>
-        <v>7512.57</v>
+        <v>7532.15</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3760,7 +3860,7 @@
         <tr r="D30" s="1"/>
       </tp>
       <tp>
-        <v>118.7</v>
+        <v>118.74</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3769,7 +3869,7 @@
         <tr r="D31" s="1"/>
       </tp>
       <tp>
-        <v>118.38</v>
+        <v>118.36</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3778,7 +3878,7 @@
         <tr r="D37" s="1"/>
       </tp>
       <tp>
-        <v>118.7</v>
+        <v>118.74</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3787,7 +3887,7 @@
         <tr r="E31" s="1"/>
       </tp>
       <tp>
-        <v>118.7</v>
+        <v>118.74</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3796,7 +3896,7 @@
         <tr r="E37" s="1"/>
       </tp>
       <tp>
-        <v>261</v>
+        <v>130</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3805,7 +3905,7 @@
         <tr r="N37" s="1"/>
       </tp>
       <tp>
-        <v>1966</v>
+        <v>1223</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3814,7 +3914,7 @@
         <tr r="N36" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3823,7 +3923,7 @@
         <tr r="N31" s="1"/>
       </tp>
       <tp>
-        <v>11</v>
+        <v>52</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3832,7 +3932,7 @@
         <tr r="N30" s="1"/>
       </tp>
       <tp>
-        <v>1594</v>
+        <v>1146</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3841,7 +3941,7 @@
         <tr r="N35" s="1"/>
       </tp>
       <tp>
-        <v>4</v>
+        <v>24</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3850,7 +3950,7 @@
         <tr r="N29" s="1"/>
       </tp>
       <tp>
-        <v>458525</v>
+        <v>459548</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -3858,7 +3958,7 @@
         <tr r="H18" s="1"/>
       </tp>
       <tp>
-        <v>7487351</v>
+        <v>7488321</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3866,7 +3966,7 @@
         <tr r="N17" s="1"/>
       </tp>
       <tp>
-        <v>15050999</v>
+        <v>15052222</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -3874,7 +3974,7 @@
         <tr r="M19" s="1"/>
       </tp>
       <tp>
-        <v>6593265</v>
+        <v>6594163</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3882,7 +3982,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>39447096</v>
+        <v>39455650</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3890,7 +3990,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>23115870</v>
+        <v>23121775</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3898,7 +3998,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>17543575</v>
+        <v>17545847</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -3906,7 +4006,7 @@
         <tr r="H21" s="1"/>
       </tp>
       <tp>
-        <v>4.5599999999999996</v>
+        <v>1.49</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3914,7 +4014,7 @@
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>235468</v>
+        <v>1963</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3940,7 +4040,7 @@
         <tr r="H29" s="1"/>
       </tp>
       <tp>
-        <v>17203563</v>
+        <v>17205151</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -3948,7 +4048,7 @@
         <tr r="H20" s="1"/>
       </tp>
       <tp>
-        <v>45352162</v>
+        <v>45361382</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3956,7 +4056,7 @@
         <tr r="N16" s="1"/>
       </tp>
       <tp>
-        <v>577.64</v>
+        <v>581.45000000000005</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3965,7 +4065,7 @@
         <tr r="D29" s="1"/>
       </tp>
       <tp>
-        <v>576.29999999999995</v>
+        <v>578.88</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3974,7 +4074,7 @@
         <tr r="D35" s="1"/>
       </tp>
       <tp>
-        <v>173</v>
+        <v>1264</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3982,7 +4082,7 @@
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>578</v>
+        <v>582.20000000000005</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3991,7 +4091,7 @@
         <tr r="E35" s="1"/>
       </tp>
       <tp>
-        <v>578</v>
+        <v>582.20000000000005</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4000,7 +4100,7 @@
         <tr r="E29" s="1"/>
       </tp>
       <tp>
-        <v>7515</v>
+        <v>7540.07</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4009,7 +4109,7 @@
         <tr r="E30" s="1"/>
       </tp>
       <tp>
-        <v>7515</v>
+        <v>7540.07</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4018,7 +4118,7 @@
         <tr r="E36" s="1"/>
       </tp>
       <tp>
-        <v>26040847</v>
+        <v>26047743</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4026,7 +4126,7 @@
         <tr r="N15" s="1"/>
       </tp>
       <tp>
-        <v>2.66</v>
+        <v>1.79</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -4052,7 +4152,7 @@
         <tr r="H37" s="1"/>
       </tp>
       <tp>
-        <v>0.40028999999999998</v>
+        <v>0.9</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4061,7 +4161,7 @@
         <tr r="A23" s="1"/>
       </tp>
       <tp>
-        <v>12.9</v>
+        <v>2.2010000000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4070,7 +4170,7 @@
         <tr r="A24" s="1"/>
       </tp>
       <tp>
-        <v>10</v>
+        <v>1.6310100000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4079,7 +4179,7 @@
         <tr r="A21" s="1"/>
       </tp>
       <tp>
-        <v>0.5</v>
+        <v>0.30843999999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4088,7 +4188,7 @@
         <tr r="A22" s="1"/>
       </tp>
       <tp>
-        <v>1.7999999999999999E-2</v>
+        <v>1.72058</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4097,7 +4197,7 @@
         <tr r="A19" s="1"/>
       </tp>
       <tp>
-        <v>1.52519</v>
+        <v>1.00299</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4106,7 +4206,7 @@
         <tr r="A20" s="1"/>
       </tp>
       <tp>
-        <v>1.7999999999999999E-2</v>
+        <v>16.292899999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4115,7 +4215,7 @@
         <tr r="A17" s="1"/>
       </tp>
       <tp>
-        <v>1.7999999999999999E-2</v>
+        <v>6.8779999999999994E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4124,7 +4224,7 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>0.49347000000000002</v>
+        <v>0.51527999999999996</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4133,7 +4233,7 @@
         <tr r="A15" s="1"/>
       </tp>
       <tp>
-        <v>1.7999999999999999E-2</v>
+        <v>8.0000000000000007E-5</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4142,7 +4242,7 @@
         <tr r="A16" s="1"/>
       </tp>
       <tp>
-        <v>8.0500000000000005E-5</v>
+        <v>8.0010000000000001E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -4150,7 +4250,7 @@
         <tr r="E10" s="1"/>
       </tp>
       <tp>
-        <v>43243.799421041665</v>
+        <v>43243.828146215281</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -4158,7 +4258,7 @@
         <tr r="O21" s="1"/>
       </tp>
       <tp>
-        <v>127521</v>
+        <v>128495</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4220,7 +4320,7 @@
         <tr r="M31" s="1"/>
       </tp>
       <tp>
-        <v>-1.8440000000000002E-2</v>
+        <v>-1.52E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4228,7 +4328,7 @@
         <tr r="N11" s="1"/>
       </tp>
       <tp>
-        <v>43243.799358796299</v>
+        <v>43243.828053148151</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -4236,7 +4336,7 @@
         <tr r="O20" s="1"/>
       </tp>
       <tp>
-        <v>66180</v>
+        <v>66201</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4244,7 +4344,7 @@
         <tr r="M10" s="1"/>
       </tp>
       <tp>
-        <v>-1.576E-2</v>
+        <v>-1.2E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4252,7 +4352,7 @@
         <tr r="N10" s="1"/>
       </tp>
       <tp>
-        <v>9.2199999999999998E-6</v>
+        <v>9.1900000000000001E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
@@ -4260,7 +4360,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>15051000</v>
+        <v>15052222</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -4268,7 +4368,7 @@
         <tr r="N19" s="1"/>
       </tp>
       <tp>
-        <v>28269780</v>
+        <v>28273403</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -4276,7 +4376,7 @@
         <tr r="N21" s="1"/>
       </tp>
       <tp>
-        <v>20826818</v>
+        <v>20828597</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -4284,7 +4384,7 @@
         <tr r="N20" s="1"/>
       </tp>
       <tp>
-        <v>43243.799348125001</v>
+        <v>43243.827995428241</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -4292,7 +4392,7 @@
         <tr r="O18" s="1"/>
       </tp>
       <tp>
-        <v>43243.799419756942</v>
+        <v>43243.828132083334</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4300,7 +4400,7 @@
         <tr r="O15" s="1"/>
       </tp>
       <tp>
-        <v>43243.799415833331</v>
+        <v>43243.828134444448</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4308,7 +4408,7 @@
         <tr r="O16" s="1"/>
       </tp>
       <tp>
-        <v>43243.799404479163</v>
+        <v>43243.828064386573</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4316,7 +4416,7 @@
         <tr r="O17" s="1"/>
       </tp>
       <tp>
-        <v>-3.1300000000000001E-2</v>
+        <v>-3.0890000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4324,7 +4424,7 @@
         <tr r="N9" s="1"/>
       </tp>
       <tp>
-        <v>43243.799420706018</v>
+        <v>43243.828137083336</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -4332,7 +4432,7 @@
         <tr r="O19" s="1"/>
       </tp>
       <tp>
-        <v>52009</v>
+        <v>52096</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4340,7 +4440,7 @@
         <tr r="M9" s="1"/>
       </tp>
       <tp>
-        <v>7.1669999999999998E-3</v>
+        <v>7.1599999999999997E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -4348,7 +4448,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>7487350</v>
+        <v>7488319</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4357,7 +4457,7 @@
         <tr r="Q31" s="1"/>
       </tp>
       <tp>
-        <v>7487091</v>
+        <v>7488192</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4366,7 +4466,7 @@
         <tr r="Q37" s="1"/>
       </tp>
       <tp>
-        <v>45352149</v>
+        <v>45361328</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4375,7 +4475,7 @@
         <tr r="Q30" s="1"/>
       </tp>
       <tp>
-        <v>45350194</v>
+        <v>45360157</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4384,7 +4484,7 @@
         <tr r="Q36" s="1"/>
       </tp>
       <tp>
-        <v>26040844</v>
+        <v>26047720</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4393,7 +4493,7 @@
         <tr r="Q29" s="1"/>
       </tp>
       <tp>
-        <v>26039254</v>
+        <v>26046598</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4402,7 +4502,7 @@
         <tr r="Q35" s="1"/>
       </tp>
       <tp>
-        <v>579.55999999999995</v>
+        <v>581.9</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4410,7 +4510,7 @@
         <tr r="D3" s="2"/>
       </tp>
       <tp>
-        <v>7533.15</v>
+        <v>7542.99</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4418,7 +4518,7 @@
         <tr r="D4" s="2"/>
       </tp>
       <tp>
-        <v>43243.791666666664</v>
+        <v>43243.822916666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4427,7 +4527,7 @@
         <tr r="F37" s="1"/>
       </tp>
       <tp>
-        <v>43243.799305555556</v>
+        <v>43243.827777777777</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4436,7 +4536,7 @@
         <tr r="F31" s="1"/>
       </tp>
       <tp>
-        <v>118.7</v>
+        <v>118.74</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4444,7 +4544,7 @@
         <tr r="I17" s="1"/>
       </tp>
       <tp>
-        <v>7512.58</v>
+        <v>7535</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4452,7 +4552,7 @@
         <tr r="I16" s="1"/>
       </tp>
       <tp>
-        <v>-1.2699999999999999E-6</v>
+        <v>-9.5999999999999991E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4460,7 +4560,7 @@
         <tr r="O10" s="1"/>
       </tp>
       <tp>
-        <v>1794793.14691304</v>
+        <v>1191563.72003854</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4469,7 +4569,7 @@
         <tr r="I36" s="1"/>
       </tp>
       <tp>
-        <v>7128.5009294299998</v>
+        <v>37969.097520559997</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4478,7 +4578,7 @@
         <tr r="I30" s="1"/>
       </tp>
       <tp>
-        <v>644.25</v>
+        <v>644.26</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -4486,7 +4586,7 @@
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>2E-8</v>
+        <v>1E-8</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4494,7 +4594,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>185</v>
+        <v>301.3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4510,7 +4610,7 @@
         <tr r="C11" s="1"/>
       </tp>
       <tp>
-        <v>106280.56263</v>
+        <v>106827.6857</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4518,7 +4618,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>0.59524999999999995</v>
+        <v>0.59423000000000004</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4526,7 +4626,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>12182594.599355601</v>
+        <v>12225585.756023699</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4534,7 +4634,7 @@
         <tr r="L8" s="1"/>
       </tp>
       <tp>
-        <v>43243.799999988427</v>
+        <v>43243.828472210647</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4543,7 +4643,7 @@
         <tr r="G29" s="1"/>
       </tp>
       <tp>
-        <v>43243.80208332176</v>
+        <v>43243.83333332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4552,7 +4652,7 @@
         <tr r="G35" s="1"/>
       </tp>
       <tp>
-        <v>43243.799999988427</v>
+        <v>43243.828472210647</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4561,7 +4661,7 @@
         <tr r="G30" s="1"/>
       </tp>
       <tp>
-        <v>43243.799999988427</v>
+        <v>43243.828472210647</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4570,7 +4670,7 @@
         <tr r="G31" s="1"/>
       </tp>
       <tp>
-        <v>43243.80208332176</v>
+        <v>43243.83333332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4579,7 +4679,7 @@
         <tr r="G36" s="1"/>
       </tp>
       <tp>
-        <v>43243.80208332176</v>
+        <v>43243.83333332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4588,7 +4688,7 @@
         <tr r="G37" s="1"/>
       </tp>
       <tp>
-        <v>745.85206400000004</v>
+        <v>9124.4314945999995</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4597,7 +4697,7 @@
         <tr r="I29" s="1"/>
       </tp>
       <tp>
-        <v>1029820.926874</v>
+        <v>678778.01629870001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4606,7 +4706,7 @@
         <tr r="I35" s="1"/>
       </tp>
       <tp>
-        <v>1.7439100000000001</v>
+        <v>7.50021</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4614,7 +4714,7 @@
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3.1895720000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4622,7 +4722,7 @@
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>0.49347000000000002</v>
+        <v>0.51527999999999996</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4630,7 +4730,7 @@
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>6.9259999999999999E-3</v>
+        <v>6.9329999999999999E-3</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -4638,7 +4738,7 @@
         <tr r="I19" s="1"/>
       </tp>
       <tp>
-        <v>0.59599999999999997</v>
+        <v>0.59706999999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4654,7 +4754,7 @@
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>43243.799305555556</v>
+        <v>43243.827777777777</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4663,7 +4763,7 @@
         <tr r="F29" s="1"/>
       </tp>
       <tp>
-        <v>43243.791666666664</v>
+        <v>43243.822916666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4672,7 +4772,7 @@
         <tr r="F35" s="1"/>
       </tp>
       <tp>
-        <v>578</v>
+        <v>582.20000000000005</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4680,7 +4780,7 @@
         <tr r="I15" s="1"/>
       </tp>
       <tp>
-        <v>128.44999999999999</v>
+        <v>128.15</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -4688,7 +4788,7 @@
         <tr r="D7" s="1"/>
       </tp>
       <tp>
-        <v>8000</v>
+        <v>7997.61</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -4696,7 +4796,7 @@
         <tr r="D6" s="1"/>
       </tp>
       <tp>
-        <v>677632.36464485002</v>
+        <v>456326.38714921998</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4705,7 +4805,7 @@
         <tr r="L36" s="1"/>
       </tp>
       <tp>
-        <v>196062.29350989999</v>
+        <v>19030.4075118</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4714,7 +4814,7 @@
         <tr r="L37" s="1"/>
       </tp>
       <tp>
-        <v>6889.3380536200002</v>
+        <v>22112.017725329999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4723,7 +4823,7 @@
         <tr r="L30" s="1"/>
       </tp>
       <tp>
-        <v>1930.5370680000001</v>
+        <v>0</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4732,7 +4832,7 @@
         <tr r="L31" s="1"/>
       </tp>
       <tp>
-        <v>540465.4464899</v>
+        <v>387387.3168272</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4741,7 +4841,7 @@
         <tr r="L35" s="1"/>
       </tp>
       <tp>
-        <v>2.2970419999999998</v>
+        <v>6687.1171244999996</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4750,7 +4850,7 @@
         <tr r="L29" s="1"/>
       </tp>
       <tp>
-        <v>579.11</v>
+        <v>581.89</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4758,7 +4858,7 @@
         <tr r="B3" s="2"/>
       </tp>
       <tp>
-        <v>2624.7235926899998</v>
+        <v>2618.51439093</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4766,7 +4866,7 @@
         <tr r="L9" s="1"/>
       </tp>
       <tp>
-        <v>42435.118895</v>
+        <v>42870.260064000002</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4782,7 +4882,7 @@
         <tr r="B8" s="1"/>
       </tp>
       <tp>
-        <v>579.25</v>
+        <v>581.9</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4790,7 +4890,7 @@
         <tr r="C3" s="2"/>
       </tp>
       <tp>
-        <v>4.0000000000000001E-8</v>
+        <v>1.1000000000000001E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4798,7 +4898,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>419829.58477409999</v>
+        <v>77861.828267599994</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4807,7 +4907,7 @@
         <tr r="I37" s="1"/>
       </tp>
       <tp>
-        <v>1930.5370680000001</v>
+        <v>440.94217739999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4816,7 +4916,7 @@
         <tr r="I31" s="1"/>
       </tp>
       <tp>
-        <v>254706.29717999999</v>
+        <v>256884.09805</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4824,7 +4924,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>7533.15</v>
+        <v>7543</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4832,7 +4932,7 @@
         <tr r="C4" s="2"/>
       </tp>
       <tp>
-        <v>-1.6999999999999999E-7</v>
+        <v>-1.4000000000000001E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4840,7 +4940,7 @@
         <tr r="O11" s="1"/>
       </tp>
       <tp>
-        <v>7533.14</v>
+        <v>7542.99</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4848,7 +4948,7 @@
         <tr r="B4" s="2"/>
       </tp>
       <tp>
-        <v>43243.791666666664</v>
+        <v>43243.822916666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4857,7 +4957,7 @@
         <tr r="F36" s="1"/>
       </tp>
       <tp>
-        <v>43243.799305555556</v>
+        <v>43243.827777777777</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4866,6 +4966,22 @@
         <tr r="F30" s="1"/>
       </tp>
       <tp>
+        <v>8030.06</v>
+        <stp/>
+        <stp>GDAX</stp>
+        <stp>BTC-USD</stp>
+        <stp>high_24h</stp>
+        <tr r="F4" s="2"/>
+      </tp>
+      <tp>
+        <v>648.46</v>
+        <stp/>
+        <stp>GDAX</stp>
+        <stp>ETH-USD</stp>
+        <stp>high_24h</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+      <tp>
         <v>9.0699999999999996E-6</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
@@ -4874,7 +4990,7 @@
         <tr r="I21" s="1"/>
       </tp>
       <tp>
-        <v>7.9300000000000003E-5</v>
+        <v>7.9040000000000002E-5</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -4890,7 +5006,7 @@
         <tr r="B6" s="1"/>
       </tp>
       <tp>
-        <v>118.54</v>
+        <v>118.74</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4898,7 +5014,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>20037666.02</v>
+        <v>20153277.09</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4906,7 +5022,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>0.59599999999999997</v>
+        <v>0.59702999999999995</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -4914,7 +5030,7 @@
         <tr r="I18" s="1"/>
       </tp>
       <tp>
-        <v>7487351</v>
+        <v>7488321</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4923,7 +5039,7 @@
         <tr r="R37" s="1"/>
       </tp>
       <tp>
-        <v>7487351</v>
+        <v>7488321</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4932,7 +5048,7 @@
         <tr r="R31" s="1"/>
       </tp>
       <tp>
-        <v>45352159</v>
+        <v>45361379</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4941,7 +5057,7 @@
         <tr r="R30" s="1"/>
       </tp>
       <tp>
-        <v>45352159</v>
+        <v>45361379</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4950,7 +5066,7 @@
         <tr r="R36" s="1"/>
       </tp>
       <tp>
-        <v>577.44000000000005</v>
+        <v>580.67999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4959,7 +5075,7 @@
         <tr r="B24" s="1"/>
       </tp>
       <tp>
-        <v>577.5</v>
+        <v>580.73</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4968,7 +5084,7 @@
         <tr r="B23" s="1"/>
       </tp>
       <tp>
-        <v>577.99</v>
+        <v>581.63</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4977,7 +5093,7 @@
         <tr r="B16" s="1"/>
       </tp>
       <tp>
-        <v>578</v>
+        <v>581.64</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4986,7 +5102,7 @@
         <tr r="B15" s="1"/>
       </tp>
       <tp>
-        <v>577.74</v>
+        <v>581.53</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4995,7 +5111,7 @@
         <tr r="B18" s="1"/>
       </tp>
       <tp>
-        <v>577.83000000000004</v>
+        <v>581.6</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5004,7 +5120,7 @@
         <tr r="B17" s="1"/>
       </tp>
       <tp>
-        <v>577.64</v>
+        <v>581.15</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5013,7 +5129,7 @@
         <tr r="B20" s="1"/>
       </tp>
       <tp>
-        <v>577.65</v>
+        <v>581.17999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5022,7 +5138,7 @@
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>577.55999999999995</v>
+        <v>580.96</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5031,7 +5147,7 @@
         <tr r="B22" s="1"/>
       </tp>
       <tp>
-        <v>577.63</v>
+        <v>581</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5040,7 +5156,7 @@
         <tr r="B21" s="1"/>
       </tp>
       <tp>
-        <v>579.02</v>
+        <v>582.70000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5049,7 +5165,7 @@
         <tr r="D21" s="1"/>
       </tp>
       <tp>
-        <v>579.26</v>
+        <v>582.77</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5058,7 +5174,7 @@
         <tr r="D22" s="1"/>
       </tp>
       <tp>
-        <v>578.96</v>
+        <v>582.59</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5067,7 +5183,7 @@
         <tr r="D19" s="1"/>
       </tp>
       <tp>
-        <v>579.01</v>
+        <v>582.6</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5076,7 +5192,7 @@
         <tr r="D20" s="1"/>
       </tp>
       <tp>
-        <v>578.87</v>
+        <v>582.21</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5085,7 +5201,7 @@
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>578.95000000000005</v>
+        <v>582.22</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5094,7 +5210,7 @@
         <tr r="D18" s="1"/>
       </tp>
       <tp>
-        <v>578.6</v>
+        <v>582.17999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5103,7 +5219,7 @@
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>578.82000000000005</v>
+        <v>582.19000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5112,7 +5228,7 @@
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>579.27</v>
+        <v>582.9</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5121,7 +5237,7 @@
         <tr r="D23" s="1"/>
       </tp>
       <tp>
-        <v>579.29</v>
+        <v>582.92999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5130,7 +5246,15 @@
         <tr r="D24" s="1"/>
       </tp>
       <tp>
-        <v>118.71</v>
+        <v>7433.19</v>
+        <stp/>
+        <stp>GDAX</stp>
+        <stp>BTC-USD</stp>
+        <stp>low_24h</stp>
+        <tr r="G4" s="2"/>
+      </tp>
+      <tp>
+        <v>118.91</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -5138,7 +5262,7 @@
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>-2.24E-4</v>
+        <v>-2.2100000000000001E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -5154,6 +5278,30 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
+        <v>563.27</v>
+        <stp/>
+        <stp>GDAX</stp>
+        <stp>ETH-USD</stp>
+        <stp>low_24h</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+      <tp>
+        <v>8001.42</v>
+        <stp/>
+        <stp>GDAX</stp>
+        <stp>BTC-USD</stp>
+        <stp>open_24h</stp>
+        <tr r="E4" s="2"/>
+      </tp>
+      <tp>
+        <v>643.34</v>
+        <stp/>
+        <stp>GDAX</stp>
+        <stp>ETH-USD</stp>
+        <stp>open_24h</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+      <tp>
         <v>560</v>
         <stp/>
         <stp>BINANCE</stp>
@@ -5162,7 +5310,7 @@
         <tr r="B5" s="1"/>
       </tp>
       <tp>
-        <v>328149121.66622531</v>
+        <v>330978506.52329791</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -5170,7 +5318,7 @@
         <tr r="L6" s="1"/>
       </tp>
       <tp>
-        <v>12995945.213345701</v>
+        <v>13030528.640093099</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -5178,7 +5326,7 @@
         <tr r="L7" s="1"/>
       </tp>
       <tp>
-        <v>578</v>
+        <v>581.64</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -5186,7 +5334,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>13250</v>
+        <v>255.67</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -5194,7 +5342,7 @@
         <tr r="J8" s="1"/>
       </tp>
       <tp>
-        <v>26040847</v>
+        <v>26047743</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5203,7 +5351,7 @@
         <tr r="R35" s="1"/>
       </tp>
       <tp>
-        <v>26040847</v>
+        <v>26047743</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5212,7 +5360,7 @@
         <tr r="R29" s="1"/>
       </tp>
       <tp>
-        <v>578.6</v>
+        <v>582.17999999999995</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -5220,7 +5368,7 @@
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>0.64510000000000001</v>
+        <v>0.63775000000000004</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -5228,7 +5376,7 @@
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>154657317.2878904</v>
+        <v>155567039.23584211</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -5236,7 +5384,7 @@
         <tr r="L5" s="1"/>
       </tp>
       <tp>
-        <v>13743.119085259999</v>
+        <v>13766.77456217</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -5244,7 +5392,7 @@
         <tr r="L11" s="1"/>
       </tp>
       <tp>
-        <v>3304.1174867200002</v>
+        <v>3274.4077716900001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -5252,7 +5400,7 @@
         <tr r="L10" s="1"/>
       </tp>
       <tp>
-        <v>7515</v>
+        <v>7540.08</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -5268,7 +5416,7 @@
         <tr r="B7" s="1"/>
       </tp>
       <tp>
-        <v>7512.58</v>
+        <v>7535</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -5284,7 +5432,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>43243.799413310182</v>
+        <v>43243.82813209491</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5293,7 +5441,7 @@
         <tr r="P30" s="1"/>
       </tp>
       <tp>
-        <v>43243.799404513891</v>
+        <v>43243.828064409725</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -5302,7 +5450,7 @@
         <tr r="P31" s="1"/>
       </tp>
       <tp>
-        <v>43243.799413310182</v>
+        <v>43243.82813209491</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5311,7 +5459,7 @@
         <tr r="P36" s="1"/>
       </tp>
       <tp>
-        <v>43243.799404513891</v>
+        <v>43243.828064409725</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -5320,7 +5468,7 @@
         <tr r="P37" s="1"/>
       </tp>
       <tp>
-        <v>43243.799419791663</v>
+        <v>43243.828132118055</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5329,7 +5477,7 @@
         <tr r="P29" s="1"/>
       </tp>
       <tp>
-        <v>43243.799419791663</v>
+        <v>43243.828132129631</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5338,7 +5486,7 @@
         <tr r="P35" s="1"/>
       </tp>
       <tp>
-        <v>0.39602999999999999</v>
+        <v>0.51549</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -5346,7 +5494,7 @@
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>0.2</v>
+        <v>8.1921800000000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -5354,7 +5502,7 @@
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>2.0441069999999999</v>
+        <v>1</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -5367,18 +5515,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E0BE176-951A-4CA3-A803-9256000D1161}" name="Table2" displayName="Table2" ref="A2:D4" totalsRowShown="0" dataDxfId="85" dataCellStyle="Comma">
-  <autoFilter ref="A2:D4" xr:uid="{580FE727-A11C-4ED9-9482-452D0F24BAD3}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E0BE176-951A-4CA3-A803-9256000D1161}" name="Table2" displayName="Table2" ref="A2:H4" totalsRowShown="0" dataDxfId="89" dataCellStyle="Comma">
+  <autoFilter ref="A2:H4" xr:uid="{580FE727-A11C-4ED9-9482-452D0F24BAD3}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9C68E037-DF9F-4856-B04D-2DCDFFB4E15E}" name="Ticker"/>
-    <tableColumn id="2" xr3:uid="{8FAA28E5-F641-4937-ADD4-FAC56E0C4147}" name="BID" dataDxfId="84" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{8FAA28E5-F641-4937-ADD4-FAC56E0C4147}" name="BID" dataDxfId="88" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,GDAX,$A3,B$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{041CD0D7-D375-4B88-8B1B-CD344CCDEB4E}" name="ASK" dataDxfId="83" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{041CD0D7-D375-4B88-8B1B-CD344CCDEB4E}" name="ASK" dataDxfId="87" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,GDAX,$A3,C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5B81F177-A71A-4810-A2A9-102CFDC4A15D}" name="LAST_PRICE" dataDxfId="82" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{5B81F177-A71A-4810-A2A9-102CFDC4A15D}" name="LAST_PRICE" dataDxfId="86" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,GDAX,$A3,D$2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{88E54DB0-E57D-4C05-B81D-0BDDFCBC50D3}" name="open_24h" dataDxfId="3" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,E$2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{0644C03A-2092-4785-8C82-498398297E87}" name="high_24h" dataDxfId="2" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,F$2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{F7D7129C-1554-4D1C-AC2E-68B137E65B85}" name="low_24h" dataDxfId="1" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,G$2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{4BD2F6D0-F9D4-4F69-8989-8E5F76D88E95}" name="volume_24h" dataDxfId="0" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,H$2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5386,50 +5546,50 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A4:O11" totalsRowShown="0" dataDxfId="81" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A4:O11" totalsRowShown="0" dataDxfId="85" dataCellStyle="Comma">
   <autoFilter ref="A4:O11" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3DCAC593-21E4-456C-93D1-EEDC8340EA91}" name="Ticker"/>
-    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,B$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,C$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,D$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="74" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="78" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,E$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,F$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,G$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,H$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,I$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,J$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,K$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,L$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,M$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Percent">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,N$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,O$4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5438,20 +5598,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E24" totalsRowShown="0" dataDxfId="53" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E24" totalsRowShown="0" dataDxfId="57" dataCellStyle="Comma">
   <autoFilter ref="A14:E24" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="52" dataCellStyle="20% - Accent6">
+    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="56" dataCellStyle="20% - Accent6">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="51" dataCellStyle="20% - Accent6">
+    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="55" dataCellStyle="20% - Accent6">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="49" dataCellStyle="20% - Accent2">
+    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="53" dataCellStyle="20% - Accent2">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="48" dataCellStyle="20% - Accent2">
+    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="52" dataCellStyle="20% - Accent2">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5460,32 +5620,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:O21" totalsRowShown="0" dataDxfId="47" tableBorderDxfId="46" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:O21" totalsRowShown="0" dataDxfId="51" tableBorderDxfId="50" dataCellStyle="Comma">
   <autoFilter ref="G14:O21" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4DF9B9E1-1E83-4EF7-84C1-2078EE821C9B}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="45" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="49" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,H$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="PRICE" dataDxfId="44" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="PRICE" dataDxfId="48" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,I$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="QUANTITY" dataDxfId="43" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="QUANTITY" dataDxfId="47" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,J$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="42" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="46" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,K$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="41" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="45" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,L$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{596DAC26-1FB0-4FA0-9F2B-2F85949317B9}" name="FIRST_ID" dataDxfId="40" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{596DAC26-1FB0-4FA0-9F2B-2F85949317B9}" name="FIRST_ID" dataDxfId="44" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,M$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{625DA386-D82A-4BD8-99A5-41F6984223F9}" name="LAST_ID" dataDxfId="39" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{625DA386-D82A-4BD8-99A5-41F6984223F9}" name="LAST_ID" dataDxfId="43" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,N$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B43DE4EC-1073-4EE5-AFA6-29717F6887CA}" name="TRADE_TIME" dataDxfId="38" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{B43DE4EC-1073-4EE5-AFA6-29717F6887CA}" name="TRADE_TIME" dataDxfId="42" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,O$14)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5494,59 +5654,59 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A28:R31" totalsRowShown="0" dataDxfId="37" tableBorderDxfId="36" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A28:R31" totalsRowShown="0" dataDxfId="41" tableBorderDxfId="40" dataCellStyle="Comma">
   <autoFilter ref="A28:R31" xr:uid="{BD9601BD-F222-4DBD-B404-C68EB6A96569}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{A75C3BB9-BD50-4A86-92A6-228C26DADEC8}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="35" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="39" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,B$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="34" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="38" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,C$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="33" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="37" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,D$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="32" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="36" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,E$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="31" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="35" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,F$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="30" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="34" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,G$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="29" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="33" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,H$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="28" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="32" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,I$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="27" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="31" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,J$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="26" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="30" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,K$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="25" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="29" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,L$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="24" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="28" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,M$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="23" dataCellStyle="Comma">
+    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="27" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,N$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{11BF3445-5968-4B64-972D-05C6CECCD6DE}" name="Event" dataDxfId="22" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{11BF3445-5968-4B64-972D-05C6CECCD6DE}" name="Event" dataDxfId="26" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,O$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="21" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="25" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,P$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="20" dataCellStyle="Comma">
+    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="24" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,Q$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="19" dataCellStyle="Comma">
+    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="23" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,R$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5555,59 +5715,59 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A34:R37" totalsRowShown="0" dataDxfId="18" tableBorderDxfId="17" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A34:R37" totalsRowShown="0" dataDxfId="22" tableBorderDxfId="21" dataCellStyle="Comma">
   <autoFilter ref="A34:R37" xr:uid="{04787891-A2B4-4F14-ADE0-2BC3B779F519}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{CD2685D4-7653-442A-A4D2-04D1D79D1D51}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="16" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="20" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,B$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="15" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="19" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,C$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="14" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="18" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,D$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="13" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="17" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,E$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="12" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="16" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,F$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="11" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="15" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,G$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="10" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="14" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,H$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="9" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="13" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,I$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="8" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="12" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,J$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="7" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="11" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,K$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="6" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="10" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,L$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="9" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,M$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="4" dataCellStyle="Comma">
+    <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="8" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,N$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{528B6C8B-64D5-45B1-8F49-30BB75CB0054}" name="Event" dataDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{528B6C8B-64D5-45B1-8F49-30BB75CB0054}" name="Event" dataDxfId="7" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,O$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="6" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,P$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="5" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,Q$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="4" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,R$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5912,19 +6072,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7470B438-0642-48A4-8F04-0651273A7466}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5932,7 +6096,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5945,39 +6109,83 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
         <f>RTD(progId,,GDAX,$A3,B$2)</f>
-        <v>579.11</v>
+        <v>581.89</v>
       </c>
       <c r="C3" s="2">
         <f>RTD(progId,,GDAX,$A3,C$2)</f>
-        <v>579.25</v>
+        <v>581.9</v>
       </c>
       <c r="D3" s="2">
         <f>RTD(progId,,GDAX,$A3,D$2)</f>
-        <v>579.55999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581.9</v>
+      </c>
+      <c r="E3" s="2">
+        <f>RTD(progId,,GDAX,$A3,E$2)</f>
+        <v>643.34</v>
+      </c>
+      <c r="F3" s="2">
+        <f>RTD(progId,,GDAX,$A3,F$2)</f>
+        <v>648.46</v>
+      </c>
+      <c r="G3" s="2">
+        <f>RTD(progId,,GDAX,$A3,G$2)</f>
+        <v>563.27</v>
+      </c>
+      <c r="H3" s="2">
+        <f>RTD(progId,,GDAX,$A3,H$2)</f>
+        <v>215319.31700712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2">
         <f>RTD(progId,,GDAX,$A4,B$2)</f>
-        <v>7533.14</v>
+        <v>7542.99</v>
       </c>
       <c r="C4" s="2">
         <f>RTD(progId,,GDAX,$A4,C$2)</f>
-        <v>7533.15</v>
+        <v>7543</v>
       </c>
       <c r="D4" s="2">
         <f>RTD(progId,,GDAX,$A4,D$2)</f>
-        <v>7533.15</v>
+        <v>7542.99</v>
+      </c>
+      <c r="E4" s="2">
+        <f>RTD(progId,,GDAX,$A4,E$2)</f>
+        <v>8001.42</v>
+      </c>
+      <c r="F4" s="2">
+        <f>RTD(progId,,GDAX,$A4,F$2)</f>
+        <v>8030.06</v>
+      </c>
+      <c r="G4" s="2">
+        <f>RTD(progId,,GDAX,$A4,G$2)</f>
+        <v>7433.19</v>
+      </c>
+      <c r="H4" s="2">
+        <f>RTD(progId,,GDAX,$A4,H$2)</f>
+        <v>15905.412344120001</v>
       </c>
     </row>
   </sheetData>
@@ -5993,7 +6201,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -6120,51 +6328,51 @@
       </c>
       <c r="D5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,D$4)</f>
-        <v>644.25</v>
+        <v>644.26</v>
       </c>
       <c r="E5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,E$4)</f>
-        <v>644.25</v>
+        <v>644.99</v>
       </c>
       <c r="F5" s="2">
         <f>RTD(progId,,BINANCE,$A5,F$4)</f>
-        <v>0.49347000000000002</v>
+        <v>0.51527999999999996</v>
       </c>
       <c r="G5" s="2">
         <f>RTD(progId,,BINANCE,$A5,G$4)</f>
-        <v>578</v>
+        <v>581.64</v>
       </c>
       <c r="H5" s="2">
         <f>RTD(progId,,BINANCE,$A5,H$4)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="I5" s="2">
         <f>RTD(progId,,BINANCE,$A5,I$4)</f>
-        <v>578.6</v>
+        <v>582.17999999999995</v>
       </c>
       <c r="J5" s="2">
         <f>RTD(progId,,BINANCE,$A5,J$4)</f>
-        <v>0.39602999999999999</v>
+        <v>0.51549</v>
       </c>
       <c r="K5" s="9">
         <f>RTD(progId,,BINANCE,$A5,K$4)</f>
-        <v>254706.29717999999</v>
+        <v>256884.09805</v>
       </c>
       <c r="L5" s="2">
         <f>RTD(progId,,BINANCE,$A5,L$4)</f>
-        <v>154657317.2878904</v>
+        <v>155567039.23584211</v>
       </c>
       <c r="M5" s="9">
         <f>RTD(progId,,BINANCE,$A5,M$4)</f>
-        <v>199919</v>
+        <v>202926</v>
       </c>
       <c r="N5" s="10">
         <f>RTD(progId,,BINANCE,$A5,N$4)</f>
-        <v>-0.1024</v>
+        <v>-9.5460000000000003E-2</v>
       </c>
       <c r="O5" s="2">
         <f>RTD(progId,,BINANCE,$A5,O$4)</f>
-        <v>-66.010000000000005</v>
+        <v>-61.44</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -6181,51 +6389,51 @@
       </c>
       <c r="D6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,D$4)</f>
-        <v>8000</v>
+        <v>7997.61</v>
       </c>
       <c r="E6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,E$4)</f>
-        <v>8009.9</v>
+        <v>8005.48</v>
       </c>
       <c r="F6" s="2">
         <f>RTD(progId,,BINANCE,$A6,F$4)</f>
-        <v>2</v>
+        <v>3.1895720000000001</v>
       </c>
       <c r="G6" s="2">
         <f>RTD(progId,,BINANCE,$A6,G$4)</f>
-        <v>7512.58</v>
+        <v>7535</v>
       </c>
       <c r="H6" s="2">
         <f>RTD(progId,,BINANCE,$A6,H$4)</f>
-        <v>2.42</v>
+        <v>5.08</v>
       </c>
       <c r="I6" s="2">
         <f>RTD(progId,,BINANCE,$A6,I$4)</f>
-        <v>7515</v>
+        <v>7540.08</v>
       </c>
       <c r="J6" s="2">
         <f>RTD(progId,,BINANCE,$A6,J$4)</f>
-        <v>2.0441069999999999</v>
+        <v>1</v>
       </c>
       <c r="K6" s="9">
         <f>RTD(progId,,BINANCE,$A6,K$4)</f>
-        <v>42435.118895</v>
+        <v>42870.260064000002</v>
       </c>
       <c r="L6" s="2">
         <f>RTD(progId,,BINANCE,$A6,L$4)</f>
-        <v>328149121.66622531</v>
+        <v>330978506.52329791</v>
       </c>
       <c r="M6" s="9">
         <f>RTD(progId,,BINANCE,$A6,M$4)</f>
-        <v>304507</v>
+        <v>306779</v>
       </c>
       <c r="N6" s="10">
         <f>RTD(progId,,BINANCE,$A6,N$4)</f>
-        <v>-6.2440000000000002E-2</v>
+        <v>-5.772E-2</v>
       </c>
       <c r="O6" s="2">
         <f>RTD(progId,,BINANCE,$A6,O$4)</f>
-        <v>-500.47</v>
+        <v>-461.59</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -6242,19 +6450,19 @@
       </c>
       <c r="D7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,D$4)</f>
-        <v>128.44999999999999</v>
+        <v>128.15</v>
       </c>
       <c r="E7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,E$4)</f>
-        <v>128.51</v>
+        <v>128.25</v>
       </c>
       <c r="F7" s="2">
         <f>RTD(progId,,BINANCE,$A7,F$4)</f>
-        <v>1.7439100000000001</v>
+        <v>7.50021</v>
       </c>
       <c r="G7" s="2">
         <f>RTD(progId,,BINANCE,$A7,G$4)</f>
-        <v>118.54</v>
+        <v>118.74</v>
       </c>
       <c r="H7" s="2">
         <f>RTD(progId,,BINANCE,$A7,H$4)</f>
@@ -6262,31 +6470,31 @@
       </c>
       <c r="I7" s="2">
         <f>RTD(progId,,BINANCE,$A7,I$4)</f>
-        <v>118.71</v>
+        <v>118.91</v>
       </c>
       <c r="J7" s="2">
         <f>RTD(progId,,BINANCE,$A7,J$4)</f>
-        <v>0.2</v>
+        <v>8.1921800000000005</v>
       </c>
       <c r="K7" s="9">
         <f>RTD(progId,,BINANCE,$A7,K$4)</f>
-        <v>106280.56263</v>
+        <v>106827.6857</v>
       </c>
       <c r="L7" s="2">
         <f>RTD(progId,,BINANCE,$A7,L$4)</f>
-        <v>12995945.213345701</v>
+        <v>13030528.640093099</v>
       </c>
       <c r="M7" s="9">
         <f>RTD(progId,,BINANCE,$A7,M$4)</f>
-        <v>29571</v>
+        <v>29990</v>
       </c>
       <c r="N7" s="10">
         <f>RTD(progId,,BINANCE,$A7,N$4)</f>
-        <v>-7.7700000000000005E-2</v>
+        <v>-7.4730000000000005E-2</v>
       </c>
       <c r="O7" s="2">
         <f>RTD(progId,,BINANCE,$A7,O$4)</f>
-        <v>-10</v>
+        <v>-9.59</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -6299,55 +6507,55 @@
       </c>
       <c r="C8" s="2">
         <f>RTD(progId,,BINANCE,$A8,C$4)</f>
-        <v>0.64600000000000002</v>
+        <v>0.64488000000000001</v>
       </c>
       <c r="D8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,D$4)</f>
-        <v>0.64510000000000001</v>
+        <v>0.63775000000000004</v>
       </c>
       <c r="E8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,E$4)</f>
-        <v>0.64571999999999996</v>
+        <v>0.63848000000000005</v>
       </c>
       <c r="F8" s="9">
         <f>RTD(progId,,BINANCE,$A8,F$4)</f>
-        <v>185</v>
+        <v>301.3</v>
       </c>
       <c r="G8" s="2">
         <f>RTD(progId,,BINANCE,$A8,G$4)</f>
-        <v>0.59524999999999995</v>
+        <v>0.59423000000000004</v>
       </c>
       <c r="H8" s="2">
         <f>RTD(progId,,BINANCE,$A8,H$4)</f>
-        <v>7.5000000000000002E-4</v>
+        <v>2.8400000000000001E-3</v>
       </c>
       <c r="I8" s="2">
         <f>RTD(progId,,BINANCE,$A8,I$4)</f>
-        <v>0.59599999999999997</v>
+        <v>0.59706999999999999</v>
       </c>
       <c r="J8" s="2">
         <f>RTD(progId,,BINANCE,$A8,J$4)</f>
-        <v>13250</v>
+        <v>255.67</v>
       </c>
       <c r="K8" s="9">
         <f>RTD(progId,,BINANCE,$A8,K$4)</f>
-        <v>20037666.02</v>
+        <v>20153277.09</v>
       </c>
       <c r="L8" s="2">
         <f>RTD(progId,,BINANCE,$A8,L$4)</f>
-        <v>12182594.599355601</v>
+        <v>12225585.756023699</v>
       </c>
       <c r="M8" s="9">
         <f>RTD(progId,,BINANCE,$A8,M$4)</f>
-        <v>30998</v>
+        <v>31473</v>
       </c>
       <c r="N8" s="10">
         <f>RTD(progId,,BINANCE,$A8,N$4)</f>
-        <v>-7.5969999999999996E-2</v>
+        <v>-6.5369999999999998E-2</v>
       </c>
       <c r="O8" s="2">
         <f>RTD(progId,,BINANCE,$A8,O$4)</f>
-        <v>-4.9000000000000002E-2</v>
+        <v>-4.1759999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -6364,19 +6572,19 @@
       </c>
       <c r="D9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,D$4)</f>
-        <v>7.1669999999999998E-3</v>
+        <v>7.1599999999999997E-3</v>
       </c>
       <c r="E9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,E$4)</f>
-        <v>7.1669999999999998E-3</v>
+        <v>7.1599999999999997E-3</v>
       </c>
       <c r="F9" s="9">
         <f>RTD(progId,,BINANCE,$A9,F$4)</f>
-        <v>4.5599999999999996</v>
+        <v>1.49</v>
       </c>
       <c r="G9" s="2">
         <f>RTD(progId,,BINANCE,$A9,G$4)</f>
-        <v>6.9259999999999999E-3</v>
+        <v>6.9319999999999998E-3</v>
       </c>
       <c r="H9" s="2">
         <f>RTD(progId,,BINANCE,$A9,H$4)</f>
@@ -6384,31 +6592,31 @@
       </c>
       <c r="I9" s="2">
         <f>RTD(progId,,BINANCE,$A9,I$4)</f>
-        <v>6.9280000000000001E-3</v>
+        <v>6.9340000000000001E-3</v>
       </c>
       <c r="J9" s="2">
         <f>RTD(progId,,BINANCE,$A9,J$4)</f>
-        <v>3.89</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="K9" s="9">
         <f>RTD(progId,,BINANCE,$A9,K$4)</f>
-        <v>372632.11</v>
+        <v>372005.87</v>
       </c>
       <c r="L9" s="2">
         <f>RTD(progId,,BINANCE,$A9,L$4)</f>
-        <v>2624.7235926899998</v>
+        <v>2618.51439093</v>
       </c>
       <c r="M9" s="9">
         <f>RTD(progId,,BINANCE,$A9,M$4)</f>
-        <v>52009</v>
+        <v>52096</v>
       </c>
       <c r="N9" s="10">
         <f>RTD(progId,,BINANCE,$A9,N$4)</f>
-        <v>-3.1300000000000001E-2</v>
+        <v>-3.0890000000000001E-2</v>
       </c>
       <c r="O9" s="2">
         <f>RTD(progId,,BINANCE,$A9,O$4)</f>
-        <v>-2.24E-4</v>
+        <v>-2.2100000000000001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6425,51 +6633,51 @@
       </c>
       <c r="D10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,D$4)</f>
-        <v>8.0550000000000006E-5</v>
+        <v>8.0010000000000001E-5</v>
       </c>
       <c r="E10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,E$4)</f>
-        <v>8.0500000000000005E-5</v>
+        <v>8.0010000000000001E-5</v>
       </c>
       <c r="F10" s="9">
         <f>RTD(progId,,BINANCE,$A10,F$4)</f>
-        <v>900</v>
+        <v>6386</v>
       </c>
       <c r="G10" s="2">
         <f>RTD(progId,,BINANCE,$A10,G$4)</f>
-        <v>7.9309999999999998E-5</v>
+        <v>7.894E-5</v>
       </c>
       <c r="H10" s="2">
         <f>RTD(progId,,BINANCE,$A10,H$4)</f>
-        <v>4.0000000000000001E-8</v>
+        <v>1.1000000000000001E-7</v>
       </c>
       <c r="I10" s="2">
         <f>RTD(progId,,BINANCE,$A10,I$4)</f>
-        <v>7.9350000000000004E-5</v>
+        <v>7.9049999999999997E-5</v>
       </c>
       <c r="J10" s="2">
         <f>RTD(progId,,BINANCE,$A10,J$4)</f>
-        <v>173</v>
+        <v>1264</v>
       </c>
       <c r="K10" s="9">
         <f>RTD(progId,,BINANCE,$A10,K$4)</f>
-        <v>41883660</v>
+        <v>41524771</v>
       </c>
       <c r="L10" s="2">
         <f>RTD(progId,,BINANCE,$A10,L$4)</f>
-        <v>3304.1174867200002</v>
+        <v>3274.4077716900001</v>
       </c>
       <c r="M10" s="9">
         <f>RTD(progId,,BINANCE,$A10,M$4)</f>
-        <v>66180</v>
+        <v>66201</v>
       </c>
       <c r="N10" s="10">
         <f>RTD(progId,,BINANCE,$A10,N$4)</f>
-        <v>-1.576E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="O10" s="2">
         <f>RTD(progId,,BINANCE,$A10,O$4)</f>
-        <v>-1.2699999999999999E-6</v>
+        <v>-9.5999999999999991E-7</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6486,23 +6694,23 @@
       </c>
       <c r="D11" s="2">
         <f>RTD(progId,,BINANCE_24H,$A11,D$4)</f>
-        <v>9.2199999999999998E-6</v>
+        <v>9.1900000000000001E-6</v>
       </c>
       <c r="E11" s="2">
         <f>RTD(progId,,BINANCE_24H,$A11,E$4)</f>
-        <v>9.2199999999999998E-6</v>
+        <v>9.1900000000000001E-6</v>
       </c>
       <c r="F11" s="9">
         <f>RTD(progId,,BINANCE,$A11,F$4)</f>
-        <v>92528</v>
+        <v>356491</v>
       </c>
       <c r="G11" s="2">
         <f>RTD(progId,,BINANCE,$A11,G$4)</f>
-        <v>9.0499999999999997E-6</v>
+        <v>9.0599999999999997E-6</v>
       </c>
       <c r="H11" s="2">
         <f>RTD(progId,,BINANCE,$A11,H$4)</f>
-        <v>2E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="I11" s="2">
         <f>RTD(progId,,BINANCE,$A11,I$4)</f>
@@ -6510,27 +6718,27 @@
       </c>
       <c r="J11" s="2">
         <f>RTD(progId,,BINANCE,$A11,J$4)</f>
-        <v>235468</v>
+        <v>1963</v>
       </c>
       <c r="K11" s="9">
         <f>RTD(progId,,BINANCE,$A11,K$4)</f>
-        <v>1518580274</v>
+        <v>1521798589</v>
       </c>
       <c r="L11" s="2">
         <f>RTD(progId,,BINANCE,$A11,L$4)</f>
-        <v>13743.119085259999</v>
+        <v>13766.77456217</v>
       </c>
       <c r="M11" s="9">
         <f>RTD(progId,,BINANCE,$A11,M$4)</f>
-        <v>127521</v>
+        <v>128495</v>
       </c>
       <c r="N11" s="10">
         <f>RTD(progId,,BINANCE,$A11,N$4)</f>
-        <v>-1.8440000000000002E-2</v>
+        <v>-1.52E-2</v>
       </c>
       <c r="O11" s="2">
         <f>RTD(progId,,BINANCE,$A11,O$4)</f>
-        <v>-1.6999999999999999E-7</v>
+        <v>-1.4000000000000001E-7</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6606,41 +6814,41 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</f>
-        <v>0.49347000000000002</v>
+        <v>0.51527999999999996</v>
       </c>
       <c r="B15" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</f>
-        <v>578</v>
+        <v>581.64</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</f>
-        <v>578.6</v>
+        <v>582.17999999999995</v>
       </c>
       <c r="E15" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</f>
-        <v>0.39602999999999999</v>
+        <v>0.51549</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,H$14)</f>
-        <v>23115870</v>
+        <v>23121775</v>
       </c>
       <c r="I15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,I$14)</f>
-        <v>578</v>
+        <v>582.20000000000005</v>
       </c>
       <c r="J15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,J$14)</f>
-        <v>0.49347000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="K15" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G15,K$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G15,L$14)</f>
@@ -6648,25 +6856,25 @@
       </c>
       <c r="M15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,M$14)</f>
-        <v>26040847</v>
+        <v>26047743</v>
       </c>
       <c r="N15" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G15,N$14)</f>
-        <v>26040847</v>
+        <v>26047743</v>
       </c>
       <c r="O15" s="33">
         <f>RTD(progId,,BINACE_TRADE,$G15,O$14)</f>
-        <v>43243.799419756942</v>
+        <v>43243.828132083334</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C16)</f>
-        <v>1.7999999999999999E-2</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="B16" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C16)</f>
-        <v>577.99</v>
+        <v>581.63</v>
       </c>
       <c r="C16" s="8">
         <f>C15+1</f>
@@ -6674,26 +6882,26 @@
       </c>
       <c r="D16" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C16)</f>
-        <v>578.82000000000005</v>
+        <v>582.19000000000005</v>
       </c>
       <c r="E16" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C16)</f>
-        <v>9</v>
+        <v>1.2547900000000001</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,H$14)</f>
-        <v>39447096</v>
+        <v>39455650</v>
       </c>
       <c r="I16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,I$14)</f>
-        <v>7512.58</v>
+        <v>7535</v>
       </c>
       <c r="J16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,J$14)</f>
-        <v>9.9999999999999995E-7</v>
+        <v>2.758E-3</v>
       </c>
       <c r="K16" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G16,K$14)</f>
@@ -6705,15 +6913,15 @@
       </c>
       <c r="M16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,M$14)</f>
-        <v>45352162</v>
+        <v>45361382</v>
       </c>
       <c r="N16" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G16,N$14)</f>
-        <v>45352162</v>
+        <v>45361382</v>
       </c>
       <c r="O16" s="33">
         <f>RTD(progId,,BINACE_TRADE,$G16,O$14)</f>
-        <v>43243.799415833331</v>
+        <v>43243.828134444448</v>
       </c>
       <c r="Q16" s="38">
         <f>Table4[[#This Row],[PRICE]]-G6</f>
@@ -6721,17 +6929,17 @@
       </c>
       <c r="R16" s="38">
         <f>Table4[[#This Row],[PRICE]]-I6</f>
-        <v>-2.4200000000000728</v>
+        <v>-5.0799999999999272</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C17)</f>
-        <v>1.7999999999999999E-2</v>
+        <v>16.292899999999999</v>
       </c>
       <c r="B17" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C17)</f>
-        <v>577.83000000000004</v>
+        <v>581.6</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" ref="C17:C24" si="0">C16+1</f>
@@ -6739,30 +6947,30 @@
       </c>
       <c r="D17" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C17)</f>
-        <v>578.87</v>
+        <v>582.21</v>
       </c>
       <c r="E17" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C17)</f>
-        <v>0.06</v>
+        <v>9.8913600000000006</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,H$14)</f>
-        <v>6593265</v>
+        <v>6594163</v>
       </c>
       <c r="I17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,I$14)</f>
-        <v>118.7</v>
+        <v>118.74</v>
       </c>
       <c r="J17" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G17,J$14)</f>
-        <v>9.264E-2</v>
+        <v>3.7019899999999999</v>
       </c>
       <c r="K17" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G17,K$14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="16" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G17,L$14)</f>
@@ -6770,26 +6978,26 @@
       </c>
       <c r="M17" s="23">
         <f>RTD(progId,,BINACE_TRADE,$G17,M$14)</f>
-        <v>7487351</v>
+        <v>7488320</v>
       </c>
       <c r="N17" s="23">
         <f>RTD(progId,,BINACE_TRADE,$G17,N$14)</f>
-        <v>7487351</v>
+        <v>7488321</v>
       </c>
       <c r="O17" s="34">
         <f>RTD(progId,,BINACE_TRADE,$G17,O$14)</f>
-        <v>43243.799404479163</v>
+        <v>43243.828064386573</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C18)</f>
-        <v>1.7999999999999999E-2</v>
+        <v>6.8779999999999994E-2</v>
       </c>
       <c r="B18" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C18)</f>
-        <v>577.74</v>
+        <v>581.53</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
@@ -6797,26 +7005,26 @@
       </c>
       <c r="D18" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C18)</f>
-        <v>578.95000000000005</v>
+        <v>582.22</v>
       </c>
       <c r="E18" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C18)</f>
-        <v>0.5</v>
+        <v>0.24571999999999999</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G18,H$14)</f>
-        <v>458525</v>
+        <v>459548</v>
       </c>
       <c r="I18" s="35">
         <f>RTD(progId,,BINACE_TRADE,$G18,I$14)</f>
-        <v>0.59599999999999997</v>
+        <v>0.59702999999999995</v>
       </c>
       <c r="J18" s="35">
         <f>RTD(progId,,BINACE_TRADE,$G18,J$14)</f>
-        <v>0.34</v>
+        <v>64.209999999999994</v>
       </c>
       <c r="K18" s="35" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G18,K$14)</f>
@@ -6828,25 +7036,25 @@
       </c>
       <c r="M18" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G18,M$14)</f>
-        <v>505569</v>
+        <v>506654</v>
       </c>
       <c r="N18" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G18,N$14)</f>
-        <v>505569</v>
+        <v>506654</v>
       </c>
       <c r="O18" s="33">
         <f>RTD(progId,,BINACE_TRADE,$G18,O$14)</f>
-        <v>43243.799348125001</v>
+        <v>43243.827995428241</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C19)</f>
-        <v>1.7999999999999999E-2</v>
+        <v>1.72058</v>
       </c>
       <c r="B19" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C19)</f>
-        <v>577.65</v>
+        <v>581.17999999999995</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
@@ -6854,30 +7062,30 @@
       </c>
       <c r="D19" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C19)</f>
-        <v>578.96</v>
+        <v>582.59</v>
       </c>
       <c r="E19" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C19)</f>
-        <v>0.219</v>
+        <v>1.4</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H19" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G19,H$14)</f>
-        <v>13330496</v>
+        <v>13331554</v>
       </c>
       <c r="I19" s="35">
         <f>RTD(progId,,BINACE_TRADE,$G19,I$14)</f>
-        <v>6.9259999999999999E-3</v>
+        <v>6.9329999999999999E-3</v>
       </c>
       <c r="J19" s="35">
         <f>RTD(progId,,BINACE_TRADE,$G19,J$14)</f>
-        <v>2.66</v>
+        <v>1.79</v>
       </c>
       <c r="K19" s="35" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G19,K$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="35" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G19,L$14)</f>
@@ -6885,25 +7093,25 @@
       </c>
       <c r="M19" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G19,M$14)</f>
-        <v>15050999</v>
+        <v>15052222</v>
       </c>
       <c r="N19" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G19,N$14)</f>
-        <v>15051000</v>
+        <v>15052222</v>
       </c>
       <c r="O19" s="33">
         <f>RTD(progId,,BINACE_TRADE,$G19,O$14)</f>
-        <v>43243.799420706018</v>
+        <v>43243.828137083336</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C20)</f>
-        <v>1.52519</v>
+        <v>1.00299</v>
       </c>
       <c r="B20" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C20)</f>
-        <v>577.64</v>
+        <v>581.15</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
@@ -6911,30 +7119,30 @@
       </c>
       <c r="D20" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C20)</f>
-        <v>579.01</v>
+        <v>582.6</v>
       </c>
       <c r="E20" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C20)</f>
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G20,H$14)</f>
-        <v>17203563</v>
+        <v>17205151</v>
       </c>
       <c r="I20" s="35">
         <f>RTD(progId,,BINACE_TRADE,$G20,I$14)</f>
-        <v>7.9300000000000003E-5</v>
+        <v>7.9040000000000002E-5</v>
       </c>
       <c r="J20" s="35">
         <f>RTD(progId,,BINACE_TRADE,$G20,J$14)</f>
-        <v>2000</v>
+        <v>2484</v>
       </c>
       <c r="K20" s="35" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G20,K$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="35" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G20,L$14)</f>
@@ -6942,25 +7150,25 @@
       </c>
       <c r="M20" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G20,M$14)</f>
-        <v>20826818</v>
+        <v>20828597</v>
       </c>
       <c r="N20" s="16">
         <f>RTD(progId,,BINACE_TRADE,$G20,N$14)</f>
-        <v>20826818</v>
+        <v>20828597</v>
       </c>
       <c r="O20" s="33">
         <f>RTD(progId,,BINACE_TRADE,$G20,O$14)</f>
-        <v>43243.799358796299</v>
+        <v>43243.828053148151</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C21)</f>
-        <v>10</v>
+        <v>1.6310100000000001</v>
       </c>
       <c r="B21" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C21)</f>
-        <v>577.63</v>
+        <v>581</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
@@ -6968,18 +7176,18 @@
       </c>
       <c r="D21" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C21)</f>
-        <v>579.02</v>
+        <v>582.70000000000005</v>
       </c>
       <c r="E21" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C21)</f>
-        <v>5.8026999999999997</v>
+        <v>2.2280600000000002</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="23">
         <f>RTD(progId,,BINACE_TRADE,$G21,H$14)</f>
-        <v>17543575</v>
+        <v>17545847</v>
       </c>
       <c r="I21" s="37">
         <f>RTD(progId,,BINACE_TRADE,$G21,I$14)</f>
@@ -6987,7 +7195,7 @@
       </c>
       <c r="J21" s="37">
         <f>RTD(progId,,BINACE_TRADE,$G21,J$14)</f>
-        <v>191</v>
+        <v>428</v>
       </c>
       <c r="K21" s="37" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G21,K$14)</f>
@@ -6999,25 +7207,25 @@
       </c>
       <c r="M21" s="23">
         <f>RTD(progId,,BINACE_TRADE,$G21,M$14)</f>
-        <v>28269780</v>
+        <v>28273403</v>
       </c>
       <c r="N21" s="23">
         <f>RTD(progId,,BINACE_TRADE,$G21,N$14)</f>
-        <v>28269780</v>
+        <v>28273403</v>
       </c>
       <c r="O21" s="34">
         <f>RTD(progId,,BINACE_TRADE,$G21,O$14)</f>
-        <v>43243.799421041665</v>
+        <v>43243.828146215281</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C22)</f>
-        <v>0.5</v>
+        <v>0.30843999999999999</v>
       </c>
       <c r="B22" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C22)</f>
-        <v>577.55999999999995</v>
+        <v>580.96</v>
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
@@ -7025,21 +7233,21 @@
       </c>
       <c r="D22" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C22)</f>
-        <v>579.26</v>
+        <v>582.77</v>
       </c>
       <c r="E22" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C22)</f>
-        <v>1.4219999999999999</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C23)</f>
-        <v>0.40028999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="B23" s="20">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C23)</f>
-        <v>577.5</v>
+        <v>580.73</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" si="0"/>
@@ -7047,21 +7255,21 @@
       </c>
       <c r="D23" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C23)</f>
-        <v>579.27</v>
+        <v>582.9</v>
       </c>
       <c r="E23" s="21">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C23)</f>
-        <v>17</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C24)</f>
-        <v>12.9</v>
+        <v>2.2010000000000001</v>
       </c>
       <c r="B24" s="39">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C24)</f>
-        <v>577.44000000000005</v>
+        <v>580.67999999999995</v>
       </c>
       <c r="C24" s="40">
         <f t="shared" si="0"/>
@@ -7069,33 +7277,33 @@
       </c>
       <c r="D24" s="41">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C24)</f>
-        <v>579.29</v>
+        <v>582.92999999999995</v>
       </c>
       <c r="E24" s="41">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C24)</f>
-        <v>0.4</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <f>SUM(Table3[BID_DEPTH_SIZE])</f>
-        <v>25.89095</v>
+        <v>24.64106</v>
       </c>
       <c r="B25" s="18">
         <f>SUMPRODUCT(Table3[[BID_DEPTH_SIZE]:[BID_DEPTH]])</f>
-        <v>5802.8709499999986</v>
+        <v>5836.7410599999994</v>
       </c>
       <c r="C25" s="19">
         <f>D25-B25</f>
-        <v>23.778780000001461</v>
+        <v>23.354360000001179</v>
       </c>
       <c r="D25" s="18">
         <f>SUMPRODUCT(Table3[[ASK_DEPTH]:[ASK_DEPTH_SIZE]])</f>
-        <v>5826.6497300000001</v>
+        <v>5860.0954200000006</v>
       </c>
       <c r="E25" s="13">
         <f>SUM(Table3[ASK_DEPTH_SIZE])</f>
-        <v>36.599730000000001</v>
+        <v>34.805420000000005</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="4"/>
@@ -7184,27 +7392,27 @@
       </c>
       <c r="B29" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,B$28,$D$27)</f>
-        <v>577.82000000000005</v>
+        <v>581.96</v>
       </c>
       <c r="C29" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,C$28,$D$27)</f>
-        <v>578.6</v>
+        <v>582.22</v>
       </c>
       <c r="D29" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,D$28,$D$27)</f>
-        <v>577.64</v>
+        <v>581.45000000000005</v>
       </c>
       <c r="E29" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,E$28,$D$27)</f>
-        <v>578</v>
+        <v>582.20000000000005</v>
       </c>
       <c r="F29" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,F$28,$D$27)</f>
-        <v>43243.799305555556</v>
+        <v>43243.827777777777</v>
       </c>
       <c r="G29" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,G$28,$D$27)</f>
-        <v>43243.799999988427</v>
+        <v>43243.828472210647</v>
       </c>
       <c r="H29" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,H$28,$D$27)</f>
@@ -7212,19 +7420,19 @@
       </c>
       <c r="I29" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,I$28,$D$27)</f>
-        <v>745.85206400000004</v>
+        <v>9124.4314945999995</v>
       </c>
       <c r="J29" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,J$28,$D$27)</f>
-        <v>1.2907299999999999</v>
+        <v>15.68529</v>
       </c>
       <c r="K29" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,K$28,$D$27)</f>
-        <v>3.9699999999999996E-3</v>
+        <v>11.4954</v>
       </c>
       <c r="L29" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,L$28,$D$27)</f>
-        <v>2.2970419999999998</v>
+        <v>6687.1171244999996</v>
       </c>
       <c r="M29" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,M$28,$D$27)</f>
@@ -7232,7 +7440,7 @@
       </c>
       <c r="N29" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,N$28,$D$27)</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="O29" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,O$28,$D$27)</f>
@@ -7240,15 +7448,15 @@
       </c>
       <c r="P29" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,P$28,$D$27)</f>
-        <v>43243.799419791663</v>
+        <v>43243.828132118055</v>
       </c>
       <c r="Q29" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,Q$28,$D$27)</f>
-        <v>26040844</v>
+        <v>26047720</v>
       </c>
       <c r="R29" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,R$28,$D$27)</f>
-        <v>26040847</v>
+        <v>26047743</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -7257,27 +7465,27 @@
       </c>
       <c r="B30" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,B$28,$D$27)</f>
-        <v>7513.79</v>
+        <v>7532.15</v>
       </c>
       <c r="C30" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,C$28,$D$27)</f>
-        <v>7515</v>
+        <v>7540.07</v>
       </c>
       <c r="D30" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,D$28,$D$27)</f>
-        <v>7512.57</v>
+        <v>7532.15</v>
       </c>
       <c r="E30" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,E$28,$D$27)</f>
-        <v>7515</v>
+        <v>7540.07</v>
       </c>
       <c r="F30" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,F$28,$D$27)</f>
-        <v>43243.799305555556</v>
+        <v>43243.827777777777</v>
       </c>
       <c r="G30" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,G$28,$D$27)</f>
-        <v>43243.799999988427</v>
+        <v>43243.828472210647</v>
       </c>
       <c r="H30" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,H$28,$D$27)</f>
@@ -7285,19 +7493,19 @@
       </c>
       <c r="I30" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,I$28,$D$27)</f>
-        <v>7128.5009294299998</v>
+        <v>37969.097520559997</v>
       </c>
       <c r="J30" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,J$28,$D$27)</f>
-        <v>0.94858600000000004</v>
+        <v>5.0390579999999998</v>
       </c>
       <c r="K30" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,K$28,$D$27)</f>
-        <v>0.91675099999999998</v>
+        <v>2.9341360000000001</v>
       </c>
       <c r="L30" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,L$28,$D$27)</f>
-        <v>6889.3380536200002</v>
+        <v>22112.017725329999</v>
       </c>
       <c r="M30" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,M$28,$D$27)</f>
@@ -7305,7 +7513,7 @@
       </c>
       <c r="N30" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,N$28,$D$27)</f>
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="O30" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,O$28,$D$27)</f>
@@ -7313,15 +7521,15 @@
       </c>
       <c r="P30" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,P$28,$D$27)</f>
-        <v>43243.799413310182</v>
+        <v>43243.82813209491</v>
       </c>
       <c r="Q30" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,Q$28,$D$27)</f>
-        <v>45352149</v>
+        <v>45361328</v>
       </c>
       <c r="R30" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,R$28,$D$27)</f>
-        <v>45352159</v>
+        <v>45361379</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -7330,27 +7538,27 @@
       </c>
       <c r="B31" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,B$28,$D$27)</f>
-        <v>118.71</v>
+        <v>118.74</v>
       </c>
       <c r="C31" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,C$28,$D$27)</f>
-        <v>118.71</v>
+        <v>118.74</v>
       </c>
       <c r="D31" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,D$28,$D$27)</f>
-        <v>118.7</v>
+        <v>118.74</v>
       </c>
       <c r="E31" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,E$28,$D$27)</f>
-        <v>118.7</v>
+        <v>118.74</v>
       </c>
       <c r="F31" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,F$28,$D$27)</f>
-        <v>43243.799305555556</v>
+        <v>43243.827777777777</v>
       </c>
       <c r="G31" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,G$28,$D$27)</f>
-        <v>43243.799999988427</v>
+        <v>43243.828472210647</v>
       </c>
       <c r="H31" s="23" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,H$28,$D$27)</f>
@@ -7358,19 +7566,19 @@
       </c>
       <c r="I31" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,I$28,$D$27)</f>
-        <v>1930.5370680000001</v>
+        <v>440.94217739999999</v>
       </c>
       <c r="J31" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,J$28,$D$27)</f>
-        <v>16.262640000000001</v>
+        <v>3.7135099999999999</v>
       </c>
       <c r="K31" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,K$28,$D$27)</f>
-        <v>16.262640000000001</v>
+        <v>0</v>
       </c>
       <c r="L31" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,L$28,$D$27)</f>
-        <v>1930.5370680000001</v>
+        <v>0</v>
       </c>
       <c r="M31" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,M$28,$D$27)</f>
@@ -7378,7 +7586,7 @@
       </c>
       <c r="N31" s="30">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,N$28,$D$27)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O31" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,O$28,$D$27)</f>
@@ -7386,15 +7594,15 @@
       </c>
       <c r="P31" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,P$28,$D$27)</f>
-        <v>43243.799404513891</v>
+        <v>43243.828064409725</v>
       </c>
       <c r="Q31" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,Q$28,$D$27)</f>
-        <v>7487350</v>
+        <v>7488319</v>
       </c>
       <c r="R31" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,R$28,$D$27)</f>
-        <v>7487351</v>
+        <v>7488321</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -7476,27 +7684,27 @@
       </c>
       <c r="B35" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,B$28,$D$33)</f>
-        <v>580.64</v>
+        <v>582.16</v>
       </c>
       <c r="C35" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,C$28,$D$33)</f>
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D35" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,D$28,$D$33)</f>
-        <v>576.29999999999995</v>
+        <v>578.88</v>
       </c>
       <c r="E35" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,E$28,$D$33)</f>
-        <v>578</v>
+        <v>582.20000000000005</v>
       </c>
       <c r="F35" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,F$28,$D$33)</f>
-        <v>43243.791666666664</v>
+        <v>43243.822916666664</v>
       </c>
       <c r="G35" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,G$28,$D$33)</f>
-        <v>43243.80208332176</v>
+        <v>43243.83333332176</v>
       </c>
       <c r="H35" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,H$28,$D$33)</f>
@@ -7504,19 +7712,19 @@
       </c>
       <c r="I35" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,I$28,$D$33)</f>
-        <v>1029820.926874</v>
+        <v>678778.01629870001</v>
       </c>
       <c r="J35" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,J$28,$D$33)</f>
-        <v>1775.06377</v>
+        <v>1168.8069</v>
       </c>
       <c r="K35" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,K$28,$D$33)</f>
-        <v>931.01201000000003</v>
+        <v>666.99198999999999</v>
       </c>
       <c r="L35" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,L$28,$D$33)</f>
-        <v>540465.4464899</v>
+        <v>387387.3168272</v>
       </c>
       <c r="M35" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,M$28,$D$33)</f>
@@ -7524,7 +7732,7 @@
       </c>
       <c r="N35" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,N$28,$D$33)</f>
-        <v>1594</v>
+        <v>1146</v>
       </c>
       <c r="O35" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,O$28,$D$33)</f>
@@ -7532,15 +7740,15 @@
       </c>
       <c r="P35" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,P$28,$D$33)</f>
-        <v>43243.799419791663</v>
+        <v>43243.828132129631</v>
       </c>
       <c r="Q35" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,Q$28,$D$33)</f>
-        <v>26039254</v>
+        <v>26046598</v>
       </c>
       <c r="R35" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,R$28,$D$33)</f>
-        <v>26040847</v>
+        <v>26047743</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7549,27 +7757,27 @@
       </c>
       <c r="B36" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,B$28,$D$33)</f>
-        <v>7539.98</v>
+        <v>7543.55</v>
       </c>
       <c r="C36" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,C$28,$D$33)</f>
-        <v>7565.86</v>
+        <v>7554</v>
       </c>
       <c r="D36" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,D$28,$D$33)</f>
-        <v>7500</v>
+        <v>7509.7</v>
       </c>
       <c r="E36" s="16">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,E$28,$D$33)</f>
-        <v>7515</v>
+        <v>7540.07</v>
       </c>
       <c r="F36" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,F$28,$D$33)</f>
-        <v>43243.791666666664</v>
+        <v>43243.822916666664</v>
       </c>
       <c r="G36" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,G$28,$D$33)</f>
-        <v>43243.80208332176</v>
+        <v>43243.83333332176</v>
       </c>
       <c r="H36" s="16" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,H$28,$D$33)</f>
@@ -7577,19 +7785,19 @@
       </c>
       <c r="I36" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,I$28,$D$33)</f>
-        <v>1794793.14691304</v>
+        <v>1191563.72003854</v>
       </c>
       <c r="J36" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,J$28,$D$33)</f>
-        <v>238.42579499999999</v>
+        <v>158.199477</v>
       </c>
       <c r="K36" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,K$28,$D$33)</f>
-        <v>89.971158000000003</v>
+        <v>60.616477000000003</v>
       </c>
       <c r="L36" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,L$28,$D$33)</f>
-        <v>677632.36464485002</v>
+        <v>456326.38714921998</v>
       </c>
       <c r="M36" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,M$28,$D$33)</f>
@@ -7597,7 +7805,7 @@
       </c>
       <c r="N36" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,N$28,$D$33)</f>
-        <v>1966</v>
+        <v>1223</v>
       </c>
       <c r="O36" s="16" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,O$28,$D$33)</f>
@@ -7605,15 +7813,15 @@
       </c>
       <c r="P36" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,P$28,$D$33)</f>
-        <v>43243.799413310182</v>
+        <v>43243.82813209491</v>
       </c>
       <c r="Q36" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,Q$28,$D$33)</f>
-        <v>45350194</v>
+        <v>45360157</v>
       </c>
       <c r="R36" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,R$28,$D$33)</f>
-        <v>45352159</v>
+        <v>45361379</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7622,27 +7830,27 @@
       </c>
       <c r="B37" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,B$28,$D$33)</f>
-        <v>119.39</v>
+        <v>118.93</v>
       </c>
       <c r="C37" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,C$28,$D$33)</f>
-        <v>119.68</v>
+        <v>119.23</v>
       </c>
       <c r="D37" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,D$28,$D$33)</f>
-        <v>118.38</v>
+        <v>118.36</v>
       </c>
       <c r="E37" s="23">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,E$28,$D$33)</f>
-        <v>118.7</v>
+        <v>118.74</v>
       </c>
       <c r="F37" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,F$28,$D$33)</f>
-        <v>43243.791666666664</v>
+        <v>43243.822916666664</v>
       </c>
       <c r="G37" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,G$28,$D$33)</f>
-        <v>43243.80208332176</v>
+        <v>43243.83333332176</v>
       </c>
       <c r="H37" s="23" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,H$28,$D$33)</f>
@@ -7650,19 +7858,19 @@
       </c>
       <c r="I37" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,I$28,$D$33)</f>
-        <v>419829.58477409999</v>
+        <v>77861.828267599994</v>
       </c>
       <c r="J37" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,J$28,$D$33)</f>
-        <v>3528.9031100000002</v>
+        <v>655.63270999999997</v>
       </c>
       <c r="K37" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,K$28,$D$33)</f>
-        <v>1643.60223</v>
+        <v>160.12298999999999</v>
       </c>
       <c r="L37" s="29">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,L$28,$D$33)</f>
-        <v>196062.29350989999</v>
+        <v>19030.4075118</v>
       </c>
       <c r="M37" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,M$28,$D$33)</f>
@@ -7670,7 +7878,7 @@
       </c>
       <c r="N37" s="30">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,N$28,$D$33)</f>
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="O37" s="23" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,O$28,$D$33)</f>
@@ -7678,15 +7886,15 @@
       </c>
       <c r="P37" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,P$28,$D$33)</f>
-        <v>43243.799404513891</v>
+        <v>43243.828064409725</v>
       </c>
       <c r="Q37" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,Q$28,$D$33)</f>
-        <v>7487091</v>
+        <v>7488192</v>
       </c>
       <c r="R37" s="31">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,R$28,$D$33)</f>
-        <v>7487351</v>
+        <v>7488321</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">

--- a/doc/crypto.xlsx
+++ b/doc/crypto.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="p:\crypto-rtd\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\crypto-rtd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7172A9A-CFD9-4C12-A336-08FBE2024CFD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB7BF1E-AD27-47D0-8EBB-428F233CB4B2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="12225" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
   </bookViews>
   <sheets>
-    <sheet name="GDAX" sheetId="2" r:id="rId1"/>
-    <sheet name="BINANCE" sheetId="1" r:id="rId2"/>
+    <sheet name="BINANCE" sheetId="1" r:id="rId1"/>
+    <sheet name="GDAX" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="BINACE_TRADE">BINANCE!$G$13</definedName>
@@ -22,6 +22,7 @@
     <definedName name="BINANCE_24H">BINANCE!$D$3</definedName>
     <definedName name="BINANCE_CANDLE">BINANCE!$A$27</definedName>
     <definedName name="BINANCE_DEPTH">BINANCE!$A$13</definedName>
+    <definedName name="BINANCE_HISTORY">BINANCE!$Q$3</definedName>
     <definedName name="GDAX">GDAX!$A$1</definedName>
     <definedName name="progId">BINANCE!$H$1</definedName>
   </definedNames>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>crypto-debug</t>
   </si>
@@ -228,6 +229,9 @@
   <si>
     <t>volume_24h</t>
   </si>
+  <si>
+    <t>BINANCE_HISTORY</t>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -453,6 +457,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -463,7 +480,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -520,6 +537,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="6" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
@@ -530,78 +548,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="90">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+  <dxfs count="91">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF7F7F7F"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2850,6 +2803,78 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -2887,56 +2912,56 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="crypto-debug">
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>BUYER_IS_MAKER</stp>
         <tr r="K19" s="1"/>
       </tp>
-      <tp>
-        <v>15905.412344120001</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
         <stp>volume_24h</stp>
         <tr r="H4" s="2"/>
       </tp>
-      <tp>
-        <v>215319.31700712</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
         <stp>volume_24h</stp>
         <tr r="H3" s="2"/>
       </tp>
-      <tp>
-        <v>8005.48</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
         <stp>OPEN</stp>
         <tr r="E6" s="1"/>
       </tp>
-      <tp>
-        <v>128.25</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
         <stp>OPEN</stp>
         <tr r="E7" s="1"/>
       </tp>
-      <tp>
-        <v>644.99</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
         <stp>OPEN</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>kline</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -2944,8 +2969,8 @@
         <stp>3</stp>
         <tr r="O37" s="1"/>
       </tp>
-      <tp t="s">
-        <v>kline</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -2953,96 +2978,96 @@
         <stp>0</stp>
         <tr r="O31" s="1"/>
       </tp>
-      <tp t="b">
-        <v>1</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>IGNORE</stp>
         <tr r="L20" s="1"/>
       </tp>
-      <tp t="b">
-        <v>1</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>BUYER_IS_MAKER</stp>
         <tr r="K16" s="1"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>BUYER_IS_MAKER</stp>
         <tr r="K15" s="1"/>
       </tp>
-      <tp t="b">
-        <v>1</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>BUYER_IS_MAKER</stp>
         <tr r="K17" s="1"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>BUYER_IS_MAKER</stp>
         <tr r="K18" s="1"/>
       </tp>
-      <tp>
-        <v>0.63848000000000005</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
         <stp>OPEN</stp>
         <tr r="E8" s="1"/>
       </tp>
-      <tp>
-        <v>7.1599999999999997E-3</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
         <stp>CLOSE</stp>
         <tr r="D9" s="1"/>
       </tp>
-      <tp>
-        <v>29990</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>TRADES</stp>
         <tr r="M7" s="1"/>
       </tp>
-      <tp>
-        <v>202926</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>TRADES</stp>
         <tr r="M5" s="1"/>
       </tp>
-      <tp>
-        <v>306779</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>TRADES</stp>
         <tr r="M6" s="1"/>
       </tp>
-      <tp>
-        <v>31473</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>TRADES</stp>
         <tr r="M8" s="1"/>
       </tp>
-      <tp>
-        <v>7554</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3050,8 +3075,8 @@
         <stp>3</stp>
         <tr r="C36" s="1"/>
       </tp>
-      <tp>
-        <v>7540.07</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3059,8 +3084,8 @@
         <stp>0</stp>
         <tr r="C30" s="1"/>
       </tp>
-      <tp>
-        <v>583</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3068,8 +3093,8 @@
         <stp>3</stp>
         <tr r="C35" s="1"/>
       </tp>
-      <tp>
-        <v>582.22</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3077,8 +3102,8 @@
         <stp>0</stp>
         <tr r="C29" s="1"/>
       </tp>
-      <tp>
-        <v>119.23</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3086,8 +3111,8 @@
         <stp>3</stp>
         <tr r="C37" s="1"/>
       </tp>
-      <tp>
-        <v>118.74</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3095,8 +3120,8 @@
         <stp>0</stp>
         <tr r="C31" s="1"/>
       </tp>
-      <tp t="s">
-        <v>kline</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3104,8 +3129,8 @@
         <stp>3</stp>
         <tr r="O36" s="1"/>
       </tp>
-      <tp t="s">
-        <v>kline</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3113,32 +3138,32 @@
         <stp>0</stp>
         <tr r="O30" s="1"/>
       </tp>
-      <tp>
-        <v>1521798589</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>VOL</stp>
         <tr r="K11" s="1"/>
       </tp>
-      <tp>
-        <v>41524771</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>VOL</stp>
         <tr r="K10" s="1"/>
       </tp>
-      <tp>
-        <v>372005.87</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>VOL</stp>
         <tr r="K9" s="1"/>
       </tp>
-      <tp t="s">
-        <v>kline</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3146,8 +3171,8 @@
         <stp>0</stp>
         <tr r="O29" s="1"/>
       </tp>
-      <tp t="s">
-        <v>kline</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3155,48 +3180,48 @@
         <stp>3</stp>
         <tr r="O35" s="1"/>
       </tp>
-      <tp t="b">
-        <v>1</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>IGNORE</stp>
         <tr r="L21" s="1"/>
       </tp>
-      <tp>
-        <v>-7.4730000000000005E-2</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>PRICE%</stp>
         <tr r="N7" s="1"/>
       </tp>
-      <tp>
-        <v>-5.772E-2</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>PRICE%</stp>
         <tr r="N6" s="1"/>
       </tp>
-      <tp>
-        <v>-9.5460000000000003E-2</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>PRICE%</stp>
         <tr r="N5" s="1"/>
       </tp>
-      <tp>
-        <v>-6.5369999999999998E-2</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>PRICE%</stp>
         <tr r="N8" s="1"/>
       </tp>
-      <tp>
-        <v>582.16</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3204,8 +3229,8 @@
         <stp>3</stp>
         <tr r="B35" s="1"/>
       </tp>
-      <tp>
-        <v>581.96</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3213,8 +3238,8 @@
         <stp>0</stp>
         <tr r="B29" s="1"/>
       </tp>
-      <tp>
-        <v>7543.55</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3222,8 +3247,8 @@
         <stp>3</stp>
         <tr r="B36" s="1"/>
       </tp>
-      <tp>
-        <v>7532.15</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3231,8 +3256,8 @@
         <stp>0</stp>
         <tr r="B30" s="1"/>
       </tp>
-      <tp>
-        <v>118.93</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3240,8 +3265,8 @@
         <stp>3</stp>
         <tr r="B37" s="1"/>
       </tp>
-      <tp>
-        <v>118.74</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3249,40 +3274,40 @@
         <stp>0</stp>
         <tr r="B31" s="1"/>
       </tp>
-      <tp>
-        <v>8.6999999999999997E-6</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>LOW</stp>
         <tr r="B11" s="1"/>
       </tp>
-      <tp>
-        <v>7.6600000000000005E-5</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>LOW</stp>
         <tr r="B10" s="1"/>
       </tp>
-      <tp>
-        <v>6.8659999999999997E-3</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>LOW</stp>
         <tr r="B9" s="1"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>BUYER_IS_MAKER</stp>
         <tr r="K21" s="1"/>
       </tp>
-      <tp>
-        <v>160.12298999999999</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3290,8 +3315,8 @@
         <stp>3</stp>
         <tr r="K37" s="1"/>
       </tp>
-      <tp>
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3299,8 +3324,8 @@
         <stp>0</stp>
         <tr r="K31" s="1"/>
       </tp>
-      <tp>
-        <v>666.99198999999999</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3308,8 +3333,8 @@
         <stp>3</stp>
         <tr r="K35" s="1"/>
       </tp>
-      <tp>
-        <v>11.4954</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3317,8 +3342,8 @@
         <stp>0</stp>
         <tr r="K29" s="1"/>
       </tp>
-      <tp>
-        <v>60.616477000000003</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3326,8 +3351,8 @@
         <stp>3</stp>
         <tr r="K36" s="1"/>
       </tp>
-      <tp>
-        <v>2.9341360000000001</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3335,136 +3360,136 @@
         <stp>0</stp>
         <tr r="K30" s="1"/>
       </tp>
-      <tp t="b">
-        <v>1</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>IGNORE</stp>
         <tr r="L19" s="1"/>
       </tp>
-      <tp t="b">
-        <v>1</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>IGNORE</stp>
         <tr r="L18" s="1"/>
       </tp>
-      <tp t="b">
-        <v>1</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>IGNORE</stp>
         <tr r="L16" s="1"/>
       </tp>
-      <tp t="b">
-        <v>1</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>IGNORE</stp>
         <tr r="L15" s="1"/>
       </tp>
-      <tp t="b">
-        <v>1</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>IGNORE</stp>
         <tr r="L17" s="1"/>
       </tp>
-      <tp>
-        <v>6.9340000000000001E-3</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>ASK</stp>
         <tr r="I9" s="1"/>
       </tp>
-      <tp>
-        <v>7.9049999999999997E-5</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>ASK</stp>
         <tr r="I10" s="1"/>
       </tp>
-      <tp>
-        <v>9.0699999999999996E-6</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>ASK</stp>
         <tr r="I11" s="1"/>
       </tp>
-      <tp>
-        <v>8.0010000000000001E-5</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
         <stp>CLOSE</stp>
         <tr r="D10" s="1"/>
       </tp>
-      <tp>
-        <v>9.1900000000000001E-6</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
         <stp>CLOSE</stp>
         <tr r="D11" s="1"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>BUYER_IS_MAKER</stp>
         <tr r="K20" s="1"/>
       </tp>
-      <tp>
-        <v>9.0599999999999997E-6</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>BID</stp>
         <tr r="G11" s="1"/>
       </tp>
-      <tp>
-        <v>7.894E-5</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>BID</stp>
         <tr r="G10" s="1"/>
       </tp>
-      <tp>
-        <v>6.9319999999999998E-3</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>BID</stp>
         <tr r="G9" s="1"/>
       </tp>
-      <tp>
-        <v>-4.1759999999999999E-2</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>PRICE_CHANGE</stp>
         <tr r="O8" s="1"/>
       </tp>
-      <tp>
-        <v>506654</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>LAST_ID</stp>
         <tr r="N18" s="1"/>
       </tp>
-      <tp>
-        <v>1168.8069</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3472,8 +3497,8 @@
         <stp>3</stp>
         <tr r="J35" s="1"/>
       </tp>
-      <tp>
-        <v>15.68529</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3481,64 +3506,72 @@
         <stp>0</stp>
         <tr r="J29" s="1"/>
       </tp>
-      <tp>
-        <v>6386</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>BINANCE_HISTORY</stp>
+        <stp>neobtc</stp>
+        <stp>PRICE</stp>
+        <tr r="Q9" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>BID_SIZE</stp>
         <tr r="F10" s="1"/>
       </tp>
-      <tp>
-        <v>20828597</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>FIRST_ID</stp>
         <tr r="M20" s="1"/>
       </tp>
-      <tp>
-        <v>64.209999999999994</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>QUANTITY</stp>
         <tr r="J18" s="1"/>
       </tp>
-      <tp>
-        <v>428</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>QUANTITY</stp>
         <tr r="J21" s="1"/>
       </tp>
-      <tp>
-        <v>0.51500000000000001</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>QUANTITY</stp>
         <tr r="J15" s="1"/>
       </tp>
-      <tp>
-        <v>3.7019899999999999</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>QUANTITY</stp>
         <tr r="J17" s="1"/>
       </tp>
-      <tp>
-        <v>2.758E-3</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>QUANTITY</stp>
         <tr r="J16" s="1"/>
       </tp>
-      <tp>
-        <v>0.23400000000000001</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3546,8 +3579,8 @@
         <stp>8</stp>
         <tr r="E23" s="1"/>
       </tp>
-      <tp>
-        <v>3.5999999999999997E-2</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3555,8 +3588,8 @@
         <stp>9</stp>
         <tr r="E24" s="1"/>
       </tp>
-      <tp>
-        <v>2.2280600000000002</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3564,8 +3597,8 @@
         <stp>6</stp>
         <tr r="E21" s="1"/>
       </tp>
-      <tp>
-        <v>18</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3573,8 +3606,8 @@
         <stp>7</stp>
         <tr r="E22" s="1"/>
       </tp>
-      <tp>
-        <v>1.4</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3582,8 +3615,8 @@
         <stp>4</stp>
         <tr r="E19" s="1"/>
       </tp>
-      <tp>
-        <v>1</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3591,8 +3624,8 @@
         <stp>5</stp>
         <tr r="E20" s="1"/>
       </tp>
-      <tp>
-        <v>9.8913600000000006</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3600,8 +3633,8 @@
         <stp>2</stp>
         <tr r="E17" s="1"/>
       </tp>
-      <tp>
-        <v>0.24571999999999999</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3609,8 +3642,8 @@
         <stp>3</stp>
         <tr r="E18" s="1"/>
       </tp>
-      <tp>
-        <v>0.51549</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3618,8 +3651,8 @@
         <stp>0</stp>
         <tr r="E15" s="1"/>
       </tp>
-      <tp>
-        <v>1.2547900000000001</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3627,88 +3660,96 @@
         <stp>1</stp>
         <tr r="E16" s="1"/>
       </tp>
-      <tp>
-        <v>-9.59</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>BINANCE_HISTORY</stp>
+        <stp>ethusdt</stp>
+        <stp>PRICE</stp>
+        <tr r="Q5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>PRICE_CHANGE</stp>
         <tr r="O7" s="1"/>
       </tp>
-      <tp>
-        <v>-461.59</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>PRICE_CHANGE</stp>
         <tr r="O6" s="1"/>
       </tp>
-      <tp>
-        <v>-61.44</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>PRICE_CHANGE</stp>
         <tr r="O5" s="1"/>
       </tp>
-      <tp>
-        <v>0.17</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>Spread</stp>
         <tr r="H7" s="1"/>
       </tp>
-      <tp>
-        <v>0.54</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>Spread</stp>
         <tr r="H5" s="1"/>
       </tp>
-      <tp>
-        <v>5.08</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>Spread</stp>
         <tr r="H6" s="1"/>
       </tp>
-      <tp>
-        <v>2.8400000000000001E-3</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>Spread</stp>
         <tr r="H8" s="1"/>
       </tp>
-      <tp>
-        <v>506654</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>FIRST_ID</stp>
         <tr r="M18" s="1"/>
       </tp>
-      <tp>
-        <v>2484</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>QUANTITY</stp>
         <tr r="J20" s="1"/>
       </tp>
-      <tp>
-        <v>0.64488000000000001</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>HIGH</stp>
         <tr r="C8" s="1"/>
       </tp>
-      <tp>
-        <v>655.63270999999997</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3716,8 +3757,8 @@
         <stp>3</stp>
         <tr r="J37" s="1"/>
       </tp>
-      <tp>
-        <v>3.7135099999999999</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3725,8 +3766,8 @@
         <stp>0</stp>
         <tr r="J31" s="1"/>
       </tp>
-      <tp>
-        <v>5.0390579999999998</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3734,8 +3775,8 @@
         <stp>0</stp>
         <tr r="J30" s="1"/>
       </tp>
-      <tp>
-        <v>158.199477</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3743,88 +3784,104 @@
         <stp>3</stp>
         <tr r="J36" s="1"/>
       </tp>
-      <tp>
-        <v>669</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>HIGH</stp>
         <tr r="C5" s="1"/>
       </tp>
-      <tp>
-        <v>8031.9</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>HIGH</stp>
         <tr r="C6" s="1"/>
       </tp>
-      <tp>
-        <v>129.35</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>HIGH</stp>
         <tr r="C7" s="1"/>
       </tp>
-      <tp>
-        <v>9.5399999999999991</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>BINANCE_HISTORY</stp>
+        <stp>ltcusdt</stp>
+        <stp>PRICE</stp>
+        <tr r="Q7" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>BINANCE_HISTORY</stp>
+        <stp>btcusdt</stp>
+        <stp>PRICE</stp>
+        <tr r="Q6" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>ASK_SIZE</stp>
         <tr r="J9" s="1"/>
       </tp>
-      <tp>
-        <v>356491</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>BID_SIZE</stp>
         <tr r="F11" s="1"/>
       </tp>
-      <tp>
-        <v>28273403</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>FIRST_ID</stp>
         <tr r="M21" s="1"/>
       </tp>
-      <tp>
-        <v>7488320</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>FIRST_ID</stp>
         <tr r="M17" s="1"/>
       </tp>
-      <tp>
-        <v>45361382</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>FIRST_ID</stp>
         <tr r="M16" s="1"/>
       </tp>
-      <tp>
-        <v>26047743</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>FIRST_ID</stp>
         <tr r="M15" s="1"/>
       </tp>
-      <tp>
-        <v>13331554</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>TRADE_ID</stp>
         <tr r="H19" s="1"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3832,8 +3889,8 @@
         <stp>0</stp>
         <tr r="H30" s="1"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3841,8 +3898,8 @@
         <stp>3</stp>
         <tr r="H36" s="1"/>
       </tp>
-      <tp>
-        <v>7509.7</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3850,8 +3907,8 @@
         <stp>3</stp>
         <tr r="D36" s="1"/>
       </tp>
-      <tp>
-        <v>7532.15</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3859,8 +3916,8 @@
         <stp>0</stp>
         <tr r="D30" s="1"/>
       </tp>
-      <tp>
-        <v>118.74</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3868,8 +3925,8 @@
         <stp>0</stp>
         <tr r="D31" s="1"/>
       </tp>
-      <tp>
-        <v>118.36</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3877,8 +3934,8 @@
         <stp>3</stp>
         <tr r="D37" s="1"/>
       </tp>
-      <tp>
-        <v>118.74</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3886,8 +3943,8 @@
         <stp>0</stp>
         <tr r="E31" s="1"/>
       </tp>
-      <tp>
-        <v>118.74</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3895,8 +3952,8 @@
         <stp>3</stp>
         <tr r="E37" s="1"/>
       </tp>
-      <tp>
-        <v>130</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3904,8 +3961,8 @@
         <stp>3</stp>
         <tr r="N37" s="1"/>
       </tp>
-      <tp>
-        <v>1223</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3913,8 +3970,8 @@
         <stp>3</stp>
         <tr r="N36" s="1"/>
       </tp>
-      <tp>
-        <v>3</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -3922,8 +3979,8 @@
         <stp>0</stp>
         <tr r="N31" s="1"/>
       </tp>
-      <tp>
-        <v>52</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3931,8 +3988,8 @@
         <stp>0</stp>
         <tr r="N30" s="1"/>
       </tp>
-      <tp>
-        <v>1146</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3940,8 +3997,8 @@
         <stp>3</stp>
         <tr r="N35" s="1"/>
       </tp>
-      <tp>
-        <v>24</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3949,80 +4006,96 @@
         <stp>0</stp>
         <tr r="N29" s="1"/>
       </tp>
-      <tp>
-        <v>459548</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>TRADE_ID</stp>
         <tr r="H18" s="1"/>
       </tp>
-      <tp>
-        <v>7488321</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>LAST_ID</stp>
         <tr r="N17" s="1"/>
       </tp>
-      <tp>
-        <v>15052222</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>FIRST_ID</stp>
         <tr r="M19" s="1"/>
       </tp>
-      <tp>
-        <v>6594163</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>TRADE_ID</stp>
         <tr r="H17" s="1"/>
       </tp>
-      <tp>
-        <v>39455650</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>TRADE_ID</stp>
         <tr r="H16" s="1"/>
       </tp>
-      <tp>
-        <v>23121775</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>TRADE_ID</stp>
         <tr r="H15" s="1"/>
       </tp>
-      <tp>
-        <v>17545847</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>TRADE_ID</stp>
         <tr r="H21" s="1"/>
       </tp>
-      <tp>
-        <v>1.49</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>BINANCE_HISTORY</stp>
+        <stp>xrpbtc</stp>
+        <stp>PRICE</stp>
+        <tr r="Q10" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>BINANCE_HISTORY</stp>
+        <stp>trxbtc</stp>
+        <stp>PRICE</stp>
+        <tr r="Q11" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>BID_SIZE</stp>
         <tr r="F9" s="1"/>
       </tp>
-      <tp>
-        <v>1963</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>ASK_SIZE</stp>
         <tr r="J11" s="1"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4030,8 +4103,8 @@
         <stp>3</stp>
         <tr r="H35" s="1"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4039,24 +4112,24 @@
         <stp>0</stp>
         <tr r="H29" s="1"/>
       </tp>
-      <tp>
-        <v>17205151</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>TRADE_ID</stp>
         <tr r="H20" s="1"/>
       </tp>
-      <tp>
-        <v>45361382</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>LAST_ID</stp>
         <tr r="N16" s="1"/>
       </tp>
-      <tp>
-        <v>581.45000000000005</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4064,8 +4137,8 @@
         <stp>0</stp>
         <tr r="D29" s="1"/>
       </tp>
-      <tp>
-        <v>578.88</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4073,16 +4146,16 @@
         <stp>3</stp>
         <tr r="D35" s="1"/>
       </tp>
-      <tp>
-        <v>1264</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>ASK_SIZE</stp>
         <tr r="J10" s="1"/>
       </tp>
-      <tp>
-        <v>582.20000000000005</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4090,8 +4163,8 @@
         <stp>3</stp>
         <tr r="E35" s="1"/>
       </tp>
-      <tp>
-        <v>582.20000000000005</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4099,8 +4172,8 @@
         <stp>0</stp>
         <tr r="E29" s="1"/>
       </tp>
-      <tp>
-        <v>7540.07</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4108,8 +4181,8 @@
         <stp>0</stp>
         <tr r="E30" s="1"/>
       </tp>
-      <tp>
-        <v>7540.07</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4117,24 +4190,32 @@
         <stp>3</stp>
         <tr r="E36" s="1"/>
       </tp>
-      <tp>
-        <v>26047743</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>LAST_ID</stp>
         <tr r="N15" s="1"/>
       </tp>
-      <tp>
-        <v>1.79</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>BINANCE_HISTORY</stp>
+        <stp>xrpusdt</stp>
+        <stp>PRICE</stp>
+        <tr r="Q8" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>QUANTITY</stp>
         <tr r="J19" s="1"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4142,8 +4223,8 @@
         <stp>0</stp>
         <tr r="H31" s="1"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4151,8 +4232,8 @@
         <stp>3</stp>
         <tr r="H37" s="1"/>
       </tp>
-      <tp>
-        <v>0.9</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4160,8 +4241,8 @@
         <stp>8</stp>
         <tr r="A23" s="1"/>
       </tp>
-      <tp>
-        <v>2.2010000000000001</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4169,8 +4250,8 @@
         <stp>9</stp>
         <tr r="A24" s="1"/>
       </tp>
-      <tp>
-        <v>1.6310100000000001</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4178,8 +4259,8 @@
         <stp>6</stp>
         <tr r="A21" s="1"/>
       </tp>
-      <tp>
-        <v>0.30843999999999999</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4187,8 +4268,8 @@
         <stp>7</stp>
         <tr r="A22" s="1"/>
       </tp>
-      <tp>
-        <v>1.72058</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4196,8 +4277,8 @@
         <stp>4</stp>
         <tr r="A19" s="1"/>
       </tp>
-      <tp>
-        <v>1.00299</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4205,8 +4286,8 @@
         <stp>5</stp>
         <tr r="A20" s="1"/>
       </tp>
-      <tp>
-        <v>16.292899999999999</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4214,8 +4295,8 @@
         <stp>2</stp>
         <tr r="A17" s="1"/>
       </tp>
-      <tp>
-        <v>6.8779999999999994E-2</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4223,8 +4304,8 @@
         <stp>3</stp>
         <tr r="A18" s="1"/>
       </tp>
-      <tp>
-        <v>0.51527999999999996</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4232,8 +4313,8 @@
         <stp>0</stp>
         <tr r="A15" s="1"/>
       </tp>
-      <tp>
-        <v>8.0000000000000007E-5</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4241,32 +4322,32 @@
         <stp>1</stp>
         <tr r="A16" s="1"/>
       </tp>
-      <tp>
-        <v>8.0010000000000001E-5</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
         <stp>OPEN</stp>
         <tr r="E10" s="1"/>
       </tp>
-      <tp>
-        <v>43243.828146215281</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>TRADE_TIME</stp>
         <tr r="O21" s="1"/>
       </tp>
-      <tp>
-        <v>128495</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>TRADES</stp>
         <tr r="M11" s="1"/>
       </tp>
-      <tp t="s">
-        <v>FiveteenMinutes</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4274,8 +4355,8 @@
         <stp>3</stp>
         <tr r="M36" s="1"/>
       </tp>
-      <tp t="s">
-        <v>OneMinute</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4283,8 +4364,8 @@
         <stp>0</stp>
         <tr r="M30" s="1"/>
       </tp>
-      <tp t="s">
-        <v>FiveteenMinutes</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4292,8 +4373,8 @@
         <stp>3</stp>
         <tr r="M35" s="1"/>
       </tp>
-      <tp t="s">
-        <v>OneMinute</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4301,8 +4382,8 @@
         <stp>0</stp>
         <tr r="M29" s="1"/>
       </tp>
-      <tp t="s">
-        <v>FiveteenMinutes</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4310,8 +4391,8 @@
         <stp>3</stp>
         <tr r="M37" s="1"/>
       </tp>
-      <tp t="s">
-        <v>OneMinute</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4319,136 +4400,136 @@
         <stp>0</stp>
         <tr r="M31" s="1"/>
       </tp>
-      <tp>
-        <v>-1.52E-2</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>PRICE%</stp>
         <tr r="N11" s="1"/>
       </tp>
-      <tp>
-        <v>43243.828053148151</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>TRADE_TIME</stp>
         <tr r="O20" s="1"/>
       </tp>
-      <tp>
-        <v>66201</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>TRADES</stp>
         <tr r="M10" s="1"/>
       </tp>
-      <tp>
-        <v>-1.2E-2</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>PRICE%</stp>
         <tr r="N10" s="1"/>
       </tp>
-      <tp>
-        <v>9.1900000000000001E-6</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
         <stp>OPEN</stp>
         <tr r="E11" s="1"/>
       </tp>
-      <tp>
-        <v>15052222</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>LAST_ID</stp>
         <tr r="N19" s="1"/>
       </tp>
-      <tp>
-        <v>28273403</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>LAST_ID</stp>
         <tr r="N21" s="1"/>
       </tp>
-      <tp>
-        <v>20828597</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>LAST_ID</stp>
         <tr r="N20" s="1"/>
       </tp>
-      <tp>
-        <v>43243.827995428241</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>TRADE_TIME</stp>
         <tr r="O18" s="1"/>
       </tp>
-      <tp>
-        <v>43243.828132083334</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>TRADE_TIME</stp>
         <tr r="O15" s="1"/>
       </tp>
-      <tp>
-        <v>43243.828134444448</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>TRADE_TIME</stp>
         <tr r="O16" s="1"/>
       </tp>
-      <tp>
-        <v>43243.828064386573</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>TRADE_TIME</stp>
         <tr r="O17" s="1"/>
       </tp>
-      <tp>
-        <v>-3.0890000000000001E-2</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>PRICE%</stp>
         <tr r="N9" s="1"/>
       </tp>
-      <tp>
-        <v>43243.828137083336</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>TRADE_TIME</stp>
         <tr r="O19" s="1"/>
       </tp>
-      <tp>
-        <v>52096</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>TRADES</stp>
         <tr r="M9" s="1"/>
       </tp>
-      <tp>
-        <v>7.1599999999999997E-3</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
         <stp>OPEN</stp>
         <tr r="E9" s="1"/>
       </tp>
-      <tp>
-        <v>7488319</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4456,8 +4537,8 @@
         <stp>0</stp>
         <tr r="Q31" s="1"/>
       </tp>
-      <tp>
-        <v>7488192</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4465,8 +4546,8 @@
         <stp>3</stp>
         <tr r="Q37" s="1"/>
       </tp>
-      <tp>
-        <v>45361328</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4474,8 +4555,8 @@
         <stp>0</stp>
         <tr r="Q30" s="1"/>
       </tp>
-      <tp>
-        <v>45360157</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4483,8 +4564,8 @@
         <stp>3</stp>
         <tr r="Q36" s="1"/>
       </tp>
-      <tp>
-        <v>26047720</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4492,8 +4573,8 @@
         <stp>0</stp>
         <tr r="Q29" s="1"/>
       </tp>
-      <tp>
-        <v>26046598</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4501,24 +4582,24 @@
         <stp>3</stp>
         <tr r="Q35" s="1"/>
       </tp>
-      <tp>
-        <v>581.9</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
         <stp>LAST_PRICE</stp>
         <tr r="D3" s="2"/>
       </tp>
-      <tp>
-        <v>7542.99</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
         <stp>LAST_PRICE</stp>
         <tr r="D4" s="2"/>
       </tp>
-      <tp>
-        <v>43243.822916666664</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4526,8 +4607,8 @@
         <stp>3</stp>
         <tr r="F37" s="1"/>
       </tp>
-      <tp>
-        <v>43243.827777777777</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4535,32 +4616,32 @@
         <stp>0</stp>
         <tr r="F31" s="1"/>
       </tp>
-      <tp>
-        <v>118.74</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>PRICE</stp>
         <tr r="I17" s="1"/>
       </tp>
-      <tp>
-        <v>7535</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>PRICE</stp>
         <tr r="I16" s="1"/>
       </tp>
-      <tp>
-        <v>-9.5999999999999991E-7</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>PRICE_CHANGE</stp>
         <tr r="O10" s="1"/>
       </tp>
-      <tp>
-        <v>1191563.72003854</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4568,8 +4649,8 @@
         <stp>3</stp>
         <tr r="I36" s="1"/>
       </tp>
-      <tp>
-        <v>37969.097520559997</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4577,64 +4658,64 @@
         <stp>0</stp>
         <tr r="I30" s="1"/>
       </tp>
-      <tp>
-        <v>644.26</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp>
-        <v>1E-8</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>Spread</stp>
         <tr r="H11" s="1"/>
       </tp>
-      <tp>
-        <v>301.3</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>BID_SIZE</stp>
         <tr r="F8" s="1"/>
       </tp>
-      <tp>
-        <v>9.4599999999999992E-6</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>HIGH</stp>
         <tr r="C11" s="1"/>
       </tp>
-      <tp>
-        <v>106827.6857</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>VOL</stp>
         <tr r="K7" s="1"/>
       </tp>
-      <tp>
-        <v>0.59423000000000004</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>BID</stp>
         <tr r="G8" s="1"/>
       </tp>
-      <tp>
-        <v>12225585.756023699</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>QUOTE_VOL</stp>
         <tr r="L8" s="1"/>
       </tp>
-      <tp>
-        <v>43243.828472210647</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4642,8 +4723,8 @@
         <stp>0</stp>
         <tr r="G29" s="1"/>
       </tp>
-      <tp>
-        <v>43243.83333332176</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4651,8 +4732,8 @@
         <stp>3</stp>
         <tr r="G35" s="1"/>
       </tp>
-      <tp>
-        <v>43243.828472210647</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4660,8 +4741,8 @@
         <stp>0</stp>
         <tr r="G30" s="1"/>
       </tp>
-      <tp>
-        <v>43243.828472210647</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4669,8 +4750,8 @@
         <stp>0</stp>
         <tr r="G31" s="1"/>
       </tp>
-      <tp>
-        <v>43243.83333332176</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4678,8 +4759,8 @@
         <stp>3</stp>
         <tr r="G36" s="1"/>
       </tp>
-      <tp>
-        <v>43243.83333332176</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4687,8 +4768,8 @@
         <stp>3</stp>
         <tr r="G37" s="1"/>
       </tp>
-      <tp>
-        <v>9124.4314945999995</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4696,8 +4777,8 @@
         <stp>0</stp>
         <tr r="I29" s="1"/>
       </tp>
-      <tp>
-        <v>678778.01629870001</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4705,56 +4786,56 @@
         <stp>3</stp>
         <tr r="I35" s="1"/>
       </tp>
-      <tp>
-        <v>7.50021</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>BID_SIZE</stp>
         <tr r="F7" s="1"/>
       </tp>
-      <tp>
-        <v>3.1895720000000001</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>BID_SIZE</stp>
         <tr r="F6" s="1"/>
       </tp>
-      <tp>
-        <v>0.51527999999999996</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_SIZE</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp>
-        <v>6.9329999999999999E-3</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>PRICE</stp>
         <tr r="I19" s="1"/>
       </tp>
-      <tp>
-        <v>0.59706999999999999</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>ASK</stp>
         <tr r="I8" s="1"/>
       </tp>
-      <tp>
-        <v>8.0749999999999998E-5</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>HIGH</stp>
         <tr r="C10" s="1"/>
       </tp>
-      <tp>
-        <v>43243.827777777777</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4762,8 +4843,8 @@
         <stp>0</stp>
         <tr r="F29" s="1"/>
       </tp>
-      <tp>
-        <v>43243.822916666664</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4771,32 +4852,32 @@
         <stp>3</stp>
         <tr r="F35" s="1"/>
       </tp>
-      <tp>
-        <v>582.20000000000005</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>PRICE</stp>
         <tr r="I15" s="1"/>
       </tp>
-      <tp>
-        <v>128.15</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
         <stp>CLOSE</stp>
         <tr r="D7" s="1"/>
       </tp>
-      <tp>
-        <v>7997.61</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE</stp>
         <tr r="D6" s="1"/>
       </tp>
-      <tp>
-        <v>456326.38714921998</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4804,8 +4885,8 @@
         <stp>3</stp>
         <tr r="L36" s="1"/>
       </tp>
-      <tp>
-        <v>19030.4075118</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4813,8 +4894,8 @@
         <stp>3</stp>
         <tr r="L37" s="1"/>
       </tp>
-      <tp>
-        <v>22112.017725329999</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4822,8 +4903,8 @@
         <stp>0</stp>
         <tr r="L30" s="1"/>
       </tp>
-      <tp>
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4831,8 +4912,8 @@
         <stp>0</stp>
         <tr r="L31" s="1"/>
       </tp>
-      <tp>
-        <v>387387.3168272</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4840,8 +4921,8 @@
         <stp>3</stp>
         <tr r="L35" s="1"/>
       </tp>
-      <tp>
-        <v>6687.1171244999996</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4849,56 +4930,56 @@
         <stp>0</stp>
         <tr r="L29" s="1"/>
       </tp>
-      <tp>
-        <v>581.89</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
         <stp>BID</stp>
         <tr r="B3" s="2"/>
       </tp>
-      <tp>
-        <v>2618.51439093</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>QUOTE_VOL</stp>
         <tr r="L9" s="1"/>
       </tp>
-      <tp>
-        <v>42870.260064000002</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>VOL</stp>
         <tr r="K6" s="1"/>
       </tp>
-      <tp>
-        <v>0.57310000000000005</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>LOW</stp>
         <tr r="B8" s="1"/>
       </tp>
-      <tp>
-        <v>581.9</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
         <stp>ASK</stp>
         <tr r="C3" s="2"/>
       </tp>
-      <tp>
-        <v>1.1000000000000001E-7</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>Spread</stp>
         <tr r="H10" s="1"/>
       </tp>
-      <tp>
-        <v>77861.828267599994</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4906,8 +4987,8 @@
         <stp>3</stp>
         <tr r="I37" s="1"/>
       </tp>
-      <tp>
-        <v>440.94217739999999</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -4915,40 +4996,40 @@
         <stp>0</stp>
         <tr r="I31" s="1"/>
       </tp>
-      <tp>
-        <v>256884.09805</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>VOL</stp>
         <tr r="K5" s="1"/>
       </tp>
-      <tp>
-        <v>7543</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
         <stp>ASK</stp>
         <tr r="C4" s="2"/>
       </tp>
-      <tp>
-        <v>-1.4000000000000001E-7</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>PRICE_CHANGE</stp>
         <tr r="O11" s="1"/>
       </tp>
-      <tp>
-        <v>7542.99</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
         <stp>BID</stp>
         <tr r="B4" s="2"/>
       </tp>
-      <tp>
-        <v>43243.822916666664</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4956,8 +5037,8 @@
         <stp>3</stp>
         <tr r="F36" s="1"/>
       </tp>
-      <tp>
-        <v>43243.827777777777</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4965,72 +5046,72 @@
         <stp>0</stp>
         <tr r="F30" s="1"/>
       </tp>
-      <tp>
-        <v>8030.06</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
         <stp>high_24h</stp>
         <tr r="F4" s="2"/>
       </tp>
-      <tp>
-        <v>648.46</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
         <stp>high_24h</stp>
         <tr r="F3" s="2"/>
       </tp>
-      <tp>
-        <v>9.0699999999999996E-6</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>PRICE</stp>
         <tr r="I21" s="1"/>
       </tp>
-      <tp>
-        <v>7.9040000000000002E-5</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>PRICE</stp>
         <tr r="I20" s="1"/>
       </tp>
-      <tp>
-        <v>7425</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>LOW</stp>
         <tr r="B6" s="1"/>
       </tp>
-      <tp>
-        <v>118.74</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>BID</stp>
         <tr r="G7" s="1"/>
       </tp>
-      <tp>
-        <v>20153277.09</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>VOL</stp>
         <tr r="K8" s="1"/>
       </tp>
-      <tp>
-        <v>0.59702999999999995</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>PRICE</stp>
         <tr r="I18" s="1"/>
       </tp>
-      <tp>
-        <v>7488321</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -5038,8 +5119,8 @@
         <stp>3</stp>
         <tr r="R37" s="1"/>
       </tp>
-      <tp>
-        <v>7488321</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -5047,8 +5128,8 @@
         <stp>0</stp>
         <tr r="R31" s="1"/>
       </tp>
-      <tp>
-        <v>45361379</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5056,8 +5137,8 @@
         <stp>0</stp>
         <tr r="R30" s="1"/>
       </tp>
-      <tp>
-        <v>45361379</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5065,8 +5146,8 @@
         <stp>3</stp>
         <tr r="R36" s="1"/>
       </tp>
-      <tp>
-        <v>580.67999999999995</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5074,8 +5155,8 @@
         <stp>9</stp>
         <tr r="B24" s="1"/>
       </tp>
-      <tp>
-        <v>580.73</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5083,8 +5164,8 @@
         <stp>8</stp>
         <tr r="B23" s="1"/>
       </tp>
-      <tp>
-        <v>581.63</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5092,8 +5173,8 @@
         <stp>1</stp>
         <tr r="B16" s="1"/>
       </tp>
-      <tp>
-        <v>581.64</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5101,8 +5182,8 @@
         <stp>0</stp>
         <tr r="B15" s="1"/>
       </tp>
-      <tp>
-        <v>581.53</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5110,8 +5191,8 @@
         <stp>3</stp>
         <tr r="B18" s="1"/>
       </tp>
-      <tp>
-        <v>581.6</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5119,8 +5200,8 @@
         <stp>2</stp>
         <tr r="B17" s="1"/>
       </tp>
-      <tp>
-        <v>581.15</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5128,8 +5209,8 @@
         <stp>5</stp>
         <tr r="B20" s="1"/>
       </tp>
-      <tp>
-        <v>581.17999999999995</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5137,8 +5218,8 @@
         <stp>4</stp>
         <tr r="B19" s="1"/>
       </tp>
-      <tp>
-        <v>580.96</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5146,8 +5227,8 @@
         <stp>7</stp>
         <tr r="B22" s="1"/>
       </tp>
-      <tp>
-        <v>581</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5155,8 +5236,8 @@
         <stp>6</stp>
         <tr r="B21" s="1"/>
       </tp>
-      <tp>
-        <v>582.70000000000005</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5164,8 +5245,8 @@
         <stp>6</stp>
         <tr r="D21" s="1"/>
       </tp>
-      <tp>
-        <v>582.77</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5173,8 +5254,8 @@
         <stp>7</stp>
         <tr r="D22" s="1"/>
       </tp>
-      <tp>
-        <v>582.59</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5182,8 +5263,8 @@
         <stp>4</stp>
         <tr r="D19" s="1"/>
       </tp>
-      <tp>
-        <v>582.6</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5191,8 +5272,8 @@
         <stp>5</stp>
         <tr r="D20" s="1"/>
       </tp>
-      <tp>
-        <v>582.21</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5200,8 +5281,8 @@
         <stp>2</stp>
         <tr r="D17" s="1"/>
       </tp>
-      <tp>
-        <v>582.22</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5209,8 +5290,8 @@
         <stp>3</stp>
         <tr r="D18" s="1"/>
       </tp>
-      <tp>
-        <v>582.17999999999995</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5218,8 +5299,8 @@
         <stp>0</stp>
         <tr r="D15" s="1"/>
       </tp>
-      <tp>
-        <v>582.19000000000005</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5227,8 +5308,8 @@
         <stp>1</stp>
         <tr r="D16" s="1"/>
       </tp>
-      <tp>
-        <v>582.9</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5236,8 +5317,8 @@
         <stp>8</stp>
         <tr r="D23" s="1"/>
       </tp>
-      <tp>
-        <v>582.92999999999995</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5245,104 +5326,104 @@
         <stp>9</stp>
         <tr r="D24" s="1"/>
       </tp>
-      <tp>
-        <v>7433.19</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
         <stp>low_24h</stp>
         <tr r="G4" s="2"/>
       </tp>
-      <tp>
-        <v>118.91</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>ASK</stp>
         <tr r="I7" s="1"/>
       </tp>
-      <tp>
-        <v>-2.2100000000000001E-4</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>PRICE_CHANGE</stp>
         <tr r="O9" s="1"/>
       </tp>
-      <tp>
-        <v>1.9999999999999999E-6</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>Spread</stp>
         <tr r="H9" s="1"/>
       </tp>
-      <tp>
-        <v>563.27</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
         <stp>low_24h</stp>
         <tr r="G3" s="2"/>
       </tp>
-      <tp>
-        <v>8001.42</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
         <stp>open_24h</stp>
         <tr r="E4" s="2"/>
       </tp>
-      <tp>
-        <v>643.34</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
         <stp>open_24h</stp>
         <tr r="E3" s="2"/>
       </tp>
-      <tp>
-        <v>560</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>LOW</stp>
         <tr r="B5" s="1"/>
       </tp>
-      <tp>
-        <v>330978506.52329791</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>QUOTE_VOL</stp>
         <tr r="L6" s="1"/>
       </tp>
-      <tp>
-        <v>13030528.640093099</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>QUOTE_VOL</stp>
         <tr r="L7" s="1"/>
       </tp>
-      <tp>
-        <v>581.64</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID</stp>
         <tr r="G5" s="1"/>
       </tp>
-      <tp>
-        <v>255.67</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>ASK_SIZE</stp>
         <tr r="J8" s="1"/>
       </tp>
-      <tp>
-        <v>26047743</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5350,8 +5431,8 @@
         <stp>3</stp>
         <tr r="R35" s="1"/>
       </tp>
-      <tp>
-        <v>26047743</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5359,80 +5440,80 @@
         <stp>0</stp>
         <tr r="R29" s="1"/>
       </tp>
-      <tp>
-        <v>582.17999999999995</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK</stp>
         <tr r="I5" s="1"/>
       </tp>
-      <tp>
-        <v>0.63775000000000004</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
         <stp>CLOSE</stp>
         <tr r="D8" s="1"/>
       </tp>
-      <tp>
-        <v>155567039.23584211</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>QUOTE_VOL</stp>
         <tr r="L5" s="1"/>
       </tp>
-      <tp>
-        <v>13766.77456217</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>QUOTE_VOL</stp>
         <tr r="L11" s="1"/>
       </tp>
-      <tp>
-        <v>3274.4077716900001</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>QUOTE_VOL</stp>
         <tr r="L10" s="1"/>
       </tp>
-      <tp>
-        <v>7540.08</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>ASK</stp>
         <tr r="I6" s="1"/>
       </tp>
-      <tp>
-        <v>115.83</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>LOW</stp>
         <tr r="B7" s="1"/>
       </tp>
-      <tp>
-        <v>7535</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>BID</stp>
         <tr r="G6" s="1"/>
       </tp>
-      <tp>
-        <v>7.241E-3</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>HIGH</stp>
         <tr r="C9" s="1"/>
       </tp>
-      <tp>
-        <v>43243.82813209491</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5440,8 +5521,8 @@
         <stp>0</stp>
         <tr r="P30" s="1"/>
       </tp>
-      <tp>
-        <v>43243.828064409725</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -5449,8 +5530,8 @@
         <stp>0</stp>
         <tr r="P31" s="1"/>
       </tp>
-      <tp>
-        <v>43243.82813209491</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5458,8 +5539,8 @@
         <stp>3</stp>
         <tr r="P36" s="1"/>
       </tp>
-      <tp>
-        <v>43243.828064409725</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ltcusdt</stp>
@@ -5467,8 +5548,8 @@
         <stp>3</stp>
         <tr r="P37" s="1"/>
       </tp>
-      <tp>
-        <v>43243.828132118055</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5476,8 +5557,8 @@
         <stp>0</stp>
         <tr r="P29" s="1"/>
       </tp>
-      <tp>
-        <v>43243.828132129631</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5485,24 +5566,24 @@
         <stp>3</stp>
         <tr r="P35" s="1"/>
       </tp>
-      <tp>
-        <v>0.51549</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK_SIZE</stp>
         <tr r="J5" s="1"/>
       </tp>
-      <tp>
-        <v>8.1921800000000005</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>ASK_SIZE</stp>
         <tr r="J7" s="1"/>
       </tp>
-      <tp>
-        <v>1</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -5515,30 +5596,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E0BE176-951A-4CA3-A803-9256000D1161}" name="Table2" displayName="Table2" ref="A2:H4" totalsRowShown="0" dataDxfId="89" dataCellStyle="Comma">
-  <autoFilter ref="A2:H4" xr:uid="{580FE727-A11C-4ED9-9482-452D0F24BAD3}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9C68E037-DF9F-4856-B04D-2DCDFFB4E15E}" name="Ticker"/>
-    <tableColumn id="2" xr3:uid="{8FAA28E5-F641-4937-ADD4-FAC56E0C4147}" name="BID" dataDxfId="88" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,B$2)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A4:O11" totalsRowShown="0" dataDxfId="82" dataCellStyle="Comma">
+  <autoFilter ref="A4:O11" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{3DCAC593-21E4-456C-93D1-EEDC8340EA91}" name="Ticker"/>
+    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,B$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{041CD0D7-D375-4B88-8B1B-CD344CCDEB4E}" name="ASK" dataDxfId="87" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,C$2)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,C$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5B81F177-A71A-4810-A2A9-102CFDC4A15D}" name="LAST_PRICE" dataDxfId="86" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,D$2)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,D$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{88E54DB0-E57D-4C05-B81D-0BDDFCBC50D3}" name="open_24h" dataDxfId="3" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,E$2)</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="75" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,E$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0644C03A-2092-4785-8C82-498398297E87}" name="high_24h" dataDxfId="2" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,F$2)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,F$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7D7129C-1554-4D1C-AC2E-68B137E65B85}" name="low_24h" dataDxfId="1" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,G$2)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,G$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4BD2F6D0-F9D4-4F69-8989-8E5F76D88E95}" name="volume_24h" dataDxfId="0" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,H$2)</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,H$4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,I$4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,J$4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,K$4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,L$4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,M$4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Percent">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,N$4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,O$4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5546,51 +5648,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A4:O11" totalsRowShown="0" dataDxfId="85" dataCellStyle="Comma">
-  <autoFilter ref="A4:O11" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{3DCAC593-21E4-456C-93D1-EEDC8340EA91}" name="Ticker"/>
-    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,B$4)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E24" totalsRowShown="0" dataDxfId="54" dataCellStyle="Comma">
+  <autoFilter ref="A14:E24" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="53" dataCellStyle="20% - Accent6">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,C$4)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="52" dataCellStyle="20% - Accent6">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,D$4)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="50" dataCellStyle="20% - Accent2">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="78" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,E$4)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,F$4)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,G$4)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,H$4)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,I$4)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,J$4)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,K$4)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,L$4)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,M$4)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Percent">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,N$4)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,O$4)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="49" dataCellStyle="20% - Accent2">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5598,21 +5670,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E24" totalsRowShown="0" dataDxfId="57" dataCellStyle="Comma">
-  <autoFilter ref="A14:E24" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="56" dataCellStyle="20% - Accent6">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:O21" totalsRowShown="0" dataDxfId="48" tableBorderDxfId="47" dataCellStyle="Comma">
+  <autoFilter ref="G14:O21" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{4DF9B9E1-1E83-4EF7-84C1-2078EE821C9B}" name="SYMBOL"/>
+    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="46" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,H$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="55" dataCellStyle="20% - Accent6">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="PRICE" dataDxfId="45" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,I$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="53" dataCellStyle="20% - Accent2">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="QUANTITY" dataDxfId="44" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,J$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="52" dataCellStyle="20% - Accent2">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="43" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,K$14)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="42" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,L$14)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{596DAC26-1FB0-4FA0-9F2B-2F85949317B9}" name="FIRST_ID" dataDxfId="41" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,M$14)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{625DA386-D82A-4BD8-99A5-41F6984223F9}" name="LAST_ID" dataDxfId="40" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,N$14)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{B43DE4EC-1073-4EE5-AFA6-29717F6887CA}" name="TRADE_TIME" dataDxfId="39" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,O$14)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5620,33 +5704,60 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:O21" totalsRowShown="0" dataDxfId="51" tableBorderDxfId="50" dataCellStyle="Comma">
-  <autoFilter ref="G14:O21" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4DF9B9E1-1E83-4EF7-84C1-2078EE821C9B}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="49" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,H$14)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A28:R31" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37" dataCellStyle="Comma">
+  <autoFilter ref="A28:R31" xr:uid="{BD9601BD-F222-4DBD-B404-C68EB6A96569}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{A75C3BB9-BD50-4A86-92A6-228C26DADEC8}" name="SYMBOL"/>
+    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="36" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,B$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="PRICE" dataDxfId="48" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,I$14)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="35" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,C$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="QUANTITY" dataDxfId="47" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,J$14)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="34" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,D$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="46" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,K$14)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="33" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,E$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="45" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,L$14)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="32" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,F$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{596DAC26-1FB0-4FA0-9F2B-2F85949317B9}" name="FIRST_ID" dataDxfId="44" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,M$14)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="31" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,G$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{625DA386-D82A-4BD8-99A5-41F6984223F9}" name="LAST_ID" dataDxfId="43" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,N$14)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="30" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,H$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B43DE4EC-1073-4EE5-AFA6-29717F6887CA}" name="TRADE_TIME" dataDxfId="42" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,O$14)</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="29" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,I$28,$D$27)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="28" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,J$28,$D$27)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="27" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,K$28,$D$27)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="26" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,L$28,$D$27)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="25" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,M$28,$D$27)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="24" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,N$28,$D$27)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{11BF3445-5968-4B64-972D-05C6CECCD6DE}" name="Event" dataDxfId="23" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,O$28,$D$27)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="22" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,P$28,$D$27)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="21" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,Q$28,$D$27)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="20" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,R$28,$D$27)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5654,60 +5765,60 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A28:R31" totalsRowShown="0" dataDxfId="41" tableBorderDxfId="40" dataCellStyle="Comma">
-  <autoFilter ref="A28:R31" xr:uid="{BD9601BD-F222-4DBD-B404-C68EB6A96569}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A34:R37" totalsRowShown="0" dataDxfId="19" tableBorderDxfId="18" dataCellStyle="Comma">
+  <autoFilter ref="A34:R37" xr:uid="{04787891-A2B4-4F14-ADE0-2BC3B779F519}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{A75C3BB9-BD50-4A86-92A6-228C26DADEC8}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="39" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,B$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{CD2685D4-7653-442A-A4D2-04D1D79D1D51}" name="SYMBOL"/>
+    <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="17" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,B$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="38" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,C$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="16" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,C$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="37" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,D$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="15" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,D$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="36" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,E$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="14" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,E$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="35" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,F$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="13" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,F$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="34" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,G$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="12" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,G$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="33" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,H$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="11" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,H$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="32" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,I$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="10" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,I$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="31" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,J$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="9" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,J$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="30" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,K$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="8" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,K$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="29" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,L$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="7" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,L$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="28" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,M$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="6" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,M$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="27" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,N$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="5" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,N$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{11BF3445-5968-4B64-972D-05C6CECCD6DE}" name="Event" dataDxfId="26" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,O$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{528B6C8B-64D5-45B1-8F49-30BB75CB0054}" name="Event" dataDxfId="4" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,O$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="25" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,P$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="3" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,P$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="24" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,Q$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="2" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,Q$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="23" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A29,R$28,$D$27)</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="1" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,R$28,$D$33)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5715,60 +5826,45 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A34:R37" totalsRowShown="0" dataDxfId="22" tableBorderDxfId="21" dataCellStyle="Comma">
-  <autoFilter ref="A34:R37" xr:uid="{04787891-A2B4-4F14-ADE0-2BC3B779F519}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{CD2685D4-7653-442A-A4D2-04D1D79D1D51}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="20" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,B$28,$D$33)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C9A1048C-DE17-4207-AE25-F81CA5DDBF93}" name="Table7" displayName="Table7" ref="Q4:R11" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="Q4:R11" xr:uid="{DE16C1F4-0EE5-4965-9BFE-4C8EEA16A585}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3182ACB6-B037-4E1D-A813-654BB23D8D22}" name="PRICE">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[Ticker]],Q$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="19" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,C$28,$D$33)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{2C2B98E6-3BB9-4AEA-B21F-BDF93FE989B8}" name="QUANTITY">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[LOW]],R$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="18" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,D$28,$D$33)</calculatedColumnFormula>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E0BE176-951A-4CA3-A803-9256000D1161}" name="Table2" displayName="Table2" ref="A2:H4" totalsRowShown="0" dataDxfId="90" dataCellStyle="Comma">
+  <autoFilter ref="A2:H4" xr:uid="{580FE727-A11C-4ED9-9482-452D0F24BAD3}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{9C68E037-DF9F-4856-B04D-2DCDFFB4E15E}" name="Ticker"/>
+    <tableColumn id="2" xr3:uid="{8FAA28E5-F641-4937-ADD4-FAC56E0C4147}" name="BID" dataDxfId="89" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,B$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="17" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,E$28,$D$33)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{041CD0D7-D375-4B88-8B1B-CD344CCDEB4E}" name="ASK" dataDxfId="88" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="16" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,F$28,$D$33)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{5B81F177-A71A-4810-A2A9-102CFDC4A15D}" name="LAST_PRICE" dataDxfId="87" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,D$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="15" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,G$28,$D$33)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{88E54DB0-E57D-4C05-B81D-0BDDFCBC50D3}" name="open_24h" dataDxfId="86" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,E$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="14" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,H$28,$D$33)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{0644C03A-2092-4785-8C82-498398297E87}" name="high_24h" dataDxfId="85" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,F$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="13" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,I$28,$D$33)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{F7D7129C-1554-4D1C-AC2E-68B137E65B85}" name="low_24h" dataDxfId="84" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,G$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="12" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,J$28,$D$33)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="11" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,K$28,$D$33)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="10" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,L$28,$D$33)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="9" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,M$28,$D$33)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="8" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,N$28,$D$33)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{528B6C8B-64D5-45B1-8F49-30BB75CB0054}" name="Event" dataDxfId="7" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,O$28,$D$33)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="6" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,P$28,$D$33)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="5" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,Q$28,$D$33)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="4" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A35,R$28,$D$33)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{4BD2F6D0-F9D4-4F69-8989-8E5F76D88E95}" name="volume_24h" dataDxfId="83" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,GDAX,$A3,H$2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6071,138 +6167,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7470B438-0642-48A4-8F04-0651273A7466}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <f>RTD(progId,,GDAX,$A3,B$2)</f>
-        <v>581.89</v>
-      </c>
-      <c r="C3" s="2">
-        <f>RTD(progId,,GDAX,$A3,C$2)</f>
-        <v>581.9</v>
-      </c>
-      <c r="D3" s="2">
-        <f>RTD(progId,,GDAX,$A3,D$2)</f>
-        <v>581.9</v>
-      </c>
-      <c r="E3" s="2">
-        <f>RTD(progId,,GDAX,$A3,E$2)</f>
-        <v>643.34</v>
-      </c>
-      <c r="F3" s="2">
-        <f>RTD(progId,,GDAX,$A3,F$2)</f>
-        <v>648.46</v>
-      </c>
-      <c r="G3" s="2">
-        <f>RTD(progId,,GDAX,$A3,G$2)</f>
-        <v>563.27</v>
-      </c>
-      <c r="H3" s="2">
-        <f>RTD(progId,,GDAX,$A3,H$2)</f>
-        <v>215319.31700712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <f>RTD(progId,,GDAX,$A4,B$2)</f>
-        <v>7542.99</v>
-      </c>
-      <c r="C4" s="2">
-        <f>RTD(progId,,GDAX,$A4,C$2)</f>
-        <v>7543</v>
-      </c>
-      <c r="D4" s="2">
-        <f>RTD(progId,,GDAX,$A4,D$2)</f>
-        <v>7542.99</v>
-      </c>
-      <c r="E4" s="2">
-        <f>RTD(progId,,GDAX,$A4,E$2)</f>
-        <v>8001.42</v>
-      </c>
-      <c r="F4" s="2">
-        <f>RTD(progId,,GDAX,$A4,F$2)</f>
-        <v>8030.06</v>
-      </c>
-      <c r="G4" s="2">
-        <f>RTD(progId,,GDAX,$A4,G$2)</f>
-        <v>7433.19</v>
-      </c>
-      <c r="H4" s="2">
-        <f>RTD(progId,,GDAX,$A4,H$2)</f>
-        <v>15905.412344120001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F314B32C-A36F-425C-B63D-E2C30E3C057B}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6222,7 +6192,7 @@
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" customWidth="1"/>
     <col min="19" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6266,6 +6236,10 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
+      <c r="Q3" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -6313,432 +6287,494 @@
       <c r="O4" t="s">
         <v>16</v>
       </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A5,B$4)</f>
-        <v>560</v>
-      </c>
-      <c r="C5" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A5,C$4)</f>
-        <v>669</v>
-      </c>
-      <c r="D5" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A5,D$4)</f>
-        <v>644.26</v>
-      </c>
-      <c r="E5" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A5,E$4)</f>
-        <v>644.99</v>
-      </c>
-      <c r="F5" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A5,F$4)</f>
-        <v>0.51527999999999996</v>
-      </c>
-      <c r="G5" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A5,G$4)</f>
-        <v>581.64</v>
-      </c>
-      <c r="H5" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A5,H$4)</f>
-        <v>0.54</v>
-      </c>
-      <c r="I5" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A5,I$4)</f>
-        <v>582.17999999999995</v>
-      </c>
-      <c r="J5" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A5,J$4)</f>
-        <v>0.51549</v>
-      </c>
-      <c r="K5" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A5,K$4)</f>
-        <v>256884.09805</v>
-      </c>
-      <c r="L5" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A5,L$4)</f>
-        <v>155567039.23584211</v>
-      </c>
-      <c r="M5" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="M5" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A5,M$4)</f>
-        <v>202926</v>
-      </c>
-      <c r="N5" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N5" s="10" t="e">
         <f>RTD(progId,,BINANCE,$A5,N$4)</f>
-        <v>-9.5460000000000003E-2</v>
-      </c>
-      <c r="O5" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="O5" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A5,O$4)</f>
-        <v>-61.44</v>
+        <v>#N/A</v>
+      </c>
+      <c r="Q5" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[Ticker]],Q$4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R5" s="1" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[LOW]],R$4)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A6,B$4)</f>
-        <v>7425</v>
-      </c>
-      <c r="C6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A6,C$4)</f>
-        <v>8031.9</v>
-      </c>
-      <c r="D6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A6,D$4)</f>
-        <v>7997.61</v>
-      </c>
-      <c r="E6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A6,E$4)</f>
-        <v>8005.48</v>
-      </c>
-      <c r="F6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A6,F$4)</f>
-        <v>3.1895720000000001</v>
-      </c>
-      <c r="G6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A6,G$4)</f>
-        <v>7535</v>
-      </c>
-      <c r="H6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A6,H$4)</f>
-        <v>5.08</v>
-      </c>
-      <c r="I6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A6,I$4)</f>
-        <v>7540.08</v>
-      </c>
-      <c r="J6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A6,J$4)</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A6,K$4)</f>
-        <v>42870.260064000002</v>
-      </c>
-      <c r="L6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A6,L$4)</f>
-        <v>330978506.52329791</v>
-      </c>
-      <c r="M6" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A6,M$4)</f>
-        <v>306779</v>
-      </c>
-      <c r="N6" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N6" s="10" t="e">
         <f>RTD(progId,,BINANCE,$A6,N$4)</f>
-        <v>-5.772E-2</v>
-      </c>
-      <c r="O6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="O6" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A6,O$4)</f>
-        <v>-461.59</v>
+        <v>#N/A</v>
+      </c>
+      <c r="Q6" s="1" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[Ticker]],Q$4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R6" s="1" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[LOW]],R$4)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A7,B$4)</f>
-        <v>115.83</v>
-      </c>
-      <c r="C7" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A7,C$4)</f>
-        <v>129.35</v>
-      </c>
-      <c r="D7" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A7,D$4)</f>
-        <v>128.15</v>
-      </c>
-      <c r="E7" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A7,E$4)</f>
-        <v>128.25</v>
-      </c>
-      <c r="F7" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A7,F$4)</f>
-        <v>7.50021</v>
-      </c>
-      <c r="G7" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A7,G$4)</f>
-        <v>118.74</v>
-      </c>
-      <c r="H7" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A7,H$4)</f>
-        <v>0.17</v>
-      </c>
-      <c r="I7" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A7,I$4)</f>
-        <v>118.91</v>
-      </c>
-      <c r="J7" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A7,J$4)</f>
-        <v>8.1921800000000005</v>
-      </c>
-      <c r="K7" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A7,K$4)</f>
-        <v>106827.6857</v>
-      </c>
-      <c r="L7" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A7,L$4)</f>
-        <v>13030528.640093099</v>
-      </c>
-      <c r="M7" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A7,M$4)</f>
-        <v>29990</v>
-      </c>
-      <c r="N7" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N7" s="10" t="e">
         <f>RTD(progId,,BINANCE,$A7,N$4)</f>
-        <v>-7.4730000000000005E-2</v>
-      </c>
-      <c r="O7" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="O7" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A7,O$4)</f>
-        <v>-9.59</v>
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" s="1" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[Ticker]],Q$4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R7" s="1" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[LOW]],R$4)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A8,B$4)</f>
-        <v>0.57310000000000005</v>
-      </c>
-      <c r="C8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A8,C$4)</f>
-        <v>0.64488000000000001</v>
-      </c>
-      <c r="D8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A8,D$4)</f>
-        <v>0.63775000000000004</v>
-      </c>
-      <c r="E8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A8,E$4)</f>
-        <v>0.63848000000000005</v>
-      </c>
-      <c r="F8" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A8,F$4)</f>
-        <v>301.3</v>
-      </c>
-      <c r="G8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A8,G$4)</f>
-        <v>0.59423000000000004</v>
-      </c>
-      <c r="H8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A8,H$4)</f>
-        <v>2.8400000000000001E-3</v>
-      </c>
-      <c r="I8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A8,I$4)</f>
-        <v>0.59706999999999999</v>
-      </c>
-      <c r="J8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="J8" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A8,J$4)</f>
-        <v>255.67</v>
-      </c>
-      <c r="K8" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A8,K$4)</f>
-        <v>20153277.09</v>
-      </c>
-      <c r="L8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A8,L$4)</f>
-        <v>12225585.756023699</v>
-      </c>
-      <c r="M8" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A8,M$4)</f>
-        <v>31473</v>
-      </c>
-      <c r="N8" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N8" s="10" t="e">
         <f>RTD(progId,,BINANCE,$A8,N$4)</f>
-        <v>-6.5369999999999998E-2</v>
-      </c>
-      <c r="O8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="O8" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A8,O$4)</f>
-        <v>-4.1759999999999999E-2</v>
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" s="1" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[Ticker]],Q$4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="1" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[LOW]],R$4)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A9,B$4)</f>
-        <v>6.8659999999999997E-3</v>
-      </c>
-      <c r="C9" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="C9" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A9,C$4)</f>
-        <v>7.241E-3</v>
-      </c>
-      <c r="D9" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A9,D$4)</f>
-        <v>7.1599999999999997E-3</v>
-      </c>
-      <c r="E9" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A9,E$4)</f>
-        <v>7.1599999999999997E-3</v>
-      </c>
-      <c r="F9" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A9,F$4)</f>
-        <v>1.49</v>
-      </c>
-      <c r="G9" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A9,G$4)</f>
-        <v>6.9319999999999998E-3</v>
-      </c>
-      <c r="H9" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="H9" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A9,H$4)</f>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="I9" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="I9" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A9,I$4)</f>
-        <v>6.9340000000000001E-3</v>
-      </c>
-      <c r="J9" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="J9" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A9,J$4)</f>
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="K9" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="K9" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A9,K$4)</f>
-        <v>372005.87</v>
-      </c>
-      <c r="L9" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A9,L$4)</f>
-        <v>2618.51439093</v>
-      </c>
-      <c r="M9" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="M9" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A9,M$4)</f>
-        <v>52096</v>
-      </c>
-      <c r="N9" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N9" s="10" t="e">
         <f>RTD(progId,,BINANCE,$A9,N$4)</f>
-        <v>-3.0890000000000001E-2</v>
-      </c>
-      <c r="O9" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="O9" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A9,O$4)</f>
-        <v>-2.2100000000000001E-4</v>
+        <v>#N/A</v>
+      </c>
+      <c r="Q9" s="1" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[Ticker]],Q$4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R9" s="1" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[LOW]],R$4)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A10,B$4)</f>
-        <v>7.6600000000000005E-5</v>
-      </c>
-      <c r="C10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="C10" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A10,C$4)</f>
-        <v>8.0749999999999998E-5</v>
-      </c>
-      <c r="D10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A10,D$4)</f>
-        <v>8.0010000000000001E-5</v>
-      </c>
-      <c r="E10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A10,E$4)</f>
-        <v>8.0010000000000001E-5</v>
-      </c>
-      <c r="F10" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A10,F$4)</f>
-        <v>6386</v>
-      </c>
-      <c r="G10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="G10" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A10,G$4)</f>
-        <v>7.894E-5</v>
-      </c>
-      <c r="H10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A10,H$4)</f>
-        <v>1.1000000000000001E-7</v>
-      </c>
-      <c r="I10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="I10" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A10,I$4)</f>
-        <v>7.9049999999999997E-5</v>
-      </c>
-      <c r="J10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="J10" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A10,J$4)</f>
-        <v>1264</v>
-      </c>
-      <c r="K10" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="K10" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A10,K$4)</f>
-        <v>41524771</v>
-      </c>
-      <c r="L10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A10,L$4)</f>
-        <v>3274.4077716900001</v>
-      </c>
-      <c r="M10" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A10,M$4)</f>
-        <v>66201</v>
-      </c>
-      <c r="N10" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N10" s="10" t="e">
         <f>RTD(progId,,BINANCE,$A10,N$4)</f>
-        <v>-1.2E-2</v>
-      </c>
-      <c r="O10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="O10" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A10,O$4)</f>
-        <v>-9.5999999999999991E-7</v>
+        <v>#N/A</v>
+      </c>
+      <c r="Q10" s="1" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[Ticker]],Q$4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R10" s="1" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[LOW]],R$4)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A11,B$4)</f>
-        <v>8.6999999999999997E-6</v>
-      </c>
-      <c r="C11" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="C11" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A11,C$4)</f>
-        <v>9.4599999999999992E-6</v>
-      </c>
-      <c r="D11" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A11,D$4)</f>
-        <v>9.1900000000000001E-6</v>
-      </c>
-      <c r="E11" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="2" t="e">
         <f>RTD(progId,,BINANCE_24H,$A11,E$4)</f>
-        <v>9.1900000000000001E-6</v>
-      </c>
-      <c r="F11" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A11,F$4)</f>
-        <v>356491</v>
-      </c>
-      <c r="G11" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A11,G$4)</f>
-        <v>9.0599999999999997E-6</v>
-      </c>
-      <c r="H11" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A11,H$4)</f>
-        <v>1E-8</v>
-      </c>
-      <c r="I11" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A11,I$4)</f>
-        <v>9.0699999999999996E-6</v>
-      </c>
-      <c r="J11" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A11,J$4)</f>
-        <v>1963</v>
-      </c>
-      <c r="K11" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="K11" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A11,K$4)</f>
-        <v>1521798589</v>
-      </c>
-      <c r="L11" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A11,L$4)</f>
-        <v>13766.77456217</v>
-      </c>
-      <c r="M11" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="9" t="e">
         <f>RTD(progId,,BINANCE,$A11,M$4)</f>
-        <v>128495</v>
-      </c>
-      <c r="N11" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="N11" s="10" t="e">
         <f>RTD(progId,,BINANCE,$A11,N$4)</f>
-        <v>-1.52E-2</v>
-      </c>
-      <c r="O11" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="O11" s="2" t="e">
         <f>RTD(progId,,BINANCE,$A11,O$4)</f>
-        <v>-1.4000000000000001E-7</v>
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" s="1" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[Ticker]],Q$4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R11" s="1" t="e">
+        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[LOW]],R$4)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6812,498 +6848,492 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</f>
-        <v>0.51527999999999996</v>
-      </c>
-      <c r="B15" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="B15" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</f>
-        <v>581.64</v>
+        <v>#N/A</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</f>
-        <v>582.17999999999995</v>
-      </c>
-      <c r="E15" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</f>
-        <v>0.51549</v>
+        <v>#N/A</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G15,H$14)</f>
-        <v>23121775</v>
-      </c>
-      <c r="I15" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="I15" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G15,I$14)</f>
-        <v>582.20000000000005</v>
-      </c>
-      <c r="J15" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="J15" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G15,J$14)</f>
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="K15" s="16" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="K15" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G15,K$14)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="16" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G15,L$14)</f>
-        <v>1</v>
-      </c>
-      <c r="M15" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="M15" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G15,M$14)</f>
-        <v>26047743</v>
-      </c>
-      <c r="N15" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G15,N$14)</f>
-        <v>26047743</v>
-      </c>
-      <c r="O15" s="33">
+        <v>#N/A</v>
+      </c>
+      <c r="O15" s="33" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G15,O$14)</f>
-        <v>43243.828132083334</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C16)</f>
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="B16" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="B16" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C16)</f>
-        <v>581.63</v>
+        <v>#N/A</v>
       </c>
       <c r="C16" s="8">
         <f>C15+1</f>
         <v>1</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C16)</f>
-        <v>582.19000000000005</v>
-      </c>
-      <c r="E16" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C16)</f>
-        <v>1.2547900000000001</v>
+        <v>#N/A</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G16,H$14)</f>
-        <v>39455650</v>
-      </c>
-      <c r="I16" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="I16" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G16,I$14)</f>
-        <v>7535</v>
-      </c>
-      <c r="J16" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="J16" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G16,J$14)</f>
-        <v>2.758E-3</v>
-      </c>
-      <c r="K16" s="16" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="K16" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G16,K$14)</f>
-        <v>1</v>
-      </c>
-      <c r="L16" s="16" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G16,L$14)</f>
-        <v>1</v>
-      </c>
-      <c r="M16" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="M16" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G16,M$14)</f>
-        <v>45361382</v>
-      </c>
-      <c r="N16" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G16,N$14)</f>
-        <v>45361382</v>
-      </c>
-      <c r="O16" s="33">
+        <v>#N/A</v>
+      </c>
+      <c r="O16" s="33" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G16,O$14)</f>
-        <v>43243.828134444448</v>
-      </c>
-      <c r="Q16" s="38">
-        <f>Table4[[#This Row],[PRICE]]-G6</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="38">
-        <f>Table4[[#This Row],[PRICE]]-I6</f>
-        <v>-5.0799999999999272</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C17)</f>
-        <v>16.292899999999999</v>
-      </c>
-      <c r="B17" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="B17" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C17)</f>
-        <v>581.6</v>
+        <v>#N/A</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" ref="C17:C24" si="0">C16+1</f>
         <v>2</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C17)</f>
-        <v>582.21</v>
-      </c>
-      <c r="E17" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C17)</f>
-        <v>9.8913600000000006</v>
+        <v>#N/A</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G17,H$14)</f>
-        <v>6594163</v>
-      </c>
-      <c r="I17" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="I17" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G17,I$14)</f>
-        <v>118.74</v>
-      </c>
-      <c r="J17" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="J17" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G17,J$14)</f>
-        <v>3.7019899999999999</v>
-      </c>
-      <c r="K17" s="16" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="K17" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G17,K$14)</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="16" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="L17" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G17,L$14)</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="23">
+        <v>#N/A</v>
+      </c>
+      <c r="M17" s="23" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G17,M$14)</f>
-        <v>7488320</v>
-      </c>
-      <c r="N17" s="23">
+        <v>#N/A</v>
+      </c>
+      <c r="N17" s="23" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G17,N$14)</f>
-        <v>7488321</v>
-      </c>
-      <c r="O17" s="34">
+        <v>#N/A</v>
+      </c>
+      <c r="O17" s="34" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G17,O$14)</f>
-        <v>43243.828064386573</v>
+        <v>#N/A</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C18)</f>
-        <v>6.8779999999999994E-2</v>
-      </c>
-      <c r="B18" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="B18" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C18)</f>
-        <v>581.53</v>
+        <v>#N/A</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C18)</f>
-        <v>582.22</v>
-      </c>
-      <c r="E18" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C18)</f>
-        <v>0.24571999999999999</v>
+        <v>#N/A</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G18,H$14)</f>
-        <v>459548</v>
-      </c>
-      <c r="I18" s="35">
+        <v>#N/A</v>
+      </c>
+      <c r="I18" s="35" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G18,I$14)</f>
-        <v>0.59702999999999995</v>
-      </c>
-      <c r="J18" s="35">
+        <v>#N/A</v>
+      </c>
+      <c r="J18" s="35" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G18,J$14)</f>
-        <v>64.209999999999994</v>
-      </c>
-      <c r="K18" s="35" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="K18" s="35" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G18,K$14)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="35" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="L18" s="35" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G18,L$14)</f>
-        <v>1</v>
-      </c>
-      <c r="M18" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G18,M$14)</f>
-        <v>506654</v>
-      </c>
-      <c r="N18" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="N18" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G18,N$14)</f>
-        <v>506654</v>
-      </c>
-      <c r="O18" s="33">
+        <v>#N/A</v>
+      </c>
+      <c r="O18" s="33" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G18,O$14)</f>
-        <v>43243.827995428241</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C19)</f>
-        <v>1.72058</v>
-      </c>
-      <c r="B19" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="B19" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C19)</f>
-        <v>581.17999999999995</v>
+        <v>#N/A</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C19)</f>
-        <v>582.59</v>
-      </c>
-      <c r="E19" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C19)</f>
-        <v>1.4</v>
+        <v>#N/A</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G19,H$14)</f>
-        <v>13331554</v>
-      </c>
-      <c r="I19" s="35">
+        <v>#N/A</v>
+      </c>
+      <c r="I19" s="35" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G19,I$14)</f>
-        <v>6.9329999999999999E-3</v>
-      </c>
-      <c r="J19" s="35">
+        <v>#N/A</v>
+      </c>
+      <c r="J19" s="35" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G19,J$14)</f>
-        <v>1.79</v>
-      </c>
-      <c r="K19" s="35" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="K19" s="35" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G19,K$14)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="35" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="L19" s="35" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G19,L$14)</f>
-        <v>1</v>
-      </c>
-      <c r="M19" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="M19" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G19,M$14)</f>
-        <v>15052222</v>
-      </c>
-      <c r="N19" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="N19" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G19,N$14)</f>
-        <v>15052222</v>
-      </c>
-      <c r="O19" s="33">
+        <v>#N/A</v>
+      </c>
+      <c r="O19" s="33" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G19,O$14)</f>
-        <v>43243.828137083336</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C20)</f>
-        <v>1.00299</v>
-      </c>
-      <c r="B20" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="B20" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C20)</f>
-        <v>581.15</v>
+        <v>#N/A</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C20)</f>
-        <v>582.6</v>
-      </c>
-      <c r="E20" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C20)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G20,H$14)</f>
-        <v>17205151</v>
-      </c>
-      <c r="I20" s="35">
+        <v>#N/A</v>
+      </c>
+      <c r="I20" s="35" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G20,I$14)</f>
-        <v>7.9040000000000002E-5</v>
-      </c>
-      <c r="J20" s="35">
+        <v>#N/A</v>
+      </c>
+      <c r="J20" s="35" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G20,J$14)</f>
-        <v>2484</v>
-      </c>
-      <c r="K20" s="35" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="K20" s="35" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G20,K$14)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="35" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="L20" s="35" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G20,L$14)</f>
-        <v>1</v>
-      </c>
-      <c r="M20" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="M20" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G20,M$14)</f>
-        <v>20828597</v>
-      </c>
-      <c r="N20" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="16" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G20,N$14)</f>
-        <v>20828597</v>
-      </c>
-      <c r="O20" s="33">
+        <v>#N/A</v>
+      </c>
+      <c r="O20" s="33" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G20,O$14)</f>
-        <v>43243.828053148151</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C21)</f>
-        <v>1.6310100000000001</v>
-      </c>
-      <c r="B21" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="B21" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C21)</f>
-        <v>581</v>
+        <v>#N/A</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C21)</f>
-        <v>582.70000000000005</v>
-      </c>
-      <c r="E21" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C21)</f>
-        <v>2.2280600000000002</v>
+        <v>#N/A</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="23" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G21,H$14)</f>
-        <v>17545847</v>
-      </c>
-      <c r="I21" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="I21" s="37" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G21,I$14)</f>
-        <v>9.0699999999999996E-6</v>
-      </c>
-      <c r="J21" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="J21" s="37" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G21,J$14)</f>
-        <v>428</v>
-      </c>
-      <c r="K21" s="37" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="K21" s="37" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G21,K$14)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="37" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="L21" s="37" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G21,L$14)</f>
-        <v>1</v>
-      </c>
-      <c r="M21" s="23">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" s="23" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G21,M$14)</f>
-        <v>28273403</v>
-      </c>
-      <c r="N21" s="23">
+        <v>#N/A</v>
+      </c>
+      <c r="N21" s="23" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G21,N$14)</f>
-        <v>28273403</v>
-      </c>
-      <c r="O21" s="34">
+        <v>#N/A</v>
+      </c>
+      <c r="O21" s="34" t="e">
         <f>RTD(progId,,BINACE_TRADE,$G21,O$14)</f>
-        <v>43243.828146215281</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C22)</f>
-        <v>0.30843999999999999</v>
-      </c>
-      <c r="B22" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="B22" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C22)</f>
-        <v>580.96</v>
+        <v>#N/A</v>
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C22)</f>
-        <v>582.77</v>
-      </c>
-      <c r="E22" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C22)</f>
-        <v>18</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C23)</f>
-        <v>0.9</v>
-      </c>
-      <c r="B23" s="20">
+        <v>#N/A</v>
+      </c>
+      <c r="B23" s="20" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C23)</f>
-        <v>580.73</v>
+        <v>#N/A</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C23)</f>
-        <v>582.9</v>
-      </c>
-      <c r="E23" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="21" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C23)</f>
-        <v>0.23400000000000001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39">
+      <c r="A24" s="39" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C24)</f>
-        <v>2.2010000000000001</v>
-      </c>
-      <c r="B24" s="39">
+        <v>#N/A</v>
+      </c>
+      <c r="B24" s="39" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C24)</f>
-        <v>580.67999999999995</v>
+        <v>#N/A</v>
       </c>
       <c r="C24" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="41" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C24)</f>
-        <v>582.92999999999995</v>
-      </c>
-      <c r="E24" s="41">
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="41" t="e">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C24)</f>
-        <v>3.5999999999999997E-2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="12" t="e">
         <f>SUM(Table3[BID_DEPTH_SIZE])</f>
-        <v>24.64106</v>
-      </c>
-      <c r="B25" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="B25" s="18" t="e">
         <f>SUMPRODUCT(Table3[[BID_DEPTH_SIZE]:[BID_DEPTH]])</f>
-        <v>5836.7410599999994</v>
-      </c>
-      <c r="C25" s="19">
+        <v>#N/A</v>
+      </c>
+      <c r="C25" s="19" t="e">
         <f>D25-B25</f>
-        <v>23.354360000001179</v>
-      </c>
-      <c r="D25" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="18" t="e">
         <f>SUMPRODUCT(Table3[[ASK_DEPTH]:[ASK_DEPTH_SIZE]])</f>
-        <v>5860.0954200000006</v>
-      </c>
-      <c r="E25" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="13" t="e">
         <f>SUM(Table3[ASK_DEPTH_SIZE])</f>
-        <v>34.805420000000005</v>
+        <v>#N/A</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="4"/>
@@ -7390,219 +7420,219 @@
       <c r="A29" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,B$28,$D$27)</f>
-        <v>581.96</v>
-      </c>
-      <c r="C29" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="C29" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,C$28,$D$27)</f>
-        <v>582.22</v>
-      </c>
-      <c r="D29" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,D$28,$D$27)</f>
-        <v>581.45000000000005</v>
-      </c>
-      <c r="E29" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,E$28,$D$27)</f>
-        <v>582.20000000000005</v>
-      </c>
-      <c r="F29" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="27" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,F$28,$D$27)</f>
-        <v>43243.827777777777</v>
-      </c>
-      <c r="G29" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="G29" s="27" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,G$28,$D$27)</f>
-        <v>43243.828472210647</v>
-      </c>
-      <c r="H29" s="16" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="H29" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,H$28,$D$27)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="I29" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,I$28,$D$27)</f>
-        <v>9124.4314945999995</v>
-      </c>
-      <c r="J29" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="J29" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,J$28,$D$27)</f>
-        <v>15.68529</v>
-      </c>
-      <c r="K29" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="K29" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,K$28,$D$27)</f>
-        <v>11.4954</v>
-      </c>
-      <c r="L29" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,L$28,$D$27)</f>
-        <v>6687.1171244999996</v>
-      </c>
-      <c r="M29" s="16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,M$28,$D$27)</f>
-        <v>OneMinute</v>
-      </c>
-      <c r="N29" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="N29" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,N$28,$D$27)</f>
-        <v>24</v>
-      </c>
-      <c r="O29" s="16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O29" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,O$28,$D$27)</f>
-        <v>kline</v>
-      </c>
-      <c r="P29" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="P29" s="28" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,P$28,$D$27)</f>
-        <v>43243.828132118055</v>
-      </c>
-      <c r="Q29" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,Q$28,$D$27)</f>
-        <v>26047720</v>
-      </c>
-      <c r="R29" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="R29" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A29,R$28,$D$27)</f>
-        <v>26047743</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,B$28,$D$27)</f>
-        <v>7532.15</v>
-      </c>
-      <c r="C30" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="C30" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,C$28,$D$27)</f>
-        <v>7540.07</v>
-      </c>
-      <c r="D30" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="D30" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,D$28,$D$27)</f>
-        <v>7532.15</v>
-      </c>
-      <c r="E30" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,E$28,$D$27)</f>
-        <v>7540.07</v>
-      </c>
-      <c r="F30" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="F30" s="27" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,F$28,$D$27)</f>
-        <v>43243.827777777777</v>
-      </c>
-      <c r="G30" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="27" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,G$28,$D$27)</f>
-        <v>43243.828472210647</v>
-      </c>
-      <c r="H30" s="16" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="H30" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,H$28,$D$27)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="I30" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,I$28,$D$27)</f>
-        <v>37969.097520559997</v>
-      </c>
-      <c r="J30" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="J30" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,J$28,$D$27)</f>
-        <v>5.0390579999999998</v>
-      </c>
-      <c r="K30" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="K30" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,K$28,$D$27)</f>
-        <v>2.9341360000000001</v>
-      </c>
-      <c r="L30" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="L30" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,L$28,$D$27)</f>
-        <v>22112.017725329999</v>
-      </c>
-      <c r="M30" s="16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M30" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,M$28,$D$27)</f>
-        <v>OneMinute</v>
-      </c>
-      <c r="N30" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="N30" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,N$28,$D$27)</f>
-        <v>52</v>
-      </c>
-      <c r="O30" s="16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O30" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,O$28,$D$27)</f>
-        <v>kline</v>
-      </c>
-      <c r="P30" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="28" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,P$28,$D$27)</f>
-        <v>43243.82813209491</v>
-      </c>
-      <c r="Q30" s="31">
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" s="31" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,Q$28,$D$27)</f>
-        <v>45361328</v>
-      </c>
-      <c r="R30" s="31">
+        <v>#N/A</v>
+      </c>
+      <c r="R30" s="31" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,R$28,$D$27)</f>
-        <v>45361379</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,B$28,$D$27)</f>
-        <v>118.74</v>
-      </c>
-      <c r="C31" s="23">
+        <v>#N/A</v>
+      </c>
+      <c r="C31" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,C$28,$D$27)</f>
-        <v>118.74</v>
-      </c>
-      <c r="D31" s="23">
+        <v>#N/A</v>
+      </c>
+      <c r="D31" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,D$28,$D$27)</f>
-        <v>118.74</v>
-      </c>
-      <c r="E31" s="23">
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,E$28,$D$27)</f>
-        <v>118.74</v>
-      </c>
-      <c r="F31" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="F31" s="27" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,F$28,$D$27)</f>
-        <v>43243.827777777777</v>
-      </c>
-      <c r="G31" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="27" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,G$28,$D$27)</f>
-        <v>43243.828472210647</v>
-      </c>
-      <c r="H31" s="23" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="H31" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,H$28,$D$27)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="I31" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,I$28,$D$27)</f>
-        <v>440.94217739999999</v>
-      </c>
-      <c r="J31" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="J31" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,J$28,$D$27)</f>
-        <v>3.7135099999999999</v>
-      </c>
-      <c r="K31" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="K31" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,K$28,$D$27)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="L31" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,L$28,$D$27)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M31" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,M$28,$D$27)</f>
-        <v>OneMinute</v>
-      </c>
-      <c r="N31" s="30">
+        <v>#N/A</v>
+      </c>
+      <c r="N31" s="30" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,N$28,$D$27)</f>
-        <v>3</v>
-      </c>
-      <c r="O31" s="23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O31" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,O$28,$D$27)</f>
-        <v>kline</v>
-      </c>
-      <c r="P31" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="P31" s="28" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,P$28,$D$27)</f>
-        <v>43243.828064409725</v>
-      </c>
-      <c r="Q31" s="31">
+        <v>#N/A</v>
+      </c>
+      <c r="Q31" s="31" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,Q$28,$D$27)</f>
-        <v>7488319</v>
-      </c>
-      <c r="R31" s="31">
+        <v>#N/A</v>
+      </c>
+      <c r="R31" s="31" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,R$28,$D$27)</f>
-        <v>7488321</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -7682,219 +7712,219 @@
       <c r="A35" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,B$28,$D$33)</f>
-        <v>582.16</v>
-      </c>
-      <c r="C35" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="C35" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,C$28,$D$33)</f>
-        <v>583</v>
-      </c>
-      <c r="D35" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="D35" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,D$28,$D$33)</f>
-        <v>578.88</v>
-      </c>
-      <c r="E35" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="E35" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,E$28,$D$33)</f>
-        <v>582.20000000000005</v>
-      </c>
-      <c r="F35" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="F35" s="27" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,F$28,$D$33)</f>
-        <v>43243.822916666664</v>
-      </c>
-      <c r="G35" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="G35" s="27" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,G$28,$D$33)</f>
-        <v>43243.83333332176</v>
-      </c>
-      <c r="H35" s="16" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="H35" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,H$28,$D$33)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="I35" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,I$28,$D$33)</f>
-        <v>678778.01629870001</v>
-      </c>
-      <c r="J35" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="J35" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,J$28,$D$33)</f>
-        <v>1168.8069</v>
-      </c>
-      <c r="K35" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="K35" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,K$28,$D$33)</f>
-        <v>666.99198999999999</v>
-      </c>
-      <c r="L35" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="L35" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,L$28,$D$33)</f>
-        <v>387387.3168272</v>
-      </c>
-      <c r="M35" s="16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M35" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,M$28,$D$33)</f>
-        <v>FiveteenMinutes</v>
-      </c>
-      <c r="N35" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="N35" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,N$28,$D$33)</f>
-        <v>1146</v>
-      </c>
-      <c r="O35" s="16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O35" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,O$28,$D$33)</f>
-        <v>kline</v>
-      </c>
-      <c r="P35" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="P35" s="28" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,P$28,$D$33)</f>
-        <v>43243.828132129631</v>
-      </c>
-      <c r="Q35" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="Q35" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,Q$28,$D$33)</f>
-        <v>26046598</v>
-      </c>
-      <c r="R35" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="R35" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A35,R$28,$D$33)</f>
-        <v>26047743</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,B$28,$D$33)</f>
-        <v>7543.55</v>
-      </c>
-      <c r="C36" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="C36" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,C$28,$D$33)</f>
-        <v>7554</v>
-      </c>
-      <c r="D36" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="D36" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,D$28,$D$33)</f>
-        <v>7509.7</v>
-      </c>
-      <c r="E36" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,E$28,$D$33)</f>
-        <v>7540.07</v>
-      </c>
-      <c r="F36" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="F36" s="27" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,F$28,$D$33)</f>
-        <v>43243.822916666664</v>
-      </c>
-      <c r="G36" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="G36" s="27" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,G$28,$D$33)</f>
-        <v>43243.83333332176</v>
-      </c>
-      <c r="H36" s="16" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="H36" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,H$28,$D$33)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="I36" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,I$28,$D$33)</f>
-        <v>1191563.72003854</v>
-      </c>
-      <c r="J36" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="J36" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,J$28,$D$33)</f>
-        <v>158.199477</v>
-      </c>
-      <c r="K36" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="K36" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,K$28,$D$33)</f>
-        <v>60.616477000000003</v>
-      </c>
-      <c r="L36" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="L36" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,L$28,$D$33)</f>
-        <v>456326.38714921998</v>
-      </c>
-      <c r="M36" s="16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M36" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,M$28,$D$33)</f>
-        <v>FiveteenMinutes</v>
-      </c>
-      <c r="N36" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="N36" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,N$28,$D$33)</f>
-        <v>1223</v>
-      </c>
-      <c r="O36" s="16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O36" s="16" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,O$28,$D$33)</f>
-        <v>kline</v>
-      </c>
-      <c r="P36" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="P36" s="28" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,P$28,$D$33)</f>
-        <v>43243.82813209491</v>
-      </c>
-      <c r="Q36" s="31">
+        <v>#N/A</v>
+      </c>
+      <c r="Q36" s="31" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,Q$28,$D$33)</f>
-        <v>45360157</v>
-      </c>
-      <c r="R36" s="31">
+        <v>#N/A</v>
+      </c>
+      <c r="R36" s="31" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,R$28,$D$33)</f>
-        <v>45361379</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,B$28,$D$33)</f>
-        <v>118.93</v>
-      </c>
-      <c r="C37" s="23">
+        <v>#N/A</v>
+      </c>
+      <c r="C37" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,C$28,$D$33)</f>
-        <v>119.23</v>
-      </c>
-      <c r="D37" s="23">
+        <v>#N/A</v>
+      </c>
+      <c r="D37" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,D$28,$D$33)</f>
-        <v>118.36</v>
-      </c>
-      <c r="E37" s="23">
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,E$28,$D$33)</f>
-        <v>118.74</v>
-      </c>
-      <c r="F37" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="F37" s="27" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,F$28,$D$33)</f>
-        <v>43243.822916666664</v>
-      </c>
-      <c r="G37" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="G37" s="27" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,G$28,$D$33)</f>
-        <v>43243.83333332176</v>
-      </c>
-      <c r="H37" s="23" t="b">
+        <v>#N/A</v>
+      </c>
+      <c r="H37" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,H$28,$D$33)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="I37" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,I$28,$D$33)</f>
-        <v>77861.828267599994</v>
-      </c>
-      <c r="J37" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="J37" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,J$28,$D$33)</f>
-        <v>655.63270999999997</v>
-      </c>
-      <c r="K37" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="K37" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,K$28,$D$33)</f>
-        <v>160.12298999999999</v>
-      </c>
-      <c r="L37" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="L37" s="29" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,L$28,$D$33)</f>
-        <v>19030.4075118</v>
-      </c>
-      <c r="M37" s="23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M37" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,M$28,$D$33)</f>
-        <v>FiveteenMinutes</v>
-      </c>
-      <c r="N37" s="30">
+        <v>#N/A</v>
+      </c>
+      <c r="N37" s="30" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,N$28,$D$33)</f>
-        <v>130</v>
-      </c>
-      <c r="O37" s="23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O37" s="23" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,O$28,$D$33)</f>
-        <v>kline</v>
-      </c>
-      <c r="P37" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="P37" s="28" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,P$28,$D$33)</f>
-        <v>43243.828064409725</v>
-      </c>
-      <c r="Q37" s="31">
+        <v>#N/A</v>
+      </c>
+      <c r="Q37" s="31" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,Q$28,$D$33)</f>
-        <v>7488192</v>
-      </c>
-      <c r="R37" s="31">
+        <v>#N/A</v>
+      </c>
+      <c r="R37" s="31" t="e">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,R$28,$D$33)</f>
-        <v>7488321</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -8270,12 +8300,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7470B438-0642-48A4-8F04-0651273A7466}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A3,B$2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C3" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A3,C$2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A3,D$2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A3,E$2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A3,F$2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G3" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A3,G$2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H3" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A3,H$2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A4,B$2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A4,C$2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A4,D$2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A4,E$2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A4,F$2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A4,G$2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="2" t="e">
+        <f>RTD(progId,,GDAX,$A4,H$2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/doc/crypto.xlsx
+++ b/doc/crypto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\crypto-rtd\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\OpenSource\Crypto\crypto-rtd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8C2AA4-122E-486D-98BD-D831CAF5632F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C828C751-9815-4238-97E5-8651E71C721E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="12225" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="12225" tabRatio="245" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BINANCE" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <definedName name="progId">BINANCE!$H$1</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
   <si>
     <t>GDAX</t>
   </si>
@@ -183,9 +182,6 @@
     <t>INTERVAL</t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
     <t>Event_Time</t>
   </si>
   <si>
@@ -207,13 +203,7 @@
     <t>QUANTITY</t>
   </si>
   <si>
-    <t>15 Mins</t>
-  </si>
-  <si>
     <t>TRADE_TIME</t>
-  </si>
-  <si>
-    <t>1 Min</t>
   </si>
   <si>
     <t>open_24h</t>
@@ -235,6 +225,21 @@
   </si>
   <si>
     <t>Range</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>4 hour</t>
+  </si>
+  <si>
+    <t>12 hour</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>BTCUSDT</t>
   </si>
 </sst>
 </file>
@@ -355,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -414,30 +419,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -482,9 +463,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -509,10 +490,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,28 +498,27 @@
     <xf numFmtId="43" fontId="1" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="6"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="1" fillId="5" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="6" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="6" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
@@ -552,7 +529,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="107">
     <dxf>
       <font>
         <b val="0"/>
@@ -697,16 +674,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF7F7F7F"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -812,6 +779,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -865,6 +869,119 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -921,14 +1038,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -937,6 +1054,8 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -956,14 +1075,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -972,76 +1091,8 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1098,6 +1149,497 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="25" formatCode="h:mm"/>
       <fill>
         <patternFill patternType="solid">
@@ -1354,6 +1896,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -1405,43 +1971,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="26" formatCode="h:mm:ss"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -2920,7 +3449,7 @@
   <volType type="realTimeData">
     <main first="crypto">
       <tp>
-        <v>27985</v>
+        <v>24586</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -2928,15 +3457,7 @@
         <tr r="M8" s="1"/>
       </tp>
       <tp>
-        <v>1170</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>trxbtc</stp>
-        <stp>QUANTITY</stp>
-        <tr r="R11" s="1"/>
-      </tp>
-      <tp>
-        <v>28698</v>
+        <v>22285</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -2944,7 +3465,7 @@
         <tr r="M7" s="1"/>
       </tp>
       <tp>
-        <v>288233</v>
+        <v>219226</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -2952,7 +3473,7 @@
         <tr r="M6" s="1"/>
       </tp>
       <tp>
-        <v>190918</v>
+        <v>127795</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -2960,31 +3481,25 @@
         <tr r="M5" s="1"/>
       </tp>
       <tp>
-        <v>2.0750000000000001E-2</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>ethusdt</stp>
-        <stp>QUANTITY</stp>
-        <tr r="R5" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0000000000000001E-5</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>ltcusdt</stp>
-        <stp>QUANTITY</stp>
-        <tr r="R7" s="1"/>
-      </tp>
-      <tp>
-        <v>0.100006</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>btcusdt</stp>
-        <stp>QUANTITY</stp>
-        <tr r="R6" s="1"/>
-      </tp>
-      <tp>
-        <v>5</v>
+        <v>100.56131857</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>QUOTE_VOL</stp>
+        <stp>5</stp>
+        <tr r="I32" s="1"/>
+      </tp>
+      <tp>
+        <v>949.13351813999998</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>QUOTE_VOL</stp>
+        <stp>7</stp>
+        <tr r="I38" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -2992,7 +3507,7 @@
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>91159</v>
+        <v>5228</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3000,7 +3515,7 @@
         <tr r="J11" s="1"/>
       </tp>
       <tp>
-        <v>185</v>
+        <v>777</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3008,7 +3523,25 @@
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>319911.24</v>
+        <v>43248.333333333336</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>OPEN_TIME</stp>
+        <stp>10</stp>
+        <tr r="F42" s="1"/>
+      </tp>
+      <tp>
+        <v>43248.333333333336</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>OPEN_TIME</stp>
+        <stp>10</stp>
+        <tr r="F43" s="1"/>
+      </tp>
+      <tp>
+        <v>117652.83</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3016,7 +3549,7 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>1382308560</v>
+        <v>1396958761</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3024,221 +3557,123 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>41823814</v>
+        <v>34251798</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>VOL</stp>
         <tr r="K10" s="1"/>
       </tp>
-      <tp t="s">
-        <v>kline</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>btcusdt</stp>
-        <stp>Event</stp>
-        <stp>0</stp>
-        <tr r="O31" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>kline</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>btcusdt</stp>
-        <stp>Event</stp>
-        <stp>3</stp>
-        <tr r="O37" s="1"/>
-      </tp>
-      <tp>
-        <v>122.04</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>HIGH</stp>
-        <stp>0</stp>
-        <tr r="C32" s="1"/>
-      </tp>
-      <tp>
-        <v>122.23</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>HIGH</stp>
-        <stp>3</stp>
-        <tr r="C38" s="1"/>
-      </tp>
-      <tp>
-        <v>7523.66</v>
+      <tp>
+        <v>7214.55</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>HIGH</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="C31" s="1"/>
       </tp>
       <tp>
-        <v>7535</v>
+        <v>7243.39</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>HIGH</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="C37" s="1"/>
       </tp>
       <tp>
-        <v>585</v>
+        <v>524.86</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>HIGH</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="C30" s="1"/>
       </tp>
       <tp>
-        <v>586</v>
+        <v>533</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>HIGH</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="C36" s="1"/>
       </tp>
       <tp>
-        <v>122.04</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
+        <v>521.78</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
         <stp>OPEN</stp>
-        <stp>0</stp>
-        <tr r="B32" s="1"/>
-      </tp>
-      <tp>
-        <v>121.52</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
+        <stp>5</stp>
+        <tr r="B30" s="1"/>
+      </tp>
+      <tp>
+        <v>530.26</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
         <stp>OPEN</stp>
-        <stp>3</stp>
-        <tr r="B38" s="1"/>
-      </tp>
-      <tp>
-        <v>584.87</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ethusdt</stp>
-        <stp>OPEN</stp>
-        <stp>0</stp>
-        <tr r="B30" s="1"/>
-      </tp>
-      <tp>
-        <v>582.77</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ethusdt</stp>
-        <stp>OPEN</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="B36" s="1"/>
       </tp>
       <tp>
-        <v>7522.19</v>
+        <v>7195.22</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="B31" s="1"/>
       </tp>
       <tp>
-        <v>7483</v>
+        <v>7223.98</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="B37" s="1"/>
       </tp>
       <tp>
-        <v>82</v>
+        <v>4514</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TRADES</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="N31" s="1"/>
       </tp>
       <tp>
-        <v>4</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>TRADES</stp>
-        <stp>0</stp>
-        <tr r="N32" s="1"/>
-      </tp>
-      <tp>
-        <v>1756</v>
+        <v>25313</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TRADES</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="N37" s="1"/>
       </tp>
       <tp>
-        <v>131</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
+        <v>1162</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
         <stp>TRADES</stp>
-        <stp>3</stp>
-        <tr r="N38" s="1"/>
-      </tp>
-      <tp>
-        <v>34</v>
+        <stp>5</stp>
+        <tr r="N30" s="1"/>
+      </tp>
+      <tp>
+        <v>14920</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TRADES</stp>
-        <stp>0</stp>
-        <tr r="N30" s="1"/>
-      </tp>
-      <tp>
-        <v>989</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ethusdt</stp>
-        <stp>TRADES</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="N36" s="1"/>
       </tp>
-      <tp t="s">
-        <v>kline</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ethusdt</stp>
-        <stp>Event</stp>
-        <stp>3</stp>
-        <tr r="O36" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>kline</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ethusdt</stp>
-        <stp>Event</stp>
-        <stp>0</stp>
-        <tr r="O30" s="1"/>
-      </tp>
-      <tp>
-        <v>234</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>xrpusdt</stp>
-        <stp>QUANTITY</stp>
-        <tr r="R8" s="1"/>
-      </tp>
-      <tp>
-        <v>6.2520000000000006E-2</v>
+      <tp>
+        <v>-5.4440000000000002E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3246,7 +3681,7 @@
         <tr r="N8" s="1"/>
       </tp>
       <tp>
-        <v>3.4590000000000003E-2</v>
+        <v>-3.056E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3254,7 +3689,7 @@
         <tr r="N7" s="1"/>
       </tp>
       <tp>
-        <v>1.8259999999999998E-2</v>
+        <v>-6.5869999999999998E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3262,7 +3697,7 @@
         <tr r="N5" s="1"/>
       </tp>
       <tp>
-        <v>-2.9E-4</v>
+        <v>-1.1679999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3270,7 +3705,7 @@
         <tr r="N6" s="1"/>
       </tp>
       <tp>
-        <v>1.6990000000000002E-2</v>
+        <v>0.37648999999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3278,7 +3713,7 @@
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>7.1000000000000002E-4</v>
+        <v>3.6181999999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3286,7 +3721,7 @@
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>1.9913E-2</v>
+        <v>0.81162699999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3294,7 +3729,7 @@
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>2244.1233628300001</v>
+        <v>815.74687168000003</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3302,7 +3737,7 @@
         <tr r="L9" s="1"/>
       </tp>
       <tp>
-        <v>586.4</v>
+        <v>523.49</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -3310,7 +3745,7 @@
         <tr r="C3" s="2"/>
       </tp>
       <tp>
-        <v>585.87</v>
+        <v>523.48</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -3318,33 +3753,25 @@
         <tr r="B3" s="2"/>
       </tp>
       <tp>
-        <v>8</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>xrpbtc</stp>
-        <stp>QUANTITY</stp>
-        <tr r="R10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>kline</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>Event</stp>
-        <stp>0</stp>
-        <tr r="O32" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>kline</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>Event</stp>
-        <stp>3</stp>
-        <tr r="O38" s="1"/>
-      </tp>
-      <tp>
-        <v>7524.99</v>
+        <v>20699074.592894401</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>QUOTE_VOL</stp>
+        <stp>10</stp>
+        <tr r="I42" s="1"/>
+      </tp>
+      <tp>
+        <v>51790188.287897058</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>QUOTE_VOL</stp>
+        <stp>10</stp>
+        <tr r="I43" s="1"/>
+      </tp>
+      <tp>
+        <v>7222.36</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -3352,7 +3779,7 @@
         <tr r="B4" s="2"/>
       </tp>
       <tp>
-        <v>4879</v>
+        <v>150</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3360,7 +3787,34 @@
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>7525</v>
+        <v>43248.625</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>OPEN_TIME</stp>
+        <stp>5</stp>
+        <tr r="F32" s="1"/>
+      </tp>
+      <tp>
+        <v>43248.5</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>OPEN_TIME</stp>
+        <stp>7</stp>
+        <tr r="F38" s="1"/>
+      </tp>
+      <tp>
+        <v>126806735</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>TAKE_BUY_VOL</stp>
+        <stp>10</stp>
+        <tr r="K44" s="1"/>
+      </tp>
+      <tp>
+        <v>7222.37</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -3368,7 +3822,7 @@
         <tr r="C4" s="2"/>
       </tp>
       <tp>
-        <v>7269</v>
+        <v>7167.99</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -3376,97 +3830,115 @@
         <tr r="G4" s="2"/>
       </tp>
       <tp>
-        <v>8.0156700000000001</v>
+        <v>28717831</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>LAST_ID</stp>
+        <stp>7</stp>
+        <tr r="Q38" s="1"/>
+      </tp>
+      <tp>
+        <v>28717831</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>LAST_ID</stp>
+        <stp>5</stp>
+        <tr r="Q32" s="1"/>
+      </tp>
+      <tp>
+        <v>9.0399999999999998E-6</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>HIGH</stp>
+        <stp>10</stp>
+        <tr r="C44" s="1"/>
+      </tp>
+      <tp>
+        <v>597.50694999999996</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="K30" s="1"/>
       </tp>
       <tp>
-        <v>822.61923999999999</v>
+        <v>6209.1530199999997</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="K36" s="1"/>
       </tp>
       <tp>
-        <v>1.1584190000000001</v>
+        <v>168.387643</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="K31" s="1"/>
       </tp>
       <tp>
-        <v>171.80895899999999</v>
+        <v>1562.624771</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="K37" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>TAKE_BUY_VOL</stp>
-        <stp>0</stp>
-        <tr r="K32" s="1"/>
-      </tp>
-      <tp>
-        <v>142.33655999999999</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>TAKE_BUY_VOL</stp>
-        <stp>3</stp>
-        <tr r="K38" s="1"/>
-      </tp>
-      <tp>
-        <v>45561112</v>
+        <v>29250034.49139104</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>TAKE_BUY_QUOTE_VOL</stp>
+        <stp>10</stp>
+        <tr r="L43" s="1"/>
+      </tp>
+      <tp>
+        <v>46457243</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LAST_ID</stp>
-        <stp>0</stp>
-        <tr r="R31" s="1"/>
-      </tp>
-      <tp>
-        <v>45561112</v>
+        <stp>5</stp>
+        <tr r="Q31" s="1"/>
+      </tp>
+      <tp>
+        <v>46457243</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LAST_ID</stp>
-        <stp>3</stp>
-        <tr r="R37" s="1"/>
-      </tp>
-      <tp>
-        <v>7507893</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>LAST_ID</stp>
-        <stp>3</stp>
-        <tr r="R38" s="1"/>
-      </tp>
-      <tp>
-        <v>7507893</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>LAST_ID</stp>
-        <stp>0</stp>
-        <tr r="R32" s="1"/>
-      </tp>
-      <tp>
-        <v>8.2369999999999999E-5</v>
+        <stp>7</stp>
+        <tr r="Q37" s="1"/>
+      </tp>
+      <tp>
+        <v>1120.39053597</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>TAKE_BUY_QUOTE_VOL</stp>
+        <stp>10</stp>
+        <tr r="L44" s="1"/>
+      </tp>
+      <tp>
+        <v>8.8899999999999996E-6</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>OPEN</stp>
+        <stp>10</stp>
+        <tr r="B44" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9010000000000004E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3474,7 +3946,7 @@
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>9.5300000000000002E-6</v>
+        <v>8.7299999999999994E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3482,7 +3954,7 @@
         <tr r="I11" s="1"/>
       </tp>
       <tp>
-        <v>7.1479999999999998E-3</v>
+        <v>6.8069999999999997E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3490,7 +3962,7 @@
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>7.1399999999999996E-3</v>
+        <v>6.803E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3498,7 +3970,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>9.5200000000000003E-6</v>
+        <v>8.7199999999999995E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3506,7 +3978,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>8.2360000000000004E-5</v>
+        <v>7.8930000000000005E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3514,7 +3986,16 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>1067</v>
+        <v>43248.83333332176</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>CLOSE_TIME</stp>
+        <stp>10</stp>
+        <tr r="G42" s="1"/>
+      </tp>
+      <tp>
+        <v>1260</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3522,7 +4003,7 @@
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>545.36</v>
+        <v>517</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -3530,25 +4011,25 @@
         <tr r="G3" s="2"/>
       </tp>
       <tp>
-        <v>26179535</v>
+        <v>26604229</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LAST_ID</stp>
-        <stp>3</stp>
-        <tr r="R36" s="1"/>
-      </tp>
-      <tp>
-        <v>26179535</v>
+        <stp>7</stp>
+        <tr r="Q36" s="1"/>
+      </tp>
+      <tp>
+        <v>26604229</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LAST_ID</stp>
-        <stp>0</stp>
-        <tr r="R30" s="1"/>
-      </tp>
-      <tp>
-        <v>6.8490000000000001E-3</v>
+        <stp>5</stp>
+        <tr r="Q30" s="1"/>
+      </tp>
+      <tp>
+        <v>6.7749999999999998E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3556,7 +4037,7 @@
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>8.6999999999999997E-6</v>
+        <v>8.6300000000000004E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3564,7 +4045,7 @@
         <tr r="B11" s="1"/>
       </tp>
       <tp>
-        <v>7.7150000000000005E-5</v>
+        <v>7.8319999999999996E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3572,15 +4053,16 @@
         <tr r="B10" s="1"/>
       </tp>
       <tp>
-        <v>2.0299999999999998</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>neobtc</stp>
-        <stp>QUANTITY</stp>
-        <tr r="R9" s="1"/>
-      </tp>
-      <tp>
-        <v>7.3</v>
+        <v>10589444.745726001</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>TAKE_BUY_QUOTE_VOL</stp>
+        <stp>10</stp>
+        <tr r="L42" s="1"/>
+      </tp>
+      <tp>
+        <v>16.09</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3588,7 +4070,7 @@
         <tr r="J9" s="1"/>
       </tp>
       <tp>
-        <v>264757</v>
+        <v>181676</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3596,7 +4078,7 @@
         <tr r="F11" s="1"/>
       </tp>
       <tp>
-        <v>650</v>
+        <v>50</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3604,7 +4086,25 @@
         <tr r="J8" s="1"/>
       </tp>
       <tp>
-        <v>5</v>
+        <v>43248.83333332176</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>CLOSE_TIME</stp>
+        <stp>10</stp>
+        <tr r="G44" s="1"/>
+      </tp>
+      <tp>
+        <v>43248.83333332176</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>CLOSE_TIME</stp>
+        <stp>10</stp>
+        <tr r="G43" s="1"/>
+      </tp>
+      <tp>
+        <v>0.51</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3612,7 +4112,7 @@
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>2.4653740000000002</v>
+        <v>6.1897000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3620,7 +4120,7 @@
         <tr r="J6" s="1"/>
       </tp>
       <tp>
-        <v>0.48960999999999999</v>
+        <v>2.5760000000000002E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3628,7 +4128,7 @@
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>3365.8081833599999</v>
+        <v>2761.8157205100001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3636,7 +4136,25 @@
         <tr r="L10" s="1"/>
       </tp>
       <tp>
-        <v>12808.29402322</v>
+        <v>46457243</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>LAST_ID</stp>
+        <stp>10</stp>
+        <tr r="Q43" s="1"/>
+      </tp>
+      <tp>
+        <v>26604229</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>LAST_ID</stp>
+        <stp>10</stp>
+        <tr r="Q42" s="1"/>
+      </tp>
+      <tp>
+        <v>12656.64080492</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3644,7 +4162,7 @@
         <tr r="L11" s="1"/>
       </tp>
       <tp>
-        <v>525389</v>
+        <v>613861</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -3652,7 +4170,25 @@
         <tr r="M18" s="1"/>
       </tp>
       <tp>
-        <v>1.6000000000000001E-3</v>
+        <v>8.7700000000000007E-6</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>OPEN</stp>
+        <stp>7</stp>
+        <tr r="B38" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7099999999999996E-6</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>OPEN</stp>
+        <stp>5</stp>
+        <tr r="B32" s="1"/>
+      </tp>
+      <tp>
+        <v>1.06E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3660,7 +4196,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp t="b">
-        <v>0</v>
+        <v>1</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -3668,7 +4204,7 @@
         <tr r="K21" s="1"/>
       </tp>
       <tp>
-        <v>0.11</v>
+        <v>0.15</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3676,7 +4212,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>5.97</v>
+        <v>4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3684,7 +4220,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>0.01</v>
+        <v>0.38</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3692,7 +4228,16 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>2242</v>
+        <v>46393132</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>FIRST_ID</stp>
+        <stp>10</stp>
+        <tr r="P43" s="1"/>
+      </tp>
+      <tp>
+        <v>20</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -3700,7 +4245,34 @@
         <tr r="J20" s="1"/>
       </tp>
       <tp>
-        <v>13359620</v>
+        <v>844</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>TRADES</stp>
+        <stp>5</stp>
+        <tr r="N32" s="1"/>
+      </tp>
+      <tp>
+        <v>8379</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>TRADES</stp>
+        <stp>7</stp>
+        <tr r="N38" s="1"/>
+      </tp>
+      <tp>
+        <v>26569406</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>FIRST_ID</stp>
+        <stp>10</stp>
+        <tr r="P42" s="1"/>
+      </tp>
+      <tp>
+        <v>13472636</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -3708,7 +4280,16 @@
         <tr r="H19" s="1"/>
       </tp>
       <tp>
-        <v>28364050</v>
+        <v>43248.333333333336</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>OPEN_TIME</stp>
+        <stp>10</stp>
+        <tr r="F44" s="1"/>
+      </tp>
+      <tp>
+        <v>28717831</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -3716,23 +4297,7 @@
         <tr r="M21" s="1"/>
       </tp>
       <tp>
-        <v>121.2</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>ltcusdt</stp>
-        <stp>PRICE</stp>
-        <tr r="Q7" s="1"/>
-      </tp>
-      <tp>
-        <v>7513.99</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>btcusdt</stp>
-        <stp>PRICE</stp>
-        <tr r="Q6" s="1"/>
-      </tp>
-      <tp>
-        <v>45561115</v>
+        <v>46457245</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3740,7 +4305,7 @@
         <tr r="M16" s="1"/>
       </tp>
       <tp>
-        <v>7507892</v>
+        <v>7600750</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3748,15 +4313,33 @@
         <tr r="M17" s="1"/>
       </tp>
       <tp>
-        <v>26179535</v>
+        <v>26604229</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>FIRST_ID</stp>
         <tr r="M15" s="1"/>
       </tp>
+      <tp>
+        <v>8.8400000000000001E-6</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>HIGH</stp>
+        <stp>7</stp>
+        <tr r="C38" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7600000000000008E-6</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>HIGH</stp>
+        <stp>5</stp>
+        <tr r="C32" s="1"/>
+      </tp>
       <tp t="b">
-        <v>0</v>
+        <v>1</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -3764,15 +4347,33 @@
         <tr r="K20" s="1"/>
       </tp>
       <tp>
-        <v>20875653</v>
+        <v>21046335</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>FIRST_ID</stp>
         <tr r="M20" s="1"/>
       </tp>
-      <tp>
-        <v>0.95</v>
+      <tp t="s">
+        <v>TwelfHour</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>INTERVAL</stp>
+        <stp>10</stp>
+        <tr r="M43" s="1"/>
+      </tp>
+      <tp>
+        <v>2587.28489614</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>QUOTE_VOL</stp>
+        <stp>10</stp>
+        <tr r="I44" s="1"/>
+      </tp>
+      <tp>
+        <v>1351.75</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -3780,7 +4381,7 @@
         <tr r="J18" s="1"/>
       </tp>
       <tp>
-        <v>525389</v>
+        <v>613861</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -3796,7 +4397,7 @@
         <tr r="L19" s="1"/>
       </tp>
       <tp>
-        <v>1.99E-3</v>
+        <v>0.42693999999999999</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3804,15 +4405,7 @@
         <tr r="J15" s="1"/>
       </tp>
       <tp>
-        <v>584.29999999999995</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>ethusdt</stp>
-        <stp>PRICE</stp>
-        <tr r="Q5" s="1"/>
-      </tp>
-      <tp>
-        <v>6.6740000000000002E-3</v>
+        <v>2.2717860000000001</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3820,15 +4413,24 @@
         <tr r="J16" s="1"/>
       </tp>
       <tp>
-        <v>8.4945199999999996</v>
+        <v>1.387E-2</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>QUANTITY</stp>
         <tr r="J17" s="1"/>
       </tp>
-      <tp>
-        <v>0.10001</v>
+      <tp t="s">
+        <v>TwelfHour</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>INTERVAL</stp>
+        <stp>10</stp>
+        <tr r="M42" s="1"/>
+      </tp>
+      <tp>
+        <v>0.5</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3837,7 +4439,7 @@
         <tr r="E23" s="1"/>
       </tp>
       <tp>
-        <v>15</v>
+        <v>0.21373</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3846,7 +4448,7 @@
         <tr r="E24" s="1"/>
       </tp>
       <tp>
-        <v>3.9999899999999999</v>
+        <v>6.4930000000000002E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3855,7 +4457,7 @@
         <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>0.28222999999999998</v>
+        <v>66.909000000000006</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3864,7 +4466,7 @@
         <tr r="E20" s="1"/>
       </tp>
       <tp>
-        <v>0.6</v>
+        <v>0.19781000000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3873,7 +4475,7 @@
         <tr r="E21" s="1"/>
       </tp>
       <tp>
-        <v>2.4588299999999998</v>
+        <v>0.40294999999999997</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3882,7 +4484,7 @@
         <tr r="E22" s="1"/>
       </tp>
       <tp>
-        <v>0.48960999999999999</v>
+        <v>2.5760000000000002E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3891,7 +4493,7 @@
         <tr r="E15" s="1"/>
       </tp>
       <tp>
-        <v>1.0240899999999999</v>
+        <v>147.21770000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3900,7 +4502,7 @@
         <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>1.8242799999999999</v>
+        <v>1.6000000000000001E-4</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3909,7 +4511,7 @@
         <tr r="E17" s="1"/>
       </tp>
       <tp>
-        <v>4.1000000000000002E-2</v>
+        <v>4.5999999999999999E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -3918,7 +4520,7 @@
         <tr r="E18" s="1"/>
       </tp>
       <tp>
-        <v>5897</v>
+        <v>67</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -3926,7 +4528,7 @@
         <tr r="J21" s="1"/>
       </tp>
       <tp>
-        <v>43244.571259594908</v>
+        <v>43248.642275405095</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -3934,7 +4536,7 @@
         <tr r="O18" s="1"/>
       </tp>
       <tp>
-        <v>43244.571162418979</v>
+        <v>43248.642332708332</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -3942,7 +4544,7 @@
         <tr r="O17" s="1"/>
       </tp>
       <tp>
-        <v>43244.571248148146</v>
+        <v>43248.642474513887</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -3950,7 +4552,7 @@
         <tr r="O15" s="1"/>
       </tp>
       <tp>
-        <v>43244.571267326392</v>
+        <v>43248.642458622686</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3958,7 +4560,7 @@
         <tr r="O16" s="1"/>
       </tp>
       <tp>
-        <v>45561115</v>
+        <v>46457245</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -3966,7 +4568,7 @@
         <tr r="N16" s="1"/>
       </tp>
       <tp>
-        <v>15084168</v>
+        <v>15215591</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -3974,7 +4576,7 @@
         <tr r="N19" s="1"/>
       </tp>
       <tp>
-        <v>20875654</v>
+        <v>21046336</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -3982,7 +4584,7 @@
         <tr r="N20" s="1"/>
       </tp>
       <tp>
-        <v>17246029</v>
+        <v>17395594</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -3990,29 +4592,38 @@
         <tr r="H20" s="1"/>
       </tp>
       <tp>
-        <v>28364051</v>
+        <v>28717831</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>LAST_ID</stp>
         <tr r="N21" s="1"/>
       </tp>
-      <tp>
-        <v>584.99</v>
+      <tp t="s">
+        <v>&lt;?&gt;</v>
+        <stp/>
+        <stp>BINANCE_HISTORY</stp>
+        <stp>BTCUSDT</stp>
+        <stp>a,b,c</stp>
+        <stp>10</stp>
+        <tr r="Q4" s="1"/>
+      </tp>
+      <tp>
+        <v>523.11</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="E30" s="1"/>
       </tp>
       <tp>
-        <v>584.99</v>
+        <v>523.11</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="E36" s="1"/>
       </tp>
       <tp t="b">
@@ -4024,15 +4635,7 @@
         <tr r="L20" s="1"/>
       </tp>
       <tp>
-        <v>0.61489000000000005</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>xrpusdt</stp>
-        <stp>PRICE</stp>
-        <tr r="Q8" s="1"/>
-      </tp>
-      <tp>
-        <v>2.72</v>
+        <v>1.22</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -4040,25 +4643,25 @@
         <tr r="J19" s="1"/>
       </tp>
       <tp>
-        <v>7521</v>
+        <v>7206.62</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="E37" s="1"/>
       </tp>
       <tp>
-        <v>7521</v>
+        <v>7206.62</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="E31" s="1"/>
       </tp>
       <tp t="b">
-        <v>1</v>
+        <v>0</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -4066,33 +4669,42 @@
         <tr r="K19" s="1"/>
       </tp>
       <tp>
-        <v>26179535</v>
+        <v>26604231</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>LAST_ID</stp>
         <tr r="N15" s="1"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>FINAL</stp>
-        <stp>3</stp>
-        <tr r="H38" s="1"/>
-      </tp>
-      <tp t="b">
-        <v>0</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>FINAL</stp>
-        <stp>0</stp>
-        <tr r="H32" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1</v>
+      <tp>
+        <v>43248.642482025462</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>Event_Time</stp>
+        <stp>10</stp>
+        <tr r="O44" s="1"/>
+      </tp>
+      <tp>
+        <v>44154469</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>TAKE_BUY_VOL</stp>
+        <stp>7</stp>
+        <tr r="K38" s="1"/>
+      </tp>
+      <tp>
+        <v>6232709</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>TAKE_BUY_VOL</stp>
+        <stp>5</stp>
+        <tr r="K32" s="1"/>
+      </tp>
+      <tp>
+        <v>18.098939999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4101,7 +4713,7 @@
         <tr r="A23" s="1"/>
       </tp>
       <tp>
-        <v>0.1</v>
+        <v>6.0957600000000003</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4110,7 +4722,7 @@
         <tr r="A24" s="1"/>
       </tp>
       <tp>
-        <v>3.8422100000000001</v>
+        <v>0.30599999999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4119,7 +4731,7 @@
         <tr r="A19" s="1"/>
       </tp>
       <tp>
-        <v>11</v>
+        <v>12.792199999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4128,7 +4740,7 @@
         <tr r="A20" s="1"/>
       </tp>
       <tp>
-        <v>0.12</v>
+        <v>1.4478800000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4137,7 +4749,7 @@
         <tr r="A21" s="1"/>
       </tp>
       <tp>
-        <v>0.14000000000000001</v>
+        <v>0.68416999999999994</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4146,7 +4758,7 @@
         <tr r="A22" s="1"/>
       </tp>
       <tp>
-        <v>1.6990000000000002E-2</v>
+        <v>0.37648999999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4155,7 +4767,7 @@
         <tr r="A15" s="1"/>
       </tp>
       <tp>
-        <v>0.31977</v>
+        <v>0.35627999999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4164,7 +4776,7 @@
         <tr r="A16" s="1"/>
       </tp>
       <tp>
-        <v>4.1000000000000002E-2</v>
+        <v>3.2919100000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4173,7 +4785,7 @@
         <tr r="A17" s="1"/>
       </tp>
       <tp>
-        <v>1</v>
+        <v>11.045999999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4182,7 +4794,7 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>14596.225927150001</v>
+        <v>6328.13792724</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4190,20 +4802,29 @@
         <tr r="H4" s="2"/>
       </tp>
       <tp>
-        <v>177296.53594505999</v>
+        <v>95034.089917260004</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
         <stp>volume_24h</stp>
         <tr r="H3" s="2"/>
       </tp>
+      <tp>
+        <v>43248.642458287039</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>Event_Time</stp>
+        <stp>10</stp>
+        <tr r="O43" s="1"/>
+      </tp>
       <tp t="b">
         <v>0</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>FINAL</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="H37" s="1"/>
       </tp>
       <tp t="b">
@@ -4212,17 +4833,26 @@
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>FINAL</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="H31" s="1"/>
       </tp>
       <tp>
-        <v>476906</v>
+        <v>558578</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>TRADE_ID</stp>
         <tr r="H18" s="1"/>
       </tp>
+      <tp>
+        <v>28717831</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>LAST_ID</stp>
+        <stp>10</stp>
+        <tr r="Q44" s="1"/>
+      </tp>
       <tp t="b">
         <v>1</v>
         <stp/>
@@ -4232,25 +4862,7 @@
         <tr r="L21" s="1"/>
       </tp>
       <tp>
-        <v>122.04</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>CLOSE</stp>
-        <stp>3</stp>
-        <tr r="E38" s="1"/>
-      </tp>
-      <tp>
-        <v>122.04</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>CLOSE</stp>
-        <stp>0</stp>
-        <tr r="E32" s="1"/>
-      </tp>
-      <tp>
-        <v>39639125</v>
+        <v>40484473</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4258,7 +4870,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>6611955</v>
+        <v>6697405</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4266,7 +4878,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>23238787</v>
+        <v>23622527</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4274,7 +4886,16 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>17602569</v>
+        <v>43248.64247457176</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>Event_Time</stp>
+        <stp>10</stp>
+        <tr r="O42" s="1"/>
+      </tp>
+      <tp>
+        <v>17818586</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -4287,7 +4908,7 @@
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>FINAL</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="H30" s="1"/>
       </tp>
       <tp t="b">
@@ -4296,11 +4917,11 @@
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>FINAL</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="H36" s="1"/>
       </tp>
       <tp>
-        <v>7507893</v>
+        <v>7600750</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4308,7 +4929,7 @@
         <tr r="N17" s="1"/>
       </tp>
       <tp>
-        <v>15084168</v>
+        <v>15215591</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -4316,15 +4937,24 @@
         <tr r="M19" s="1"/>
       </tp>
       <tp>
-        <v>63857</v>
+        <v>45226</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>TRADES</stp>
         <tr r="M10" s="1"/>
       </tp>
-      <tp>
-        <v>550</v>
+      <tp t="s">
+        <v>TwelfHour</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>INTERVAL</stp>
+        <stp>10</stp>
+        <tr r="M44" s="1"/>
+      </tp>
+      <tp>
+        <v>520.26</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4332,7 +4962,7 @@
         <tr r="B5" s="1"/>
       </tp>
       <tp>
-        <v>3.6470000000000002E-2</v>
+        <v>-3.2719999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4340,7 +4970,7 @@
         <tr r="O8" s="1"/>
       </tp>
       <tp>
-        <v>1.9599999999999999E-4</v>
+        <v>-3.1E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4348,33 +4978,25 @@
         <tr r="O9" s="1"/>
       </tp>
       <tp>
-        <v>1227.5509500000001</v>
+        <v>12704.13386</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>VOL</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="J36" s="1"/>
       </tp>
       <tp>
-        <v>12.77168</v>
+        <v>954.78896999999995</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>VOL</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="J30" s="1"/>
       </tp>
       <tp>
-        <v>7.0920000000000002E-3</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>neobtc</stp>
-        <stp>PRICE</stp>
-        <tr r="Q9" s="1"/>
-      </tp>
-      <tp>
-        <v>10.49</v>
+        <v>-36.89</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4382,7 +5004,7 @@
         <tr r="O5" s="1"/>
       </tp>
       <tp>
-        <v>4.08</v>
+        <v>-3.58</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4390,7 +5012,7 @@
         <tr r="O7" s="1"/>
       </tp>
       <tp>
-        <v>-2.17</v>
+        <v>-85.17</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4398,7 +5020,7 @@
         <tr r="O6" s="1"/>
       </tp>
       <tp>
-        <v>122.09</v>
+        <v>113.73</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4406,7 +5028,16 @@
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>7266.99</v>
+        <v>23445</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>TRADES</stp>
+        <stp>10</stp>
+        <tr r="N44" s="1"/>
+      </tp>
+      <tp>
+        <v>7148.16</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4414,7 +5045,7 @@
         <tr r="B6" s="1"/>
       </tp>
       <tp>
-        <v>121.98</v>
+        <v>113.58</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4422,7 +5053,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>16672061.42</v>
+        <v>28371404.219999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4430,7 +5061,16 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>6.0650000000000003E-2</v>
+        <v>64112</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>TRADES</stp>
+        <stp>10</stp>
+        <tr r="N43" s="1"/>
+      </tp>
+      <tp>
+        <v>-4.1840000000000002E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4438,7 +5078,7 @@
         <tr r="N10" s="1"/>
       </tp>
       <tp>
-        <v>0.61985000000000001</v>
+        <v>0.56835999999999998</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -4446,7 +5086,16 @@
         <tr r="I18" s="1"/>
       </tp>
       <tp>
-        <v>0.63200000000000001</v>
+        <v>28694387</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>FIRST_ID</stp>
+        <stp>10</stp>
+        <tr r="P44" s="1"/>
+      </tp>
+      <tp>
+        <v>0.60909999999999997</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4454,61 +5103,43 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>43244.571162534725</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>Event_Time</stp>
-        <stp>3</stp>
-        <tr r="P38" s="1"/>
-      </tp>
-      <tp>
-        <v>43244.571257858799</v>
+        <v>43248.642458287039</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>Event_Time</stp>
-        <stp>3</stp>
-        <tr r="P37" s="1"/>
-      </tp>
-      <tp>
-        <v>43244.571162534725</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>Event_Time</stp>
-        <stp>0</stp>
-        <tr r="P32" s="1"/>
-      </tp>
-      <tp>
-        <v>43244.571257824071</v>
+        <stp>7</stp>
+        <tr r="O37" s="1"/>
+      </tp>
+      <tp>
+        <v>43248.642458287039</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>Event_Time</stp>
-        <stp>0</stp>
-        <tr r="P31" s="1"/>
-      </tp>
-      <tp>
-        <v>43244.571248159722</v>
+        <stp>5</stp>
+        <tr r="O31" s="1"/>
+      </tp>
+      <tp>
+        <v>43248.64247457176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>Event_Time</stp>
-        <stp>3</stp>
-        <tr r="P36" s="1"/>
-      </tp>
-      <tp>
-        <v>43244.571248159722</v>
+        <stp>7</stp>
+        <tr r="O36" s="1"/>
+      </tp>
+      <tp>
+        <v>43248.64247457176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>Event_Time</stp>
-        <stp>0</stp>
-        <tr r="P30" s="1"/>
-      </tp>
-      <tp>
-        <v>127172</v>
+        <stp>5</stp>
+        <tr r="O30" s="1"/>
+      </tp>
+      <tp>
+        <v>104529</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4516,7 +5147,7 @@
         <tr r="M11" s="1"/>
       </tp>
       <tp>
-        <v>114.7</v>
+        <v>111.34</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4524,43 +5155,25 @@
         <tr r="B7" s="1"/>
       </tp>
       <tp>
-        <v>14.094797</v>
+        <v>279.08703100000002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>VOL</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="J31" s="1"/>
       </tp>
       <tp>
-        <v>330.70457199999998</v>
+        <v>2589.4488510000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>VOL</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="J37" s="1"/>
       </tp>
       <tp>
-        <v>457.14715000000001</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>VOL</stp>
-        <stp>3</stp>
-        <tr r="J38" s="1"/>
-      </tp>
-      <tp>
-        <v>11.49614</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>VOL</stp>
-        <stp>0</stp>
-        <tr r="J32" s="1"/>
-      </tp>
-      <tp>
-        <v>7515.03</v>
+        <v>7204.62</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4568,7 +5181,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>7.1659999999999996E-3</v>
+        <v>7.1999999999999998E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4576,7 +5189,43 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>7521</v>
+        <v>108455087</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>VOL</stp>
+        <stp>7</stp>
+        <tr r="J38" s="1"/>
+      </tp>
+      <tp>
+        <v>11528260</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>VOL</stp>
+        <stp>5</stp>
+        <tr r="J32" s="1"/>
+      </tp>
+      <tp>
+        <v>523.11</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>CLOSE</stp>
+        <stp>10</stp>
+        <tr r="E42" s="1"/>
+      </tp>
+      <tp>
+        <v>7206.62</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>CLOSE</stp>
+        <stp>10</stp>
+        <tr r="E43" s="1"/>
+      </tp>
+      <tp>
+        <v>7208.62</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4584,7 +5233,16 @@
         <tr r="I6" s="1"/>
       </tp>
       <tp>
-        <v>585</v>
+        <v>34824</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>TRADES</stp>
+        <stp>10</stp>
+        <tr r="N42" s="1"/>
+      </tp>
+      <tp>
+        <v>523.49</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4592,7 +5250,7 @@
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>7730.73</v>
+        <v>7437</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4600,7 +5258,7 @@
         <tr r="C6" s="1"/>
       </tp>
       <tp>
-        <v>123.7</v>
+        <v>118.97</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4608,7 +5266,7 @@
         <tr r="C7" s="1"/>
       </tp>
       <tp>
-        <v>612.1</v>
+        <v>576.20000000000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4616,61 +5274,43 @@
         <tr r="C5" s="1"/>
       </tp>
       <tp t="s">
-        <v>OneMinute</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>INTERVAL</stp>
-        <stp>0</stp>
-        <tr r="M32" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>FiveteenMinutes</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>INTERVAL</stp>
-        <stp>3</stp>
-        <tr r="M38" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>OneMinute</v>
+        <v>OneHour</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>INTERVAL</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="M31" s="1"/>
       </tp>
       <tp t="s">
-        <v>FiveteenMinutes</v>
+        <v>FourHour</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>INTERVAL</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="M37" s="1"/>
       </tp>
       <tp t="s">
-        <v>OneMinute</v>
+        <v>OneHour</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>INTERVAL</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="M30" s="1"/>
       </tp>
       <tp t="s">
-        <v>FiveteenMinutes</v>
+        <v>FourHour</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>INTERVAL</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="M36" s="1"/>
       </tp>
       <tp>
-        <v>8.6660000000000001E-2</v>
+        <v>-7.3249999999999996E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4678,7 +5318,16 @@
         <tr r="N11" s="1"/>
       </tp>
       <tp>
-        <v>584.99</v>
+        <v>520.26</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>LOW</stp>
+        <stp>10</stp>
+        <tr r="D42" s="1"/>
+      </tp>
+      <tp>
+        <v>523.11</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4686,61 +5335,88 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>45559357</v>
+        <v>7148.16</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>LOW</stp>
+        <stp>10</stp>
+        <tr r="D43" s="1"/>
+      </tp>
+      <tp>
+        <v>38994.013830000004</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>VOL</stp>
+        <stp>10</stp>
+        <tr r="J42" s="1"/>
+      </tp>
+      <tp>
+        <v>7164.9058009999999</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>VOL</stp>
+        <stp>10</stp>
+        <tr r="J43" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>0</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>FINAL</stp>
+        <stp>10</stp>
+        <tr r="H42" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>0</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>FINAL</stp>
+        <stp>10</stp>
+        <tr r="H43" s="1"/>
+      </tp>
+      <tp>
+        <v>46431931</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>FIRST_ID</stp>
-        <stp>3</stp>
-        <tr r="Q37" s="1"/>
-      </tp>
-      <tp>
-        <v>45561031</v>
+        <stp>7</stp>
+        <tr r="P37" s="1"/>
+      </tp>
+      <tp>
+        <v>46452730</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>FIRST_ID</stp>
-        <stp>0</stp>
-        <tr r="Q31" s="1"/>
-      </tp>
-      <tp>
-        <v>26178547</v>
+        <stp>5</stp>
+        <tr r="P31" s="1"/>
+      </tp>
+      <tp>
+        <v>26589310</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>FIRST_ID</stp>
-        <stp>3</stp>
-        <tr r="Q36" s="1"/>
-      </tp>
-      <tp>
-        <v>26179502</v>
+        <stp>7</stp>
+        <tr r="P36" s="1"/>
+      </tp>
+      <tp>
+        <v>26603068</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>FIRST_ID</stp>
-        <stp>0</stp>
-        <tr r="Q30" s="1"/>
-      </tp>
-      <tp>
-        <v>7507763</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>FIRST_ID</stp>
-        <stp>3</stp>
-        <tr r="Q38" s="1"/>
-      </tp>
-      <tp>
-        <v>7507890</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>FIRST_ID</stp>
-        <stp>0</stp>
-        <tr r="Q32" s="1"/>
-      </tp>
-      <tp>
-        <v>0.61985999999999997</v>
+        <stp>5</stp>
+        <tr r="P30" s="1"/>
+      </tp>
+      <tp>
+        <v>0.56947000000000003</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4748,61 +5424,43 @@
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>43244.572916655095</v>
+        <v>43248.666666655095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE_TIME</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="G36" s="1"/>
       </tp>
       <tp>
-        <v>43244.571527766202</v>
+        <v>43248.666666655095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE_TIME</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="G30" s="1"/>
       </tp>
       <tp>
-        <v>43244.572916655095</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>CLOSE_TIME</stp>
-        <stp>3</stp>
-        <tr r="G38" s="1"/>
-      </tp>
-      <tp>
-        <v>43244.572916655095</v>
+        <v>43248.666666655095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE_TIME</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="G37" s="1"/>
       </tp>
       <tp>
-        <v>43244.571527766202</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>CLOSE_TIME</stp>
-        <stp>0</stp>
-        <tr r="G32" s="1"/>
-      </tp>
-      <tp>
-        <v>43244.571527766202</v>
+        <v>43248.666666655095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE_TIME</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="G31" s="1"/>
       </tp>
       <tp>
-        <v>9.6600000000000007E-6</v>
+        <v>9.5799999999999998E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4810,7 +5468,7 @@
         <tr r="C11" s="1"/>
       </tp>
       <tp>
-        <v>98282.038669999994</v>
+        <v>84491.010290000006</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4818,7 +5476,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>0.61826000000000003</v>
+        <v>0.56840999999999997</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4826,51 +5484,61 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>122.04</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
+        <v>8.6999999999999997E-6</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
         <stp>LOW</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="D32" s="1"/>
       </tp>
       <tp>
-        <v>121.27</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
+        <v>8.6999999999999997E-6</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
         <stp>LOW</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="D38" s="1"/>
       </tp>
-      <tp>
-        <v>7481.94</v>
+      <tp t="b">
+        <v>0</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>FINAL</stp>
+        <stp>7</stp>
+        <tr r="H38" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>0</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>FINAL</stp>
+        <stp>5</stp>
+        <tr r="H32" s="1"/>
+      </tp>
+      <tp>
+        <v>7175.23</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LOW</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="D37" s="1"/>
       </tp>
       <tp>
-        <v>7515</v>
+        <v>7188</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LOW</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="D31" s="1"/>
       </tp>
       <tp>
-        <v>9.4599999999999992E-6</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>trxbtc</stp>
-        <stp>PRICE</stp>
-        <tr r="Q11" s="1"/>
-      </tp>
-      <tp>
-        <v>4.7099999999999998E-6</v>
+        <v>-3.45E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4878,15 +5546,7 @@
         <tr r="O10" s="1"/>
       </tp>
       <tp>
-        <v>8.2559999999999996E-5</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>xrpbtc</stp>
-        <stp>PRICE</stp>
-        <tr r="Q10" s="1"/>
-      </tp>
-      <tp>
-        <v>7515.03</v>
+        <v>7204.63</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4894,7 +5554,7 @@
         <tr r="I16" s="1"/>
       </tp>
       <tp>
-        <v>122.04</v>
+        <v>113.58</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4902,7 +5562,7 @@
         <tr r="I17" s="1"/>
       </tp>
       <tp>
-        <v>2.8219999999999999E-2</v>
+        <v>-4.3560000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4910,7 +5570,7 @@
         <tr r="N9" s="1"/>
       </tp>
       <tp>
-        <v>7.6000000000000003E-7</v>
+        <v>-6.8999999999999996E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4918,25 +5578,25 @@
         <tr r="O11" s="1"/>
       </tp>
       <tp>
-        <v>584.80999999999995</v>
+        <v>520.26</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LOW</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="D30" s="1"/>
       </tp>
       <tp>
-        <v>582.6</v>
+        <v>520.26</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LOW</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="D36" s="1"/>
       </tp>
       <tp>
-        <v>245039.79159000001</v>
+        <v>139738.88795</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4944,7 +5604,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>43083.231771999999</v>
+        <v>24683.551762999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4952,7 +5612,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>0.57310000000000005</v>
+        <v>0.56252999999999997</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4960,7 +5620,7 @@
         <tr r="B8" s="1"/>
       </tp>
       <tp>
-        <v>8.3300000000000005E-5</v>
+        <v>8.2890000000000001E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4968,61 +5628,61 @@
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>TAKE_BUY_QUOTE_VOL</stp>
-        <stp>0</stp>
-        <tr r="L32" s="1"/>
-      </tp>
-      <tp>
-        <v>8714.3031855900008</v>
+        <v>8.7199999999999995E-6</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>CLOSE</stp>
+        <stp>7</stp>
+        <tr r="E38" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7199999999999995E-6</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>CLOSE</stp>
+        <stp>5</stp>
+        <tr r="E32" s="1"/>
+      </tp>
+      <tp>
+        <v>1212988.61425846</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="L31" s="1"/>
       </tp>
       <tp>
-        <v>17317.763558400002</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>TAKE_BUY_QUOTE_VOL</stp>
-        <stp>3</stp>
-        <tr r="L38" s="1"/>
-      </tp>
-      <tp>
-        <v>1290856.4809303901</v>
+        <v>11265225.01936353</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="L37" s="1"/>
       </tp>
       <tp>
-        <v>4688.8574881000004</v>
+        <v>312492.26826789998</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="L30" s="1"/>
       </tp>
       <tp>
-        <v>480918.86814430001</v>
+        <v>3275123.5764486999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="L36" s="1"/>
       </tp>
       <tp>
-        <v>45287</v>
+        <v>26105</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -5030,7 +5690,7 @@
         <tr r="M9" s="1"/>
       </tp>
       <tp>
-        <v>584.99</v>
+        <v>523.11</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -5038,25 +5698,25 @@
         <tr r="I15" s="1"/>
       </tp>
       <tp>
-        <v>43244.5625</v>
+        <v>43248.5</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>OPEN_TIME</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="F36" s="1"/>
       </tp>
       <tp>
-        <v>43244.570833333331</v>
+        <v>43248.625</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>OPEN_TIME</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="F30" s="1"/>
       </tp>
       <tp>
-        <v>1E-8</v>
+        <v>8.0000000000000002E-8</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -5064,7 +5724,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>117.8</v>
+        <v>117.34</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -5072,7 +5732,7 @@
         <tr r="D7" s="1"/>
       </tp>
       <tp>
-        <v>7511.49</v>
+        <v>7285.99</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -5080,7 +5740,16 @@
         <tr r="D6" s="1"/>
       </tp>
       <tp>
-        <v>43244.571241261576</v>
+        <v>19938.152539999999</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>TAKE_BUY_VOL</stp>
+        <stp>10</stp>
+        <tr r="K42" s="1"/>
+      </tp>
+      <tp>
+        <v>43248.642398506941</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -5088,7 +5757,7 @@
         <tr r="O19" s="1"/>
       </tp>
       <tp>
-        <v>6.9430000000000004E-3</v>
+        <v>7.1110000000000001E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -5096,7 +5765,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>573.53</v>
+        <v>559.25</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -5104,7 +5773,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>7511.49</v>
+        <v>7285.75</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -5112,7 +5781,7 @@
         <tr r="E6" s="1"/>
       </tp>
       <tp>
-        <v>117.79</v>
+        <v>117.11</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -5136,7 +5805,7 @@
         <tr r="K16" s="1"/>
       </tp>
       <tp t="b">
-        <v>0</v>
+        <v>1</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -5152,7 +5821,7 @@
         <tr r="K18" s="1"/>
       </tp>
       <tp>
-        <v>609.21</v>
+        <v>575</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -5160,7 +5829,7 @@
         <tr r="F3" s="2"/>
       </tp>
       <tp>
-        <v>7734.99</v>
+        <v>7444.8</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -5168,25 +5837,16 @@
         <tr r="F4" s="2"/>
       </tp>
       <tp>
-        <v>1402.9889255999999</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>QUOTE_VOL</stp>
-        <stp>0</stp>
-        <tr r="I32" s="1"/>
-      </tp>
-      <tp>
-        <v>55653.477134000001</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>QUOTE_VOL</stp>
-        <stp>3</stp>
-        <tr r="I38" s="1"/>
-      </tp>
-      <tp>
-        <v>0.57801999999999998</v>
+        <v>4045.8033679999999</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>TAKE_BUY_VOL</stp>
+        <stp>10</stp>
+        <tr r="K43" s="1"/>
+      </tp>
+      <tp>
+        <v>0.60040000000000004</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -5194,43 +5854,25 @@
         <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>43244.570833333331</v>
+        <v>43248.625</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN_TIME</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="F31" s="1"/>
       </tp>
       <tp>
-        <v>43244.5625</v>
+        <v>43248.5</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN_TIME</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="F37" s="1"/>
       </tp>
       <tp>
-        <v>43244.570833333331</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>OPEN_TIME</stp>
-        <stp>0</stp>
-        <tr r="F32" s="1"/>
-      </tp>
-      <tp>
-        <v>43244.5625</v>
-        <stp/>
-        <stp>BINANCE_CANDLE</stp>
-        <stp>ltcusdt</stp>
-        <stp>OPEN_TIME</stp>
-        <stp>3</stp>
-        <tr r="F38" s="1"/>
-      </tp>
-      <tp>
-        <v>573.94000000000005</v>
+        <v>559.47</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -5245,8 +5887,17 @@
         <stp>Spread</stp>
         <tr r="H11" s="1"/>
       </tp>
-      <tp>
-        <v>6.9220000000000002E-3</v>
+      <tp t="b">
+        <v>0</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>FINAL</stp>
+        <stp>10</stp>
+        <tr r="H44" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1110000000000001E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -5254,43 +5905,88 @@
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>106013.21082545001</v>
+        <v>8.67E-6</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>LOW</stp>
+        <stp>10</stp>
+        <tr r="D44" s="1"/>
+      </tp>
+      <tp>
+        <v>293281557</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>VOL</stp>
+        <stp>10</stp>
+        <tr r="J44" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FourHour</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>INTERVAL</stp>
+        <stp>7</stp>
+        <tr r="M38" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>OneHour</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>INTERVAL</stp>
+        <stp>5</stp>
+        <tr r="M32" s="1"/>
+      </tp>
+      <tp>
+        <v>2010259.80980805</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>QUOTE_VOL</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="I31" s="1"/>
       </tp>
       <tp>
-        <v>2484806.0479756701</v>
+        <v>18666256.877545841</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>QUOTE_VOL</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="I37" s="1"/>
       </tp>
       <tp>
-        <v>717482.29859090003</v>
+        <v>6696191.9421442999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>QUOTE_VOL</stp>
-        <stp>3</stp>
+        <stp>7</stp>
         <tr r="I36" s="1"/>
       </tp>
       <tp>
-        <v>7470.4933760000004</v>
+        <v>499135.24110340001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>QUOTE_VOL</stp>
-        <stp>0</stp>
+        <stp>5</stp>
         <tr r="I30" s="1"/>
       </tp>
       <tp>
-        <v>585.87</v>
+        <v>8.7199999999999995E-6</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>CLOSE</stp>
+        <stp>10</stp>
+        <tr r="E44" s="1"/>
+      </tp>
+      <tp>
+        <v>523.49</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -5298,7 +5994,7 @@
         <tr r="D3" s="2"/>
       </tp>
       <tp>
-        <v>7525</v>
+        <v>7222.37</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -5306,7 +6002,7 @@
         <tr r="D4" s="2"/>
       </tp>
       <tp>
-        <v>7.1409999999999998E-3</v>
+        <v>6.8069999999999997E-3</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -5314,7 +6010,25 @@
         <tr r="I19" s="1"/>
       </tp>
       <tp>
-        <v>10053639.736209</v>
+        <v>43248.642481493058</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>Event_Time</stp>
+        <stp>7</stp>
+        <tr r="O38" s="1"/>
+      </tp>
+      <tp>
+        <v>43248.642481493058</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>Event_Time</stp>
+        <stp>5</stp>
+        <tr r="O32" s="1"/>
+      </tp>
+      <tp>
+        <v>16561049.7496305</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -5322,7 +6036,7 @@
         <tr r="L8" s="1"/>
       </tp>
       <tp>
-        <v>0.57801000000000002</v>
+        <v>0.60140000000000005</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -5330,7 +6044,43 @@
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>7.6920000000000002E-5</v>
+        <v>43248.666666655095</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>CLOSE_TIME</stp>
+        <stp>7</stp>
+        <tr r="G38" s="1"/>
+      </tp>
+      <tp>
+        <v>43248.666666655095</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>CLOSE_TIME</stp>
+        <stp>5</stp>
+        <tr r="G32" s="1"/>
+      </tp>
+      <tp>
+        <v>28716988</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>FIRST_ID</stp>
+        <stp>5</stp>
+        <tr r="P32" s="1"/>
+      </tp>
+      <tp>
+        <v>28709453</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>FIRST_ID</stp>
+        <stp>7</stp>
+        <tr r="P38" s="1"/>
+      </tp>
+      <tp>
+        <v>8.2429999999999995E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -5338,7 +6088,7 @@
         <tr r="E10" s="1"/>
       </tp>
       <tp>
-        <v>43244.571249004628</v>
+        <v>43248.642481481482</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -5346,7 +6096,7 @@
         <tr r="O21" s="1"/>
       </tp>
       <tp>
-        <v>142707857.60808739</v>
+        <v>75785894.140243798</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -5354,7 +6104,25 @@
         <tr r="L5" s="1"/>
       </tp>
       <tp>
-        <v>9.5300000000000002E-6</v>
+        <v>54.400559020000003</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>TAKE_BUY_QUOTE_VOL</stp>
+        <stp>5</stp>
+        <tr r="L32" s="1"/>
+      </tp>
+      <tp>
+        <v>386.64930022999999</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>trxbtc</stp>
+        <stp>TAKE_BUY_QUOTE_VOL</stp>
+        <stp>7</stp>
+        <tr r="L38" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7199999999999995E-6</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -5362,7 +6130,7 @@
         <tr r="I21" s="1"/>
       </tp>
       <tp>
-        <v>585</v>
+        <v>523.49</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5371,7 +6139,7 @@
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>585.30999999999995</v>
+        <v>523.5</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5380,7 +6148,7 @@
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>586</v>
+        <v>523.51</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5389,7 +6157,7 @@
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>586.01</v>
+        <v>523.55999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5398,7 +6166,7 @@
         <tr r="D18" s="1"/>
       </tp>
       <tp>
-        <v>586.19000000000005</v>
+        <v>523.69000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5407,7 +6175,7 @@
         <tr r="D19" s="1"/>
       </tp>
       <tp>
-        <v>586.20000000000005</v>
+        <v>523.79</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5416,7 +6184,7 @@
         <tr r="D20" s="1"/>
       </tp>
       <tp>
-        <v>586.32000000000005</v>
+        <v>523.79999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5425,7 +6193,7 @@
         <tr r="D21" s="1"/>
       </tp>
       <tp>
-        <v>586.34</v>
+        <v>523.84</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5434,7 +6202,7 @@
         <tr r="D22" s="1"/>
       </tp>
       <tp>
-        <v>586.38</v>
+        <v>523.98</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5443,7 +6211,7 @@
         <tr r="D23" s="1"/>
       </tp>
       <tp>
-        <v>586.59</v>
+        <v>523.99</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5452,7 +6220,7 @@
         <tr r="D24" s="1"/>
       </tp>
       <tp>
-        <v>8.2369999999999999E-5</v>
+        <v>7.9010000000000004E-5</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -5460,7 +6228,16 @@
         <tr r="I20" s="1"/>
       </tp>
       <tp>
-        <v>8.7800000000000006E-6</v>
+        <v>529.64</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>OPEN</stp>
+        <stp>10</stp>
+        <tr r="B42" s="1"/>
+      </tp>
+      <tp>
+        <v>9.4299999999999995E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
@@ -5468,7 +6245,16 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>584.23</v>
+        <v>7300</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>HIGH</stp>
+        <stp>10</stp>
+        <tr r="C43" s="1"/>
+      </tp>
+      <tp>
+        <v>522.04</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5477,7 +6263,7 @@
         <tr r="B24" s="1"/>
       </tp>
       <tp>
-        <v>584.24</v>
+        <v>522.04999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5486,7 +6272,7 @@
         <tr r="B23" s="1"/>
       </tp>
       <tp>
-        <v>584.25</v>
+        <v>522.05999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5495,7 +6281,7 @@
         <tr r="B22" s="1"/>
       </tp>
       <tp>
-        <v>584.34</v>
+        <v>522.07000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5504,7 +6290,7 @@
         <tr r="B21" s="1"/>
       </tp>
       <tp>
-        <v>584.35</v>
+        <v>522.26</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5513,7 +6299,7 @@
         <tr r="B20" s="1"/>
       </tp>
       <tp>
-        <v>584.36</v>
+        <v>522.30999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5522,7 +6308,7 @@
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>584.4</v>
+        <v>522.48</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5531,7 +6317,7 @@
         <tr r="B18" s="1"/>
       </tp>
       <tp>
-        <v>584.71</v>
+        <v>522.75</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5540,7 +6326,7 @@
         <tr r="B17" s="1"/>
       </tp>
       <tp>
-        <v>584.80999999999995</v>
+        <v>523.1</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5549,7 +6335,7 @@
         <tr r="B16" s="1"/>
       </tp>
       <tp>
-        <v>584.99</v>
+        <v>523.11</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -5558,7 +6344,7 @@
         <tr r="B15" s="1"/>
       </tp>
       <tp>
-        <v>323679581.3607673</v>
+        <v>179241052.71019259</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -5566,7 +6352,7 @@
         <tr r="L6" s="1"/>
       </tp>
       <tp>
-        <v>11733836.848011199</v>
+        <v>9791878.5248697996</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -5574,7 +6360,7 @@
         <tr r="L7" s="1"/>
       </tp>
       <tp>
-        <v>8.7800000000000006E-6</v>
+        <v>9.4199999999999996E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
@@ -5582,7 +6368,7 @@
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>7.6920000000000002E-5</v>
+        <v>8.2429999999999995E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -5590,7 +6376,7 @@
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>574.98</v>
+        <v>558.98</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -5598,7 +6384,7 @@
         <tr r="E3" s="2"/>
       </tp>
       <tp>
-        <v>7542.98</v>
+        <v>7288.37</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -5606,7 +6392,7 @@
         <tr r="E4" s="2"/>
       </tp>
       <tp>
-        <v>43244.57125789352</v>
+        <v>43248.642454907407</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -5646,12 +6432,30 @@
         <tr r="L15" s="1"/>
       </tp>
       <tp>
-        <v>7.9999999999999996E-6</v>
+        <v>7196.74</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>btcusdt</stp>
+        <stp>OPEN</stp>
+        <stp>10</stp>
+        <tr r="B43" s="1"/>
+      </tp>
+      <tp>
+        <v>3.9999999999999998E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>Spread</stp>
         <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>541.38</v>
+        <stp/>
+        <stp>BINANCE_CANDLE</stp>
+        <stp>ethusdt</stp>
+        <stp>HIGH</stp>
+        <stp>10</stp>
+        <tr r="C42" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5659,50 +6463,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A4:O11" totalsRowShown="0" dataDxfId="91" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A4:O11" totalsRowShown="0" dataDxfId="106" dataCellStyle="Comma">
   <autoFilter ref="A4:O11" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3DCAC593-21E4-456C-93D1-EEDC8340EA91}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="105" totalsRowDxfId="104" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,B$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="103" totalsRowDxfId="102" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,C$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,D$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="84" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="99" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,E$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,F$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,G$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,H$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,I$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,J$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,K$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,L$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,M$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Percent">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,N$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,O$4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5711,20 +6515,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E24" totalsRowShown="0" dataDxfId="63" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E24" totalsRowShown="0" dataDxfId="78" dataCellStyle="Comma">
   <autoFilter ref="A14:E24" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="62" dataCellStyle="20% - Accent6">
+    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="77" dataCellStyle="20% - Accent6">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="61" dataCellStyle="20% - Accent6">
+    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="76" dataCellStyle="20% - Accent6">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="59" dataCellStyle="20% - Accent2">
+    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="74" dataCellStyle="20% - Accent2">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="58" dataCellStyle="20% - Accent2">
+    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="73" dataCellStyle="20% - Accent2">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5733,32 +6537,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:O21" totalsRowShown="0" dataDxfId="57" tableBorderDxfId="56" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:O21" totalsRowShown="0" dataDxfId="72" tableBorderDxfId="71" dataCellStyle="Comma">
   <autoFilter ref="G14:O21" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4DF9B9E1-1E83-4EF7-84C1-2078EE821C9B}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="55" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="70" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,H$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="PRICE" dataDxfId="54" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="PRICE" dataDxfId="69" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,I$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="QUANTITY" dataDxfId="53" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="QUANTITY" dataDxfId="68" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,J$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="52" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="67" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,K$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="51" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="66" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,L$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{596DAC26-1FB0-4FA0-9F2B-2F85949317B9}" name="FIRST_ID" dataDxfId="50" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{596DAC26-1FB0-4FA0-9F2B-2F85949317B9}" name="FIRST_ID" dataDxfId="65" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,M$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{625DA386-D82A-4BD8-99A5-41F6984223F9}" name="LAST_ID" dataDxfId="49" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{625DA386-D82A-4BD8-99A5-41F6984223F9}" name="LAST_ID" dataDxfId="64" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,N$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B43DE4EC-1073-4EE5-AFA6-29717F6887CA}" name="TRADE_TIME" dataDxfId="48" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{B43DE4EC-1073-4EE5-AFA6-29717F6887CA}" name="TRADE_TIME" dataDxfId="63" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,O$14)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5767,121 +6571,116 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A29:R32" totalsRowShown="0" dataDxfId="47" tableBorderDxfId="46" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A29:R32" totalsRowShown="0" dataDxfId="62" tableBorderDxfId="61" dataCellStyle="Comma">
   <autoFilter ref="A29:R32" xr:uid="{BD9601BD-F222-4DBD-B404-C68EB6A96569}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{A75C3BB9-BD50-4A86-92A6-228C26DADEC8}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="45" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="60" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,B$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="44" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="59" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,C$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="43" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="58" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,D$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="42" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="57" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,E$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="41" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="56" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,F$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="40" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="55" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,G$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="39" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="54" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,H$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="38" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="53" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,I$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="37" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="52" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,J$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="36" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="51" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,K$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="35" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="50" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,L$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="34" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="49" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,M$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="33" dataCellStyle="Comma">
+    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="48" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,N$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{11BF3445-5968-4B64-972D-05C6CECCD6DE}" name="Event" dataDxfId="32" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="47" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,O$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="31" dataCellStyle="Comma">
+    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="46" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,P$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="30" dataCellStyle="Comma">
+    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="45" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,Q$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="29" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,R$29,$D$28)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="19" xr3:uid="{1608C6B3-E96E-44E3-A52D-1311653FC1B6}" name="RS" dataDxfId="44" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A35:R38" totalsRowShown="0" dataDxfId="28" tableBorderDxfId="27" dataCellStyle="Comma">
-  <autoFilter ref="A35:R38" xr:uid="{04787891-A2B4-4F14-ADE0-2BC3B779F519}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A35:Q38" totalsRowShown="0" dataDxfId="43" tableBorderDxfId="42" dataCellStyle="Comma">
+  <autoFilter ref="A35:Q38" xr:uid="{04787891-A2B4-4F14-ADE0-2BC3B779F519}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CD2685D4-7653-442A-A4D2-04D1D79D1D51}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="26" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,B$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="41" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,B$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="25" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,C$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="40" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,C$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="24" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,D$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="39" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,D$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="23" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,E$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="38" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,E$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="22" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,F$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="37" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,F$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="21" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,G$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="36" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,G$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="20" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,H$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="35" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,H$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="19" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,I$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="34" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,I$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="18" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,J$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="33" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,J$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="17" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,K$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="32" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,K$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="16" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,L$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="31" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,L$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="15" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,M$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="30" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,M$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="14" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,N$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="29" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,N$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{528B6C8B-64D5-45B1-8F49-30BB75CB0054}" name="Event" dataDxfId="13" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,O$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="28" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,O$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="12" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,P$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="27" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,P$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="11" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,Q$29,$D$34)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="10" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,R$29,$D$34)</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="26" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,Q$35,$D$34)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5889,14 +6688,57 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C9A1048C-DE17-4207-AE25-F81CA5DDBF93}" name="Table7" displayName="Table7" ref="Q4:R11" totalsRowShown="0" tableBorderDxfId="9">
-  <autoFilter ref="Q4:R11" xr:uid="{DE16C1F4-0EE5-4965-9BFE-4C8EEA16A585}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3182ACB6-B037-4E1D-A813-654BB23D8D22}" name="PRICE">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],Q$4)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99DCB22F-228E-4018-9771-887F46452D07}" name="Table669" displayName="Table669" ref="A41:Q44" totalsRowShown="0" dataDxfId="25" tableBorderDxfId="24" dataCellStyle="Comma">
+  <autoFilter ref="A41:Q44" xr:uid="{6E65CC27-09FC-486D-A67A-E2DB2EC555BE}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{33725082-D785-41DD-9970-D8F27EB50367}" name="SYMBOL"/>
+    <tableColumn id="2" xr3:uid="{9037869B-A21A-4005-B553-689CD7A8BDDA}" name="OPEN" dataDxfId="23" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,B$41,$D$40)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2C2B98E6-3BB9-4AEA-B21F-BDF93FE989B8}" name="QUANTITY" dataDxfId="8">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],R$4)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{BB00B0EC-FECB-4559-A3DF-77C39BCABC92}" name="HIGH" dataDxfId="22" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,C$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{89A57596-7A26-41BE-B81B-572851260A3E}" name="LOW" dataDxfId="21" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,D$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{FFA6405D-895D-4C41-9AF2-59A917105627}" name="CLOSE" dataDxfId="20" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,E$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A547D549-D81A-4D01-BEF9-D6ED01C63818}" name="OPEN_TIME" dataDxfId="19" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,F$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{DF542204-C9DD-4EAD-9898-DC64CAA71FF7}" name="CLOSE_TIME" dataDxfId="18" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,G$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{81C6BE2C-BE91-4606-AAFE-BA2CC0698965}" name="FINAL" dataDxfId="17" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,H$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{2CA4669B-413D-4F30-A5AF-4F09B8AAE2A1}" name="QUOTE_VOL" dataDxfId="16" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,I$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{3A979BCD-3AAE-4B94-B2D4-DF259BFCB0AE}" name="VOL" dataDxfId="15" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,J$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{4A3421ED-7748-4BC3-A593-3980C40CE28B}" name="TAKE_BUY_VOL" dataDxfId="14" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,K$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{915D763A-8F4F-4755-94EF-448B1854BC25}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="13" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,L$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{36EE1B92-C8FB-436E-9872-3BB209CE0A49}" name="INTERVAL" dataDxfId="12" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,M$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{9B4882A0-F228-48B3-802F-797571F445C4}" name="TRADES" dataDxfId="11" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,N$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{1DF22CF9-CDB4-4D0A-9288-AE736858CA25}" name="Event_Time" dataDxfId="10" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,O$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{97A30074-55B1-4AC0-977E-E9F9900222F5}" name="FIRST_ID" dataDxfId="9" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,P$41,$D$40)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{5352F4E3-144C-417A-A84E-6FBECE4F831B}" name="LAST_ID" dataDxfId="8" dataCellStyle="Comma">
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,Q$41,$D$40)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6232,10 +7074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F314B32C-A36F-425C-B63D-E2C30E3C057B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:U113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6256,11 +7098,12 @@
     <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" customWidth="1"/>
     <col min="18" max="18" width="12.42578125" customWidth="1"/>
-    <col min="19" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -6275,23 +7118,23 @@
       </c>
       <c r="E1" s="1"/>
       <c r="H1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="29"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -6299,12 +7142,18 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="Q3" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="R3" s="42"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q3" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="36"/>
+      <c r="S3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -6350,454 +7199,409 @@
       <c r="O4" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q4" s="38" t="str">
+        <f>RTD(progId,,BINANCE_HISTORY,S3,"a,b,c",10)</f>
+        <v>&lt;?&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2">
         <f>RTD(progId,,BINANCE,$A5,B$4)</f>
-        <v>550</v>
+        <v>520.26</v>
       </c>
       <c r="C5" s="2">
         <f>RTD(progId,,BINANCE,$A5,C$4)</f>
-        <v>612.1</v>
+        <v>576.20000000000005</v>
       </c>
       <c r="D5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,D$4)</f>
-        <v>573.94000000000005</v>
+        <v>559.47</v>
       </c>
       <c r="E5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,E$4)</f>
-        <v>573.53</v>
+        <v>559.25</v>
       </c>
       <c r="F5" s="2">
         <f>RTD(progId,,BINANCE,$A5,F$4)</f>
-        <v>1.6990000000000002E-2</v>
+        <v>0.37648999999999999</v>
       </c>
       <c r="G5" s="2">
         <f>RTD(progId,,BINANCE,$A5,G$4)</f>
-        <v>584.99</v>
+        <v>523.11</v>
       </c>
       <c r="H5" s="2">
         <f>RTD(progId,,BINANCE,$A5,H$4)</f>
-        <v>0.01</v>
+        <v>0.38</v>
       </c>
       <c r="I5" s="2">
         <f>RTD(progId,,BINANCE,$A5,I$4)</f>
-        <v>585</v>
+        <v>523.49</v>
       </c>
       <c r="J5" s="2">
         <f>RTD(progId,,BINANCE,$A5,J$4)</f>
-        <v>0.48960999999999999</v>
+        <v>2.5760000000000002E-2</v>
       </c>
       <c r="K5" s="9">
         <f>RTD(progId,,BINANCE,$A5,K$4)</f>
-        <v>245039.79159000001</v>
+        <v>139738.88795</v>
       </c>
       <c r="L5" s="2">
         <f>RTD(progId,,BINANCE,$A5,L$4)</f>
-        <v>142707857.60808739</v>
+        <v>75785894.140243798</v>
       </c>
       <c r="M5" s="9">
         <f>RTD(progId,,BINANCE,$A5,M$4)</f>
-        <v>190918</v>
+        <v>127795</v>
       </c>
       <c r="N5" s="10">
         <f>RTD(progId,,BINANCE,$A5,N$4)</f>
-        <v>1.8259999999999998E-2</v>
+        <v>-6.5869999999999998E-2</v>
       </c>
       <c r="O5" s="2">
         <f>RTD(progId,,BINANCE,$A5,O$4)</f>
-        <v>10.49</v>
-      </c>
-      <c r="Q5">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],Q$4)</f>
-        <v>584.29999999999995</v>
-      </c>
-      <c r="R5" s="1">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],R$4)</f>
-        <v>2.0750000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-36.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2">
         <f>RTD(progId,,BINANCE,$A6,B$4)</f>
-        <v>7266.99</v>
+        <v>7148.16</v>
       </c>
       <c r="C6" s="2">
         <f>RTD(progId,,BINANCE,$A6,C$4)</f>
-        <v>7730.73</v>
+        <v>7437</v>
       </c>
       <c r="D6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,D$4)</f>
-        <v>7511.49</v>
+        <v>7285.99</v>
       </c>
       <c r="E6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,E$4)</f>
-        <v>7511.49</v>
+        <v>7285.75</v>
       </c>
       <c r="F6" s="2">
         <f>RTD(progId,,BINANCE,$A6,F$4)</f>
-        <v>1.9913E-2</v>
+        <v>0.81162699999999999</v>
       </c>
       <c r="G6" s="2">
         <f>RTD(progId,,BINANCE,$A6,G$4)</f>
-        <v>7515.03</v>
+        <v>7204.62</v>
       </c>
       <c r="H6" s="2">
         <f>RTD(progId,,BINANCE,$A6,H$4)</f>
-        <v>5.97</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2">
         <f>RTD(progId,,BINANCE,$A6,I$4)</f>
-        <v>7521</v>
+        <v>7208.62</v>
       </c>
       <c r="J6" s="2">
         <f>RTD(progId,,BINANCE,$A6,J$4)</f>
-        <v>2.4653740000000002</v>
+        <v>6.1897000000000001E-2</v>
       </c>
       <c r="K6" s="9">
         <f>RTD(progId,,BINANCE,$A6,K$4)</f>
-        <v>43083.231771999999</v>
+        <v>24683.551762999999</v>
       </c>
       <c r="L6" s="2">
         <f>RTD(progId,,BINANCE,$A6,L$4)</f>
-        <v>323679581.3607673</v>
+        <v>179241052.71019259</v>
       </c>
       <c r="M6" s="9">
         <f>RTD(progId,,BINANCE,$A6,M$4)</f>
-        <v>288233</v>
+        <v>219226</v>
       </c>
       <c r="N6" s="10">
         <f>RTD(progId,,BINANCE,$A6,N$4)</f>
-        <v>-2.9E-4</v>
+        <v>-1.1679999999999999E-2</v>
       </c>
       <c r="O6" s="2">
         <f>RTD(progId,,BINANCE,$A6,O$4)</f>
-        <v>-2.17</v>
-      </c>
-      <c r="Q6" s="1">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],Q$4)</f>
-        <v>7513.99</v>
-      </c>
-      <c r="R6" s="1">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],R$4)</f>
-        <v>0.100006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-85.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2">
         <f>RTD(progId,,BINANCE,$A7,B$4)</f>
-        <v>114.7</v>
+        <v>111.34</v>
       </c>
       <c r="C7" s="2">
         <f>RTD(progId,,BINANCE,$A7,C$4)</f>
-        <v>123.7</v>
+        <v>118.97</v>
       </c>
       <c r="D7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,D$4)</f>
-        <v>117.8</v>
+        <v>117.34</v>
       </c>
       <c r="E7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,E$4)</f>
-        <v>117.79</v>
+        <v>117.11</v>
       </c>
       <c r="F7" s="2">
         <f>RTD(progId,,BINANCE,$A7,F$4)</f>
-        <v>7.1000000000000002E-4</v>
+        <v>3.6181999999999999</v>
       </c>
       <c r="G7" s="2">
         <f>RTD(progId,,BINANCE,$A7,G$4)</f>
-        <v>121.98</v>
+        <v>113.58</v>
       </c>
       <c r="H7" s="2">
         <f>RTD(progId,,BINANCE,$A7,H$4)</f>
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I7" s="2">
         <f>RTD(progId,,BINANCE,$A7,I$4)</f>
-        <v>122.09</v>
+        <v>113.73</v>
       </c>
       <c r="J7" s="2">
         <f>RTD(progId,,BINANCE,$A7,J$4)</f>
-        <v>5</v>
+        <v>0.51</v>
       </c>
       <c r="K7" s="9">
         <f>RTD(progId,,BINANCE,$A7,K$4)</f>
-        <v>98282.038669999994</v>
+        <v>84491.010290000006</v>
       </c>
       <c r="L7" s="2">
         <f>RTD(progId,,BINANCE,$A7,L$4)</f>
-        <v>11733836.848011199</v>
+        <v>9791878.5248697996</v>
       </c>
       <c r="M7" s="9">
         <f>RTD(progId,,BINANCE,$A7,M$4)</f>
-        <v>28698</v>
+        <v>22285</v>
       </c>
       <c r="N7" s="10">
         <f>RTD(progId,,BINANCE,$A7,N$4)</f>
-        <v>3.4590000000000003E-2</v>
+        <v>-3.056E-2</v>
       </c>
       <c r="O7" s="2">
         <f>RTD(progId,,BINANCE,$A7,O$4)</f>
-        <v>4.08</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],Q$4)</f>
-        <v>121.2</v>
-      </c>
-      <c r="R7" s="1">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],R$4)</f>
-        <v>3.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-3.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2">
         <f>RTD(progId,,BINANCE,$A8,B$4)</f>
-        <v>0.57310000000000005</v>
+        <v>0.56252999999999997</v>
       </c>
       <c r="C8" s="2">
         <f>RTD(progId,,BINANCE,$A8,C$4)</f>
-        <v>0.63200000000000001</v>
+        <v>0.60909999999999997</v>
       </c>
       <c r="D8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,D$4)</f>
-        <v>0.57801000000000002</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="E8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,E$4)</f>
-        <v>0.57801999999999998</v>
+        <v>0.60040000000000004</v>
       </c>
       <c r="F8" s="9">
         <f>RTD(progId,,BINANCE,$A8,F$4)</f>
-        <v>185</v>
+        <v>777</v>
       </c>
       <c r="G8" s="2">
         <f>RTD(progId,,BINANCE,$A8,G$4)</f>
-        <v>0.61826000000000003</v>
+        <v>0.56840999999999997</v>
       </c>
       <c r="H8" s="2">
         <f>RTD(progId,,BINANCE,$A8,H$4)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.06E-3</v>
       </c>
       <c r="I8" s="2">
         <f>RTD(progId,,BINANCE,$A8,I$4)</f>
-        <v>0.61985999999999997</v>
+        <v>0.56947000000000003</v>
       </c>
       <c r="J8" s="2">
         <f>RTD(progId,,BINANCE,$A8,J$4)</f>
-        <v>650</v>
+        <v>50</v>
       </c>
       <c r="K8" s="9">
         <f>RTD(progId,,BINANCE,$A8,K$4)</f>
-        <v>16672061.42</v>
+        <v>28371404.219999999</v>
       </c>
       <c r="L8" s="2">
         <f>RTD(progId,,BINANCE,$A8,L$4)</f>
-        <v>10053639.736209</v>
+        <v>16561049.7496305</v>
       </c>
       <c r="M8" s="9">
         <f>RTD(progId,,BINANCE,$A8,M$4)</f>
-        <v>27985</v>
+        <v>24586</v>
       </c>
       <c r="N8" s="10">
         <f>RTD(progId,,BINANCE,$A8,N$4)</f>
-        <v>6.2520000000000006E-2</v>
+        <v>-5.4440000000000002E-2</v>
       </c>
       <c r="O8" s="2">
         <f>RTD(progId,,BINANCE,$A8,O$4)</f>
-        <v>3.6470000000000002E-2</v>
-      </c>
-      <c r="Q8" s="1">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],Q$4)</f>
-        <v>0.61489000000000005</v>
-      </c>
-      <c r="R8" s="1">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],R$4)</f>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-3.2719999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="2">
         <f>RTD(progId,,BINANCE,$A9,B$4)</f>
-        <v>6.8490000000000001E-3</v>
+        <v>6.7749999999999998E-3</v>
       </c>
       <c r="C9" s="2">
         <f>RTD(progId,,BINANCE,$A9,C$4)</f>
-        <v>7.1659999999999996E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="D9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,D$4)</f>
-        <v>6.9220000000000002E-3</v>
+        <v>7.1110000000000001E-3</v>
       </c>
       <c r="E9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,E$4)</f>
-        <v>6.9430000000000004E-3</v>
+        <v>7.1110000000000001E-3</v>
       </c>
       <c r="F9" s="9">
         <f>RTD(progId,,BINANCE,$A9,F$4)</f>
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="G9" s="2">
         <f>RTD(progId,,BINANCE,$A9,G$4)</f>
-        <v>7.1399999999999996E-3</v>
+        <v>6.803E-3</v>
       </c>
       <c r="H9" s="2">
         <f>RTD(progId,,BINANCE,$A9,H$4)</f>
-        <v>7.9999999999999996E-6</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="I9" s="2">
         <f>RTD(progId,,BINANCE,$A9,I$4)</f>
-        <v>7.1479999999999998E-3</v>
+        <v>6.8069999999999997E-3</v>
       </c>
       <c r="J9" s="2">
         <f>RTD(progId,,BINANCE,$A9,J$4)</f>
-        <v>7.3</v>
+        <v>16.09</v>
       </c>
       <c r="K9" s="9">
         <f>RTD(progId,,BINANCE,$A9,K$4)</f>
-        <v>319911.24</v>
+        <v>117652.83</v>
       </c>
       <c r="L9" s="2">
         <f>RTD(progId,,BINANCE,$A9,L$4)</f>
-        <v>2244.1233628300001</v>
+        <v>815.74687168000003</v>
       </c>
       <c r="M9" s="9">
         <f>RTD(progId,,BINANCE,$A9,M$4)</f>
-        <v>45287</v>
+        <v>26105</v>
       </c>
       <c r="N9" s="10">
         <f>RTD(progId,,BINANCE,$A9,N$4)</f>
-        <v>2.8219999999999999E-2</v>
+        <v>-4.3560000000000001E-2</v>
       </c>
       <c r="O9" s="2">
         <f>RTD(progId,,BINANCE,$A9,O$4)</f>
-        <v>1.9599999999999999E-4</v>
-      </c>
-      <c r="Q9" s="1">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],Q$4)</f>
-        <v>7.0920000000000002E-3</v>
-      </c>
-      <c r="R9" s="1">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],R$4)</f>
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-3.1E-4</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="2">
         <f>RTD(progId,,BINANCE,$A10,B$4)</f>
-        <v>7.7150000000000005E-5</v>
+        <v>7.8319999999999996E-5</v>
       </c>
       <c r="C10" s="2">
         <f>RTD(progId,,BINANCE,$A10,C$4)</f>
-        <v>8.3300000000000005E-5</v>
+        <v>8.2890000000000001E-5</v>
       </c>
       <c r="D10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,D$4)</f>
-        <v>7.6920000000000002E-5</v>
+        <v>8.2429999999999995E-5</v>
       </c>
       <c r="E10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,E$4)</f>
-        <v>7.6920000000000002E-5</v>
+        <v>8.2429999999999995E-5</v>
       </c>
       <c r="F10" s="9">
         <f>RTD(progId,,BINANCE,$A10,F$4)</f>
-        <v>1067</v>
+        <v>1260</v>
       </c>
       <c r="G10" s="2">
         <f>RTD(progId,,BINANCE,$A10,G$4)</f>
-        <v>8.2360000000000004E-5</v>
+        <v>7.8930000000000005E-5</v>
       </c>
       <c r="H10" s="2">
         <f>RTD(progId,,BINANCE,$A10,H$4)</f>
-        <v>1E-8</v>
+        <v>8.0000000000000002E-8</v>
       </c>
       <c r="I10" s="2">
         <f>RTD(progId,,BINANCE,$A10,I$4)</f>
-        <v>8.2369999999999999E-5</v>
+        <v>7.9010000000000004E-5</v>
       </c>
       <c r="J10" s="2">
         <f>RTD(progId,,BINANCE,$A10,J$4)</f>
-        <v>4879</v>
+        <v>150</v>
       </c>
       <c r="K10" s="9">
         <f>RTD(progId,,BINANCE,$A10,K$4)</f>
-        <v>41823814</v>
+        <v>34251798</v>
       </c>
       <c r="L10" s="2">
         <f>RTD(progId,,BINANCE,$A10,L$4)</f>
-        <v>3365.8081833599999</v>
+        <v>2761.8157205100001</v>
       </c>
       <c r="M10" s="9">
         <f>RTD(progId,,BINANCE,$A10,M$4)</f>
-        <v>63857</v>
+        <v>45226</v>
       </c>
       <c r="N10" s="10">
         <f>RTD(progId,,BINANCE,$A10,N$4)</f>
-        <v>6.0650000000000003E-2</v>
+        <v>-4.1840000000000002E-2</v>
       </c>
       <c r="O10" s="2">
         <f>RTD(progId,,BINANCE,$A10,O$4)</f>
-        <v>4.7099999999999998E-6</v>
-      </c>
-      <c r="Q10" s="1">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],Q$4)</f>
-        <v>8.2559999999999996E-5</v>
-      </c>
-      <c r="R10" s="1">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],R$4)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-3.45E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="2">
         <f>RTD(progId,,BINANCE,$A11,B$4)</f>
-        <v>8.6999999999999997E-6</v>
+        <v>8.6300000000000004E-6</v>
       </c>
       <c r="C11" s="2">
         <f>RTD(progId,,BINANCE,$A11,C$4)</f>
-        <v>9.6600000000000007E-6</v>
+        <v>9.5799999999999998E-6</v>
       </c>
       <c r="D11" s="2">
         <f>RTD(progId,,BINANCE_24H,$A11,D$4)</f>
-        <v>8.7800000000000006E-6</v>
+        <v>9.4199999999999996E-6</v>
       </c>
       <c r="E11" s="2">
         <f>RTD(progId,,BINANCE_24H,$A11,E$4)</f>
-        <v>8.7800000000000006E-6</v>
+        <v>9.4299999999999995E-6</v>
       </c>
       <c r="F11" s="9">
         <f>RTD(progId,,BINANCE,$A11,F$4)</f>
-        <v>264757</v>
+        <v>181676</v>
       </c>
       <c r="G11" s="2">
         <f>RTD(progId,,BINANCE,$A11,G$4)</f>
-        <v>9.5200000000000003E-6</v>
+        <v>8.7199999999999995E-6</v>
       </c>
       <c r="H11" s="2">
         <f>RTD(progId,,BINANCE,$A11,H$4)</f>
@@ -6805,42 +7609,34 @@
       </c>
       <c r="I11" s="2">
         <f>RTD(progId,,BINANCE,$A11,I$4)</f>
-        <v>9.5300000000000002E-6</v>
+        <v>8.7299999999999994E-6</v>
       </c>
       <c r="J11" s="2">
         <f>RTD(progId,,BINANCE,$A11,J$4)</f>
-        <v>91159</v>
+        <v>5228</v>
       </c>
       <c r="K11" s="9">
         <f>RTD(progId,,BINANCE,$A11,K$4)</f>
-        <v>1382308560</v>
+        <v>1396958761</v>
       </c>
       <c r="L11" s="2">
         <f>RTD(progId,,BINANCE,$A11,L$4)</f>
-        <v>12808.29402322</v>
+        <v>12656.64080492</v>
       </c>
       <c r="M11" s="9">
         <f>RTD(progId,,BINANCE,$A11,M$4)</f>
-        <v>127172</v>
+        <v>104529</v>
       </c>
       <c r="N11" s="10">
         <f>RTD(progId,,BINANCE,$A11,N$4)</f>
-        <v>8.6660000000000001E-2</v>
+        <v>-7.3249999999999996E-2</v>
       </c>
       <c r="O11" s="2">
         <f>RTD(progId,,BINANCE,$A11,O$4)</f>
-        <v>7.6000000000000003E-7</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],Q$4)</f>
-        <v>9.4599999999999992E-6</v>
-      </c>
-      <c r="R11" s="1">
-        <f>RTD(progId,,BINANCE_HISTORY,Table1[[#This Row],[SYMBOL]],R$4)</f>
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-6.8999999999999996E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6856,17 +7652,22 @@
       <c r="N12" s="10"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="G13" s="32" t="s">
+      <c r="B13" s="29"/>
+      <c r="G13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H13" s="29"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -6890,10 +7691,10 @@
         <v>36</v>
       </c>
       <c r="I14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" t="s">
         <v>54</v>
-      </c>
-      <c r="J14" t="s">
-        <v>55</v>
       </c>
       <c r="K14" t="s">
         <v>37</v>
@@ -6902,506 +7703,526 @@
         <v>38</v>
       </c>
       <c r="M14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" t="s">
         <v>52</v>
       </c>
-      <c r="N14" t="s">
-        <v>53</v>
-      </c>
       <c r="O14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</f>
-        <v>1.6990000000000002E-2</v>
-      </c>
-      <c r="B15" s="20">
+        <v>0.37648999999999999</v>
+      </c>
+      <c r="B15" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</f>
-        <v>584.99</v>
+        <v>523.11</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</f>
-        <v>585</v>
-      </c>
-      <c r="E15" s="21">
+        <v>523.49</v>
+      </c>
+      <c r="E15" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</f>
-        <v>0.48960999999999999</v>
+        <v>2.5760000000000002E-2</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G15,H$14)</f>
-        <v>23238787</v>
-      </c>
-      <c r="I15" s="16">
+        <v>23622527</v>
+      </c>
+      <c r="I15" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G15,I$14)</f>
-        <v>584.99</v>
-      </c>
-      <c r="J15" s="16">
+        <v>523.11</v>
+      </c>
+      <c r="J15" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G15,J$14)</f>
-        <v>1.99E-3</v>
-      </c>
-      <c r="K15" s="16" t="b">
+        <v>0.42693999999999999</v>
+      </c>
+      <c r="K15" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G15,K$14)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G15,L$14)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G15,M$14)</f>
-        <v>26179535</v>
-      </c>
-      <c r="N15" s="16">
+        <v>26604229</v>
+      </c>
+      <c r="N15" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G15,N$14)</f>
-        <v>26179535</v>
-      </c>
-      <c r="O15" s="33">
+        <v>26604231</v>
+      </c>
+      <c r="O15" s="30">
         <f>RTD(progId,,BINACE_TRADE,$G15,O$14)</f>
-        <v>43244.571248148146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+        <v>43248.642474513887</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C16)</f>
-        <v>0.31977</v>
-      </c>
-      <c r="B16" s="20">
+        <v>0.35627999999999999</v>
+      </c>
+      <c r="B16" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C16)</f>
-        <v>584.80999999999995</v>
+        <v>523.1</v>
       </c>
       <c r="C16" s="8">
         <f>C15+1</f>
         <v>1</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C16)</f>
-        <v>585.30999999999995</v>
-      </c>
-      <c r="E16" s="21">
+        <v>523.5</v>
+      </c>
+      <c r="E16" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C16)</f>
-        <v>1.0240899999999999</v>
+        <v>147.21770000000001</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G16,H$14)</f>
-        <v>39639125</v>
-      </c>
-      <c r="I16" s="16">
+        <v>40484473</v>
+      </c>
+      <c r="I16" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G16,I$14)</f>
-        <v>7515.03</v>
-      </c>
-      <c r="J16" s="16">
+        <v>7204.63</v>
+      </c>
+      <c r="J16" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G16,J$14)</f>
-        <v>6.6740000000000002E-3</v>
-      </c>
-      <c r="K16" s="16" t="b">
+        <v>2.2717860000000001</v>
+      </c>
+      <c r="K16" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G16,K$14)</f>
         <v>1</v>
       </c>
-      <c r="L16" s="16" t="b">
+      <c r="L16" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G16,L$14)</f>
         <v>1</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G16,M$14)</f>
-        <v>45561115</v>
-      </c>
-      <c r="N16" s="16">
+        <v>46457245</v>
+      </c>
+      <c r="N16" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G16,N$14)</f>
-        <v>45561115</v>
-      </c>
-      <c r="O16" s="33">
+        <v>46457245</v>
+      </c>
+      <c r="O16" s="30">
         <f>RTD(progId,,BINACE_TRADE,$G16,O$14)</f>
-        <v>43244.571267326392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+        <v>43248.642458622686</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C17)</f>
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="B17" s="20">
+        <v>3.2919100000000001</v>
+      </c>
+      <c r="B17" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C17)</f>
-        <v>584.71</v>
+        <v>522.75</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" ref="C17:C24" si="0">C16+1</f>
         <v>2</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C17)</f>
-        <v>586</v>
-      </c>
-      <c r="E17" s="21">
+        <v>523.51</v>
+      </c>
+      <c r="E17" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C17)</f>
-        <v>1.8242799999999999</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G17,H$14)</f>
-        <v>6611955</v>
-      </c>
-      <c r="I17" s="16">
+        <v>6697405</v>
+      </c>
+      <c r="I17" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G17,I$14)</f>
-        <v>122.04</v>
-      </c>
-      <c r="J17" s="16">
+        <v>113.58</v>
+      </c>
+      <c r="J17" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G17,J$14)</f>
-        <v>8.4945199999999996</v>
-      </c>
-      <c r="K17" s="16" t="b">
+        <v>1.387E-2</v>
+      </c>
+      <c r="K17" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G17,K$14)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="16" t="b">
+      <c r="L17" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G17,L$14)</f>
         <v>1</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G17,M$14)</f>
-        <v>7507892</v>
-      </c>
-      <c r="N17" s="23">
+        <v>7600750</v>
+      </c>
+      <c r="N17" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G17,N$14)</f>
-        <v>7507893</v>
-      </c>
-      <c r="O17" s="34">
+        <v>7600750</v>
+      </c>
+      <c r="O17" s="31">
         <f>RTD(progId,,BINACE_TRADE,$G17,O$14)</f>
-        <v>43244.571162418979</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+        <v>43248.642332708332</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C18)</f>
-        <v>1</v>
-      </c>
-      <c r="B18" s="20">
+        <v>11.045999999999999</v>
+      </c>
+      <c r="B18" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C18)</f>
-        <v>584.4</v>
+        <v>522.48</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C18)</f>
-        <v>586.01</v>
-      </c>
-      <c r="E18" s="21">
+        <v>523.55999999999995</v>
+      </c>
+      <c r="E18" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C18)</f>
-        <v>4.1000000000000002E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G18,H$14)</f>
-        <v>476906</v>
-      </c>
-      <c r="I18" s="35">
+        <v>558578</v>
+      </c>
+      <c r="I18" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G18,I$14)</f>
-        <v>0.61985000000000001</v>
-      </c>
-      <c r="J18" s="35">
+        <v>0.56835999999999998</v>
+      </c>
+      <c r="J18" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G18,J$14)</f>
-        <v>0.95</v>
-      </c>
-      <c r="K18" s="35" t="b">
+        <v>1351.75</v>
+      </c>
+      <c r="K18" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G18,K$14)</f>
         <v>1</v>
       </c>
-      <c r="L18" s="35" t="b">
+      <c r="L18" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G18,L$14)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G18,M$14)</f>
-        <v>525389</v>
-      </c>
-      <c r="N18" s="16">
+        <v>613861</v>
+      </c>
+      <c r="N18" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G18,N$14)</f>
-        <v>525389</v>
-      </c>
-      <c r="O18" s="33">
+        <v>613861</v>
+      </c>
+      <c r="O18" s="31">
         <f>RTD(progId,,BINACE_TRADE,$G18,O$14)</f>
-        <v>43244.571259594908</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+        <v>43248.642275405095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C19)</f>
-        <v>3.8422100000000001</v>
-      </c>
-      <c r="B19" s="20">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="B19" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C19)</f>
-        <v>584.36</v>
+        <v>522.30999999999995</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C19)</f>
-        <v>586.19000000000005</v>
-      </c>
-      <c r="E19" s="21">
+        <v>523.69000000000005</v>
+      </c>
+      <c r="E19" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C19)</f>
-        <v>3.9999899999999999</v>
+        <v>6.4930000000000002E-2</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G19,H$14)</f>
-        <v>13359620</v>
-      </c>
-      <c r="I19" s="35">
+        <v>13472636</v>
+      </c>
+      <c r="I19" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G19,I$14)</f>
-        <v>7.1409999999999998E-3</v>
-      </c>
-      <c r="J19" s="35">
+        <v>6.8069999999999997E-3</v>
+      </c>
+      <c r="J19" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G19,J$14)</f>
-        <v>2.72</v>
-      </c>
-      <c r="K19" s="35" t="b">
+        <v>1.22</v>
+      </c>
+      <c r="K19" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G19,K$14)</f>
-        <v>1</v>
-      </c>
-      <c r="L19" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G19,L$14)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G19,M$14)</f>
-        <v>15084168</v>
-      </c>
-      <c r="N19" s="16">
+        <v>15215591</v>
+      </c>
+      <c r="N19" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G19,N$14)</f>
-        <v>15084168</v>
-      </c>
-      <c r="O19" s="33">
+        <v>15215591</v>
+      </c>
+      <c r="O19" s="31">
         <f>RTD(progId,,BINACE_TRADE,$G19,O$14)</f>
-        <v>43244.571241261576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+        <v>43248.642398506941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C20)</f>
-        <v>11</v>
-      </c>
-      <c r="B20" s="20">
+        <v>12.792199999999999</v>
+      </c>
+      <c r="B20" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C20)</f>
-        <v>584.35</v>
+        <v>522.26</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C20)</f>
-        <v>586.20000000000005</v>
-      </c>
-      <c r="E20" s="21">
+        <v>523.79</v>
+      </c>
+      <c r="E20" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C20)</f>
-        <v>0.28222999999999998</v>
+        <v>66.909000000000006</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G20,H$14)</f>
-        <v>17246029</v>
-      </c>
-      <c r="I20" s="35">
+        <v>17395594</v>
+      </c>
+      <c r="I20" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G20,I$14)</f>
-        <v>8.2369999999999999E-5</v>
-      </c>
-      <c r="J20" s="35">
+        <v>7.9010000000000004E-5</v>
+      </c>
+      <c r="J20" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G20,J$14)</f>
-        <v>2242</v>
-      </c>
-      <c r="K20" s="35" t="b">
+        <v>20</v>
+      </c>
+      <c r="K20" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G20,K$14)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G20,L$14)</f>
         <v>1</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G20,M$14)</f>
-        <v>20875653</v>
-      </c>
-      <c r="N20" s="16">
+        <v>21046335</v>
+      </c>
+      <c r="N20" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G20,N$14)</f>
-        <v>20875654</v>
-      </c>
-      <c r="O20" s="33">
+        <v>21046336</v>
+      </c>
+      <c r="O20" s="31">
         <f>RTD(progId,,BINACE_TRADE,$G20,O$14)</f>
-        <v>43244.57125789352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+        <v>43248.642454907407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C21)</f>
-        <v>0.12</v>
-      </c>
-      <c r="B21" s="20">
+        <v>1.4478800000000001</v>
+      </c>
+      <c r="B21" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C21)</f>
-        <v>584.34</v>
+        <v>522.07000000000005</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C21)</f>
-        <v>586.32000000000005</v>
-      </c>
-      <c r="E21" s="21">
+        <v>523.79999999999995</v>
+      </c>
+      <c r="E21" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C21)</f>
-        <v>0.6</v>
+        <v>0.19781000000000001</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G21,H$14)</f>
-        <v>17602569</v>
-      </c>
-      <c r="I21" s="37">
+        <v>17818586</v>
+      </c>
+      <c r="I21" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G21,I$14)</f>
-        <v>9.5300000000000002E-6</v>
-      </c>
-      <c r="J21" s="37">
+        <v>8.7199999999999995E-6</v>
+      </c>
+      <c r="J21" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G21,J$14)</f>
-        <v>5897</v>
-      </c>
-      <c r="K21" s="37" t="b">
+        <v>67</v>
+      </c>
+      <c r="K21" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G21,K$14)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G21,L$14)</f>
         <v>1</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G21,M$14)</f>
-        <v>28364050</v>
-      </c>
-      <c r="N21" s="23">
+        <v>28717831</v>
+      </c>
+      <c r="N21" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G21,N$14)</f>
-        <v>28364051</v>
-      </c>
-      <c r="O21" s="34">
+        <v>28717831</v>
+      </c>
+      <c r="O21" s="31">
         <f>RTD(progId,,BINACE_TRADE,$G21,O$14)</f>
-        <v>43244.571249004628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+        <v>43248.642481481482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C22)</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="B22" s="20">
+        <v>0.68416999999999994</v>
+      </c>
+      <c r="B22" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C22)</f>
-        <v>584.25</v>
+        <v>522.05999999999995</v>
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C22)</f>
-        <v>586.34</v>
-      </c>
-      <c r="E22" s="21">
+        <v>523.84</v>
+      </c>
+      <c r="E22" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C22)</f>
-        <v>2.4588299999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+        <v>0.40294999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C23)</f>
-        <v>0.1</v>
-      </c>
-      <c r="B23" s="20">
+        <v>18.098939999999999</v>
+      </c>
+      <c r="B23" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C23)</f>
-        <v>584.24</v>
+        <v>522.04999999999995</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C23)</f>
-        <v>586.38</v>
-      </c>
-      <c r="E23" s="21">
+        <v>523.98</v>
+      </c>
+      <c r="E23" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C23)</f>
-        <v>0.10001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C24)</f>
-        <v>0.1</v>
-      </c>
-      <c r="B24" s="39">
+        <v>6.0957600000000003</v>
+      </c>
+      <c r="B24" s="33">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C24)</f>
-        <v>584.23</v>
-      </c>
-      <c r="C24" s="40">
+        <v>522.04</v>
+      </c>
+      <c r="C24" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="35">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C24)</f>
-        <v>586.59</v>
-      </c>
-      <c r="E24" s="41">
+        <v>523.99</v>
+      </c>
+      <c r="E24" s="35">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C24)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>0.21373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <f>SUM(Table3[BID_DEPTH_SIZE])</f>
-        <v>16.679970000000004</v>
-      </c>
-      <c r="B25" s="18">
+        <v>54.495629999999998</v>
+      </c>
+      <c r="B25" s="15">
         <f>SUMPRODUCT(Table3[BID_DEPTH_SIZE],Table3[BID_DEPTH])</f>
-        <v>9747.1634194000017</v>
-      </c>
-      <c r="C25" s="19">
+        <v>28460.011695599998</v>
+      </c>
+      <c r="C25" s="16">
         <f>D25-B25</f>
-        <v>5392.9166485999995</v>
-      </c>
-      <c r="D25" s="18">
+        <v>84415.051768800011</v>
+      </c>
+      <c r="D25" s="15">
         <f>SUMPRODUCT(Table3[ASK_DEPTH_SIZE],Table3[ASK_DEPTH])</f>
-        <v>15140.080068000001</v>
+        <v>112875.06346440001</v>
       </c>
       <c r="E25" s="13">
         <f>SUM(Table3[ASK_DEPTH_SIZE])</f>
-        <v>25.820039999999999</v>
+        <v>215.57804000000002</v>
       </c>
       <c r="F25" s="9"/>
       <c r="H25" s="1"/>
@@ -7409,45 +8230,45 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="38">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32">
         <f>B15-B24</f>
-        <v>0.75999999999999091</v>
+        <v>1.07000000000005</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="38">
+        <v>62</v>
+      </c>
+      <c r="D26" s="32">
         <f>D15-D24</f>
-        <v>-1.5900000000000318</v>
+        <v>-0.5</v>
       </c>
       <c r="F26" s="9"/>
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I27" s="4"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="32"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="32">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D28" s="29">
+        <v>5</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28"/>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B29" t="s">
@@ -7478,10 +8299,10 @@
         <v>18</v>
       </c>
       <c r="K29" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" t="s">
         <v>50</v>
-      </c>
-      <c r="L29" t="s">
-        <v>51</v>
       </c>
       <c r="M29" t="s">
         <v>47</v>
@@ -7493,233 +8314,224 @@
         <v>48</v>
       </c>
       <c r="P29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q29" t="s">
         <v>52</v>
       </c>
       <c r="R29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,B$29,$D$28)</f>
-        <v>584.87</v>
-      </c>
-      <c r="C30" s="16">
+        <v>521.78</v>
+      </c>
+      <c r="C30" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,C$29,$D$28)</f>
-        <v>585</v>
-      </c>
-      <c r="D30" s="16">
+        <v>524.86</v>
+      </c>
+      <c r="D30" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,D$29,$D$28)</f>
-        <v>584.80999999999995</v>
-      </c>
-      <c r="E30" s="16">
+        <v>520.26</v>
+      </c>
+      <c r="E30" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,E$29,$D$28)</f>
-        <v>584.99</v>
-      </c>
-      <c r="F30" s="27">
+        <v>523.11</v>
+      </c>
+      <c r="F30" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,F$29,$D$28)</f>
-        <v>43244.570833333331</v>
-      </c>
-      <c r="G30" s="27">
+        <v>43248.625</v>
+      </c>
+      <c r="G30" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,G$29,$D$28)</f>
-        <v>43244.571527766202</v>
-      </c>
-      <c r="H30" s="16" t="b">
+        <v>43248.666666655095</v>
+      </c>
+      <c r="H30" s="14" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,H$29,$D$28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,I$29,$D$28)</f>
-        <v>7470.4933760000004</v>
-      </c>
-      <c r="J30" s="29">
+        <v>499135.24110340001</v>
+      </c>
+      <c r="J30" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,J$29,$D$28)</f>
-        <v>12.77168</v>
-      </c>
-      <c r="K30" s="29">
+        <v>954.78896999999995</v>
+      </c>
+      <c r="K30" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,K$29,$D$28)</f>
-        <v>8.0156700000000001</v>
-      </c>
-      <c r="L30" s="29">
+        <v>597.50694999999996</v>
+      </c>
+      <c r="L30" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,L$29,$D$28)</f>
-        <v>4688.8574881000004</v>
-      </c>
-      <c r="M30" s="16" t="str">
+        <v>312492.26826789998</v>
+      </c>
+      <c r="M30" s="14" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,M$29,$D$28)</f>
-        <v>OneMinute</v>
-      </c>
-      <c r="N30" s="29">
+        <v>OneHour</v>
+      </c>
+      <c r="N30" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,N$29,$D$28)</f>
-        <v>34</v>
-      </c>
-      <c r="O30" s="16" t="str">
+        <v>1162</v>
+      </c>
+      <c r="O30" s="25">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,O$29,$D$28)</f>
-        <v>kline</v>
-      </c>
-      <c r="P30" s="28">
+        <v>43248.64247457176</v>
+      </c>
+      <c r="P30" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,P$29,$D$28)</f>
-        <v>43244.571248159722</v>
-      </c>
-      <c r="Q30" s="16">
+        <v>26603068</v>
+      </c>
+      <c r="Q30" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,Q$29,$D$28)</f>
-        <v>26179502</v>
-      </c>
-      <c r="R30" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,R$29,$D$28)</f>
-        <v>26179535</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+        <v>26604229</v>
+      </c>
+      <c r="R30" s="37"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,B$29,$D$28)</f>
-        <v>7522.19</v>
-      </c>
-      <c r="C31" s="16">
+        <v>7195.22</v>
+      </c>
+      <c r="C31" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,C$29,$D$28)</f>
-        <v>7523.66</v>
-      </c>
-      <c r="D31" s="16">
+        <v>7214.55</v>
+      </c>
+      <c r="D31" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,D$29,$D$28)</f>
-        <v>7515</v>
-      </c>
-      <c r="E31" s="16">
+        <v>7188</v>
+      </c>
+      <c r="E31" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,E$29,$D$28)</f>
-        <v>7521</v>
-      </c>
-      <c r="F31" s="27">
+        <v>7206.62</v>
+      </c>
+      <c r="F31" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,F$29,$D$28)</f>
-        <v>43244.570833333331</v>
-      </c>
-      <c r="G31" s="27">
+        <v>43248.625</v>
+      </c>
+      <c r="G31" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,G$29,$D$28)</f>
-        <v>43244.571527766202</v>
-      </c>
-      <c r="H31" s="16" t="b">
+        <v>43248.666666655095</v>
+      </c>
+      <c r="H31" s="14" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,H$29,$D$28)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,I$29,$D$28)</f>
-        <v>106013.21082545001</v>
-      </c>
-      <c r="J31" s="29">
+        <v>2010259.80980805</v>
+      </c>
+      <c r="J31" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,J$29,$D$28)</f>
-        <v>14.094797</v>
-      </c>
-      <c r="K31" s="29">
+        <v>279.08703100000002</v>
+      </c>
+      <c r="K31" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,K$29,$D$28)</f>
-        <v>1.1584190000000001</v>
-      </c>
-      <c r="L31" s="29">
+        <v>168.387643</v>
+      </c>
+      <c r="L31" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,L$29,$D$28)</f>
-        <v>8714.3031855900008</v>
-      </c>
-      <c r="M31" s="16" t="str">
+        <v>1212988.61425846</v>
+      </c>
+      <c r="M31" s="14" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,M$29,$D$28)</f>
-        <v>OneMinute</v>
-      </c>
-      <c r="N31" s="29">
+        <v>OneHour</v>
+      </c>
+      <c r="N31" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,N$29,$D$28)</f>
-        <v>82</v>
-      </c>
-      <c r="O31" s="16" t="str">
+        <v>4514</v>
+      </c>
+      <c r="O31" s="25">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,O$29,$D$28)</f>
-        <v>kline</v>
+        <v>43248.642458287039</v>
       </c>
       <c r="P31" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,P$29,$D$28)</f>
-        <v>43244.571257824071</v>
-      </c>
-      <c r="Q31" s="31">
+        <v>46452730</v>
+      </c>
+      <c r="Q31" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,Q$29,$D$28)</f>
-        <v>45561031</v>
-      </c>
-      <c r="R31" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,R$29,$D$28)</f>
-        <v>45561112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="23">
+        <v>46457243</v>
+      </c>
+      <c r="R31" s="37"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,B$29,$D$28)</f>
-        <v>122.04</v>
-      </c>
-      <c r="C32" s="23">
+        <v>8.7099999999999996E-6</v>
+      </c>
+      <c r="C32" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,C$29,$D$28)</f>
-        <v>122.04</v>
-      </c>
-      <c r="D32" s="23">
+        <v>8.7600000000000008E-6</v>
+      </c>
+      <c r="D32" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,D$29,$D$28)</f>
-        <v>122.04</v>
-      </c>
-      <c r="E32" s="23">
+        <v>8.6999999999999997E-6</v>
+      </c>
+      <c r="E32" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,E$29,$D$28)</f>
-        <v>122.04</v>
-      </c>
-      <c r="F32" s="27">
+        <v>8.7199999999999995E-6</v>
+      </c>
+      <c r="F32" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,F$29,$D$28)</f>
-        <v>43244.570833333331</v>
-      </c>
-      <c r="G32" s="27">
+        <v>43248.625</v>
+      </c>
+      <c r="G32" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,G$29,$D$28)</f>
-        <v>43244.571527766202</v>
-      </c>
-      <c r="H32" s="23" t="b">
+        <v>43248.666666655095</v>
+      </c>
+      <c r="H32" s="20" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,H$29,$D$28)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,I$29,$D$28)</f>
-        <v>1402.9889255999999</v>
-      </c>
-      <c r="J32" s="29">
+        <v>100.56131857</v>
+      </c>
+      <c r="J32" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,J$29,$D$28)</f>
-        <v>11.49614</v>
-      </c>
-      <c r="K32" s="29">
+        <v>11528260</v>
+      </c>
+      <c r="K32" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,K$29,$D$28)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="29">
+        <v>6232709</v>
+      </c>
+      <c r="L32" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,L$29,$D$28)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="23" t="str">
+        <v>54.400559020000003</v>
+      </c>
+      <c r="M32" s="20" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,M$29,$D$28)</f>
-        <v>OneMinute</v>
-      </c>
-      <c r="N32" s="30">
+        <v>OneHour</v>
+      </c>
+      <c r="N32" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,N$29,$D$28)</f>
-        <v>4</v>
-      </c>
-      <c r="O32" s="23" t="str">
+        <v>844</v>
+      </c>
+      <c r="O32" s="25">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,O$29,$D$28)</f>
-        <v>kline</v>
+        <v>43248.642481493058</v>
       </c>
       <c r="P32" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,P$29,$D$28)</f>
-        <v>43244.571162534725</v>
-      </c>
-      <c r="Q32" s="31">
+        <v>28716988</v>
+      </c>
+      <c r="Q32" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,Q$29,$D$28)</f>
-        <v>7507890</v>
-      </c>
-      <c r="R32" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,R$29,$D$28)</f>
-        <v>7507893</v>
-      </c>
+        <v>28717831</v>
+      </c>
+      <c r="R32" s="37"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I33" s="4"/>
@@ -7727,19 +8539,19 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="32">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="D34" s="29">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -7770,10 +8582,10 @@
         <v>18</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>47</v>
@@ -7785,232 +8597,217 @@
         <v>48</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R35" s="1" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,B$29,$D$34)</f>
-        <v>582.77</v>
-      </c>
-      <c r="C36" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,C$29,$D$34)</f>
-        <v>586</v>
-      </c>
-      <c r="D36" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,D$29,$D$34)</f>
-        <v>582.6</v>
-      </c>
-      <c r="E36" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,E$29,$D$34)</f>
-        <v>584.99</v>
-      </c>
-      <c r="F36" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,F$29,$D$34)</f>
-        <v>43244.5625</v>
-      </c>
-      <c r="G36" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,G$29,$D$34)</f>
-        <v>43244.572916655095</v>
-      </c>
-      <c r="H36" s="16" t="b">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,H$29,$D$34)</f>
+      <c r="B36" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,B$35,$D$34)</f>
+        <v>530.26</v>
+      </c>
+      <c r="C36" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,C$35,$D$34)</f>
+        <v>533</v>
+      </c>
+      <c r="D36" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,D$35,$D$34)</f>
+        <v>520.26</v>
+      </c>
+      <c r="E36" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,E$35,$D$34)</f>
+        <v>523.11</v>
+      </c>
+      <c r="F36" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,F$35,$D$34)</f>
+        <v>43248.5</v>
+      </c>
+      <c r="G36" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,G$35,$D$34)</f>
+        <v>43248.666666655095</v>
+      </c>
+      <c r="H36" s="14" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,H$35,$D$34)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,I$29,$D$34)</f>
-        <v>717482.29859090003</v>
-      </c>
-      <c r="J36" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,J$29,$D$34)</f>
-        <v>1227.5509500000001</v>
-      </c>
-      <c r="K36" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,K$29,$D$34)</f>
-        <v>822.61923999999999</v>
-      </c>
-      <c r="L36" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,L$29,$D$34)</f>
-        <v>480918.86814430001</v>
-      </c>
-      <c r="M36" s="16" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,M$29,$D$34)</f>
-        <v>FiveteenMinutes</v>
-      </c>
-      <c r="N36" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,N$29,$D$34)</f>
-        <v>989</v>
-      </c>
-      <c r="O36" s="16" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,O$29,$D$34)</f>
-        <v>kline</v>
-      </c>
-      <c r="P36" s="28">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,P$29,$D$34)</f>
-        <v>43244.571248159722</v>
-      </c>
-      <c r="Q36" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,Q$29,$D$34)</f>
-        <v>26178547</v>
-      </c>
-      <c r="R36" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A36,R$29,$D$34)</f>
-        <v>26179535</v>
+      <c r="I36" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,I$35,$D$34)</f>
+        <v>6696191.9421442999</v>
+      </c>
+      <c r="J36" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,J$35,$D$34)</f>
+        <v>12704.13386</v>
+      </c>
+      <c r="K36" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,K$35,$D$34)</f>
+        <v>6209.1530199999997</v>
+      </c>
+      <c r="L36" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,L$35,$D$34)</f>
+        <v>3275123.5764486999</v>
+      </c>
+      <c r="M36" s="14" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,M$35,$D$34)</f>
+        <v>FourHour</v>
+      </c>
+      <c r="N36" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,N$35,$D$34)</f>
+        <v>14920</v>
+      </c>
+      <c r="O36" s="25">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,O$35,$D$34)</f>
+        <v>43248.64247457176</v>
+      </c>
+      <c r="P36" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,P$35,$D$34)</f>
+        <v>26589310</v>
+      </c>
+      <c r="Q36" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A36,Q$35,$D$34)</f>
+        <v>26604229</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,B$29,$D$34)</f>
-        <v>7483</v>
-      </c>
-      <c r="C37" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,C$29,$D$34)</f>
-        <v>7535</v>
-      </c>
-      <c r="D37" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,D$29,$D$34)</f>
-        <v>7481.94</v>
-      </c>
-      <c r="E37" s="16">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,E$29,$D$34)</f>
-        <v>7521</v>
-      </c>
-      <c r="F37" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,F$29,$D$34)</f>
-        <v>43244.5625</v>
-      </c>
-      <c r="G37" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,G$29,$D$34)</f>
-        <v>43244.572916655095</v>
-      </c>
-      <c r="H37" s="16" t="b">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,H$29,$D$34)</f>
+      <c r="B37" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,B$35,$D$34)</f>
+        <v>7223.98</v>
+      </c>
+      <c r="C37" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,C$35,$D$34)</f>
+        <v>7243.39</v>
+      </c>
+      <c r="D37" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,D$35,$D$34)</f>
+        <v>7175.23</v>
+      </c>
+      <c r="E37" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,E$35,$D$34)</f>
+        <v>7206.62</v>
+      </c>
+      <c r="F37" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,F$35,$D$34)</f>
+        <v>43248.5</v>
+      </c>
+      <c r="G37" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,G$35,$D$34)</f>
+        <v>43248.666666655095</v>
+      </c>
+      <c r="H37" s="14" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,H$35,$D$34)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,I$29,$D$34)</f>
-        <v>2484806.0479756701</v>
-      </c>
-      <c r="J37" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,J$29,$D$34)</f>
-        <v>330.70457199999998</v>
-      </c>
-      <c r="K37" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,K$29,$D$34)</f>
-        <v>171.80895899999999</v>
-      </c>
-      <c r="L37" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,L$29,$D$34)</f>
-        <v>1290856.4809303901</v>
-      </c>
-      <c r="M37" s="16" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,M$29,$D$34)</f>
-        <v>FiveteenMinutes</v>
-      </c>
-      <c r="N37" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,N$29,$D$34)</f>
-        <v>1756</v>
-      </c>
-      <c r="O37" s="16" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,O$29,$D$34)</f>
-        <v>kline</v>
+      <c r="I37" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,I$35,$D$34)</f>
+        <v>18666256.877545841</v>
+      </c>
+      <c r="J37" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,J$35,$D$34)</f>
+        <v>2589.4488510000001</v>
+      </c>
+      <c r="K37" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,K$35,$D$34)</f>
+        <v>1562.624771</v>
+      </c>
+      <c r="L37" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,L$35,$D$34)</f>
+        <v>11265225.01936353</v>
+      </c>
+      <c r="M37" s="14" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,M$35,$D$34)</f>
+        <v>FourHour</v>
+      </c>
+      <c r="N37" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,N$35,$D$34)</f>
+        <v>25313</v>
+      </c>
+      <c r="O37" s="25">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,O$35,$D$34)</f>
+        <v>43248.642458287039</v>
       </c>
       <c r="P37" s="28">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,P$29,$D$34)</f>
-        <v>43244.571257858799</v>
-      </c>
-      <c r="Q37" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,Q$29,$D$34)</f>
-        <v>45559357</v>
-      </c>
-      <c r="R37" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A37,R$29,$D$34)</f>
-        <v>45561112</v>
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,P$35,$D$34)</f>
+        <v>46431931</v>
+      </c>
+      <c r="Q37" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A37,Q$35,$D$34)</f>
+        <v>46457243</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="23">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,B$29,$D$34)</f>
-        <v>121.52</v>
-      </c>
-      <c r="C38" s="23">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,C$29,$D$34)</f>
-        <v>122.23</v>
-      </c>
-      <c r="D38" s="23">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,D$29,$D$34)</f>
-        <v>121.27</v>
-      </c>
-      <c r="E38" s="23">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,E$29,$D$34)</f>
-        <v>122.04</v>
-      </c>
-      <c r="F38" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,F$29,$D$34)</f>
-        <v>43244.5625</v>
-      </c>
-      <c r="G38" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,G$29,$D$34)</f>
-        <v>43244.572916655095</v>
-      </c>
-      <c r="H38" s="23" t="b">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,H$29,$D$34)</f>
+      <c r="A38" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="20">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,B$35,$D$34)</f>
+        <v>8.7700000000000007E-6</v>
+      </c>
+      <c r="C38" s="20">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,C$35,$D$34)</f>
+        <v>8.8400000000000001E-6</v>
+      </c>
+      <c r="D38" s="20">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,D$35,$D$34)</f>
+        <v>8.6999999999999997E-6</v>
+      </c>
+      <c r="E38" s="20">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,E$35,$D$34)</f>
+        <v>8.7199999999999995E-6</v>
+      </c>
+      <c r="F38" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,F$35,$D$34)</f>
+        <v>43248.5</v>
+      </c>
+      <c r="G38" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,G$35,$D$34)</f>
+        <v>43248.666666655095</v>
+      </c>
+      <c r="H38" s="20" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,H$35,$D$34)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,I$29,$D$34)</f>
-        <v>55653.477134000001</v>
-      </c>
-      <c r="J38" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,J$29,$D$34)</f>
-        <v>457.14715000000001</v>
-      </c>
-      <c r="K38" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,K$29,$D$34)</f>
-        <v>142.33655999999999</v>
-      </c>
-      <c r="L38" s="29">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,L$29,$D$34)</f>
-        <v>17317.763558400002</v>
-      </c>
-      <c r="M38" s="23" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,M$29,$D$34)</f>
-        <v>FiveteenMinutes</v>
-      </c>
-      <c r="N38" s="30">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,N$29,$D$34)</f>
-        <v>131</v>
-      </c>
-      <c r="O38" s="23" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,O$29,$D$34)</f>
-        <v>kline</v>
+      <c r="I38" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,I$35,$D$34)</f>
+        <v>949.13351813999998</v>
+      </c>
+      <c r="J38" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,J$35,$D$34)</f>
+        <v>108455087</v>
+      </c>
+      <c r="K38" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,K$35,$D$34)</f>
+        <v>44154469</v>
+      </c>
+      <c r="L38" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,L$35,$D$34)</f>
+        <v>386.64930022999999</v>
+      </c>
+      <c r="M38" s="20" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,M$35,$D$34)</f>
+        <v>FourHour</v>
+      </c>
+      <c r="N38" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,N$35,$D$34)</f>
+        <v>8379</v>
+      </c>
+      <c r="O38" s="25">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,O$35,$D$34)</f>
+        <v>43248.642481493058</v>
       </c>
       <c r="P38" s="28">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,P$29,$D$34)</f>
-        <v>43244.571162534725</v>
-      </c>
-      <c r="Q38" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,Q$29,$D$34)</f>
-        <v>7507763</v>
-      </c>
-      <c r="R38" s="31">
-        <f>RTD(progId,,BINANCE_CANDLE,$A38,R$29,$D$34)</f>
-        <v>7507893</v>
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,P$35,$D$34)</f>
+        <v>28709453</v>
+      </c>
+      <c r="Q38" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A38,Q$35,$D$34)</f>
+        <v>28717831</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -8019,29 +8816,288 @@
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I40" s="4"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="A40" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="29">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I41" s="4"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="A41" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I42" s="4"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="A42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,B$41,$D$40)</f>
+        <v>529.64</v>
+      </c>
+      <c r="C42" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,C$41,$D$40)</f>
+        <v>541.38</v>
+      </c>
+      <c r="D42" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,D$41,$D$40)</f>
+        <v>520.26</v>
+      </c>
+      <c r="E42" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,E$41,$D$40)</f>
+        <v>523.11</v>
+      </c>
+      <c r="F42" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,F$41,$D$40)</f>
+        <v>43248.333333333336</v>
+      </c>
+      <c r="G42" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,G$41,$D$40)</f>
+        <v>43248.83333332176</v>
+      </c>
+      <c r="H42" s="14" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,H$41,$D$40)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,I$41,$D$40)</f>
+        <v>20699074.592894401</v>
+      </c>
+      <c r="J42" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,J$41,$D$40)</f>
+        <v>38994.013830000004</v>
+      </c>
+      <c r="K42" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,K$41,$D$40)</f>
+        <v>19938.152539999999</v>
+      </c>
+      <c r="L42" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,L$41,$D$40)</f>
+        <v>10589444.745726001</v>
+      </c>
+      <c r="M42" s="14" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,M$41,$D$40)</f>
+        <v>TwelfHour</v>
+      </c>
+      <c r="N42" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,N$41,$D$40)</f>
+        <v>34824</v>
+      </c>
+      <c r="O42" s="25">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,O$41,$D$40)</f>
+        <v>43248.64247457176</v>
+      </c>
+      <c r="P42" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,P$41,$D$40)</f>
+        <v>26569406</v>
+      </c>
+      <c r="Q42" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A42,Q$41,$D$40)</f>
+        <v>26604229</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I43" s="4"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="A43" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,B$41,$D$40)</f>
+        <v>7196.74</v>
+      </c>
+      <c r="C43" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,C$41,$D$40)</f>
+        <v>7300</v>
+      </c>
+      <c r="D43" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,D$41,$D$40)</f>
+        <v>7148.16</v>
+      </c>
+      <c r="E43" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,E$41,$D$40)</f>
+        <v>7206.62</v>
+      </c>
+      <c r="F43" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,F$41,$D$40)</f>
+        <v>43248.333333333336</v>
+      </c>
+      <c r="G43" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,G$41,$D$40)</f>
+        <v>43248.83333332176</v>
+      </c>
+      <c r="H43" s="14" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,H$41,$D$40)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,I$41,$D$40)</f>
+        <v>51790188.287897058</v>
+      </c>
+      <c r="J43" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,J$41,$D$40)</f>
+        <v>7164.9058009999999</v>
+      </c>
+      <c r="K43" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,K$41,$D$40)</f>
+        <v>4045.8033679999999</v>
+      </c>
+      <c r="L43" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,L$41,$D$40)</f>
+        <v>29250034.49139104</v>
+      </c>
+      <c r="M43" s="14" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,M$41,$D$40)</f>
+        <v>TwelfHour</v>
+      </c>
+      <c r="N43" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,N$41,$D$40)</f>
+        <v>64112</v>
+      </c>
+      <c r="O43" s="25">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,O$41,$D$40)</f>
+        <v>43248.642458287039</v>
+      </c>
+      <c r="P43" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,P$41,$D$40)</f>
+        <v>46393132</v>
+      </c>
+      <c r="Q43" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A43,Q$41,$D$40)</f>
+        <v>46457243</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I44" s="4"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="A44" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="20">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,B$41,$D$40)</f>
+        <v>8.8899999999999996E-6</v>
+      </c>
+      <c r="C44" s="20">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,C$41,$D$40)</f>
+        <v>9.0399999999999998E-6</v>
+      </c>
+      <c r="D44" s="20">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,D$41,$D$40)</f>
+        <v>8.67E-6</v>
+      </c>
+      <c r="E44" s="20">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,E$41,$D$40)</f>
+        <v>8.7199999999999995E-6</v>
+      </c>
+      <c r="F44" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,F$41,$D$40)</f>
+        <v>43248.333333333336</v>
+      </c>
+      <c r="G44" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,G$41,$D$40)</f>
+        <v>43248.83333332176</v>
+      </c>
+      <c r="H44" s="20" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,H$41,$D$40)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,I$41,$D$40)</f>
+        <v>2587.28489614</v>
+      </c>
+      <c r="J44" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,J$41,$D$40)</f>
+        <v>293281557</v>
+      </c>
+      <c r="K44" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,K$41,$D$40)</f>
+        <v>126806735</v>
+      </c>
+      <c r="L44" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,L$41,$D$40)</f>
+        <v>1120.39053597</v>
+      </c>
+      <c r="M44" s="20" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,M$41,$D$40)</f>
+        <v>TwelfHour</v>
+      </c>
+      <c r="N44" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,N$41,$D$40)</f>
+        <v>23445</v>
+      </c>
+      <c r="O44" s="25">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,O$41,$D$40)</f>
+        <v>43248.642482025462</v>
+      </c>
+      <c r="P44" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,P$41,$D$40)</f>
+        <v>28694387</v>
+      </c>
+      <c r="Q44" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A44,Q$41,$D$40)</f>
+        <v>28717831</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I45" s="4"/>
@@ -8437,16 +9493,16 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
         <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8455,31 +9511,31 @@
       </c>
       <c r="B3" s="2">
         <f>RTD(progId,,GDAX,$A3,B$2)</f>
-        <v>585.87</v>
+        <v>523.48</v>
       </c>
       <c r="C3" s="2">
         <f>RTD(progId,,GDAX,$A3,C$2)</f>
-        <v>586.4</v>
+        <v>523.49</v>
       </c>
       <c r="D3" s="2">
         <f>RTD(progId,,GDAX,$A3,D$2)</f>
-        <v>585.87</v>
+        <v>523.49</v>
       </c>
       <c r="E3" s="2">
         <f>RTD(progId,,GDAX,$A3,E$2)</f>
-        <v>574.98</v>
+        <v>558.98</v>
       </c>
       <c r="F3" s="2">
         <f>RTD(progId,,GDAX,$A3,F$2)</f>
-        <v>609.21</v>
+        <v>575</v>
       </c>
       <c r="G3" s="2">
         <f>RTD(progId,,GDAX,$A3,G$2)</f>
-        <v>545.36</v>
+        <v>517</v>
       </c>
       <c r="H3" s="2">
         <f>RTD(progId,,GDAX,$A3,H$2)</f>
-        <v>177296.53594505999</v>
+        <v>95034.089917260004</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8488,31 +9544,31 @@
       </c>
       <c r="B4" s="2">
         <f>RTD(progId,,GDAX,$A4,B$2)</f>
-        <v>7524.99</v>
+        <v>7222.36</v>
       </c>
       <c r="C4" s="2">
         <f>RTD(progId,,GDAX,$A4,C$2)</f>
-        <v>7525</v>
+        <v>7222.37</v>
       </c>
       <c r="D4" s="2">
         <f>RTD(progId,,GDAX,$A4,D$2)</f>
-        <v>7525</v>
+        <v>7222.37</v>
       </c>
       <c r="E4" s="2">
         <f>RTD(progId,,GDAX,$A4,E$2)</f>
-        <v>7542.98</v>
+        <v>7288.37</v>
       </c>
       <c r="F4" s="2">
         <f>RTD(progId,,GDAX,$A4,F$2)</f>
-        <v>7734.99</v>
+        <v>7444.8</v>
       </c>
       <c r="G4" s="2">
         <f>RTD(progId,,GDAX,$A4,G$2)</f>
-        <v>7269</v>
+        <v>7167.99</v>
       </c>
       <c r="H4" s="2">
         <f>RTD(progId,,GDAX,$A4,H$2)</f>
-        <v>14596.225927150001</v>
+        <v>6328.13792724</v>
       </c>
     </row>
   </sheetData>

--- a/doc/crypto.xlsx
+++ b/doc/crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\OpenSource\Crypto\crypto-rtd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C828C751-9815-4238-97E5-8651E71C721E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D857F6-98DE-47A6-9804-7FE33A27895F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="12225" tabRatio="245" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t>GDAX</t>
   </si>
@@ -236,10 +236,7 @@
     <t>12 hour</t>
   </si>
   <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>BTCUSDT</t>
+    <t>ETHUSDT</t>
   </si>
 </sst>
 </file>
@@ -465,7 +462,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -517,7 +514,6 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="6" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="7">
@@ -529,7 +525,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="107">
+  <dxfs count="106">
     <dxf>
       <font>
         <b val="0"/>
@@ -1854,30 +1850,6 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3449,7 +3421,7 @@
   <volType type="realTimeData">
     <main first="crypto">
       <tp>
-        <v>24586</v>
+        <v>26990</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3457,7 +3429,7 @@
         <tr r="M8" s="1"/>
       </tp>
       <tp>
-        <v>22285</v>
+        <v>21092</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3465,7 +3437,7 @@
         <tr r="M7" s="1"/>
       </tp>
       <tp>
-        <v>219226</v>
+        <v>230157</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3473,7 +3445,7 @@
         <tr r="M6" s="1"/>
       </tp>
       <tp>
-        <v>127795</v>
+        <v>133786</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3481,7 +3453,7 @@
         <tr r="M5" s="1"/>
       </tp>
       <tp>
-        <v>100.56131857</v>
+        <v>139.10430636000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -3490,7 +3462,7 @@
         <tr r="I32" s="1"/>
       </tp>
       <tp>
-        <v>949.13351813999998</v>
+        <v>424.68785742</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -3499,7 +3471,7 @@
         <tr r="I38" s="1"/>
       </tp>
       <tp>
-        <v>0.3</v>
+        <v>6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3507,7 +3479,7 @@
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>5228</v>
+        <v>801878</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3515,7 +3487,7 @@
         <tr r="J11" s="1"/>
       </tp>
       <tp>
-        <v>777</v>
+        <v>14723.2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3523,7 +3495,7 @@
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>43248.333333333336</v>
+        <v>43248.833333333336</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3532,7 +3504,7 @@
         <tr r="F42" s="1"/>
       </tp>
       <tp>
-        <v>43248.333333333336</v>
+        <v>43248.833333333336</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3541,7 +3513,7 @@
         <tr r="F43" s="1"/>
       </tp>
       <tp>
-        <v>117652.83</v>
+        <v>126866.83</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3549,7 +3521,7 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>1396958761</v>
+        <v>1630637655</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3557,7 +3529,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>34251798</v>
+        <v>35789838</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3565,7 +3537,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>7214.55</v>
+        <v>7125.15</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3574,7 +3546,7 @@
         <tr r="C31" s="1"/>
       </tp>
       <tp>
-        <v>7243.39</v>
+        <v>7132.1</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3583,7 +3555,7 @@
         <tr r="C37" s="1"/>
       </tp>
       <tp>
-        <v>524.86</v>
+        <v>521</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3592,7 +3564,7 @@
         <tr r="C30" s="1"/>
       </tp>
       <tp>
-        <v>533</v>
+        <v>522</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3601,7 +3573,7 @@
         <tr r="C36" s="1"/>
       </tp>
       <tp>
-        <v>521.78</v>
+        <v>519.95000000000005</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3610,7 +3582,7 @@
         <tr r="B30" s="1"/>
       </tp>
       <tp>
-        <v>530.26</v>
+        <v>511.5</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3619,7 +3591,7 @@
         <tr r="B36" s="1"/>
       </tp>
       <tp>
-        <v>7195.22</v>
+        <v>7115.02</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3628,7 +3600,7 @@
         <tr r="B31" s="1"/>
       </tp>
       <tp>
-        <v>7223.98</v>
+        <v>7099</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3637,7 +3609,7 @@
         <tr r="B37" s="1"/>
       </tp>
       <tp>
-        <v>4514</v>
+        <v>2178</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3646,7 +3618,7 @@
         <tr r="N31" s="1"/>
       </tp>
       <tp>
-        <v>25313</v>
+        <v>8173</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3655,7 +3627,7 @@
         <tr r="N37" s="1"/>
       </tp>
       <tp>
-        <v>1162</v>
+        <v>1526</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3664,7 +3636,7 @@
         <tr r="N30" s="1"/>
       </tp>
       <tp>
-        <v>14920</v>
+        <v>5416</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3673,7 +3645,7 @@
         <tr r="N36" s="1"/>
       </tp>
       <tp>
-        <v>-5.4440000000000002E-2</v>
+        <v>-8.9539999999999995E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -3681,7 +3653,7 @@
         <tr r="N8" s="1"/>
       </tp>
       <tp>
-        <v>-3.056E-2</v>
+        <v>-6.5119999999999997E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3689,7 +3661,7 @@
         <tr r="N7" s="1"/>
       </tp>
       <tp>
-        <v>-6.5869999999999998E-2</v>
+        <v>-9.461E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3697,7 +3669,7 @@
         <tr r="N5" s="1"/>
       </tp>
       <tp>
-        <v>-1.1679999999999999E-2</v>
+        <v>-3.3770000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3705,7 +3677,7 @@
         <tr r="N6" s="1"/>
       </tp>
       <tp>
-        <v>0.37648999999999999</v>
+        <v>2.64337</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -3713,7 +3685,7 @@
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>3.6181999999999999</v>
+        <v>1.0727</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -3721,7 +3693,7 @@
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>0.81162699999999999</v>
+        <v>2.8150000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -3729,7 +3701,7 @@
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>815.74687168000003</v>
+        <v>869.01502318999997</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3737,7 +3709,7 @@
         <tr r="L9" s="1"/>
       </tp>
       <tp>
-        <v>523.49</v>
+        <v>515.5</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -3745,7 +3717,7 @@
         <tr r="C3" s="2"/>
       </tp>
       <tp>
-        <v>523.48</v>
+        <v>515.49</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -3753,7 +3725,7 @@
         <tr r="B3" s="2"/>
       </tp>
       <tp>
-        <v>20699074.592894401</v>
+        <v>4051158.0279271002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3762,7 +3734,7 @@
         <tr r="I42" s="1"/>
       </tp>
       <tp>
-        <v>51790188.287897058</v>
+        <v>8811083.6166344304</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3771,7 +3743,7 @@
         <tr r="I43" s="1"/>
       </tp>
       <tp>
-        <v>7222.36</v>
+        <v>7102.11</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -3779,7 +3751,7 @@
         <tr r="B4" s="2"/>
       </tp>
       <tp>
-        <v>150</v>
+        <v>1800</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3787,7 +3759,7 @@
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>43248.625</v>
+        <v>43248.875</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -3796,7 +3768,7 @@
         <tr r="F32" s="1"/>
       </tp>
       <tp>
-        <v>43248.5</v>
+        <v>43248.833333333336</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -3805,7 +3777,7 @@
         <tr r="F38" s="1"/>
       </tp>
       <tp>
-        <v>126806735</v>
+        <v>26021939</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -3814,7 +3786,7 @@
         <tr r="K44" s="1"/>
       </tp>
       <tp>
-        <v>7222.37</v>
+        <v>7102.12</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -3822,7 +3794,7 @@
         <tr r="C4" s="2"/>
       </tp>
       <tp>
-        <v>7167.99</v>
+        <v>7087</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -3830,7 +3802,7 @@
         <tr r="G4" s="2"/>
       </tp>
       <tp>
-        <v>28717831</v>
+        <v>28746194</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -3839,7 +3811,7 @@
         <tr r="Q38" s="1"/>
       </tp>
       <tp>
-        <v>28717831</v>
+        <v>28746194</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -3848,7 +3820,7 @@
         <tr r="Q32" s="1"/>
       </tp>
       <tp>
-        <v>9.0399999999999998E-6</v>
+        <v>8.4999999999999999E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -3857,7 +3829,7 @@
         <tr r="C44" s="1"/>
       </tp>
       <tp>
-        <v>597.50694999999996</v>
+        <v>1374.9215300000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3866,7 +3838,7 @@
         <tr r="K30" s="1"/>
       </tp>
       <tp>
-        <v>6209.1530199999997</v>
+        <v>4455.7749999999996</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3875,7 +3847,7 @@
         <tr r="K36" s="1"/>
       </tp>
       <tp>
-        <v>168.387643</v>
+        <v>156.71992800000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3884,7 +3856,7 @@
         <tr r="K31" s="1"/>
       </tp>
       <tp>
-        <v>1562.624771</v>
+        <v>741.40308400000004</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3893,7 +3865,7 @@
         <tr r="K37" s="1"/>
       </tp>
       <tp>
-        <v>29250034.49139104</v>
+        <v>5274178.28665327</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3902,7 +3874,7 @@
         <tr r="L43" s="1"/>
       </tp>
       <tp>
-        <v>46457243</v>
+        <v>46507515</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3911,7 +3883,7 @@
         <tr r="Q31" s="1"/>
       </tp>
       <tp>
-        <v>46457243</v>
+        <v>46507515</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -3920,7 +3892,7 @@
         <tr r="Q37" s="1"/>
       </tp>
       <tp>
-        <v>1120.39053597</v>
+        <v>219.73664076</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -3929,7 +3901,7 @@
         <tr r="L44" s="1"/>
       </tp>
       <tp>
-        <v>8.8899999999999996E-6</v>
+        <v>8.3599999999999996E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -3938,7 +3910,7 @@
         <tr r="B44" s="1"/>
       </tp>
       <tp>
-        <v>7.9010000000000004E-5</v>
+        <v>7.7700000000000005E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3946,7 +3918,7 @@
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>8.7299999999999994E-6</v>
+        <v>8.3999999999999992E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3954,7 +3926,7 @@
         <tr r="I11" s="1"/>
       </tp>
       <tp>
-        <v>6.8069999999999997E-3</v>
+        <v>6.7530000000000003E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3962,7 +3934,7 @@
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>6.803E-3</v>
+        <v>6.7460000000000003E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -3970,7 +3942,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>8.7199999999999995E-6</v>
+        <v>8.3899999999999993E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -3978,7 +3950,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>7.8930000000000005E-5</v>
+        <v>7.7579999999999999E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -3986,7 +3958,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>43248.83333332176</v>
+        <v>43249.33333332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -3995,7 +3967,7 @@
         <tr r="G42" s="1"/>
       </tp>
       <tp>
-        <v>1260</v>
+        <v>1518</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4003,7 +3975,7 @@
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>517</v>
+        <v>507</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4011,7 +3983,7 @@
         <tr r="G3" s="2"/>
       </tp>
       <tp>
-        <v>26604229</v>
+        <v>26632443</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4020,7 +3992,7 @@
         <tr r="Q36" s="1"/>
       </tp>
       <tp>
-        <v>26604229</v>
+        <v>26632443</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4029,7 +4001,7 @@
         <tr r="Q30" s="1"/>
       </tp>
       <tp>
-        <v>6.7749999999999998E-3</v>
+        <v>6.7010000000000004E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4037,7 +4009,7 @@
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>8.6300000000000004E-6</v>
+        <v>8.2700000000000004E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4045,7 +4017,7 @@
         <tr r="B11" s="1"/>
       </tp>
       <tp>
-        <v>7.8319999999999996E-5</v>
+        <v>7.7000000000000001E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4053,7 +4025,7 @@
         <tr r="B10" s="1"/>
       </tp>
       <tp>
-        <v>10589444.745726001</v>
+        <v>2302155.0424533002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4062,7 +4034,7 @@
         <tr r="L42" s="1"/>
       </tp>
       <tp>
-        <v>16.09</v>
+        <v>0.99</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4070,7 +4042,7 @@
         <tr r="J9" s="1"/>
       </tp>
       <tp>
-        <v>181676</v>
+        <v>162488</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4078,7 +4050,7 @@
         <tr r="F11" s="1"/>
       </tp>
       <tp>
-        <v>50</v>
+        <v>492.34</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4086,7 +4058,7 @@
         <tr r="J8" s="1"/>
       </tp>
       <tp>
-        <v>43248.83333332176</v>
+        <v>43249.33333332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -4095,7 +4067,7 @@
         <tr r="G44" s="1"/>
       </tp>
       <tp>
-        <v>43248.83333332176</v>
+        <v>43249.33333332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4104,7 +4076,7 @@
         <tr r="G43" s="1"/>
       </tp>
       <tp>
-        <v>0.51</v>
+        <v>0.54</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4112,7 +4084,7 @@
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>6.1897000000000001E-2</v>
+        <v>7.9342999999999997E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4120,7 +4092,7 @@
         <tr r="J6" s="1"/>
       </tp>
       <tp>
-        <v>2.5760000000000002E-2</v>
+        <v>0.87063999999999997</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4128,7 +4100,7 @@
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>2761.8157205100001</v>
+        <v>2857.2464935600001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4136,7 +4108,7 @@
         <tr r="L10" s="1"/>
       </tp>
       <tp>
-        <v>46457243</v>
+        <v>46507515</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4145,7 +4117,7 @@
         <tr r="Q43" s="1"/>
       </tp>
       <tp>
-        <v>26604229</v>
+        <v>26632443</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4154,7 +4126,7 @@
         <tr r="Q42" s="1"/>
       </tp>
       <tp>
-        <v>12656.64080492</v>
+        <v>14448.935198929999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -4162,7 +4134,7 @@
         <tr r="L11" s="1"/>
       </tp>
       <tp>
-        <v>613861</v>
+        <v>620092</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -4170,7 +4142,7 @@
         <tr r="M18" s="1"/>
       </tp>
       <tp>
-        <v>8.7700000000000007E-6</v>
+        <v>8.3599999999999996E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -4179,7 +4151,7 @@
         <tr r="B38" s="1"/>
       </tp>
       <tp>
-        <v>8.7099999999999996E-6</v>
+        <v>8.4700000000000002E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -4188,7 +4160,7 @@
         <tr r="B32" s="1"/>
       </tp>
       <tp>
-        <v>1.06E-3</v>
+        <v>1.65E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4204,7 +4176,7 @@
         <tr r="K21" s="1"/>
       </tp>
       <tp>
-        <v>0.15</v>
+        <v>0.11</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -4212,7 +4184,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>4</v>
+        <v>1.55</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -4220,7 +4192,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>0.38</v>
+        <v>0.24</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4228,7 +4200,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>46393132</v>
+        <v>46499343</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4237,7 +4209,7 @@
         <tr r="P43" s="1"/>
       </tp>
       <tp>
-        <v>20</v>
+        <v>356</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -4245,7 +4217,7 @@
         <tr r="J20" s="1"/>
       </tp>
       <tp>
-        <v>844</v>
+        <v>1080</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -4254,7 +4226,7 @@
         <tr r="N32" s="1"/>
       </tp>
       <tp>
-        <v>8379</v>
+        <v>3552</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -4263,7 +4235,7 @@
         <tr r="N38" s="1"/>
       </tp>
       <tp>
-        <v>26569406</v>
+        <v>26627028</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4272,7 +4244,7 @@
         <tr r="P42" s="1"/>
       </tp>
       <tp>
-        <v>13472636</v>
+        <v>13477809</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -4280,7 +4252,7 @@
         <tr r="H19" s="1"/>
       </tp>
       <tp>
-        <v>43248.333333333336</v>
+        <v>43248.833333333336</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -4289,7 +4261,7 @@
         <tr r="F44" s="1"/>
       </tp>
       <tp>
-        <v>28717831</v>
+        <v>28746194</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -4297,7 +4269,7 @@
         <tr r="M21" s="1"/>
       </tp>
       <tp>
-        <v>46457245</v>
+        <v>46507521</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4305,7 +4277,7 @@
         <tr r="M16" s="1"/>
       </tp>
       <tp>
-        <v>7600750</v>
+        <v>7604933</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4313,7 +4285,7 @@
         <tr r="M17" s="1"/>
       </tp>
       <tp>
-        <v>26604229</v>
+        <v>26632443</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4321,7 +4293,7 @@
         <tr r="M15" s="1"/>
       </tp>
       <tp>
-        <v>8.8400000000000001E-6</v>
+        <v>8.4999999999999999E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -4330,7 +4302,7 @@
         <tr r="C38" s="1"/>
       </tp>
       <tp>
-        <v>8.7600000000000008E-6</v>
+        <v>8.4800000000000001E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -4339,7 +4311,7 @@
         <tr r="C32" s="1"/>
       </tp>
       <tp t="b">
-        <v>1</v>
+        <v>0</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -4347,7 +4319,7 @@
         <tr r="K20" s="1"/>
       </tp>
       <tp>
-        <v>21046335</v>
+        <v>21057785</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -4364,7 +4336,7 @@
         <tr r="M43" s="1"/>
       </tp>
       <tp>
-        <v>2587.28489614</v>
+        <v>424.68785742</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -4373,7 +4345,7 @@
         <tr r="I44" s="1"/>
       </tp>
       <tp>
-        <v>1351.75</v>
+        <v>4609.51</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -4381,7 +4353,7 @@
         <tr r="J18" s="1"/>
       </tp>
       <tp>
-        <v>613861</v>
+        <v>620092</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -4397,7 +4369,7 @@
         <tr r="L19" s="1"/>
       </tp>
       <tp>
-        <v>0.42693999999999999</v>
+        <v>2.65509</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4405,7 +4377,7 @@
         <tr r="J15" s="1"/>
       </tp>
       <tp>
-        <v>2.2717860000000001</v>
+        <v>9.0337000000000001E-2</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4413,7 +4385,7 @@
         <tr r="J16" s="1"/>
       </tp>
       <tp>
-        <v>1.387E-2</v>
+        <v>3.0000000000000001E-5</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4430,7 +4402,7 @@
         <tr r="M42" s="1"/>
       </tp>
       <tp>
-        <v>0.5</v>
+        <v>17</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4439,7 +4411,7 @@
         <tr r="E23" s="1"/>
       </tp>
       <tp>
-        <v>0.21373</v>
+        <v>0.81560999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4448,7 +4420,7 @@
         <tr r="E24" s="1"/>
       </tp>
       <tp>
-        <v>6.4930000000000002E-2</v>
+        <v>17</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4457,7 +4429,7 @@
         <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>66.909000000000006</v>
+        <v>4.7E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4466,7 +4438,7 @@
         <tr r="E20" s="1"/>
       </tp>
       <tp>
-        <v>0.19781000000000001</v>
+        <v>14</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4475,7 +4447,7 @@
         <tr r="E21" s="1"/>
       </tp>
       <tp>
-        <v>0.40294999999999997</v>
+        <v>4.48665</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4484,7 +4456,7 @@
         <tr r="E22" s="1"/>
       </tp>
       <tp>
-        <v>2.5760000000000002E-2</v>
+        <v>0.87063999999999997</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4493,7 +4465,7 @@
         <tr r="E15" s="1"/>
       </tp>
       <tp>
-        <v>147.21770000000001</v>
+        <v>1.0964700000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4502,7 +4474,7 @@
         <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>1.6000000000000001E-4</v>
+        <v>0.34676000000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4511,7 +4483,7 @@
         <tr r="E17" s="1"/>
       </tp>
       <tp>
-        <v>4.5999999999999999E-2</v>
+        <v>13</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4520,7 +4492,7 @@
         <tr r="E18" s="1"/>
       </tp>
       <tp>
-        <v>67</v>
+        <v>14832</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -4528,7 +4500,7 @@
         <tr r="J21" s="1"/>
       </tp>
       <tp>
-        <v>43248.642275405095</v>
+        <v>43248.890807847223</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -4536,7 +4508,7 @@
         <tr r="O18" s="1"/>
       </tp>
       <tp>
-        <v>43248.642332708332</v>
+        <v>43248.890781203707</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4544,7 +4516,7 @@
         <tr r="O17" s="1"/>
       </tp>
       <tp>
-        <v>43248.642474513887</v>
+        <v>43248.890757719906</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4552,7 +4524,7 @@
         <tr r="O15" s="1"/>
       </tp>
       <tp>
-        <v>43248.642458622686</v>
+        <v>43248.890807847223</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4560,7 +4532,7 @@
         <tr r="O16" s="1"/>
       </tp>
       <tp>
-        <v>46457245</v>
+        <v>46507521</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4568,7 +4540,7 @@
         <tr r="N16" s="1"/>
       </tp>
       <tp>
-        <v>15215591</v>
+        <v>15221894</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -4576,15 +4548,24 @@
         <tr r="N19" s="1"/>
       </tp>
       <tp>
-        <v>21046336</v>
+        <v>21057785</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>LAST_ID</stp>
         <tr r="N20" s="1"/>
       </tp>
-      <tp>
-        <v>17395594</v>
+      <tp t="s">
+        <v>[["SYMBOL","TRADE_ID","PRICE","QUANTITY","TRADE_TIME","IS_BEST_MATCH","BUYER_IS_MAKER"],["ETHUSDT",26632306,517.02000000,3.46347000,"2018-05-28T21:20:18.018-04:00",true,true],["ETHUSDT",26632307,517.01000000,1.38295000,"2018-05-28T21:20:18.338-04:00",true,true],["ETHUSDT",26632308,517.01000000,0.65902000,"2018-05-28T21:20:18.442-04:00",true,false],["ETHUSDT",26632309,517.02000000,7.17751000,"2018-05-28T21:20:18.442-04:00",true,false],["ETHUSDT",26632310,517.02000000,0.65902000,"2018-05-28T21:20:19.422-04:00",true,false],["ETHUSDT",26632311,516.85000000,0.21000000,"2018-05-28T21:20:33.42-04:00",true,true],["ETHUSDT",26632312,516.85000000,0.11000000,"2018-05-28T21:20:33.759-04:00",true,true],["ETHUSDT",26632313,516.85000000,0.06649000,"2018-05-28T21:20:41.679-04:00",true,true],["ETHUSDT",26632314,516.85000000,0.09162000,"2018-05-28T21:20:41.896-04:00",true,false],["ETHUSDT",26632315,517.32000000,0.00005000,"2018-05-28T21:20:41.896-04:00",true,false]]</v>
+        <stp/>
+        <stp>BINANCE_HISTORY</stp>
+        <stp>ETHUSDT</stp>
+        <stp>a,b,c</stp>
+        <stp>10</stp>
+        <tr r="Q4" s="1"/>
+      </tp>
+      <tp>
+        <v>17405696</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -4592,24 +4573,15 @@
         <tr r="H20" s="1"/>
       </tp>
       <tp>
-        <v>28717831</v>
+        <v>28746194</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>LAST_ID</stp>
         <tr r="N21" s="1"/>
       </tp>
-      <tp t="s">
-        <v>&lt;?&gt;</v>
-        <stp/>
-        <stp>BINANCE_HISTORY</stp>
-        <stp>BTCUSDT</stp>
-        <stp>a,b,c</stp>
-        <stp>10</stp>
-        <tr r="Q4" s="1"/>
-      </tp>
-      <tp>
-        <v>523.11</v>
+      <tp>
+        <v>516.01</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4618,7 +4590,7 @@
         <tr r="E30" s="1"/>
       </tp>
       <tp>
-        <v>523.11</v>
+        <v>516.01</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4635,7 +4607,7 @@
         <tr r="L20" s="1"/>
       </tp>
       <tp>
-        <v>1.22</v>
+        <v>0.9</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -4643,7 +4615,7 @@
         <tr r="J19" s="1"/>
       </tp>
       <tp>
-        <v>7206.62</v>
+        <v>7088</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4652,7 +4624,7 @@
         <tr r="E37" s="1"/>
       </tp>
       <tp>
-        <v>7206.62</v>
+        <v>7088</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4661,7 +4633,7 @@
         <tr r="E31" s="1"/>
       </tp>
       <tp t="b">
-        <v>0</v>
+        <v>1</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -4669,7 +4641,7 @@
         <tr r="K19" s="1"/>
       </tp>
       <tp>
-        <v>26604231</v>
+        <v>26632443</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4677,7 +4649,7 @@
         <tr r="N15" s="1"/>
       </tp>
       <tp>
-        <v>43248.642482025462</v>
+        <v>43248.890785347219</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -4686,7 +4658,7 @@
         <tr r="O44" s="1"/>
       </tp>
       <tp>
-        <v>44154469</v>
+        <v>26021939</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -4695,7 +4667,7 @@
         <tr r="K38" s="1"/>
       </tp>
       <tp>
-        <v>6232709</v>
+        <v>4721913</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -4704,7 +4676,7 @@
         <tr r="K32" s="1"/>
       </tp>
       <tp>
-        <v>18.098939999999999</v>
+        <v>0.31145</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4713,7 +4685,7 @@
         <tr r="A23" s="1"/>
       </tp>
       <tp>
-        <v>6.0957600000000003</v>
+        <v>0.5</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4722,7 +4694,7 @@
         <tr r="A24" s="1"/>
       </tp>
       <tp>
-        <v>0.30599999999999999</v>
+        <v>0.56447999999999998</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4731,7 +4703,7 @@
         <tr r="A19" s="1"/>
       </tp>
       <tp>
-        <v>12.792199999999999</v>
+        <v>0.32644000000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4740,7 +4712,7 @@
         <tr r="A20" s="1"/>
       </tp>
       <tp>
-        <v>1.4478800000000001</v>
+        <v>3.83697</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4749,7 +4721,7 @@
         <tr r="A21" s="1"/>
       </tp>
       <tp>
-        <v>0.68416999999999994</v>
+        <v>0.62243000000000004</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4758,7 +4730,7 @@
         <tr r="A22" s="1"/>
       </tp>
       <tp>
-        <v>0.37648999999999999</v>
+        <v>2.64337</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4767,7 +4739,7 @@
         <tr r="A15" s="1"/>
       </tp>
       <tp>
-        <v>0.35627999999999999</v>
+        <v>61.771009999999997</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4776,7 +4748,7 @@
         <tr r="A16" s="1"/>
       </tp>
       <tp>
-        <v>3.2919100000000001</v>
+        <v>0.32644000000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4785,7 +4757,7 @@
         <tr r="A17" s="1"/>
       </tp>
       <tp>
-        <v>11.045999999999999</v>
+        <v>4.7E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -4794,7 +4766,7 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>6328.13792724</v>
+        <v>7893.4945081300002</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4802,7 +4774,7 @@
         <tr r="H4" s="2"/>
       </tp>
       <tp>
-        <v>95034.089917260004</v>
+        <v>123688.86617035</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4810,7 +4782,7 @@
         <tr r="H3" s="2"/>
       </tp>
       <tp>
-        <v>43248.642458287039</v>
+        <v>43248.890795729167</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -4837,7 +4809,7 @@
         <tr r="H31" s="1"/>
       </tp>
       <tp>
-        <v>558578</v>
+        <v>564135</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -4845,7 +4817,7 @@
         <tr r="H18" s="1"/>
       </tp>
       <tp>
-        <v>28717831</v>
+        <v>28746194</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -4862,7 +4834,7 @@
         <tr r="L21" s="1"/>
       </tp>
       <tp>
-        <v>40484473</v>
+        <v>40530910</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -4870,7 +4842,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>6697405</v>
+        <v>6701169</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4878,7 +4850,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>23622527</v>
+        <v>23648229</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -4886,7 +4858,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>43248.64247457176</v>
+        <v>43248.890757743058</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4895,7 +4867,7 @@
         <tr r="O42" s="1"/>
       </tp>
       <tp>
-        <v>17818586</v>
+        <v>17835966</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -4921,7 +4893,7 @@
         <tr r="H36" s="1"/>
       </tp>
       <tp>
-        <v>7600750</v>
+        <v>7604933</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -4929,7 +4901,7 @@
         <tr r="N17" s="1"/>
       </tp>
       <tp>
-        <v>15215591</v>
+        <v>15221894</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -4937,7 +4909,7 @@
         <tr r="M19" s="1"/>
       </tp>
       <tp>
-        <v>45226</v>
+        <v>49652</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -4954,7 +4926,7 @@
         <tr r="M44" s="1"/>
       </tp>
       <tp>
-        <v>520.26</v>
+        <v>506.11</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -4962,7 +4934,7 @@
         <tr r="B5" s="1"/>
       </tp>
       <tp>
-        <v>-3.2719999999999999E-2</v>
+        <v>-5.4089999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -4970,7 +4942,7 @@
         <tr r="O8" s="1"/>
       </tp>
       <tp>
-        <v>-3.1E-4</v>
+        <v>-3.2299999999999999E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -4978,7 +4950,7 @@
         <tr r="O9" s="1"/>
       </tp>
       <tp>
-        <v>12704.13386</v>
+        <v>7839.07528</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4987,7 +4959,7 @@
         <tr r="J36" s="1"/>
       </tp>
       <tp>
-        <v>954.78896999999995</v>
+        <v>2400.8609299999998</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -4996,7 +4968,7 @@
         <tr r="J30" s="1"/>
       </tp>
       <tp>
-        <v>-36.89</v>
+        <v>-53.92</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -5004,7 +4976,7 @@
         <tr r="O5" s="1"/>
       </tp>
       <tp>
-        <v>-3.58</v>
+        <v>-7.69</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -5012,7 +4984,7 @@
         <tr r="O7" s="1"/>
       </tp>
       <tp>
-        <v>-85.17</v>
+        <v>-247.73</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -5020,7 +4992,7 @@
         <tr r="O6" s="1"/>
       </tp>
       <tp>
-        <v>113.73</v>
+        <v>110.39</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -5028,7 +5000,7 @@
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>23445</v>
+        <v>3552</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -5037,7 +5009,7 @@
         <tr r="N44" s="1"/>
       </tp>
       <tp>
-        <v>7148.16</v>
+        <v>7058.02</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -5045,7 +5017,7 @@
         <tr r="B6" s="1"/>
       </tp>
       <tp>
-        <v>113.58</v>
+        <v>110.28</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -5053,7 +5025,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>28371404.219999999</v>
+        <v>29972252.09</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -5061,7 +5033,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>64112</v>
+        <v>8173</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5070,7 +5042,7 @@
         <tr r="N43" s="1"/>
       </tp>
       <tp>
-        <v>-4.1840000000000002E-2</v>
+        <v>-5.7169999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -5078,7 +5050,7 @@
         <tr r="N10" s="1"/>
       </tp>
       <tp>
-        <v>0.56835999999999998</v>
+        <v>0.55001</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
@@ -5086,7 +5058,7 @@
         <tr r="I18" s="1"/>
       </tp>
       <tp>
-        <v>28694387</v>
+        <v>28742643</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -5103,7 +5075,7 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>43248.642458287039</v>
+        <v>43248.890795729167</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5112,7 +5084,7 @@
         <tr r="O37" s="1"/>
       </tp>
       <tp>
-        <v>43248.642458287039</v>
+        <v>43248.890795729167</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5121,7 +5093,7 @@
         <tr r="O31" s="1"/>
       </tp>
       <tp>
-        <v>43248.64247457176</v>
+        <v>43248.890757743058</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5130,7 +5102,7 @@
         <tr r="O36" s="1"/>
       </tp>
       <tp>
-        <v>43248.64247457176</v>
+        <v>43248.890757743058</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5139,7 +5111,7 @@
         <tr r="O30" s="1"/>
       </tp>
       <tp>
-        <v>104529</v>
+        <v>115021</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -5147,7 +5119,7 @@
         <tr r="M11" s="1"/>
       </tp>
       <tp>
-        <v>111.34</v>
+        <v>110</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -5155,7 +5127,7 @@
         <tr r="B7" s="1"/>
       </tp>
       <tp>
-        <v>279.08703100000002</v>
+        <v>286.28254600000002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5164,7 +5136,7 @@
         <tr r="J31" s="1"/>
       </tp>
       <tp>
-        <v>2589.4488510000001</v>
+        <v>1238.5861500000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5173,7 +5145,7 @@
         <tr r="J37" s="1"/>
       </tp>
       <tp>
-        <v>7204.62</v>
+        <v>7086.59</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -5181,7 +5153,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>7.1999999999999998E-3</v>
+        <v>7.0860000000000003E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -5189,7 +5161,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>108455087</v>
+        <v>50314403</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -5198,7 +5170,7 @@
         <tr r="J38" s="1"/>
       </tp>
       <tp>
-        <v>11528260</v>
+        <v>16507907</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -5207,7 +5179,7 @@
         <tr r="J32" s="1"/>
       </tp>
       <tp>
-        <v>523.11</v>
+        <v>516.01</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5216,7 +5188,7 @@
         <tr r="E42" s="1"/>
       </tp>
       <tp>
-        <v>7206.62</v>
+        <v>7088</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5225,7 +5197,7 @@
         <tr r="E43" s="1"/>
       </tp>
       <tp>
-        <v>7208.62</v>
+        <v>7088.14</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -5233,7 +5205,7 @@
         <tr r="I6" s="1"/>
       </tp>
       <tp>
-        <v>34824</v>
+        <v>5416</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5242,7 +5214,7 @@
         <tr r="N42" s="1"/>
       </tp>
       <tp>
-        <v>523.49</v>
+        <v>516.25</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -5310,7 +5282,7 @@
         <tr r="M36" s="1"/>
       </tp>
       <tp>
-        <v>-7.3249999999999996E-2</v>
+        <v>-0.11684</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -5318,7 +5290,7 @@
         <tr r="N11" s="1"/>
       </tp>
       <tp>
-        <v>520.26</v>
+        <v>511.5</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5327,7 +5299,7 @@
         <tr r="D42" s="1"/>
       </tp>
       <tp>
-        <v>523.11</v>
+        <v>516.01</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -5335,7 +5307,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>7148.16</v>
+        <v>7086.59</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5344,7 +5316,7 @@
         <tr r="D43" s="1"/>
       </tp>
       <tp>
-        <v>38994.013830000004</v>
+        <v>7839.07528</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5353,7 +5325,7 @@
         <tr r="J42" s="1"/>
       </tp>
       <tp>
-        <v>7164.9058009999999</v>
+        <v>1238.5861500000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5380,7 +5352,7 @@
         <tr r="H43" s="1"/>
       </tp>
       <tp>
-        <v>46431931</v>
+        <v>46499343</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5389,7 +5361,7 @@
         <tr r="P37" s="1"/>
       </tp>
       <tp>
-        <v>46452730</v>
+        <v>46505338</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5398,7 +5370,7 @@
         <tr r="P31" s="1"/>
       </tp>
       <tp>
-        <v>26589310</v>
+        <v>26627028</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5407,7 +5379,7 @@
         <tr r="P36" s="1"/>
       </tp>
       <tp>
-        <v>26603068</v>
+        <v>26630918</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5416,7 +5388,7 @@
         <tr r="P30" s="1"/>
       </tp>
       <tp>
-        <v>0.56947000000000003</v>
+        <v>0.55166000000000004</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -5424,7 +5396,7 @@
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>43248.666666655095</v>
+        <v>43248.999999988424</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5433,7 +5405,7 @@
         <tr r="G36" s="1"/>
       </tp>
       <tp>
-        <v>43248.666666655095</v>
+        <v>43248.916666655095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5442,7 +5414,7 @@
         <tr r="G30" s="1"/>
       </tp>
       <tp>
-        <v>43248.666666655095</v>
+        <v>43248.999999988424</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5451,7 +5423,7 @@
         <tr r="G37" s="1"/>
       </tp>
       <tp>
-        <v>43248.666666655095</v>
+        <v>43248.916666655095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5460,7 +5432,7 @@
         <tr r="G31" s="1"/>
       </tp>
       <tp>
-        <v>9.5799999999999998E-6</v>
+        <v>9.5200000000000003E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -5468,7 +5440,7 @@
         <tr r="C11" s="1"/>
       </tp>
       <tp>
-        <v>84491.010290000006</v>
+        <v>69943.724799999996</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -5476,7 +5448,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>0.56840999999999997</v>
+        <v>0.55001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -5484,7 +5456,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>8.6999999999999997E-6</v>
+        <v>8.3899999999999993E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -5493,7 +5465,7 @@
         <tr r="D32" s="1"/>
       </tp>
       <tp>
-        <v>8.6999999999999997E-6</v>
+        <v>8.3599999999999996E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -5520,7 +5492,7 @@
         <tr r="H32" s="1"/>
       </tp>
       <tp>
-        <v>7175.23</v>
+        <v>7086.59</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5529,7 +5501,7 @@
         <tr r="D37" s="1"/>
       </tp>
       <tp>
-        <v>7188</v>
+        <v>7086.59</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5538,7 +5510,7 @@
         <tr r="D31" s="1"/>
       </tp>
       <tp>
-        <v>-3.45E-6</v>
+        <v>-4.7099999999999998E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -5546,7 +5518,7 @@
         <tr r="O10" s="1"/>
       </tp>
       <tp>
-        <v>7204.63</v>
+        <v>7088.15</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -5554,7 +5526,7 @@
         <tr r="I16" s="1"/>
       </tp>
       <tp>
-        <v>113.58</v>
+        <v>110.4</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -5562,7 +5534,7 @@
         <tr r="I17" s="1"/>
       </tp>
       <tp>
-        <v>-4.3560000000000001E-2</v>
+        <v>-4.5690000000000001E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -5570,7 +5542,7 @@
         <tr r="N9" s="1"/>
       </tp>
       <tp>
-        <v>-6.8999999999999996E-7</v>
+        <v>-1.11E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
@@ -5578,7 +5550,7 @@
         <tr r="O11" s="1"/>
       </tp>
       <tp>
-        <v>520.26</v>
+        <v>516</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5587,7 +5559,7 @@
         <tr r="D30" s="1"/>
       </tp>
       <tp>
-        <v>520.26</v>
+        <v>511.5</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5596,7 +5568,7 @@
         <tr r="D36" s="1"/>
       </tp>
       <tp>
-        <v>139738.88795</v>
+        <v>155772.09138</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -5604,7 +5576,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>24683.551762999999</v>
+        <v>27410.431106</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -5612,7 +5584,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>0.56252999999999997</v>
+        <v>0.54339999999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -5620,7 +5592,7 @@
         <tr r="B8" s="1"/>
       </tp>
       <tp>
-        <v>8.2890000000000001E-5</v>
+        <v>8.2410000000000005E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -5628,7 +5600,7 @@
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>8.7199999999999995E-6</v>
+        <v>8.3899999999999993E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -5637,7 +5609,7 @@
         <tr r="E38" s="1"/>
       </tp>
       <tp>
-        <v>8.7199999999999995E-6</v>
+        <v>8.3899999999999993E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -5646,7 +5618,7 @@
         <tr r="E32" s="1"/>
       </tp>
       <tp>
-        <v>1212988.61425846</v>
+        <v>1113491.8980024699</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5655,7 +5627,7 @@
         <tr r="L31" s="1"/>
       </tp>
       <tp>
-        <v>11265225.01936353</v>
+        <v>5274178.28665327</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5664,7 +5636,7 @@
         <tr r="L37" s="1"/>
       </tp>
       <tp>
-        <v>312492.26826789998</v>
+        <v>712585.4998783</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5673,7 +5645,7 @@
         <tr r="L30" s="1"/>
       </tp>
       <tp>
-        <v>3275123.5764486999</v>
+        <v>2302155.0424533002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5682,7 +5654,7 @@
         <tr r="L36" s="1"/>
       </tp>
       <tp>
-        <v>26105</v>
+        <v>26215</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -5690,7 +5662,7 @@
         <tr r="M9" s="1"/>
       </tp>
       <tp>
-        <v>523.11</v>
+        <v>516.01</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
@@ -5698,7 +5670,7 @@
         <tr r="I15" s="1"/>
       </tp>
       <tp>
-        <v>43248.5</v>
+        <v>43248.833333333336</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5707,7 +5679,7 @@
         <tr r="F36" s="1"/>
       </tp>
       <tp>
-        <v>43248.625</v>
+        <v>43248.875</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5716,7 +5688,7 @@
         <tr r="F30" s="1"/>
       </tp>
       <tp>
-        <v>8.0000000000000002E-8</v>
+        <v>1.1999999999999999E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
@@ -5724,7 +5696,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>117.34</v>
+        <v>118.09</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -5732,7 +5704,7 @@
         <tr r="D7" s="1"/>
       </tp>
       <tp>
-        <v>7285.99</v>
+        <v>7339</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -5740,7 +5712,7 @@
         <tr r="D6" s="1"/>
       </tp>
       <tp>
-        <v>19938.152539999999</v>
+        <v>4455.7749999999996</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5749,7 +5721,7 @@
         <tr r="K42" s="1"/>
       </tp>
       <tp>
-        <v>43248.642398506941</v>
+        <v>43248.890704386577</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -5757,7 +5729,7 @@
         <tr r="O19" s="1"/>
       </tp>
       <tp>
-        <v>7.1110000000000001E-3</v>
+        <v>7.0699999999999999E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -5765,7 +5737,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>559.25</v>
+        <v>570.45000000000005</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -5773,7 +5745,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>7285.75</v>
+        <v>7338.79</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
@@ -5781,7 +5753,7 @@
         <tr r="E6" s="1"/>
       </tp>
       <tp>
-        <v>117.11</v>
+        <v>118.08</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
@@ -5789,7 +5761,7 @@
         <tr r="E7" s="1"/>
       </tp>
       <tp t="b">
-        <v>1</v>
+        <v>0</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
@@ -5797,7 +5769,7 @@
         <tr r="K17" s="1"/>
       </tp>
       <tp t="b">
-        <v>1</v>
+        <v>0</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
@@ -5837,7 +5809,7 @@
         <tr r="F4" s="2"/>
       </tp>
       <tp>
-        <v>4045.8033679999999</v>
+        <v>741.40308400000004</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5846,7 +5818,7 @@
         <tr r="K43" s="1"/>
       </tp>
       <tp>
-        <v>0.60040000000000004</v>
+        <v>0.60519999999999996</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -5854,7 +5826,7 @@
         <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>43248.625</v>
+        <v>43248.875</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5863,7 +5835,7 @@
         <tr r="F31" s="1"/>
       </tp>
       <tp>
-        <v>43248.5</v>
+        <v>43248.833333333336</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5872,7 +5844,7 @@
         <tr r="F37" s="1"/>
       </tp>
       <tp>
-        <v>559.47</v>
+        <v>570.45000000000005</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
@@ -5897,7 +5869,7 @@
         <tr r="H44" s="1"/>
       </tp>
       <tp>
-        <v>7.1110000000000001E-3</v>
+        <v>7.0699999999999999E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
@@ -5905,7 +5877,7 @@
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>8.67E-6</v>
+        <v>8.3599999999999996E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -5914,7 +5886,7 @@
         <tr r="D44" s="1"/>
       </tp>
       <tp>
-        <v>293281557</v>
+        <v>50314403</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -5941,7 +5913,7 @@
         <tr r="M32" s="1"/>
       </tp>
       <tp>
-        <v>2010259.80980805</v>
+        <v>2033977.1468251499</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5950,7 +5922,7 @@
         <tr r="I31" s="1"/>
       </tp>
       <tp>
-        <v>18666256.877545841</v>
+        <v>8811083.6166344304</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -5959,7 +5931,7 @@
         <tr r="I37" s="1"/>
       </tp>
       <tp>
-        <v>6696191.9421442999</v>
+        <v>4051158.0279271002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5968,7 +5940,7 @@
         <tr r="I36" s="1"/>
       </tp>
       <tp>
-        <v>499135.24110340001</v>
+        <v>1244624.1148619</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -5977,7 +5949,7 @@
         <tr r="I30" s="1"/>
       </tp>
       <tp>
-        <v>8.7199999999999995E-6</v>
+        <v>8.3899999999999993E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -5986,7 +5958,7 @@
         <tr r="E44" s="1"/>
       </tp>
       <tp>
-        <v>523.49</v>
+        <v>515.5</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -5994,7 +5966,7 @@
         <tr r="D3" s="2"/>
       </tp>
       <tp>
-        <v>7222.37</v>
+        <v>7102.12</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -6002,7 +5974,7 @@
         <tr r="D4" s="2"/>
       </tp>
       <tp>
-        <v>6.8069999999999997E-3</v>
+        <v>6.7470000000000004E-3</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
@@ -6010,7 +5982,7 @@
         <tr r="I19" s="1"/>
       </tp>
       <tp>
-        <v>43248.642481493058</v>
+        <v>43248.890785347219</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -6019,7 +5991,7 @@
         <tr r="O38" s="1"/>
       </tp>
       <tp>
-        <v>43248.642481493058</v>
+        <v>43248.890785381947</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -6028,7 +6000,7 @@
         <tr r="O32" s="1"/>
       </tp>
       <tp>
-        <v>16561049.7496305</v>
+        <v>17207562.637333099</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
@@ -6036,7 +6008,7 @@
         <tr r="L8" s="1"/>
       </tp>
       <tp>
-        <v>0.60140000000000005</v>
+        <v>0.60519999999999996</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
@@ -6044,7 +6016,7 @@
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>43248.666666655095</v>
+        <v>43248.999999988424</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -6053,7 +6025,7 @@
         <tr r="G38" s="1"/>
       </tp>
       <tp>
-        <v>43248.666666655095</v>
+        <v>43248.916666655095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -6062,7 +6034,7 @@
         <tr r="G32" s="1"/>
       </tp>
       <tp>
-        <v>28716988</v>
+        <v>28745115</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -6071,7 +6043,7 @@
         <tr r="P32" s="1"/>
       </tp>
       <tp>
-        <v>28709453</v>
+        <v>28742643</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -6080,7 +6052,7 @@
         <tr r="P38" s="1"/>
       </tp>
       <tp>
-        <v>8.2429999999999995E-5</v>
+        <v>8.2390000000000002E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -6088,7 +6060,7 @@
         <tr r="E10" s="1"/>
       </tp>
       <tp>
-        <v>43248.642481481482</v>
+        <v>43248.890785324074</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -6096,7 +6068,7 @@
         <tr r="O21" s="1"/>
       </tp>
       <tp>
-        <v>75785894.140243798</v>
+        <v>82996801.391352803</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
@@ -6104,7 +6076,7 @@
         <tr r="L5" s="1"/>
       </tp>
       <tp>
-        <v>54.400559020000003</v>
+        <v>39.787702430000003</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -6113,7 +6085,7 @@
         <tr r="L32" s="1"/>
       </tp>
       <tp>
-        <v>386.64930022999999</v>
+        <v>219.73664076</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
@@ -6122,7 +6094,7 @@
         <tr r="L38" s="1"/>
       </tp>
       <tp>
-        <v>8.7199999999999995E-6</v>
+        <v>8.3899999999999993E-6</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
@@ -6130,7 +6102,7 @@
         <tr r="I21" s="1"/>
       </tp>
       <tp>
-        <v>523.49</v>
+        <v>516.25</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6139,7 +6111,7 @@
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>523.5</v>
+        <v>516.26</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6148,7 +6120,7 @@
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>523.51</v>
+        <v>516.51</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6157,7 +6129,7 @@
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>523.55999999999995</v>
+        <v>516.64</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6166,7 +6138,7 @@
         <tr r="D18" s="1"/>
       </tp>
       <tp>
-        <v>523.69000000000005</v>
+        <v>516.80999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6175,7 +6147,7 @@
         <tr r="D19" s="1"/>
       </tp>
       <tp>
-        <v>523.79</v>
+        <v>516.98</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6184,7 +6156,7 @@
         <tr r="D20" s="1"/>
       </tp>
       <tp>
-        <v>523.79999999999995</v>
+        <v>516.99</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6193,7 +6165,7 @@
         <tr r="D21" s="1"/>
       </tp>
       <tp>
-        <v>523.84</v>
+        <v>517</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6202,7 +6174,7 @@
         <tr r="D22" s="1"/>
       </tp>
       <tp>
-        <v>523.98</v>
+        <v>517.03</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6211,7 +6183,7 @@
         <tr r="D23" s="1"/>
       </tp>
       <tp>
-        <v>523.99</v>
+        <v>517.09</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6220,7 +6192,7 @@
         <tr r="D24" s="1"/>
       </tp>
       <tp>
-        <v>7.9010000000000004E-5</v>
+        <v>7.7680000000000002E-5</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -6228,7 +6200,7 @@
         <tr r="I20" s="1"/>
       </tp>
       <tp>
-        <v>529.64</v>
+        <v>511.5</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -6237,7 +6209,7 @@
         <tr r="B42" s="1"/>
       </tp>
       <tp>
-        <v>9.4299999999999995E-6</v>
+        <v>9.5100000000000004E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
@@ -6245,7 +6217,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>7300</v>
+        <v>7132.1</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -6254,7 +6226,7 @@
         <tr r="C43" s="1"/>
       </tp>
       <tp>
-        <v>522.04</v>
+        <v>515.48</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6263,7 +6235,7 @@
         <tr r="B24" s="1"/>
       </tp>
       <tp>
-        <v>522.04999999999995</v>
+        <v>515.49</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6272,7 +6244,7 @@
         <tr r="B23" s="1"/>
       </tp>
       <tp>
-        <v>522.05999999999995</v>
+        <v>515.5</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6281,7 +6253,7 @@
         <tr r="B22" s="1"/>
       </tp>
       <tp>
-        <v>522.07000000000005</v>
+        <v>515.6</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6290,7 +6262,7 @@
         <tr r="B21" s="1"/>
       </tp>
       <tp>
-        <v>522.26</v>
+        <v>515.73</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6299,7 +6271,7 @@
         <tr r="B20" s="1"/>
       </tp>
       <tp>
-        <v>522.30999999999995</v>
+        <v>515.79</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6308,7 +6280,7 @@
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>522.48</v>
+        <v>515.91</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6317,7 +6289,7 @@
         <tr r="B18" s="1"/>
       </tp>
       <tp>
-        <v>522.75</v>
+        <v>515.99</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6326,7 +6298,7 @@
         <tr r="B17" s="1"/>
       </tp>
       <tp>
-        <v>523.1</v>
+        <v>516</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6335,7 +6307,7 @@
         <tr r="B16" s="1"/>
       </tp>
       <tp>
-        <v>523.11</v>
+        <v>516.01</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
@@ -6344,7 +6316,7 @@
         <tr r="B15" s="1"/>
       </tp>
       <tp>
-        <v>179241052.71019259</v>
+        <v>197904633.91417867</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
@@ -6352,7 +6324,7 @@
         <tr r="L6" s="1"/>
       </tp>
       <tp>
-        <v>9791878.5248697996</v>
+        <v>7996861.2398544</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
@@ -6360,7 +6332,7 @@
         <tr r="L7" s="1"/>
       </tp>
       <tp>
-        <v>9.4199999999999996E-6</v>
+        <v>9.5100000000000004E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
@@ -6368,7 +6340,7 @@
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>8.2429999999999995E-5</v>
+        <v>8.2390000000000002E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
@@ -6376,7 +6348,7 @@
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>558.98</v>
+        <v>568.97</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -6384,7 +6356,7 @@
         <tr r="E3" s="2"/>
       </tp>
       <tp>
-        <v>7288.37</v>
+        <v>7334.2</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -6392,7 +6364,7 @@
         <tr r="E4" s="2"/>
       </tp>
       <tp>
-        <v>43248.642454907407</v>
+        <v>43248.890803784721</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
@@ -6432,7 +6404,7 @@
         <tr r="L15" s="1"/>
       </tp>
       <tp>
-        <v>7196.74</v>
+        <v>7099</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
@@ -6441,7 +6413,7 @@
         <tr r="B43" s="1"/>
       </tp>
       <tp>
-        <v>3.9999999999999998E-6</v>
+        <v>6.9999999999999999E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
@@ -6449,7 +6421,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>541.38</v>
+        <v>522</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
@@ -6463,50 +6435,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A4:O11" totalsRowShown="0" dataDxfId="106" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A4:O11" totalsRowShown="0" dataDxfId="105" dataCellStyle="Comma">
   <autoFilter ref="A4:O11" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3DCAC593-21E4-456C-93D1-EEDC8340EA91}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="105" totalsRowDxfId="104" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,B$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="103" totalsRowDxfId="102" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,C$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,D$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="99" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="98" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,E$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,F$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,G$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,H$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,I$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,J$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,K$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,L$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,M$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Percent">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,N$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,O$4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6515,20 +6487,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E24" totalsRowShown="0" dataDxfId="78" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E24" totalsRowShown="0" dataDxfId="77" dataCellStyle="Comma">
   <autoFilter ref="A14:E24" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="77" dataCellStyle="20% - Accent6">
+    <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="76" dataCellStyle="20% - Accent6">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="76" dataCellStyle="20% - Accent6">
+    <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="75" dataCellStyle="20% - Accent6">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="74" dataCellStyle="20% - Accent2">
+    <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="73" dataCellStyle="20% - Accent2">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="73" dataCellStyle="20% - Accent2">
+    <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="72" dataCellStyle="20% - Accent2">
       <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6537,32 +6509,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:O21" totalsRowShown="0" dataDxfId="72" tableBorderDxfId="71" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:O21" totalsRowShown="0" dataDxfId="71" tableBorderDxfId="70" dataCellStyle="Comma">
   <autoFilter ref="G14:O21" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4DF9B9E1-1E83-4EF7-84C1-2078EE821C9B}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="70" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="69" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,H$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="PRICE" dataDxfId="69" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="PRICE" dataDxfId="68" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,I$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="QUANTITY" dataDxfId="68" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="QUANTITY" dataDxfId="67" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,J$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="67" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="66" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,K$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="66" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="65" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,L$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{596DAC26-1FB0-4FA0-9F2B-2F85949317B9}" name="FIRST_ID" dataDxfId="65" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{596DAC26-1FB0-4FA0-9F2B-2F85949317B9}" name="FIRST_ID" dataDxfId="64" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,M$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{625DA386-D82A-4BD8-99A5-41F6984223F9}" name="LAST_ID" dataDxfId="64" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{625DA386-D82A-4BD8-99A5-41F6984223F9}" name="LAST_ID" dataDxfId="63" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,N$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B43DE4EC-1073-4EE5-AFA6-29717F6887CA}" name="TRADE_TIME" dataDxfId="63" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{B43DE4EC-1073-4EE5-AFA6-29717F6887CA}" name="TRADE_TIME" dataDxfId="62" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,O$14)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6571,59 +6543,58 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A29:R32" totalsRowShown="0" dataDxfId="62" tableBorderDxfId="61" dataCellStyle="Comma">
-  <autoFilter ref="A29:R32" xr:uid="{BD9601BD-F222-4DBD-B404-C68EB6A96569}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A29:Q32" totalsRowShown="0" dataDxfId="61" tableBorderDxfId="60" dataCellStyle="Comma">
+  <autoFilter ref="A29:Q32" xr:uid="{BD9601BD-F222-4DBD-B404-C68EB6A96569}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{A75C3BB9-BD50-4A86-92A6-228C26DADEC8}" name="SYMBOL"/>
-    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="60" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="59" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,B$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="59" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="58" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,C$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="58" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="57" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,D$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="57" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="56" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,E$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="56" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="55" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,F$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="55" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="54" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,G$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="54" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="53" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,H$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="53" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="52" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,I$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="52" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="51" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,J$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="51" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="50" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,K$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="50" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="49" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,L$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="49" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="48" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,M$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="48" dataCellStyle="Comma">
+    <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="47" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,N$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="47" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="46" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,O$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="46" dataCellStyle="Comma">
+    <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="45" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,P$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="45" dataCellStyle="Comma">
+    <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="44" dataCellStyle="Comma">
       <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,Q$29,$D$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{1608C6B3-E96E-44E3-A52D-1311653FC1B6}" name="RS" dataDxfId="44" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7077,7 +7048,7 @@
   <dimension ref="A1:U113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7147,10 +7118,10 @@
       </c>
       <c r="R3" s="36"/>
       <c r="S3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T3" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -7199,9 +7170,9 @@
       <c r="O4" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="38" t="str">
+      <c r="Q4" s="37" t="str">
         <f>RTD(progId,,BINANCE_HISTORY,S3,"a,b,c",10)</f>
-        <v>&lt;?&gt;</v>
+        <v>[["SYMBOL","TRADE_ID","PRICE","QUANTITY","TRADE_TIME","IS_BEST_MATCH","BUYER_IS_MAKER"],["ETHUSDT",26632306,517.02000000,3.46347000,"2018-05-28T21:20:18.018-04:00",true,true],["ETHUSDT",26632307,517.01000000,1.38295000,"2018-05-28T21:20:18.338-04:00",true,true],["ETHUSDT",26632308,517.01000000,0.65902000,"2018-05-28T21:20:18.442-04:00",true,false],["ETHUSDT",26632309,517.02000000,7.17751000,"2018-05-28T21:20:18.442-04:00",true,false],["ETHUSDT",26632310,517.02000000,0.65902000,"2018-05-28T21:20:19.422-04:00",true,false],["ETHUSDT",26632311,516.85000000,0.21000000,"2018-05-28T21:20:33.42-04:00",true,true],["ETHUSDT",26632312,516.85000000,0.11000000,"2018-05-28T21:20:33.759-04:00",true,true],["ETHUSDT",26632313,516.85000000,0.06649000,"2018-05-28T21:20:41.679-04:00",true,true],["ETHUSDT",26632314,516.85000000,0.09162000,"2018-05-28T21:20:41.896-04:00",true,false],["ETHUSDT",26632315,517.32000000,0.00005000,"2018-05-28T21:20:41.896-04:00",true,false]]</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -7210,7 +7181,7 @@
       </c>
       <c r="B5" s="2">
         <f>RTD(progId,,BINANCE,$A5,B$4)</f>
-        <v>520.26</v>
+        <v>506.11</v>
       </c>
       <c r="C5" s="2">
         <f>RTD(progId,,BINANCE,$A5,C$4)</f>
@@ -7218,51 +7189,51 @@
       </c>
       <c r="D5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,D$4)</f>
-        <v>559.47</v>
+        <v>570.45000000000005</v>
       </c>
       <c r="E5" s="2">
         <f>RTD(progId,,BINANCE_24H,$A5,E$4)</f>
-        <v>559.25</v>
+        <v>570.45000000000005</v>
       </c>
       <c r="F5" s="2">
         <f>RTD(progId,,BINANCE,$A5,F$4)</f>
-        <v>0.37648999999999999</v>
+        <v>2.64337</v>
       </c>
       <c r="G5" s="2">
         <f>RTD(progId,,BINANCE,$A5,G$4)</f>
-        <v>523.11</v>
+        <v>516.01</v>
       </c>
       <c r="H5" s="2">
         <f>RTD(progId,,BINANCE,$A5,H$4)</f>
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
       <c r="I5" s="2">
         <f>RTD(progId,,BINANCE,$A5,I$4)</f>
-        <v>523.49</v>
+        <v>516.25</v>
       </c>
       <c r="J5" s="2">
         <f>RTD(progId,,BINANCE,$A5,J$4)</f>
-        <v>2.5760000000000002E-2</v>
+        <v>0.87063999999999997</v>
       </c>
       <c r="K5" s="9">
         <f>RTD(progId,,BINANCE,$A5,K$4)</f>
-        <v>139738.88795</v>
+        <v>155772.09138</v>
       </c>
       <c r="L5" s="2">
         <f>RTD(progId,,BINANCE,$A5,L$4)</f>
-        <v>75785894.140243798</v>
+        <v>82996801.391352803</v>
       </c>
       <c r="M5" s="9">
         <f>RTD(progId,,BINANCE,$A5,M$4)</f>
-        <v>127795</v>
+        <v>133786</v>
       </c>
       <c r="N5" s="10">
         <f>RTD(progId,,BINANCE,$A5,N$4)</f>
-        <v>-6.5869999999999998E-2</v>
+        <v>-9.461E-2</v>
       </c>
       <c r="O5" s="2">
         <f>RTD(progId,,BINANCE,$A5,O$4)</f>
-        <v>-36.89</v>
+        <v>-53.92</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -7271,7 +7242,7 @@
       </c>
       <c r="B6" s="2">
         <f>RTD(progId,,BINANCE,$A6,B$4)</f>
-        <v>7148.16</v>
+        <v>7058.02</v>
       </c>
       <c r="C6" s="2">
         <f>RTD(progId,,BINANCE,$A6,C$4)</f>
@@ -7279,51 +7250,51 @@
       </c>
       <c r="D6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,D$4)</f>
-        <v>7285.99</v>
+        <v>7339</v>
       </c>
       <c r="E6" s="2">
         <f>RTD(progId,,BINANCE_24H,$A6,E$4)</f>
-        <v>7285.75</v>
+        <v>7338.79</v>
       </c>
       <c r="F6" s="2">
         <f>RTD(progId,,BINANCE,$A6,F$4)</f>
-        <v>0.81162699999999999</v>
+        <v>2.8150000000000001E-2</v>
       </c>
       <c r="G6" s="2">
         <f>RTD(progId,,BINANCE,$A6,G$4)</f>
-        <v>7204.62</v>
+        <v>7086.59</v>
       </c>
       <c r="H6" s="2">
         <f>RTD(progId,,BINANCE,$A6,H$4)</f>
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="I6" s="2">
         <f>RTD(progId,,BINANCE,$A6,I$4)</f>
-        <v>7208.62</v>
+        <v>7088.14</v>
       </c>
       <c r="J6" s="2">
         <f>RTD(progId,,BINANCE,$A6,J$4)</f>
-        <v>6.1897000000000001E-2</v>
+        <v>7.9342999999999997E-2</v>
       </c>
       <c r="K6" s="9">
         <f>RTD(progId,,BINANCE,$A6,K$4)</f>
-        <v>24683.551762999999</v>
+        <v>27410.431106</v>
       </c>
       <c r="L6" s="2">
         <f>RTD(progId,,BINANCE,$A6,L$4)</f>
-        <v>179241052.71019259</v>
+        <v>197904633.91417867</v>
       </c>
       <c r="M6" s="9">
         <f>RTD(progId,,BINANCE,$A6,M$4)</f>
-        <v>219226</v>
+        <v>230157</v>
       </c>
       <c r="N6" s="10">
         <f>RTD(progId,,BINANCE,$A6,N$4)</f>
-        <v>-1.1679999999999999E-2</v>
+        <v>-3.3770000000000001E-2</v>
       </c>
       <c r="O6" s="2">
         <f>RTD(progId,,BINANCE,$A6,O$4)</f>
-        <v>-85.17</v>
+        <v>-247.73</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -7332,7 +7303,7 @@
       </c>
       <c r="B7" s="2">
         <f>RTD(progId,,BINANCE,$A7,B$4)</f>
-        <v>111.34</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2">
         <f>RTD(progId,,BINANCE,$A7,C$4)</f>
@@ -7340,51 +7311,51 @@
       </c>
       <c r="D7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,D$4)</f>
-        <v>117.34</v>
+        <v>118.09</v>
       </c>
       <c r="E7" s="2">
         <f>RTD(progId,,BINANCE_24H,$A7,E$4)</f>
-        <v>117.11</v>
+        <v>118.08</v>
       </c>
       <c r="F7" s="2">
         <f>RTD(progId,,BINANCE,$A7,F$4)</f>
-        <v>3.6181999999999999</v>
+        <v>1.0727</v>
       </c>
       <c r="G7" s="2">
         <f>RTD(progId,,BINANCE,$A7,G$4)</f>
-        <v>113.58</v>
+        <v>110.28</v>
       </c>
       <c r="H7" s="2">
         <f>RTD(progId,,BINANCE,$A7,H$4)</f>
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I7" s="2">
         <f>RTD(progId,,BINANCE,$A7,I$4)</f>
-        <v>113.73</v>
+        <v>110.39</v>
       </c>
       <c r="J7" s="2">
         <f>RTD(progId,,BINANCE,$A7,J$4)</f>
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="K7" s="9">
         <f>RTD(progId,,BINANCE,$A7,K$4)</f>
-        <v>84491.010290000006</v>
+        <v>69943.724799999996</v>
       </c>
       <c r="L7" s="2">
         <f>RTD(progId,,BINANCE,$A7,L$4)</f>
-        <v>9791878.5248697996</v>
+        <v>7996861.2398544</v>
       </c>
       <c r="M7" s="9">
         <f>RTD(progId,,BINANCE,$A7,M$4)</f>
-        <v>22285</v>
+        <v>21092</v>
       </c>
       <c r="N7" s="10">
         <f>RTD(progId,,BINANCE,$A7,N$4)</f>
-        <v>-3.056E-2</v>
+        <v>-6.5119999999999997E-2</v>
       </c>
       <c r="O7" s="2">
         <f>RTD(progId,,BINANCE,$A7,O$4)</f>
-        <v>-3.58</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -7393,7 +7364,7 @@
       </c>
       <c r="B8" s="2">
         <f>RTD(progId,,BINANCE,$A8,B$4)</f>
-        <v>0.56252999999999997</v>
+        <v>0.54339999999999999</v>
       </c>
       <c r="C8" s="2">
         <f>RTD(progId,,BINANCE,$A8,C$4)</f>
@@ -7401,51 +7372,51 @@
       </c>
       <c r="D8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,D$4)</f>
-        <v>0.60140000000000005</v>
+        <v>0.60519999999999996</v>
       </c>
       <c r="E8" s="2">
         <f>RTD(progId,,BINANCE_24H,$A8,E$4)</f>
-        <v>0.60040000000000004</v>
+        <v>0.60519999999999996</v>
       </c>
       <c r="F8" s="9">
         <f>RTD(progId,,BINANCE,$A8,F$4)</f>
-        <v>777</v>
+        <v>14723.2</v>
       </c>
       <c r="G8" s="2">
         <f>RTD(progId,,BINANCE,$A8,G$4)</f>
-        <v>0.56840999999999997</v>
+        <v>0.55001</v>
       </c>
       <c r="H8" s="2">
         <f>RTD(progId,,BINANCE,$A8,H$4)</f>
-        <v>1.06E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="I8" s="2">
         <f>RTD(progId,,BINANCE,$A8,I$4)</f>
-        <v>0.56947000000000003</v>
+        <v>0.55166000000000004</v>
       </c>
       <c r="J8" s="2">
         <f>RTD(progId,,BINANCE,$A8,J$4)</f>
-        <v>50</v>
+        <v>492.34</v>
       </c>
       <c r="K8" s="9">
         <f>RTD(progId,,BINANCE,$A8,K$4)</f>
-        <v>28371404.219999999</v>
+        <v>29972252.09</v>
       </c>
       <c r="L8" s="2">
         <f>RTD(progId,,BINANCE,$A8,L$4)</f>
-        <v>16561049.7496305</v>
+        <v>17207562.637333099</v>
       </c>
       <c r="M8" s="9">
         <f>RTD(progId,,BINANCE,$A8,M$4)</f>
-        <v>24586</v>
+        <v>26990</v>
       </c>
       <c r="N8" s="10">
         <f>RTD(progId,,BINANCE,$A8,N$4)</f>
-        <v>-5.4440000000000002E-2</v>
+        <v>-8.9539999999999995E-2</v>
       </c>
       <c r="O8" s="2">
         <f>RTD(progId,,BINANCE,$A8,O$4)</f>
-        <v>-3.2719999999999999E-2</v>
+        <v>-5.4089999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -7454,59 +7425,59 @@
       </c>
       <c r="B9" s="2">
         <f>RTD(progId,,BINANCE,$A9,B$4)</f>
-        <v>6.7749999999999998E-3</v>
+        <v>6.7010000000000004E-3</v>
       </c>
       <c r="C9" s="2">
         <f>RTD(progId,,BINANCE,$A9,C$4)</f>
-        <v>7.1999999999999998E-3</v>
+        <v>7.0860000000000003E-3</v>
       </c>
       <c r="D9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,D$4)</f>
-        <v>7.1110000000000001E-3</v>
+        <v>7.0699999999999999E-3</v>
       </c>
       <c r="E9" s="2">
         <f>RTD(progId,,BINANCE_24H,$A9,E$4)</f>
-        <v>7.1110000000000001E-3</v>
+        <v>7.0699999999999999E-3</v>
       </c>
       <c r="F9" s="9">
         <f>RTD(progId,,BINANCE,$A9,F$4)</f>
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2">
         <f>RTD(progId,,BINANCE,$A9,G$4)</f>
-        <v>6.803E-3</v>
+        <v>6.7460000000000003E-3</v>
       </c>
       <c r="H9" s="2">
         <f>RTD(progId,,BINANCE,$A9,H$4)</f>
-        <v>3.9999999999999998E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="I9" s="2">
         <f>RTD(progId,,BINANCE,$A9,I$4)</f>
-        <v>6.8069999999999997E-3</v>
+        <v>6.7530000000000003E-3</v>
       </c>
       <c r="J9" s="2">
         <f>RTD(progId,,BINANCE,$A9,J$4)</f>
-        <v>16.09</v>
+        <v>0.99</v>
       </c>
       <c r="K9" s="9">
         <f>RTD(progId,,BINANCE,$A9,K$4)</f>
-        <v>117652.83</v>
+        <v>126866.83</v>
       </c>
       <c r="L9" s="2">
         <f>RTD(progId,,BINANCE,$A9,L$4)</f>
-        <v>815.74687168000003</v>
+        <v>869.01502318999997</v>
       </c>
       <c r="M9" s="9">
         <f>RTD(progId,,BINANCE,$A9,M$4)</f>
-        <v>26105</v>
+        <v>26215</v>
       </c>
       <c r="N9" s="10">
         <f>RTD(progId,,BINANCE,$A9,N$4)</f>
-        <v>-4.3560000000000001E-2</v>
+        <v>-4.5690000000000001E-2</v>
       </c>
       <c r="O9" s="2">
         <f>RTD(progId,,BINANCE,$A9,O$4)</f>
-        <v>-3.1E-4</v>
+        <v>-3.2299999999999999E-4</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -7520,59 +7491,59 @@
       </c>
       <c r="B10" s="2">
         <f>RTD(progId,,BINANCE,$A10,B$4)</f>
-        <v>7.8319999999999996E-5</v>
+        <v>7.7000000000000001E-5</v>
       </c>
       <c r="C10" s="2">
         <f>RTD(progId,,BINANCE,$A10,C$4)</f>
-        <v>8.2890000000000001E-5</v>
+        <v>8.2410000000000005E-5</v>
       </c>
       <c r="D10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,D$4)</f>
-        <v>8.2429999999999995E-5</v>
+        <v>8.2390000000000002E-5</v>
       </c>
       <c r="E10" s="2">
         <f>RTD(progId,,BINANCE_24H,$A10,E$4)</f>
-        <v>8.2429999999999995E-5</v>
+        <v>8.2390000000000002E-5</v>
       </c>
       <c r="F10" s="9">
         <f>RTD(progId,,BINANCE,$A10,F$4)</f>
-        <v>1260</v>
+        <v>1518</v>
       </c>
       <c r="G10" s="2">
         <f>RTD(progId,,BINANCE,$A10,G$4)</f>
-        <v>7.8930000000000005E-5</v>
+        <v>7.7579999999999999E-5</v>
       </c>
       <c r="H10" s="2">
         <f>RTD(progId,,BINANCE,$A10,H$4)</f>
-        <v>8.0000000000000002E-8</v>
+        <v>1.1999999999999999E-7</v>
       </c>
       <c r="I10" s="2">
         <f>RTD(progId,,BINANCE,$A10,I$4)</f>
-        <v>7.9010000000000004E-5</v>
+        <v>7.7700000000000005E-5</v>
       </c>
       <c r="J10" s="2">
         <f>RTD(progId,,BINANCE,$A10,J$4)</f>
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="K10" s="9">
         <f>RTD(progId,,BINANCE,$A10,K$4)</f>
-        <v>34251798</v>
+        <v>35789838</v>
       </c>
       <c r="L10" s="2">
         <f>RTD(progId,,BINANCE,$A10,L$4)</f>
-        <v>2761.8157205100001</v>
+        <v>2857.2464935600001</v>
       </c>
       <c r="M10" s="9">
         <f>RTD(progId,,BINANCE,$A10,M$4)</f>
-        <v>45226</v>
+        <v>49652</v>
       </c>
       <c r="N10" s="10">
         <f>RTD(progId,,BINANCE,$A10,N$4)</f>
-        <v>-4.1840000000000002E-2</v>
+        <v>-5.7169999999999999E-2</v>
       </c>
       <c r="O10" s="2">
         <f>RTD(progId,,BINANCE,$A10,O$4)</f>
-        <v>-3.45E-6</v>
+        <v>-4.7099999999999998E-6</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7581,27 +7552,27 @@
       </c>
       <c r="B11" s="2">
         <f>RTD(progId,,BINANCE,$A11,B$4)</f>
-        <v>8.6300000000000004E-6</v>
+        <v>8.2700000000000004E-6</v>
       </c>
       <c r="C11" s="2">
         <f>RTD(progId,,BINANCE,$A11,C$4)</f>
-        <v>9.5799999999999998E-6</v>
+        <v>9.5200000000000003E-6</v>
       </c>
       <c r="D11" s="2">
         <f>RTD(progId,,BINANCE_24H,$A11,D$4)</f>
-        <v>9.4199999999999996E-6</v>
+        <v>9.5100000000000004E-6</v>
       </c>
       <c r="E11" s="2">
         <f>RTD(progId,,BINANCE_24H,$A11,E$4)</f>
-        <v>9.4299999999999995E-6</v>
+        <v>9.5100000000000004E-6</v>
       </c>
       <c r="F11" s="9">
         <f>RTD(progId,,BINANCE,$A11,F$4)</f>
-        <v>181676</v>
+        <v>162488</v>
       </c>
       <c r="G11" s="2">
         <f>RTD(progId,,BINANCE,$A11,G$4)</f>
-        <v>8.7199999999999995E-6</v>
+        <v>8.3899999999999993E-6</v>
       </c>
       <c r="H11" s="2">
         <f>RTD(progId,,BINANCE,$A11,H$4)</f>
@@ -7609,31 +7580,31 @@
       </c>
       <c r="I11" s="2">
         <f>RTD(progId,,BINANCE,$A11,I$4)</f>
-        <v>8.7299999999999994E-6</v>
+        <v>8.3999999999999992E-6</v>
       </c>
       <c r="J11" s="2">
         <f>RTD(progId,,BINANCE,$A11,J$4)</f>
-        <v>5228</v>
+        <v>801878</v>
       </c>
       <c r="K11" s="9">
         <f>RTD(progId,,BINANCE,$A11,K$4)</f>
-        <v>1396958761</v>
+        <v>1630637655</v>
       </c>
       <c r="L11" s="2">
         <f>RTD(progId,,BINANCE,$A11,L$4)</f>
-        <v>12656.64080492</v>
+        <v>14448.935198929999</v>
       </c>
       <c r="M11" s="9">
         <f>RTD(progId,,BINANCE,$A11,M$4)</f>
-        <v>104529</v>
+        <v>115021</v>
       </c>
       <c r="N11" s="10">
         <f>RTD(progId,,BINANCE,$A11,N$4)</f>
-        <v>-7.3249999999999996E-2</v>
+        <v>-0.11684</v>
       </c>
       <c r="O11" s="2">
         <f>RTD(progId,,BINANCE,$A11,O$4)</f>
-        <v>-6.8999999999999996E-7</v>
+        <v>-1.11E-6</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7720,22 +7691,22 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</f>
-        <v>0.37648999999999999</v>
+        <v>2.64337</v>
       </c>
       <c r="B15" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</f>
-        <v>523.11</v>
+        <v>516.01</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</f>
-        <v>523.49</v>
+        <v>516.25</v>
       </c>
       <c r="E15" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</f>
-        <v>2.5760000000000002E-2</v>
+        <v>0.87063999999999997</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -7743,15 +7714,15 @@
       </c>
       <c r="H15" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G15,H$14)</f>
-        <v>23622527</v>
+        <v>23648229</v>
       </c>
       <c r="I15" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G15,I$14)</f>
-        <v>523.11</v>
+        <v>516.01</v>
       </c>
       <c r="J15" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G15,J$14)</f>
-        <v>0.42693999999999999</v>
+        <v>2.65509</v>
       </c>
       <c r="K15" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G15,K$14)</f>
@@ -7763,15 +7734,15 @@
       </c>
       <c r="M15" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G15,M$14)</f>
-        <v>26604229</v>
+        <v>26632443</v>
       </c>
       <c r="N15" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G15,N$14)</f>
-        <v>26604231</v>
+        <v>26632443</v>
       </c>
       <c r="O15" s="30">
         <f>RTD(progId,,BINACE_TRADE,$G15,O$14)</f>
-        <v>43248.642474513887</v>
+        <v>43248.890757719906</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -7782,11 +7753,11 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C16)</f>
-        <v>0.35627999999999999</v>
+        <v>61.771009999999997</v>
       </c>
       <c r="B16" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C16)</f>
-        <v>523.1</v>
+        <v>516</v>
       </c>
       <c r="C16" s="8">
         <f>C15+1</f>
@@ -7794,11 +7765,11 @@
       </c>
       <c r="D16" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C16)</f>
-        <v>523.5</v>
+        <v>516.26</v>
       </c>
       <c r="E16" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C16)</f>
-        <v>147.21770000000001</v>
+        <v>1.0964700000000001</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -7806,19 +7777,19 @@
       </c>
       <c r="H16" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G16,H$14)</f>
-        <v>40484473</v>
+        <v>40530910</v>
       </c>
       <c r="I16" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G16,I$14)</f>
-        <v>7204.63</v>
+        <v>7088.15</v>
       </c>
       <c r="J16" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G16,J$14)</f>
-        <v>2.2717860000000001</v>
+        <v>9.0337000000000001E-2</v>
       </c>
       <c r="K16" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G16,K$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G16,L$14)</f>
@@ -7826,15 +7797,15 @@
       </c>
       <c r="M16" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G16,M$14)</f>
-        <v>46457245</v>
+        <v>46507521</v>
       </c>
       <c r="N16" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G16,N$14)</f>
-        <v>46457245</v>
+        <v>46507521</v>
       </c>
       <c r="O16" s="30">
         <f>RTD(progId,,BINACE_TRADE,$G16,O$14)</f>
-        <v>43248.642458622686</v>
+        <v>43248.890807847223</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -7845,11 +7816,11 @@
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C17)</f>
-        <v>3.2919100000000001</v>
+        <v>0.32644000000000001</v>
       </c>
       <c r="B17" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C17)</f>
-        <v>522.75</v>
+        <v>515.99</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" ref="C17:C24" si="0">C16+1</f>
@@ -7857,11 +7828,11 @@
       </c>
       <c r="D17" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C17)</f>
-        <v>523.51</v>
+        <v>516.51</v>
       </c>
       <c r="E17" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C17)</f>
-        <v>1.6000000000000001E-4</v>
+        <v>0.34676000000000001</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -7869,19 +7840,19 @@
       </c>
       <c r="H17" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G17,H$14)</f>
-        <v>6697405</v>
+        <v>6701169</v>
       </c>
       <c r="I17" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G17,I$14)</f>
-        <v>113.58</v>
+        <v>110.4</v>
       </c>
       <c r="J17" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G17,J$14)</f>
-        <v>1.387E-2</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K17" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G17,K$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G17,L$14)</f>
@@ -7889,15 +7860,15 @@
       </c>
       <c r="M17" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G17,M$14)</f>
-        <v>7600750</v>
+        <v>7604933</v>
       </c>
       <c r="N17" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G17,N$14)</f>
-        <v>7600750</v>
+        <v>7604933</v>
       </c>
       <c r="O17" s="31">
         <f>RTD(progId,,BINACE_TRADE,$G17,O$14)</f>
-        <v>43248.642332708332</v>
+        <v>43248.890781203707</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -7908,11 +7879,11 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C18)</f>
-        <v>11.045999999999999</v>
+        <v>4.7E-2</v>
       </c>
       <c r="B18" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C18)</f>
-        <v>522.48</v>
+        <v>515.91</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
@@ -7920,11 +7891,11 @@
       </c>
       <c r="D18" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C18)</f>
-        <v>523.55999999999995</v>
+        <v>516.64</v>
       </c>
       <c r="E18" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C18)</f>
-        <v>4.5999999999999999E-2</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -7932,15 +7903,15 @@
       </c>
       <c r="H18" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G18,H$14)</f>
-        <v>558578</v>
+        <v>564135</v>
       </c>
       <c r="I18" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G18,I$14)</f>
-        <v>0.56835999999999998</v>
+        <v>0.55001</v>
       </c>
       <c r="J18" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G18,J$14)</f>
-        <v>1351.75</v>
+        <v>4609.51</v>
       </c>
       <c r="K18" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G18,K$14)</f>
@@ -7952,25 +7923,25 @@
       </c>
       <c r="M18" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G18,M$14)</f>
-        <v>613861</v>
+        <v>620092</v>
       </c>
       <c r="N18" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G18,N$14)</f>
-        <v>613861</v>
+        <v>620092</v>
       </c>
       <c r="O18" s="31">
         <f>RTD(progId,,BINACE_TRADE,$G18,O$14)</f>
-        <v>43248.642275405095</v>
+        <v>43248.890807847223</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C19)</f>
-        <v>0.30599999999999999</v>
+        <v>0.56447999999999998</v>
       </c>
       <c r="B19" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C19)</f>
-        <v>522.30999999999995</v>
+        <v>515.79</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
@@ -7978,11 +7949,11 @@
       </c>
       <c r="D19" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C19)</f>
-        <v>523.69000000000005</v>
+        <v>516.80999999999995</v>
       </c>
       <c r="E19" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C19)</f>
-        <v>6.4930000000000002E-2</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -7990,19 +7961,19 @@
       </c>
       <c r="H19" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G19,H$14)</f>
-        <v>13472636</v>
+        <v>13477809</v>
       </c>
       <c r="I19" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G19,I$14)</f>
-        <v>6.8069999999999997E-3</v>
+        <v>6.7470000000000004E-3</v>
       </c>
       <c r="J19" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G19,J$14)</f>
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="K19" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G19,K$14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G19,L$14)</f>
@@ -8010,25 +7981,25 @@
       </c>
       <c r="M19" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G19,M$14)</f>
-        <v>15215591</v>
+        <v>15221894</v>
       </c>
       <c r="N19" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G19,N$14)</f>
-        <v>15215591</v>
+        <v>15221894</v>
       </c>
       <c r="O19" s="31">
         <f>RTD(progId,,BINACE_TRADE,$G19,O$14)</f>
-        <v>43248.642398506941</v>
+        <v>43248.890704386577</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C20)</f>
-        <v>12.792199999999999</v>
+        <v>0.32644000000000001</v>
       </c>
       <c r="B20" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C20)</f>
-        <v>522.26</v>
+        <v>515.73</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
@@ -8036,11 +8007,11 @@
       </c>
       <c r="D20" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C20)</f>
-        <v>523.79</v>
+        <v>516.98</v>
       </c>
       <c r="E20" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C20)</f>
-        <v>66.909000000000006</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
@@ -8048,19 +8019,19 @@
       </c>
       <c r="H20" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G20,H$14)</f>
-        <v>17395594</v>
+        <v>17405696</v>
       </c>
       <c r="I20" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G20,I$14)</f>
-        <v>7.9010000000000004E-5</v>
+        <v>7.7680000000000002E-5</v>
       </c>
       <c r="J20" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G20,J$14)</f>
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="K20" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G20,K$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G20,L$14)</f>
@@ -8068,25 +8039,25 @@
       </c>
       <c r="M20" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G20,M$14)</f>
-        <v>21046335</v>
+        <v>21057785</v>
       </c>
       <c r="N20" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G20,N$14)</f>
-        <v>21046336</v>
+        <v>21057785</v>
       </c>
       <c r="O20" s="31">
         <f>RTD(progId,,BINACE_TRADE,$G20,O$14)</f>
-        <v>43248.642454907407</v>
+        <v>43248.890803784721</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C21)</f>
-        <v>1.4478800000000001</v>
+        <v>3.83697</v>
       </c>
       <c r="B21" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C21)</f>
-        <v>522.07000000000005</v>
+        <v>515.6</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
@@ -8094,11 +8065,11 @@
       </c>
       <c r="D21" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C21)</f>
-        <v>523.79999999999995</v>
+        <v>516.99</v>
       </c>
       <c r="E21" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C21)</f>
-        <v>0.19781000000000001</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
@@ -8106,15 +8077,15 @@
       </c>
       <c r="H21" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G21,H$14)</f>
-        <v>17818586</v>
+        <v>17835966</v>
       </c>
       <c r="I21" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G21,I$14)</f>
-        <v>8.7199999999999995E-6</v>
+        <v>8.3899999999999993E-6</v>
       </c>
       <c r="J21" s="14">
         <f>RTD(progId,,BINACE_TRADE,$G21,J$14)</f>
-        <v>67</v>
+        <v>14832</v>
       </c>
       <c r="K21" s="14" t="b">
         <f>RTD(progId,,BINACE_TRADE,$G21,K$14)</f>
@@ -8126,25 +8097,25 @@
       </c>
       <c r="M21" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G21,M$14)</f>
-        <v>28717831</v>
+        <v>28746194</v>
       </c>
       <c r="N21" s="20">
         <f>RTD(progId,,BINACE_TRADE,$G21,N$14)</f>
-        <v>28717831</v>
+        <v>28746194</v>
       </c>
       <c r="O21" s="31">
         <f>RTD(progId,,BINACE_TRADE,$G21,O$14)</f>
-        <v>43248.642481481482</v>
+        <v>43248.890785324074</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C22)</f>
-        <v>0.68416999999999994</v>
+        <v>0.62243000000000004</v>
       </c>
       <c r="B22" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C22)</f>
-        <v>522.05999999999995</v>
+        <v>515.5</v>
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
@@ -8152,21 +8123,21 @@
       </c>
       <c r="D22" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C22)</f>
-        <v>523.84</v>
+        <v>517</v>
       </c>
       <c r="E22" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C22)</f>
-        <v>0.40294999999999997</v>
+        <v>4.48665</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C23)</f>
-        <v>18.098939999999999</v>
+        <v>0.31145</v>
       </c>
       <c r="B23" s="17">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C23)</f>
-        <v>522.04999999999995</v>
+        <v>515.49</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" si="0"/>
@@ -8174,21 +8145,21 @@
       </c>
       <c r="D23" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C23)</f>
-        <v>523.98</v>
+        <v>517.03</v>
       </c>
       <c r="E23" s="18">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C23)</f>
-        <v>0.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C24)</f>
-        <v>6.0957600000000003</v>
+        <v>0.5</v>
       </c>
       <c r="B24" s="33">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C24)</f>
-        <v>522.04</v>
+        <v>515.48</v>
       </c>
       <c r="C24" s="34">
         <f t="shared" si="0"/>
@@ -8196,33 +8167,33 @@
       </c>
       <c r="D24" s="35">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C24)</f>
-        <v>523.99</v>
+        <v>517.09</v>
       </c>
       <c r="E24" s="35">
         <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C24)</f>
-        <v>0.21373</v>
+        <v>0.81560999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <f>SUM(Table3[BID_DEPTH_SIZE])</f>
-        <v>54.495629999999998</v>
+        <v>70.949589999999986</v>
       </c>
       <c r="B25" s="15">
         <f>SUMPRODUCT(Table3[BID_DEPTH_SIZE],Table3[BID_DEPTH])</f>
-        <v>28460.011695599998</v>
+        <v>36607.535857200011</v>
       </c>
       <c r="C25" s="16">
         <f>D25-B25</f>
-        <v>84415.051768800011</v>
+        <v>-1117.7994625000065</v>
       </c>
       <c r="D25" s="15">
         <f>SUMPRODUCT(Table3[ASK_DEPTH_SIZE],Table3[ASK_DEPTH])</f>
-        <v>112875.06346440001</v>
+        <v>35489.736394700005</v>
       </c>
       <c r="E25" s="13">
         <f>SUM(Table3[ASK_DEPTH_SIZE])</f>
-        <v>215.57804000000002</v>
+        <v>68.66313000000001</v>
       </c>
       <c r="F25" s="9"/>
       <c r="H25" s="1"/>
@@ -8233,14 +8204,14 @@
     <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32">
         <f>B15-B24</f>
-        <v>1.07000000000005</v>
+        <v>0.52999999999997272</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D26" s="32">
         <f>D15-D24</f>
-        <v>-0.5</v>
+        <v>-0.84000000000003183</v>
       </c>
       <c r="F26" s="9"/>
       <c r="I26" s="4"/>
@@ -8319,9 +8290,6 @@
       <c r="Q29" t="s">
         <v>52</v>
       </c>
-      <c r="R29" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
@@ -8329,27 +8297,27 @@
       </c>
       <c r="B30" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,B$29,$D$28)</f>
-        <v>521.78</v>
+        <v>519.95000000000005</v>
       </c>
       <c r="C30" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,C$29,$D$28)</f>
-        <v>524.86</v>
+        <v>521</v>
       </c>
       <c r="D30" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,D$29,$D$28)</f>
-        <v>520.26</v>
+        <v>516</v>
       </c>
       <c r="E30" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,E$29,$D$28)</f>
-        <v>523.11</v>
+        <v>516.01</v>
       </c>
       <c r="F30" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,F$29,$D$28)</f>
-        <v>43248.625</v>
+        <v>43248.875</v>
       </c>
       <c r="G30" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,G$29,$D$28)</f>
-        <v>43248.666666655095</v>
+        <v>43248.916666655095</v>
       </c>
       <c r="H30" s="14" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,H$29,$D$28)</f>
@@ -8357,19 +8325,19 @@
       </c>
       <c r="I30" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,I$29,$D$28)</f>
-        <v>499135.24110340001</v>
+        <v>1244624.1148619</v>
       </c>
       <c r="J30" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,J$29,$D$28)</f>
-        <v>954.78896999999995</v>
+        <v>2400.8609299999998</v>
       </c>
       <c r="K30" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,K$29,$D$28)</f>
-        <v>597.50694999999996</v>
+        <v>1374.9215300000001</v>
       </c>
       <c r="L30" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,L$29,$D$28)</f>
-        <v>312492.26826789998</v>
+        <v>712585.4998783</v>
       </c>
       <c r="M30" s="14" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,M$29,$D$28)</f>
@@ -8377,21 +8345,20 @@
       </c>
       <c r="N30" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,N$29,$D$28)</f>
-        <v>1162</v>
+        <v>1526</v>
       </c>
       <c r="O30" s="25">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,O$29,$D$28)</f>
-        <v>43248.64247457176</v>
+        <v>43248.890757743058</v>
       </c>
       <c r="P30" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,P$29,$D$28)</f>
-        <v>26603068</v>
+        <v>26630918</v>
       </c>
       <c r="Q30" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A30,Q$29,$D$28)</f>
-        <v>26604229</v>
-      </c>
-      <c r="R30" s="37"/>
+        <v>26632443</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
@@ -8399,27 +8366,27 @@
       </c>
       <c r="B31" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,B$29,$D$28)</f>
-        <v>7195.22</v>
+        <v>7115.02</v>
       </c>
       <c r="C31" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,C$29,$D$28)</f>
-        <v>7214.55</v>
+        <v>7125.15</v>
       </c>
       <c r="D31" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,D$29,$D$28)</f>
-        <v>7188</v>
+        <v>7086.59</v>
       </c>
       <c r="E31" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,E$29,$D$28)</f>
-        <v>7206.62</v>
+        <v>7088</v>
       </c>
       <c r="F31" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,F$29,$D$28)</f>
-        <v>43248.625</v>
+        <v>43248.875</v>
       </c>
       <c r="G31" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,G$29,$D$28)</f>
-        <v>43248.666666655095</v>
+        <v>43248.916666655095</v>
       </c>
       <c r="H31" s="14" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,H$29,$D$28)</f>
@@ -8427,19 +8394,19 @@
       </c>
       <c r="I31" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,I$29,$D$28)</f>
-        <v>2010259.80980805</v>
+        <v>2033977.1468251499</v>
       </c>
       <c r="J31" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,J$29,$D$28)</f>
-        <v>279.08703100000002</v>
+        <v>286.28254600000002</v>
       </c>
       <c r="K31" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,K$29,$D$28)</f>
-        <v>168.387643</v>
+        <v>156.71992800000001</v>
       </c>
       <c r="L31" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,L$29,$D$28)</f>
-        <v>1212988.61425846</v>
+        <v>1113491.8980024699</v>
       </c>
       <c r="M31" s="14" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,M$29,$D$28)</f>
@@ -8447,21 +8414,20 @@
       </c>
       <c r="N31" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,N$29,$D$28)</f>
-        <v>4514</v>
+        <v>2178</v>
       </c>
       <c r="O31" s="25">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,O$29,$D$28)</f>
-        <v>43248.642458287039</v>
+        <v>43248.890795729167</v>
       </c>
       <c r="P31" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,P$29,$D$28)</f>
-        <v>46452730</v>
+        <v>46505338</v>
       </c>
       <c r="Q31" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A31,Q$29,$D$28)</f>
-        <v>46457243</v>
-      </c>
-      <c r="R31" s="37"/>
+        <v>46507515</v>
+      </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
@@ -8469,27 +8435,27 @@
       </c>
       <c r="B32" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,B$29,$D$28)</f>
-        <v>8.7099999999999996E-6</v>
+        <v>8.4700000000000002E-6</v>
       </c>
       <c r="C32" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,C$29,$D$28)</f>
-        <v>8.7600000000000008E-6</v>
+        <v>8.4800000000000001E-6</v>
       </c>
       <c r="D32" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,D$29,$D$28)</f>
-        <v>8.6999999999999997E-6</v>
+        <v>8.3899999999999993E-6</v>
       </c>
       <c r="E32" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,E$29,$D$28)</f>
-        <v>8.7199999999999995E-6</v>
+        <v>8.3899999999999993E-6</v>
       </c>
       <c r="F32" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,F$29,$D$28)</f>
-        <v>43248.625</v>
+        <v>43248.875</v>
       </c>
       <c r="G32" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,G$29,$D$28)</f>
-        <v>43248.666666655095</v>
+        <v>43248.916666655095</v>
       </c>
       <c r="H32" s="20" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,H$29,$D$28)</f>
@@ -8497,19 +8463,19 @@
       </c>
       <c r="I32" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,I$29,$D$28)</f>
-        <v>100.56131857</v>
+        <v>139.10430636000001</v>
       </c>
       <c r="J32" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,J$29,$D$28)</f>
-        <v>11528260</v>
+        <v>16507907</v>
       </c>
       <c r="K32" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,K$29,$D$28)</f>
-        <v>6232709</v>
+        <v>4721913</v>
       </c>
       <c r="L32" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,L$29,$D$28)</f>
-        <v>54.400559020000003</v>
+        <v>39.787702430000003</v>
       </c>
       <c r="M32" s="20" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,M$29,$D$28)</f>
@@ -8517,21 +8483,20 @@
       </c>
       <c r="N32" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,N$29,$D$28)</f>
-        <v>844</v>
+        <v>1080</v>
       </c>
       <c r="O32" s="25">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,O$29,$D$28)</f>
-        <v>43248.642481493058</v>
+        <v>43248.890785381947</v>
       </c>
       <c r="P32" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,P$29,$D$28)</f>
-        <v>28716988</v>
+        <v>28745115</v>
       </c>
       <c r="Q32" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A32,Q$29,$D$28)</f>
-        <v>28717831</v>
-      </c>
-      <c r="R32" s="37"/>
+        <v>28746194</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I33" s="4"/>
@@ -8609,27 +8574,27 @@
       </c>
       <c r="B36" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,B$35,$D$34)</f>
-        <v>530.26</v>
+        <v>511.5</v>
       </c>
       <c r="C36" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,C$35,$D$34)</f>
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D36" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,D$35,$D$34)</f>
-        <v>520.26</v>
+        <v>511.5</v>
       </c>
       <c r="E36" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,E$35,$D$34)</f>
-        <v>523.11</v>
+        <v>516.01</v>
       </c>
       <c r="F36" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,F$35,$D$34)</f>
-        <v>43248.5</v>
+        <v>43248.833333333336</v>
       </c>
       <c r="G36" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,G$35,$D$34)</f>
-        <v>43248.666666655095</v>
+        <v>43248.999999988424</v>
       </c>
       <c r="H36" s="14" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,H$35,$D$34)</f>
@@ -8637,19 +8602,19 @@
       </c>
       <c r="I36" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,I$35,$D$34)</f>
-        <v>6696191.9421442999</v>
+        <v>4051158.0279271002</v>
       </c>
       <c r="J36" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,J$35,$D$34)</f>
-        <v>12704.13386</v>
+        <v>7839.07528</v>
       </c>
       <c r="K36" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,K$35,$D$34)</f>
-        <v>6209.1530199999997</v>
+        <v>4455.7749999999996</v>
       </c>
       <c r="L36" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,L$35,$D$34)</f>
-        <v>3275123.5764486999</v>
+        <v>2302155.0424533002</v>
       </c>
       <c r="M36" s="14" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,M$35,$D$34)</f>
@@ -8657,19 +8622,19 @@
       </c>
       <c r="N36" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,N$35,$D$34)</f>
-        <v>14920</v>
+        <v>5416</v>
       </c>
       <c r="O36" s="25">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,O$35,$D$34)</f>
-        <v>43248.64247457176</v>
+        <v>43248.890757743058</v>
       </c>
       <c r="P36" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,P$35,$D$34)</f>
-        <v>26589310</v>
+        <v>26627028</v>
       </c>
       <c r="Q36" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A36,Q$35,$D$34)</f>
-        <v>26604229</v>
+        <v>26632443</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8678,27 +8643,27 @@
       </c>
       <c r="B37" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,B$35,$D$34)</f>
-        <v>7223.98</v>
+        <v>7099</v>
       </c>
       <c r="C37" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,C$35,$D$34)</f>
-        <v>7243.39</v>
+        <v>7132.1</v>
       </c>
       <c r="D37" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,D$35,$D$34)</f>
-        <v>7175.23</v>
+        <v>7086.59</v>
       </c>
       <c r="E37" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,E$35,$D$34)</f>
-        <v>7206.62</v>
+        <v>7088</v>
       </c>
       <c r="F37" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,F$35,$D$34)</f>
-        <v>43248.5</v>
+        <v>43248.833333333336</v>
       </c>
       <c r="G37" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,G$35,$D$34)</f>
-        <v>43248.666666655095</v>
+        <v>43248.999999988424</v>
       </c>
       <c r="H37" s="14" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,H$35,$D$34)</f>
@@ -8706,19 +8671,19 @@
       </c>
       <c r="I37" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,I$35,$D$34)</f>
-        <v>18666256.877545841</v>
+        <v>8811083.6166344304</v>
       </c>
       <c r="J37" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,J$35,$D$34)</f>
-        <v>2589.4488510000001</v>
+        <v>1238.5861500000001</v>
       </c>
       <c r="K37" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,K$35,$D$34)</f>
-        <v>1562.624771</v>
+        <v>741.40308400000004</v>
       </c>
       <c r="L37" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,L$35,$D$34)</f>
-        <v>11265225.01936353</v>
+        <v>5274178.28665327</v>
       </c>
       <c r="M37" s="14" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,M$35,$D$34)</f>
@@ -8726,19 +8691,19 @@
       </c>
       <c r="N37" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,N$35,$D$34)</f>
-        <v>25313</v>
+        <v>8173</v>
       </c>
       <c r="O37" s="25">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,O$35,$D$34)</f>
-        <v>43248.642458287039</v>
+        <v>43248.890795729167</v>
       </c>
       <c r="P37" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,P$35,$D$34)</f>
-        <v>46431931</v>
+        <v>46499343</v>
       </c>
       <c r="Q37" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A37,Q$35,$D$34)</f>
-        <v>46457243</v>
+        <v>46507515</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8747,27 +8712,27 @@
       </c>
       <c r="B38" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,B$35,$D$34)</f>
-        <v>8.7700000000000007E-6</v>
+        <v>8.3599999999999996E-6</v>
       </c>
       <c r="C38" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,C$35,$D$34)</f>
-        <v>8.8400000000000001E-6</v>
+        <v>8.4999999999999999E-6</v>
       </c>
       <c r="D38" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,D$35,$D$34)</f>
-        <v>8.6999999999999997E-6</v>
+        <v>8.3599999999999996E-6</v>
       </c>
       <c r="E38" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,E$35,$D$34)</f>
-        <v>8.7199999999999995E-6</v>
+        <v>8.3899999999999993E-6</v>
       </c>
       <c r="F38" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,F$35,$D$34)</f>
-        <v>43248.5</v>
+        <v>43248.833333333336</v>
       </c>
       <c r="G38" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,G$35,$D$34)</f>
-        <v>43248.666666655095</v>
+        <v>43248.999999988424</v>
       </c>
       <c r="H38" s="20" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,H$35,$D$34)</f>
@@ -8775,19 +8740,19 @@
       </c>
       <c r="I38" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,I$35,$D$34)</f>
-        <v>949.13351813999998</v>
+        <v>424.68785742</v>
       </c>
       <c r="J38" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,J$35,$D$34)</f>
-        <v>108455087</v>
+        <v>50314403</v>
       </c>
       <c r="K38" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,K$35,$D$34)</f>
-        <v>44154469</v>
+        <v>26021939</v>
       </c>
       <c r="L38" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,L$35,$D$34)</f>
-        <v>386.64930022999999</v>
+        <v>219.73664076</v>
       </c>
       <c r="M38" s="20" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,M$35,$D$34)</f>
@@ -8795,19 +8760,19 @@
       </c>
       <c r="N38" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,N$35,$D$34)</f>
-        <v>8379</v>
+        <v>3552</v>
       </c>
       <c r="O38" s="25">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,O$35,$D$34)</f>
-        <v>43248.642481493058</v>
+        <v>43248.890785347219</v>
       </c>
       <c r="P38" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,P$35,$D$34)</f>
-        <v>28709453</v>
+        <v>28742643</v>
       </c>
       <c r="Q38" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A38,Q$35,$D$34)</f>
-        <v>28717831</v>
+        <v>28746194</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -8898,27 +8863,27 @@
       </c>
       <c r="B42" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,B$41,$D$40)</f>
-        <v>529.64</v>
+        <v>511.5</v>
       </c>
       <c r="C42" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,C$41,$D$40)</f>
-        <v>541.38</v>
+        <v>522</v>
       </c>
       <c r="D42" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,D$41,$D$40)</f>
-        <v>520.26</v>
+        <v>511.5</v>
       </c>
       <c r="E42" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,E$41,$D$40)</f>
-        <v>523.11</v>
+        <v>516.01</v>
       </c>
       <c r="F42" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,F$41,$D$40)</f>
-        <v>43248.333333333336</v>
+        <v>43248.833333333336</v>
       </c>
       <c r="G42" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,G$41,$D$40)</f>
-        <v>43248.83333332176</v>
+        <v>43249.33333332176</v>
       </c>
       <c r="H42" s="14" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,H$41,$D$40)</f>
@@ -8926,19 +8891,19 @@
       </c>
       <c r="I42" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,I$41,$D$40)</f>
-        <v>20699074.592894401</v>
+        <v>4051158.0279271002</v>
       </c>
       <c r="J42" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,J$41,$D$40)</f>
-        <v>38994.013830000004</v>
+        <v>7839.07528</v>
       </c>
       <c r="K42" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,K$41,$D$40)</f>
-        <v>19938.152539999999</v>
+        <v>4455.7749999999996</v>
       </c>
       <c r="L42" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,L$41,$D$40)</f>
-        <v>10589444.745726001</v>
+        <v>2302155.0424533002</v>
       </c>
       <c r="M42" s="14" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,M$41,$D$40)</f>
@@ -8946,19 +8911,19 @@
       </c>
       <c r="N42" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,N$41,$D$40)</f>
-        <v>34824</v>
+        <v>5416</v>
       </c>
       <c r="O42" s="25">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,O$41,$D$40)</f>
-        <v>43248.64247457176</v>
+        <v>43248.890757743058</v>
       </c>
       <c r="P42" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,P$41,$D$40)</f>
-        <v>26569406</v>
+        <v>26627028</v>
       </c>
       <c r="Q42" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A42,Q$41,$D$40)</f>
-        <v>26604229</v>
+        <v>26632443</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -8967,27 +8932,27 @@
       </c>
       <c r="B43" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,B$41,$D$40)</f>
-        <v>7196.74</v>
+        <v>7099</v>
       </c>
       <c r="C43" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,C$41,$D$40)</f>
-        <v>7300</v>
+        <v>7132.1</v>
       </c>
       <c r="D43" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,D$41,$D$40)</f>
-        <v>7148.16</v>
+        <v>7086.59</v>
       </c>
       <c r="E43" s="14">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,E$41,$D$40)</f>
-        <v>7206.62</v>
+        <v>7088</v>
       </c>
       <c r="F43" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,F$41,$D$40)</f>
-        <v>43248.333333333336</v>
+        <v>43248.833333333336</v>
       </c>
       <c r="G43" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,G$41,$D$40)</f>
-        <v>43248.83333332176</v>
+        <v>43249.33333332176</v>
       </c>
       <c r="H43" s="14" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,H$41,$D$40)</f>
@@ -8995,19 +8960,19 @@
       </c>
       <c r="I43" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,I$41,$D$40)</f>
-        <v>51790188.287897058</v>
+        <v>8811083.6166344304</v>
       </c>
       <c r="J43" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,J$41,$D$40)</f>
-        <v>7164.9058009999999</v>
+        <v>1238.5861500000001</v>
       </c>
       <c r="K43" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,K$41,$D$40)</f>
-        <v>4045.8033679999999</v>
+        <v>741.40308400000004</v>
       </c>
       <c r="L43" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,L$41,$D$40)</f>
-        <v>29250034.49139104</v>
+        <v>5274178.28665327</v>
       </c>
       <c r="M43" s="14" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,M$41,$D$40)</f>
@@ -9015,19 +8980,19 @@
       </c>
       <c r="N43" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,N$41,$D$40)</f>
-        <v>64112</v>
+        <v>8173</v>
       </c>
       <c r="O43" s="25">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,O$41,$D$40)</f>
-        <v>43248.642458287039</v>
+        <v>43248.890795729167</v>
       </c>
       <c r="P43" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,P$41,$D$40)</f>
-        <v>46393132</v>
+        <v>46499343</v>
       </c>
       <c r="Q43" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A43,Q$41,$D$40)</f>
-        <v>46457243</v>
+        <v>46507515</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -9036,27 +9001,27 @@
       </c>
       <c r="B44" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,B$41,$D$40)</f>
-        <v>8.8899999999999996E-6</v>
+        <v>8.3599999999999996E-6</v>
       </c>
       <c r="C44" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,C$41,$D$40)</f>
-        <v>9.0399999999999998E-6</v>
+        <v>8.4999999999999999E-6</v>
       </c>
       <c r="D44" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,D$41,$D$40)</f>
-        <v>8.67E-6</v>
+        <v>8.3599999999999996E-6</v>
       </c>
       <c r="E44" s="20">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,E$41,$D$40)</f>
-        <v>8.7199999999999995E-6</v>
+        <v>8.3899999999999993E-6</v>
       </c>
       <c r="F44" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,F$41,$D$40)</f>
-        <v>43248.333333333336</v>
+        <v>43248.833333333336</v>
       </c>
       <c r="G44" s="24">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,G$41,$D$40)</f>
-        <v>43248.83333332176</v>
+        <v>43249.33333332176</v>
       </c>
       <c r="H44" s="20" t="b">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,H$41,$D$40)</f>
@@ -9064,19 +9029,19 @@
       </c>
       <c r="I44" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,I$41,$D$40)</f>
-        <v>2587.28489614</v>
+        <v>424.68785742</v>
       </c>
       <c r="J44" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,J$41,$D$40)</f>
-        <v>293281557</v>
+        <v>50314403</v>
       </c>
       <c r="K44" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,K$41,$D$40)</f>
-        <v>126806735</v>
+        <v>26021939</v>
       </c>
       <c r="L44" s="26">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,L$41,$D$40)</f>
-        <v>1120.39053597</v>
+        <v>219.73664076</v>
       </c>
       <c r="M44" s="20" t="str">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,M$41,$D$40)</f>
@@ -9084,19 +9049,19 @@
       </c>
       <c r="N44" s="27">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,N$41,$D$40)</f>
-        <v>23445</v>
+        <v>3552</v>
       </c>
       <c r="O44" s="25">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,O$41,$D$40)</f>
-        <v>43248.642482025462</v>
+        <v>43248.890785347219</v>
       </c>
       <c r="P44" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,P$41,$D$40)</f>
-        <v>28694387</v>
+        <v>28742643</v>
       </c>
       <c r="Q44" s="28">
         <f>RTD(progId,,BINANCE_CANDLE,$A44,Q$41,$D$40)</f>
-        <v>28717831</v>
+        <v>28746194</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -9511,19 +9476,19 @@
       </c>
       <c r="B3" s="2">
         <f>RTD(progId,,GDAX,$A3,B$2)</f>
-        <v>523.48</v>
+        <v>515.49</v>
       </c>
       <c r="C3" s="2">
         <f>RTD(progId,,GDAX,$A3,C$2)</f>
-        <v>523.49</v>
+        <v>515.5</v>
       </c>
       <c r="D3" s="2">
         <f>RTD(progId,,GDAX,$A3,D$2)</f>
-        <v>523.49</v>
+        <v>515.5</v>
       </c>
       <c r="E3" s="2">
         <f>RTD(progId,,GDAX,$A3,E$2)</f>
-        <v>558.98</v>
+        <v>568.97</v>
       </c>
       <c r="F3" s="2">
         <f>RTD(progId,,GDAX,$A3,F$2)</f>
@@ -9531,11 +9496,11 @@
       </c>
       <c r="G3" s="2">
         <f>RTD(progId,,GDAX,$A3,G$2)</f>
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="H3" s="2">
         <f>RTD(progId,,GDAX,$A3,H$2)</f>
-        <v>95034.089917260004</v>
+        <v>123688.86617035</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9544,19 +9509,19 @@
       </c>
       <c r="B4" s="2">
         <f>RTD(progId,,GDAX,$A4,B$2)</f>
-        <v>7222.36</v>
+        <v>7102.11</v>
       </c>
       <c r="C4" s="2">
         <f>RTD(progId,,GDAX,$A4,C$2)</f>
-        <v>7222.37</v>
+        <v>7102.12</v>
       </c>
       <c r="D4" s="2">
         <f>RTD(progId,,GDAX,$A4,D$2)</f>
-        <v>7222.37</v>
+        <v>7102.12</v>
       </c>
       <c r="E4" s="2">
         <f>RTD(progId,,GDAX,$A4,E$2)</f>
-        <v>7288.37</v>
+        <v>7334.2</v>
       </c>
       <c r="F4" s="2">
         <f>RTD(progId,,GDAX,$A4,F$2)</f>
@@ -9564,11 +9529,11 @@
       </c>
       <c r="G4" s="2">
         <f>RTD(progId,,GDAX,$A4,G$2)</f>
-        <v>7167.99</v>
+        <v>7087</v>
       </c>
       <c r="H4" s="2">
         <f>RTD(progId,,GDAX,$A4,H$2)</f>
-        <v>6328.13792724</v>
+        <v>7893.4945081300002</v>
       </c>
     </row>
   </sheetData>

--- a/doc/crypto.xlsx
+++ b/doc/crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\OpenSource\Crypto\crypto-rtd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D857F6-98DE-47A6-9804-7FE33A27895F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC6A323-52C9-4613-959E-A957005DF90A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="12225" tabRatio="245" xr2:uid="{FA204BA2-54FD-4EAD-B49B-FB8867D94DC8}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="GDAX" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="BINACE_TRADE">BINANCE!$G$13</definedName>
-    <definedName name="BINANCE">BINANCE!$A$3</definedName>
-    <definedName name="BINANCE_24H">BINANCE!$D$3</definedName>
-    <definedName name="BINANCE_CANDLE">BINANCE!$A$28</definedName>
-    <definedName name="BINANCE_DEPTH">BINANCE!$A$13</definedName>
-    <definedName name="BINANCE_HISTORY">BINANCE!$Q$3</definedName>
+    <definedName name="BINACE_TRADE">BINANCE!$G$14</definedName>
+    <definedName name="BINANCE">BINANCE!$A$4</definedName>
+    <definedName name="BINANCE_24H">BINANCE!$D$4</definedName>
+    <definedName name="BINANCE_CANDLE">BINANCE!$A$29</definedName>
+    <definedName name="BINANCE_DEPTH">BINANCE!$A$14</definedName>
+    <definedName name="BINANCE_HISTORY">BINANCE!$Q$4</definedName>
     <definedName name="GDAX">GDAX!$A$1</definedName>
-    <definedName name="progId">BINANCE!$H$1</definedName>
+    <definedName name="progId">BINANCE!$H$2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
   <si>
     <t>GDAX</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>ETHUSDT</t>
+  </si>
+  <si>
+    <t>CLOCK</t>
+  </si>
+  <si>
+    <t>This text was added by using code</t>
   </si>
 </sst>
 </file>
@@ -3421,295 +3427,295 @@
   <volType type="realTimeData">
     <main first="crypto">
       <tp>
-        <v>26990</v>
+        <v>27338</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>TRADES</stp>
-        <tr r="M8" s="1"/>
-      </tp>
-      <tp>
-        <v>21092</v>
+        <tr r="M9" s="1"/>
+      </tp>
+      <tp>
+        <v>19351</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>TRADES</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp>
-        <v>230157</v>
+        <tr r="M8" s="1"/>
+      </tp>
+      <tp>
+        <v>235000</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>TRADES</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp>
+        <v>129082</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>TRADES</stp>
         <tr r="M6" s="1"/>
       </tp>
       <tp>
-        <v>133786</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ethusdt</stp>
-        <stp>TRADES</stp>
-        <tr r="M5" s="1"/>
-      </tp>
-      <tp>
-        <v>139.10430636000001</v>
+        <v>347.96116496000002</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>QUOTE_VOL</stp>
         <stp>5</stp>
-        <tr r="I32" s="1"/>
-      </tp>
-      <tp>
-        <v>424.68785742</v>
+        <tr r="I33" s="1"/>
+      </tp>
+      <tp>
+        <v>903.63612820000003</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>QUOTE_VOL</stp>
         <stp>7</stp>
-        <tr r="I38" s="1"/>
-      </tp>
-      <tp>
-        <v>6</v>
+        <tr r="I39" s="1"/>
+      </tp>
+      <tp>
+        <v>3.32</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp>
-        <v>801878</v>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>124344</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>ASK_SIZE</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp>
-        <v>14723.2</v>
+        <tr r="J12" s="1"/>
+      </tp>
+      <tp>
+        <v>159.16999999999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.833333333336</v>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.333333333336</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>OPEN_TIME</stp>
         <stp>10</stp>
-        <tr r="F42" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.833333333336</v>
+        <tr r="F43" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.333333333336</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN_TIME</stp>
         <stp>10</stp>
-        <tr r="F43" s="1"/>
-      </tp>
-      <tp>
-        <v>126866.83</v>
+        <tr r="F44" s="1"/>
+      </tp>
+      <tp>
+        <v>157839.87</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>VOL</stp>
-        <tr r="K9" s="1"/>
-      </tp>
-      <tp>
-        <v>1630637655</v>
+        <tr r="K10" s="1"/>
+      </tp>
+      <tp>
+        <v>1626347776</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>VOL</stp>
-        <tr r="K11" s="1"/>
-      </tp>
-      <tp>
-        <v>35789838</v>
+        <tr r="K12" s="1"/>
+      </tp>
+      <tp>
+        <v>33785487</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>VOL</stp>
-        <tr r="K10" s="1"/>
-      </tp>
-      <tp>
-        <v>7125.15</v>
+        <tr r="K11" s="1"/>
+      </tp>
+      <tp>
+        <v>7505</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>HIGH</stp>
         <stp>5</stp>
-        <tr r="C31" s="1"/>
-      </tp>
-      <tp>
-        <v>7132.1</v>
+        <tr r="C32" s="1"/>
+      </tp>
+      <tp>
+        <v>7533.35</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>HIGH</stp>
         <stp>7</stp>
-        <tr r="C37" s="1"/>
-      </tp>
-      <tp>
-        <v>521</v>
+        <tr r="C38" s="1"/>
+      </tp>
+      <tp>
+        <v>569.28</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>HIGH</stp>
         <stp>5</stp>
-        <tr r="C30" s="1"/>
-      </tp>
-      <tp>
-        <v>522</v>
+        <tr r="C31" s="1"/>
+      </tp>
+      <tp>
+        <v>573.42999999999995</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>HIGH</stp>
         <stp>7</stp>
-        <tr r="C36" s="1"/>
-      </tp>
-      <tp>
-        <v>519.95000000000005</v>
+        <tr r="C37" s="1"/>
+      </tp>
+      <tp>
+        <v>568.87</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>OPEN</stp>
         <stp>5</stp>
-        <tr r="B30" s="1"/>
-      </tp>
-      <tp>
-        <v>511.5</v>
+        <tr r="B31" s="1"/>
+      </tp>
+      <tp>
+        <v>564.96</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>OPEN</stp>
         <stp>7</stp>
-        <tr r="B36" s="1"/>
-      </tp>
-      <tp>
-        <v>7115.02</v>
+        <tr r="B37" s="1"/>
+      </tp>
+      <tp>
+        <v>7500.5</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN</stp>
         <stp>5</stp>
-        <tr r="B31" s="1"/>
-      </tp>
-      <tp>
-        <v>7099</v>
+        <tr r="B32" s="1"/>
+      </tp>
+      <tp>
+        <v>7473</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN</stp>
         <stp>7</stp>
-        <tr r="B37" s="1"/>
-      </tp>
-      <tp>
-        <v>2178</v>
+        <tr r="B38" s="1"/>
+      </tp>
+      <tp>
+        <v>9898</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TRADES</stp>
         <stp>5</stp>
-        <tr r="N31" s="1"/>
-      </tp>
-      <tp>
-        <v>8173</v>
+        <tr r="N32" s="1"/>
+      </tp>
+      <tp>
+        <v>27767</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TRADES</stp>
         <stp>7</stp>
-        <tr r="N37" s="1"/>
-      </tp>
-      <tp>
-        <v>1526</v>
+        <tr r="N38" s="1"/>
+      </tp>
+      <tp>
+        <v>4838</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TRADES</stp>
         <stp>5</stp>
-        <tr r="N30" s="1"/>
-      </tp>
-      <tp>
-        <v>5416</v>
+        <tr r="N31" s="1"/>
+      </tp>
+      <tp>
+        <v>13033</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TRADES</stp>
         <stp>7</stp>
-        <tr r="N36" s="1"/>
-      </tp>
-      <tp>
-        <v>-8.9539999999999995E-2</v>
+        <tr r="N37" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9200000000000007E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>PRICE%</stp>
-        <tr r="N8" s="1"/>
-      </tp>
-      <tp>
-        <v>-6.5119999999999997E-2</v>
+        <tr r="N9" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9509999999999997E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>PRICE%</stp>
-        <tr r="N7" s="1"/>
-      </tp>
-      <tp>
-        <v>-9.461E-2</v>
+        <tr r="N8" s="1"/>
+      </tp>
+      <tp>
+        <v>9.5649999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>PRICE%</stp>
-        <tr r="N5" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.3770000000000001E-2</v>
+        <tr r="N6" s="1"/>
+      </tp>
+      <tp>
+        <v>5.1819999999999998E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>PRICE%</stp>
-        <tr r="N6" s="1"/>
-      </tp>
-      <tp>
-        <v>2.64337</v>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp>
+        <v>0.53383000000000003</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0727</v>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0000000000000001E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>2.8150000000000001E-2</v>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>8.2888000000000003E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-      <tp>
-        <v>869.01502318999997</v>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>1097.7973295500001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>QUOTE_VOL</stp>
-        <tr r="L9" s="1"/>
-      </tp>
-      <tp>
-        <v>515.5</v>
+        <tr r="L10" s="1"/>
+      </tp>
+      <tp>
+        <v>561.86</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -3717,7 +3723,7 @@
         <tr r="C3" s="2"/>
       </tp>
       <tp>
-        <v>515.49</v>
+        <v>561.85</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -3725,25 +3731,25 @@
         <tr r="B3" s="2"/>
       </tp>
       <tp>
-        <v>4051158.0279271002</v>
+        <v>52514496.026789799</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>QUOTE_VOL</stp>
         <stp>10</stp>
-        <tr r="I42" s="1"/>
-      </tp>
-      <tp>
-        <v>8811083.6166344304</v>
+        <tr r="I43" s="1"/>
+      </tp>
+      <tp>
+        <v>129714114.66223025</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>QUOTE_VOL</stp>
         <stp>10</stp>
-        <tr r="I43" s="1"/>
-      </tp>
-      <tp>
-        <v>7102.11</v>
+        <tr r="I44" s="1"/>
+      </tp>
+      <tp>
+        <v>7439.41</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -3751,42 +3757,42 @@
         <tr r="B4" s="2"/>
       </tp>
       <tp>
-        <v>1800</v>
+        <v>1088</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>ASK_SIZE</stp>
-        <tr r="J10" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.875</v>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.75</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>OPEN_TIME</stp>
         <stp>5</stp>
-        <tr r="F32" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.833333333336</v>
+        <tr r="F33" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.666666666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>OPEN_TIME</stp>
         <stp>7</stp>
-        <tr r="F38" s="1"/>
-      </tp>
-      <tp>
-        <v>26021939</v>
+        <tr r="F39" s="1"/>
+      </tp>
+      <tp>
+        <v>245903612</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>10</stp>
-        <tr r="K44" s="1"/>
-      </tp>
-      <tp>
-        <v>7102.12</v>
+        <tr r="K45" s="1"/>
+      </tp>
+      <tp>
+        <v>7443.8</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -3794,7 +3800,7 @@
         <tr r="C4" s="2"/>
       </tp>
       <tp>
-        <v>7087</v>
+        <v>7058</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -3802,180 +3808,180 @@
         <tr r="G4" s="2"/>
       </tp>
       <tp>
-        <v>28746194</v>
+        <v>28850790</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>LAST_ID</stp>
         <stp>7</stp>
-        <tr r="Q38" s="1"/>
-      </tp>
-      <tp>
-        <v>28746194</v>
+        <tr r="Q39" s="1"/>
+      </tp>
+      <tp>
+        <v>28850790</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>LAST_ID</stp>
         <stp>5</stp>
-        <tr r="Q32" s="1"/>
-      </tp>
-      <tp>
-        <v>8.4999999999999999E-6</v>
+        <tr r="Q33" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7900000000000005E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>HIGH</stp>
         <stp>10</stp>
-        <tr r="C44" s="1"/>
-      </tp>
-      <tp>
-        <v>1374.9215300000001</v>
+        <tr r="C45" s="1"/>
+      </tp>
+      <tp>
+        <v>2536.66786</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>5</stp>
-        <tr r="K30" s="1"/>
-      </tp>
-      <tp>
-        <v>4455.7749999999996</v>
+        <tr r="K31" s="1"/>
+      </tp>
+      <tp>
+        <v>8635.5733899999996</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>7</stp>
-        <tr r="K36" s="1"/>
-      </tp>
-      <tp>
-        <v>156.71992800000001</v>
+        <tr r="K37" s="1"/>
+      </tp>
+      <tp>
+        <v>622.820652</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>5</stp>
-        <tr r="K31" s="1"/>
-      </tp>
-      <tp>
-        <v>741.40308400000004</v>
+        <tr r="K32" s="1"/>
+      </tp>
+      <tp>
+        <v>2087.112353</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>7</stp>
-        <tr r="K37" s="1"/>
-      </tp>
-      <tp>
-        <v>5274178.28665327</v>
+        <tr r="K38" s="1"/>
+      </tp>
+      <tp>
+        <v>69718853.044642255</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>10</stp>
-        <tr r="L43" s="1"/>
-      </tp>
-      <tp>
-        <v>46507515</v>
+        <tr r="L44" s="1"/>
+      </tp>
+      <tp>
+        <v>46725848</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LAST_ID</stp>
         <stp>5</stp>
-        <tr r="Q31" s="1"/>
-      </tp>
-      <tp>
-        <v>46507515</v>
+        <tr r="Q32" s="1"/>
+      </tp>
+      <tp>
+        <v>46725848</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LAST_ID</stp>
         <stp>7</stp>
-        <tr r="Q37" s="1"/>
-      </tp>
-      <tp>
-        <v>219.73664076</v>
+        <tr r="Q38" s="1"/>
+      </tp>
+      <tp>
+        <v>2109.96642647</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>10</stp>
-        <tr r="L44" s="1"/>
-      </tp>
-      <tp>
-        <v>8.3599999999999996E-6</v>
+        <tr r="L45" s="1"/>
+      </tp>
+      <tp>
+        <v>8.5799999999999992E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>OPEN</stp>
         <stp>10</stp>
-        <tr r="B44" s="1"/>
-      </tp>
-      <tp>
-        <v>7.7700000000000005E-5</v>
+        <tr r="B45" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9900000000000004E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>ASK</stp>
-        <tr r="I10" s="1"/>
-      </tp>
-      <tp>
-        <v>8.3999999999999992E-6</v>
+        <tr r="I11" s="1"/>
+      </tp>
+      <tp>
+        <v>8.6400000000000003E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>ASK</stp>
-        <tr r="I11" s="1"/>
-      </tp>
-      <tp>
-        <v>6.7530000000000003E-3</v>
+        <tr r="I12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.0159999999999997E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>ASK</stp>
-        <tr r="I9" s="1"/>
-      </tp>
-      <tp>
-        <v>6.7460000000000003E-3</v>
+        <tr r="I10" s="1"/>
+      </tp>
+      <tp>
+        <v>7.0150000000000004E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>BID</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp>
-        <v>8.3899999999999993E-6</v>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>8.6300000000000004E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>BID</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>7.7579999999999999E-5</v>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9880000000000001E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>BID</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>43249.33333332176</v>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.83333332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE_TIME</stp>
         <stp>10</stp>
-        <tr r="G42" s="1"/>
-      </tp>
-      <tp>
-        <v>1518</v>
+        <tr r="G43" s="1"/>
+      </tp>
+      <tp>
+        <v>462</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
-        <v>507</v>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>510.59</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -3983,38 +3989,38 @@
         <tr r="G3" s="2"/>
       </tp>
       <tp>
-        <v>26632443</v>
+        <v>26750922</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LAST_ID</stp>
         <stp>7</stp>
-        <tr r="Q36" s="1"/>
-      </tp>
-      <tp>
-        <v>26632443</v>
+        <tr r="Q37" s="1"/>
+      </tp>
+      <tp>
+        <v>26750922</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LAST_ID</stp>
         <stp>5</stp>
-        <tr r="Q30" s="1"/>
-      </tp>
-      <tp>
-        <v>6.7010000000000004E-3</v>
+        <tr r="Q31" s="1"/>
+      </tp>
+      <tp>
+        <v>6.7099999999999998E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>LOW</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp>
-        <v>8.2700000000000004E-6</v>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9300000000000003E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>LOW</stp>
-        <tr r="B11" s="1"/>
+        <tr r="B12" s="1"/>
       </tp>
       <tp>
         <v>7.7000000000000001E-5</v>
@@ -4022,150 +4028,150 @@
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>LOW</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp>
-        <v>2302155.0424533002</v>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp>
+        <v>26240139.5047675</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>10</stp>
-        <tr r="L42" s="1"/>
-      </tp>
-      <tp>
-        <v>0.99</v>
+        <tr r="L43" s="1"/>
+      </tp>
+      <tp>
+        <v>3.44</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>ASK_SIZE</stp>
-        <tr r="J9" s="1"/>
-      </tp>
-      <tp>
-        <v>162488</v>
+        <tr r="J10" s="1"/>
+      </tp>
+      <tp>
+        <v>97197</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>BID_SIZE</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>492.34</v>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>210.15</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>ASK_SIZE</stp>
-        <tr r="J8" s="1"/>
-      </tp>
-      <tp>
-        <v>43249.33333332176</v>
+        <tr r="J9" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.83333332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>CLOSE_TIME</stp>
         <stp>10</stp>
-        <tr r="G44" s="1"/>
-      </tp>
-      <tp>
-        <v>43249.33333332176</v>
+        <tr r="G45" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.83333332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE_TIME</stp>
         <stp>10</stp>
-        <tr r="G43" s="1"/>
-      </tp>
-      <tp>
-        <v>0.54</v>
+        <tr r="G44" s="1"/>
+      </tp>
+      <tp>
+        <v>0.75</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>ASK_SIZE</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-      <tp>
-        <v>7.9342999999999997E-2</v>
+        <tr r="J8" s="1"/>
+      </tp>
+      <tp>
+        <v>0.14785100000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>ASK_SIZE</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp>
+        <v>0.53381999999999996</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>ASK_SIZE</stp>
         <tr r="J6" s="1"/>
       </tp>
       <tp>
-        <v>0.87063999999999997</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ethusdt</stp>
-        <stp>ASK_SIZE</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-      <tp>
-        <v>2857.2464935600001</v>
+        <v>2674.6815673699998</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>QUOTE_VOL</stp>
-        <tr r="L10" s="1"/>
-      </tp>
-      <tp>
-        <v>46507515</v>
+        <tr r="L11" s="1"/>
+      </tp>
+      <tp>
+        <v>46725848</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LAST_ID</stp>
         <stp>10</stp>
-        <tr r="Q43" s="1"/>
-      </tp>
-      <tp>
-        <v>26632443</v>
+        <tr r="Q44" s="1"/>
+      </tp>
+      <tp>
+        <v>26750922</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LAST_ID</stp>
         <stp>10</stp>
-        <tr r="Q42" s="1"/>
-      </tp>
-      <tp>
-        <v>14448.935198929999</v>
+        <tr r="Q43" s="1"/>
+      </tp>
+      <tp>
+        <v>13630.97249443</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>QUOTE_VOL</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp>
-        <v>620092</v>
+        <tr r="L12" s="1"/>
+      </tp>
+      <tp>
+        <v>644938</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>FIRST_ID</stp>
-        <tr r="M18" s="1"/>
-      </tp>
-      <tp>
-        <v>8.3599999999999996E-6</v>
+        <tr r="M19" s="1"/>
+      </tp>
+      <tp>
+        <v>8.5799999999999992E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>OPEN</stp>
         <stp>7</stp>
-        <tr r="B38" s="1"/>
-      </tp>
-      <tp>
-        <v>8.4700000000000002E-6</v>
+        <tr r="B39" s="1"/>
+      </tp>
+      <tp>
+        <v>8.6400000000000003E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>OPEN</stp>
         <stp>5</stp>
-        <tr r="B32" s="1"/>
-      </tp>
-      <tp>
-        <v>1.65E-3</v>
+        <tr r="B33" s="1"/>
+      </tp>
+      <tp>
+        <v>1.3999999999999999E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>Spread</stp>
-        <tr r="H8" s="1"/>
+        <tr r="H9" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -4173,158 +4179,158 @@
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>BUYER_IS_MAKER</stp>
-        <tr r="K21" s="1"/>
-      </tp>
-      <tp>
-        <v>0.11</v>
+        <tr r="K22" s="1"/>
+      </tp>
+      <tp>
+        <v>0.01</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>Spread</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>1.55</v>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>4.4400000000000004</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>Spread</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>0.42</v>
+        <stp/>
+        <stp>BINANCE</stp>
+        <stp>ethusdt</stp>
+        <stp>Spread</stp>
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>0.24</v>
-        <stp/>
-        <stp>BINANCE</stp>
-        <stp>ethusdt</stp>
-        <stp>Spread</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>46499343</v>
+        <v>46611523</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>FIRST_ID</stp>
         <stp>10</stp>
-        <tr r="P43" s="1"/>
-      </tp>
-      <tp>
-        <v>356</v>
+        <tr r="P44" s="1"/>
+      </tp>
+      <tp>
+        <v>159</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>QUANTITY</stp>
-        <tr r="J20" s="1"/>
-      </tp>
-      <tp>
-        <v>1080</v>
+        <tr r="J21" s="1"/>
+      </tp>
+      <tp>
+        <v>3732</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>TRADES</stp>
         <stp>5</stp>
-        <tr r="N32" s="1"/>
-      </tp>
-      <tp>
-        <v>3552</v>
+        <tr r="N33" s="1"/>
+      </tp>
+      <tp>
+        <v>9964</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>TRADES</stp>
         <stp>7</stp>
-        <tr r="N38" s="1"/>
-      </tp>
-      <tp>
-        <v>26627028</v>
+        <tr r="N39" s="1"/>
+      </tp>
+      <tp>
+        <v>26687682</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>FIRST_ID</stp>
         <stp>10</stp>
-        <tr r="P42" s="1"/>
-      </tp>
-      <tp>
-        <v>13477809</v>
+        <tr r="P43" s="1"/>
+      </tp>
+      <tp>
+        <v>13498381</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>TRADE_ID</stp>
-        <tr r="H19" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.833333333336</v>
+        <tr r="H20" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.333333333336</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>OPEN_TIME</stp>
         <stp>10</stp>
-        <tr r="F44" s="1"/>
-      </tp>
-      <tp>
-        <v>28746194</v>
+        <tr r="F45" s="1"/>
+      </tp>
+      <tp>
+        <v>28850790</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>FIRST_ID</stp>
-        <tr r="M21" s="1"/>
-      </tp>
-      <tp>
-        <v>46507521</v>
+        <tr r="M22" s="1"/>
+      </tp>
+      <tp>
+        <v>46725857</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>FIRST_ID</stp>
-        <tr r="M16" s="1"/>
-      </tp>
-      <tp>
-        <v>7604933</v>
+        <tr r="M17" s="1"/>
+      </tp>
+      <tp>
+        <v>7622844</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>FIRST_ID</stp>
-        <tr r="M17" s="1"/>
-      </tp>
-      <tp>
-        <v>26632443</v>
+        <tr r="M18" s="1"/>
+      </tp>
+      <tp>
+        <v>26750925</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>FIRST_ID</stp>
-        <tr r="M15" s="1"/>
-      </tp>
-      <tp>
-        <v>8.4999999999999999E-6</v>
+        <tr r="M16" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7499999999999992E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>HIGH</stp>
         <stp>7</stp>
-        <tr r="C38" s="1"/>
-      </tp>
-      <tp>
-        <v>8.4800000000000001E-6</v>
+        <tr r="C39" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7499999999999992E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>HIGH</stp>
         <stp>5</stp>
-        <tr r="C32" s="1"/>
+        <tr r="C33" s="1"/>
       </tp>
       <tp t="b">
-        <v>0</v>
+        <v>1</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>BUYER_IS_MAKER</stp>
-        <tr r="K20" s="1"/>
-      </tp>
-      <tp>
-        <v>21057785</v>
+        <tr r="K21" s="1"/>
+      </tp>
+      <tp>
+        <v>21103240</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>FIRST_ID</stp>
-        <tr r="M20" s="1"/>
+        <tr r="M21" s="1"/>
       </tp>
       <tp t="s">
         <v>TwelfHour</v>
@@ -4333,32 +4339,32 @@
         <stp>btcusdt</stp>
         <stp>INTERVAL</stp>
         <stp>10</stp>
-        <tr r="M43" s="1"/>
-      </tp>
-      <tp>
-        <v>424.68785742</v>
+        <tr r="M44" s="1"/>
+      </tp>
+      <tp>
+        <v>4559.2420390099996</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>QUOTE_VOL</stp>
         <stp>10</stp>
-        <tr r="I44" s="1"/>
-      </tp>
-      <tp>
-        <v>4609.51</v>
+        <tr r="I45" s="1"/>
+      </tp>
+      <tp>
+        <v>2.98</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>QUANTITY</stp>
-        <tr r="J18" s="1"/>
-      </tp>
-      <tp>
-        <v>620092</v>
+        <tr r="J19" s="1"/>
+      </tp>
+      <tp>
+        <v>644938</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>LAST_ID</stp>
-        <tr r="N18" s="1"/>
+        <tr r="N19" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -4366,31 +4372,31 @@
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>IGNORE</stp>
-        <tr r="L19" s="1"/>
-      </tp>
-      <tp>
-        <v>2.65509</v>
+        <tr r="L20" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2909200000000001</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>QUANTITY</stp>
-        <tr r="J15" s="1"/>
-      </tp>
-      <tp>
-        <v>9.0337000000000001E-2</v>
+        <tr r="J16" s="1"/>
+      </tp>
+      <tp>
+        <v>7.6188000000000006E-2</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>QUANTITY</stp>
-        <tr r="J16" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0000000000000001E-5</v>
+        <tr r="J17" s="1"/>
+      </tp>
+      <tp>
+        <v>6.6955400000000003</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>QUANTITY</stp>
-        <tr r="J17" s="1"/>
+        <tr r="J18" s="1"/>
       </tp>
       <tp t="s">
         <v>TwelfHour</v>
@@ -4399,204 +4405,204 @@
         <stp>ethusdt</stp>
         <stp>INTERVAL</stp>
         <stp>10</stp>
-        <tr r="M42" s="1"/>
-      </tp>
-      <tp>
-        <v>17</v>
+        <tr r="M43" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2243200000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>8</stp>
-        <tr r="E23" s="1"/>
-      </tp>
-      <tp>
-        <v>0.81560999999999995</v>
+        <tr r="E24" s="1"/>
+      </tp>
+      <tp>
+        <v>3.5089999999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>9</stp>
-        <tr r="E24" s="1"/>
-      </tp>
-      <tp>
-        <v>17</v>
+        <tr r="E25" s="1"/>
+      </tp>
+      <tp>
+        <v>4.2999999999999997E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>4</stp>
-        <tr r="E19" s="1"/>
-      </tp>
-      <tp>
-        <v>4.7E-2</v>
+        <tr r="E20" s="1"/>
+      </tp>
+      <tp>
+        <v>0.24099999999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>5</stp>
-        <tr r="E20" s="1"/>
-      </tp>
-      <tp>
-        <v>14</v>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>3.3609200000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>6</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp>
-        <v>4.48665</v>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>7</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>0.87063999999999997</v>
+        <tr r="E23" s="1"/>
+      </tp>
+      <tp>
+        <v>0.53381999999999996</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>0</stp>
-        <tr r="E15" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0964700000000001</v>
+        <tr r="E16" s="1"/>
+      </tp>
+      <tp>
+        <v>1.8919999999999999</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>1</stp>
-        <tr r="E16" s="1"/>
-      </tp>
-      <tp>
-        <v>0.34676000000000001</v>
+        <tr r="E17" s="1"/>
+      </tp>
+      <tp>
+        <v>0.38628000000000001</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>2</stp>
-        <tr r="E17" s="1"/>
-      </tp>
-      <tp>
-        <v>13</v>
+        <tr r="E18" s="1"/>
+      </tp>
+      <tp>
+        <v>2.7046800000000002</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH_SIZE</stp>
         <stp>3</stp>
-        <tr r="E18" s="1"/>
-      </tp>
-      <tp>
-        <v>14832</v>
+        <tr r="E19" s="1"/>
+      </tp>
+      <tp>
+        <v>6391</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>QUANTITY</stp>
-        <tr r="J21" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890807847223</v>
+        <tr r="J22" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.78407371528</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>TRADE_TIME</stp>
-        <tr r="O18" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890781203707</v>
+        <tr r="O19" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.783948402779</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>TRADE_TIME</stp>
-        <tr r="O17" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890757719906</v>
+        <tr r="O18" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.784074039351</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>TRADE_TIME</stp>
-        <tr r="O15" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890807847223</v>
+        <tr r="O16" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.784088125001</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>TRADE_TIME</stp>
-        <tr r="O16" s="1"/>
-      </tp>
-      <tp>
-        <v>46507521</v>
+        <tr r="O17" s="1"/>
+      </tp>
+      <tp>
+        <v>46725857</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>LAST_ID</stp>
-        <tr r="N16" s="1"/>
-      </tp>
-      <tp>
-        <v>15221894</v>
+        <tr r="N17" s="1"/>
+      </tp>
+      <tp>
+        <v>15246344</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>LAST_ID</stp>
-        <tr r="N19" s="1"/>
-      </tp>
-      <tp>
-        <v>21057785</v>
+        <tr r="N20" s="1"/>
+      </tp>
+      <tp>
+        <v>21103240</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>LAST_ID</stp>
-        <tr r="N20" s="1"/>
+        <tr r="N21" s="1"/>
       </tp>
       <tp t="s">
-        <v>[["SYMBOL","TRADE_ID","PRICE","QUANTITY","TRADE_TIME","IS_BEST_MATCH","BUYER_IS_MAKER"],["ETHUSDT",26632306,517.02000000,3.46347000,"2018-05-28T21:20:18.018-04:00",true,true],["ETHUSDT",26632307,517.01000000,1.38295000,"2018-05-28T21:20:18.338-04:00",true,true],["ETHUSDT",26632308,517.01000000,0.65902000,"2018-05-28T21:20:18.442-04:00",true,false],["ETHUSDT",26632309,517.02000000,7.17751000,"2018-05-28T21:20:18.442-04:00",true,false],["ETHUSDT",26632310,517.02000000,0.65902000,"2018-05-28T21:20:19.422-04:00",true,false],["ETHUSDT",26632311,516.85000000,0.21000000,"2018-05-28T21:20:33.42-04:00",true,true],["ETHUSDT",26632312,516.85000000,0.11000000,"2018-05-28T21:20:33.759-04:00",true,true],["ETHUSDT",26632313,516.85000000,0.06649000,"2018-05-28T21:20:41.679-04:00",true,true],["ETHUSDT",26632314,516.85000000,0.09162000,"2018-05-28T21:20:41.896-04:00",true,false],["ETHUSDT",26632315,517.32000000,0.00005000,"2018-05-28T21:20:41.896-04:00",true,false]]</v>
+        <v>[["SYMBOL","TRADE_ID","PRICE","QUANTITY","TRADE_TIME","IS_BEST_MATCH","BUYER_IS_MAKER"],["ETHUSDT",26750741,563.00000000,5.58010000,"2018-05-29T18:46:58.024-04:00",true,true],["ETHUSDT",26750742,563.00000000,0.14228000,"2018-05-29T18:47:00.152-04:00",true,true],["ETHUSDT",26750743,563.00000000,0.13233000,"2018-05-29T18:47:00.353-04:00",true,true],["ETHUSDT",26750744,563.00000000,0.29970000,"2018-05-29T18:47:00.649-04:00",true,true],["ETHUSDT",26750745,563.01000000,0.50000000,"2018-05-29T18:47:05.632-04:00",true,false],["ETHUSDT",26750746,563.00000000,0.45987000,"2018-05-29T18:47:07.351-04:00",true,true],["ETHUSDT",26750747,563.01000000,1.13900000,"2018-05-29T18:47:07.38-04:00",true,false],["ETHUSDT",26750748,563.00000000,4.10379000,"2018-05-29T18:47:09.759-04:00",true,true],["ETHUSDT",26750749,563.01000000,0.00017000,"2018-05-29T18:47:10.643-04:00",true,false],["ETHUSDT",26750750,563.00000000,0.44356000,"2018-05-29T18:47:11.411-04:00",true,true]]</v>
         <stp/>
         <stp>BINANCE_HISTORY</stp>
         <stp>ETHUSDT</stp>
         <stp>a,b,c</stp>
         <stp>10</stp>
-        <tr r="Q4" s="1"/>
-      </tp>
-      <tp>
-        <v>17405696</v>
+        <tr r="Q5" s="1"/>
+      </tp>
+      <tp>
+        <v>17445546</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>TRADE_ID</stp>
-        <tr r="H20" s="1"/>
-      </tp>
-      <tp>
-        <v>28746194</v>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>28850790</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>LAST_ID</stp>
-        <tr r="N21" s="1"/>
-      </tp>
-      <tp>
-        <v>516.01</v>
+        <tr r="N22" s="1"/>
+      </tp>
+      <tp>
+        <v>561.5</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE</stp>
         <stp>5</stp>
-        <tr r="E30" s="1"/>
-      </tp>
-      <tp>
-        <v>516.01</v>
+        <tr r="E31" s="1"/>
+      </tp>
+      <tp>
+        <v>561.5</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE</stp>
         <stp>7</stp>
-        <tr r="E36" s="1"/>
+        <tr r="E37" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -4604,33 +4610,33 @@
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>IGNORE</stp>
-        <tr r="L20" s="1"/>
-      </tp>
-      <tp>
-        <v>0.9</v>
+        <tr r="L21" s="1"/>
+      </tp>
+      <tp>
+        <v>1.95</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>QUANTITY</stp>
-        <tr r="J19" s="1"/>
-      </tp>
-      <tp>
-        <v>7088</v>
+        <tr r="J20" s="1"/>
+      </tp>
+      <tp>
+        <v>7444.37</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE</stp>
         <stp>7</stp>
-        <tr r="E37" s="1"/>
-      </tp>
-      <tp>
-        <v>7088</v>
+        <tr r="E38" s="1"/>
+      </tp>
+      <tp>
+        <v>7444.37</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE</stp>
         <stp>5</stp>
-        <tr r="E31" s="1"/>
+        <tr r="E32" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -4638,135 +4644,141 @@
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>BUYER_IS_MAKER</stp>
-        <tr r="K19" s="1"/>
-      </tp>
-      <tp>
-        <v>26632443</v>
+        <tr r="K20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ERROR: Expected: origin, vendor, instrument, field, [depth]</v>
+        <stp/>
+        <stp>CLOCK</stp>
+        <tr r="N2" s="1"/>
+      </tp>
+      <tp>
+        <v>26750925</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>LAST_ID</stp>
-        <tr r="N15" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890785347219</v>
+        <tr r="N16" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.784061446757</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>Event_Time</stp>
         <stp>10</stp>
-        <tr r="O44" s="1"/>
-      </tp>
-      <tp>
-        <v>26021939</v>
+        <tr r="O45" s="1"/>
+      </tp>
+      <tp>
+        <v>53392516</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>7</stp>
-        <tr r="K38" s="1"/>
-      </tp>
-      <tp>
-        <v>4721913</v>
+        <tr r="K39" s="1"/>
+      </tp>
+      <tp>
+        <v>19117125</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>5</stp>
-        <tr r="K32" s="1"/>
-      </tp>
-      <tp>
-        <v>0.31145</v>
+        <tr r="K33" s="1"/>
+      </tp>
+      <tp>
+        <v>0.46034000000000003</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>8</stp>
-        <tr r="A23" s="1"/>
-      </tp>
-      <tp>
-        <v>0.5</v>
+        <tr r="A24" s="1"/>
+      </tp>
+      <tp>
+        <v>4.0000000000000002E-4</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>9</stp>
-        <tr r="A24" s="1"/>
-      </tp>
-      <tp>
-        <v>0.56447999999999998</v>
+        <tr r="A25" s="1"/>
+      </tp>
+      <tp>
+        <v>19</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>4</stp>
-        <tr r="A19" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32644000000000001</v>
+        <tr r="A20" s="1"/>
+      </tp>
+      <tp>
+        <v>4.2999999999999997E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>5</stp>
-        <tr r="A20" s="1"/>
-      </tp>
-      <tp>
-        <v>3.83697</v>
+        <tr r="A21" s="1"/>
+      </tp>
+      <tp>
+        <v>1</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>6</stp>
-        <tr r="A21" s="1"/>
-      </tp>
-      <tp>
-        <v>0.62243000000000004</v>
+        <tr r="A22" s="1"/>
+      </tp>
+      <tp>
+        <v>9.7972099999999998</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>7</stp>
-        <tr r="A22" s="1"/>
-      </tp>
-      <tp>
-        <v>2.64337</v>
+        <tr r="A23" s="1"/>
+      </tp>
+      <tp>
+        <v>0.53383000000000003</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>0</stp>
-        <tr r="A15" s="1"/>
-      </tp>
-      <tp>
-        <v>61.771009999999997</v>
+        <tr r="A16" s="1"/>
+      </tp>
+      <tp>
+        <v>3.6420000000000001E-2</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>1</stp>
-        <tr r="A16" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32644000000000001</v>
+        <tr r="A17" s="1"/>
+      </tp>
+      <tp>
+        <v>0.22222</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>2</stp>
-        <tr r="A17" s="1"/>
-      </tp>
-      <tp>
-        <v>4.7E-2</v>
+        <tr r="A18" s="1"/>
+      </tp>
+      <tp>
+        <v>8.8596000000000004</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH_SIZE</stp>
         <stp>3</stp>
-        <tr r="A18" s="1"/>
-      </tp>
-      <tp>
-        <v>7893.4945081300002</v>
+        <tr r="A19" s="1"/>
+      </tp>
+      <tp>
+        <v>10650.18819447</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -4774,7 +4786,7 @@
         <tr r="H4" s="2"/>
       </tp>
       <tp>
-        <v>123688.86617035</v>
+        <v>141081.61087484</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -4782,13 +4794,13 @@
         <tr r="H3" s="2"/>
       </tp>
       <tp>
-        <v>43248.890795729167</v>
+        <v>43249.784073402778</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>Event_Time</stp>
         <stp>10</stp>
-        <tr r="O43" s="1"/>
+        <tr r="O44" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -4797,7 +4809,7 @@
         <stp>btcusdt</stp>
         <stp>FINAL</stp>
         <stp>7</stp>
-        <tr r="H37" s="1"/>
+        <tr r="H38" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -4806,24 +4818,24 @@
         <stp>btcusdt</stp>
         <stp>FINAL</stp>
         <stp>5</stp>
-        <tr r="H31" s="1"/>
-      </tp>
-      <tp>
-        <v>564135</v>
+        <tr r="H32" s="1"/>
+      </tp>
+      <tp>
+        <v>586788</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>TRADE_ID</stp>
-        <tr r="H18" s="1"/>
-      </tp>
-      <tp>
-        <v>28746194</v>
+        <tr r="H19" s="1"/>
+      </tp>
+      <tp>
+        <v>28850790</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>LAST_ID</stp>
         <stp>10</stp>
-        <tr r="Q44" s="1"/>
+        <tr r="Q45" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -4831,48 +4843,48 @@
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>IGNORE</stp>
-        <tr r="L21" s="1"/>
-      </tp>
-      <tp>
-        <v>40530910</v>
+        <tr r="L22" s="1"/>
+      </tp>
+      <tp>
+        <v>40732164</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>TRADE_ID</stp>
-        <tr r="H16" s="1"/>
-      </tp>
-      <tp>
-        <v>6701169</v>
+        <tr r="H17" s="1"/>
+      </tp>
+      <tp>
+        <v>6717142</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>TRADE_ID</stp>
-        <tr r="H17" s="1"/>
-      </tp>
-      <tp>
-        <v>23648229</v>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp>
+        <v>23754539</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>TRADE_ID</stp>
-        <tr r="H15" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890757743058</v>
+        <tr r="H16" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.784061620368</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>Event_Time</stp>
         <stp>10</stp>
-        <tr r="O42" s="1"/>
-      </tp>
-      <tp>
-        <v>17835966</v>
+        <tr r="O43" s="1"/>
+      </tp>
+      <tp>
+        <v>17899718</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>TRADE_ID</stp>
-        <tr r="H21" s="1"/>
+        <tr r="H22" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -4881,7 +4893,7 @@
         <stp>ethusdt</stp>
         <stp>FINAL</stp>
         <stp>5</stp>
-        <tr r="H30" s="1"/>
+        <tr r="H31" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -4890,31 +4902,31 @@
         <stp>ethusdt</stp>
         <stp>FINAL</stp>
         <stp>7</stp>
-        <tr r="H36" s="1"/>
-      </tp>
-      <tp>
-        <v>7604933</v>
+        <tr r="H37" s="1"/>
+      </tp>
+      <tp>
+        <v>7622844</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>LAST_ID</stp>
-        <tr r="N17" s="1"/>
-      </tp>
-      <tp>
-        <v>15221894</v>
+        <tr r="N18" s="1"/>
+      </tp>
+      <tp>
+        <v>15246344</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>FIRST_ID</stp>
-        <tr r="M19" s="1"/>
-      </tp>
-      <tp>
-        <v>49652</v>
+        <tr r="M20" s="1"/>
+      </tp>
+      <tp>
+        <v>50690</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>TRADES</stp>
-        <tr r="M10" s="1"/>
+        <tr r="M11" s="1"/>
       </tp>
       <tp t="s">
         <v>TwelfHour</v>
@@ -4923,327 +4935,327 @@
         <stp>trxbtc</stp>
         <stp>INTERVAL</stp>
         <stp>10</stp>
-        <tr r="M44" s="1"/>
-      </tp>
-      <tp>
-        <v>506.11</v>
+        <tr r="M45" s="1"/>
+      </tp>
+      <tp>
+        <v>510</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>LOW</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp>
-        <v>-5.4089999999999999E-2</v>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp>
+        <v>4.36E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O8" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.2299999999999999E-4</v>
+        <tr r="O9" s="1"/>
+      </tp>
+      <tp>
+        <v>2.5799999999999998E-4</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O9" s="1"/>
-      </tp>
-      <tp>
-        <v>7839.07528</v>
+        <tr r="O10" s="1"/>
+      </tp>
+      <tp>
+        <v>19355.553370000001</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>VOL</stp>
         <stp>7</stp>
-        <tr r="J36" s="1"/>
-      </tp>
-      <tp>
-        <v>2400.8609299999998</v>
+        <tr r="J37" s="1"/>
+      </tp>
+      <tp>
+        <v>7799.1461900000004</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>VOL</stp>
         <stp>5</stp>
-        <tr r="J30" s="1"/>
-      </tp>
-      <tp>
-        <v>-53.92</v>
+        <tr r="J31" s="1"/>
+      </tp>
+      <tp>
+        <v>49.02</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O5" s="1"/>
-      </tp>
-      <tp>
-        <v>-7.69</v>
+        <tr r="O6" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7799999999999994</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O7" s="1"/>
-      </tp>
-      <tp>
-        <v>-247.73</v>
+        <tr r="O8" s="1"/>
+      </tp>
+      <tp>
+        <v>366.78</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O6" s="1"/>
-      </tp>
-      <tp>
-        <v>110.39</v>
+        <tr r="O7" s="1"/>
+      </tp>
+      <tp>
+        <v>119.21</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>ASK</stp>
-        <tr r="I7" s="1"/>
-      </tp>
-      <tp>
-        <v>3552</v>
+        <tr r="I8" s="1"/>
+      </tp>
+      <tp>
+        <v>43032</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>TRADES</stp>
         <stp>10</stp>
-        <tr r="N44" s="1"/>
-      </tp>
-      <tp>
-        <v>7058.02</v>
+        <tr r="N45" s="1"/>
+      </tp>
+      <tp>
+        <v>7032.95</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>LOW</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp>
-        <v>110.28</v>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp>
+        <v>119.2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>BID</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>29972252.09</v>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>31197315.02</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>VOL</stp>
-        <tr r="K8" s="1"/>
-      </tp>
-      <tp>
-        <v>8173</v>
+        <tr r="K9" s="1"/>
+      </tp>
+      <tp>
+        <v>114326</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TRADES</stp>
         <stp>10</stp>
-        <tr r="N43" s="1"/>
-      </tp>
-      <tp>
-        <v>-5.7169999999999999E-2</v>
+        <tr r="N44" s="1"/>
+      </tp>
+      <tp>
+        <v>2.5149999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>PRICE%</stp>
-        <tr r="N10" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55001</v>
+        <tr r="N11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.59408000000000005</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>PRICE</stp>
-        <tr r="I18" s="1"/>
-      </tp>
-      <tp>
-        <v>28742643</v>
+        <tr r="I19" s="1"/>
+      </tp>
+      <tp>
+        <v>28807759</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>FIRST_ID</stp>
         <stp>10</stp>
-        <tr r="P44" s="1"/>
-      </tp>
-      <tp>
-        <v>0.60909999999999997</v>
+        <tr r="P45" s="1"/>
+      </tp>
+      <tp>
+        <v>0.60921000000000003</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>HIGH</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890795729167</v>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.784073402778</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>Event_Time</stp>
         <stp>7</stp>
-        <tr r="O37" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890795729167</v>
+        <tr r="O38" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.784073402778</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>Event_Time</stp>
         <stp>5</stp>
-        <tr r="O31" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890757743058</v>
+        <tr r="O32" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.784061620368</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>Event_Time</stp>
         <stp>7</stp>
-        <tr r="O36" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890757743058</v>
+        <tr r="O37" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.784061620368</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>Event_Time</stp>
         <stp>5</stp>
-        <tr r="O30" s="1"/>
-      </tp>
-      <tp>
-        <v>115021</v>
+        <tr r="O31" s="1"/>
+      </tp>
+      <tp>
+        <v>111706</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>TRADES</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp>
-        <v>110</v>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>109.41</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>LOW</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp>
-        <v>286.28254600000002</v>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp>
+        <v>1365.257846</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>VOL</stp>
         <stp>5</stp>
-        <tr r="J31" s="1"/>
-      </tp>
-      <tp>
-        <v>1238.5861500000001</v>
+        <tr r="J32" s="1"/>
+      </tp>
+      <tp>
+        <v>3973.9061109999998</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>VOL</stp>
         <stp>7</stp>
-        <tr r="J37" s="1"/>
-      </tp>
-      <tp>
-        <v>7086.59</v>
+        <tr r="J38" s="1"/>
+      </tp>
+      <tp>
+        <v>7440.01</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>BID</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>7.0860000000000003E-3</v>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1809999999999999E-3</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>HIGH</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp>
-        <v>50314403</v>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp>
+        <v>104709154</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>VOL</stp>
         <stp>7</stp>
-        <tr r="J38" s="1"/>
-      </tp>
-      <tp>
-        <v>16507907</v>
+        <tr r="J39" s="1"/>
+      </tp>
+      <tp>
+        <v>40105150</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>VOL</stp>
         <stp>5</stp>
-        <tr r="J32" s="1"/>
-      </tp>
-      <tp>
-        <v>516.01</v>
+        <tr r="J33" s="1"/>
+      </tp>
+      <tp>
+        <v>561.5</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE</stp>
         <stp>10</stp>
-        <tr r="E42" s="1"/>
-      </tp>
-      <tp>
-        <v>7088</v>
+        <tr r="E43" s="1"/>
+      </tp>
+      <tp>
+        <v>7444.37</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE</stp>
         <stp>10</stp>
-        <tr r="E43" s="1"/>
-      </tp>
-      <tp>
-        <v>7088.14</v>
+        <tr r="E44" s="1"/>
+      </tp>
+      <tp>
+        <v>7444.45</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>ASK</stp>
-        <tr r="I6" s="1"/>
-      </tp>
-      <tp>
-        <v>5416</v>
+        <tr r="I7" s="1"/>
+      </tp>
+      <tp>
+        <v>63241</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TRADES</stp>
         <stp>10</stp>
-        <tr r="N42" s="1"/>
-      </tp>
-      <tp>
-        <v>516.25</v>
+        <tr r="N43" s="1"/>
+      </tp>
+      <tp>
+        <v>561.95000000000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>ASK</stp>
-        <tr r="I5" s="1"/>
-      </tp>
-      <tp>
-        <v>7437</v>
+        <tr r="I6" s="1"/>
+      </tp>
+      <tp>
+        <v>7540</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>HIGH</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp>
-        <v>118.97</v>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp>
+        <v>122.71</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>HIGH</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp>
-        <v>576.20000000000005</v>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp>
+        <v>573.42999999999995</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>HIGH</stp>
-        <tr r="C5" s="1"/>
+        <tr r="C6" s="1"/>
       </tp>
       <tp t="s">
         <v>OneHour</v>
@@ -5252,7 +5264,7 @@
         <stp>btcusdt</stp>
         <stp>INTERVAL</stp>
         <stp>5</stp>
-        <tr r="M31" s="1"/>
+        <tr r="M32" s="1"/>
       </tp>
       <tp t="s">
         <v>FourHour</v>
@@ -5261,7 +5273,7 @@
         <stp>btcusdt</stp>
         <stp>INTERVAL</stp>
         <stp>7</stp>
-        <tr r="M37" s="1"/>
+        <tr r="M38" s="1"/>
       </tp>
       <tp t="s">
         <v>OneHour</v>
@@ -5270,7 +5282,7 @@
         <stp>ethusdt</stp>
         <stp>INTERVAL</stp>
         <stp>5</stp>
-        <tr r="M30" s="1"/>
+        <tr r="M31" s="1"/>
       </tp>
       <tp t="s">
         <v>FourHour</v>
@@ -5279,59 +5291,59 @@
         <stp>ethusdt</stp>
         <stp>INTERVAL</stp>
         <stp>7</stp>
-        <tr r="M36" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.11684</v>
+        <tr r="M37" s="1"/>
+      </tp>
+      <tp>
+        <v>2.494E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>PRICE%</stp>
-        <tr r="N11" s="1"/>
-      </tp>
-      <tp>
-        <v>511.5</v>
+        <tr r="N12" s="1"/>
+      </tp>
+      <tp>
+        <v>548.04</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LOW</stp>
         <stp>10</stp>
-        <tr r="D42" s="1"/>
-      </tp>
-      <tp>
-        <v>516.01</v>
+        <tr r="D43" s="1"/>
+      </tp>
+      <tp>
+        <v>561.53</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>BID</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>7086.59</v>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>7382.12</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LOW</stp>
         <stp>10</stp>
-        <tr r="D43" s="1"/>
-      </tp>
-      <tp>
-        <v>7839.07528</v>
+        <tr r="D44" s="1"/>
+      </tp>
+      <tp>
+        <v>93478.519199999995</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>VOL</stp>
         <stp>10</stp>
-        <tr r="J42" s="1"/>
-      </tp>
-      <tp>
-        <v>1238.5861500000001</v>
+        <tr r="J43" s="1"/>
+      </tp>
+      <tp>
+        <v>17405.573903</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>VOL</stp>
         <stp>10</stp>
-        <tr r="J43" s="1"/>
+        <tr r="J44" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -5340,7 +5352,7 @@
         <stp>ethusdt</stp>
         <stp>FINAL</stp>
         <stp>10</stp>
-        <tr r="H42" s="1"/>
+        <tr r="H43" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -5349,129 +5361,129 @@
         <stp>btcusdt</stp>
         <stp>FINAL</stp>
         <stp>10</stp>
-        <tr r="H43" s="1"/>
-      </tp>
-      <tp>
-        <v>46499343</v>
+        <tr r="H44" s="1"/>
+      </tp>
+      <tp>
+        <v>46698082</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>FIRST_ID</stp>
         <stp>7</stp>
-        <tr r="P37" s="1"/>
-      </tp>
-      <tp>
-        <v>46505338</v>
+        <tr r="P38" s="1"/>
+      </tp>
+      <tp>
+        <v>46715951</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>FIRST_ID</stp>
         <stp>5</stp>
-        <tr r="P31" s="1"/>
-      </tp>
-      <tp>
-        <v>26627028</v>
+        <tr r="P32" s="1"/>
+      </tp>
+      <tp>
+        <v>26737890</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>FIRST_ID</stp>
         <stp>7</stp>
-        <tr r="P36" s="1"/>
-      </tp>
-      <tp>
-        <v>26630918</v>
+        <tr r="P37" s="1"/>
+      </tp>
+      <tp>
+        <v>26746085</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>FIRST_ID</stp>
         <stp>5</stp>
-        <tr r="P30" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55166000000000004</v>
+        <tr r="P31" s="1"/>
+      </tp>
+      <tp>
+        <v>0.59408000000000005</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>ASK</stp>
-        <tr r="I8" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.999999988424</v>
+        <tr r="I9" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.83333332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE_TIME</stp>
         <stp>7</stp>
-        <tr r="G36" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.916666655095</v>
+        <tr r="G37" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.791666655095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE_TIME</stp>
         <stp>5</stp>
-        <tr r="G30" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.999999988424</v>
+        <tr r="G31" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.83333332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE_TIME</stp>
         <stp>7</stp>
-        <tr r="G37" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.916666655095</v>
+        <tr r="G38" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.791666655095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE_TIME</stp>
         <stp>5</stp>
-        <tr r="G31" s="1"/>
-      </tp>
-      <tp>
-        <v>9.5200000000000003E-6</v>
+        <tr r="G32" s="1"/>
+      </tp>
+      <tp>
+        <v>8.8200000000000003E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>HIGH</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp>
-        <v>69943.724799999996</v>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp>
+        <v>72199.220520000003</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>VOL</stp>
-        <tr r="K7" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55001</v>
+        <tr r="K8" s="1"/>
+      </tp>
+      <tp>
+        <v>0.59394000000000002</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>BID</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>8.3899999999999993E-6</v>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>8.6100000000000006E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>LOW</stp>
         <stp>5</stp>
-        <tr r="D32" s="1"/>
-      </tp>
-      <tp>
-        <v>8.3599999999999996E-6</v>
+        <tr r="D33" s="1"/>
+      </tp>
+      <tp>
+        <v>8.5499999999999995E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>LOW</stp>
         <stp>7</stp>
-        <tr r="D38" s="1"/>
+        <tr r="D39" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -5480,7 +5492,7 @@
         <stp>trxbtc</stp>
         <stp>FINAL</stp>
         <stp>7</stp>
-        <tr r="H38" s="1"/>
+        <tr r="H39" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -5489,284 +5501,284 @@
         <stp>trxbtc</stp>
         <stp>FINAL</stp>
         <stp>5</stp>
-        <tr r="H32" s="1"/>
-      </tp>
-      <tp>
-        <v>7086.59</v>
+        <tr r="H33" s="1"/>
+      </tp>
+      <tp>
+        <v>7435.02</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LOW</stp>
         <stp>7</stp>
-        <tr r="D37" s="1"/>
-      </tp>
-      <tp>
-        <v>7086.59</v>
+        <tr r="D38" s="1"/>
+      </tp>
+      <tp>
+        <v>7435.02</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>LOW</stp>
         <stp>5</stp>
-        <tr r="D31" s="1"/>
-      </tp>
-      <tp>
-        <v>-4.7099999999999998E-6</v>
+        <tr r="D32" s="1"/>
+      </tp>
+      <tp>
+        <v>1.9599999999999999E-6</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O10" s="1"/>
-      </tp>
-      <tp>
-        <v>7088.15</v>
+        <tr r="O11" s="1"/>
+      </tp>
+      <tp>
+        <v>7444.82</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>PRICE</stp>
-        <tr r="I16" s="1"/>
-      </tp>
-      <tp>
-        <v>110.4</v>
+        <tr r="I17" s="1"/>
+      </tp>
+      <tp>
+        <v>119.2</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>PRICE</stp>
-        <tr r="I17" s="1"/>
-      </tp>
-      <tp>
-        <v>-4.5690000000000001E-2</v>
+        <tr r="I18" s="1"/>
+      </tp>
+      <tp>
+        <v>3.8179999999999999E-2</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>PRICE%</stp>
-        <tr r="N9" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.11E-6</v>
+        <tr r="N10" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>PRICE_CHANGE</stp>
-        <tr r="O11" s="1"/>
-      </tp>
-      <tp>
-        <v>516</v>
+        <tr r="O12" s="1"/>
+      </tp>
+      <tp>
+        <v>558.89</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LOW</stp>
         <stp>5</stp>
-        <tr r="D30" s="1"/>
-      </tp>
-      <tp>
-        <v>511.5</v>
+        <tr r="D31" s="1"/>
+      </tp>
+      <tp>
+        <v>558.89</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>LOW</stp>
         <stp>7</stp>
-        <tr r="D36" s="1"/>
-      </tp>
-      <tp>
-        <v>155772.09138</v>
+        <tr r="D37" s="1"/>
+      </tp>
+      <tp>
+        <v>190347.42384999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>VOL</stp>
-        <tr r="K5" s="1"/>
-      </tp>
-      <tp>
-        <v>27410.431106</v>
+        <tr r="K6" s="1"/>
+      </tp>
+      <tp>
+        <v>39591.781053999999</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>VOL</stp>
-        <tr r="K6" s="1"/>
-      </tp>
-      <tp>
-        <v>0.54339999999999999</v>
+        <tr r="K7" s="1"/>
+      </tp>
+      <tp>
+        <v>0.54303000000000001</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>LOW</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp>
-        <v>8.2410000000000005E-5</v>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp>
+        <v>8.1310000000000006E-5</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>HIGH</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp>
-        <v>8.3899999999999993E-6</v>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp>
+        <v>8.6300000000000004E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>CLOSE</stp>
         <stp>7</stp>
-        <tr r="E38" s="1"/>
-      </tp>
-      <tp>
-        <v>8.3899999999999993E-6</v>
+        <tr r="E39" s="1"/>
+      </tp>
+      <tp>
+        <v>8.6300000000000004E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>CLOSE</stp>
         <stp>5</stp>
-        <tr r="E32" s="1"/>
-      </tp>
-      <tp>
-        <v>1113491.8980024699</v>
+        <tr r="E33" s="1"/>
+      </tp>
+      <tp>
+        <v>4651521.2728654202</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>5</stp>
-        <tr r="L31" s="1"/>
-      </tp>
-      <tp>
-        <v>5274178.28665327</v>
+        <tr r="L32" s="1"/>
+      </tp>
+      <tp>
+        <v>15628598.844702311</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>7</stp>
-        <tr r="L37" s="1"/>
-      </tp>
-      <tp>
-        <v>712585.4998783</v>
+        <tr r="L38" s="1"/>
+      </tp>
+      <tp>
+        <v>1428531.5791461</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>5</stp>
-        <tr r="L30" s="1"/>
-      </tp>
-      <tp>
-        <v>2302155.0424533002</v>
+        <tr r="L31" s="1"/>
+      </tp>
+      <tp>
+        <v>4897275.1828148998</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>7</stp>
-        <tr r="L36" s="1"/>
-      </tp>
-      <tp>
-        <v>26215</v>
+        <tr r="L37" s="1"/>
+      </tp>
+      <tp>
+        <v>27101</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>TRADES</stp>
-        <tr r="M9" s="1"/>
-      </tp>
-      <tp>
-        <v>516.01</v>
+        <tr r="M10" s="1"/>
+      </tp>
+      <tp>
+        <v>561.52</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>PRICE</stp>
-        <tr r="I15" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.833333333336</v>
+        <tr r="I16" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.666666666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>OPEN_TIME</stp>
         <stp>7</stp>
-        <tr r="F36" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.875</v>
+        <tr r="F37" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.75</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>OPEN_TIME</stp>
         <stp>5</stp>
-        <tr r="F30" s="1"/>
-      </tp>
-      <tp>
-        <v>1.1999999999999999E-7</v>
+        <tr r="F31" s="1"/>
+      </tp>
+      <tp>
+        <v>2E-8</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpbtc</stp>
         <stp>Spread</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>118.09</v>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>110.62</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
         <stp>CLOSE</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp>
-        <v>7339</v>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp>
+        <v>7084</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
         <stp>CLOSE</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp>
-        <v>4455.7749999999996</v>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp>
+        <v>46723.2091</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>10</stp>
-        <tr r="K42" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890704386577</v>
+        <tr r="K43" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.784087210646</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>TRADE_TIME</stp>
-        <tr r="O19" s="1"/>
-      </tp>
-      <tp>
-        <v>7.0699999999999999E-3</v>
+        <tr r="O20" s="1"/>
+      </tp>
+      <tp>
+        <v>6.7580000000000001E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
         <stp>OPEN</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>570.45000000000005</v>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp>
+        <v>512.87</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
         <stp>OPEN</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp>
-        <v>7338.79</v>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>7077.65</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>btcusdt</stp>
         <stp>OPEN</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>118.08</v>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>110.5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ltcusdt</stp>
         <stp>OPEN</stp>
-        <tr r="E7" s="1"/>
+        <tr r="E8" s="1"/>
       </tp>
       <tp t="b">
-        <v>0</v>
+        <v>1</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>BUYER_IS_MAKER</stp>
-        <tr r="K17" s="1"/>
+        <tr r="K18" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -5774,7 +5786,7 @@
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>BUYER_IS_MAKER</stp>
-        <tr r="K16" s="1"/>
+        <tr r="K17" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -5782,18 +5794,18 @@
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>BUYER_IS_MAKER</stp>
-        <tr r="K15" s="1"/>
+        <tr r="K16" s="1"/>
       </tp>
       <tp t="b">
-        <v>1</v>
+        <v>0</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>BUYER_IS_MAKER</stp>
-        <tr r="K18" s="1"/>
-      </tp>
-      <tp>
-        <v>575</v>
+        <tr r="K19" s="1"/>
+      </tp>
+      <tp>
+        <v>573.64</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -5801,7 +5813,7 @@
         <tr r="F3" s="2"/>
       </tp>
       <tp>
-        <v>7444.8</v>
+        <v>7524.99</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -5809,47 +5821,47 @@
         <tr r="F4" s="2"/>
       </tp>
       <tp>
-        <v>741.40308400000004</v>
+        <v>9354.3132559999995</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>TAKE_BUY_VOL</stp>
         <stp>10</stp>
-        <tr r="K43" s="1"/>
-      </tp>
-      <tp>
-        <v>0.60519999999999996</v>
+        <tr r="K44" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55042000000000002</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
         <stp>OPEN</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.875</v>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.75</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN_TIME</stp>
         <stp>5</stp>
-        <tr r="F31" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.833333333336</v>
+        <tr r="F32" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.666666666664</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN_TIME</stp>
         <stp>7</stp>
-        <tr r="F37" s="1"/>
-      </tp>
-      <tp>
-        <v>570.45000000000005</v>
+        <tr r="F38" s="1"/>
+      </tp>
+      <tp>
+        <v>512.87</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>ethusdt</stp>
         <stp>CLOSE</stp>
-        <tr r="D5" s="1"/>
+        <tr r="D6" s="1"/>
       </tp>
       <tp>
         <v>1E-8</v>
@@ -5857,7 +5869,7 @@
         <stp>BINANCE</stp>
         <stp>trxbtc</stp>
         <stp>Spread</stp>
-        <tr r="H11" s="1"/>
+        <tr r="H12" s="1"/>
       </tp>
       <tp t="b">
         <v>0</v>
@@ -5866,15 +5878,15 @@
         <stp>trxbtc</stp>
         <stp>FINAL</stp>
         <stp>10</stp>
-        <tr r="H44" s="1"/>
-      </tp>
-      <tp>
-        <v>7.0699999999999999E-3</v>
+        <tr r="H45" s="1"/>
+      </tp>
+      <tp>
+        <v>6.7600000000000004E-3</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>neobtc</stp>
         <stp>CLOSE</stp>
-        <tr r="D9" s="1"/>
+        <tr r="D10" s="1"/>
       </tp>
       <tp>
         <v>8.3599999999999996E-6</v>
@@ -5883,16 +5895,16 @@
         <stp>trxbtc</stp>
         <stp>LOW</stp>
         <stp>10</stp>
-        <tr r="D44" s="1"/>
-      </tp>
-      <tp>
-        <v>50314403</v>
+        <tr r="D45" s="1"/>
+      </tp>
+      <tp>
+        <v>531640512</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>VOL</stp>
         <stp>10</stp>
-        <tr r="J44" s="1"/>
+        <tr r="J45" s="1"/>
       </tp>
       <tp t="s">
         <v>FourHour</v>
@@ -5901,7 +5913,7 @@
         <stp>trxbtc</stp>
         <stp>INTERVAL</stp>
         <stp>7</stp>
-        <tr r="M38" s="1"/>
+        <tr r="M39" s="1"/>
       </tp>
       <tp t="s">
         <v>OneHour</v>
@@ -5910,55 +5922,55 @@
         <stp>trxbtc</stp>
         <stp>INTERVAL</stp>
         <stp>5</stp>
-        <tr r="M32" s="1"/>
-      </tp>
-      <tp>
-        <v>2033977.1468251499</v>
+        <tr r="M33" s="1"/>
+      </tp>
+      <tp>
+        <v>10197293.9071803</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>QUOTE_VOL</stp>
         <stp>5</stp>
-        <tr r="I31" s="1"/>
-      </tp>
-      <tp>
-        <v>8811083.6166344304</v>
+        <tr r="I32" s="1"/>
+      </tp>
+      <tp>
+        <v>29752099.03286355</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>QUOTE_VOL</stp>
         <stp>7</stp>
-        <tr r="I37" s="1"/>
-      </tp>
-      <tp>
-        <v>4051158.0279271002</v>
+        <tr r="I38" s="1"/>
+      </tp>
+      <tp>
+        <v>10968944.045899499</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>QUOTE_VOL</stp>
         <stp>7</stp>
-        <tr r="I36" s="1"/>
-      </tp>
-      <tp>
-        <v>1244624.1148619</v>
+        <tr r="I37" s="1"/>
+      </tp>
+      <tp>
+        <v>4395155.6982738003</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>QUOTE_VOL</stp>
         <stp>5</stp>
-        <tr r="I30" s="1"/>
-      </tp>
-      <tp>
-        <v>8.3899999999999993E-6</v>
+        <tr r="I31" s="1"/>
+      </tp>
+      <tp>
+        <v>8.6300000000000004E-6</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>CLOSE</stp>
         <stp>10</stp>
-        <tr r="E44" s="1"/>
-      </tp>
-      <tp>
-        <v>515.5</v>
+        <tr r="E45" s="1"/>
+      </tp>
+      <tp>
+        <v>561.85</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -5966,7 +5978,7 @@
         <tr r="D3" s="2"/>
       </tp>
       <tp>
-        <v>7102.12</v>
+        <v>7439.41</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -5974,381 +5986,381 @@
         <tr r="D4" s="2"/>
       </tp>
       <tp>
-        <v>6.7470000000000004E-3</v>
+        <v>7.0150000000000004E-3</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>neobtc</stp>
         <stp>PRICE</stp>
-        <tr r="I19" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890785347219</v>
+        <tr r="I20" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.784061435188</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>Event_Time</stp>
         <stp>7</stp>
-        <tr r="O38" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890785381947</v>
+        <tr r="O39" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.784061446757</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>Event_Time</stp>
         <stp>5</stp>
-        <tr r="O32" s="1"/>
-      </tp>
-      <tp>
-        <v>17207562.637333099</v>
+        <tr r="O33" s="1"/>
+      </tp>
+      <tp>
+        <v>18011419.980044801</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>xrpusdt</stp>
         <stp>QUOTE_VOL</stp>
-        <tr r="L8" s="1"/>
-      </tp>
-      <tp>
-        <v>0.60519999999999996</v>
+        <tr r="L9" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55003000000000002</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpusdt</stp>
         <stp>CLOSE</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.999999988424</v>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.83333332176</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>CLOSE_TIME</stp>
         <stp>7</stp>
-        <tr r="G38" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.916666655095</v>
+        <tr r="G39" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.791666655095</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>CLOSE_TIME</stp>
         <stp>5</stp>
-        <tr r="G32" s="1"/>
-      </tp>
-      <tp>
-        <v>28745115</v>
+        <tr r="G33" s="1"/>
+      </tp>
+      <tp>
+        <v>28847059</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>FIRST_ID</stp>
         <stp>5</stp>
-        <tr r="P32" s="1"/>
-      </tp>
-      <tp>
-        <v>28742643</v>
+        <tr r="P33" s="1"/>
+      </tp>
+      <tp>
+        <v>28840827</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>FIRST_ID</stp>
         <stp>7</stp>
-        <tr r="P38" s="1"/>
-      </tp>
-      <tp>
-        <v>8.2390000000000002E-5</v>
+        <tr r="P39" s="1"/>
+      </tp>
+      <tp>
+        <v>7.7960000000000006E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
         <stp>OPEN</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>43248.890785324074</v>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>43249.784061412036</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>TRADE_TIME</stp>
-        <tr r="O21" s="1"/>
-      </tp>
-      <tp>
-        <v>82996801.391352803</v>
+        <tr r="O22" s="1"/>
+      </tp>
+      <tp>
+        <v>103499984.5847811</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ethusdt</stp>
         <stp>QUOTE_VOL</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-      <tp>
-        <v>39.787702430000003</v>
+        <tr r="L6" s="1"/>
+      </tp>
+      <tp>
+        <v>165.94695024999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>5</stp>
-        <tr r="L32" s="1"/>
-      </tp>
-      <tp>
-        <v>219.73664076</v>
+        <tr r="L33" s="1"/>
+      </tp>
+      <tp>
+        <v>460.91789722999999</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>trxbtc</stp>
         <stp>TAKE_BUY_QUOTE_VOL</stp>
         <stp>7</stp>
-        <tr r="L38" s="1"/>
-      </tp>
-      <tp>
-        <v>8.3899999999999993E-6</v>
+        <tr r="L39" s="1"/>
+      </tp>
+      <tp>
+        <v>8.6300000000000004E-6</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>trxbtc</stp>
         <stp>PRICE</stp>
-        <tr r="I21" s="1"/>
-      </tp>
-      <tp>
-        <v>516.25</v>
+        <tr r="I22" s="1"/>
+      </tp>
+      <tp>
+        <v>561.95000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>0</stp>
-        <tr r="D15" s="1"/>
-      </tp>
-      <tp>
-        <v>516.26</v>
+        <tr r="D16" s="1"/>
+      </tp>
+      <tp>
+        <v>561.96</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>1</stp>
-        <tr r="D16" s="1"/>
-      </tp>
-      <tp>
-        <v>516.51</v>
+        <tr r="D17" s="1"/>
+      </tp>
+      <tp>
+        <v>561.99</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>2</stp>
-        <tr r="D17" s="1"/>
-      </tp>
-      <tp>
-        <v>516.64</v>
+        <tr r="D18" s="1"/>
+      </tp>
+      <tp>
+        <v>562</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>3</stp>
-        <tr r="D18" s="1"/>
-      </tp>
-      <tp>
-        <v>516.80999999999995</v>
+        <tr r="D19" s="1"/>
+      </tp>
+      <tp>
+        <v>562.33000000000004</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>4</stp>
-        <tr r="D19" s="1"/>
-      </tp>
-      <tp>
-        <v>516.98</v>
+        <tr r="D20" s="1"/>
+      </tp>
+      <tp>
+        <v>562.52</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>5</stp>
-        <tr r="D20" s="1"/>
-      </tp>
-      <tp>
-        <v>516.99</v>
+        <tr r="D21" s="1"/>
+      </tp>
+      <tp>
+        <v>562.53</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>6</stp>
-        <tr r="D21" s="1"/>
-      </tp>
-      <tp>
-        <v>517</v>
+        <tr r="D22" s="1"/>
+      </tp>
+      <tp>
+        <v>562.57000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>7</stp>
-        <tr r="D22" s="1"/>
-      </tp>
-      <tp>
-        <v>517.03</v>
+        <tr r="D23" s="1"/>
+      </tp>
+      <tp>
+        <v>562.79999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>8</stp>
-        <tr r="D23" s="1"/>
-      </tp>
-      <tp>
-        <v>517.09</v>
+        <tr r="D24" s="1"/>
+      </tp>
+      <tp>
+        <v>563</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>ASK_DEPTH</stp>
         <stp>9</stp>
-        <tr r="D24" s="1"/>
-      </tp>
-      <tp>
-        <v>7.7680000000000002E-5</v>
+        <tr r="D25" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9889999999999996E-5</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>PRICE</stp>
-        <tr r="I20" s="1"/>
-      </tp>
-      <tp>
-        <v>511.5</v>
+        <tr r="I21" s="1"/>
+      </tp>
+      <tp>
+        <v>553.69000000000005</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>OPEN</stp>
         <stp>10</stp>
-        <tr r="B42" s="1"/>
-      </tp>
-      <tp>
-        <v>9.5100000000000004E-6</v>
+        <tr r="B43" s="1"/>
+      </tp>
+      <tp>
+        <v>8.3599999999999996E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
         <stp>OPEN</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>7132.1</v>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>7540</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>HIGH</stp>
         <stp>10</stp>
-        <tr r="C43" s="1"/>
-      </tp>
-      <tp>
-        <v>515.48</v>
+        <tr r="C44" s="1"/>
+      </tp>
+      <tp>
+        <v>560.94000000000005</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>9</stp>
-        <tr r="B24" s="1"/>
-      </tp>
-      <tp>
-        <v>515.49</v>
+        <tr r="B25" s="1"/>
+      </tp>
+      <tp>
+        <v>561</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>8</stp>
-        <tr r="B23" s="1"/>
-      </tp>
-      <tp>
-        <v>515.5</v>
+        <tr r="B24" s="1"/>
+      </tp>
+      <tp>
+        <v>561.02</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>7</stp>
-        <tr r="B22" s="1"/>
-      </tp>
-      <tp>
-        <v>515.6</v>
+        <tr r="B23" s="1"/>
+      </tp>
+      <tp>
+        <v>561.05999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>6</stp>
-        <tr r="B21" s="1"/>
-      </tp>
-      <tp>
-        <v>515.73</v>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp>
+        <v>561.12</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>5</stp>
-        <tr r="B20" s="1"/>
-      </tp>
-      <tp>
-        <v>515.79</v>
+        <tr r="B21" s="1"/>
+      </tp>
+      <tp>
+        <v>561.24</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>4</stp>
-        <tr r="B19" s="1"/>
-      </tp>
-      <tp>
-        <v>515.91</v>
+        <tr r="B20" s="1"/>
+      </tp>
+      <tp>
+        <v>561.25</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>3</stp>
-        <tr r="B18" s="1"/>
-      </tp>
-      <tp>
-        <v>515.99</v>
+        <tr r="B19" s="1"/>
+      </tp>
+      <tp>
+        <v>561.29999999999995</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>2</stp>
-        <tr r="B17" s="1"/>
-      </tp>
-      <tp>
-        <v>516</v>
+        <tr r="B18" s="1"/>
+      </tp>
+      <tp>
+        <v>561.5</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>1</stp>
-        <tr r="B16" s="1"/>
-      </tp>
-      <tp>
-        <v>516.01</v>
+        <tr r="B17" s="1"/>
+      </tp>
+      <tp>
+        <v>561.53</v>
         <stp/>
         <stp>BINANCE_DEPTH</stp>
         <stp>ethusdt</stp>
         <stp>BID_DEPTH</stp>
         <stp>0</stp>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp>
-        <v>197904633.91417867</v>
+        <tr r="B16" s="1"/>
+      </tp>
+      <tp>
+        <v>288938925.08285034</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>btcusdt</stp>
         <stp>QUOTE_VOL</stp>
-        <tr r="L6" s="1"/>
-      </tp>
-      <tp>
-        <v>7996861.2398544</v>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp>
+        <v>8483586.2747393996</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>ltcusdt</stp>
         <stp>QUOTE_VOL</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-      <tp>
-        <v>9.5100000000000004E-6</v>
+        <tr r="L8" s="1"/>
+      </tp>
+      <tp>
+        <v>8.3699999999999995E-6</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>trxbtc</stp>
         <stp>CLOSE</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp>
-        <v>8.2390000000000002E-5</v>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.7899999999999996E-5</v>
         <stp/>
         <stp>BINANCE_24H</stp>
         <stp>xrpbtc</stp>
         <stp>CLOSE</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp>
-        <v>568.97</v>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp>
+        <v>512.05999999999995</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>ETH-USD</stp>
@@ -6356,7 +6368,7 @@
         <tr r="E3" s="2"/>
       </tp>
       <tp>
-        <v>7334.2</v>
+        <v>7100.01</v>
         <stp/>
         <stp>GDAX</stp>
         <stp>BTC-USD</stp>
@@ -6364,12 +6376,12 @@
         <tr r="E4" s="2"/>
       </tp>
       <tp>
-        <v>43248.890803784721</v>
+        <v>43249.783958333333</v>
         <stp/>
         <stp>BINANCE_TRADE</stp>
         <stp>xrpbtc</stp>
         <stp>TRADE_TIME</stp>
-        <tr r="O20" s="1"/>
+        <tr r="O21" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -6377,7 +6389,7 @@
         <stp>BINANCE_TRADE</stp>
         <stp>xrpusdt</stp>
         <stp>IGNORE</stp>
-        <tr r="L18" s="1"/>
+        <tr r="L19" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -6385,7 +6397,7 @@
         <stp>BINANCE_TRADE</stp>
         <stp>ltcusdt</stp>
         <stp>IGNORE</stp>
-        <tr r="L17" s="1"/>
+        <tr r="L18" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -6393,7 +6405,7 @@
         <stp>BINANCE_TRADE</stp>
         <stp>btcusdt</stp>
         <stp>IGNORE</stp>
-        <tr r="L16" s="1"/>
+        <tr r="L17" s="1"/>
       </tp>
       <tp t="b">
         <v>1</v>
@@ -6401,33 +6413,33 @@
         <stp>BINANCE_TRADE</stp>
         <stp>ethusdt</stp>
         <stp>IGNORE</stp>
-        <tr r="L15" s="1"/>
-      </tp>
-      <tp>
-        <v>7099</v>
+        <tr r="L16" s="1"/>
+      </tp>
+      <tp>
+        <v>7403.98</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>btcusdt</stp>
         <stp>OPEN</stp>
         <stp>10</stp>
-        <tr r="B43" s="1"/>
-      </tp>
-      <tp>
-        <v>6.9999999999999999E-6</v>
+        <tr r="B44" s="1"/>
+      </tp>
+      <tp>
+        <v>9.9999999999999995E-7</v>
         <stp/>
         <stp>BINANCE</stp>
         <stp>neobtc</stp>
         <stp>Spread</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>522</v>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>573.42999999999995</v>
         <stp/>
         <stp>BINANCE_CANDLE</stp>
         <stp>ethusdt</stp>
         <stp>HIGH</stp>
         <stp>10</stp>
-        <tr r="C42" s="1"/>
+        <tr r="C43" s="1"/>
       </tp>
     </main>
   </volType>
@@ -6435,51 +6447,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A4:O11" totalsRowShown="0" dataDxfId="105" dataCellStyle="Comma">
-  <autoFilter ref="A4:O11" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA86895-C996-45BB-9461-8033276EAF8D}" name="Table1" displayName="Table1" ref="A5:O12" totalsRowShown="0" dataDxfId="105" dataCellStyle="Comma">
+  <autoFilter ref="A5:O12" xr:uid="{C4F49F7D-8667-4D6B-AD96-B004DDF9E1A6}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3DCAC593-21E4-456C-93D1-EEDC8340EA91}" name="SYMBOL"/>
     <tableColumn id="2" xr3:uid="{BD1F10D1-4516-437C-A019-01CE2442BC76}" name="LOW" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,B$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,B$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{91943E91-93A3-432F-90A1-9A812A7495A3}" name="HIGH" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,C$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,C$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{16B5E286-FCD6-42DD-AD70-936F5453E647}" name="CLOSE" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,D$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,D$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{67B2C544-857B-4123-809A-B920230BEECB}" name="OPEN" dataDxfId="98" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,E$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,E$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{20BDBC22-B4AF-42A8-AAE5-B7ECB2022FC2}" name="BID_SIZE" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,F$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,F$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{ECAEA6E2-113E-4E1B-AC1E-0EC5CB822859}" name="BID" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,G$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,G$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{2B73FE2B-AD25-474E-A435-F857ECE61F97}" name="Spread" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,H$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,H$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{01343A1D-C841-40C5-A6D2-6BD0755AEFFD}" name="ASK" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,I$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,I$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{7441CD62-3DE6-428D-A648-DC43FCDEC43E}" name="ASK_SIZE" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,J$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,J$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{5886EA1E-E3A6-4210-AA96-061D82EA05DB}" name="VOL" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,K$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,K$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{ED72F41F-7448-4225-8EB2-C6126D47AA45}" name="QUOTE_VOL" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,L$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,L$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{6F6174C4-E63C-47F0-9019-CB5FC0BB6E18}" name="TRADES" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,M$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,M$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{D83BB7C6-4C04-4806-AF73-A11C3BF0C421}" name="PRICE%" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Percent">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,N$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,N$5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{03DEA07C-BDA4-4374-813A-6502C8EC5BD0}" name="PRICE_CHANGE" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE,$A5,O$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE,$A6,O$5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6487,21 +6499,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A14:E24" totalsRowShown="0" dataDxfId="77" dataCellStyle="Comma">
-  <autoFilter ref="A14:E24" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{693E15AA-864E-4171-85AC-CA73EF3D952A}" name="Table3" displayName="Table3" ref="A15:E25" totalsRowShown="0" dataDxfId="77" dataCellStyle="Comma">
+  <autoFilter ref="A15:E25" xr:uid="{9B5750BD-A8BF-49B3-8CCE-E75F6CB95AEF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{024D3077-4CB4-423F-9919-17E1D03B62EF}" name="BID_DEPTH_SIZE" dataDxfId="76" dataCellStyle="20% - Accent6">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$15,A$15,$C16)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{A846FBD5-F5D1-42A6-9B15-E4F95F35D0D8}" name="BID_DEPTH" dataDxfId="75" dataCellStyle="20% - Accent6">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$15,B$15,$C16)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{61C19639-7D28-4B92-A8B2-CB2407C53DA3}" name="ethusdt" dataDxfId="74"/>
     <tableColumn id="4" xr3:uid="{26E73E79-2351-4AA2-B059-B8FBF5772528}" name="ASK_DEPTH" dataDxfId="73" dataCellStyle="20% - Accent2">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$15,D$15,$C16)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{4F75757B-DFD1-4B07-AFA1-EC3E611607E7}" name="ASK_DEPTH_SIZE" dataDxfId="72" dataCellStyle="20% - Accent2">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_DEPTH,$C$15,E$15,$C16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6509,33 +6521,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G14:O21" totalsRowShown="0" dataDxfId="71" tableBorderDxfId="70" dataCellStyle="Comma">
-  <autoFilter ref="G14:O21" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA08BD9-49E7-43D9-9107-498554C9DD86}" name="Table4" displayName="Table4" ref="G15:O22" totalsRowShown="0" dataDxfId="71" tableBorderDxfId="70" dataCellStyle="Comma">
+  <autoFilter ref="G15:O22" xr:uid="{A420389B-2E6A-4F02-A7C2-6691F84309DB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4DF9B9E1-1E83-4EF7-84C1-2078EE821C9B}" name="SYMBOL"/>
     <tableColumn id="2" xr3:uid="{7A9D1BD2-CDED-4716-A77F-64066BF610F2}" name="TRADE_ID" dataDxfId="69" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,H$14)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G16,H$15)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{354287B4-D1D8-44B9-86FB-9FB34A18D99C}" name="PRICE" dataDxfId="68" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,I$14)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G16,I$15)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{8697802C-B742-4C06-809E-A6FC0FE7CCD5}" name="QUANTITY" dataDxfId="67" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,J$14)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G16,J$15)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{4B2C6341-2C08-42AC-B29F-1942A6C5C0B8}" name="BUYER_IS_MAKER" dataDxfId="66" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,K$14)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G16,K$15)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{EFB18125-1C0D-4363-B531-114C2E88F054}" name="IGNORE" dataDxfId="65" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,L$14)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G16,L$15)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{596DAC26-1FB0-4FA0-9F2B-2F85949317B9}" name="FIRST_ID" dataDxfId="64" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,M$14)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G16,M$15)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{625DA386-D82A-4BD8-99A5-41F6984223F9}" name="LAST_ID" dataDxfId="63" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,N$14)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G16,N$15)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{B43DE4EC-1073-4EE5-AFA6-29717F6887CA}" name="TRADE_TIME" dataDxfId="62" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G15,O$14)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINACE_TRADE,$G16,O$15)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6543,57 +6555,57 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A29:Q32" totalsRowShown="0" dataDxfId="61" tableBorderDxfId="60" dataCellStyle="Comma">
-  <autoFilter ref="A29:Q32" xr:uid="{BD9601BD-F222-4DBD-B404-C68EB6A96569}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3449DF2E-F96A-49C0-ABBE-71A8697FFDC0}" name="Table6" displayName="Table6" ref="A30:Q33" totalsRowShown="0" dataDxfId="61" tableBorderDxfId="60" dataCellStyle="Comma">
+  <autoFilter ref="A30:Q33" xr:uid="{BD9601BD-F222-4DBD-B404-C68EB6A96569}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{A75C3BB9-BD50-4A86-92A6-228C26DADEC8}" name="SYMBOL"/>
     <tableColumn id="2" xr3:uid="{271F2E56-459C-4325-9A04-1A9F5B3B7F43}" name="OPEN" dataDxfId="59" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,B$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,B$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{8996362D-BF62-4A19-8C47-D07BB4C877F0}" name="HIGH" dataDxfId="58" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,C$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,C$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{77448F41-FF9F-43E6-9CB3-48B1AFE42AEB}" name="LOW" dataDxfId="57" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,D$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,D$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{1CBFA155-B8FA-4A1A-9482-672E8069C9E1}" name="CLOSE" dataDxfId="56" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,E$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,E$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{E40AE6FA-10C3-45A4-A49A-5936433E60C5}" name="OPEN_TIME" dataDxfId="55" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,F$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,F$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{429829C2-0F7D-49C8-AC77-925D4DCC80B5}" name="CLOSE_TIME" dataDxfId="54" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,G$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,G$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{882827BB-E1D4-4F9A-A943-912E4B196B6E}" name="FINAL" dataDxfId="53" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,H$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,H$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{190D5A98-9240-49A0-8013-C83B0A17B4AA}" name="QUOTE_VOL" dataDxfId="52" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,I$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,I$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{D80CA8FB-9312-4FB1-81DE-39FD7E27F1CE}" name="VOL" dataDxfId="51" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,J$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,J$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{59762A20-FD1E-484A-BB6B-CEA9F72EFC92}" name="TAKE_BUY_VOL" dataDxfId="50" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,K$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,K$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{E8F62B9A-A83F-46A0-8F0A-0CE5786E7912}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="49" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,L$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,L$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{ED113239-E7EA-4F6B-913B-7D90F2B103BB}" name="INTERVAL" dataDxfId="48" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,M$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,M$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{68B5E94B-07AA-4E0D-8DC9-26239ADCE6DC}" name="TRADES" dataDxfId="47" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,N$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,N$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{4B94B3D0-C26F-49E3-A1F8-F4F54AEA1341}" name="Event_Time" dataDxfId="46" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,O$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,O$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{C421FBF6-75FF-4177-B401-9CB15DF618EC}" name="FIRST_ID" dataDxfId="45" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,P$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,P$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{3FA40665-835F-4A52-9593-3016675D91AE}" name="LAST_ID" dataDxfId="44" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A30,Q$29,$D$28)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A31,Q$30,$D$29)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6601,57 +6613,57 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A35:Q38" totalsRowShown="0" dataDxfId="43" tableBorderDxfId="42" dataCellStyle="Comma">
-  <autoFilter ref="A35:Q38" xr:uid="{04787891-A2B4-4F14-ADE0-2BC3B779F519}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9543979-F06F-46F2-9BB7-92CC3F74D761}" name="Table66" displayName="Table66" ref="A36:Q39" totalsRowShown="0" dataDxfId="43" tableBorderDxfId="42" dataCellStyle="Comma">
+  <autoFilter ref="A36:Q39" xr:uid="{04787891-A2B4-4F14-ADE0-2BC3B779F519}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CD2685D4-7653-442A-A4D2-04D1D79D1D51}" name="SYMBOL"/>
     <tableColumn id="2" xr3:uid="{7F137C97-E79A-487B-B508-861F049FEDAC}" name="OPEN" dataDxfId="41" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,B$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,B$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4354B8F2-F3BC-4A63-9256-CE5D89BD7C2B}" name="HIGH" dataDxfId="40" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,C$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,C$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{D69F9FDB-4C2B-4CCA-8F57-7B2DFB93739C}" name="LOW" dataDxfId="39" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,D$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,D$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{82A6E250-BACF-4151-A155-4791DB06A39C}" name="CLOSE" dataDxfId="38" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,E$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,E$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{D574DD0D-6DFB-4B48-9B1B-B8EE63D45B4B}" name="OPEN_TIME" dataDxfId="37" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,F$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,F$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{10BFDF65-DE5F-4E2B-89F8-F8584D7D2860}" name="CLOSE_TIME" dataDxfId="36" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,G$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,G$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{CB0B768D-7853-490A-9ADF-4CE8C41E4DBB}" name="FINAL" dataDxfId="35" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,H$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,H$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{6A5EC966-BE44-4A64-9534-F53DCC5D84E7}" name="QUOTE_VOL" dataDxfId="34" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,I$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,I$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{1F63118F-B624-4D66-86EC-A2D0140A6209}" name="VOL" dataDxfId="33" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,J$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,J$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{8AA416CC-EC2D-4AC5-B0F5-BF89B4BDC1DF}" name="TAKE_BUY_VOL" dataDxfId="32" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,K$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,K$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{05EB0F9B-698C-48B7-8FD2-F4F6E81B4DAA}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="31" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,L$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,L$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{7A11E2BE-98B4-44A3-A99A-F72BED6FCF64}" name="INTERVAL" dataDxfId="30" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,M$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,M$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{FAC045CA-037C-43CE-8DA6-5B4FA60C5466}" name="TRADES" dataDxfId="29" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,N$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,N$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{C1FF08F6-0AC6-46A7-8E2A-7C66E43876F2}" name="Event_Time" dataDxfId="28" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,O$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,O$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{3FA7F86A-4BF7-405A-A0E0-11A0DE928556}" name="FIRST_ID" dataDxfId="27" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,P$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,P$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{39E54680-13B4-44CA-B586-9595118396B6}" name="LAST_ID" dataDxfId="26" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A36,Q$35,$D$34)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A37,Q$36,$D$35)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6659,57 +6671,57 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99DCB22F-228E-4018-9771-887F46452D07}" name="Table669" displayName="Table669" ref="A41:Q44" totalsRowShown="0" dataDxfId="25" tableBorderDxfId="24" dataCellStyle="Comma">
-  <autoFilter ref="A41:Q44" xr:uid="{6E65CC27-09FC-486D-A67A-E2DB2EC555BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99DCB22F-228E-4018-9771-887F46452D07}" name="Table669" displayName="Table669" ref="A42:Q45" totalsRowShown="0" dataDxfId="25" tableBorderDxfId="24" dataCellStyle="Comma">
+  <autoFilter ref="A42:Q45" xr:uid="{6E65CC27-09FC-486D-A67A-E2DB2EC555BE}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{33725082-D785-41DD-9970-D8F27EB50367}" name="SYMBOL"/>
     <tableColumn id="2" xr3:uid="{9037869B-A21A-4005-B553-689CD7A8BDDA}" name="OPEN" dataDxfId="23" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,B$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,B$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{BB00B0EC-FECB-4559-A3DF-77C39BCABC92}" name="HIGH" dataDxfId="22" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,C$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,C$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{89A57596-7A26-41BE-B81B-572851260A3E}" name="LOW" dataDxfId="21" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,D$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,D$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{FFA6405D-895D-4C41-9AF2-59A917105627}" name="CLOSE" dataDxfId="20" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,E$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,E$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{A547D549-D81A-4D01-BEF9-D6ED01C63818}" name="OPEN_TIME" dataDxfId="19" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,F$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,F$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{DF542204-C9DD-4EAD-9898-DC64CAA71FF7}" name="CLOSE_TIME" dataDxfId="18" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,G$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,G$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{81C6BE2C-BE91-4606-AAFE-BA2CC0698965}" name="FINAL" dataDxfId="17" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,H$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,H$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{2CA4669B-413D-4F30-A5AF-4F09B8AAE2A1}" name="QUOTE_VOL" dataDxfId="16" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,I$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,I$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{3A979BCD-3AAE-4B94-B2D4-DF259BFCB0AE}" name="VOL" dataDxfId="15" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,J$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,J$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{4A3421ED-7748-4BC3-A593-3980C40CE28B}" name="TAKE_BUY_VOL" dataDxfId="14" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,K$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,K$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{915D763A-8F4F-4755-94EF-448B1854BC25}" name="TAKE_BUY_QUOTE_VOL" dataDxfId="13" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,L$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,L$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{36EE1B92-C8FB-436E-9872-3BB209CE0A49}" name="INTERVAL" dataDxfId="12" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,M$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,M$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{9B4882A0-F228-48B3-802F-797571F445C4}" name="TRADES" dataDxfId="11" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,N$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,N$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{1DF22CF9-CDB4-4D0A-9288-AE736858CA25}" name="Event_Time" dataDxfId="10" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,O$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,O$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{97A30074-55B1-4AC0-977E-E9F9900222F5}" name="FIRST_ID" dataDxfId="9" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,P$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,P$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{5352F4E3-144C-417A-A84E-6FBECE4F831B}" name="LAST_ID" dataDxfId="8" dataCellStyle="Comma">
-      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A42,Q$41,$D$40)</calculatedColumnFormula>
+      <calculatedColumnFormula>RTD(progId,,BINANCE_CANDLE,$A43,Q$42,$D$41)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7045,10 +7057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F314B32C-A36F-425C-B63D-E2C30E3C057B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U113"/>
+  <dimension ref="A1:U114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7074,614 +7086,576 @@
     <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="H1" s="3" t="s">
+      <c r="E2" s="1"/>
+      <c r="H2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="str">
+        <f>RTD(progId,,"CLOCK")</f>
+        <v>ERROR: Expected: origin, vendor, instrument, field, [depth]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D4" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="Q3" s="36" t="s">
+      <c r="E4" s="29"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="Q4" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="1" t="s">
+      <c r="R4" s="36"/>
+      <c r="S4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T4" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="37" t="str">
-        <f>RTD(progId,,BINANCE_HISTORY,S3,"a,b,c",10)</f>
-        <v>[["SYMBOL","TRADE_ID","PRICE","QUANTITY","TRADE_TIME","IS_BEST_MATCH","BUYER_IS_MAKER"],["ETHUSDT",26632306,517.02000000,3.46347000,"2018-05-28T21:20:18.018-04:00",true,true],["ETHUSDT",26632307,517.01000000,1.38295000,"2018-05-28T21:20:18.338-04:00",true,true],["ETHUSDT",26632308,517.01000000,0.65902000,"2018-05-28T21:20:18.442-04:00",true,false],["ETHUSDT",26632309,517.02000000,7.17751000,"2018-05-28T21:20:18.442-04:00",true,false],["ETHUSDT",26632310,517.02000000,0.65902000,"2018-05-28T21:20:19.422-04:00",true,false],["ETHUSDT",26632311,516.85000000,0.21000000,"2018-05-28T21:20:33.42-04:00",true,true],["ETHUSDT",26632312,516.85000000,0.11000000,"2018-05-28T21:20:33.759-04:00",true,true],["ETHUSDT",26632313,516.85000000,0.06649000,"2018-05-28T21:20:41.679-04:00",true,true],["ETHUSDT",26632314,516.85000000,0.09162000,"2018-05-28T21:20:41.896-04:00",true,false],["ETHUSDT",26632315,517.32000000,0.00005000,"2018-05-28T21:20:41.896-04:00",true,false]]</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <f>RTD(progId,,BINANCE,$A5,B$4)</f>
-        <v>506.11</v>
-      </c>
-      <c r="C5" s="2">
-        <f>RTD(progId,,BINANCE,$A5,C$4)</f>
-        <v>576.20000000000005</v>
-      </c>
-      <c r="D5" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A5,D$4)</f>
-        <v>570.45000000000005</v>
-      </c>
-      <c r="E5" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A5,E$4)</f>
-        <v>570.45000000000005</v>
-      </c>
-      <c r="F5" s="2">
-        <f>RTD(progId,,BINANCE,$A5,F$4)</f>
-        <v>2.64337</v>
-      </c>
-      <c r="G5" s="2">
-        <f>RTD(progId,,BINANCE,$A5,G$4)</f>
-        <v>516.01</v>
-      </c>
-      <c r="H5" s="2">
-        <f>RTD(progId,,BINANCE,$A5,H$4)</f>
-        <v>0.24</v>
-      </c>
-      <c r="I5" s="2">
-        <f>RTD(progId,,BINANCE,$A5,I$4)</f>
-        <v>516.25</v>
-      </c>
-      <c r="J5" s="2">
-        <f>RTD(progId,,BINANCE,$A5,J$4)</f>
-        <v>0.87063999999999997</v>
-      </c>
-      <c r="K5" s="9">
-        <f>RTD(progId,,BINANCE,$A5,K$4)</f>
-        <v>155772.09138</v>
-      </c>
-      <c r="L5" s="2">
-        <f>RTD(progId,,BINANCE,$A5,L$4)</f>
-        <v>82996801.391352803</v>
-      </c>
-      <c r="M5" s="9">
-        <f>RTD(progId,,BINANCE,$A5,M$4)</f>
-        <v>133786</v>
-      </c>
-      <c r="N5" s="10">
-        <f>RTD(progId,,BINANCE,$A5,N$4)</f>
-        <v>-9.461E-2</v>
-      </c>
-      <c r="O5" s="2">
-        <f>RTD(progId,,BINANCE,$A5,O$4)</f>
-        <v>-53.92</v>
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="37" t="str">
+        <f>RTD(progId,,BINANCE_HISTORY,S4,"a,b,c",10)</f>
+        <v>[["SYMBOL","TRADE_ID","PRICE","QUANTITY","TRADE_TIME","IS_BEST_MATCH","BUYER_IS_MAKER"],["ETHUSDT",26750741,563.00000000,5.58010000,"2018-05-29T18:46:58.024-04:00",true,true],["ETHUSDT",26750742,563.00000000,0.14228000,"2018-05-29T18:47:00.152-04:00",true,true],["ETHUSDT",26750743,563.00000000,0.13233000,"2018-05-29T18:47:00.353-04:00",true,true],["ETHUSDT",26750744,563.00000000,0.29970000,"2018-05-29T18:47:00.649-04:00",true,true],["ETHUSDT",26750745,563.01000000,0.50000000,"2018-05-29T18:47:05.632-04:00",true,false],["ETHUSDT",26750746,563.00000000,0.45987000,"2018-05-29T18:47:07.351-04:00",true,true],["ETHUSDT",26750747,563.01000000,1.13900000,"2018-05-29T18:47:07.38-04:00",true,false],["ETHUSDT",26750748,563.00000000,4.10379000,"2018-05-29T18:47:09.759-04:00",true,true],["ETHUSDT",26750749,563.01000000,0.00017000,"2018-05-29T18:47:10.643-04:00",true,false],["ETHUSDT",26750750,563.00000000,0.44356000,"2018-05-29T18:47:11.411-04:00",true,true]]</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <f>RTD(progId,,BINANCE,$A6,B$5)</f>
+        <v>510</v>
+      </c>
+      <c r="C6" s="2">
+        <f>RTD(progId,,BINANCE,$A6,C$5)</f>
+        <v>573.42999999999995</v>
+      </c>
+      <c r="D6" s="2">
+        <f>RTD(progId,,BINANCE_24H,$A6,D$5)</f>
+        <v>512.87</v>
+      </c>
+      <c r="E6" s="2">
+        <f>RTD(progId,,BINANCE_24H,$A6,E$5)</f>
+        <v>512.87</v>
+      </c>
+      <c r="F6" s="2">
+        <f>RTD(progId,,BINANCE,$A6,F$5)</f>
+        <v>0.53383000000000003</v>
+      </c>
+      <c r="G6" s="2">
+        <f>RTD(progId,,BINANCE,$A6,G$5)</f>
+        <v>561.53</v>
+      </c>
+      <c r="H6" s="2">
+        <f>RTD(progId,,BINANCE,$A6,H$5)</f>
+        <v>0.42</v>
+      </c>
+      <c r="I6" s="2">
+        <f>RTD(progId,,BINANCE,$A6,I$5)</f>
+        <v>561.95000000000005</v>
+      </c>
+      <c r="J6" s="2">
+        <f>RTD(progId,,BINANCE,$A6,J$5)</f>
+        <v>0.53381999999999996</v>
+      </c>
+      <c r="K6" s="9">
+        <f>RTD(progId,,BINANCE,$A6,K$5)</f>
+        <v>190347.42384999999</v>
+      </c>
+      <c r="L6" s="2">
+        <f>RTD(progId,,BINANCE,$A6,L$5)</f>
+        <v>103499984.5847811</v>
+      </c>
+      <c r="M6" s="9">
+        <f>RTD(progId,,BINANCE,$A6,M$5)</f>
+        <v>129082</v>
+      </c>
+      <c r="N6" s="10">
+        <f>RTD(progId,,BINANCE,$A6,N$5)</f>
+        <v>9.5649999999999999E-2</v>
+      </c>
+      <c r="O6" s="2">
+        <f>RTD(progId,,BINANCE,$A6,O$5)</f>
+        <v>49.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
-        <f>RTD(progId,,BINANCE,$A6,B$4)</f>
-        <v>7058.02</v>
-      </c>
-      <c r="C6" s="2">
-        <f>RTD(progId,,BINANCE,$A6,C$4)</f>
-        <v>7437</v>
-      </c>
-      <c r="D6" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A6,D$4)</f>
-        <v>7339</v>
-      </c>
-      <c r="E6" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A6,E$4)</f>
-        <v>7338.79</v>
-      </c>
-      <c r="F6" s="2">
-        <f>RTD(progId,,BINANCE,$A6,F$4)</f>
-        <v>2.8150000000000001E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <f>RTD(progId,,BINANCE,$A6,G$4)</f>
-        <v>7086.59</v>
-      </c>
-      <c r="H6" s="2">
-        <f>RTD(progId,,BINANCE,$A6,H$4)</f>
-        <v>1.55</v>
-      </c>
-      <c r="I6" s="2">
-        <f>RTD(progId,,BINANCE,$A6,I$4)</f>
-        <v>7088.14</v>
-      </c>
-      <c r="J6" s="2">
-        <f>RTD(progId,,BINANCE,$A6,J$4)</f>
-        <v>7.9342999999999997E-2</v>
-      </c>
-      <c r="K6" s="9">
-        <f>RTD(progId,,BINANCE,$A6,K$4)</f>
-        <v>27410.431106</v>
-      </c>
-      <c r="L6" s="2">
-        <f>RTD(progId,,BINANCE,$A6,L$4)</f>
-        <v>197904633.91417867</v>
-      </c>
-      <c r="M6" s="9">
-        <f>RTD(progId,,BINANCE,$A6,M$4)</f>
-        <v>230157</v>
-      </c>
-      <c r="N6" s="10">
-        <f>RTD(progId,,BINANCE,$A6,N$4)</f>
-        <v>-3.3770000000000001E-2</v>
-      </c>
-      <c r="O6" s="2">
-        <f>RTD(progId,,BINANCE,$A6,O$4)</f>
-        <v>-247.73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
       <c r="B7" s="2">
-        <f>RTD(progId,,BINANCE,$A7,B$4)</f>
-        <v>110</v>
+        <f>RTD(progId,,BINANCE,$A7,B$5)</f>
+        <v>7032.95</v>
       </c>
       <c r="C7" s="2">
-        <f>RTD(progId,,BINANCE,$A7,C$4)</f>
-        <v>118.97</v>
+        <f>RTD(progId,,BINANCE,$A7,C$5)</f>
+        <v>7540</v>
       </c>
       <c r="D7" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A7,D$4)</f>
-        <v>118.09</v>
+        <f>RTD(progId,,BINANCE_24H,$A7,D$5)</f>
+        <v>7084</v>
       </c>
       <c r="E7" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A7,E$4)</f>
-        <v>118.08</v>
+        <f>RTD(progId,,BINANCE_24H,$A7,E$5)</f>
+        <v>7077.65</v>
       </c>
       <c r="F7" s="2">
-        <f>RTD(progId,,BINANCE,$A7,F$4)</f>
-        <v>1.0727</v>
+        <f>RTD(progId,,BINANCE,$A7,F$5)</f>
+        <v>8.2888000000000003E-2</v>
       </c>
       <c r="G7" s="2">
-        <f>RTD(progId,,BINANCE,$A7,G$4)</f>
-        <v>110.28</v>
+        <f>RTD(progId,,BINANCE,$A7,G$5)</f>
+        <v>7440.01</v>
       </c>
       <c r="H7" s="2">
-        <f>RTD(progId,,BINANCE,$A7,H$4)</f>
-        <v>0.11</v>
+        <f>RTD(progId,,BINANCE,$A7,H$5)</f>
+        <v>4.4400000000000004</v>
       </c>
       <c r="I7" s="2">
-        <f>RTD(progId,,BINANCE,$A7,I$4)</f>
-        <v>110.39</v>
+        <f>RTD(progId,,BINANCE,$A7,I$5)</f>
+        <v>7444.45</v>
       </c>
       <c r="J7" s="2">
-        <f>RTD(progId,,BINANCE,$A7,J$4)</f>
-        <v>0.54</v>
+        <f>RTD(progId,,BINANCE,$A7,J$5)</f>
+        <v>0.14785100000000001</v>
       </c>
       <c r="K7" s="9">
-        <f>RTD(progId,,BINANCE,$A7,K$4)</f>
-        <v>69943.724799999996</v>
+        <f>RTD(progId,,BINANCE,$A7,K$5)</f>
+        <v>39591.781053999999</v>
       </c>
       <c r="L7" s="2">
-        <f>RTD(progId,,BINANCE,$A7,L$4)</f>
-        <v>7996861.2398544</v>
+        <f>RTD(progId,,BINANCE,$A7,L$5)</f>
+        <v>288938925.08285034</v>
       </c>
       <c r="M7" s="9">
-        <f>RTD(progId,,BINANCE,$A7,M$4)</f>
-        <v>21092</v>
+        <f>RTD(progId,,BINANCE,$A7,M$5)</f>
+        <v>235000</v>
       </c>
       <c r="N7" s="10">
-        <f>RTD(progId,,BINANCE,$A7,N$4)</f>
-        <v>-6.5119999999999997E-2</v>
+        <f>RTD(progId,,BINANCE,$A7,N$5)</f>
+        <v>5.1819999999999998E-2</v>
       </c>
       <c r="O7" s="2">
-        <f>RTD(progId,,BINANCE,$A7,O$4)</f>
-        <v>-7.69</v>
+        <f>RTD(progId,,BINANCE,$A7,O$5)</f>
+        <v>366.78</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,B$5)</f>
+        <v>109.41</v>
+      </c>
+      <c r="C8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,C$5)</f>
+        <v>122.71</v>
+      </c>
+      <c r="D8" s="2">
+        <f>RTD(progId,,BINANCE_24H,$A8,D$5)</f>
+        <v>110.62</v>
+      </c>
+      <c r="E8" s="2">
+        <f>RTD(progId,,BINANCE_24H,$A8,E$5)</f>
+        <v>110.5</v>
+      </c>
+      <c r="F8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,F$5)</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,G$5)</f>
+        <v>119.2</v>
+      </c>
+      <c r="H8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,H$5)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,I$5)</f>
+        <v>119.21</v>
+      </c>
+      <c r="J8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,J$5)</f>
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="9">
+        <f>RTD(progId,,BINANCE,$A8,K$5)</f>
+        <v>72199.220520000003</v>
+      </c>
+      <c r="L8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,L$5)</f>
+        <v>8483586.2747393996</v>
+      </c>
+      <c r="M8" s="9">
+        <f>RTD(progId,,BINANCE,$A8,M$5)</f>
+        <v>19351</v>
+      </c>
+      <c r="N8" s="10">
+        <f>RTD(progId,,BINANCE,$A8,N$5)</f>
+        <v>7.9509999999999997E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <f>RTD(progId,,BINANCE,$A8,O$5)</f>
+        <v>8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2">
-        <f>RTD(progId,,BINANCE,$A8,B$4)</f>
-        <v>0.54339999999999999</v>
-      </c>
-      <c r="C8" s="2">
-        <f>RTD(progId,,BINANCE,$A8,C$4)</f>
-        <v>0.60909999999999997</v>
-      </c>
-      <c r="D8" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A8,D$4)</f>
-        <v>0.60519999999999996</v>
-      </c>
-      <c r="E8" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A8,E$4)</f>
-        <v>0.60519999999999996</v>
-      </c>
-      <c r="F8" s="9">
-        <f>RTD(progId,,BINANCE,$A8,F$4)</f>
-        <v>14723.2</v>
-      </c>
-      <c r="G8" s="2">
-        <f>RTD(progId,,BINANCE,$A8,G$4)</f>
-        <v>0.55001</v>
-      </c>
-      <c r="H8" s="2">
-        <f>RTD(progId,,BINANCE,$A8,H$4)</f>
-        <v>1.65E-3</v>
-      </c>
-      <c r="I8" s="2">
-        <f>RTD(progId,,BINANCE,$A8,I$4)</f>
-        <v>0.55166000000000004</v>
-      </c>
-      <c r="J8" s="2">
-        <f>RTD(progId,,BINANCE,$A8,J$4)</f>
-        <v>492.34</v>
-      </c>
-      <c r="K8" s="9">
-        <f>RTD(progId,,BINANCE,$A8,K$4)</f>
-        <v>29972252.09</v>
-      </c>
-      <c r="L8" s="2">
-        <f>RTD(progId,,BINANCE,$A8,L$4)</f>
-        <v>17207562.637333099</v>
-      </c>
-      <c r="M8" s="9">
-        <f>RTD(progId,,BINANCE,$A8,M$4)</f>
-        <v>26990</v>
-      </c>
-      <c r="N8" s="10">
-        <f>RTD(progId,,BINANCE,$A8,N$4)</f>
-        <v>-8.9539999999999995E-2</v>
-      </c>
-      <c r="O8" s="2">
-        <f>RTD(progId,,BINANCE,$A8,O$4)</f>
-        <v>-5.4089999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,B$5)</f>
+        <v>0.54303000000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,C$5)</f>
+        <v>0.60921000000000003</v>
+      </c>
+      <c r="D9" s="2">
+        <f>RTD(progId,,BINANCE_24H,$A9,D$5)</f>
+        <v>0.55003000000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <f>RTD(progId,,BINANCE_24H,$A9,E$5)</f>
+        <v>0.55042000000000002</v>
+      </c>
+      <c r="F9" s="9">
+        <f>RTD(progId,,BINANCE,$A9,F$5)</f>
+        <v>159.16999999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,G$5)</f>
+        <v>0.59394000000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,H$5)</f>
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,I$5)</f>
+        <v>0.59408000000000005</v>
+      </c>
+      <c r="J9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,J$5)</f>
+        <v>210.15</v>
+      </c>
+      <c r="K9" s="9">
+        <f>RTD(progId,,BINANCE,$A9,K$5)</f>
+        <v>31197315.02</v>
+      </c>
+      <c r="L9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,L$5)</f>
+        <v>18011419.980044801</v>
+      </c>
+      <c r="M9" s="9">
+        <f>RTD(progId,,BINANCE,$A9,M$5)</f>
+        <v>27338</v>
+      </c>
+      <c r="N9" s="10">
+        <f>RTD(progId,,BINANCE,$A9,N$5)</f>
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <f>RTD(progId,,BINANCE,$A9,O$5)</f>
+        <v>4.36E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2">
-        <f>RTD(progId,,BINANCE,$A9,B$4)</f>
-        <v>6.7010000000000004E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <f>RTD(progId,,BINANCE,$A9,C$4)</f>
-        <v>7.0860000000000003E-3</v>
-      </c>
-      <c r="D9" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A9,D$4)</f>
-        <v>7.0699999999999999E-3</v>
-      </c>
-      <c r="E9" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A9,E$4)</f>
-        <v>7.0699999999999999E-3</v>
-      </c>
-      <c r="F9" s="9">
-        <f>RTD(progId,,BINANCE,$A9,F$4)</f>
-        <v>6</v>
-      </c>
-      <c r="G9" s="2">
-        <f>RTD(progId,,BINANCE,$A9,G$4)</f>
-        <v>6.7460000000000003E-3</v>
-      </c>
-      <c r="H9" s="2">
-        <f>RTD(progId,,BINANCE,$A9,H$4)</f>
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="I9" s="2">
-        <f>RTD(progId,,BINANCE,$A9,I$4)</f>
-        <v>6.7530000000000003E-3</v>
-      </c>
-      <c r="J9" s="2">
-        <f>RTD(progId,,BINANCE,$A9,J$4)</f>
-        <v>0.99</v>
-      </c>
-      <c r="K9" s="9">
-        <f>RTD(progId,,BINANCE,$A9,K$4)</f>
-        <v>126866.83</v>
-      </c>
-      <c r="L9" s="2">
-        <f>RTD(progId,,BINANCE,$A9,L$4)</f>
-        <v>869.01502318999997</v>
-      </c>
-      <c r="M9" s="9">
-        <f>RTD(progId,,BINANCE,$A9,M$4)</f>
-        <v>26215</v>
-      </c>
-      <c r="N9" s="10">
-        <f>RTD(progId,,BINANCE,$A9,N$4)</f>
-        <v>-4.5690000000000001E-2</v>
-      </c>
-      <c r="O9" s="2">
-        <f>RTD(progId,,BINANCE,$A9,O$4)</f>
-        <v>-3.2299999999999999E-4</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,B$4)</f>
-        <v>7.7000000000000001E-5</v>
+        <f>RTD(progId,,BINANCE,$A10,B$5)</f>
+        <v>6.7099999999999998E-3</v>
       </c>
       <c r="C10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,C$4)</f>
-        <v>8.2410000000000005E-5</v>
+        <f>RTD(progId,,BINANCE,$A10,C$5)</f>
+        <v>7.1809999999999999E-3</v>
       </c>
       <c r="D10" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A10,D$4)</f>
-        <v>8.2390000000000002E-5</v>
+        <f>RTD(progId,,BINANCE_24H,$A10,D$5)</f>
+        <v>6.7600000000000004E-3</v>
       </c>
       <c r="E10" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A10,E$4)</f>
-        <v>8.2390000000000002E-5</v>
+        <f>RTD(progId,,BINANCE_24H,$A10,E$5)</f>
+        <v>6.7580000000000001E-3</v>
       </c>
       <c r="F10" s="9">
-        <f>RTD(progId,,BINANCE,$A10,F$4)</f>
-        <v>1518</v>
+        <f>RTD(progId,,BINANCE,$A10,F$5)</f>
+        <v>3.32</v>
       </c>
       <c r="G10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,G$4)</f>
-        <v>7.7579999999999999E-5</v>
+        <f>RTD(progId,,BINANCE,$A10,G$5)</f>
+        <v>7.0150000000000004E-3</v>
       </c>
       <c r="H10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,H$4)</f>
-        <v>1.1999999999999999E-7</v>
+        <f>RTD(progId,,BINANCE,$A10,H$5)</f>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="I10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,I$4)</f>
-        <v>7.7700000000000005E-5</v>
+        <f>RTD(progId,,BINANCE,$A10,I$5)</f>
+        <v>7.0159999999999997E-3</v>
       </c>
       <c r="J10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,J$4)</f>
-        <v>1800</v>
+        <f>RTD(progId,,BINANCE,$A10,J$5)</f>
+        <v>3.44</v>
       </c>
       <c r="K10" s="9">
-        <f>RTD(progId,,BINANCE,$A10,K$4)</f>
-        <v>35789838</v>
+        <f>RTD(progId,,BINANCE,$A10,K$5)</f>
+        <v>157839.87</v>
       </c>
       <c r="L10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,L$4)</f>
-        <v>2857.2464935600001</v>
+        <f>RTD(progId,,BINANCE,$A10,L$5)</f>
+        <v>1097.7973295500001</v>
       </c>
       <c r="M10" s="9">
-        <f>RTD(progId,,BINANCE,$A10,M$4)</f>
-        <v>49652</v>
+        <f>RTD(progId,,BINANCE,$A10,M$5)</f>
+        <v>27101</v>
       </c>
       <c r="N10" s="10">
-        <f>RTD(progId,,BINANCE,$A10,N$4)</f>
-        <v>-5.7169999999999999E-2</v>
+        <f>RTD(progId,,BINANCE,$A10,N$5)</f>
+        <v>3.8179999999999999E-2</v>
       </c>
       <c r="O10" s="2">
-        <f>RTD(progId,,BINANCE,$A10,O$4)</f>
-        <v>-4.7099999999999998E-6</v>
-      </c>
+        <f>RTD(progId,,BINANCE,$A10,O$5)</f>
+        <v>2.5799999999999998E-4</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
+        <f>RTD(progId,,BINANCE,$A11,B$5)</f>
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="C11" s="2">
+        <f>RTD(progId,,BINANCE,$A11,C$5)</f>
+        <v>8.1310000000000006E-5</v>
+      </c>
+      <c r="D11" s="2">
+        <f>RTD(progId,,BINANCE_24H,$A11,D$5)</f>
+        <v>7.7899999999999996E-5</v>
+      </c>
+      <c r="E11" s="2">
+        <f>RTD(progId,,BINANCE_24H,$A11,E$5)</f>
+        <v>7.7960000000000006E-5</v>
+      </c>
+      <c r="F11" s="9">
+        <f>RTD(progId,,BINANCE,$A11,F$5)</f>
+        <v>462</v>
+      </c>
+      <c r="G11" s="2">
+        <f>RTD(progId,,BINANCE,$A11,G$5)</f>
+        <v>7.9880000000000001E-5</v>
+      </c>
+      <c r="H11" s="2">
+        <f>RTD(progId,,BINANCE,$A11,H$5)</f>
+        <v>2E-8</v>
+      </c>
+      <c r="I11" s="2">
+        <f>RTD(progId,,BINANCE,$A11,I$5)</f>
+        <v>7.9900000000000004E-5</v>
+      </c>
+      <c r="J11" s="2">
+        <f>RTD(progId,,BINANCE,$A11,J$5)</f>
+        <v>1088</v>
+      </c>
+      <c r="K11" s="9">
+        <f>RTD(progId,,BINANCE,$A11,K$5)</f>
+        <v>33785487</v>
+      </c>
+      <c r="L11" s="2">
+        <f>RTD(progId,,BINANCE,$A11,L$5)</f>
+        <v>2674.6815673699998</v>
+      </c>
+      <c r="M11" s="9">
+        <f>RTD(progId,,BINANCE,$A11,M$5)</f>
+        <v>50690</v>
+      </c>
+      <c r="N11" s="10">
+        <f>RTD(progId,,BINANCE,$A11,N$5)</f>
+        <v>2.5149999999999999E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <f>RTD(progId,,BINANCE,$A11,O$5)</f>
+        <v>1.9599999999999999E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,B$4)</f>
-        <v>8.2700000000000004E-6</v>
-      </c>
-      <c r="C11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,C$4)</f>
-        <v>9.5200000000000003E-6</v>
-      </c>
-      <c r="D11" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A11,D$4)</f>
-        <v>9.5100000000000004E-6</v>
-      </c>
-      <c r="E11" s="2">
-        <f>RTD(progId,,BINANCE_24H,$A11,E$4)</f>
-        <v>9.5100000000000004E-6</v>
-      </c>
-      <c r="F11" s="9">
-        <f>RTD(progId,,BINANCE,$A11,F$4)</f>
-        <v>162488</v>
-      </c>
-      <c r="G11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,G$4)</f>
-        <v>8.3899999999999993E-6</v>
-      </c>
-      <c r="H11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,H$4)</f>
+      <c r="B12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,B$5)</f>
+        <v>7.9300000000000003E-6</v>
+      </c>
+      <c r="C12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,C$5)</f>
+        <v>8.8200000000000003E-6</v>
+      </c>
+      <c r="D12" s="2">
+        <f>RTD(progId,,BINANCE_24H,$A12,D$5)</f>
+        <v>8.3699999999999995E-6</v>
+      </c>
+      <c r="E12" s="2">
+        <f>RTD(progId,,BINANCE_24H,$A12,E$5)</f>
+        <v>8.3599999999999996E-6</v>
+      </c>
+      <c r="F12" s="9">
+        <f>RTD(progId,,BINANCE,$A12,F$5)</f>
+        <v>97197</v>
+      </c>
+      <c r="G12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,G$5)</f>
+        <v>8.6300000000000004E-6</v>
+      </c>
+      <c r="H12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,H$5)</f>
         <v>1E-8</v>
       </c>
-      <c r="I11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,I$4)</f>
-        <v>8.3999999999999992E-6</v>
-      </c>
-      <c r="J11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,J$4)</f>
-        <v>801878</v>
-      </c>
-      <c r="K11" s="9">
-        <f>RTD(progId,,BINANCE,$A11,K$4)</f>
-        <v>1630637655</v>
-      </c>
-      <c r="L11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,L$4)</f>
-        <v>14448.935198929999</v>
-      </c>
-      <c r="M11" s="9">
-        <f>RTD(progId,,BINANCE,$A11,M$4)</f>
-        <v>115021</v>
-      </c>
-      <c r="N11" s="10">
-        <f>RTD(progId,,BINANCE,$A11,N$4)</f>
-        <v>-0.11684</v>
-      </c>
-      <c r="O11" s="2">
-        <f>RTD(progId,,BINANCE,$A11,O$4)</f>
-        <v>-1.11E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="I12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,I$5)</f>
+        <v>8.6400000000000003E-6</v>
+      </c>
+      <c r="J12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,J$5)</f>
+        <v>124344</v>
+      </c>
+      <c r="K12" s="9">
+        <f>RTD(progId,,BINANCE,$A12,K$5)</f>
+        <v>1626347776</v>
+      </c>
+      <c r="L12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,L$5)</f>
+        <v>13630.97249443</v>
+      </c>
+      <c r="M12" s="9">
+        <f>RTD(progId,,BINANCE,$A12,M$5)</f>
+        <v>111706</v>
+      </c>
+      <c r="N12" s="10">
+        <f>RTD(progId,,BINANCE,$A12,N$5)</f>
+        <v>2.494E-2</v>
+      </c>
+      <c r="O12" s="2">
+        <f>RTD(progId,,BINANCE,$A12,O$5)</f>
+        <v>2.1E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="G13" s="29" t="s">
+      <c r="B14" s="29"/>
+      <c r="G14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" t="s">
-        <v>55</v>
-      </c>
+      <c r="H14" s="29"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -7689,60 +7663,48 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C15)</f>
-        <v>2.64337</v>
-      </c>
-      <c r="B15" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C15)</f>
-        <v>516.01</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C15)</f>
-        <v>516.25</v>
-      </c>
-      <c r="E15" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C15)</f>
-        <v>0.87063999999999997</v>
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G15,H$14)</f>
-        <v>23648229</v>
-      </c>
-      <c r="I15" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G15,I$14)</f>
-        <v>516.01</v>
-      </c>
-      <c r="J15" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G15,J$14)</f>
-        <v>2.65509</v>
-      </c>
-      <c r="K15" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G15,K$14)</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G15,L$14)</f>
-        <v>1</v>
-      </c>
-      <c r="M15" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G15,M$14)</f>
-        <v>26632443</v>
-      </c>
-      <c r="N15" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G15,N$14)</f>
-        <v>26632443</v>
-      </c>
-      <c r="O15" s="30">
-        <f>RTD(progId,,BINACE_TRADE,$G15,O$14)</f>
-        <v>43248.890757719906</v>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" t="s">
+        <v>55</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -7752,60 +7714,59 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C16)</f>
-        <v>61.771009999999997</v>
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,A$15,$C16)</f>
+        <v>0.53383000000000003</v>
       </c>
       <c r="B16" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C16)</f>
-        <v>516</v>
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,B$15,$C16)</f>
+        <v>561.53</v>
       </c>
       <c r="C16" s="8">
-        <f>C15+1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C16)</f>
-        <v>516.26</v>
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,D$15,$C16)</f>
+        <v>561.95000000000005</v>
       </c>
       <c r="E16" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C16)</f>
-        <v>1.0964700000000001</v>
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,E$15,$C16)</f>
+        <v>0.53381999999999996</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G16,H$14)</f>
-        <v>40530910</v>
+        <f>RTD(progId,,BINACE_TRADE,$G16,H$15)</f>
+        <v>23754539</v>
       </c>
       <c r="I16" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G16,I$14)</f>
-        <v>7088.15</v>
+        <f>RTD(progId,,BINACE_TRADE,$G16,I$15)</f>
+        <v>561.52</v>
       </c>
       <c r="J16" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G16,J$14)</f>
-        <v>9.0337000000000001E-2</v>
+        <f>RTD(progId,,BINACE_TRADE,$G16,J$15)</f>
+        <v>1.2909200000000001</v>
       </c>
       <c r="K16" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G16,K$14)</f>
-        <v>0</v>
+        <f>RTD(progId,,BINACE_TRADE,$G16,K$15)</f>
+        <v>1</v>
       </c>
       <c r="L16" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G16,L$14)</f>
+        <f>RTD(progId,,BINACE_TRADE,$G16,L$15)</f>
         <v>1</v>
       </c>
       <c r="M16" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G16,M$14)</f>
-        <v>46507521</v>
+        <f>RTD(progId,,BINACE_TRADE,$G16,M$15)</f>
+        <v>26750925</v>
       </c>
       <c r="N16" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G16,N$14)</f>
-        <v>46507521</v>
+        <f>RTD(progId,,BINACE_TRADE,$G16,N$15)</f>
+        <v>26750925</v>
       </c>
       <c r="O16" s="30">
-        <f>RTD(progId,,BINACE_TRADE,$G16,O$14)</f>
-        <v>43248.890807847223</v>
+        <f>RTD(progId,,BINACE_TRADE,$G16,O$15)</f>
+        <v>43249.784074039351</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -7815,60 +7776,60 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C17)</f>
-        <v>0.32644000000000001</v>
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,A$15,$C17)</f>
+        <v>3.6420000000000001E-2</v>
       </c>
       <c r="B17" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C17)</f>
-        <v>515.99</v>
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,B$15,$C17)</f>
+        <v>561.5</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" ref="C17:C24" si="0">C16+1</f>
-        <v>2</v>
+        <f>C16+1</f>
+        <v>1</v>
       </c>
       <c r="D17" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C17)</f>
-        <v>516.51</v>
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,D$15,$C17)</f>
+        <v>561.96</v>
       </c>
       <c r="E17" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C17)</f>
-        <v>0.34676000000000001</v>
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,E$15,$C17)</f>
+        <v>1.8919999999999999</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H17" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G17,H$14)</f>
-        <v>6701169</v>
+        <f>RTD(progId,,BINACE_TRADE,$G17,H$15)</f>
+        <v>40732164</v>
       </c>
       <c r="I17" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G17,I$14)</f>
-        <v>110.4</v>
+        <f>RTD(progId,,BINACE_TRADE,$G17,I$15)</f>
+        <v>7444.82</v>
       </c>
       <c r="J17" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G17,J$14)</f>
-        <v>3.0000000000000001E-5</v>
+        <f>RTD(progId,,BINACE_TRADE,$G17,J$15)</f>
+        <v>7.6188000000000006E-2</v>
       </c>
       <c r="K17" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G17,K$14)</f>
+        <f>RTD(progId,,BINACE_TRADE,$G17,K$15)</f>
         <v>0</v>
       </c>
       <c r="L17" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G17,L$14)</f>
+        <f>RTD(progId,,BINACE_TRADE,$G17,L$15)</f>
         <v>1</v>
       </c>
-      <c r="M17" s="20">
-        <f>RTD(progId,,BINACE_TRADE,$G17,M$14)</f>
-        <v>7604933</v>
-      </c>
-      <c r="N17" s="20">
-        <f>RTD(progId,,BINACE_TRADE,$G17,N$14)</f>
-        <v>7604933</v>
-      </c>
-      <c r="O17" s="31">
-        <f>RTD(progId,,BINACE_TRADE,$G17,O$14)</f>
-        <v>43248.890781203707</v>
+      <c r="M17" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G17,M$15)</f>
+        <v>46725857</v>
+      </c>
+      <c r="N17" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G17,N$15)</f>
+        <v>46725857</v>
+      </c>
+      <c r="O17" s="30">
+        <f>RTD(progId,,BINACE_TRADE,$G17,O$15)</f>
+        <v>43249.784088125001</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -7878,1196 +7839,1254 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C18)</f>
-        <v>4.7E-2</v>
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,A$15,$C18)</f>
+        <v>0.22222</v>
       </c>
       <c r="B18" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C18)</f>
-        <v>515.91</v>
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,B$15,$C18)</f>
+        <v>561.29999999999995</v>
       </c>
       <c r="C18" s="8">
+        <f t="shared" ref="C18:C25" si="0">C17+1</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,D$15,$C18)</f>
+        <v>561.99</v>
+      </c>
+      <c r="E18" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,E$15,$C18)</f>
+        <v>0.38628000000000001</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G18,H$15)</f>
+        <v>6717142</v>
+      </c>
+      <c r="I18" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G18,I$15)</f>
+        <v>119.2</v>
+      </c>
+      <c r="J18" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G18,J$15)</f>
+        <v>6.6955400000000003</v>
+      </c>
+      <c r="K18" s="14" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G18,K$15)</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="14" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G18,L$15)</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="20">
+        <f>RTD(progId,,BINACE_TRADE,$G18,M$15)</f>
+        <v>7622844</v>
+      </c>
+      <c r="N18" s="20">
+        <f>RTD(progId,,BINACE_TRADE,$G18,N$15)</f>
+        <v>7622844</v>
+      </c>
+      <c r="O18" s="31">
+        <f>RTD(progId,,BINACE_TRADE,$G18,O$15)</f>
+        <v>43249.783948402779</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,A$15,$C19)</f>
+        <v>8.8596000000000004</v>
+      </c>
+      <c r="B19" s="17">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,B$15,$C19)</f>
+        <v>561.25</v>
+      </c>
+      <c r="C19" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D18" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C18)</f>
-        <v>516.64</v>
-      </c>
-      <c r="E18" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C18)</f>
-        <v>13</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
+      <c r="D19" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,D$15,$C19)</f>
+        <v>562</v>
+      </c>
+      <c r="E19" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,E$15,$C19)</f>
+        <v>2.7046800000000002</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G18,H$14)</f>
-        <v>564135</v>
-      </c>
-      <c r="I18" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G18,I$14)</f>
-        <v>0.55001</v>
-      </c>
-      <c r="J18" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G18,J$14)</f>
-        <v>4609.51</v>
-      </c>
-      <c r="K18" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G18,K$14)</f>
+      <c r="H19" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G19,H$15)</f>
+        <v>586788</v>
+      </c>
+      <c r="I19" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G19,I$15)</f>
+        <v>0.59408000000000005</v>
+      </c>
+      <c r="J19" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G19,J$15)</f>
+        <v>2.98</v>
+      </c>
+      <c r="K19" s="14" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G19,K$15)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="14" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G19,L$15)</f>
         <v>1</v>
       </c>
-      <c r="L18" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G18,L$14)</f>
-        <v>1</v>
-      </c>
-      <c r="M18" s="20">
-        <f>RTD(progId,,BINACE_TRADE,$G18,M$14)</f>
-        <v>620092</v>
-      </c>
-      <c r="N18" s="20">
-        <f>RTD(progId,,BINACE_TRADE,$G18,N$14)</f>
-        <v>620092</v>
-      </c>
-      <c r="O18" s="31">
-        <f>RTD(progId,,BINACE_TRADE,$G18,O$14)</f>
-        <v>43248.890807847223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C19)</f>
-        <v>0.56447999999999998</v>
-      </c>
-      <c r="B19" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C19)</f>
-        <v>515.79</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="M19" s="20">
+        <f>RTD(progId,,BINACE_TRADE,$G19,M$15)</f>
+        <v>644938</v>
+      </c>
+      <c r="N19" s="20">
+        <f>RTD(progId,,BINACE_TRADE,$G19,N$15)</f>
+        <v>644938</v>
+      </c>
+      <c r="O19" s="31">
+        <f>RTD(progId,,BINACE_TRADE,$G19,O$15)</f>
+        <v>43249.78407371528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,A$15,$C20)</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="17">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,B$15,$C20)</f>
+        <v>561.24</v>
+      </c>
+      <c r="C20" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D19" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C19)</f>
-        <v>516.80999999999995</v>
-      </c>
-      <c r="E19" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C19)</f>
-        <v>17</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="D20" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,D$15,$C20)</f>
+        <v>562.33000000000004</v>
+      </c>
+      <c r="E20" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,E$15,$C20)</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G19,H$14)</f>
-        <v>13477809</v>
-      </c>
-      <c r="I19" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G19,I$14)</f>
-        <v>6.7470000000000004E-3</v>
-      </c>
-      <c r="J19" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G19,J$14)</f>
-        <v>0.9</v>
-      </c>
-      <c r="K19" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G19,K$14)</f>
+      <c r="H20" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G20,H$15)</f>
+        <v>13498381</v>
+      </c>
+      <c r="I20" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G20,I$15)</f>
+        <v>7.0150000000000004E-3</v>
+      </c>
+      <c r="J20" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G20,J$15)</f>
+        <v>1.95</v>
+      </c>
+      <c r="K20" s="14" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G20,K$15)</f>
         <v>1</v>
       </c>
-      <c r="L19" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G19,L$14)</f>
+      <c r="L20" s="14" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G20,L$15)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="20">
-        <f>RTD(progId,,BINACE_TRADE,$G19,M$14)</f>
-        <v>15221894</v>
-      </c>
-      <c r="N19" s="20">
-        <f>RTD(progId,,BINACE_TRADE,$G19,N$14)</f>
-        <v>15221894</v>
-      </c>
-      <c r="O19" s="31">
-        <f>RTD(progId,,BINACE_TRADE,$G19,O$14)</f>
-        <v>43248.890704386577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C20)</f>
-        <v>0.32644000000000001</v>
-      </c>
-      <c r="B20" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C20)</f>
-        <v>515.73</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="M20" s="20">
+        <f>RTD(progId,,BINACE_TRADE,$G20,M$15)</f>
+        <v>15246344</v>
+      </c>
+      <c r="N20" s="20">
+        <f>RTD(progId,,BINACE_TRADE,$G20,N$15)</f>
+        <v>15246344</v>
+      </c>
+      <c r="O20" s="31">
+        <f>RTD(progId,,BINACE_TRADE,$G20,O$15)</f>
+        <v>43249.784087210646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,A$15,$C21)</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B21" s="17">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,B$15,$C21)</f>
+        <v>561.12</v>
+      </c>
+      <c r="C21" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D20" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C20)</f>
-        <v>516.98</v>
-      </c>
-      <c r="E20" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C20)</f>
-        <v>4.7E-2</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
+      <c r="D21" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,D$15,$C21)</f>
+        <v>562.52</v>
+      </c>
+      <c r="E21" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,E$15,$C21)</f>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G20,H$14)</f>
-        <v>17405696</v>
-      </c>
-      <c r="I20" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G20,I$14)</f>
-        <v>7.7680000000000002E-5</v>
-      </c>
-      <c r="J20" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G20,J$14)</f>
-        <v>356</v>
-      </c>
-      <c r="K20" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G20,K$14)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G20,L$14)</f>
+      <c r="H21" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G21,H$15)</f>
+        <v>17445546</v>
+      </c>
+      <c r="I21" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G21,I$15)</f>
+        <v>7.9889999999999996E-5</v>
+      </c>
+      <c r="J21" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G21,J$15)</f>
+        <v>159</v>
+      </c>
+      <c r="K21" s="14" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G21,K$15)</f>
         <v>1</v>
       </c>
-      <c r="M20" s="20">
-        <f>RTD(progId,,BINACE_TRADE,$G20,M$14)</f>
-        <v>21057785</v>
-      </c>
-      <c r="N20" s="20">
-        <f>RTD(progId,,BINACE_TRADE,$G20,N$14)</f>
-        <v>21057785</v>
-      </c>
-      <c r="O20" s="31">
-        <f>RTD(progId,,BINACE_TRADE,$G20,O$14)</f>
-        <v>43248.890803784721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C21)</f>
-        <v>3.83697</v>
-      </c>
-      <c r="B21" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C21)</f>
-        <v>515.6</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="L21" s="14" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G21,L$15)</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="20">
+        <f>RTD(progId,,BINACE_TRADE,$G21,M$15)</f>
+        <v>21103240</v>
+      </c>
+      <c r="N21" s="20">
+        <f>RTD(progId,,BINACE_TRADE,$G21,N$15)</f>
+        <v>21103240</v>
+      </c>
+      <c r="O21" s="31">
+        <f>RTD(progId,,BINACE_TRADE,$G21,O$15)</f>
+        <v>43249.783958333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,A$15,$C22)</f>
+        <v>1</v>
+      </c>
+      <c r="B22" s="17">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,B$15,$C22)</f>
+        <v>561.05999999999995</v>
+      </c>
+      <c r="C22" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D21" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C21)</f>
-        <v>516.99</v>
-      </c>
-      <c r="E21" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C21)</f>
-        <v>14</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="D22" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,D$15,$C22)</f>
+        <v>562.53</v>
+      </c>
+      <c r="E22" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,E$15,$C22)</f>
+        <v>3.3609200000000001</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G21,H$14)</f>
-        <v>17835966</v>
-      </c>
-      <c r="I21" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G21,I$14)</f>
-        <v>8.3899999999999993E-6</v>
-      </c>
-      <c r="J21" s="14">
-        <f>RTD(progId,,BINACE_TRADE,$G21,J$14)</f>
-        <v>14832</v>
-      </c>
-      <c r="K21" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G21,K$14)</f>
+      <c r="H22" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G22,H$15)</f>
+        <v>17899718</v>
+      </c>
+      <c r="I22" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G22,I$15)</f>
+        <v>8.6300000000000004E-6</v>
+      </c>
+      <c r="J22" s="14">
+        <f>RTD(progId,,BINACE_TRADE,$G22,J$15)</f>
+        <v>6391</v>
+      </c>
+      <c r="K22" s="14" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G22,K$15)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="14" t="b">
-        <f>RTD(progId,,BINACE_TRADE,$G21,L$14)</f>
+      <c r="L22" s="14" t="b">
+        <f>RTD(progId,,BINACE_TRADE,$G22,L$15)</f>
         <v>1</v>
       </c>
-      <c r="M21" s="20">
-        <f>RTD(progId,,BINACE_TRADE,$G21,M$14)</f>
-        <v>28746194</v>
-      </c>
-      <c r="N21" s="20">
-        <f>RTD(progId,,BINACE_TRADE,$G21,N$14)</f>
-        <v>28746194</v>
-      </c>
-      <c r="O21" s="31">
-        <f>RTD(progId,,BINACE_TRADE,$G21,O$14)</f>
-        <v>43248.890785324074</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C22)</f>
-        <v>0.62243000000000004</v>
-      </c>
-      <c r="B22" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C22)</f>
-        <v>515.5</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="M22" s="20">
+        <f>RTD(progId,,BINACE_TRADE,$G22,M$15)</f>
+        <v>28850790</v>
+      </c>
+      <c r="N22" s="20">
+        <f>RTD(progId,,BINACE_TRADE,$G22,N$15)</f>
+        <v>28850790</v>
+      </c>
+      <c r="O22" s="31">
+        <f>RTD(progId,,BINACE_TRADE,$G22,O$15)</f>
+        <v>43249.784061412036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,A$15,$C23)</f>
+        <v>9.7972099999999998</v>
+      </c>
+      <c r="B23" s="17">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,B$15,$C23)</f>
+        <v>561.02</v>
+      </c>
+      <c r="C23" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D22" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C22)</f>
-        <v>517</v>
-      </c>
-      <c r="E22" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C22)</f>
-        <v>4.48665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C23)</f>
-        <v>0.31145</v>
-      </c>
-      <c r="B23" s="17">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C23)</f>
-        <v>515.49</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="D23" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,D$15,$C23)</f>
+        <v>562.57000000000005</v>
+      </c>
+      <c r="E23" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,E$15,$C23)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,A$15,$C24)</f>
+        <v>0.46034000000000003</v>
+      </c>
+      <c r="B24" s="17">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,B$15,$C24)</f>
+        <v>561</v>
+      </c>
+      <c r="C24" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D23" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C23)</f>
-        <v>517.03</v>
-      </c>
-      <c r="E23" s="18">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C23)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,A$14,$C24)</f>
-        <v>0.5</v>
-      </c>
-      <c r="B24" s="33">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,B$14,$C24)</f>
-        <v>515.48</v>
-      </c>
-      <c r="C24" s="34">
+      <c r="D24" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,D$15,$C24)</f>
+        <v>562.79999999999995</v>
+      </c>
+      <c r="E24" s="18">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,E$15,$C24)</f>
+        <v>1.2243200000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,A$15,$C25)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="B25" s="33">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,B$15,$C25)</f>
+        <v>560.94000000000005</v>
+      </c>
+      <c r="C25" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D24" s="35">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,D$14,$C24)</f>
-        <v>517.09</v>
-      </c>
-      <c r="E24" s="35">
-        <f>RTD(progId,,BINANCE_DEPTH,$C$14,E$14,$C24)</f>
-        <v>0.81560999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="D25" s="35">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,D$15,$C25)</f>
+        <v>563</v>
+      </c>
+      <c r="E25" s="35">
+        <f>RTD(progId,,BINANCE_DEPTH,$C$15,E$15,$C25)</f>
+        <v>3.5089999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <f>SUM(Table3[BID_DEPTH_SIZE])</f>
-        <v>70.949589999999986</v>
-      </c>
-      <c r="B25" s="15">
+        <v>39.953020000000002</v>
+      </c>
+      <c r="B26" s="15">
         <f>SUMPRODUCT(Table3[BID_DEPTH_SIZE],Table3[BID_DEPTH])</f>
-        <v>36607.535857200011</v>
-      </c>
-      <c r="C25" s="16">
-        <f>D25-B25</f>
-        <v>-1117.7994625000065</v>
-      </c>
-      <c r="D25" s="15">
+        <v>22421.048006099998</v>
+      </c>
+      <c r="C26" s="16">
+        <f>D26-B26</f>
+        <v>-14380.715746299997</v>
+      </c>
+      <c r="D26" s="15">
         <f>SUMPRODUCT(Table3[ASK_DEPTH_SIZE],Table3[ASK_DEPTH])</f>
-        <v>35489.736394700005</v>
-      </c>
-      <c r="E25" s="13">
+        <v>8040.3322598000004</v>
+      </c>
+      <c r="E26" s="13">
         <f>SUM(Table3[ASK_DEPTH_SIZE])</f>
-        <v>68.66313000000001</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32">
-        <f>B15-B24</f>
-        <v>0.52999999999997272</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="32">
-        <f>D15-D24</f>
-        <v>-0.84000000000003183</v>
+        <v>14.295020000000001</v>
       </c>
       <c r="F26" s="9"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="32">
+        <f>B16-B25</f>
+        <v>0.58999999999991815</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="32">
+        <f>D16-D25</f>
+        <v>-1.0499999999999545</v>
+      </c>
+      <c r="F27" s="9"/>
       <c r="I27" s="4"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="1" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D29" s="29">
         <v>5</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28"/>
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>44</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>45</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>46</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" t="s">
         <v>35</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J30" t="s">
         <v>18</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K30" t="s">
         <v>49</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L30" t="s">
         <v>50</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M30" t="s">
         <v>47</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N30" t="s">
         <v>14</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O30" t="s">
         <v>48</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P30" t="s">
         <v>51</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="14">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,B$29,$D$28)</f>
-        <v>519.95000000000005</v>
-      </c>
-      <c r="C30" s="14">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,C$29,$D$28)</f>
-        <v>521</v>
-      </c>
-      <c r="D30" s="14">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,D$29,$D$28)</f>
-        <v>516</v>
-      </c>
-      <c r="E30" s="14">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,E$29,$D$28)</f>
-        <v>516.01</v>
-      </c>
-      <c r="F30" s="24">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,F$29,$D$28)</f>
-        <v>43248.875</v>
-      </c>
-      <c r="G30" s="24">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,G$29,$D$28)</f>
-        <v>43248.916666655095</v>
-      </c>
-      <c r="H30" s="14" t="b">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,H$29,$D$28)</f>
+      <c r="B31" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,B$30,$D$29)</f>
+        <v>568.87</v>
+      </c>
+      <c r="C31" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,C$30,$D$29)</f>
+        <v>569.28</v>
+      </c>
+      <c r="D31" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,D$30,$D$29)</f>
+        <v>558.89</v>
+      </c>
+      <c r="E31" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,E$30,$D$29)</f>
+        <v>561.5</v>
+      </c>
+      <c r="F31" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,F$30,$D$29)</f>
+        <v>43249.75</v>
+      </c>
+      <c r="G31" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,G$30,$D$29)</f>
+        <v>43249.791666655095</v>
+      </c>
+      <c r="H31" s="14" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,H$30,$D$29)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,I$29,$D$28)</f>
-        <v>1244624.1148619</v>
-      </c>
-      <c r="J30" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,J$29,$D$28)</f>
-        <v>2400.8609299999998</v>
-      </c>
-      <c r="K30" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,K$29,$D$28)</f>
-        <v>1374.9215300000001</v>
-      </c>
-      <c r="L30" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,L$29,$D$28)</f>
-        <v>712585.4998783</v>
-      </c>
-      <c r="M30" s="14" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,M$29,$D$28)</f>
+      <c r="I31" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,I$30,$D$29)</f>
+        <v>4395155.6982738003</v>
+      </c>
+      <c r="J31" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,J$30,$D$29)</f>
+        <v>7799.1461900000004</v>
+      </c>
+      <c r="K31" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,K$30,$D$29)</f>
+        <v>2536.66786</v>
+      </c>
+      <c r="L31" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,L$30,$D$29)</f>
+        <v>1428531.5791461</v>
+      </c>
+      <c r="M31" s="14" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,M$30,$D$29)</f>
         <v>OneHour</v>
       </c>
-      <c r="N30" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,N$29,$D$28)</f>
-        <v>1526</v>
-      </c>
-      <c r="O30" s="25">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,O$29,$D$28)</f>
-        <v>43248.890757743058</v>
-      </c>
-      <c r="P30" s="14">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,P$29,$D$28)</f>
-        <v>26630918</v>
-      </c>
-      <c r="Q30" s="14">
-        <f>RTD(progId,,BINANCE_CANDLE,$A30,Q$29,$D$28)</f>
-        <v>26632443</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="N31" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,N$30,$D$29)</f>
+        <v>4838</v>
+      </c>
+      <c r="O31" s="25">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,O$30,$D$29)</f>
+        <v>43249.784061620368</v>
+      </c>
+      <c r="P31" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,P$30,$D$29)</f>
+        <v>26746085</v>
+      </c>
+      <c r="Q31" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A31,Q$30,$D$29)</f>
+        <v>26750922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="14">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,B$29,$D$28)</f>
-        <v>7115.02</v>
-      </c>
-      <c r="C31" s="14">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,C$29,$D$28)</f>
-        <v>7125.15</v>
-      </c>
-      <c r="D31" s="14">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,D$29,$D$28)</f>
-        <v>7086.59</v>
-      </c>
-      <c r="E31" s="14">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,E$29,$D$28)</f>
-        <v>7088</v>
-      </c>
-      <c r="F31" s="24">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,F$29,$D$28)</f>
-        <v>43248.875</v>
-      </c>
-      <c r="G31" s="24">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,G$29,$D$28)</f>
-        <v>43248.916666655095</v>
-      </c>
-      <c r="H31" s="14" t="b">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,H$29,$D$28)</f>
+      <c r="B32" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,B$30,$D$29)</f>
+        <v>7500.5</v>
+      </c>
+      <c r="C32" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,C$30,$D$29)</f>
+        <v>7505</v>
+      </c>
+      <c r="D32" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,D$30,$D$29)</f>
+        <v>7435.02</v>
+      </c>
+      <c r="E32" s="14">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,E$30,$D$29)</f>
+        <v>7444.37</v>
+      </c>
+      <c r="F32" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,F$30,$D$29)</f>
+        <v>43249.75</v>
+      </c>
+      <c r="G32" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,G$30,$D$29)</f>
+        <v>43249.791666655095</v>
+      </c>
+      <c r="H32" s="14" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,H$30,$D$29)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,I$29,$D$28)</f>
-        <v>2033977.1468251499</v>
-      </c>
-      <c r="J31" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,J$29,$D$28)</f>
-        <v>286.28254600000002</v>
-      </c>
-      <c r="K31" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,K$29,$D$28)</f>
-        <v>156.71992800000001</v>
-      </c>
-      <c r="L31" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,L$29,$D$28)</f>
-        <v>1113491.8980024699</v>
-      </c>
-      <c r="M31" s="14" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,M$29,$D$28)</f>
+      <c r="I32" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,I$30,$D$29)</f>
+        <v>10197293.9071803</v>
+      </c>
+      <c r="J32" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,J$30,$D$29)</f>
+        <v>1365.257846</v>
+      </c>
+      <c r="K32" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,K$30,$D$29)</f>
+        <v>622.820652</v>
+      </c>
+      <c r="L32" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,L$30,$D$29)</f>
+        <v>4651521.2728654202</v>
+      </c>
+      <c r="M32" s="14" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,M$30,$D$29)</f>
         <v>OneHour</v>
       </c>
-      <c r="N31" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,N$29,$D$28)</f>
-        <v>2178</v>
-      </c>
-      <c r="O31" s="25">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,O$29,$D$28)</f>
-        <v>43248.890795729167</v>
-      </c>
-      <c r="P31" s="28">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,P$29,$D$28)</f>
-        <v>46505338</v>
-      </c>
-      <c r="Q31" s="28">
-        <f>RTD(progId,,BINANCE_CANDLE,$A31,Q$29,$D$28)</f>
-        <v>46507515</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="N32" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,N$30,$D$29)</f>
+        <v>9898</v>
+      </c>
+      <c r="O32" s="25">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,O$30,$D$29)</f>
+        <v>43249.784073402778</v>
+      </c>
+      <c r="P32" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,P$30,$D$29)</f>
+        <v>46715951</v>
+      </c>
+      <c r="Q32" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A32,Q$30,$D$29)</f>
+        <v>46725848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="20">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,B$29,$D$28)</f>
-        <v>8.4700000000000002E-6</v>
-      </c>
-      <c r="C32" s="20">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,C$29,$D$28)</f>
-        <v>8.4800000000000001E-6</v>
-      </c>
-      <c r="D32" s="20">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,D$29,$D$28)</f>
-        <v>8.3899999999999993E-6</v>
-      </c>
-      <c r="E32" s="20">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,E$29,$D$28)</f>
-        <v>8.3899999999999993E-6</v>
-      </c>
-      <c r="F32" s="24">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,F$29,$D$28)</f>
-        <v>43248.875</v>
-      </c>
-      <c r="G32" s="24">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,G$29,$D$28)</f>
-        <v>43248.916666655095</v>
-      </c>
-      <c r="H32" s="20" t="b">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,H$29,$D$28)</f>
+      <c r="B33" s="20">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,B$30,$D$29)</f>
+        <v>8.6400000000000003E-6</v>
+      </c>
+      <c r="C33" s="20">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,C$30,$D$29)</f>
+        <v>8.7499999999999992E-6</v>
+      </c>
+      <c r="D33" s="20">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,D$30,$D$29)</f>
+        <v>8.6100000000000006E-6</v>
+      </c>
+      <c r="E33" s="20">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,E$30,$D$29)</f>
+        <v>8.6300000000000004E-6</v>
+      </c>
+      <c r="F33" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,F$30,$D$29)</f>
+        <v>43249.75</v>
+      </c>
+      <c r="G33" s="24">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,G$30,$D$29)</f>
+        <v>43249.791666655095</v>
+      </c>
+      <c r="H33" s="20" t="b">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,H$30,$D$29)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,I$29,$D$28)</f>
-        <v>139.10430636000001</v>
-      </c>
-      <c r="J32" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,J$29,$D$28)</f>
-        <v>16507907</v>
-      </c>
-      <c r="K32" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,K$29,$D$28)</f>
-        <v>4721913</v>
-      </c>
-      <c r="L32" s="26">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,L$29,$D$28)</f>
-        <v>39.787702430000003</v>
-      </c>
-      <c r="M32" s="20" t="str">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,M$29,$D$28)</f>
+      <c r="I33" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,I$30,$D$29)</f>
+        <v>347.96116496000002</v>
+      </c>
+      <c r="J33" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,J$30,$D$29)</f>
+        <v>40105150</v>
+      </c>
+      <c r="K33" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,K$30,$D$29)</f>
+        <v>19117125</v>
+      </c>
+      <c r="L33" s="26">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,L$30,$D$29)</f>
+        <v>165.94695024999999</v>
+      </c>
+      <c r="M33" s="20" t="str">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,M$30,$D$29)</f>
         <v>OneHour</v>
       </c>
-      <c r="N32" s="27">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,N$29,$D$28)</f>
-        <v>1080</v>
-      </c>
-      <c r="O32" s="25">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,O$29,$D$28)</f>
-        <v>43248.890785381947</v>
-      </c>
-      <c r="P32" s="28">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,P$29,$D$28)</f>
-        <v>28745115</v>
-      </c>
-      <c r="Q32" s="28">
-        <f>RTD(progId,,BINANCE_CANDLE,$A32,Q$29,$D$28)</f>
-        <v>28746194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I33" s="4"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="N33" s="27">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,N$30,$D$29)</f>
+        <v>3732</v>
+      </c>
+      <c r="O33" s="25">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,O$30,$D$29)</f>
+        <v>43249.784061446757</v>
+      </c>
+      <c r="P33" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,P$30,$D$29)</f>
+        <v>28847059</v>
+      </c>
+      <c r="Q33" s="28">
+        <f>RTD(progId,,BINANCE_CANDLE,$A33,Q$30,$D$29)</f>
+        <v>28850790</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="1" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D35" s="29">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+    <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="1" t="s">
+   